--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="108">
   <si>
     <t>Subtarea</t>
   </si>
@@ -306,13 +306,52 @@
   </si>
   <si>
     <t>Sonidos textos sala 15</t>
+  </si>
+  <si>
+    <t>ordenar inventario</t>
+  </si>
+  <si>
+    <t>bugs</t>
+  </si>
+  <si>
+    <t>game over</t>
+  </si>
+  <si>
+    <t>musica</t>
+  </si>
+  <si>
+    <t>guardar</t>
+  </si>
+  <si>
+    <t>continuar</t>
+  </si>
+  <si>
+    <t>continuar desde origen</t>
+  </si>
+  <si>
+    <t>guardar numero de muertes</t>
+  </si>
+  <si>
+    <t>Complete game</t>
+  </si>
+  <si>
+    <t>congratulations scene</t>
+  </si>
+  <si>
+    <t>show ranking</t>
+  </si>
+  <si>
+    <t>meme radef "return of radef</t>
+  </si>
+  <si>
+    <t>animacion/escena</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -388,6 +427,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -409,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1158,11 +1205,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1200,12 +1256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,9 +1275,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1318,9 +1365,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,6 +1484,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1449,52 +1535,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1503,55 +1544,46 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1563,10 +1595,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1575,26 +1622,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1651,7 +1725,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$117:$W$117</c:f>
+              <c:f>Hoja1!$J$123:$W$123</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2099,10 +2173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W138"/>
+  <dimension ref="A1:W145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2131,160 +2205,164 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="46" t="s">
+      <c r="C3" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H3" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="40" t="s">
+      <c r="I3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="45">
         <v>43068</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K3" s="41">
         <v>43069</v>
       </c>
-      <c r="L3" s="48">
+      <c r="L3" s="45">
         <v>43070</v>
       </c>
-      <c r="M3" s="44">
+      <c r="M3" s="41">
         <v>43071</v>
       </c>
-      <c r="N3" s="48">
+      <c r="N3" s="45">
         <v>43072</v>
       </c>
-      <c r="O3" s="44">
+      <c r="O3" s="41">
         <v>43073</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="45">
         <v>43074</v>
       </c>
-      <c r="Q3" s="44">
+      <c r="Q3" s="41">
         <v>43075</v>
       </c>
-      <c r="R3" s="48">
+      <c r="R3" s="45">
         <v>43076</v>
       </c>
-      <c r="S3" s="44">
+      <c r="S3" s="41">
         <v>43077</v>
       </c>
-      <c r="T3" s="48">
+      <c r="T3" s="45">
         <v>43078</v>
       </c>
-      <c r="U3" s="44">
+      <c r="U3" s="41">
         <v>43079</v>
       </c>
-      <c r="V3" s="48">
+      <c r="V3" s="45">
         <v>43080</v>
       </c>
-      <c r="W3" s="44">
+      <c r="W3" s="41">
         <v>43081</v>
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="132" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38" t="s">
+      <c r="E4" s="35"/>
+      <c r="F4" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="25">
+      <c r="G4" s="34">
+        <v>1</v>
+      </c>
+      <c r="H4" s="36"/>
+      <c r="I4" s="22">
         <f>SUM(J4:W4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="63"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="66"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="62"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="103"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="58" t="s">
+      <c r="B5" s="133"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="54" t="s">
         <v>63</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="25">
+      <c r="G5" s="54">
+        <v>1</v>
+      </c>
+      <c r="H5" s="18"/>
+      <c r="I5" s="22">
         <f t="shared" ref="I5:I52" si="0">SUM(J5:W5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="68"/>
-      <c r="L5" s="68"/>
-      <c r="M5" s="68"/>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="69"/>
-      <c r="R5" s="69"/>
-      <c r="S5" s="69"/>
-      <c r="T5" s="69"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="70"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="66"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="103"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="133"/>
+      <c r="C6" s="53" t="s">
         <v>61</v>
       </c>
       <c r="D6" s="4"/>
@@ -2292,30 +2370,32 @@
       <c r="F6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="25">
+      <c r="G6" s="54">
+        <v>1</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="69"/>
-      <c r="S6" s="69"/>
-      <c r="T6" s="69"/>
-      <c r="U6" s="69"/>
-      <c r="V6" s="69"/>
-      <c r="W6" s="70"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="66"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="103"/>
-      <c r="C7" s="57" t="s">
+      <c r="B7" s="133"/>
+      <c r="C7" s="53" t="s">
         <v>78</v>
       </c>
       <c r="D7" s="4"/>
@@ -2323,27 +2403,29 @@
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
-      <c r="M7" s="68"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="70"/>
+      <c r="G7" s="54">
+        <v>1</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="103"/>
-      <c r="C8" s="113" t="s">
+      <c r="B8" s="133"/>
+      <c r="C8" s="141" t="s">
         <v>55</v>
       </c>
       <c r="D8" s="4" t="s">
@@ -2353,124 +2435,132 @@
       <c r="F8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="25">
+      <c r="G8" s="54">
+        <v>1</v>
+      </c>
+      <c r="H8" s="18"/>
+      <c r="I8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="69"/>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="70"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="65"/>
+      <c r="R8" s="65"/>
+      <c r="S8" s="65"/>
+      <c r="T8" s="65"/>
+      <c r="U8" s="65"/>
+      <c r="V8" s="65"/>
+      <c r="W8" s="66"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="103"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="60" t="s">
+      <c r="B9" s="133"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="56" t="s">
         <v>65</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="25">
+      <c r="G9" s="54">
+        <v>1</v>
+      </c>
+      <c r="H9" s="18"/>
+      <c r="I9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="69"/>
-      <c r="W9" s="70"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
+      <c r="R9" s="65"/>
+      <c r="S9" s="65"/>
+      <c r="T9" s="65"/>
+      <c r="U9" s="65"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="104"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="27" t="s">
+      <c r="B10" s="134"/>
+      <c r="C10" s="143"/>
+      <c r="D10" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="29"/>
+      <c r="E10" s="26"/>
       <c r="F10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="56">
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
+      <c r="H10" s="28"/>
+      <c r="I10" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="74"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="70"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B11" s="105" t="s">
+      <c r="B11" s="130" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="50">
+      <c r="G11" s="40">
+        <v>4</v>
+      </c>
+      <c r="H11" s="18"/>
+      <c r="I11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="76"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="78"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="72"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="72"/>
+      <c r="N11" s="72"/>
+      <c r="O11" s="72"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="74"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="105"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="4" t="s">
         <v>69</v>
       </c>
@@ -2479,94 +2569,100 @@
       <c r="F12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="41">
+      <c r="G12" s="4">
+        <v>4</v>
+      </c>
+      <c r="H12" s="19"/>
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="105"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="130"/>
+      <c r="C13" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="19" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="41">
+      <c r="G13" s="33">
+        <v>4</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="106"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="131"/>
+      <c r="C14" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="29" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="42">
+      <c r="G14" s="25">
+        <v>4</v>
+      </c>
+      <c r="H14" s="27"/>
+      <c r="I14" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="79"/>
-      <c r="K14" s="80"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="80"/>
-      <c r="O14" s="80"/>
-      <c r="P14" s="80"/>
-      <c r="Q14" s="80"/>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
+      <c r="J14" s="75"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
     </row>
     <row r="15" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="145" t="s">
+      <c r="B15" s="124" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="105" t="s">
         <v>79</v>
       </c>
       <c r="D15" s="14"/>
@@ -2577,818 +2673,818 @@
       <c r="G15" s="6">
         <v>2</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <v>2</v>
       </c>
-      <c r="I15" s="26">
+      <c r="I15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="64"/>
-      <c r="K15" s="81"/>
-      <c r="L15" s="81"/>
-      <c r="M15" s="81"/>
-      <c r="N15" s="81"/>
-      <c r="O15" s="81"/>
-      <c r="P15" s="82"/>
-      <c r="Q15" s="82"/>
-      <c r="R15" s="82"/>
-      <c r="S15" s="82"/>
-      <c r="T15" s="82"/>
-      <c r="U15" s="82"/>
-      <c r="V15" s="82"/>
-      <c r="W15" s="83"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="79"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="146"/>
-      <c r="C16" s="139" t="s">
+      <c r="B16" s="125"/>
+      <c r="C16" s="106" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="58" t="s">
+      <c r="F16" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="6">
         <v>2</v>
       </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="25">
+      <c r="H16" s="18"/>
+      <c r="I16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="85"/>
-      <c r="Q16" s="85"/>
-      <c r="R16" s="85"/>
-      <c r="S16" s="85"/>
-      <c r="T16" s="85"/>
-      <c r="U16" s="85"/>
-      <c r="V16" s="85"/>
-      <c r="W16" s="86"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
+      <c r="P16" s="81"/>
+      <c r="Q16" s="81"/>
+      <c r="R16" s="81"/>
+      <c r="S16" s="81"/>
+      <c r="T16" s="81"/>
+      <c r="U16" s="81"/>
+      <c r="V16" s="81"/>
+      <c r="W16" s="82"/>
     </row>
     <row r="17" spans="2:23" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="146"/>
-      <c r="C17" s="140" t="s">
+      <c r="B17" s="125"/>
+      <c r="C17" s="137" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="58" t="s">
+      <c r="F17" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="6">
         <v>1</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="25">
+      <c r="H17" s="18"/>
+      <c r="I17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="84"/>
-      <c r="O17" s="84"/>
-      <c r="P17" s="85"/>
-      <c r="Q17" s="85"/>
-      <c r="R17" s="85"/>
-      <c r="S17" s="85"/>
-      <c r="T17" s="85"/>
-      <c r="U17" s="85"/>
-      <c r="V17" s="85"/>
-      <c r="W17" s="86"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
+      <c r="P17" s="81"/>
+      <c r="Q17" s="81"/>
+      <c r="R17" s="81"/>
+      <c r="S17" s="81"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="81"/>
+      <c r="V17" s="81"/>
+      <c r="W17" s="82"/>
     </row>
     <row r="18" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="146"/>
-      <c r="C18" s="141"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="138"/>
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="58" t="s">
+      <c r="F18" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="6">
         <v>1</v>
       </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="25">
+      <c r="H18" s="18"/>
+      <c r="I18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="85"/>
-      <c r="Q18" s="85"/>
-      <c r="R18" s="85"/>
-      <c r="S18" s="85"/>
-      <c r="T18" s="85"/>
-      <c r="U18" s="85"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="86"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="81"/>
+      <c r="R18" s="81"/>
+      <c r="S18" s="81"/>
+      <c r="T18" s="81"/>
+      <c r="U18" s="81"/>
+      <c r="V18" s="81"/>
+      <c r="W18" s="82"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="146"/>
-      <c r="C19" s="142" t="s">
+      <c r="B19" s="125"/>
+      <c r="C19" s="114" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="58">
+      <c r="G19" s="54">
         <v>3</v>
       </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="25">
+      <c r="H19" s="18"/>
+      <c r="I19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="68"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="85"/>
-      <c r="Q19" s="85"/>
-      <c r="R19" s="85"/>
-      <c r="S19" s="85"/>
-      <c r="T19" s="85"/>
-      <c r="U19" s="85"/>
-      <c r="V19" s="85"/>
-      <c r="W19" s="86"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="81"/>
+      <c r="Q19" s="81"/>
+      <c r="R19" s="81"/>
+      <c r="S19" s="81"/>
+      <c r="T19" s="81"/>
+      <c r="U19" s="81"/>
+      <c r="V19" s="81"/>
+      <c r="W19" s="82"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="146"/>
-      <c r="C20" s="143"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E20" s="4"/>
-      <c r="F20" s="58" t="s">
+      <c r="F20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="58">
+      <c r="G20" s="54">
         <v>5</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="25">
+      <c r="H20" s="18"/>
+      <c r="I20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="68"/>
-      <c r="K20" s="84"/>
-      <c r="L20" s="84"/>
-      <c r="M20" s="84"/>
-      <c r="N20" s="84"/>
-      <c r="O20" s="84"/>
-      <c r="P20" s="85"/>
-      <c r="Q20" s="85"/>
-      <c r="R20" s="85"/>
-      <c r="S20" s="85"/>
-      <c r="T20" s="85"/>
-      <c r="U20" s="85"/>
-      <c r="V20" s="85"/>
-      <c r="W20" s="86"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="81"/>
+      <c r="Q20" s="81"/>
+      <c r="R20" s="81"/>
+      <c r="S20" s="81"/>
+      <c r="T20" s="81"/>
+      <c r="U20" s="81"/>
+      <c r="V20" s="81"/>
+      <c r="W20" s="82"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="146"/>
-      <c r="C21" s="143"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E21" s="4"/>
-      <c r="F21" s="58" t="s">
+      <c r="F21" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="58">
+      <c r="G21" s="54">
         <v>3</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="25">
+      <c r="H21" s="18"/>
+      <c r="I21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="68"/>
-      <c r="K21" s="84"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
-      <c r="P21" s="85"/>
-      <c r="Q21" s="85"/>
-      <c r="R21" s="85"/>
-      <c r="S21" s="85"/>
-      <c r="T21" s="85"/>
-      <c r="U21" s="85"/>
-      <c r="V21" s="85"/>
-      <c r="W21" s="86"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
+      <c r="P21" s="81"/>
+      <c r="Q21" s="81"/>
+      <c r="R21" s="81"/>
+      <c r="S21" s="81"/>
+      <c r="T21" s="81"/>
+      <c r="U21" s="81"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="82"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="146"/>
-      <c r="C22" s="143"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="115"/>
       <c r="D22" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E22" s="4"/>
-      <c r="F22" s="58" t="s">
+      <c r="F22" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="6">
         <v>4</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="25">
+      <c r="H22" s="18"/>
+      <c r="I22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="68"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="84"/>
-      <c r="P22" s="85"/>
-      <c r="Q22" s="85"/>
-      <c r="R22" s="85"/>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="86"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="81"/>
+      <c r="R22" s="81"/>
+      <c r="S22" s="81"/>
+      <c r="T22" s="81"/>
+      <c r="U22" s="81"/>
+      <c r="V22" s="81"/>
+      <c r="W22" s="82"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="146"/>
-      <c r="C23" s="143"/>
+      <c r="B23" s="125"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E23" s="4"/>
-      <c r="F23" s="58" t="s">
+      <c r="F23" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="58">
+      <c r="G23" s="54">
         <v>4</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="25">
+      <c r="H23" s="18"/>
+      <c r="I23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="68"/>
-      <c r="K23" s="84"/>
-      <c r="L23" s="84"/>
-      <c r="M23" s="84"/>
-      <c r="N23" s="84"/>
-      <c r="O23" s="84"/>
-      <c r="P23" s="85"/>
-      <c r="Q23" s="85"/>
-      <c r="R23" s="85"/>
-      <c r="S23" s="85"/>
-      <c r="T23" s="85"/>
-      <c r="U23" s="85"/>
-      <c r="V23" s="85"/>
-      <c r="W23" s="86"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
+      <c r="P23" s="81"/>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81"/>
+      <c r="S23" s="81"/>
+      <c r="T23" s="81"/>
+      <c r="U23" s="81"/>
+      <c r="V23" s="81"/>
+      <c r="W23" s="82"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="146"/>
-      <c r="C24" s="143"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="115"/>
       <c r="D24" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E24" s="4"/>
-      <c r="F24" s="58" t="s">
+      <c r="F24" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="58">
+      <c r="G24" s="54">
         <v>4</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="25">
+      <c r="H24" s="18"/>
+      <c r="I24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="68"/>
-      <c r="K24" s="84"/>
-      <c r="L24" s="84"/>
-      <c r="M24" s="84"/>
-      <c r="N24" s="84"/>
-      <c r="O24" s="84"/>
-      <c r="P24" s="85"/>
-      <c r="Q24" s="85"/>
-      <c r="R24" s="85"/>
-      <c r="S24" s="85"/>
-      <c r="T24" s="85"/>
-      <c r="U24" s="85"/>
-      <c r="V24" s="85"/>
-      <c r="W24" s="86"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="80"/>
+      <c r="L24" s="80"/>
+      <c r="M24" s="80"/>
+      <c r="N24" s="80"/>
+      <c r="O24" s="80"/>
+      <c r="P24" s="81"/>
+      <c r="Q24" s="81"/>
+      <c r="R24" s="81"/>
+      <c r="S24" s="81"/>
+      <c r="T24" s="81"/>
+      <c r="U24" s="81"/>
+      <c r="V24" s="81"/>
+      <c r="W24" s="82"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="146"/>
-      <c r="C25" s="143"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="115"/>
       <c r="D25" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="58" t="s">
+      <c r="F25" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="54">
         <v>4</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="25">
+      <c r="H25" s="18"/>
+      <c r="I25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="68"/>
-      <c r="K25" s="84"/>
-      <c r="L25" s="84"/>
-      <c r="M25" s="84"/>
-      <c r="N25" s="84"/>
-      <c r="O25" s="84"/>
-      <c r="P25" s="85"/>
-      <c r="Q25" s="85"/>
-      <c r="R25" s="85"/>
-      <c r="S25" s="85"/>
-      <c r="T25" s="85"/>
-      <c r="U25" s="85"/>
-      <c r="V25" s="85"/>
-      <c r="W25" s="86"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="80"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
+      <c r="R25" s="81"/>
+      <c r="S25" s="81"/>
+      <c r="T25" s="81"/>
+      <c r="U25" s="81"/>
+      <c r="V25" s="81"/>
+      <c r="W25" s="82"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146"/>
-      <c r="C26" s="143"/>
+      <c r="B26" s="125"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="4"/>
-      <c r="F26" s="58" t="s">
+      <c r="F26" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G26" s="58">
+      <c r="G26" s="54">
         <v>4</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="25">
+      <c r="H26" s="18"/>
+      <c r="I26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="68"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="84"/>
-      <c r="P26" s="85"/>
-      <c r="Q26" s="85"/>
-      <c r="R26" s="85"/>
-      <c r="S26" s="85"/>
-      <c r="T26" s="85"/>
-      <c r="U26" s="85"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="86"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="80"/>
+      <c r="N26" s="80"/>
+      <c r="O26" s="80"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81"/>
+      <c r="S26" s="81"/>
+      <c r="T26" s="81"/>
+      <c r="U26" s="81"/>
+      <c r="V26" s="81"/>
+      <c r="W26" s="82"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="146"/>
-      <c r="C27" s="143"/>
+      <c r="B27" s="125"/>
+      <c r="C27" s="115"/>
       <c r="D27" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E27" s="4"/>
-      <c r="F27" s="58" t="s">
+      <c r="F27" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="58">
+      <c r="G27" s="54">
         <v>4</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="25">
+      <c r="H27" s="18"/>
+      <c r="I27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="68"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
-      <c r="P27" s="85"/>
-      <c r="Q27" s="85"/>
-      <c r="R27" s="85"/>
-      <c r="S27" s="85"/>
-      <c r="T27" s="85"/>
-      <c r="U27" s="85"/>
-      <c r="V27" s="85"/>
-      <c r="W27" s="86"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="80"/>
+      <c r="O27" s="80"/>
+      <c r="P27" s="81"/>
+      <c r="Q27" s="81"/>
+      <c r="R27" s="81"/>
+      <c r="S27" s="81"/>
+      <c r="T27" s="81"/>
+      <c r="U27" s="81"/>
+      <c r="V27" s="81"/>
+      <c r="W27" s="82"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="146"/>
-      <c r="C28" s="143"/>
+      <c r="B28" s="125"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="4"/>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="58">
+      <c r="G28" s="54">
         <v>4</v>
       </c>
-      <c r="H28" s="20"/>
-      <c r="I28" s="25">
+      <c r="H28" s="18"/>
+      <c r="I28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="68"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="84"/>
-      <c r="P28" s="85"/>
-      <c r="Q28" s="85"/>
-      <c r="R28" s="85"/>
-      <c r="S28" s="85"/>
-      <c r="T28" s="85"/>
-      <c r="U28" s="85"/>
-      <c r="V28" s="85"/>
-      <c r="W28" s="86"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="80"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="80"/>
+      <c r="N28" s="80"/>
+      <c r="O28" s="80"/>
+      <c r="P28" s="81"/>
+      <c r="Q28" s="81"/>
+      <c r="R28" s="81"/>
+      <c r="S28" s="81"/>
+      <c r="T28" s="81"/>
+      <c r="U28" s="81"/>
+      <c r="V28" s="81"/>
+      <c r="W28" s="82"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="146"/>
-      <c r="C29" s="143"/>
+      <c r="B29" s="125"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E29" s="4"/>
-      <c r="F29" s="58" t="s">
+      <c r="F29" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="58">
+      <c r="G29" s="54">
         <v>4</v>
       </c>
-      <c r="H29" s="20"/>
-      <c r="I29" s="25">
+      <c r="H29" s="18"/>
+      <c r="I29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="68"/>
-      <c r="K29" s="84"/>
-      <c r="L29" s="84"/>
-      <c r="M29" s="84"/>
-      <c r="N29" s="84"/>
-      <c r="O29" s="84"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="86"/>
+      <c r="J29" s="64"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
+      <c r="R29" s="81"/>
+      <c r="S29" s="81"/>
+      <c r="T29" s="81"/>
+      <c r="U29" s="81"/>
+      <c r="V29" s="81"/>
+      <c r="W29" s="82"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="146"/>
-      <c r="C30" s="143"/>
+      <c r="B30" s="125"/>
+      <c r="C30" s="115"/>
       <c r="D30" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="58">
+      <c r="G30" s="54">
         <v>4</v>
       </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="25">
+      <c r="H30" s="89"/>
+      <c r="I30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="68"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="84"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="86"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="80"/>
+      <c r="L30" s="80"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="80"/>
+      <c r="O30" s="80"/>
+      <c r="P30" s="81"/>
+      <c r="Q30" s="81"/>
+      <c r="R30" s="81"/>
+      <c r="S30" s="81"/>
+      <c r="T30" s="81"/>
+      <c r="U30" s="81"/>
+      <c r="V30" s="81"/>
+      <c r="W30" s="82"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="146"/>
-      <c r="C31" s="143"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="115"/>
       <c r="D31" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="58" t="s">
+      <c r="F31" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="58">
+      <c r="G31" s="54">
         <v>4</v>
       </c>
-      <c r="H31" s="94"/>
-      <c r="I31" s="25">
+      <c r="H31" s="90"/>
+      <c r="I31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="68"/>
-      <c r="K31" s="84"/>
-      <c r="L31" s="84"/>
-      <c r="M31" s="84"/>
-      <c r="N31" s="84"/>
-      <c r="O31" s="84"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="86"/>
+      <c r="J31" s="64"/>
+      <c r="K31" s="80"/>
+      <c r="L31" s="80"/>
+      <c r="M31" s="80"/>
+      <c r="N31" s="80"/>
+      <c r="O31" s="80"/>
+      <c r="P31" s="81"/>
+      <c r="Q31" s="81"/>
+      <c r="R31" s="81"/>
+      <c r="S31" s="81"/>
+      <c r="T31" s="81"/>
+      <c r="U31" s="81"/>
+      <c r="V31" s="81"/>
+      <c r="W31" s="82"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="146"/>
-      <c r="C32" s="143"/>
+      <c r="B32" s="125"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E32" s="4"/>
-      <c r="F32" s="58" t="s">
+      <c r="F32" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="58">
+      <c r="G32" s="54">
         <v>4</v>
       </c>
-      <c r="H32" s="94"/>
-      <c r="I32" s="25">
+      <c r="H32" s="90"/>
+      <c r="I32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="68"/>
-      <c r="K32" s="84"/>
-      <c r="L32" s="84"/>
-      <c r="M32" s="84"/>
-      <c r="N32" s="84"/>
-      <c r="O32" s="84"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="86"/>
+      <c r="J32" s="64"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="81"/>
+      <c r="Q32" s="81"/>
+      <c r="R32" s="81"/>
+      <c r="S32" s="81"/>
+      <c r="T32" s="81"/>
+      <c r="U32" s="81"/>
+      <c r="V32" s="81"/>
+      <c r="W32" s="82"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="146"/>
-      <c r="C33" s="143"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="115"/>
       <c r="D33" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E33" s="4"/>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="58">
+      <c r="G33" s="54">
         <v>4</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="25">
+      <c r="H33" s="90"/>
+      <c r="I33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="68"/>
-      <c r="K33" s="84"/>
-      <c r="L33" s="84"/>
-      <c r="M33" s="84"/>
-      <c r="N33" s="84"/>
-      <c r="O33" s="84"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="86"/>
+      <c r="J33" s="64"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
+      <c r="M33" s="80"/>
+      <c r="N33" s="80"/>
+      <c r="O33" s="80"/>
+      <c r="P33" s="81"/>
+      <c r="Q33" s="81"/>
+      <c r="R33" s="81"/>
+      <c r="S33" s="81"/>
+      <c r="T33" s="81"/>
+      <c r="U33" s="81"/>
+      <c r="V33" s="81"/>
+      <c r="W33" s="82"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="146"/>
-      <c r="C34" s="143"/>
+      <c r="B34" s="125"/>
+      <c r="C34" s="115"/>
       <c r="D34" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="4"/>
-      <c r="F34" s="58" t="s">
+      <c r="F34" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G34" s="58">
+      <c r="G34" s="54">
         <v>4</v>
       </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="25">
+      <c r="H34" s="90"/>
+      <c r="I34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="68"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="85"/>
-      <c r="Q34" s="85"/>
-      <c r="R34" s="85"/>
-      <c r="S34" s="85"/>
-      <c r="T34" s="85"/>
-      <c r="U34" s="85"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="86"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="80"/>
+      <c r="L34" s="80"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="80"/>
+      <c r="O34" s="80"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="81"/>
+      <c r="R34" s="81"/>
+      <c r="S34" s="81"/>
+      <c r="T34" s="81"/>
+      <c r="U34" s="81"/>
+      <c r="V34" s="81"/>
+      <c r="W34" s="82"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="146"/>
-      <c r="C35" s="143"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="25">
+      <c r="B35" s="125"/>
+      <c r="C35" s="115"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="68"/>
-      <c r="K35" s="84"/>
-      <c r="L35" s="84"/>
-      <c r="M35" s="84"/>
-      <c r="N35" s="84"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="85"/>
-      <c r="Q35" s="85"/>
-      <c r="R35" s="85"/>
-      <c r="S35" s="85"/>
-      <c r="T35" s="85"/>
-      <c r="U35" s="85"/>
-      <c r="V35" s="85"/>
-      <c r="W35" s="86"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="81"/>
+      <c r="Q35" s="81"/>
+      <c r="R35" s="81"/>
+      <c r="S35" s="81"/>
+      <c r="T35" s="81"/>
+      <c r="U35" s="81"/>
+      <c r="V35" s="81"/>
+      <c r="W35" s="82"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="146"/>
-      <c r="C36" s="143"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="96"/>
-      <c r="I36" s="25">
+      <c r="B36" s="125"/>
+      <c r="C36" s="115"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="68"/>
-      <c r="K36" s="84"/>
-      <c r="L36" s="84"/>
-      <c r="M36" s="84"/>
-      <c r="N36" s="84"/>
-      <c r="O36" s="84"/>
-      <c r="P36" s="85"/>
-      <c r="Q36" s="85"/>
-      <c r="R36" s="85"/>
-      <c r="S36" s="85"/>
-      <c r="T36" s="85"/>
-      <c r="U36" s="85"/>
-      <c r="V36" s="85"/>
-      <c r="W36" s="86"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
+      <c r="P36" s="81"/>
+      <c r="Q36" s="81"/>
+      <c r="R36" s="81"/>
+      <c r="S36" s="81"/>
+      <c r="T36" s="81"/>
+      <c r="U36" s="81"/>
+      <c r="V36" s="81"/>
+      <c r="W36" s="82"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="146"/>
-      <c r="C37" s="143"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="25">
+      <c r="B37" s="125"/>
+      <c r="C37" s="115"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="68"/>
-      <c r="K37" s="84"/>
-      <c r="L37" s="84"/>
-      <c r="M37" s="84"/>
-      <c r="N37" s="84"/>
-      <c r="O37" s="84"/>
-      <c r="P37" s="85"/>
-      <c r="Q37" s="85"/>
-      <c r="R37" s="85"/>
-      <c r="S37" s="85"/>
-      <c r="T37" s="85"/>
-      <c r="U37" s="85"/>
-      <c r="V37" s="85"/>
-      <c r="W37" s="86"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
+      <c r="P37" s="81"/>
+      <c r="Q37" s="81"/>
+      <c r="R37" s="81"/>
+      <c r="S37" s="81"/>
+      <c r="T37" s="81"/>
+      <c r="U37" s="81"/>
+      <c r="V37" s="81"/>
+      <c r="W37" s="82"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="146"/>
-      <c r="C38" s="143"/>
+      <c r="B38" s="125"/>
+      <c r="C38" s="115"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="25">
+      <c r="H38" s="89"/>
+      <c r="I38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="68"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="84"/>
-      <c r="P38" s="85"/>
-      <c r="Q38" s="85"/>
-      <c r="R38" s="85"/>
-      <c r="S38" s="85"/>
-      <c r="T38" s="85"/>
-      <c r="U38" s="85"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="86"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="R38" s="81"/>
+      <c r="S38" s="81"/>
+      <c r="T38" s="81"/>
+      <c r="U38" s="81"/>
+      <c r="V38" s="81"/>
+      <c r="W38" s="82"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="146"/>
-      <c r="C39" s="143"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="115"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="6"/>
-      <c r="H39" s="94"/>
-      <c r="I39" s="25">
+      <c r="H39" s="90"/>
+      <c r="I39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="68"/>
-      <c r="K39" s="84"/>
-      <c r="L39" s="84"/>
-      <c r="M39" s="84"/>
-      <c r="N39" s="84"/>
-      <c r="O39" s="84"/>
-      <c r="P39" s="85"/>
-      <c r="Q39" s="85"/>
-      <c r="R39" s="85"/>
-      <c r="S39" s="85"/>
-      <c r="T39" s="85"/>
-      <c r="U39" s="85"/>
-      <c r="V39" s="85"/>
-      <c r="W39" s="86"/>
+      <c r="J39" s="64"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
+      <c r="P39" s="81"/>
+      <c r="Q39" s="81"/>
+      <c r="R39" s="81"/>
+      <c r="S39" s="81"/>
+      <c r="T39" s="81"/>
+      <c r="U39" s="81"/>
+      <c r="V39" s="81"/>
+      <c r="W39" s="82"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="146"/>
-      <c r="C40" s="144"/>
+      <c r="B40" s="125"/>
+      <c r="C40" s="116"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="6"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="25">
+      <c r="H40" s="18"/>
+      <c r="I40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="K40" s="84"/>
-      <c r="L40" s="84"/>
-      <c r="M40" s="84"/>
-      <c r="N40" s="84"/>
-      <c r="O40" s="84"/>
-      <c r="P40" s="85"/>
-      <c r="Q40" s="85"/>
-      <c r="R40" s="85"/>
-      <c r="S40" s="85"/>
-      <c r="T40" s="85"/>
-      <c r="U40" s="85"/>
-      <c r="V40" s="85"/>
-      <c r="W40" s="86"/>
+      <c r="J40" s="64"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="81"/>
+      <c r="Q40" s="81"/>
+      <c r="R40" s="81"/>
+      <c r="S40" s="81"/>
+      <c r="T40" s="81"/>
+      <c r="U40" s="81"/>
+      <c r="V40" s="81"/>
+      <c r="W40" s="82"/>
     </row>
     <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="146"/>
-      <c r="C41" s="139" t="s">
+      <c r="B41" s="125"/>
+      <c r="C41" s="106" t="s">
         <v>54</v>
       </c>
       <c r="D41" s="4"/>
@@ -3399,31 +3495,31 @@
       <c r="G41" s="6">
         <v>4</v>
       </c>
-      <c r="H41" s="20">
+      <c r="H41" s="18">
         <v>3</v>
       </c>
-      <c r="I41" s="25">
+      <c r="I41" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J41" s="68"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="84"/>
-      <c r="P41" s="85"/>
-      <c r="Q41" s="85"/>
-      <c r="R41" s="85"/>
-      <c r="S41" s="85"/>
-      <c r="T41" s="85"/>
-      <c r="U41" s="85"/>
-      <c r="V41" s="85"/>
-      <c r="W41" s="86"/>
+      <c r="J41" s="64"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="81"/>
+      <c r="Q41" s="81"/>
+      <c r="R41" s="81"/>
+      <c r="S41" s="81"/>
+      <c r="T41" s="81"/>
+      <c r="U41" s="81"/>
+      <c r="V41" s="81"/>
+      <c r="W41" s="82"/>
     </row>
     <row r="42" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="146"/>
-      <c r="C42" s="139" t="s">
+      <c r="B42" s="125"/>
+      <c r="C42" s="106" t="s">
         <v>57</v>
       </c>
       <c r="D42" s="4"/>
@@ -3432,29 +3528,29 @@
         <v>16</v>
       </c>
       <c r="G42" s="6"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="25">
+      <c r="H42" s="18"/>
+      <c r="I42" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J42" s="68"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="84"/>
-      <c r="P42" s="85"/>
-      <c r="Q42" s="85"/>
-      <c r="R42" s="85"/>
-      <c r="S42" s="85"/>
-      <c r="T42" s="85"/>
-      <c r="U42" s="85"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="86"/>
+      <c r="J42" s="64"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="81"/>
+      <c r="R42" s="81"/>
+      <c r="S42" s="81"/>
+      <c r="T42" s="81"/>
+      <c r="U42" s="81"/>
+      <c r="V42" s="81"/>
+      <c r="W42" s="82"/>
     </row>
     <row r="43" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="146"/>
-      <c r="C43" s="139" t="s">
+      <c r="B43" s="125"/>
+      <c r="C43" s="106" t="s">
         <v>58</v>
       </c>
       <c r="D43" s="4"/>
@@ -3465,546 +3561,546 @@
       <c r="G43" s="6">
         <v>2</v>
       </c>
-      <c r="H43" s="20">
+      <c r="H43" s="18">
         <v>0.25</v>
       </c>
-      <c r="I43" s="25">
+      <c r="I43" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J43" s="68"/>
-      <c r="K43" s="84"/>
-      <c r="L43" s="84"/>
-      <c r="M43" s="84"/>
-      <c r="N43" s="84"/>
-      <c r="O43" s="84"/>
-      <c r="P43" s="85"/>
-      <c r="Q43" s="85"/>
-      <c r="R43" s="85"/>
-      <c r="S43" s="85"/>
-      <c r="T43" s="85"/>
-      <c r="U43" s="85"/>
-      <c r="V43" s="85"/>
-      <c r="W43" s="86"/>
+      <c r="J43" s="64"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="81"/>
+      <c r="Q43" s="81"/>
+      <c r="R43" s="81"/>
+      <c r="S43" s="81"/>
+      <c r="T43" s="81"/>
+      <c r="U43" s="81"/>
+      <c r="V43" s="81"/>
+      <c r="W43" s="82"/>
     </row>
     <row r="44" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="146"/>
-      <c r="C44" s="139"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="106"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="25">
+      <c r="H44" s="18"/>
+      <c r="I44" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J44" s="68"/>
-      <c r="K44" s="84"/>
-      <c r="L44" s="84"/>
-      <c r="M44" s="84"/>
-      <c r="N44" s="84"/>
-      <c r="O44" s="84"/>
-      <c r="P44" s="85"/>
-      <c r="Q44" s="85"/>
-      <c r="R44" s="85"/>
-      <c r="S44" s="85"/>
-      <c r="T44" s="85"/>
-      <c r="U44" s="85"/>
-      <c r="V44" s="85"/>
-      <c r="W44" s="86"/>
+      <c r="J44" s="64"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
+      <c r="P44" s="81"/>
+      <c r="Q44" s="81"/>
+      <c r="R44" s="81"/>
+      <c r="S44" s="81"/>
+      <c r="T44" s="81"/>
+      <c r="U44" s="81"/>
+      <c r="V44" s="81"/>
+      <c r="W44" s="82"/>
     </row>
     <row r="45" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="146"/>
-      <c r="C45" s="139"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="106"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="25">
+      <c r="H45" s="18"/>
+      <c r="I45" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J45" s="68"/>
-      <c r="K45" s="84"/>
-      <c r="L45" s="84"/>
-      <c r="M45" s="84"/>
-      <c r="N45" s="84"/>
-      <c r="O45" s="84"/>
-      <c r="P45" s="85"/>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85"/>
-      <c r="S45" s="85"/>
-      <c r="T45" s="85"/>
-      <c r="U45" s="85"/>
-      <c r="V45" s="85"/>
-      <c r="W45" s="86"/>
+      <c r="J45" s="64"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
+      <c r="P45" s="81"/>
+      <c r="Q45" s="81"/>
+      <c r="R45" s="81"/>
+      <c r="S45" s="81"/>
+      <c r="T45" s="81"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="81"/>
+      <c r="W45" s="82"/>
     </row>
     <row r="46" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="146"/>
-      <c r="C46" s="139"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="106"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="25">
+      <c r="H46" s="18"/>
+      <c r="I46" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J46" s="68"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="84"/>
-      <c r="P46" s="85"/>
-      <c r="Q46" s="85"/>
-      <c r="R46" s="85"/>
-      <c r="S46" s="85"/>
-      <c r="T46" s="85"/>
-      <c r="U46" s="85"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="86"/>
+      <c r="J46" s="64"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="81"/>
+      <c r="R46" s="81"/>
+      <c r="S46" s="81"/>
+      <c r="T46" s="81"/>
+      <c r="U46" s="81"/>
+      <c r="V46" s="81"/>
+      <c r="W46" s="82"/>
     </row>
     <row r="47" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="146"/>
-      <c r="C47" s="139"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="106"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="6"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="25">
+      <c r="H47" s="18"/>
+      <c r="I47" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J47" s="68"/>
-      <c r="K47" s="84"/>
-      <c r="L47" s="84"/>
-      <c r="M47" s="84"/>
-      <c r="N47" s="84"/>
-      <c r="O47" s="84"/>
-      <c r="P47" s="85"/>
-      <c r="Q47" s="85"/>
-      <c r="R47" s="85"/>
-      <c r="S47" s="85"/>
-      <c r="T47" s="85"/>
-      <c r="U47" s="85"/>
-      <c r="V47" s="85"/>
-      <c r="W47" s="86"/>
+      <c r="J47" s="64"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
+      <c r="P47" s="81"/>
+      <c r="Q47" s="81"/>
+      <c r="R47" s="81"/>
+      <c r="S47" s="81"/>
+      <c r="T47" s="81"/>
+      <c r="U47" s="81"/>
+      <c r="V47" s="81"/>
+      <c r="W47" s="82"/>
     </row>
     <row r="48" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="146"/>
-      <c r="C48" s="133"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="4"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="25">
+      <c r="H48" s="19"/>
+      <c r="I48" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J48" s="68"/>
-      <c r="K48" s="84"/>
-      <c r="L48" s="84"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="84"/>
-      <c r="O48" s="84"/>
-      <c r="P48" s="84"/>
-      <c r="Q48" s="85"/>
-      <c r="R48" s="85"/>
-      <c r="S48" s="85"/>
-      <c r="T48" s="85"/>
-      <c r="U48" s="85"/>
-      <c r="V48" s="85"/>
-      <c r="W48" s="86"/>
+      <c r="J48" s="64"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80"/>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
+      <c r="P48" s="80"/>
+      <c r="Q48" s="81"/>
+      <c r="R48" s="81"/>
+      <c r="S48" s="81"/>
+      <c r="T48" s="81"/>
+      <c r="U48" s="81"/>
+      <c r="V48" s="81"/>
+      <c r="W48" s="82"/>
     </row>
     <row r="49" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="146"/>
-      <c r="C49" s="133"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="4"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="25">
+      <c r="H49" s="18"/>
+      <c r="I49" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J49" s="68"/>
-      <c r="K49" s="84"/>
-      <c r="L49" s="84"/>
-      <c r="M49" s="84"/>
-      <c r="N49" s="84"/>
-      <c r="O49" s="84"/>
-      <c r="P49" s="84"/>
-      <c r="Q49" s="84"/>
-      <c r="R49" s="84"/>
-      <c r="S49" s="84"/>
-      <c r="T49" s="84"/>
-      <c r="U49" s="85"/>
-      <c r="V49" s="85"/>
-      <c r="W49" s="86"/>
+      <c r="J49" s="64"/>
+      <c r="K49" s="80"/>
+      <c r="L49" s="80"/>
+      <c r="M49" s="80"/>
+      <c r="N49" s="80"/>
+      <c r="O49" s="80"/>
+      <c r="P49" s="80"/>
+      <c r="Q49" s="80"/>
+      <c r="R49" s="80"/>
+      <c r="S49" s="80"/>
+      <c r="T49" s="80"/>
+      <c r="U49" s="81"/>
+      <c r="V49" s="81"/>
+      <c r="W49" s="82"/>
     </row>
     <row r="50" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="146"/>
-      <c r="C50" s="133"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
       <c r="G50" s="4"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="25">
+      <c r="H50" s="18"/>
+      <c r="I50" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J50" s="68"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="84"/>
-      <c r="P50" s="84"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="85"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="86"/>
+      <c r="J50" s="64"/>
+      <c r="K50" s="80"/>
+      <c r="L50" s="80"/>
+      <c r="M50" s="80"/>
+      <c r="N50" s="80"/>
+      <c r="O50" s="80"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="80"/>
+      <c r="R50" s="80"/>
+      <c r="S50" s="80"/>
+      <c r="T50" s="80"/>
+      <c r="U50" s="81"/>
+      <c r="V50" s="81"/>
+      <c r="W50" s="82"/>
     </row>
     <row r="51" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="146"/>
-      <c r="C51" s="133"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="4"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="25">
+      <c r="H51" s="18"/>
+      <c r="I51" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J51" s="68"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="84"/>
-      <c r="P51" s="84"/>
-      <c r="Q51" s="84"/>
-      <c r="R51" s="84"/>
-      <c r="S51" s="84"/>
-      <c r="T51" s="84"/>
-      <c r="U51" s="85"/>
-      <c r="V51" s="85"/>
-      <c r="W51" s="86"/>
+      <c r="J51" s="64"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
+      <c r="N51" s="80"/>
+      <c r="O51" s="80"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
+      <c r="S51" s="80"/>
+      <c r="T51" s="80"/>
+      <c r="U51" s="81"/>
+      <c r="V51" s="81"/>
+      <c r="W51" s="82"/>
     </row>
     <row r="52" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="146"/>
-      <c r="C52" s="133"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="25">
+      <c r="H52" s="18"/>
+      <c r="I52" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J52" s="68"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
-      <c r="U52" s="85"/>
-      <c r="V52" s="85"/>
-      <c r="W52" s="86"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="80"/>
+      <c r="L52" s="80"/>
+      <c r="M52" s="80"/>
+      <c r="N52" s="80"/>
+      <c r="O52" s="80"/>
+      <c r="P52" s="80"/>
+      <c r="Q52" s="80"/>
+      <c r="R52" s="80"/>
+      <c r="S52" s="80"/>
+      <c r="T52" s="80"/>
+      <c r="U52" s="81"/>
+      <c r="V52" s="81"/>
+      <c r="W52" s="82"/>
     </row>
     <row r="53" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="146"/>
-      <c r="C53" s="133"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="25">
-        <f t="shared" ref="I53:I113" si="1">SUM(J53:W53)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="68"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
-      <c r="U53" s="85"/>
-      <c r="V53" s="85"/>
-      <c r="W53" s="86"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="22">
+        <f t="shared" ref="I53:I119" si="1">SUM(J53:W53)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="64"/>
+      <c r="K53" s="80"/>
+      <c r="L53" s="80"/>
+      <c r="M53" s="80"/>
+      <c r="N53" s="80"/>
+      <c r="O53" s="80"/>
+      <c r="P53" s="80"/>
+      <c r="Q53" s="80"/>
+      <c r="R53" s="80"/>
+      <c r="S53" s="80"/>
+      <c r="T53" s="80"/>
+      <c r="U53" s="81"/>
+      <c r="V53" s="81"/>
+      <c r="W53" s="82"/>
     </row>
     <row r="54" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="146"/>
-      <c r="C54" s="133"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
       <c r="G54" s="4"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="25">
+      <c r="H54" s="18"/>
+      <c r="I54" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J54" s="68"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
-      <c r="U54" s="84"/>
-      <c r="V54" s="85"/>
-      <c r="W54" s="86"/>
+      <c r="J54" s="64"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
+      <c r="S54" s="80"/>
+      <c r="T54" s="80"/>
+      <c r="U54" s="80"/>
+      <c r="V54" s="81"/>
+      <c r="W54" s="82"/>
     </row>
     <row r="55" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="146"/>
-      <c r="C55" s="133"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="5"/>
       <c r="G55" s="4"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="25">
+      <c r="H55" s="18"/>
+      <c r="I55" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J55" s="68"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
-      <c r="U55" s="84"/>
-      <c r="V55" s="85"/>
-      <c r="W55" s="86"/>
+      <c r="J55" s="64"/>
+      <c r="K55" s="80"/>
+      <c r="L55" s="80"/>
+      <c r="M55" s="80"/>
+      <c r="N55" s="80"/>
+      <c r="O55" s="80"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="80"/>
+      <c r="R55" s="80"/>
+      <c r="S55" s="80"/>
+      <c r="T55" s="80"/>
+      <c r="U55" s="80"/>
+      <c r="V55" s="81"/>
+      <c r="W55" s="82"/>
     </row>
     <row r="56" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="146"/>
-      <c r="C56" s="133"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="4"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="25">
+      <c r="H56" s="18"/>
+      <c r="I56" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="68"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
-      <c r="U56" s="84"/>
-      <c r="V56" s="85"/>
-      <c r="W56" s="86"/>
+      <c r="J56" s="64"/>
+      <c r="K56" s="80"/>
+      <c r="L56" s="80"/>
+      <c r="M56" s="80"/>
+      <c r="N56" s="80"/>
+      <c r="O56" s="80"/>
+      <c r="P56" s="80"/>
+      <c r="Q56" s="80"/>
+      <c r="R56" s="80"/>
+      <c r="S56" s="80"/>
+      <c r="T56" s="80"/>
+      <c r="U56" s="80"/>
+      <c r="V56" s="81"/>
+      <c r="W56" s="82"/>
     </row>
     <row r="57" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="146"/>
-      <c r="C57" s="133"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="4"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="25">
+      <c r="H57" s="18"/>
+      <c r="I57" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J57" s="68"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="84"/>
-      <c r="M57" s="84"/>
-      <c r="N57" s="84"/>
-      <c r="O57" s="84"/>
-      <c r="P57" s="84"/>
-      <c r="Q57" s="84"/>
-      <c r="R57" s="84"/>
-      <c r="S57" s="84"/>
-      <c r="T57" s="84"/>
-      <c r="U57" s="84"/>
-      <c r="V57" s="85"/>
-      <c r="W57" s="86"/>
+      <c r="J57" s="64"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
+      <c r="N57" s="80"/>
+      <c r="O57" s="80"/>
+      <c r="P57" s="80"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
+      <c r="S57" s="80"/>
+      <c r="T57" s="80"/>
+      <c r="U57" s="80"/>
+      <c r="V57" s="81"/>
+      <c r="W57" s="82"/>
     </row>
     <row r="58" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="146"/>
-      <c r="C58" s="133"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="4"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="25">
+      <c r="H58" s="18"/>
+      <c r="I58" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="68"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="84"/>
-      <c r="M58" s="84"/>
-      <c r="N58" s="84"/>
-      <c r="O58" s="84"/>
-      <c r="P58" s="84"/>
-      <c r="Q58" s="84"/>
-      <c r="R58" s="84"/>
-      <c r="S58" s="84"/>
-      <c r="T58" s="84"/>
-      <c r="U58" s="84"/>
-      <c r="V58" s="85"/>
-      <c r="W58" s="86"/>
+      <c r="J58" s="64"/>
+      <c r="K58" s="80"/>
+      <c r="L58" s="80"/>
+      <c r="M58" s="80"/>
+      <c r="N58" s="80"/>
+      <c r="O58" s="80"/>
+      <c r="P58" s="80"/>
+      <c r="Q58" s="80"/>
+      <c r="R58" s="80"/>
+      <c r="S58" s="80"/>
+      <c r="T58" s="80"/>
+      <c r="U58" s="80"/>
+      <c r="V58" s="81"/>
+      <c r="W58" s="82"/>
     </row>
     <row r="59" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="146"/>
-      <c r="C59" s="133"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="4"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="25">
+      <c r="H59" s="18"/>
+      <c r="I59" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="68"/>
-      <c r="K59" s="84"/>
-      <c r="L59" s="84"/>
-      <c r="M59" s="84"/>
-      <c r="N59" s="84"/>
-      <c r="O59" s="84"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="84"/>
-      <c r="S59" s="84"/>
-      <c r="T59" s="84"/>
-      <c r="U59" s="84"/>
-      <c r="V59" s="85"/>
-      <c r="W59" s="86"/>
+      <c r="J59" s="64"/>
+      <c r="K59" s="80"/>
+      <c r="L59" s="80"/>
+      <c r="M59" s="80"/>
+      <c r="N59" s="80"/>
+      <c r="O59" s="80"/>
+      <c r="P59" s="80"/>
+      <c r="Q59" s="80"/>
+      <c r="R59" s="80"/>
+      <c r="S59" s="80"/>
+      <c r="T59" s="80"/>
+      <c r="U59" s="80"/>
+      <c r="V59" s="81"/>
+      <c r="W59" s="82"/>
     </row>
     <row r="60" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="146"/>
-      <c r="C60" s="133"/>
+      <c r="B60" s="125"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
       <c r="G60" s="4"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="25">
+      <c r="H60" s="18"/>
+      <c r="I60" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="68"/>
-      <c r="K60" s="84"/>
-      <c r="L60" s="84"/>
-      <c r="M60" s="84"/>
-      <c r="N60" s="84"/>
-      <c r="O60" s="84"/>
-      <c r="P60" s="84"/>
-      <c r="Q60" s="84"/>
-      <c r="R60" s="84"/>
-      <c r="S60" s="84"/>
-      <c r="T60" s="84"/>
-      <c r="U60" s="84"/>
-      <c r="V60" s="85"/>
-      <c r="W60" s="86"/>
+      <c r="J60" s="64"/>
+      <c r="K60" s="80"/>
+      <c r="L60" s="80"/>
+      <c r="M60" s="80"/>
+      <c r="N60" s="80"/>
+      <c r="O60" s="80"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="80"/>
+      <c r="R60" s="80"/>
+      <c r="S60" s="80"/>
+      <c r="T60" s="80"/>
+      <c r="U60" s="80"/>
+      <c r="V60" s="81"/>
+      <c r="W60" s="82"/>
     </row>
     <row r="61" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="146"/>
-      <c r="C61" s="133"/>
+      <c r="B61" s="125"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="4"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="25">
+      <c r="H61" s="18"/>
+      <c r="I61" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="68"/>
-      <c r="K61" s="84"/>
-      <c r="L61" s="84"/>
-      <c r="M61" s="84"/>
-      <c r="N61" s="84"/>
-      <c r="O61" s="84"/>
-      <c r="P61" s="84"/>
-      <c r="Q61" s="84"/>
-      <c r="R61" s="84"/>
-      <c r="S61" s="84"/>
-      <c r="T61" s="84"/>
-      <c r="U61" s="84"/>
-      <c r="V61" s="85"/>
-      <c r="W61" s="86"/>
+      <c r="J61" s="64"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="80"/>
+      <c r="U61" s="80"/>
+      <c r="V61" s="81"/>
+      <c r="W61" s="82"/>
     </row>
     <row r="62" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="147"/>
-      <c r="C62" s="134"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="32"/>
-      <c r="I62" s="35">
+      <c r="B62" s="126"/>
+      <c r="C62" s="104"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="80"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="O62" s="87"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="87"/>
-      <c r="S62" s="87"/>
-      <c r="T62" s="87"/>
-      <c r="U62" s="87"/>
-      <c r="V62" s="88"/>
-      <c r="W62" s="89"/>
+      <c r="J62" s="76"/>
+      <c r="K62" s="83"/>
+      <c r="L62" s="83"/>
+      <c r="M62" s="83"/>
+      <c r="N62" s="83"/>
+      <c r="O62" s="83"/>
+      <c r="P62" s="83"/>
+      <c r="Q62" s="83"/>
+      <c r="R62" s="83"/>
+      <c r="S62" s="83"/>
+      <c r="T62" s="83"/>
+      <c r="U62" s="83"/>
+      <c r="V62" s="84"/>
+      <c r="W62" s="85"/>
     </row>
     <row r="63" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="135" t="s">
+      <c r="B63" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="C63" s="132" t="s">
+      <c r="C63" s="102" t="s">
         <v>55</v>
       </c>
       <c r="D63" s="6"/>
@@ -4015,29 +4111,29 @@
       <c r="G63" s="6">
         <v>1</v>
       </c>
-      <c r="H63" s="20"/>
-      <c r="I63" s="26">
+      <c r="H63" s="18"/>
+      <c r="I63" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="64"/>
-      <c r="K63" s="81"/>
-      <c r="L63" s="81"/>
-      <c r="M63" s="81"/>
-      <c r="N63" s="81"/>
-      <c r="O63" s="81"/>
-      <c r="P63" s="82"/>
-      <c r="Q63" s="82"/>
-      <c r="R63" s="82"/>
-      <c r="S63" s="82"/>
-      <c r="T63" s="82"/>
-      <c r="U63" s="82"/>
-      <c r="V63" s="82"/>
-      <c r="W63" s="83"/>
+      <c r="J63" s="60"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="78"/>
+      <c r="Q63" s="78"/>
+      <c r="R63" s="78"/>
+      <c r="S63" s="78"/>
+      <c r="T63" s="78"/>
+      <c r="U63" s="78"/>
+      <c r="V63" s="78"/>
+      <c r="W63" s="79"/>
     </row>
     <row r="64" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="136"/>
-      <c r="C64" s="133" t="s">
+      <c r="B64" s="128"/>
+      <c r="C64" s="103" t="s">
         <v>56</v>
       </c>
       <c r="D64" s="4"/>
@@ -4048,1205 +4144,1205 @@
       <c r="G64" s="4">
         <v>1</v>
       </c>
-      <c r="H64" s="20"/>
-      <c r="I64" s="25">
+      <c r="H64" s="18"/>
+      <c r="I64" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="68"/>
-      <c r="K64" s="84"/>
-      <c r="L64" s="84"/>
-      <c r="M64" s="84"/>
-      <c r="N64" s="84"/>
-      <c r="O64" s="84"/>
-      <c r="P64" s="84"/>
-      <c r="Q64" s="84"/>
-      <c r="R64" s="85"/>
-      <c r="S64" s="85"/>
-      <c r="T64" s="85"/>
-      <c r="U64" s="85"/>
-      <c r="V64" s="85"/>
-      <c r="W64" s="86"/>
+      <c r="J64" s="64"/>
+      <c r="K64" s="80"/>
+      <c r="L64" s="80"/>
+      <c r="M64" s="80"/>
+      <c r="N64" s="80"/>
+      <c r="O64" s="80"/>
+      <c r="P64" s="80"/>
+      <c r="Q64" s="80"/>
+      <c r="R64" s="81"/>
+      <c r="S64" s="81"/>
+      <c r="T64" s="81"/>
+      <c r="U64" s="81"/>
+      <c r="V64" s="81"/>
+      <c r="W64" s="82"/>
     </row>
     <row r="65" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="136"/>
-      <c r="C65" s="133"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="25">
+      <c r="H65" s="18"/>
+      <c r="I65" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J65" s="68"/>
-      <c r="K65" s="84"/>
-      <c r="L65" s="84"/>
-      <c r="M65" s="84"/>
-      <c r="N65" s="84"/>
-      <c r="O65" s="84"/>
-      <c r="P65" s="84"/>
-      <c r="Q65" s="84"/>
-      <c r="R65" s="85"/>
-      <c r="S65" s="85"/>
-      <c r="T65" s="85"/>
-      <c r="U65" s="85"/>
-      <c r="V65" s="85"/>
-      <c r="W65" s="86"/>
+      <c r="J65" s="64"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="80"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="81"/>
+      <c r="S65" s="81"/>
+      <c r="T65" s="81"/>
+      <c r="U65" s="81"/>
+      <c r="V65" s="81"/>
+      <c r="W65" s="82"/>
     </row>
     <row r="66" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="136"/>
-      <c r="C66" s="133"/>
+      <c r="B66" s="128"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="25">
+      <c r="H66" s="18"/>
+      <c r="I66" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="68"/>
-      <c r="K66" s="84"/>
-      <c r="L66" s="84"/>
-      <c r="M66" s="84"/>
-      <c r="N66" s="84"/>
-      <c r="O66" s="84"/>
-      <c r="P66" s="84"/>
-      <c r="Q66" s="84"/>
-      <c r="R66" s="85"/>
-      <c r="S66" s="85"/>
-      <c r="T66" s="85"/>
-      <c r="U66" s="85"/>
-      <c r="V66" s="85"/>
-      <c r="W66" s="86"/>
+      <c r="J66" s="64"/>
+      <c r="K66" s="80"/>
+      <c r="L66" s="80"/>
+      <c r="M66" s="80"/>
+      <c r="N66" s="80"/>
+      <c r="O66" s="80"/>
+      <c r="P66" s="80"/>
+      <c r="Q66" s="80"/>
+      <c r="R66" s="81"/>
+      <c r="S66" s="81"/>
+      <c r="T66" s="81"/>
+      <c r="U66" s="81"/>
+      <c r="V66" s="81"/>
+      <c r="W66" s="82"/>
     </row>
     <row r="67" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="136"/>
-      <c r="C67" s="133"/>
+      <c r="B67" s="128"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="25">
+      <c r="H67" s="18"/>
+      <c r="I67" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J67" s="68"/>
-      <c r="K67" s="84"/>
-      <c r="L67" s="84"/>
-      <c r="M67" s="84"/>
-      <c r="N67" s="84"/>
-      <c r="O67" s="84"/>
-      <c r="P67" s="84"/>
-      <c r="Q67" s="84"/>
-      <c r="R67" s="85"/>
-      <c r="S67" s="85"/>
-      <c r="T67" s="85"/>
-      <c r="U67" s="85"/>
-      <c r="V67" s="85"/>
-      <c r="W67" s="86"/>
+      <c r="J67" s="64"/>
+      <c r="K67" s="80"/>
+      <c r="L67" s="80"/>
+      <c r="M67" s="80"/>
+      <c r="N67" s="80"/>
+      <c r="O67" s="80"/>
+      <c r="P67" s="80"/>
+      <c r="Q67" s="80"/>
+      <c r="R67" s="81"/>
+      <c r="S67" s="81"/>
+      <c r="T67" s="81"/>
+      <c r="U67" s="81"/>
+      <c r="V67" s="81"/>
+      <c r="W67" s="82"/>
     </row>
     <row r="68" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="136"/>
-      <c r="C68" s="133"/>
+      <c r="B68" s="128"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="25">
+      <c r="H68" s="18"/>
+      <c r="I68" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J68" s="68"/>
-      <c r="K68" s="84"/>
-      <c r="L68" s="84"/>
-      <c r="M68" s="84"/>
-      <c r="N68" s="84"/>
-      <c r="O68" s="84"/>
-      <c r="P68" s="84"/>
-      <c r="Q68" s="84"/>
-      <c r="R68" s="85"/>
-      <c r="S68" s="85"/>
-      <c r="T68" s="85"/>
-      <c r="U68" s="85"/>
-      <c r="V68" s="85"/>
-      <c r="W68" s="86"/>
+      <c r="J68" s="64"/>
+      <c r="K68" s="80"/>
+      <c r="L68" s="80"/>
+      <c r="M68" s="80"/>
+      <c r="N68" s="80"/>
+      <c r="O68" s="80"/>
+      <c r="P68" s="80"/>
+      <c r="Q68" s="80"/>
+      <c r="R68" s="81"/>
+      <c r="S68" s="81"/>
+      <c r="T68" s="81"/>
+      <c r="U68" s="81"/>
+      <c r="V68" s="81"/>
+      <c r="W68" s="82"/>
     </row>
     <row r="69" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="136"/>
-      <c r="C69" s="133"/>
+      <c r="B69" s="128"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="25">
+      <c r="H69" s="18"/>
+      <c r="I69" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J69" s="68"/>
-      <c r="K69" s="84"/>
-      <c r="L69" s="84"/>
-      <c r="M69" s="84"/>
-      <c r="N69" s="84"/>
-      <c r="O69" s="84"/>
-      <c r="P69" s="84"/>
-      <c r="Q69" s="84"/>
-      <c r="R69" s="85"/>
-      <c r="S69" s="85"/>
-      <c r="T69" s="85"/>
-      <c r="U69" s="85"/>
-      <c r="V69" s="85"/>
-      <c r="W69" s="86"/>
+      <c r="J69" s="64"/>
+      <c r="K69" s="80"/>
+      <c r="L69" s="80"/>
+      <c r="M69" s="80"/>
+      <c r="N69" s="80"/>
+      <c r="O69" s="80"/>
+      <c r="P69" s="80"/>
+      <c r="Q69" s="80"/>
+      <c r="R69" s="81"/>
+      <c r="S69" s="81"/>
+      <c r="T69" s="81"/>
+      <c r="U69" s="81"/>
+      <c r="V69" s="81"/>
+      <c r="W69" s="82"/>
     </row>
     <row r="70" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="136"/>
-      <c r="C70" s="133"/>
+      <c r="B70" s="128"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="25">
+      <c r="H70" s="18"/>
+      <c r="I70" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J70" s="68"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="84"/>
-      <c r="P70" s="84"/>
-      <c r="Q70" s="84"/>
-      <c r="R70" s="85"/>
-      <c r="S70" s="85"/>
-      <c r="T70" s="85"/>
-      <c r="U70" s="85"/>
-      <c r="V70" s="85"/>
-      <c r="W70" s="86"/>
+      <c r="J70" s="64"/>
+      <c r="K70" s="80"/>
+      <c r="L70" s="80"/>
+      <c r="M70" s="80"/>
+      <c r="N70" s="80"/>
+      <c r="O70" s="80"/>
+      <c r="P70" s="80"/>
+      <c r="Q70" s="80"/>
+      <c r="R70" s="81"/>
+      <c r="S70" s="81"/>
+      <c r="T70" s="81"/>
+      <c r="U70" s="81"/>
+      <c r="V70" s="81"/>
+      <c r="W70" s="82"/>
     </row>
     <row r="71" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="137"/>
-      <c r="C71" s="134"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="51">
+      <c r="B71" s="129"/>
+      <c r="C71" s="104"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="48">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J71" s="80"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="88"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="88"/>
-      <c r="U71" s="88"/>
-      <c r="V71" s="88"/>
-      <c r="W71" s="89"/>
+      <c r="J71" s="76"/>
+      <c r="K71" s="83"/>
+      <c r="L71" s="83"/>
+      <c r="M71" s="83"/>
+      <c r="N71" s="83"/>
+      <c r="O71" s="83"/>
+      <c r="P71" s="83"/>
+      <c r="Q71" s="83"/>
+      <c r="R71" s="84"/>
+      <c r="S71" s="84"/>
+      <c r="T71" s="84"/>
+      <c r="U71" s="84"/>
+      <c r="V71" s="84"/>
+      <c r="W71" s="85"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="129" t="s">
+      <c r="B72" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="116" t="s">
+      <c r="C72" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="37" t="s">
+      <c r="D72" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37" t="s">
+      <c r="E72" s="34"/>
+      <c r="F72" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="37">
+      <c r="G72" s="34">
         <v>1</v>
       </c>
-      <c r="H72" s="39">
+      <c r="H72" s="36">
         <v>0.5</v>
       </c>
-      <c r="I72" s="25">
+      <c r="I72" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J72" s="64"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="81"/>
-      <c r="N72" s="81"/>
-      <c r="O72" s="81"/>
-      <c r="P72" s="82"/>
-      <c r="Q72" s="82"/>
-      <c r="R72" s="82"/>
-      <c r="S72" s="82"/>
-      <c r="T72" s="82"/>
-      <c r="U72" s="82"/>
-      <c r="V72" s="82"/>
-      <c r="W72" s="83"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="77"/>
+      <c r="N72" s="77"/>
+      <c r="O72" s="77"/>
+      <c r="P72" s="78"/>
+      <c r="Q72" s="78"/>
+      <c r="R72" s="78"/>
+      <c r="S72" s="78"/>
+      <c r="T72" s="78"/>
+      <c r="U72" s="78"/>
+      <c r="V72" s="78"/>
+      <c r="W72" s="79"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="130"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="62" t="s">
+      <c r="B73" s="118"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="58" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="4"/>
-      <c r="F73" s="62" t="s">
+      <c r="F73" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G73" s="62">
+      <c r="G73" s="58">
         <v>1</v>
       </c>
-      <c r="H73" s="20">
+      <c r="H73" s="18">
         <v>0.5</v>
       </c>
-      <c r="I73" s="25">
+      <c r="I73" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J73" s="68"/>
-      <c r="K73" s="84"/>
-      <c r="L73" s="84"/>
-      <c r="M73" s="84"/>
-      <c r="N73" s="84"/>
-      <c r="O73" s="84"/>
-      <c r="P73" s="85"/>
-      <c r="Q73" s="85"/>
-      <c r="R73" s="85"/>
-      <c r="S73" s="85"/>
-      <c r="T73" s="85"/>
-      <c r="U73" s="85"/>
-      <c r="V73" s="85"/>
-      <c r="W73" s="86"/>
+      <c r="J73" s="64"/>
+      <c r="K73" s="80"/>
+      <c r="L73" s="80"/>
+      <c r="M73" s="80"/>
+      <c r="N73" s="80"/>
+      <c r="O73" s="80"/>
+      <c r="P73" s="81"/>
+      <c r="Q73" s="81"/>
+      <c r="R73" s="81"/>
+      <c r="S73" s="81"/>
+      <c r="T73" s="81"/>
+      <c r="U73" s="81"/>
+      <c r="V73" s="81"/>
+      <c r="W73" s="82"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="130"/>
-      <c r="C74" s="117"/>
-      <c r="D74" s="62" t="s">
+      <c r="B74" s="118"/>
+      <c r="C74" s="112"/>
+      <c r="D74" s="58" t="s">
         <v>23</v>
       </c>
       <c r="E74" s="4"/>
-      <c r="F74" s="62" t="s">
+      <c r="F74" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G74" s="62">
+      <c r="G74" s="58">
         <v>1</v>
       </c>
-      <c r="H74" s="20">
+      <c r="H74" s="18">
         <v>0.5</v>
       </c>
-      <c r="I74" s="25">
+      <c r="I74" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J74" s="68"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="85"/>
-      <c r="Q74" s="85"/>
-      <c r="R74" s="85"/>
-      <c r="S74" s="85"/>
-      <c r="T74" s="85"/>
-      <c r="U74" s="85"/>
-      <c r="V74" s="85"/>
-      <c r="W74" s="86"/>
+      <c r="J74" s="64"/>
+      <c r="K74" s="80"/>
+      <c r="L74" s="80"/>
+      <c r="M74" s="80"/>
+      <c r="N74" s="80"/>
+      <c r="O74" s="80"/>
+      <c r="P74" s="81"/>
+      <c r="Q74" s="81"/>
+      <c r="R74" s="81"/>
+      <c r="S74" s="81"/>
+      <c r="T74" s="81"/>
+      <c r="U74" s="81"/>
+      <c r="V74" s="81"/>
+      <c r="W74" s="82"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="130"/>
-      <c r="C75" s="117"/>
-      <c r="D75" s="62" t="s">
+      <c r="B75" s="118"/>
+      <c r="C75" s="112"/>
+      <c r="D75" s="58" t="s">
         <v>24</v>
       </c>
       <c r="E75" s="4"/>
-      <c r="F75" s="62" t="s">
+      <c r="F75" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G75" s="62">
+      <c r="G75" s="58">
         <v>1</v>
       </c>
-      <c r="H75" s="20">
+      <c r="H75" s="18">
         <v>0.5</v>
       </c>
-      <c r="I75" s="25">
+      <c r="I75" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J75" s="68"/>
-      <c r="K75" s="84"/>
-      <c r="L75" s="84"/>
-      <c r="M75" s="84"/>
-      <c r="N75" s="84"/>
-      <c r="O75" s="84"/>
-      <c r="P75" s="85"/>
-      <c r="Q75" s="85"/>
-      <c r="R75" s="85"/>
-      <c r="S75" s="85"/>
-      <c r="T75" s="85"/>
-      <c r="U75" s="85"/>
-      <c r="V75" s="85"/>
-      <c r="W75" s="86"/>
+      <c r="J75" s="64"/>
+      <c r="K75" s="80"/>
+      <c r="L75" s="80"/>
+      <c r="M75" s="80"/>
+      <c r="N75" s="80"/>
+      <c r="O75" s="80"/>
+      <c r="P75" s="81"/>
+      <c r="Q75" s="81"/>
+      <c r="R75" s="81"/>
+      <c r="S75" s="81"/>
+      <c r="T75" s="81"/>
+      <c r="U75" s="81"/>
+      <c r="V75" s="81"/>
+      <c r="W75" s="82"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="130"/>
-      <c r="C76" s="117"/>
-      <c r="D76" s="62" t="s">
+      <c r="B76" s="118"/>
+      <c r="C76" s="112"/>
+      <c r="D76" s="58" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="4"/>
-      <c r="F76" s="62" t="s">
+      <c r="F76" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G76" s="62">
+      <c r="G76" s="58">
         <v>1</v>
       </c>
-      <c r="H76" s="20">
+      <c r="H76" s="18">
         <v>0.5</v>
       </c>
-      <c r="I76" s="25">
+      <c r="I76" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="68"/>
-      <c r="K76" s="84"/>
-      <c r="L76" s="84"/>
-      <c r="M76" s="84"/>
-      <c r="N76" s="84"/>
-      <c r="O76" s="84"/>
-      <c r="P76" s="85"/>
-      <c r="Q76" s="85"/>
-      <c r="R76" s="85"/>
-      <c r="S76" s="85"/>
-      <c r="T76" s="85"/>
-      <c r="U76" s="85"/>
-      <c r="V76" s="85"/>
-      <c r="W76" s="86"/>
+      <c r="J76" s="64"/>
+      <c r="K76" s="80"/>
+      <c r="L76" s="80"/>
+      <c r="M76" s="80"/>
+      <c r="N76" s="80"/>
+      <c r="O76" s="80"/>
+      <c r="P76" s="81"/>
+      <c r="Q76" s="81"/>
+      <c r="R76" s="81"/>
+      <c r="S76" s="81"/>
+      <c r="T76" s="81"/>
+      <c r="U76" s="81"/>
+      <c r="V76" s="81"/>
+      <c r="W76" s="82"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="130"/>
-      <c r="C77" s="117"/>
-      <c r="D77" s="62" t="s">
+      <c r="B77" s="118"/>
+      <c r="C77" s="112"/>
+      <c r="D77" s="58" t="s">
         <v>26</v>
       </c>
       <c r="E77" s="4"/>
-      <c r="F77" s="62" t="s">
+      <c r="F77" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G77" s="62">
+      <c r="G77" s="58">
         <v>1</v>
       </c>
-      <c r="H77" s="20">
+      <c r="H77" s="18">
         <v>0.5</v>
       </c>
-      <c r="I77" s="25">
+      <c r="I77" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J77" s="68"/>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84"/>
-      <c r="M77" s="84"/>
-      <c r="N77" s="84"/>
-      <c r="O77" s="84"/>
-      <c r="P77" s="85"/>
-      <c r="Q77" s="85"/>
-      <c r="R77" s="85"/>
-      <c r="S77" s="85"/>
-      <c r="T77" s="85"/>
-      <c r="U77" s="85"/>
-      <c r="V77" s="85"/>
-      <c r="W77" s="86"/>
+      <c r="J77" s="64"/>
+      <c r="K77" s="80"/>
+      <c r="L77" s="80"/>
+      <c r="M77" s="80"/>
+      <c r="N77" s="80"/>
+      <c r="O77" s="80"/>
+      <c r="P77" s="81"/>
+      <c r="Q77" s="81"/>
+      <c r="R77" s="81"/>
+      <c r="S77" s="81"/>
+      <c r="T77" s="81"/>
+      <c r="U77" s="81"/>
+      <c r="V77" s="81"/>
+      <c r="W77" s="82"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="130"/>
-      <c r="C78" s="117"/>
-      <c r="D78" s="62" t="s">
+      <c r="B78" s="118"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="58" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="4"/>
-      <c r="F78" s="62" t="s">
+      <c r="F78" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G78" s="62">
+      <c r="G78" s="58">
         <v>1</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="18">
         <v>0.5</v>
       </c>
-      <c r="I78" s="25">
+      <c r="I78" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J78" s="68"/>
-      <c r="K78" s="84"/>
-      <c r="L78" s="84"/>
-      <c r="M78" s="84"/>
-      <c r="N78" s="84"/>
-      <c r="O78" s="84"/>
-      <c r="P78" s="85"/>
-      <c r="Q78" s="85"/>
-      <c r="R78" s="85"/>
-      <c r="S78" s="85"/>
-      <c r="T78" s="85"/>
-      <c r="U78" s="85"/>
-      <c r="V78" s="85"/>
-      <c r="W78" s="86"/>
+      <c r="J78" s="64"/>
+      <c r="K78" s="80"/>
+      <c r="L78" s="80"/>
+      <c r="M78" s="80"/>
+      <c r="N78" s="80"/>
+      <c r="O78" s="80"/>
+      <c r="P78" s="81"/>
+      <c r="Q78" s="81"/>
+      <c r="R78" s="81"/>
+      <c r="S78" s="81"/>
+      <c r="T78" s="81"/>
+      <c r="U78" s="81"/>
+      <c r="V78" s="81"/>
+      <c r="W78" s="82"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="130"/>
-      <c r="C79" s="117"/>
-      <c r="D79" s="62" t="s">
+      <c r="B79" s="118"/>
+      <c r="C79" s="112"/>
+      <c r="D79" s="58" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="4"/>
-      <c r="F79" s="62" t="s">
+      <c r="F79" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G79" s="62">
+      <c r="G79" s="58">
         <v>1</v>
       </c>
-      <c r="H79" s="20">
+      <c r="H79" s="18">
         <v>0.5</v>
       </c>
-      <c r="I79" s="25">
+      <c r="I79" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J79" s="68"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="84"/>
-      <c r="P79" s="85"/>
-      <c r="Q79" s="85"/>
-      <c r="R79" s="85"/>
-      <c r="S79" s="85"/>
-      <c r="T79" s="85"/>
-      <c r="U79" s="85"/>
-      <c r="V79" s="85"/>
-      <c r="W79" s="86"/>
+      <c r="J79" s="64"/>
+      <c r="K79" s="80"/>
+      <c r="L79" s="80"/>
+      <c r="M79" s="80"/>
+      <c r="N79" s="80"/>
+      <c r="O79" s="80"/>
+      <c r="P79" s="81"/>
+      <c r="Q79" s="81"/>
+      <c r="R79" s="81"/>
+      <c r="S79" s="81"/>
+      <c r="T79" s="81"/>
+      <c r="U79" s="81"/>
+      <c r="V79" s="81"/>
+      <c r="W79" s="82"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="130"/>
-      <c r="C80" s="117"/>
-      <c r="D80" s="62" t="s">
+      <c r="B80" s="118"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="58" t="s">
         <v>29</v>
       </c>
       <c r="E80" s="4"/>
-      <c r="F80" s="62" t="s">
+      <c r="F80" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="62">
+      <c r="G80" s="58">
         <v>1</v>
       </c>
-      <c r="H80" s="20">
+      <c r="H80" s="18">
         <v>0.5</v>
       </c>
-      <c r="I80" s="25">
+      <c r="I80" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J80" s="68"/>
-      <c r="K80" s="84"/>
-      <c r="L80" s="84"/>
-      <c r="M80" s="84"/>
-      <c r="N80" s="84"/>
-      <c r="O80" s="84"/>
-      <c r="P80" s="85"/>
-      <c r="Q80" s="85"/>
-      <c r="R80" s="85"/>
-      <c r="S80" s="85"/>
-      <c r="T80" s="85"/>
-      <c r="U80" s="85"/>
-      <c r="V80" s="85"/>
-      <c r="W80" s="86"/>
+      <c r="J80" s="64"/>
+      <c r="K80" s="80"/>
+      <c r="L80" s="80"/>
+      <c r="M80" s="80"/>
+      <c r="N80" s="80"/>
+      <c r="O80" s="80"/>
+      <c r="P80" s="81"/>
+      <c r="Q80" s="81"/>
+      <c r="R80" s="81"/>
+      <c r="S80" s="81"/>
+      <c r="T80" s="81"/>
+      <c r="U80" s="81"/>
+      <c r="V80" s="81"/>
+      <c r="W80" s="82"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="130"/>
-      <c r="C81" s="117"/>
-      <c r="D81" s="62" t="s">
+      <c r="B81" s="118"/>
+      <c r="C81" s="112"/>
+      <c r="D81" s="58" t="s">
         <v>30</v>
       </c>
       <c r="E81" s="4"/>
-      <c r="F81" s="62" t="s">
+      <c r="F81" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G81" s="62">
+      <c r="G81" s="58">
         <v>1</v>
       </c>
-      <c r="H81" s="20">
+      <c r="H81" s="18">
         <v>0.5</v>
       </c>
-      <c r="I81" s="25">
+      <c r="I81" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J81" s="68"/>
-      <c r="K81" s="84"/>
-      <c r="L81" s="84"/>
-      <c r="M81" s="84"/>
-      <c r="N81" s="84"/>
-      <c r="O81" s="84"/>
-      <c r="P81" s="85"/>
-      <c r="Q81" s="85"/>
-      <c r="R81" s="85"/>
-      <c r="S81" s="85"/>
-      <c r="T81" s="85"/>
-      <c r="U81" s="85"/>
-      <c r="V81" s="85"/>
-      <c r="W81" s="86"/>
+      <c r="J81" s="64"/>
+      <c r="K81" s="80"/>
+      <c r="L81" s="80"/>
+      <c r="M81" s="80"/>
+      <c r="N81" s="80"/>
+      <c r="O81" s="80"/>
+      <c r="P81" s="81"/>
+      <c r="Q81" s="81"/>
+      <c r="R81" s="81"/>
+      <c r="S81" s="81"/>
+      <c r="T81" s="81"/>
+      <c r="U81" s="81"/>
+      <c r="V81" s="81"/>
+      <c r="W81" s="82"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="130"/>
-      <c r="C82" s="117"/>
-      <c r="D82" s="62" t="s">
+      <c r="B82" s="118"/>
+      <c r="C82" s="112"/>
+      <c r="D82" s="58" t="s">
         <v>31</v>
       </c>
       <c r="E82" s="4"/>
-      <c r="F82" s="62" t="s">
+      <c r="F82" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G82" s="62">
+      <c r="G82" s="58">
         <v>1</v>
       </c>
-      <c r="H82" s="20">
+      <c r="H82" s="18">
         <v>0.5</v>
       </c>
-      <c r="I82" s="25">
+      <c r="I82" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J82" s="68"/>
-      <c r="K82" s="84"/>
-      <c r="L82" s="84"/>
-      <c r="M82" s="84"/>
-      <c r="N82" s="84"/>
-      <c r="O82" s="84"/>
-      <c r="P82" s="85"/>
-      <c r="Q82" s="85"/>
-      <c r="R82" s="85"/>
-      <c r="S82" s="85"/>
-      <c r="T82" s="85"/>
-      <c r="U82" s="85"/>
-      <c r="V82" s="85"/>
-      <c r="W82" s="86"/>
+      <c r="J82" s="64"/>
+      <c r="K82" s="80"/>
+      <c r="L82" s="80"/>
+      <c r="M82" s="80"/>
+      <c r="N82" s="80"/>
+      <c r="O82" s="80"/>
+      <c r="P82" s="81"/>
+      <c r="Q82" s="81"/>
+      <c r="R82" s="81"/>
+      <c r="S82" s="81"/>
+      <c r="T82" s="81"/>
+      <c r="U82" s="81"/>
+      <c r="V82" s="81"/>
+      <c r="W82" s="82"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="130"/>
-      <c r="C83" s="117"/>
-      <c r="D83" s="62" t="s">
+      <c r="B83" s="118"/>
+      <c r="C83" s="112"/>
+      <c r="D83" s="58" t="s">
         <v>32</v>
       </c>
       <c r="E83" s="4"/>
-      <c r="F83" s="62" t="s">
+      <c r="F83" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="62">
+      <c r="G83" s="58">
         <v>1</v>
       </c>
-      <c r="H83" s="20">
+      <c r="H83" s="18">
         <v>0.5</v>
       </c>
-      <c r="I83" s="25">
+      <c r="I83" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J83" s="68"/>
-      <c r="K83" s="84"/>
-      <c r="L83" s="84"/>
-      <c r="M83" s="84"/>
-      <c r="N83" s="84"/>
-      <c r="O83" s="84"/>
-      <c r="P83" s="85"/>
-      <c r="Q83" s="85"/>
-      <c r="R83" s="85"/>
-      <c r="S83" s="85"/>
-      <c r="T83" s="85"/>
-      <c r="U83" s="85"/>
-      <c r="V83" s="85"/>
-      <c r="W83" s="86"/>
+      <c r="J83" s="64"/>
+      <c r="K83" s="80"/>
+      <c r="L83" s="80"/>
+      <c r="M83" s="80"/>
+      <c r="N83" s="80"/>
+      <c r="O83" s="80"/>
+      <c r="P83" s="81"/>
+      <c r="Q83" s="81"/>
+      <c r="R83" s="81"/>
+      <c r="S83" s="81"/>
+      <c r="T83" s="81"/>
+      <c r="U83" s="81"/>
+      <c r="V83" s="81"/>
+      <c r="W83" s="82"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="130"/>
-      <c r="C84" s="117"/>
-      <c r="D84" s="62" t="s">
+      <c r="B84" s="118"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62" t="s">
+      <c r="E84" s="58"/>
+      <c r="F84" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G84" s="62">
+      <c r="G84" s="58">
         <v>2</v>
       </c>
-      <c r="H84" s="20">
+      <c r="H84" s="18">
         <v>0.5</v>
       </c>
-      <c r="I84" s="25">
+      <c r="I84" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J84" s="76"/>
-      <c r="K84" s="119"/>
-      <c r="L84" s="119"/>
-      <c r="M84" s="119"/>
-      <c r="N84" s="119"/>
-      <c r="O84" s="119"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="77"/>
-      <c r="S84" s="77"/>
-      <c r="T84" s="77"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="77"/>
-      <c r="W84" s="78"/>
+      <c r="J84" s="72"/>
+      <c r="K84" s="95"/>
+      <c r="L84" s="95"/>
+      <c r="M84" s="95"/>
+      <c r="N84" s="95"/>
+      <c r="O84" s="95"/>
+      <c r="P84" s="73"/>
+      <c r="Q84" s="73"/>
+      <c r="R84" s="73"/>
+      <c r="S84" s="73"/>
+      <c r="T84" s="73"/>
+      <c r="U84" s="73"/>
+      <c r="V84" s="73"/>
+      <c r="W84" s="74"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="130"/>
-      <c r="C85" s="117"/>
-      <c r="D85" s="62" t="s">
+      <c r="B85" s="118"/>
+      <c r="C85" s="112"/>
+      <c r="D85" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62" t="s">
+      <c r="E85" s="58"/>
+      <c r="F85" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G85" s="62">
+      <c r="G85" s="58">
         <v>2</v>
       </c>
-      <c r="H85" s="20">
+      <c r="H85" s="18">
         <v>0.25</v>
       </c>
-      <c r="I85" s="25">
+      <c r="I85" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J85" s="76"/>
-      <c r="K85" s="119"/>
-      <c r="L85" s="119"/>
-      <c r="M85" s="119"/>
-      <c r="N85" s="119"/>
-      <c r="O85" s="119"/>
-      <c r="P85" s="77"/>
-      <c r="Q85" s="77"/>
-      <c r="R85" s="77"/>
-      <c r="S85" s="77"/>
-      <c r="T85" s="77"/>
-      <c r="U85" s="77"/>
-      <c r="V85" s="77"/>
-      <c r="W85" s="78"/>
+      <c r="J85" s="72"/>
+      <c r="K85" s="95"/>
+      <c r="L85" s="95"/>
+      <c r="M85" s="95"/>
+      <c r="N85" s="95"/>
+      <c r="O85" s="95"/>
+      <c r="P85" s="73"/>
+      <c r="Q85" s="73"/>
+      <c r="R85" s="73"/>
+      <c r="S85" s="73"/>
+      <c r="T85" s="73"/>
+      <c r="U85" s="73"/>
+      <c r="V85" s="73"/>
+      <c r="W85" s="74"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="130"/>
-      <c r="C86" s="117"/>
-      <c r="D86" s="62" t="s">
+      <c r="B86" s="118"/>
+      <c r="C86" s="112"/>
+      <c r="D86" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62" t="s">
+      <c r="E86" s="58"/>
+      <c r="F86" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G86" s="62">
+      <c r="G86" s="58">
         <v>2</v>
       </c>
-      <c r="H86" s="20">
+      <c r="H86" s="18">
         <v>0.25</v>
       </c>
-      <c r="I86" s="25">
+      <c r="I86" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J86" s="76"/>
-      <c r="K86" s="119"/>
-      <c r="L86" s="119"/>
-      <c r="M86" s="119"/>
-      <c r="N86" s="119"/>
-      <c r="O86" s="119"/>
-      <c r="P86" s="77"/>
-      <c r="Q86" s="77"/>
-      <c r="R86" s="77"/>
-      <c r="S86" s="77"/>
-      <c r="T86" s="77"/>
-      <c r="U86" s="77"/>
-      <c r="V86" s="77"/>
-      <c r="W86" s="78"/>
+      <c r="J86" s="72"/>
+      <c r="K86" s="95"/>
+      <c r="L86" s="95"/>
+      <c r="M86" s="95"/>
+      <c r="N86" s="95"/>
+      <c r="O86" s="95"/>
+      <c r="P86" s="73"/>
+      <c r="Q86" s="73"/>
+      <c r="R86" s="73"/>
+      <c r="S86" s="73"/>
+      <c r="T86" s="73"/>
+      <c r="U86" s="73"/>
+      <c r="V86" s="73"/>
+      <c r="W86" s="74"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="130"/>
-      <c r="C87" s="117"/>
-      <c r="D87" s="62" t="s">
+      <c r="B87" s="118"/>
+      <c r="C87" s="112"/>
+      <c r="D87" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="E87" s="62"/>
-      <c r="F87" s="62" t="s">
+      <c r="E87" s="58"/>
+      <c r="F87" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G87" s="62">
+      <c r="G87" s="58">
         <v>2</v>
       </c>
-      <c r="H87" s="20">
+      <c r="H87" s="18">
         <v>0.25</v>
       </c>
-      <c r="I87" s="25">
+      <c r="I87" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J87" s="76"/>
-      <c r="K87" s="119"/>
-      <c r="L87" s="119"/>
-      <c r="M87" s="119"/>
-      <c r="N87" s="119"/>
-      <c r="O87" s="119"/>
-      <c r="P87" s="77"/>
-      <c r="Q87" s="77"/>
-      <c r="R87" s="77"/>
-      <c r="S87" s="77"/>
-      <c r="T87" s="77"/>
-      <c r="U87" s="77"/>
-      <c r="V87" s="77"/>
-      <c r="W87" s="78"/>
+      <c r="J87" s="72"/>
+      <c r="K87" s="95"/>
+      <c r="L87" s="95"/>
+      <c r="M87" s="95"/>
+      <c r="N87" s="95"/>
+      <c r="O87" s="95"/>
+      <c r="P87" s="73"/>
+      <c r="Q87" s="73"/>
+      <c r="R87" s="73"/>
+      <c r="S87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="U87" s="73"/>
+      <c r="V87" s="73"/>
+      <c r="W87" s="74"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="130"/>
-      <c r="C88" s="117"/>
-      <c r="D88" s="62" t="s">
+      <c r="B88" s="118"/>
+      <c r="C88" s="112"/>
+      <c r="D88" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="E88" s="62"/>
-      <c r="F88" s="62" t="s">
+      <c r="E88" s="58"/>
+      <c r="F88" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G88" s="62">
+      <c r="G88" s="58">
         <v>2</v>
       </c>
-      <c r="H88" s="20">
+      <c r="H88" s="18">
         <v>0.25</v>
       </c>
-      <c r="I88" s="25">
+      <c r="I88" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J88" s="76"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="119"/>
-      <c r="M88" s="119"/>
-      <c r="N88" s="119"/>
-      <c r="O88" s="119"/>
-      <c r="P88" s="77"/>
-      <c r="Q88" s="77"/>
-      <c r="R88" s="77"/>
-      <c r="S88" s="77"/>
-      <c r="T88" s="77"/>
-      <c r="U88" s="77"/>
-      <c r="V88" s="77"/>
-      <c r="W88" s="78"/>
+      <c r="J88" s="72"/>
+      <c r="K88" s="95"/>
+      <c r="L88" s="95"/>
+      <c r="M88" s="95"/>
+      <c r="N88" s="95"/>
+      <c r="O88" s="95"/>
+      <c r="P88" s="73"/>
+      <c r="Q88" s="73"/>
+      <c r="R88" s="73"/>
+      <c r="S88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="U88" s="73"/>
+      <c r="V88" s="73"/>
+      <c r="W88" s="74"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="130"/>
-      <c r="C89" s="117"/>
-      <c r="D89" s="62" t="s">
+      <c r="B89" s="118"/>
+      <c r="C89" s="112"/>
+      <c r="D89" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="E89" s="62"/>
-      <c r="F89" s="62" t="s">
+      <c r="E89" s="58"/>
+      <c r="F89" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G89" s="62">
+      <c r="G89" s="58">
         <v>2</v>
       </c>
-      <c r="H89" s="20">
+      <c r="H89" s="18">
         <v>0.25</v>
       </c>
-      <c r="I89" s="25">
+      <c r="I89" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J89" s="76"/>
-      <c r="K89" s="119"/>
-      <c r="L89" s="119"/>
-      <c r="M89" s="119"/>
-      <c r="N89" s="119"/>
-      <c r="O89" s="119"/>
-      <c r="P89" s="77"/>
-      <c r="Q89" s="77"/>
-      <c r="R89" s="77"/>
-      <c r="S89" s="77"/>
-      <c r="T89" s="77"/>
-      <c r="U89" s="77"/>
-      <c r="V89" s="77"/>
-      <c r="W89" s="78"/>
+      <c r="J89" s="72"/>
+      <c r="K89" s="95"/>
+      <c r="L89" s="95"/>
+      <c r="M89" s="95"/>
+      <c r="N89" s="95"/>
+      <c r="O89" s="95"/>
+      <c r="P89" s="73"/>
+      <c r="Q89" s="73"/>
+      <c r="R89" s="73"/>
+      <c r="S89" s="73"/>
+      <c r="T89" s="73"/>
+      <c r="U89" s="73"/>
+      <c r="V89" s="73"/>
+      <c r="W89" s="74"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="130"/>
-      <c r="C90" s="117"/>
-      <c r="D90" s="62" t="s">
+      <c r="B90" s="118"/>
+      <c r="C90" s="112"/>
+      <c r="D90" s="58" t="s">
         <v>85</v>
       </c>
-      <c r="E90" s="62"/>
-      <c r="F90" s="62" t="s">
+      <c r="E90" s="58"/>
+      <c r="F90" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G90" s="62">
+      <c r="G90" s="58">
         <v>2</v>
       </c>
-      <c r="H90" s="20">
+      <c r="H90" s="18">
         <v>0.25</v>
       </c>
-      <c r="I90" s="25">
+      <c r="I90" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J90" s="76"/>
-      <c r="K90" s="119"/>
-      <c r="L90" s="119"/>
-      <c r="M90" s="119"/>
-      <c r="N90" s="119"/>
-      <c r="O90" s="119"/>
-      <c r="P90" s="77"/>
-      <c r="Q90" s="77"/>
-      <c r="R90" s="77"/>
-      <c r="S90" s="77"/>
-      <c r="T90" s="77"/>
-      <c r="U90" s="77"/>
-      <c r="V90" s="77"/>
-      <c r="W90" s="78"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="95"/>
+      <c r="L90" s="95"/>
+      <c r="M90" s="95"/>
+      <c r="N90" s="95"/>
+      <c r="O90" s="95"/>
+      <c r="P90" s="73"/>
+      <c r="Q90" s="73"/>
+      <c r="R90" s="73"/>
+      <c r="S90" s="73"/>
+      <c r="T90" s="73"/>
+      <c r="U90" s="73"/>
+      <c r="V90" s="73"/>
+      <c r="W90" s="74"/>
     </row>
     <row r="91" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="130"/>
-      <c r="C91" s="117"/>
-      <c r="D91" s="62" t="s">
+      <c r="B91" s="118"/>
+      <c r="C91" s="112"/>
+      <c r="D91" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="E91" s="62"/>
-      <c r="F91" s="62" t="s">
+      <c r="E91" s="58"/>
+      <c r="F91" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G91" s="62">
+      <c r="G91" s="58">
         <v>2</v>
       </c>
-      <c r="H91" s="20">
+      <c r="H91" s="18">
         <v>0.25</v>
       </c>
-      <c r="I91" s="25">
+      <c r="I91" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J91" s="76"/>
-      <c r="K91" s="119"/>
-      <c r="L91" s="119"/>
-      <c r="M91" s="119"/>
-      <c r="N91" s="119"/>
-      <c r="O91" s="119"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
-      <c r="R91" s="77"/>
-      <c r="S91" s="77"/>
-      <c r="T91" s="77"/>
-      <c r="U91" s="77"/>
-      <c r="V91" s="77"/>
-      <c r="W91" s="78"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="95"/>
+      <c r="L91" s="95"/>
+      <c r="M91" s="95"/>
+      <c r="N91" s="95"/>
+      <c r="O91" s="95"/>
+      <c r="P91" s="73"/>
+      <c r="Q91" s="73"/>
+      <c r="R91" s="73"/>
+      <c r="S91" s="73"/>
+      <c r="T91" s="73"/>
+      <c r="U91" s="73"/>
+      <c r="V91" s="73"/>
+      <c r="W91" s="74"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="130"/>
-      <c r="C92" s="117"/>
-      <c r="D92" s="62" t="s">
+      <c r="B92" s="118"/>
+      <c r="C92" s="112"/>
+      <c r="D92" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E92" s="62"/>
-      <c r="F92" s="62" t="s">
+      <c r="E92" s="58"/>
+      <c r="F92" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G92" s="62">
+      <c r="G92" s="58">
         <v>2</v>
       </c>
-      <c r="H92" s="20">
+      <c r="H92" s="18">
         <v>0.25</v>
       </c>
-      <c r="I92" s="25">
+      <c r="I92" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J92" s="76"/>
-      <c r="K92" s="119"/>
-      <c r="L92" s="119"/>
-      <c r="M92" s="119"/>
-      <c r="N92" s="119"/>
-      <c r="O92" s="119"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="77"/>
-      <c r="R92" s="77"/>
-      <c r="S92" s="77"/>
-      <c r="T92" s="77"/>
-      <c r="U92" s="77"/>
-      <c r="V92" s="77"/>
-      <c r="W92" s="78"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="95"/>
+      <c r="L92" s="95"/>
+      <c r="M92" s="95"/>
+      <c r="N92" s="95"/>
+      <c r="O92" s="95"/>
+      <c r="P92" s="73"/>
+      <c r="Q92" s="73"/>
+      <c r="R92" s="73"/>
+      <c r="S92" s="73"/>
+      <c r="T92" s="73"/>
+      <c r="U92" s="73"/>
+      <c r="V92" s="73"/>
+      <c r="W92" s="74"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="130"/>
-      <c r="C93" s="117"/>
-      <c r="D93" s="62" t="s">
+      <c r="B93" s="118"/>
+      <c r="C93" s="112"/>
+      <c r="D93" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="E93" s="62"/>
-      <c r="F93" s="62" t="s">
+      <c r="E93" s="58"/>
+      <c r="F93" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G93" s="62">
+      <c r="G93" s="58">
         <v>2</v>
       </c>
-      <c r="H93" s="20">
+      <c r="H93" s="18">
         <v>0.25</v>
       </c>
-      <c r="I93" s="25">
+      <c r="I93" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J93" s="76"/>
-      <c r="K93" s="119"/>
-      <c r="L93" s="119"/>
-      <c r="M93" s="119"/>
-      <c r="N93" s="119"/>
-      <c r="O93" s="119"/>
-      <c r="P93" s="77"/>
-      <c r="Q93" s="77"/>
-      <c r="R93" s="77"/>
-      <c r="S93" s="77"/>
-      <c r="T93" s="77"/>
-      <c r="U93" s="77"/>
-      <c r="V93" s="77"/>
-      <c r="W93" s="78"/>
+      <c r="J93" s="72"/>
+      <c r="K93" s="95"/>
+      <c r="L93" s="95"/>
+      <c r="M93" s="95"/>
+      <c r="N93" s="95"/>
+      <c r="O93" s="95"/>
+      <c r="P93" s="73"/>
+      <c r="Q93" s="73"/>
+      <c r="R93" s="73"/>
+      <c r="S93" s="73"/>
+      <c r="T93" s="73"/>
+      <c r="U93" s="73"/>
+      <c r="V93" s="73"/>
+      <c r="W93" s="74"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="130"/>
-      <c r="C94" s="117"/>
-      <c r="D94" s="62" t="s">
+      <c r="B94" s="118"/>
+      <c r="C94" s="112"/>
+      <c r="D94" s="58" t="s">
         <v>89</v>
       </c>
-      <c r="E94" s="62"/>
-      <c r="F94" s="62" t="s">
+      <c r="E94" s="58"/>
+      <c r="F94" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G94" s="62">
+      <c r="G94" s="58">
         <v>2</v>
       </c>
-      <c r="H94" s="20">
+      <c r="H94" s="18">
         <v>0.25</v>
       </c>
-      <c r="I94" s="25">
+      <c r="I94" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J94" s="76"/>
-      <c r="K94" s="119"/>
-      <c r="L94" s="119"/>
-      <c r="M94" s="119"/>
-      <c r="N94" s="119"/>
-      <c r="O94" s="119"/>
-      <c r="P94" s="77"/>
-      <c r="Q94" s="77"/>
-      <c r="R94" s="77"/>
-      <c r="S94" s="77"/>
-      <c r="T94" s="77"/>
-      <c r="U94" s="77"/>
-      <c r="V94" s="77"/>
-      <c r="W94" s="78"/>
+      <c r="J94" s="72"/>
+      <c r="K94" s="95"/>
+      <c r="L94" s="95"/>
+      <c r="M94" s="95"/>
+      <c r="N94" s="95"/>
+      <c r="O94" s="95"/>
+      <c r="P94" s="73"/>
+      <c r="Q94" s="73"/>
+      <c r="R94" s="73"/>
+      <c r="S94" s="73"/>
+      <c r="T94" s="73"/>
+      <c r="U94" s="73"/>
+      <c r="V94" s="73"/>
+      <c r="W94" s="74"/>
     </row>
     <row r="95" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="130"/>
-      <c r="C95" s="117"/>
-      <c r="D95" s="62" t="s">
+      <c r="B95" s="118"/>
+      <c r="C95" s="112"/>
+      <c r="D95" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="E95" s="62"/>
-      <c r="F95" s="62" t="s">
+      <c r="E95" s="58"/>
+      <c r="F95" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G95" s="62">
+      <c r="G95" s="58">
         <v>2</v>
       </c>
-      <c r="H95" s="20">
+      <c r="H95" s="18">
         <v>0.25</v>
       </c>
-      <c r="I95" s="25">
+      <c r="I95" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J95" s="76"/>
-      <c r="K95" s="119"/>
-      <c r="L95" s="119"/>
-      <c r="M95" s="119"/>
-      <c r="N95" s="119"/>
-      <c r="O95" s="119"/>
-      <c r="P95" s="77"/>
-      <c r="Q95" s="77"/>
-      <c r="R95" s="77"/>
-      <c r="S95" s="77"/>
-      <c r="T95" s="77"/>
-      <c r="U95" s="77"/>
-      <c r="V95" s="77"/>
-      <c r="W95" s="78"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="95"/>
+      <c r="L95" s="95"/>
+      <c r="M95" s="95"/>
+      <c r="N95" s="95"/>
+      <c r="O95" s="95"/>
+      <c r="P95" s="73"/>
+      <c r="Q95" s="73"/>
+      <c r="R95" s="73"/>
+      <c r="S95" s="73"/>
+      <c r="T95" s="73"/>
+      <c r="U95" s="73"/>
+      <c r="V95" s="73"/>
+      <c r="W95" s="74"/>
     </row>
     <row r="96" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="130"/>
-      <c r="C96" s="117"/>
-      <c r="D96" s="62" t="s">
+      <c r="B96" s="118"/>
+      <c r="C96" s="112"/>
+      <c r="D96" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62" t="s">
+      <c r="E96" s="58"/>
+      <c r="F96" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G96" s="62">
+      <c r="G96" s="58">
         <v>2</v>
       </c>
-      <c r="H96" s="20">
+      <c r="H96" s="18">
         <v>0.25</v>
       </c>
-      <c r="I96" s="25">
+      <c r="I96" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J96" s="76"/>
-      <c r="K96" s="119"/>
-      <c r="L96" s="119"/>
-      <c r="M96" s="119"/>
-      <c r="N96" s="119"/>
-      <c r="O96" s="119"/>
-      <c r="P96" s="77"/>
-      <c r="Q96" s="77"/>
-      <c r="R96" s="77"/>
-      <c r="S96" s="77"/>
-      <c r="T96" s="77"/>
-      <c r="U96" s="77"/>
-      <c r="V96" s="77"/>
-      <c r="W96" s="78"/>
+      <c r="J96" s="72"/>
+      <c r="K96" s="95"/>
+      <c r="L96" s="95"/>
+      <c r="M96" s="95"/>
+      <c r="N96" s="95"/>
+      <c r="O96" s="95"/>
+      <c r="P96" s="73"/>
+      <c r="Q96" s="73"/>
+      <c r="R96" s="73"/>
+      <c r="S96" s="73"/>
+      <c r="T96" s="73"/>
+      <c r="U96" s="73"/>
+      <c r="V96" s="73"/>
+      <c r="W96" s="74"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="130"/>
-      <c r="C97" s="117"/>
-      <c r="D97" s="62" t="s">
+      <c r="B97" s="118"/>
+      <c r="C97" s="112"/>
+      <c r="D97" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="E97" s="62"/>
-      <c r="F97" s="62" t="s">
+      <c r="E97" s="58"/>
+      <c r="F97" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G97" s="62">
+      <c r="G97" s="58">
         <v>2</v>
       </c>
-      <c r="H97" s="20">
+      <c r="H97" s="18">
         <v>0.25</v>
       </c>
-      <c r="I97" s="25">
+      <c r="I97" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J97" s="76"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="119"/>
-      <c r="M97" s="119"/>
-      <c r="N97" s="119"/>
-      <c r="O97" s="119"/>
-      <c r="P97" s="77"/>
-      <c r="Q97" s="77"/>
-      <c r="R97" s="77"/>
-      <c r="S97" s="77"/>
-      <c r="T97" s="77"/>
-      <c r="U97" s="77"/>
-      <c r="V97" s="77"/>
-      <c r="W97" s="78"/>
+      <c r="J97" s="72"/>
+      <c r="K97" s="95"/>
+      <c r="L97" s="95"/>
+      <c r="M97" s="95"/>
+      <c r="N97" s="95"/>
+      <c r="O97" s="95"/>
+      <c r="P97" s="73"/>
+      <c r="Q97" s="73"/>
+      <c r="R97" s="73"/>
+      <c r="S97" s="73"/>
+      <c r="T97" s="73"/>
+      <c r="U97" s="73"/>
+      <c r="V97" s="73"/>
+      <c r="W97" s="74"/>
     </row>
     <row r="98" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="130"/>
-      <c r="C98" s="117"/>
-      <c r="D98" s="62" t="s">
+      <c r="B98" s="118"/>
+      <c r="C98" s="112"/>
+      <c r="D98" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="E98" s="62"/>
-      <c r="F98" s="62" t="s">
+      <c r="E98" s="58"/>
+      <c r="F98" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="G98" s="62">
+      <c r="G98" s="58">
         <v>2</v>
       </c>
-      <c r="H98" s="20">
+      <c r="H98" s="18">
         <v>0.25</v>
       </c>
-      <c r="I98" s="25">
+      <c r="I98" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J98" s="76"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="119"/>
-      <c r="M98" s="119"/>
-      <c r="N98" s="119"/>
-      <c r="O98" s="119"/>
-      <c r="P98" s="77"/>
-      <c r="Q98" s="77"/>
-      <c r="R98" s="77"/>
-      <c r="S98" s="77"/>
-      <c r="T98" s="77"/>
-      <c r="U98" s="77"/>
-      <c r="V98" s="77"/>
-      <c r="W98" s="78"/>
+      <c r="J98" s="72"/>
+      <c r="K98" s="95"/>
+      <c r="L98" s="95"/>
+      <c r="M98" s="95"/>
+      <c r="N98" s="95"/>
+      <c r="O98" s="95"/>
+      <c r="P98" s="73"/>
+      <c r="Q98" s="73"/>
+      <c r="R98" s="73"/>
+      <c r="S98" s="73"/>
+      <c r="T98" s="73"/>
+      <c r="U98" s="73"/>
+      <c r="V98" s="73"/>
+      <c r="W98" s="74"/>
     </row>
     <row r="99" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="130"/>
-      <c r="C99" s="148"/>
-      <c r="D99" s="61" t="s">
+      <c r="B99" s="118"/>
+      <c r="C99" s="113"/>
+      <c r="D99" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E99" s="61"/>
-      <c r="F99" s="61" t="s">
+      <c r="E99" s="57"/>
+      <c r="F99" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="G99" s="61">
+      <c r="G99" s="57">
         <v>2</v>
       </c>
-      <c r="H99" s="31">
+      <c r="H99" s="28">
         <v>0.25</v>
       </c>
-      <c r="I99" s="120">
+      <c r="I99" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J99" s="121"/>
-      <c r="K99" s="122"/>
-      <c r="L99" s="122"/>
-      <c r="M99" s="122"/>
-      <c r="N99" s="122"/>
-      <c r="O99" s="122"/>
-      <c r="P99" s="123"/>
-      <c r="Q99" s="123"/>
-      <c r="R99" s="123"/>
-      <c r="S99" s="123"/>
-      <c r="T99" s="123"/>
-      <c r="U99" s="123"/>
-      <c r="V99" s="123"/>
-      <c r="W99" s="124"/>
+      <c r="J99" s="97"/>
+      <c r="K99" s="98"/>
+      <c r="L99" s="98"/>
+      <c r="M99" s="98"/>
+      <c r="N99" s="98"/>
+      <c r="O99" s="98"/>
+      <c r="P99" s="99"/>
+      <c r="Q99" s="99"/>
+      <c r="R99" s="99"/>
+      <c r="S99" s="99"/>
+      <c r="T99" s="99"/>
+      <c r="U99" s="99"/>
+      <c r="V99" s="99"/>
+      <c r="W99" s="100"/>
     </row>
     <row r="100" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="130"/>
-      <c r="C100" s="125" t="s">
+      <c r="B100" s="118"/>
+      <c r="C100" s="120" t="s">
         <v>38</v>
       </c>
-      <c r="D100" s="62" t="s">
+      <c r="D100" s="58" t="s">
         <v>72</v>
       </c>
       <c r="E100" s="7"/>
@@ -5254,694 +5350,874 @@
       <c r="G100" s="6">
         <v>5</v>
       </c>
-      <c r="H100" s="20"/>
-      <c r="I100" s="26">
+      <c r="H100" s="18"/>
+      <c r="I100" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J100" s="76"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="119"/>
-      <c r="M100" s="119"/>
-      <c r="N100" s="119"/>
-      <c r="O100" s="119"/>
-      <c r="P100" s="119"/>
-      <c r="Q100" s="119"/>
-      <c r="R100" s="77"/>
-      <c r="S100" s="77"/>
-      <c r="T100" s="77"/>
-      <c r="U100" s="77"/>
-      <c r="V100" s="77"/>
-      <c r="W100" s="78"/>
+      <c r="J100" s="72"/>
+      <c r="K100" s="95"/>
+      <c r="L100" s="95"/>
+      <c r="M100" s="95"/>
+      <c r="N100" s="95"/>
+      <c r="O100" s="95"/>
+      <c r="P100" s="95"/>
+      <c r="Q100" s="95"/>
+      <c r="R100" s="73"/>
+      <c r="S100" s="73"/>
+      <c r="T100" s="73"/>
+      <c r="U100" s="73"/>
+      <c r="V100" s="73"/>
+      <c r="W100" s="74"/>
     </row>
     <row r="101" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="130"/>
-      <c r="C101" s="125"/>
+      <c r="B101" s="118"/>
+      <c r="C101" s="120"/>
       <c r="D101" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E101" s="7"/>
       <c r="F101" s="7"/>
-      <c r="G101" s="58">
+      <c r="G101" s="54">
         <v>5</v>
       </c>
-      <c r="H101" s="20"/>
-      <c r="I101" s="25">
+      <c r="H101" s="18"/>
+      <c r="I101" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J101" s="68"/>
-      <c r="K101" s="84"/>
-      <c r="L101" s="84"/>
-      <c r="M101" s="84"/>
-      <c r="N101" s="84"/>
-      <c r="O101" s="84"/>
-      <c r="P101" s="84"/>
-      <c r="Q101" s="84"/>
-      <c r="R101" s="85"/>
-      <c r="S101" s="85"/>
-      <c r="T101" s="85"/>
-      <c r="U101" s="85"/>
-      <c r="V101" s="85"/>
-      <c r="W101" s="86"/>
+      <c r="J101" s="64"/>
+      <c r="K101" s="80"/>
+      <c r="L101" s="80"/>
+      <c r="M101" s="80"/>
+      <c r="N101" s="80"/>
+      <c r="O101" s="80"/>
+      <c r="P101" s="80"/>
+      <c r="Q101" s="80"/>
+      <c r="R101" s="81"/>
+      <c r="S101" s="81"/>
+      <c r="T101" s="81"/>
+      <c r="U101" s="81"/>
+      <c r="V101" s="81"/>
+      <c r="W101" s="82"/>
     </row>
     <row r="102" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="130"/>
-      <c r="C102" s="125"/>
+      <c r="B102" s="118"/>
+      <c r="C102" s="120"/>
       <c r="D102" s="5" t="s">
         <v>74</v>
       </c>
       <c r="E102" s="7"/>
       <c r="F102" s="7"/>
-      <c r="G102" s="58">
+      <c r="G102" s="54">
         <v>5</v>
       </c>
-      <c r="H102" s="20"/>
-      <c r="I102" s="25">
+      <c r="H102" s="18"/>
+      <c r="I102" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J102" s="68"/>
-      <c r="K102" s="84"/>
-      <c r="L102" s="84"/>
-      <c r="M102" s="84"/>
-      <c r="N102" s="84"/>
-      <c r="O102" s="84"/>
-      <c r="P102" s="84"/>
-      <c r="Q102" s="84"/>
-      <c r="R102" s="85"/>
-      <c r="S102" s="85"/>
-      <c r="T102" s="85"/>
-      <c r="U102" s="85"/>
-      <c r="V102" s="85"/>
-      <c r="W102" s="86"/>
+      <c r="J102" s="64"/>
+      <c r="K102" s="80"/>
+      <c r="L102" s="80"/>
+      <c r="M102" s="80"/>
+      <c r="N102" s="80"/>
+      <c r="O102" s="80"/>
+      <c r="P102" s="80"/>
+      <c r="Q102" s="80"/>
+      <c r="R102" s="81"/>
+      <c r="S102" s="81"/>
+      <c r="T102" s="81"/>
+      <c r="U102" s="81"/>
+      <c r="V102" s="81"/>
+      <c r="W102" s="82"/>
     </row>
     <row r="103" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="130"/>
-      <c r="C103" s="125"/>
+      <c r="B103" s="118"/>
+      <c r="C103" s="120"/>
       <c r="D103" s="5" t="s">
         <v>75</v>
       </c>
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
-      <c r="G103" s="58">
+      <c r="G103" s="54">
         <v>5</v>
       </c>
-      <c r="H103" s="20"/>
-      <c r="I103" s="25">
+      <c r="H103" s="18"/>
+      <c r="I103" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J103" s="68"/>
-      <c r="K103" s="84"/>
-      <c r="L103" s="84"/>
-      <c r="M103" s="84"/>
-      <c r="N103" s="84"/>
-      <c r="O103" s="84"/>
-      <c r="P103" s="84"/>
-      <c r="Q103" s="84"/>
-      <c r="R103" s="84"/>
-      <c r="S103" s="85"/>
-      <c r="T103" s="85"/>
-      <c r="U103" s="85"/>
-      <c r="V103" s="85"/>
-      <c r="W103" s="86"/>
+      <c r="J103" s="64"/>
+      <c r="K103" s="80"/>
+      <c r="L103" s="80"/>
+      <c r="M103" s="80"/>
+      <c r="N103" s="80"/>
+      <c r="O103" s="80"/>
+      <c r="P103" s="80"/>
+      <c r="Q103" s="80"/>
+      <c r="R103" s="80"/>
+      <c r="S103" s="81"/>
+      <c r="T103" s="81"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="81"/>
+      <c r="W103" s="82"/>
     </row>
     <row r="104" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="130"/>
-      <c r="C104" s="125"/>
+      <c r="B104" s="118"/>
+      <c r="C104" s="120"/>
       <c r="D104" s="5" t="s">
         <v>76</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="58">
+      <c r="G104" s="54">
         <v>5</v>
       </c>
-      <c r="H104" s="21"/>
-      <c r="I104" s="25">
+      <c r="H104" s="19"/>
+      <c r="I104" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J104" s="68"/>
-      <c r="K104" s="84"/>
-      <c r="L104" s="84"/>
-      <c r="M104" s="84"/>
-      <c r="N104" s="84"/>
-      <c r="O104" s="84"/>
-      <c r="P104" s="84"/>
-      <c r="Q104" s="84"/>
-      <c r="R104" s="84"/>
-      <c r="S104" s="84"/>
-      <c r="T104" s="84"/>
-      <c r="U104" s="84"/>
-      <c r="V104" s="84"/>
-      <c r="W104" s="84"/>
+      <c r="J104" s="64"/>
+      <c r="K104" s="80"/>
+      <c r="L104" s="80"/>
+      <c r="M104" s="80"/>
+      <c r="N104" s="80"/>
+      <c r="O104" s="80"/>
+      <c r="P104" s="80"/>
+      <c r="Q104" s="80"/>
+      <c r="R104" s="80"/>
+      <c r="S104" s="80"/>
+      <c r="T104" s="80"/>
+      <c r="U104" s="80"/>
+      <c r="V104" s="80"/>
+      <c r="W104" s="80"/>
     </row>
     <row r="105" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="130"/>
-      <c r="C105" s="125"/>
+      <c r="B105" s="118"/>
+      <c r="C105" s="120"/>
       <c r="D105" s="5" t="s">
         <v>77</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
-      <c r="G105" s="58">
+      <c r="G105" s="54">
         <v>5</v>
       </c>
-      <c r="H105" s="21"/>
-      <c r="I105" s="25">
+      <c r="H105" s="19"/>
+      <c r="I105" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J105" s="68"/>
-      <c r="K105" s="84"/>
-      <c r="L105" s="84"/>
-      <c r="M105" s="84"/>
-      <c r="N105" s="84"/>
-      <c r="O105" s="84"/>
-      <c r="P105" s="84"/>
-      <c r="Q105" s="84"/>
-      <c r="R105" s="85"/>
-      <c r="S105" s="85"/>
-      <c r="T105" s="85"/>
-      <c r="U105" s="85"/>
-      <c r="V105" s="85"/>
-      <c r="W105" s="86"/>
+      <c r="J105" s="64"/>
+      <c r="K105" s="80"/>
+      <c r="L105" s="80"/>
+      <c r="M105" s="80"/>
+      <c r="N105" s="80"/>
+      <c r="O105" s="80"/>
+      <c r="P105" s="80"/>
+      <c r="Q105" s="80"/>
+      <c r="R105" s="81"/>
+      <c r="S105" s="81"/>
+      <c r="T105" s="81"/>
+      <c r="U105" s="81"/>
+      <c r="V105" s="81"/>
+      <c r="W105" s="82"/>
     </row>
     <row r="106" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="130"/>
-      <c r="C106" s="126"/>
+      <c r="B106" s="118"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
       <c r="G106" s="4"/>
-      <c r="H106" s="21"/>
-      <c r="I106" s="25">
+      <c r="H106" s="19"/>
+      <c r="I106" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J106" s="68"/>
-      <c r="K106" s="84"/>
-      <c r="L106" s="84"/>
-      <c r="M106" s="84"/>
-      <c r="N106" s="84"/>
-      <c r="O106" s="84"/>
-      <c r="P106" s="84"/>
-      <c r="Q106" s="84"/>
-      <c r="R106" s="85"/>
-      <c r="S106" s="85"/>
-      <c r="T106" s="85"/>
-      <c r="U106" s="85"/>
-      <c r="V106" s="85"/>
-      <c r="W106" s="86"/>
+      <c r="J106" s="64"/>
+      <c r="K106" s="80"/>
+      <c r="L106" s="80"/>
+      <c r="M106" s="80"/>
+      <c r="N106" s="80"/>
+      <c r="O106" s="80"/>
+      <c r="P106" s="80"/>
+      <c r="Q106" s="80"/>
+      <c r="R106" s="81"/>
+      <c r="S106" s="81"/>
+      <c r="T106" s="81"/>
+      <c r="U106" s="81"/>
+      <c r="V106" s="81"/>
+      <c r="W106" s="82"/>
     </row>
     <row r="107" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="130"/>
-      <c r="C107" s="126"/>
+      <c r="B107" s="118"/>
+      <c r="C107" s="101"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="4"/>
-      <c r="H107" s="21"/>
-      <c r="I107" s="25">
+      <c r="H107" s="19"/>
+      <c r="I107" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J107" s="68"/>
-      <c r="K107" s="84"/>
-      <c r="L107" s="84"/>
-      <c r="M107" s="84"/>
-      <c r="N107" s="84"/>
-      <c r="O107" s="84"/>
-      <c r="P107" s="84"/>
-      <c r="Q107" s="84"/>
-      <c r="R107" s="84"/>
-      <c r="S107" s="84"/>
-      <c r="T107" s="84"/>
-      <c r="U107" s="84"/>
-      <c r="V107" s="84"/>
-      <c r="W107" s="84"/>
+      <c r="J107" s="64"/>
+      <c r="K107" s="80"/>
+      <c r="L107" s="80"/>
+      <c r="M107" s="80"/>
+      <c r="N107" s="80"/>
+      <c r="O107" s="80"/>
+      <c r="P107" s="80"/>
+      <c r="Q107" s="80"/>
+      <c r="R107" s="80"/>
+      <c r="S107" s="80"/>
+      <c r="T107" s="80"/>
+      <c r="U107" s="80"/>
+      <c r="V107" s="80"/>
+      <c r="W107" s="80"/>
     </row>
     <row r="108" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="131"/>
-      <c r="C108" s="127"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="21"/>
-      <c r="I108" s="25">
+      <c r="B108" s="119"/>
+      <c r="C108" s="101"/>
+      <c r="D108" s="93"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="93"/>
+      <c r="H108" s="20"/>
+      <c r="I108" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J108" s="68"/>
-      <c r="K108" s="84"/>
-      <c r="L108" s="84"/>
-      <c r="M108" s="84"/>
-      <c r="N108" s="84"/>
-      <c r="O108" s="84"/>
-      <c r="P108" s="84"/>
-      <c r="Q108" s="84"/>
-      <c r="R108" s="84"/>
-      <c r="S108" s="84"/>
-      <c r="T108" s="84"/>
-      <c r="U108" s="84"/>
-      <c r="V108" s="84"/>
-      <c r="W108" s="84"/>
+      <c r="J108" s="64"/>
+      <c r="K108" s="80"/>
+      <c r="L108" s="80"/>
+      <c r="M108" s="80"/>
+      <c r="N108" s="80"/>
+      <c r="O108" s="80"/>
+      <c r="P108" s="80"/>
+      <c r="Q108" s="80"/>
+      <c r="R108" s="80"/>
+      <c r="S108" s="80"/>
+      <c r="T108" s="80"/>
+      <c r="U108" s="80"/>
+      <c r="V108" s="80"/>
+      <c r="W108" s="80"/>
     </row>
     <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="128"/>
-      <c r="C109" s="55"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="21"/>
-      <c r="I109" s="25">
+      <c r="B109" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="148" t="s">
+        <v>104</v>
+      </c>
+      <c r="D109" s="34"/>
+      <c r="E109" s="35"/>
+      <c r="F109" s="35"/>
+      <c r="G109" s="34">
+        <v>1</v>
+      </c>
+      <c r="H109" s="149"/>
+      <c r="I109" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J109" s="68"/>
-      <c r="K109" s="84"/>
-      <c r="L109" s="84"/>
-      <c r="M109" s="84"/>
-      <c r="N109" s="84"/>
-      <c r="O109" s="84"/>
-      <c r="P109" s="84"/>
-      <c r="Q109" s="84"/>
-      <c r="R109" s="84"/>
-      <c r="S109" s="84"/>
-      <c r="T109" s="84"/>
-      <c r="U109" s="84"/>
-      <c r="V109" s="84"/>
-      <c r="W109" s="84"/>
+      <c r="J109" s="64"/>
+      <c r="K109" s="80"/>
+      <c r="L109" s="80"/>
+      <c r="M109" s="80"/>
+      <c r="N109" s="80"/>
+      <c r="O109" s="80"/>
+      <c r="P109" s="80"/>
+      <c r="Q109" s="80"/>
+      <c r="R109" s="80"/>
+      <c r="S109" s="80"/>
+      <c r="T109" s="80"/>
+      <c r="U109" s="80"/>
+      <c r="V109" s="80"/>
+      <c r="W109" s="80"/>
     </row>
     <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="110"/>
-      <c r="C110" s="15"/>
+      <c r="B110" s="152"/>
+      <c r="C110" s="150" t="s">
+        <v>105</v>
+      </c>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="21"/>
-      <c r="I110" s="25">
+      <c r="G110" s="4">
+        <v>2</v>
+      </c>
+      <c r="H110" s="89"/>
+      <c r="I110" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J110" s="68"/>
-      <c r="K110" s="84"/>
-      <c r="L110" s="84"/>
-      <c r="M110" s="84"/>
-      <c r="N110" s="84"/>
-      <c r="O110" s="84"/>
-      <c r="P110" s="84"/>
-      <c r="Q110" s="84"/>
-      <c r="R110" s="84"/>
-      <c r="S110" s="84"/>
-      <c r="T110" s="85"/>
-      <c r="U110" s="85"/>
-      <c r="V110" s="85"/>
-      <c r="W110" s="84"/>
+      <c r="J110" s="64"/>
+      <c r="K110" s="80"/>
+      <c r="L110" s="80"/>
+      <c r="M110" s="80"/>
+      <c r="N110" s="80"/>
+      <c r="O110" s="80"/>
+      <c r="P110" s="80"/>
+      <c r="Q110" s="80"/>
+      <c r="R110" s="80"/>
+      <c r="S110" s="80"/>
+      <c r="T110" s="81"/>
+      <c r="U110" s="81"/>
+      <c r="V110" s="81"/>
+      <c r="W110" s="80"/>
     </row>
     <row r="111" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="24"/>
-      <c r="C111" s="15"/>
+      <c r="B111" s="152"/>
+      <c r="C111" s="150" t="s">
+        <v>95</v>
+      </c>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="21"/>
-      <c r="I111" s="25">
+      <c r="G111" s="4">
+        <v>2</v>
+      </c>
+      <c r="H111" s="89"/>
+      <c r="I111" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J111" s="68"/>
-      <c r="K111" s="84"/>
-      <c r="L111" s="84"/>
-      <c r="M111" s="84"/>
-      <c r="N111" s="84"/>
-      <c r="O111" s="84"/>
-      <c r="P111" s="84"/>
-      <c r="Q111" s="84"/>
-      <c r="R111" s="84"/>
-      <c r="S111" s="84"/>
-      <c r="T111" s="84"/>
-      <c r="U111" s="84"/>
-      <c r="V111" s="84"/>
-      <c r="W111" s="84"/>
+      <c r="J111" s="64"/>
+      <c r="K111" s="80"/>
+      <c r="L111" s="80"/>
+      <c r="M111" s="80"/>
+      <c r="N111" s="80"/>
+      <c r="O111" s="80"/>
+      <c r="P111" s="80"/>
+      <c r="Q111" s="80"/>
+      <c r="R111" s="80"/>
+      <c r="S111" s="80"/>
+      <c r="T111" s="80"/>
+      <c r="U111" s="80"/>
+      <c r="V111" s="80"/>
+      <c r="W111" s="80"/>
     </row>
     <row r="112" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="24"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="21"/>
-      <c r="I112" s="25">
+      <c r="B112" s="153"/>
+      <c r="C112" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="26"/>
+      <c r="G112" s="25">
+        <v>1</v>
+      </c>
+      <c r="H112" s="29"/>
+      <c r="I112" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J112" s="68"/>
-      <c r="K112" s="84"/>
-      <c r="L112" s="84"/>
-      <c r="M112" s="84"/>
-      <c r="N112" s="85"/>
-      <c r="O112" s="85"/>
-      <c r="P112" s="85"/>
-      <c r="Q112" s="85"/>
-      <c r="R112" s="85"/>
-      <c r="S112" s="85"/>
-      <c r="T112" s="85"/>
-      <c r="U112" s="85"/>
-      <c r="V112" s="85"/>
-      <c r="W112" s="86"/>
+      <c r="J112" s="64"/>
+      <c r="K112" s="80"/>
+      <c r="L112" s="80"/>
+      <c r="M112" s="80"/>
+      <c r="N112" s="81"/>
+      <c r="O112" s="81"/>
+      <c r="P112" s="81"/>
+      <c r="Q112" s="81"/>
+      <c r="R112" s="81"/>
+      <c r="S112" s="81"/>
+      <c r="T112" s="81"/>
+      <c r="U112" s="81"/>
+      <c r="V112" s="81"/>
+      <c r="W112" s="82"/>
     </row>
     <row r="113" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="16"/>
-      <c r="C113" s="11"/>
-      <c r="D113" s="18"/>
-      <c r="E113" s="5"/>
-      <c r="F113" s="19"/>
-      <c r="G113" s="18"/>
-      <c r="H113" s="21"/>
-      <c r="I113" s="25">
+      <c r="B113" s="117" t="s">
+        <v>97</v>
+      </c>
+      <c r="C113" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="D113" s="94"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="147"/>
+      <c r="G113" s="94">
+        <v>1</v>
+      </c>
+      <c r="H113" s="18"/>
+      <c r="I113" s="22">
+        <v>0</v>
+      </c>
+      <c r="J113" s="76"/>
+      <c r="K113" s="83"/>
+      <c r="L113" s="83"/>
+      <c r="M113" s="83"/>
+      <c r="N113" s="84"/>
+      <c r="O113" s="84"/>
+      <c r="P113" s="84"/>
+      <c r="Q113" s="84"/>
+      <c r="R113" s="84"/>
+      <c r="S113" s="84"/>
+      <c r="T113" s="84"/>
+      <c r="U113" s="84"/>
+      <c r="V113" s="84"/>
+      <c r="W113" s="85"/>
+    </row>
+    <row r="114" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="152"/>
+      <c r="C114" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="D114" s="93"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="93">
+        <v>4</v>
+      </c>
+      <c r="H114" s="19"/>
+      <c r="I114" s="22">
+        <v>0</v>
+      </c>
+      <c r="J114" s="76"/>
+      <c r="K114" s="83"/>
+      <c r="L114" s="83"/>
+      <c r="M114" s="83"/>
+      <c r="N114" s="84"/>
+      <c r="O114" s="84"/>
+      <c r="P114" s="84"/>
+      <c r="Q114" s="84"/>
+      <c r="R114" s="84"/>
+      <c r="S114" s="84"/>
+      <c r="T114" s="84"/>
+      <c r="U114" s="84"/>
+      <c r="V114" s="84"/>
+      <c r="W114" s="85"/>
+    </row>
+    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="152"/>
+      <c r="C115" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="D115" s="93"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="93">
+        <v>1</v>
+      </c>
+      <c r="H115" s="19"/>
+      <c r="I115" s="22">
+        <v>0</v>
+      </c>
+      <c r="J115" s="76"/>
+      <c r="K115" s="83"/>
+      <c r="L115" s="83"/>
+      <c r="M115" s="83"/>
+      <c r="N115" s="84"/>
+      <c r="O115" s="84"/>
+      <c r="P115" s="84"/>
+      <c r="Q115" s="84"/>
+      <c r="R115" s="84"/>
+      <c r="S115" s="84"/>
+      <c r="T115" s="84"/>
+      <c r="U115" s="84"/>
+      <c r="V115" s="84"/>
+      <c r="W115" s="85"/>
+    </row>
+    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="152"/>
+      <c r="C116" s="145" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="93"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="93">
+        <v>1</v>
+      </c>
+      <c r="H116" s="19"/>
+      <c r="I116" s="22">
+        <v>0</v>
+      </c>
+      <c r="J116" s="76"/>
+      <c r="K116" s="83"/>
+      <c r="L116" s="83"/>
+      <c r="M116" s="83"/>
+      <c r="N116" s="84"/>
+      <c r="O116" s="84"/>
+      <c r="P116" s="84"/>
+      <c r="Q116" s="84"/>
+      <c r="R116" s="84"/>
+      <c r="S116" s="84"/>
+      <c r="T116" s="84"/>
+      <c r="U116" s="84"/>
+      <c r="V116" s="84"/>
+      <c r="W116" s="85"/>
+    </row>
+    <row r="117" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="152"/>
+      <c r="C117" s="145" t="s">
+        <v>101</v>
+      </c>
+      <c r="D117" s="93"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="93">
+        <v>1</v>
+      </c>
+      <c r="H117" s="19"/>
+      <c r="I117" s="22">
+        <v>0</v>
+      </c>
+      <c r="J117" s="76"/>
+      <c r="K117" s="83"/>
+      <c r="L117" s="83"/>
+      <c r="M117" s="83"/>
+      <c r="N117" s="84"/>
+      <c r="O117" s="84"/>
+      <c r="P117" s="84"/>
+      <c r="Q117" s="84"/>
+      <c r="R117" s="84"/>
+      <c r="S117" s="84"/>
+      <c r="T117" s="84"/>
+      <c r="U117" s="84"/>
+      <c r="V117" s="84"/>
+      <c r="W117" s="85"/>
+    </row>
+    <row r="118" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="152"/>
+      <c r="C118" s="145" t="s">
+        <v>102</v>
+      </c>
+      <c r="D118" s="93"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="93">
+        <v>3</v>
+      </c>
+      <c r="H118" s="19"/>
+      <c r="I118" s="22">
+        <v>0</v>
+      </c>
+      <c r="J118" s="76"/>
+      <c r="K118" s="83"/>
+      <c r="L118" s="83"/>
+      <c r="M118" s="83"/>
+      <c r="N118" s="84"/>
+      <c r="O118" s="84"/>
+      <c r="P118" s="84"/>
+      <c r="Q118" s="84"/>
+      <c r="R118" s="84"/>
+      <c r="S118" s="84"/>
+      <c r="T118" s="84"/>
+      <c r="U118" s="84"/>
+      <c r="V118" s="84"/>
+      <c r="W118" s="85"/>
+    </row>
+    <row r="119" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="153"/>
+      <c r="C119" s="146" t="s">
+        <v>106</v>
+      </c>
+      <c r="D119" s="16"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="16">
+        <v>1</v>
+      </c>
+      <c r="H119" s="19"/>
+      <c r="I119" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J113" s="72"/>
-      <c r="K113" s="90"/>
-      <c r="L113" s="90"/>
-      <c r="M113" s="90"/>
-      <c r="N113" s="90"/>
-      <c r="O113" s="90"/>
-      <c r="P113" s="91"/>
-      <c r="Q113" s="91"/>
-      <c r="R113" s="91"/>
-      <c r="S113" s="91"/>
-      <c r="T113" s="91"/>
-      <c r="U113" s="91"/>
-      <c r="V113" s="91"/>
-      <c r="W113" s="92"/>
-    </row>
-    <row r="114" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="108" t="s">
+      <c r="J119" s="68"/>
+      <c r="K119" s="86"/>
+      <c r="L119" s="86"/>
+      <c r="M119" s="86"/>
+      <c r="N119" s="86"/>
+      <c r="O119" s="86"/>
+      <c r="P119" s="87"/>
+      <c r="Q119" s="87"/>
+      <c r="R119" s="87"/>
+      <c r="S119" s="87"/>
+      <c r="T119" s="87"/>
+      <c r="U119" s="87"/>
+      <c r="V119" s="87"/>
+      <c r="W119" s="88"/>
+    </row>
+    <row r="120" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="C114" s="109"/>
-      <c r="D114" s="109"/>
-      <c r="E114" s="109"/>
-      <c r="F114" s="109"/>
-      <c r="G114" s="109"/>
-      <c r="H114" s="23">
-        <f>SUM(H4:H113)</f>
+      <c r="C120" s="136"/>
+      <c r="D120" s="136"/>
+      <c r="E120" s="136"/>
+      <c r="F120" s="136"/>
+      <c r="G120" s="136"/>
+      <c r="H120" s="21">
+        <f t="shared" ref="H120:W120" si="2">SUM(H4:H119)</f>
         <v>15.5</v>
       </c>
-      <c r="I114" s="13">
-        <f>SUM(I4:I113)</f>
-        <v>0</v>
-      </c>
-      <c r="J114" s="52">
-        <f>SUM(J4:J113)</f>
-        <v>0</v>
-      </c>
-      <c r="K114" s="53">
-        <f>SUM(K4:K113)</f>
-        <v>0</v>
-      </c>
-      <c r="L114" s="53">
-        <f>SUM(L4:L113)</f>
-        <v>0</v>
-      </c>
-      <c r="M114" s="53">
-        <f>SUM(M4:M113)</f>
-        <v>0</v>
-      </c>
-      <c r="N114" s="53">
-        <f>SUM(N4:N113)</f>
-        <v>0</v>
-      </c>
-      <c r="O114" s="53">
-        <f>SUM(O4:O113)</f>
-        <v>0</v>
-      </c>
-      <c r="P114" s="53">
-        <f>SUM(P4:P113)</f>
-        <v>0</v>
-      </c>
-      <c r="Q114" s="53">
-        <f>SUM(Q4:Q113)</f>
-        <v>0</v>
-      </c>
-      <c r="R114" s="53">
-        <f>SUM(R4:R113)</f>
-        <v>0</v>
-      </c>
-      <c r="S114" s="53">
-        <f>SUM(S4:S113)</f>
-        <v>0</v>
-      </c>
-      <c r="T114" s="53">
-        <f>SUM(T4:T113)</f>
-        <v>0</v>
-      </c>
-      <c r="U114" s="53">
-        <f>SUM(U4:U113)</f>
-        <v>0</v>
-      </c>
-      <c r="V114" s="53">
-        <f>SUM(V4:V113)</f>
-        <v>0</v>
-      </c>
-      <c r="W114" s="54">
-        <f>SUM(W4:W113)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="100" t="s">
+      <c r="I120" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J120" s="49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V120" s="50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W120" s="51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="121" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="101"/>
-      <c r="L115" s="101"/>
-      <c r="M115" s="101"/>
-      <c r="N115" s="101"/>
-      <c r="O115" s="101"/>
-      <c r="P115" s="101"/>
-      <c r="Q115" s="101"/>
-      <c r="R115" s="101"/>
-      <c r="S115" s="101"/>
-      <c r="T115" s="101"/>
-      <c r="U115" s="101"/>
-      <c r="V115" s="101"/>
-      <c r="W115" s="102"/>
-    </row>
-    <row r="116" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="3"/>
-      <c r="K116" s="3"/>
-      <c r="L116" s="3"/>
-      <c r="M116" s="3"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-    </row>
-    <row r="117" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" s="118"/>
-      <c r="J117" s="12">
-        <f>H114-J114</f>
-        <v>15.5</v>
-      </c>
-      <c r="K117" s="12">
-        <f>J117-K114</f>
-        <v>15.5</v>
-      </c>
-      <c r="L117" s="12">
-        <f>K117-L114</f>
-        <v>15.5</v>
-      </c>
-      <c r="M117" s="12">
-        <f>L117-M114</f>
-        <v>15.5</v>
-      </c>
-      <c r="N117" s="12">
-        <f t="shared" ref="N117:W117" si="2">M117-N114</f>
-        <v>15.5</v>
-      </c>
-      <c r="O117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="P117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="Q117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="R117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="S117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="T117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="U117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="V117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-      <c r="W117" s="12">
-        <f t="shared" si="2"/>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="118" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
-      <c r="K118" s="3"/>
-      <c r="L118" s="3"/>
-      <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-      <c r="H119" s="97" t="s">
-        <v>10</v>
-      </c>
-      <c r="I119" s="98"/>
-      <c r="J119" s="97">
-        <f>H114-I114</f>
-        <v>15.5</v>
-      </c>
-      <c r="K119" s="98"/>
-      <c r="L119" s="98"/>
-      <c r="M119" s="98"/>
-      <c r="N119" s="98"/>
-      <c r="O119" s="98"/>
-      <c r="P119" s="98"/>
-      <c r="Q119" s="98"/>
-      <c r="R119" s="98"/>
-      <c r="S119" s="98"/>
-      <c r="T119" s="98"/>
-      <c r="U119" s="98"/>
-      <c r="V119" s="98"/>
-      <c r="W119" s="99"/>
-    </row>
-    <row r="120" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-    </row>
-    <row r="121" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="3"/>
-      <c r="J121" s="3"/>
-      <c r="K121" s="3"/>
-      <c r="L121" s="3"/>
-      <c r="M121" s="3"/>
-    </row>
-    <row r="122" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B122" s="3"/>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="3"/>
+      <c r="K121" s="122"/>
+      <c r="L121" s="122"/>
+      <c r="M121" s="122"/>
+      <c r="N121" s="122"/>
+      <c r="O121" s="122"/>
+      <c r="P121" s="122"/>
+      <c r="Q121" s="122"/>
+      <c r="R121" s="122"/>
+      <c r="S121" s="122"/>
+      <c r="T121" s="122"/>
+      <c r="U121" s="122"/>
+      <c r="V121" s="122"/>
+      <c r="W121" s="123"/>
+    </row>
+    <row r="122" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
       <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
-    </row>
-    <row r="123" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="9"/>
-    </row>
-    <row r="126" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
-    </row>
-    <row r="127" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="9"/>
-    </row>
-    <row r="128" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
-    </row>
-    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="9"/>
-    </row>
-    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
-    </row>
-    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
-    </row>
-    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="9"/>
-    </row>
-    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="9"/>
-    </row>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+    </row>
+    <row r="123" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="107" t="s">
+        <v>9</v>
+      </c>
+      <c r="I123" s="110"/>
+      <c r="J123" s="12">
+        <f>H120-J120</f>
+        <v>15.5</v>
+      </c>
+      <c r="K123" s="12">
+        <f>J123-K120</f>
+        <v>15.5</v>
+      </c>
+      <c r="L123" s="12">
+        <f>K123-L120</f>
+        <v>15.5</v>
+      </c>
+      <c r="M123" s="12">
+        <f>L123-M120</f>
+        <v>15.5</v>
+      </c>
+      <c r="N123" s="12">
+        <f t="shared" ref="N123:W123" si="3">M123-N120</f>
+        <v>15.5</v>
+      </c>
+      <c r="O123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="P123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="Q123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="R123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="S123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="T123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="U123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="V123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+      <c r="W123" s="12">
+        <f t="shared" si="3"/>
+        <v>15.5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+      <c r="E124" s="3"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+    </row>
+    <row r="125" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="144"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+      <c r="E125" s="3"/>
+      <c r="F125" s="3"/>
+      <c r="H125" s="107" t="s">
+        <v>10</v>
+      </c>
+      <c r="I125" s="108"/>
+      <c r="J125" s="107">
+        <f>H120-I120</f>
+        <v>15.5</v>
+      </c>
+      <c r="K125" s="108"/>
+      <c r="L125" s="108"/>
+      <c r="M125" s="108"/>
+      <c r="N125" s="108"/>
+      <c r="O125" s="108"/>
+      <c r="P125" s="108"/>
+      <c r="Q125" s="108"/>
+      <c r="R125" s="108"/>
+      <c r="S125" s="108"/>
+      <c r="T125" s="108"/>
+      <c r="U125" s="108"/>
+      <c r="V125" s="108"/>
+      <c r="W125" s="109"/>
+    </row>
+    <row r="126" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+      <c r="E126" s="3"/>
+      <c r="F126" s="3"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+      <c r="I126" s="3"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+    </row>
+    <row r="127" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+      <c r="E127" s="3"/>
+      <c r="F127" s="3"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+    </row>
+    <row r="128" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+      <c r="E128" s="3"/>
+      <c r="F128" s="3"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="3"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+    </row>
+    <row r="129" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
     </row>
@@ -5951,30 +6227,47 @@
     <row r="136" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
     </row>
-    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
-    </row>
+    <row r="137" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="138" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B141" s="9"/>
+    </row>
+    <row r="142" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B142" s="9"/>
+    </row>
+    <row r="143" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B143" s="9"/>
+    </row>
+    <row r="144" spans="2:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B144" s="9"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="8"/>
+      <c r="C145" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="J119:W119"/>
-    <mergeCell ref="H117:I117"/>
-    <mergeCell ref="H119:I119"/>
-    <mergeCell ref="C72:C99"/>
-    <mergeCell ref="C19:C40"/>
+  <mergeCells count="19">
     <mergeCell ref="B72:B108"/>
     <mergeCell ref="C100:C105"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J115:W115"/>
+    <mergeCell ref="J121:W121"/>
     <mergeCell ref="B15:B62"/>
     <mergeCell ref="B63:B71"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B4:B10"/>
-    <mergeCell ref="B114:G114"/>
-    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="B120:G120"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B109:B112"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="J125:W125"/>
+    <mergeCell ref="H123:I123"/>
+    <mergeCell ref="H125:I125"/>
+    <mergeCell ref="C72:C99"/>
+    <mergeCell ref="C19:C40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsierra\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanut\Documents\ENTI\MAP\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -299,24 +299,9 @@
     <t>Sonidos textos sala 15</t>
   </si>
   <si>
-    <t>guardar</t>
-  </si>
-  <si>
-    <t>continuar</t>
-  </si>
-  <si>
-    <t>continuar desde origen</t>
-  </si>
-  <si>
-    <t>guardar numero de muertes</t>
-  </si>
-  <si>
     <t>Complete game</t>
   </si>
   <si>
-    <t>meme radef "return of radef</t>
-  </si>
-  <si>
     <t>Game Over</t>
   </si>
   <si>
@@ -417,13 +402,28 @@
   </si>
   <si>
     <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>Meme radev "return of radev"</t>
+  </si>
+  <si>
+    <t>Guardar numero de muertes</t>
+  </si>
+  <si>
+    <t>Continuar desde origen</t>
+  </si>
+  <si>
+    <t>Continuar</t>
+  </si>
+  <si>
+    <t>Guardar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -495,14 +495,6 @@
     <font>
       <b/>
       <sz val="28"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1196,6 +1188,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1205,6 +1336,39 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1214,103 +1378,43 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1319,121 +1423,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1487,6 +1479,57 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$J$3:$W$3</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>43068</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43069</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43070</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43071</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43072</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43074</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43076</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43078</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43079</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43080</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Hoja1!$J$106:$W$106</c:f>
@@ -1557,7 +1600,7 @@
         <c:axId val="1594534288"/>
         <c:axId val="1594528848"/>
       </c:lineChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="1594534288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1571,10 +1614,9 @@
         <c:crossAx val="1594528848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="1594528848"/>
         <c:scaling>
@@ -1939,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1962,29 +2004,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B1" s="119" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="86" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="66"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="100"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2011,43 +2053,43 @@
       <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="82">
+      <c r="J3" s="62">
         <v>43068</v>
       </c>
-      <c r="K3" s="82">
+      <c r="K3" s="62">
         <v>43069</v>
       </c>
-      <c r="L3" s="82">
+      <c r="L3" s="62">
         <v>43070</v>
       </c>
-      <c r="M3" s="82">
+      <c r="M3" s="62">
         <v>43071</v>
       </c>
-      <c r="N3" s="82">
+      <c r="N3" s="62">
         <v>43072</v>
       </c>
-      <c r="O3" s="82">
+      <c r="O3" s="62">
         <v>43073</v>
       </c>
-      <c r="P3" s="82">
+      <c r="P3" s="62">
         <v>43074</v>
       </c>
-      <c r="Q3" s="82">
+      <c r="Q3" s="62">
         <v>43075</v>
       </c>
-      <c r="R3" s="82">
+      <c r="R3" s="62">
         <v>43076</v>
       </c>
-      <c r="S3" s="82">
+      <c r="S3" s="62">
         <v>43077</v>
       </c>
-      <c r="T3" s="82">
+      <c r="T3" s="62">
         <v>43078</v>
       </c>
-      <c r="U3" s="82">
+      <c r="U3" s="62">
         <v>43079</v>
       </c>
-      <c r="V3" s="82">
+      <c r="V3" s="62">
         <v>43080</v>
       </c>
       <c r="W3" s="13">
@@ -2055,17 +2097,17 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="48" t="s">
+      <c r="D4" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47" t="s">
+      <c r="E4" s="40"/>
+      <c r="F4" s="40" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="12">
@@ -2074,11 +2116,11 @@
       <c r="H4" s="12">
         <v>0.2</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="59">
         <f>SUM(J4:W4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="104">
+      <c r="J4" s="72">
         <v>0</v>
       </c>
       <c r="K4" s="27"/>
@@ -2096,13 +2138,13 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="75"/>
-      <c r="C5" s="55" t="s">
+      <c r="B5" s="105"/>
+      <c r="C5" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4">
@@ -2111,11 +2153,11 @@
       <c r="H5" s="4">
         <v>0.2</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="57">
         <f t="shared" ref="I5:I40" si="0">SUM(J5:W5)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="105">
+      <c r="J5" s="73">
         <v>0</v>
       </c>
       <c r="K5" s="30"/>
@@ -2133,13 +2175,13 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="75"/>
-      <c r="C6" s="55" t="s">
+      <c r="B6" s="105"/>
+      <c r="C6" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4">
@@ -2148,11 +2190,11 @@
       <c r="H6" s="4">
         <v>0.3</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="105">
+      <c r="J6" s="73">
         <v>0</v>
       </c>
       <c r="K6" s="30"/>
@@ -2170,15 +2212,15 @@
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
-      <c r="C7" s="68" t="s">
+      <c r="B7" s="105"/>
+      <c r="C7" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="56"/>
+      <c r="F7" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="4">
@@ -2187,11 +2229,11 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="67">
+      <c r="I7" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="105">
+      <c r="J7" s="73">
         <v>0</v>
       </c>
       <c r="K7" s="30"/>
@@ -2209,13 +2251,13 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="75"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="55" t="s">
+      <c r="B8" s="105"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61" t="s">
+      <c r="E8" s="54"/>
+      <c r="F8" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -2224,11 +2266,11 @@
       <c r="H8" s="4">
         <v>0.75</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="73">
         <v>0</v>
       </c>
       <c r="K8" s="30"/>
@@ -2246,13 +2288,13 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="52" t="s">
+      <c r="B9" s="109"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53" t="s">
+      <c r="E9" s="46"/>
+      <c r="F9" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11">
@@ -2261,11 +2303,11 @@
       <c r="H9" s="11">
         <v>0.2</v>
       </c>
-      <c r="I9" s="81">
+      <c r="I9" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="106">
+      <c r="J9" s="74">
         <v>0</v>
       </c>
       <c r="K9" s="34"/>
@@ -2283,15 +2325,15 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="106" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="39">
@@ -2300,11 +2342,11 @@
       <c r="H10" s="38">
         <v>0.2</v>
       </c>
-      <c r="I10" s="84">
+      <c r="I10" s="63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="107">
+      <c r="J10" s="75">
         <v>0</v>
       </c>
       <c r="K10" s="37"/>
@@ -2322,13 +2364,13 @@
       <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="76"/>
-      <c r="C11" s="55" t="s">
+      <c r="B11" s="107"/>
+      <c r="C11" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="55"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4">
@@ -2337,11 +2379,11 @@
       <c r="H11" s="4">
         <v>0.15</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="105">
+      <c r="J11" s="73">
         <v>0</v>
       </c>
       <c r="K11" s="30"/>
@@ -2356,16 +2398,16 @@
       <c r="T11" s="30"/>
       <c r="U11" s="30"/>
       <c r="V11" s="30"/>
-      <c r="W11" s="77"/>
+      <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76"/>
-      <c r="C12" s="55" t="s">
+      <c r="B12" s="107"/>
+      <c r="C12" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4">
@@ -2374,11 +2416,11 @@
       <c r="H12" s="4">
         <v>0.15</v>
       </c>
-      <c r="I12" s="67">
+      <c r="I12" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="105">
+      <c r="J12" s="73">
         <v>0</v>
       </c>
       <c r="K12" s="30"/>
@@ -2393,16 +2435,16 @@
       <c r="T12" s="30"/>
       <c r="U12" s="30"/>
       <c r="V12" s="30"/>
-      <c r="W12" s="77"/>
+      <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="101"/>
-      <c r="C13" s="54" t="s">
-        <v>125</v>
-      </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62" t="s">
+      <c r="B13" s="108"/>
+      <c r="C13" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G13" s="39">
@@ -2411,11 +2453,11 @@
       <c r="H13" s="39">
         <v>0.15</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="108"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="33"/>
       <c r="L13" s="33"/>
       <c r="M13" s="33"/>
@@ -2428,16 +2470,16 @@
       <c r="T13" s="33"/>
       <c r="U13" s="33"/>
       <c r="V13" s="33"/>
-      <c r="W13" s="103"/>
+      <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="101"/>
-      <c r="C14" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62" t="s">
+      <c r="B14" s="108"/>
+      <c r="C14" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="47"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="39">
@@ -2446,11 +2488,11 @@
       <c r="H14" s="39">
         <v>0.15</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="108"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="33"/>
       <c r="L14" s="33"/>
       <c r="M14" s="33"/>
@@ -2463,16 +2505,16 @@
       <c r="T14" s="33"/>
       <c r="U14" s="33"/>
       <c r="V14" s="33"/>
-      <c r="W14" s="103"/>
+      <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="101"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="108"/>
+      <c r="C15" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="54"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62" t="s">
+      <c r="D15" s="47"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="39">
@@ -2481,11 +2523,11 @@
       <c r="H15" s="39">
         <v>0.15</v>
       </c>
-      <c r="I15" s="102">
+      <c r="I15" s="70">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="108">
+      <c r="J15" s="76">
         <v>0</v>
       </c>
       <c r="K15" s="33"/>
@@ -2500,18 +2542,18 @@
       <c r="T15" s="33"/>
       <c r="U15" s="33"/>
       <c r="V15" s="33"/>
-      <c r="W15" s="103"/>
+      <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59" t="s">
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="12">
@@ -2520,11 +2562,11 @@
       <c r="H16" s="12">
         <v>2</v>
       </c>
-      <c r="I16" s="74">
+      <c r="I16" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J16" s="104">
+      <c r="J16" s="72">
         <v>0</v>
       </c>
       <c r="K16" s="27"/>
@@ -2542,13 +2584,13 @@
       <c r="W16" s="29"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="75"/>
-      <c r="C17" s="55" t="s">
+      <c r="B17" s="105"/>
+      <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="4">
@@ -2557,11 +2599,11 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="105">
+      <c r="J17" s="73">
         <v>0</v>
       </c>
       <c r="K17" s="30"/>
@@ -2579,15 +2621,15 @@
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="75"/>
-      <c r="C18" s="69" t="s">
+      <c r="B18" s="105"/>
+      <c r="C18" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="55" t="s">
+      <c r="D18" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55" t="s">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="4">
@@ -2596,11 +2638,11 @@
       <c r="H18" s="4">
         <v>0.2</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="105">
+      <c r="J18" s="73">
         <v>0</v>
       </c>
       <c r="K18" s="30"/>
@@ -2618,13 +2660,13 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="75"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="55" t="s">
+      <c r="B19" s="105"/>
+      <c r="C19" s="112"/>
+      <c r="D19" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55" t="s">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4">
@@ -2633,11 +2675,11 @@
       <c r="H19" s="4">
         <v>0.5</v>
       </c>
-      <c r="I19" s="67">
+      <c r="I19" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="105">
+      <c r="J19" s="73">
         <v>0</v>
       </c>
       <c r="K19" s="30"/>
@@ -2655,15 +2697,15 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="75"/>
-      <c r="C20" s="70" t="s">
+      <c r="B20" s="105"/>
+      <c r="C20" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="55" t="s">
+      <c r="D20" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55" t="s">
+      <c r="E20" s="48"/>
+      <c r="F20" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="4">
@@ -2672,11 +2714,11 @@
       <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="67">
+      <c r="I20" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="105">
+      <c r="J20" s="73">
         <v>0</v>
       </c>
       <c r="K20" s="30"/>
@@ -2694,13 +2736,13 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="55" t="s">
+      <c r="B21" s="105"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55" t="s">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="4">
@@ -2709,11 +2751,11 @@
       <c r="H21" s="4">
         <v>1.5</v>
       </c>
-      <c r="I21" s="67">
+      <c r="I21" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="105">
+      <c r="J21" s="73">
         <v>0</v>
       </c>
       <c r="K21" s="30"/>
@@ -2731,13 +2773,13 @@
       <c r="W21" s="32"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="75"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="55" t="s">
+      <c r="B22" s="105"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55" t="s">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="4">
@@ -2746,11 +2788,11 @@
       <c r="H22" s="4">
         <v>1.5</v>
       </c>
-      <c r="I22" s="67">
+      <c r="I22" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="105">
+      <c r="J22" s="73">
         <v>0</v>
       </c>
       <c r="K22" s="30"/>
@@ -2768,13 +2810,13 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="75"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="55" t="s">
+      <c r="B23" s="105"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55" t="s">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4">
@@ -2783,11 +2825,11 @@
       <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="67">
+      <c r="I23" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="105">
+      <c r="J23" s="73">
         <v>0</v>
       </c>
       <c r="K23" s="30"/>
@@ -2805,13 +2847,13 @@
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="75"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="55" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55" t="s">
+      <c r="E24" s="48"/>
+      <c r="F24" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="4">
@@ -2820,11 +2862,11 @@
       <c r="H24" s="4">
         <v>0.2</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="105">
+      <c r="J24" s="73">
         <v>0</v>
       </c>
       <c r="K24" s="30"/>
@@ -2842,13 +2884,13 @@
       <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="75"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="55" t="s">
+      <c r="B25" s="105"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55" t="s">
+      <c r="E25" s="48"/>
+      <c r="F25" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="4">
@@ -2857,11 +2899,11 @@
       <c r="H25" s="4">
         <v>0.2</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="105">
+      <c r="J25" s="73">
         <v>0</v>
       </c>
       <c r="K25" s="30"/>
@@ -2879,13 +2921,13 @@
       <c r="W25" s="32"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="75"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="55" t="s">
+      <c r="B26" s="105"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="48" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55" t="s">
+      <c r="E26" s="48"/>
+      <c r="F26" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4">
@@ -2894,11 +2936,11 @@
       <c r="H26" s="4">
         <v>0.2</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="105">
+      <c r="J26" s="73">
         <v>0</v>
       </c>
       <c r="K26" s="30"/>
@@ -2916,13 +2958,13 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="75"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="55" t="s">
+      <c r="B27" s="105"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55" t="s">
+      <c r="E27" s="48"/>
+      <c r="F27" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="4">
@@ -2931,11 +2973,11 @@
       <c r="H27" s="4">
         <v>0.2</v>
       </c>
-      <c r="I27" s="67">
+      <c r="I27" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="105">
+      <c r="J27" s="73">
         <v>0</v>
       </c>
       <c r="K27" s="30"/>
@@ -2953,13 +2995,13 @@
       <c r="W27" s="32"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="75"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="55" t="s">
+      <c r="B28" s="105"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55" t="s">
+      <c r="E28" s="48"/>
+      <c r="F28" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="4">
@@ -2968,11 +3010,11 @@
       <c r="H28" s="4">
         <v>0.2</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="105">
+      <c r="J28" s="73">
         <v>0</v>
       </c>
       <c r="K28" s="30"/>
@@ -2990,13 +3032,13 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="75"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="55" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55" t="s">
+      <c r="E29" s="48"/>
+      <c r="F29" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="4">
@@ -3005,11 +3047,11 @@
       <c r="H29" s="4">
         <v>0.2</v>
       </c>
-      <c r="I29" s="67">
+      <c r="I29" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="105">
+      <c r="J29" s="73">
         <v>0</v>
       </c>
       <c r="K29" s="30"/>
@@ -3027,13 +3069,13 @@
       <c r="W29" s="32"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="75"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="55" t="s">
+      <c r="B30" s="105"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55" t="s">
+      <c r="E30" s="48"/>
+      <c r="F30" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="4">
@@ -3042,11 +3084,11 @@
       <c r="H30" s="4">
         <v>0.2</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="105">
+      <c r="J30" s="73">
         <v>0</v>
       </c>
       <c r="K30" s="30"/>
@@ -3064,13 +3106,13 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="75"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="55" t="s">
+      <c r="B31" s="105"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55" t="s">
+      <c r="E31" s="48"/>
+      <c r="F31" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="4">
@@ -3079,11 +3121,11 @@
       <c r="H31" s="4">
         <v>0.2</v>
       </c>
-      <c r="I31" s="67">
+      <c r="I31" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="105">
+      <c r="J31" s="73">
         <v>0</v>
       </c>
       <c r="K31" s="30"/>
@@ -3101,13 +3143,13 @@
       <c r="W31" s="32"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="75"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="55" t="s">
+      <c r="B32" s="105"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55" t="s">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="4">
@@ -3116,11 +3158,11 @@
       <c r="H32" s="4">
         <v>0.2</v>
       </c>
-      <c r="I32" s="67">
+      <c r="I32" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="105">
+      <c r="J32" s="73">
         <v>0</v>
       </c>
       <c r="K32" s="30"/>
@@ -3138,13 +3180,13 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="75"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="55" t="s">
+      <c r="B33" s="105"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55" t="s">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="4">
@@ -3153,11 +3195,11 @@
       <c r="H33" s="4">
         <v>0.2</v>
       </c>
-      <c r="I33" s="67">
+      <c r="I33" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="105">
+      <c r="J33" s="73">
         <v>0</v>
       </c>
       <c r="K33" s="30"/>
@@ -3175,13 +3217,13 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="55" t="s">
+      <c r="B34" s="105"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55" t="s">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="4">
@@ -3190,11 +3232,11 @@
       <c r="H34" s="4">
         <v>0.2</v>
       </c>
-      <c r="I34" s="67">
+      <c r="I34" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="105">
+      <c r="J34" s="73">
         <v>0</v>
       </c>
       <c r="K34" s="30"/>
@@ -3212,13 +3254,13 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="75"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="55" t="s">
+      <c r="B35" s="105"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55" t="s">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="4">
@@ -3227,11 +3269,11 @@
       <c r="H35" s="4">
         <v>0.2</v>
       </c>
-      <c r="I35" s="67">
+      <c r="I35" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="105">
+      <c r="J35" s="73">
         <v>0</v>
       </c>
       <c r="K35" s="30"/>
@@ -3249,13 +3291,13 @@
       <c r="W35" s="32"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="75"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="61" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61" t="s">
+      <c r="B36" s="105"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="5">
@@ -3264,11 +3306,11 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="73">
         <v>0</v>
       </c>
       <c r="K36" s="30"/>
@@ -3286,13 +3328,13 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="75"/>
-      <c r="C37" s="58" t="s">
+      <c r="B37" s="105"/>
+      <c r="C37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58" t="s">
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="4">
@@ -3301,11 +3343,11 @@
       <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37" s="67">
+      <c r="I37" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="105">
+      <c r="J37" s="73">
         <v>0</v>
       </c>
       <c r="K37" s="30"/>
@@ -3323,13 +3365,13 @@
       <c r="W37" s="32"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="75"/>
-      <c r="C38" s="58" t="s">
+      <c r="B38" s="105"/>
+      <c r="C38" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="4">
@@ -3338,11 +3380,11 @@
       <c r="H38" s="4">
         <v>0.75</v>
       </c>
-      <c r="I38" s="67">
+      <c r="I38" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="105">
+      <c r="J38" s="73">
         <v>0</v>
       </c>
       <c r="K38" s="30"/>
@@ -3360,13 +3402,13 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="75"/>
-      <c r="C39" s="58" t="s">
+      <c r="B39" s="105"/>
+      <c r="C39" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58" t="s">
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="4">
@@ -3375,11 +3417,11 @@
       <c r="H39" s="4">
         <v>0.25</v>
       </c>
-      <c r="I39" s="67">
+      <c r="I39" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="105">
+      <c r="J39" s="73">
         <v>0</v>
       </c>
       <c r="K39" s="30"/>
@@ -3397,9 +3439,9 @@
       <c r="W39" s="32"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="75"/>
+      <c r="B40" s="105"/>
       <c r="C40" s="58" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D40" s="58"/>
       <c r="E40" s="58"/>
@@ -3412,11 +3454,11 @@
       <c r="H40" s="4">
         <v>0.5</v>
       </c>
-      <c r="I40" s="67">
+      <c r="I40" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="105">
+      <c r="J40" s="73">
         <v>0</v>
       </c>
       <c r="K40" s="30"/>
@@ -3434,17 +3476,17 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="95" t="s">
+      <c r="C41" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="59" t="s">
+      <c r="D41" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="59"/>
-      <c r="F41" s="59" t="s">
+      <c r="E41" s="52"/>
+      <c r="F41" s="52" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="12">
@@ -3453,11 +3495,11 @@
       <c r="H41" s="12">
         <v>0.5</v>
       </c>
-      <c r="I41" s="74">
+      <c r="I41" s="59">
         <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="104">
+      <c r="J41" s="72">
         <v>0</v>
       </c>
       <c r="K41" s="27"/>
@@ -3475,13 +3517,13 @@
       <c r="W41" s="29"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="78"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="58" t="s">
+      <c r="B42" s="96"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58" t="s">
+      <c r="E42" s="51"/>
+      <c r="F42" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="4">
@@ -3490,11 +3532,11 @@
       <c r="H42" s="4">
         <v>0.5</v>
       </c>
-      <c r="I42" s="67">
+      <c r="I42" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="105">
+      <c r="J42" s="73">
         <v>0</v>
       </c>
       <c r="K42" s="30"/>
@@ -3512,13 +3554,13 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="78"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="58" t="s">
+      <c r="B43" s="96"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="58"/>
-      <c r="F43" s="58" t="s">
+      <c r="E43" s="51"/>
+      <c r="F43" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="4">
@@ -3527,11 +3569,11 @@
       <c r="H43" s="4">
         <v>0.5</v>
       </c>
-      <c r="I43" s="67">
+      <c r="I43" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="105">
+      <c r="J43" s="73">
         <v>0</v>
       </c>
       <c r="K43" s="30"/>
@@ -3549,13 +3591,13 @@
       <c r="W43" s="32"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="78"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="58" t="s">
+      <c r="B44" s="96"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="58"/>
-      <c r="F44" s="58" t="s">
+      <c r="E44" s="51"/>
+      <c r="F44" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="4">
@@ -3564,11 +3606,11 @@
       <c r="H44" s="4">
         <v>0.5</v>
       </c>
-      <c r="I44" s="67">
+      <c r="I44" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="105">
+      <c r="J44" s="73">
         <v>0</v>
       </c>
       <c r="K44" s="30"/>
@@ -3586,13 +3628,13 @@
       <c r="W44" s="32"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="78"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="58" t="s">
+      <c r="B45" s="96"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="58"/>
-      <c r="F45" s="58" t="s">
+      <c r="E45" s="51"/>
+      <c r="F45" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="4">
@@ -3601,11 +3643,11 @@
       <c r="H45" s="4">
         <v>0.5</v>
       </c>
-      <c r="I45" s="67">
+      <c r="I45" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="105">
+      <c r="J45" s="73">
         <v>0</v>
       </c>
       <c r="K45" s="30"/>
@@ -3623,13 +3665,13 @@
       <c r="W45" s="32"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="78"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="58" t="s">
+      <c r="B46" s="96"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="58"/>
-      <c r="F46" s="58" t="s">
+      <c r="E46" s="51"/>
+      <c r="F46" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="4">
@@ -3638,11 +3680,11 @@
       <c r="H46" s="4">
         <v>0.5</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="105">
+      <c r="J46" s="73">
         <v>0</v>
       </c>
       <c r="K46" s="30"/>
@@ -3660,13 +3702,13 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="78"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="58" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58" t="s">
+      <c r="E47" s="51"/>
+      <c r="F47" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="4">
@@ -3675,11 +3717,11 @@
       <c r="H47" s="4">
         <v>0.5</v>
       </c>
-      <c r="I47" s="67">
+      <c r="I47" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="105">
+      <c r="J47" s="73">
         <v>0</v>
       </c>
       <c r="K47" s="30"/>
@@ -3697,13 +3739,13 @@
       <c r="W47" s="32"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="58" t="s">
+      <c r="B48" s="96"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="58"/>
-      <c r="F48" s="58" t="s">
+      <c r="E48" s="51"/>
+      <c r="F48" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="4">
@@ -3712,11 +3754,11 @@
       <c r="H48" s="4">
         <v>0.5</v>
       </c>
-      <c r="I48" s="67">
+      <c r="I48" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="105">
+      <c r="J48" s="73">
         <v>0</v>
       </c>
       <c r="K48" s="30"/>
@@ -3734,13 +3776,13 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="78"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="58" t="s">
+      <c r="B49" s="96"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="58"/>
-      <c r="F49" s="58" t="s">
+      <c r="E49" s="51"/>
+      <c r="F49" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="4">
@@ -3749,11 +3791,11 @@
       <c r="H49" s="4">
         <v>0.5</v>
       </c>
-      <c r="I49" s="67">
+      <c r="I49" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J49" s="105">
+      <c r="J49" s="73">
         <v>0</v>
       </c>
       <c r="K49" s="30"/>
@@ -3771,13 +3813,13 @@
       <c r="W49" s="32"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="78"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="58" t="s">
+      <c r="B50" s="96"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="58"/>
-      <c r="F50" s="58" t="s">
+      <c r="E50" s="51"/>
+      <c r="F50" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="4">
@@ -3786,11 +3828,11 @@
       <c r="H50" s="4">
         <v>0.5</v>
       </c>
-      <c r="I50" s="67">
+      <c r="I50" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J50" s="105">
+      <c r="J50" s="73">
         <v>0</v>
       </c>
       <c r="K50" s="30"/>
@@ -3808,13 +3850,13 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="78"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="58" t="s">
+      <c r="B51" s="96"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="58"/>
-      <c r="F51" s="58" t="s">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="4">
@@ -3823,11 +3865,11 @@
       <c r="H51" s="4">
         <v>0.5</v>
       </c>
-      <c r="I51" s="67">
+      <c r="I51" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J51" s="105">
+      <c r="J51" s="73">
         <v>0</v>
       </c>
       <c r="K51" s="30"/>
@@ -3845,13 +3887,13 @@
       <c r="W51" s="32"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="78"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="58" t="s">
+      <c r="B52" s="96"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58" t="s">
+      <c r="E52" s="51"/>
+      <c r="F52" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="4">
@@ -3860,11 +3902,11 @@
       <c r="H52" s="4">
         <v>0.5</v>
       </c>
-      <c r="I52" s="67">
+      <c r="I52" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J52" s="105">
+      <c r="J52" s="73">
         <v>0</v>
       </c>
       <c r="K52" s="30"/>
@@ -3882,13 +3924,13 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="78"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="58" t="s">
+      <c r="B53" s="96"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58" t="s">
+      <c r="E53" s="51"/>
+      <c r="F53" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="4">
@@ -3897,11 +3939,11 @@
       <c r="H53" s="4">
         <v>0.5</v>
       </c>
-      <c r="I53" s="67">
+      <c r="I53" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J53" s="105">
+      <c r="J53" s="73">
         <v>0</v>
       </c>
       <c r="K53" s="30"/>
@@ -3919,13 +3961,13 @@
       <c r="W53" s="32"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="78"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="58" t="s">
+      <c r="B54" s="96"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58" t="s">
+      <c r="E54" s="51"/>
+      <c r="F54" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="4">
@@ -3934,11 +3976,11 @@
       <c r="H54" s="4">
         <v>0.25</v>
       </c>
-      <c r="I54" s="67">
+      <c r="I54" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J54" s="105">
+      <c r="J54" s="73">
         <v>0</v>
       </c>
       <c r="K54" s="30"/>
@@ -3956,13 +3998,13 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="78"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="58" t="s">
+      <c r="B55" s="96"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58" t="s">
+      <c r="E55" s="51"/>
+      <c r="F55" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="4">
@@ -3971,11 +4013,11 @@
       <c r="H55" s="4">
         <v>0.25</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J55" s="105">
+      <c r="J55" s="73">
         <v>0</v>
       </c>
       <c r="K55" s="30"/>
@@ -3993,13 +4035,13 @@
       <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="78"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="58" t="s">
+      <c r="B56" s="96"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58" t="s">
+      <c r="E56" s="51"/>
+      <c r="F56" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="4">
@@ -4008,11 +4050,11 @@
       <c r="H56" s="4">
         <v>0.25</v>
       </c>
-      <c r="I56" s="67">
+      <c r="I56" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="105">
+      <c r="J56" s="73">
         <v>0</v>
       </c>
       <c r="K56" s="30"/>
@@ -4030,13 +4072,13 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="78"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="58" t="s">
+      <c r="B57" s="96"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58" t="s">
+      <c r="E57" s="51"/>
+      <c r="F57" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="4">
@@ -4045,11 +4087,11 @@
       <c r="H57" s="4">
         <v>0.25</v>
       </c>
-      <c r="I57" s="67">
+      <c r="I57" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J57" s="105">
+      <c r="J57" s="73">
         <v>0</v>
       </c>
       <c r="K57" s="30"/>
@@ -4067,13 +4109,13 @@
       <c r="W57" s="32"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="78"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="58" t="s">
+      <c r="B58" s="96"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="51" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58" t="s">
+      <c r="E58" s="51"/>
+      <c r="F58" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="4">
@@ -4082,11 +4124,11 @@
       <c r="H58" s="4">
         <v>0.25</v>
       </c>
-      <c r="I58" s="67">
+      <c r="I58" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="105">
+      <c r="J58" s="73">
         <v>0</v>
       </c>
       <c r="K58" s="30"/>
@@ -4104,13 +4146,13 @@
       <c r="W58" s="32"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="78"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="58" t="s">
+      <c r="B59" s="96"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="58"/>
-      <c r="F59" s="58" t="s">
+      <c r="E59" s="51"/>
+      <c r="F59" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="4">
@@ -4119,11 +4161,11 @@
       <c r="H59" s="4">
         <v>0.25</v>
       </c>
-      <c r="I59" s="67">
+      <c r="I59" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="105">
+      <c r="J59" s="73">
         <v>0</v>
       </c>
       <c r="K59" s="30"/>
@@ -4141,13 +4183,13 @@
       <c r="W59" s="32"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="78"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="58" t="s">
+      <c r="B60" s="96"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="51" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58" t="s">
+      <c r="E60" s="51"/>
+      <c r="F60" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="4">
@@ -4156,11 +4198,11 @@
       <c r="H60" s="4">
         <v>0.25</v>
       </c>
-      <c r="I60" s="67">
+      <c r="I60" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="105">
+      <c r="J60" s="73">
         <v>0</v>
       </c>
       <c r="K60" s="30"/>
@@ -4178,13 +4220,13 @@
       <c r="W60" s="32"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="78"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="58" t="s">
+      <c r="B61" s="96"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="51" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="58"/>
-      <c r="F61" s="58" t="s">
+      <c r="E61" s="51"/>
+      <c r="F61" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="4">
@@ -4193,11 +4235,11 @@
       <c r="H61" s="4">
         <v>0.25</v>
       </c>
-      <c r="I61" s="67">
+      <c r="I61" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="105">
+      <c r="J61" s="73">
         <v>0</v>
       </c>
       <c r="K61" s="30"/>
@@ -4215,13 +4257,13 @@
       <c r="W61" s="32"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="78"/>
-      <c r="C62" s="71"/>
-      <c r="D62" s="58" t="s">
+      <c r="B62" s="96"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="58"/>
-      <c r="F62" s="58" t="s">
+      <c r="E62" s="51"/>
+      <c r="F62" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="4">
@@ -4230,11 +4272,11 @@
       <c r="H62" s="4">
         <v>0.25</v>
       </c>
-      <c r="I62" s="67">
+      <c r="I62" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="105">
+      <c r="J62" s="73">
         <v>0</v>
       </c>
       <c r="K62" s="30"/>
@@ -4252,13 +4294,13 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="78"/>
-      <c r="C63" s="71"/>
-      <c r="D63" s="58" t="s">
+      <c r="B63" s="96"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="51" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="58"/>
-      <c r="F63" s="58" t="s">
+      <c r="E63" s="51"/>
+      <c r="F63" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="4">
@@ -4267,11 +4309,11 @@
       <c r="H63" s="4">
         <v>0.25</v>
       </c>
-      <c r="I63" s="67">
+      <c r="I63" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="105">
+      <c r="J63" s="73">
         <v>0</v>
       </c>
       <c r="K63" s="30"/>
@@ -4289,13 +4331,13 @@
       <c r="W63" s="32"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="78"/>
-      <c r="C64" s="71"/>
-      <c r="D64" s="58" t="s">
+      <c r="B64" s="96"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="58"/>
-      <c r="F64" s="58" t="s">
+      <c r="E64" s="51"/>
+      <c r="F64" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="4">
@@ -4304,11 +4346,11 @@
       <c r="H64" s="4">
         <v>0.25</v>
       </c>
-      <c r="I64" s="67">
+      <c r="I64" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="105">
+      <c r="J64" s="73">
         <v>0</v>
       </c>
       <c r="K64" s="30"/>
@@ -4326,13 +4368,13 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="78"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="58" t="s">
+      <c r="B65" s="96"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58" t="s">
+      <c r="E65" s="51"/>
+      <c r="F65" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="4">
@@ -4341,11 +4383,11 @@
       <c r="H65" s="4">
         <v>0.25</v>
       </c>
-      <c r="I65" s="67">
+      <c r="I65" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J65" s="105">
+      <c r="J65" s="73">
         <v>0</v>
       </c>
       <c r="K65" s="30"/>
@@ -4363,13 +4405,13 @@
       <c r="W65" s="32"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="78"/>
-      <c r="C66" s="71"/>
-      <c r="D66" s="58" t="s">
+      <c r="B66" s="96"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="58"/>
-      <c r="F66" s="58" t="s">
+      <c r="E66" s="51"/>
+      <c r="F66" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="4">
@@ -4378,11 +4420,11 @@
       <c r="H66" s="4">
         <v>0.25</v>
       </c>
-      <c r="I66" s="67">
+      <c r="I66" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="105">
+      <c r="J66" s="73">
         <v>0</v>
       </c>
       <c r="K66" s="30"/>
@@ -4400,13 +4442,13 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="78"/>
-      <c r="C67" s="71"/>
-      <c r="D67" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="E67" s="58"/>
-      <c r="F67" s="58" t="s">
+      <c r="B67" s="96"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="4">
@@ -4415,11 +4457,11 @@
       <c r="H67" s="4">
         <v>0.25</v>
       </c>
-      <c r="I67" s="67">
+      <c r="I67" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J67" s="105">
+      <c r="J67" s="73">
         <v>0</v>
       </c>
       <c r="K67" s="30"/>
@@ -4437,13 +4479,13 @@
       <c r="W67" s="32"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="78"/>
-      <c r="C68" s="71"/>
-      <c r="D68" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="E68" s="58"/>
-      <c r="F68" s="58" t="s">
+      <c r="B68" s="96"/>
+      <c r="C68" s="92"/>
+      <c r="D68" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="4">
@@ -4452,11 +4494,11 @@
       <c r="H68" s="4">
         <v>0.25</v>
       </c>
-      <c r="I68" s="67">
+      <c r="I68" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J68" s="105">
+      <c r="J68" s="73">
         <v>0</v>
       </c>
       <c r="K68" s="30"/>
@@ -4474,13 +4516,13 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="78"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="E69" s="58"/>
-      <c r="F69" s="58" t="s">
+      <c r="B69" s="96"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="4">
@@ -4489,11 +4531,11 @@
       <c r="H69" s="4">
         <v>0.25</v>
       </c>
-      <c r="I69" s="67">
+      <c r="I69" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J69" s="105">
+      <c r="J69" s="73">
         <v>0</v>
       </c>
       <c r="K69" s="30"/>
@@ -4511,13 +4553,13 @@
       <c r="W69" s="32"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="78"/>
-      <c r="C70" s="71"/>
-      <c r="D70" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="E70" s="58"/>
-      <c r="F70" s="58" t="s">
+      <c r="B70" s="96"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="4">
@@ -4526,11 +4568,11 @@
       <c r="H70" s="4">
         <v>0.25</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J70" s="105">
+      <c r="J70" s="73">
         <v>0</v>
       </c>
       <c r="K70" s="30"/>
@@ -4548,13 +4590,13 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="78"/>
-      <c r="C71" s="71"/>
-      <c r="D71" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="E71" s="58"/>
-      <c r="F71" s="58" t="s">
+      <c r="B71" s="96"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="4">
@@ -4563,11 +4605,11 @@
       <c r="H71" s="4">
         <v>0.25</v>
       </c>
-      <c r="I71" s="67">
+      <c r="I71" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J71" s="105">
+      <c r="J71" s="73">
         <v>0</v>
       </c>
       <c r="K71" s="30"/>
@@ -4585,13 +4627,13 @@
       <c r="W71" s="32"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="78"/>
-      <c r="C72" s="71"/>
-      <c r="D72" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="E72" s="58"/>
-      <c r="F72" s="58" t="s">
+      <c r="B72" s="96"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E72" s="51"/>
+      <c r="F72" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="4">
@@ -4600,11 +4642,11 @@
       <c r="H72" s="4">
         <v>0.25</v>
       </c>
-      <c r="I72" s="67">
+      <c r="I72" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J72" s="105">
+      <c r="J72" s="73">
         <v>0</v>
       </c>
       <c r="K72" s="30"/>
@@ -4622,13 +4664,13 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="78"/>
-      <c r="C73" s="71"/>
-      <c r="D73" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="58"/>
-      <c r="F73" s="58" t="s">
+      <c r="B73" s="96"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="4">
@@ -4637,11 +4679,11 @@
       <c r="H73" s="4">
         <v>0.25</v>
       </c>
-      <c r="I73" s="67">
+      <c r="I73" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J73" s="105">
+      <c r="J73" s="73">
         <v>0</v>
       </c>
       <c r="K73" s="30"/>
@@ -4659,13 +4701,13 @@
       <c r="W73" s="32"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="78"/>
-      <c r="C74" s="71"/>
-      <c r="D74" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58" t="s">
+      <c r="B74" s="96"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="51"/>
+      <c r="F74" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="4">
@@ -4674,11 +4716,11 @@
       <c r="H74" s="4">
         <v>0.25</v>
       </c>
-      <c r="I74" s="67">
+      <c r="I74" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J74" s="105">
+      <c r="J74" s="73">
         <v>0</v>
       </c>
       <c r="K74" s="30"/>
@@ -4696,13 +4738,13 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="78"/>
-      <c r="C75" s="71"/>
-      <c r="D75" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="E75" s="58"/>
-      <c r="F75" s="58" t="s">
+      <c r="B75" s="96"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="4">
@@ -4711,11 +4753,11 @@
       <c r="H75" s="4">
         <v>0.25</v>
       </c>
-      <c r="I75" s="67">
+      <c r="I75" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J75" s="105">
+      <c r="J75" s="73">
         <v>0</v>
       </c>
       <c r="K75" s="30"/>
@@ -4733,13 +4775,13 @@
       <c r="W75" s="32"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="78"/>
-      <c r="C76" s="71"/>
-      <c r="D76" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="58"/>
-      <c r="F76" s="58" t="s">
+      <c r="B76" s="96"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="51"/>
+      <c r="F76" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="4">
@@ -4748,11 +4790,11 @@
       <c r="H76" s="4">
         <v>0.25</v>
       </c>
-      <c r="I76" s="67">
+      <c r="I76" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="105">
+      <c r="J76" s="73">
         <v>0</v>
       </c>
       <c r="K76" s="30"/>
@@ -4770,13 +4812,13 @@
       <c r="W76" s="32"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="78"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58" t="s">
+      <c r="B77" s="96"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="4">
@@ -4785,11 +4827,11 @@
       <c r="H77" s="4">
         <v>0.25</v>
       </c>
-      <c r="I77" s="67">
+      <c r="I77" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J77" s="105">
+      <c r="J77" s="73">
         <v>0</v>
       </c>
       <c r="K77" s="30"/>
@@ -4807,13 +4849,13 @@
       <c r="W77" s="32"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="78"/>
-      <c r="C78" s="71"/>
-      <c r="D78" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="E78" s="58"/>
-      <c r="F78" s="58" t="s">
+      <c r="B78" s="96"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="51" t="s">
+        <v>105</v>
+      </c>
+      <c r="E78" s="51"/>
+      <c r="F78" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="4">
@@ -4822,11 +4864,11 @@
       <c r="H78" s="4">
         <v>0.25</v>
       </c>
-      <c r="I78" s="67">
+      <c r="I78" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J78" s="105">
+      <c r="J78" s="73">
         <v>0</v>
       </c>
       <c r="K78" s="30"/>
@@ -4844,13 +4886,13 @@
       <c r="W78" s="32"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="78"/>
-      <c r="C79" s="71"/>
-      <c r="D79" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="E79" s="58"/>
-      <c r="F79" s="58" t="s">
+      <c r="B79" s="96"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="4">
@@ -4859,11 +4901,11 @@
       <c r="H79" s="4">
         <v>0.25</v>
       </c>
-      <c r="I79" s="67">
+      <c r="I79" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J79" s="105">
+      <c r="J79" s="73">
         <v>0</v>
       </c>
       <c r="K79" s="30"/>
@@ -4881,13 +4923,13 @@
       <c r="W79" s="32"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="78"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="E80" s="58"/>
-      <c r="F80" s="58" t="s">
+      <c r="B80" s="96"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="4">
@@ -4896,11 +4938,11 @@
       <c r="H80" s="4">
         <v>0.25</v>
       </c>
-      <c r="I80" s="67">
+      <c r="I80" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J80" s="105">
+      <c r="J80" s="73">
         <v>0</v>
       </c>
       <c r="K80" s="30"/>
@@ -4918,13 +4960,13 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="78"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="58" t="s">
+      <c r="B81" s="96"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="58"/>
-      <c r="F81" s="58" t="s">
+      <c r="E81" s="51"/>
+      <c r="F81" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="4">
@@ -4933,11 +4975,11 @@
       <c r="H81" s="4">
         <v>0.25</v>
       </c>
-      <c r="I81" s="67">
+      <c r="I81" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J81" s="105">
+      <c r="J81" s="73">
         <v>0</v>
       </c>
       <c r="K81" s="30"/>
@@ -4955,13 +4997,13 @@
       <c r="W81" s="32"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="78"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="58" t="s">
+      <c r="B82" s="96"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="58"/>
-      <c r="F82" s="58" t="s">
+      <c r="E82" s="51"/>
+      <c r="F82" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="4">
@@ -4970,11 +5012,11 @@
       <c r="H82" s="4">
         <v>0.25</v>
       </c>
-      <c r="I82" s="67">
+      <c r="I82" s="57">
         <f>SUM(J83:W83)</f>
         <v>0</v>
       </c>
-      <c r="J82" s="105">
+      <c r="J82" s="73">
         <v>0</v>
       </c>
       <c r="K82" s="30"/>
@@ -4992,13 +5034,13 @@
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="78"/>
-      <c r="C83" s="71"/>
-      <c r="D83" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="E83" s="58"/>
-      <c r="F83" s="58" t="s">
+      <c r="B83" s="96"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="16">
@@ -5007,11 +5049,11 @@
       <c r="H83" s="16">
         <v>1</v>
       </c>
-      <c r="I83" s="67">
+      <c r="I83" s="57">
         <f>SUM(J84:W84)</f>
         <v>0</v>
       </c>
-      <c r="J83" s="105">
+      <c r="J83" s="73">
         <v>0</v>
       </c>
       <c r="K83" s="30"/>
@@ -5029,15 +5071,15 @@
       <c r="W83" s="32"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="78"/>
-      <c r="C84" s="72" t="s">
+      <c r="B84" s="96"/>
+      <c r="C84" s="97" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="55" t="s">
+      <c r="D84" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="61"/>
-      <c r="F84" s="61" t="s">
+      <c r="E84" s="54"/>
+      <c r="F84" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="4">
@@ -5046,11 +5088,11 @@
       <c r="H84" s="4">
         <v>0.2</v>
       </c>
-      <c r="I84" s="67">
+      <c r="I84" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J84" s="105">
+      <c r="J84" s="73">
         <v>0</v>
       </c>
       <c r="K84" s="30"/>
@@ -5068,13 +5110,13 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="78"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="61" t="s">
+      <c r="B85" s="96"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="61"/>
-      <c r="F85" s="61" t="s">
+      <c r="E85" s="54"/>
+      <c r="F85" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="4">
@@ -5083,11 +5125,11 @@
       <c r="H85" s="4">
         <v>0.2</v>
       </c>
-      <c r="I85" s="67">
+      <c r="I85" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J85" s="105">
+      <c r="J85" s="73">
         <v>0</v>
       </c>
       <c r="K85" s="30"/>
@@ -5105,13 +5147,13 @@
       <c r="W85" s="32"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="78"/>
-      <c r="C86" s="72"/>
-      <c r="D86" s="61" t="s">
+      <c r="B86" s="96"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="61"/>
-      <c r="F86" s="61" t="s">
+      <c r="E86" s="54"/>
+      <c r="F86" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="4">
@@ -5120,11 +5162,11 @@
       <c r="H86" s="4">
         <v>0.2</v>
       </c>
-      <c r="I86" s="67">
+      <c r="I86" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J86" s="105">
+      <c r="J86" s="73">
         <v>0</v>
       </c>
       <c r="K86" s="30"/>
@@ -5142,13 +5184,13 @@
       <c r="W86" s="32"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="78"/>
-      <c r="C87" s="72"/>
-      <c r="D87" s="61" t="s">
+      <c r="B87" s="96"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="61"/>
-      <c r="F87" s="61" t="s">
+      <c r="E87" s="54"/>
+      <c r="F87" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="4">
@@ -5157,11 +5199,11 @@
       <c r="H87" s="4">
         <v>0.2</v>
       </c>
-      <c r="I87" s="67">
+      <c r="I87" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J87" s="105">
+      <c r="J87" s="73">
         <v>0</v>
       </c>
       <c r="K87" s="30"/>
@@ -5179,13 +5221,13 @@
       <c r="W87" s="32"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="78"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="61" t="s">
+      <c r="B88" s="96"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="61"/>
-      <c r="F88" s="61" t="s">
+      <c r="E88" s="54"/>
+      <c r="F88" s="54" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="4">
@@ -5194,11 +5236,11 @@
       <c r="H88" s="4">
         <v>0.2</v>
       </c>
-      <c r="I88" s="67">
+      <c r="I88" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J88" s="105">
+      <c r="J88" s="73">
         <v>0</v>
       </c>
       <c r="K88" s="30"/>
@@ -5213,16 +5255,16 @@
       <c r="T88" s="30"/>
       <c r="U88" s="30"/>
       <c r="V88" s="30"/>
-      <c r="W88" s="77"/>
+      <c r="W88" s="60"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="78"/>
-      <c r="C89" s="72"/>
-      <c r="D89" s="61" t="s">
+      <c r="B89" s="96"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="61"/>
-      <c r="F89" s="117" t="s">
+      <c r="E89" s="54"/>
+      <c r="F89" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="4">
@@ -5231,11 +5273,11 @@
       <c r="H89" s="4">
         <v>0.2</v>
       </c>
-      <c r="I89" s="67">
+      <c r="I89" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J89" s="105">
+      <c r="J89" s="73">
         <v>0</v>
       </c>
       <c r="K89" s="30"/>
@@ -5253,13 +5295,13 @@
       <c r="W89" s="32"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="78"/>
-      <c r="C90" s="118" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="61"/>
-      <c r="E90" s="61"/>
-      <c r="F90" s="117" t="s">
+      <c r="B90" s="96"/>
+      <c r="C90" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90" s="54"/>
+      <c r="E90" s="54"/>
+      <c r="F90" s="48" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="4">
@@ -5268,11 +5310,11 @@
       <c r="H90" s="4">
         <v>2</v>
       </c>
-      <c r="I90" s="67">
+      <c r="I90" s="57">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J90" s="57">
+      <c r="J90" s="50">
         <v>1.5</v>
       </c>
       <c r="K90" s="30"/>
@@ -5290,13 +5332,13 @@
       <c r="W90" s="32"/>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="78"/>
-      <c r="C91" s="109" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="51"/>
-      <c r="E91" s="63"/>
-      <c r="F91" s="63" t="s">
+      <c r="B91" s="96"/>
+      <c r="C91" s="77" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="44"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="4">
@@ -5305,11 +5347,11 @@
       <c r="H91" s="4">
         <v>1</v>
       </c>
-      <c r="I91" s="67">
+      <c r="I91" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J91" s="105">
+      <c r="J91" s="73">
         <v>0</v>
       </c>
       <c r="K91" s="30"/>
@@ -5327,15 +5369,15 @@
       <c r="W91" s="32"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D92" s="48"/>
-      <c r="E92" s="47"/>
-      <c r="F92" s="47" t="s">
+      <c r="B92" s="115" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D92" s="41"/>
+      <c r="E92" s="40"/>
+      <c r="F92" s="40" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="12">
@@ -5344,11 +5386,11 @@
       <c r="H92" s="12">
         <v>0.75</v>
       </c>
-      <c r="I92" s="74">
+      <c r="I92" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J92" s="104">
+      <c r="J92" s="72">
         <v>0</v>
       </c>
       <c r="K92" s="27"/>
@@ -5363,16 +5405,16 @@
       <c r="T92" s="27"/>
       <c r="U92" s="27"/>
       <c r="V92" s="27"/>
-      <c r="W92" s="97"/>
+      <c r="W92" s="69"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="92"/>
-      <c r="C93" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" s="49"/>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50" t="s">
+      <c r="B93" s="116"/>
+      <c r="C93" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="D93" s="42"/>
+      <c r="E93" s="43"/>
+      <c r="F93" s="43" t="s">
         <v>16</v>
       </c>
       <c r="G93" s="38">
@@ -5381,11 +5423,11 @@
       <c r="H93" s="38">
         <v>1.5</v>
       </c>
-      <c r="I93" s="74">
+      <c r="I93" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J93" s="107"/>
+      <c r="J93" s="75"/>
       <c r="K93" s="37"/>
       <c r="L93" s="37"/>
       <c r="M93" s="37"/>
@@ -5398,18 +5440,18 @@
       <c r="T93" s="37"/>
       <c r="U93" s="37"/>
       <c r="V93" s="37"/>
-      <c r="W93" s="93"/>
+      <c r="W93" s="68"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="79"/>
-      <c r="C94" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="D94" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E94" s="63"/>
-      <c r="F94" s="63" t="s">
+      <c r="B94" s="117"/>
+      <c r="C94" s="94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="4">
@@ -5418,11 +5460,11 @@
       <c r="H94" s="4">
         <v>1</v>
       </c>
-      <c r="I94" s="67">
+      <c r="I94" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J94" s="105">
+      <c r="J94" s="73">
         <v>0</v>
       </c>
       <c r="K94" s="30"/>
@@ -5437,16 +5479,16 @@
       <c r="T94" s="30"/>
       <c r="U94" s="30"/>
       <c r="V94" s="30"/>
-      <c r="W94" s="77"/>
+      <c r="W94" s="60"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="80"/>
-      <c r="C95" s="73"/>
-      <c r="D95" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="E95" s="63"/>
-      <c r="F95" s="63" t="s">
+      <c r="B95" s="118"/>
+      <c r="C95" s="94"/>
+      <c r="D95" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E95" s="56"/>
+      <c r="F95" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="4">
@@ -5455,11 +5497,11 @@
       <c r="H95" s="4">
         <v>0.5</v>
       </c>
-      <c r="I95" s="67">
+      <c r="I95" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J95" s="105">
+      <c r="J95" s="73">
         <v>0</v>
       </c>
       <c r="K95" s="30"/>
@@ -5474,16 +5516,16 @@
       <c r="T95" s="31"/>
       <c r="U95" s="31"/>
       <c r="V95" s="31"/>
-      <c r="W95" s="77"/>
+      <c r="W95" s="60"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="98"/>
-      <c r="C96" s="53" t="s">
-        <v>121</v>
-      </c>
-      <c r="D96" s="52"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53" t="s">
+      <c r="B96" s="119"/>
+      <c r="C96" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" s="45"/>
+      <c r="E96" s="46"/>
+      <c r="F96" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="11">
@@ -5492,11 +5534,11 @@
       <c r="H96" s="11">
         <v>1</v>
       </c>
-      <c r="I96" s="81">
+      <c r="I96" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J96" s="106">
+      <c r="J96" s="74">
         <v>0</v>
       </c>
       <c r="K96" s="34"/>
@@ -5511,18 +5553,18 @@
       <c r="T96" s="34"/>
       <c r="U96" s="34"/>
       <c r="V96" s="34"/>
-      <c r="W96" s="90"/>
+      <c r="W96" s="66"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97" s="89" t="s">
-        <v>122</v>
-      </c>
-      <c r="D97" s="88"/>
-      <c r="E97" s="89"/>
-      <c r="F97" s="89" t="s">
+      <c r="B97" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C97" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" s="64"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="12">
@@ -5531,11 +5573,11 @@
       <c r="H97" s="12">
         <v>1.5</v>
       </c>
-      <c r="I97" s="74">
+      <c r="I97" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J97" s="104">
+      <c r="J97" s="72">
         <v>0</v>
       </c>
       <c r="K97" s="27"/>
@@ -5553,13 +5595,13 @@
       <c r="W97" s="29"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="80"/>
-      <c r="C98" s="63" t="s">
-        <v>92</v>
-      </c>
-      <c r="D98" s="51"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63" t="s">
+      <c r="B98" s="118"/>
+      <c r="C98" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D98" s="44"/>
+      <c r="E98" s="56"/>
+      <c r="F98" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="4">
@@ -5568,11 +5610,11 @@
       <c r="H98" s="4">
         <v>0.33</v>
       </c>
-      <c r="I98" s="67">
+      <c r="I98" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J98" s="105">
+      <c r="J98" s="73">
         <v>0</v>
       </c>
       <c r="K98" s="30"/>
@@ -5590,13 +5632,13 @@
       <c r="W98" s="32"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="80"/>
-      <c r="C99" s="63" t="s">
-        <v>93</v>
-      </c>
-      <c r="D99" s="51"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63" t="s">
+      <c r="B99" s="118"/>
+      <c r="C99" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D99" s="44"/>
+      <c r="E99" s="56"/>
+      <c r="F99" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="4">
@@ -5605,11 +5647,11 @@
       <c r="H99" s="4">
         <v>0.33</v>
       </c>
-      <c r="I99" s="67">
+      <c r="I99" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J99" s="105">
+      <c r="J99" s="73">
         <v>0</v>
       </c>
       <c r="K99" s="30"/>
@@ -5627,13 +5669,13 @@
       <c r="W99" s="32"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="80"/>
-      <c r="C100" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="D100" s="51"/>
-      <c r="E100" s="63"/>
-      <c r="F100" s="63" t="s">
+      <c r="B100" s="118"/>
+      <c r="C100" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D100" s="44"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="4">
@@ -5642,11 +5684,11 @@
       <c r="H100" s="4">
         <v>0.33</v>
       </c>
-      <c r="I100" s="67">
+      <c r="I100" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J100" s="105">
+      <c r="J100" s="73">
         <v>0</v>
       </c>
       <c r="K100" s="30"/>
@@ -5664,13 +5706,13 @@
       <c r="W100" s="32"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="80"/>
-      <c r="C101" s="63" t="s">
-        <v>95</v>
-      </c>
-      <c r="D101" s="51"/>
-      <c r="E101" s="63"/>
-      <c r="F101" s="63" t="s">
+      <c r="B101" s="118"/>
+      <c r="C101" s="56" t="s">
+        <v>128</v>
+      </c>
+      <c r="D101" s="44"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="4">
@@ -5679,11 +5721,11 @@
       <c r="H101" s="4">
         <v>0.33</v>
       </c>
-      <c r="I101" s="67">
+      <c r="I101" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J101" s="105">
+      <c r="J101" s="73">
         <v>0</v>
       </c>
       <c r="K101" s="30"/>
@@ -5701,13 +5743,13 @@
       <c r="W101" s="32"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="98"/>
-      <c r="C102" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D102" s="52"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="53" t="s">
+      <c r="B102" s="119"/>
+      <c r="C102" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="D102" s="45"/>
+      <c r="E102" s="46"/>
+      <c r="F102" s="46" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="11">
@@ -5716,11 +5758,11 @@
       <c r="H102" s="11">
         <v>3</v>
       </c>
-      <c r="I102" s="81">
+      <c r="I102" s="61">
         <f t="shared" ref="I102" si="2">SUM(J102:W102)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="106">
+      <c r="J102" s="74">
         <v>0</v>
       </c>
       <c r="K102" s="34"/>
@@ -5738,14 +5780,14 @@
       <c r="W102" s="36"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="99" t="s">
+      <c r="B103" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="100"/>
-      <c r="D103" s="100"/>
-      <c r="E103" s="100"/>
-      <c r="F103" s="100"/>
-      <c r="G103" s="100"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
       <c r="H103" s="17">
         <f>SUM(H4:H102)</f>
         <v>48.72</v>
@@ -5820,35 +5862,35 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="43" t="s">
+      <c r="J104" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="44"/>
-      <c r="L104" s="44"/>
-      <c r="M104" s="44"/>
-      <c r="N104" s="44"/>
-      <c r="O104" s="44"/>
-      <c r="P104" s="44"/>
-      <c r="Q104" s="44"/>
-      <c r="R104" s="44"/>
-      <c r="S104" s="44"/>
-      <c r="T104" s="44"/>
-      <c r="U104" s="44"/>
-      <c r="V104" s="44"/>
-      <c r="W104" s="45"/>
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
+      <c r="M104" s="102"/>
+      <c r="N104" s="102"/>
+      <c r="O104" s="102"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="102"/>
+      <c r="U104" s="102"/>
+      <c r="V104" s="102"/>
+      <c r="W104" s="103"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="110" t="s">
-        <v>129</v>
-      </c>
-      <c r="C105" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="D105" s="111" t="s">
-        <v>127</v>
-      </c>
-      <c r="E105" s="112" t="s">
-        <v>128</v>
+      <c r="B105" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="C105" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="D105" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="E105" s="80" t="s">
+        <v>123</v>
       </c>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
@@ -5862,10 +5904,10 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="116" t="s">
+      <c r="B106" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="115">
+      <c r="C106" s="83">
         <f>SUM(H4,H7,H9,H40,H91,H92,H93,H94,H95,H96,H98:H102,H40)</f>
         <v>12.47</v>
       </c>
@@ -5879,10 +5921,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="40" t="s">
+      <c r="H106" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="46"/>
+      <c r="I106" s="90"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>47.22</v>
@@ -5941,10 +5983,10 @@
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="114" t="s">
+      <c r="B107" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="113">
+      <c r="C107" s="81">
         <f>SUM(H84:H89,H97,H17:H36,H10:H15,H8,H6,H5,H90)</f>
         <v>17.999999999999993</v>
       </c>
@@ -5966,10 +6008,10 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="114" t="s">
+      <c r="B108" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="113">
+      <c r="C108" s="81">
         <f>SUM(H41:H83,H37:H39)</f>
         <v>16.75</v>
       </c>
@@ -5982,27 +6024,27 @@
         <v>16.75</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="40" t="s">
+      <c r="H108" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="41"/>
-      <c r="J108" s="40">
+      <c r="I108" s="88"/>
+      <c r="J108" s="87">
         <f>H103-I103</f>
         <v>47.22</v>
       </c>
-      <c r="K108" s="41"/>
-      <c r="L108" s="41"/>
-      <c r="M108" s="41"/>
-      <c r="N108" s="41"/>
-      <c r="O108" s="41"/>
-      <c r="P108" s="41"/>
-      <c r="Q108" s="41"/>
-      <c r="R108" s="41"/>
-      <c r="S108" s="41"/>
-      <c r="T108" s="41"/>
-      <c r="U108" s="41"/>
-      <c r="V108" s="41"/>
-      <c r="W108" s="42"/>
+      <c r="K108" s="88"/>
+      <c r="L108" s="88"/>
+      <c r="M108" s="88"/>
+      <c r="N108" s="88"/>
+      <c r="O108" s="88"/>
+      <c r="P108" s="88"/>
+      <c r="Q108" s="88"/>
+      <c r="R108" s="88"/>
+      <c r="S108" s="88"/>
+      <c r="T108" s="88"/>
+      <c r="U108" s="88"/>
+      <c r="V108" s="88"/>
+      <c r="W108" s="89"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6082,12 +6124,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6100,6 +6136,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acanut\Documents\ENTI\MAP\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -515,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +564,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1075,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1327,6 +1333,81 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1351,79 +1432,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,46 +1552,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>47.22</c:v>
+                  <c:v>46.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>47.22</c:v>
+                  <c:v>46.069999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,7 +1651,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1981,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90:W90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2011,22 +2025,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="100"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2097,7 +2111,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="96" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -2138,7 +2152,7 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="105"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="48" t="s">
         <v>59</v>
       </c>
@@ -2175,7 +2189,7 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="105"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="48" t="s">
         <v>75</v>
       </c>
@@ -2212,8 +2226,8 @@
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="105"/>
-      <c r="C7" s="113" t="s">
+      <c r="B7" s="97"/>
+      <c r="C7" s="105" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -2251,8 +2265,8 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="105"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="48" t="s">
         <v>62</v>
       </c>
@@ -2288,8 +2302,8 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="109"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="106"/>
       <c r="D9" s="45" t="s">
         <v>63</v>
       </c>
@@ -2325,7 +2339,7 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="98" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="53" t="s">
@@ -2364,7 +2378,7 @@
       <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="107"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="48" t="s">
         <v>66</v>
       </c>
@@ -2401,7 +2415,7 @@
       <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="107"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="48" t="s">
         <v>67</v>
       </c>
@@ -2438,7 +2452,7 @@
       <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="108"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="47" t="s">
         <v>120</v>
       </c>
@@ -2473,7 +2487,7 @@
       <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="108"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="47" t="s">
         <v>118</v>
       </c>
@@ -2508,7 +2522,7 @@
       <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="108"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="47" t="s">
         <v>68</v>
       </c>
@@ -2545,7 +2559,7 @@
       <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="96" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -2584,7 +2598,7 @@
       <c r="W16" s="29"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="105"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
@@ -2621,8 +2635,8 @@
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="105"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="97"/>
+      <c r="C18" s="104" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -2660,8 +2674,8 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="105"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="104"/>
       <c r="D19" s="48" t="s">
         <v>39</v>
       </c>
@@ -2697,8 +2711,8 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="105"/>
-      <c r="C20" s="93" t="s">
+      <c r="B20" s="97"/>
+      <c r="C20" s="118" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="48" t="s">
@@ -2736,8 +2750,8 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="105"/>
-      <c r="C21" s="93"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="118"/>
       <c r="D21" s="48" t="s">
         <v>34</v>
       </c>
@@ -2773,8 +2787,8 @@
       <c r="W21" s="32"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="105"/>
-      <c r="C22" s="93"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="118"/>
       <c r="D22" s="48" t="s">
         <v>35</v>
       </c>
@@ -2810,8 +2824,8 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="105"/>
-      <c r="C23" s="93"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="118"/>
       <c r="D23" s="48" t="s">
         <v>40</v>
       </c>
@@ -2847,8 +2861,8 @@
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="105"/>
-      <c r="C24" s="93"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="118"/>
       <c r="D24" s="48" t="s">
         <v>41</v>
       </c>
@@ -2884,8 +2898,8 @@
       <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="105"/>
-      <c r="C25" s="93"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="118"/>
       <c r="D25" s="48" t="s">
         <v>42</v>
       </c>
@@ -2921,8 +2935,8 @@
       <c r="W25" s="32"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="105"/>
-      <c r="C26" s="93"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="118"/>
       <c r="D26" s="48" t="s">
         <v>43</v>
       </c>
@@ -2958,8 +2972,8 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="105"/>
-      <c r="C27" s="93"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="118"/>
       <c r="D27" s="48" t="s">
         <v>44</v>
       </c>
@@ -2995,8 +3009,8 @@
       <c r="W27" s="32"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="105"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="118"/>
       <c r="D28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3032,8 +3046,8 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="105"/>
-      <c r="C29" s="93"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="118"/>
       <c r="D29" s="48" t="s">
         <v>46</v>
       </c>
@@ -3069,8 +3083,8 @@
       <c r="W29" s="32"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="105"/>
-      <c r="C30" s="93"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="118"/>
       <c r="D30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3106,8 +3120,8 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="105"/>
-      <c r="C31" s="93"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="118"/>
       <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
@@ -3143,8 +3157,8 @@
       <c r="W31" s="32"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="105"/>
-      <c r="C32" s="93"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="118"/>
       <c r="D32" s="48" t="s">
         <v>49</v>
       </c>
@@ -3180,8 +3194,8 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="105"/>
-      <c r="C33" s="93"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="118"/>
       <c r="D33" s="48" t="s">
         <v>50</v>
       </c>
@@ -3217,8 +3231,8 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="105"/>
-      <c r="C34" s="93"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="118"/>
       <c r="D34" s="48" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3268,8 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="105"/>
-      <c r="C35" s="93"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="118"/>
       <c r="D35" s="48" t="s">
         <v>52</v>
       </c>
@@ -3291,8 +3305,8 @@
       <c r="W35" s="32"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="105"/>
-      <c r="C36" s="93"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="118"/>
       <c r="D36" s="54" t="s">
         <v>111</v>
       </c>
@@ -3328,7 +3342,7 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="105"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="51" t="s">
         <v>53</v>
       </c>
@@ -3365,7 +3379,7 @@
       <c r="W37" s="32"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="105"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="51" t="s">
         <v>55</v>
       </c>
@@ -3402,7 +3416,7 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="105"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="51" t="s">
         <v>56</v>
       </c>
@@ -3439,7 +3453,7 @@
       <c r="W39" s="32"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="105"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="58" t="s">
         <v>112</v>
       </c>
@@ -3476,10 +3490,10 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="91" t="s">
+      <c r="C41" s="116" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="52" t="s">
@@ -3497,10 +3511,10 @@
       </c>
       <c r="I41" s="59">
         <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
-        <v>0</v>
-      </c>
-      <c r="J41" s="72">
-        <v>0</v>
+        <v>0.45</v>
+      </c>
+      <c r="J41" s="120">
+        <v>0.45</v>
       </c>
       <c r="K41" s="27"/>
       <c r="L41" s="27"/>
@@ -3517,8 +3531,8 @@
       <c r="W41" s="29"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="96"/>
-      <c r="C42" s="92"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="117"/>
       <c r="D42" s="51" t="s">
         <v>21</v>
       </c>
@@ -3554,8 +3568,8 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="96"/>
-      <c r="C43" s="92"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="117"/>
       <c r="D43" s="51" t="s">
         <v>22</v>
       </c>
@@ -3591,8 +3605,8 @@
       <c r="W43" s="32"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="96"/>
-      <c r="C44" s="92"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="117"/>
       <c r="D44" s="51" t="s">
         <v>23</v>
       </c>
@@ -3628,8 +3642,8 @@
       <c r="W44" s="32"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="96"/>
-      <c r="C45" s="92"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="117"/>
       <c r="D45" s="51" t="s">
         <v>24</v>
       </c>
@@ -3665,8 +3679,8 @@
       <c r="W45" s="32"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="96"/>
-      <c r="C46" s="92"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="117"/>
       <c r="D46" s="51" t="s">
         <v>25</v>
       </c>
@@ -3702,8 +3716,8 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="96"/>
-      <c r="C47" s="92"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="117"/>
       <c r="D47" s="51" t="s">
         <v>26</v>
       </c>
@@ -3739,8 +3753,8 @@
       <c r="W47" s="32"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="96"/>
-      <c r="C48" s="92"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="51" t="s">
         <v>27</v>
       </c>
@@ -3776,8 +3790,8 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="96"/>
-      <c r="C49" s="92"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="117"/>
       <c r="D49" s="51" t="s">
         <v>28</v>
       </c>
@@ -3813,8 +3827,8 @@
       <c r="W49" s="32"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="96"/>
-      <c r="C50" s="92"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="117"/>
       <c r="D50" s="51" t="s">
         <v>29</v>
       </c>
@@ -3850,8 +3864,8 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="96"/>
-      <c r="C51" s="92"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="51" t="s">
         <v>30</v>
       </c>
@@ -3887,8 +3901,8 @@
       <c r="W51" s="32"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="96"/>
-      <c r="C52" s="92"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="117"/>
       <c r="D52" s="51" t="s">
         <v>31</v>
       </c>
@@ -3924,8 +3938,8 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="96"/>
-      <c r="C53" s="92"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="117"/>
       <c r="D53" s="51" t="s">
         <v>77</v>
       </c>
@@ -3961,8 +3975,8 @@
       <c r="W53" s="32"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="96"/>
-      <c r="C54" s="92"/>
+      <c r="B54" s="88"/>
+      <c r="C54" s="117"/>
       <c r="D54" s="51" t="s">
         <v>78</v>
       </c>
@@ -3998,8 +4012,8 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="96"/>
-      <c r="C55" s="92"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="117"/>
       <c r="D55" s="51" t="s">
         <v>78</v>
       </c>
@@ -4035,8 +4049,8 @@
       <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="96"/>
-      <c r="C56" s="92"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="117"/>
       <c r="D56" s="51" t="s">
         <v>79</v>
       </c>
@@ -4072,8 +4086,8 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="96"/>
-      <c r="C57" s="92"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="117"/>
       <c r="D57" s="51" t="s">
         <v>80</v>
       </c>
@@ -4109,8 +4123,8 @@
       <c r="W57" s="32"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="96"/>
-      <c r="C58" s="92"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="117"/>
       <c r="D58" s="51" t="s">
         <v>81</v>
       </c>
@@ -4146,8 +4160,8 @@
       <c r="W58" s="32"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="96"/>
-      <c r="C59" s="92"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="117"/>
       <c r="D59" s="51" t="s">
         <v>82</v>
       </c>
@@ -4183,8 +4197,8 @@
       <c r="W59" s="32"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="96"/>
-      <c r="C60" s="92"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="117"/>
       <c r="D60" s="51" t="s">
         <v>83</v>
       </c>
@@ -4220,8 +4234,8 @@
       <c r="W60" s="32"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="96"/>
-      <c r="C61" s="92"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="117"/>
       <c r="D61" s="51" t="s">
         <v>84</v>
       </c>
@@ -4257,8 +4271,8 @@
       <c r="W61" s="32"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="96"/>
-      <c r="C62" s="92"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="117"/>
       <c r="D62" s="51" t="s">
         <v>85</v>
       </c>
@@ -4294,8 +4308,8 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="96"/>
-      <c r="C63" s="92"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="117"/>
       <c r="D63" s="51" t="s">
         <v>86</v>
       </c>
@@ -4331,8 +4345,8 @@
       <c r="W63" s="32"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="96"/>
-      <c r="C64" s="92"/>
+      <c r="B64" s="88"/>
+      <c r="C64" s="117"/>
       <c r="D64" s="51" t="s">
         <v>87</v>
       </c>
@@ -4368,8 +4382,8 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="96"/>
-      <c r="C65" s="92"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="117"/>
       <c r="D65" s="51" t="s">
         <v>88</v>
       </c>
@@ -4405,8 +4419,8 @@
       <c r="W65" s="32"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="96"/>
-      <c r="C66" s="92"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="117"/>
       <c r="D66" s="51" t="s">
         <v>89</v>
       </c>
@@ -4442,8 +4456,8 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="96"/>
-      <c r="C67" s="92"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="117"/>
       <c r="D67" s="51" t="s">
         <v>94</v>
       </c>
@@ -4479,8 +4493,8 @@
       <c r="W67" s="32"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="96"/>
-      <c r="C68" s="92"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="117"/>
       <c r="D68" s="51" t="s">
         <v>95</v>
       </c>
@@ -4516,8 +4530,8 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="96"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="88"/>
+      <c r="C69" s="117"/>
       <c r="D69" s="51" t="s">
         <v>96</v>
       </c>
@@ -4553,8 +4567,8 @@
       <c r="W69" s="32"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="96"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="88"/>
+      <c r="C70" s="117"/>
       <c r="D70" s="51" t="s">
         <v>97</v>
       </c>
@@ -4590,8 +4604,8 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="96"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="88"/>
+      <c r="C71" s="117"/>
       <c r="D71" s="51" t="s">
         <v>98</v>
       </c>
@@ -4627,8 +4641,8 @@
       <c r="W71" s="32"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="96"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="88"/>
+      <c r="C72" s="117"/>
       <c r="D72" s="51" t="s">
         <v>99</v>
       </c>
@@ -4664,8 +4678,8 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="96"/>
-      <c r="C73" s="92"/>
+      <c r="B73" s="88"/>
+      <c r="C73" s="117"/>
       <c r="D73" s="51" t="s">
         <v>100</v>
       </c>
@@ -4701,8 +4715,8 @@
       <c r="W73" s="32"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="96"/>
-      <c r="C74" s="92"/>
+      <c r="B74" s="88"/>
+      <c r="C74" s="117"/>
       <c r="D74" s="51" t="s">
         <v>101</v>
       </c>
@@ -4738,8 +4752,8 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="96"/>
-      <c r="C75" s="92"/>
+      <c r="B75" s="88"/>
+      <c r="C75" s="117"/>
       <c r="D75" s="51" t="s">
         <v>102</v>
       </c>
@@ -4775,8 +4789,8 @@
       <c r="W75" s="32"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="96"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="88"/>
+      <c r="C76" s="117"/>
       <c r="D76" s="51" t="s">
         <v>103</v>
       </c>
@@ -4812,8 +4826,8 @@
       <c r="W76" s="32"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="96"/>
-      <c r="C77" s="92"/>
+      <c r="B77" s="88"/>
+      <c r="C77" s="117"/>
       <c r="D77" s="51" t="s">
         <v>104</v>
       </c>
@@ -4849,8 +4863,8 @@
       <c r="W77" s="32"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="96"/>
-      <c r="C78" s="92"/>
+      <c r="B78" s="88"/>
+      <c r="C78" s="117"/>
       <c r="D78" s="51" t="s">
         <v>105</v>
       </c>
@@ -4886,8 +4900,8 @@
       <c r="W78" s="32"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="96"/>
-      <c r="C79" s="92"/>
+      <c r="B79" s="88"/>
+      <c r="C79" s="117"/>
       <c r="D79" s="51" t="s">
         <v>106</v>
       </c>
@@ -4923,8 +4937,8 @@
       <c r="W79" s="32"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="96"/>
-      <c r="C80" s="92"/>
+      <c r="B80" s="88"/>
+      <c r="C80" s="117"/>
       <c r="D80" s="51" t="s">
         <v>107</v>
       </c>
@@ -4939,7 +4953,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J80:W80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="73">
@@ -4960,8 +4974,8 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="96"/>
-      <c r="C81" s="92"/>
+      <c r="B81" s="88"/>
+      <c r="C81" s="117"/>
       <c r="D81" s="51" t="s">
         <v>90</v>
       </c>
@@ -4976,7 +4990,7 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J81:W81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="73">
@@ -4997,8 +5011,8 @@
       <c r="W81" s="32"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="96"/>
-      <c r="C82" s="92"/>
+      <c r="B82" s="88"/>
+      <c r="C82" s="117"/>
       <c r="D82" s="51" t="s">
         <v>91</v>
       </c>
@@ -5013,7 +5027,7 @@
         <v>0.25</v>
       </c>
       <c r="I82" s="57">
-        <f>SUM(J83:W83)</f>
+        <f>SUM(J82:W82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="73">
@@ -5034,8 +5048,8 @@
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="96"/>
-      <c r="C83" s="92"/>
+      <c r="B83" s="88"/>
+      <c r="C83" s="117"/>
       <c r="D83" s="51" t="s">
         <v>114</v>
       </c>
@@ -5050,29 +5064,31 @@
         <v>1</v>
       </c>
       <c r="I83" s="57">
-        <f>SUM(J84:W84)</f>
-        <v>0</v>
+        <f>SUM(J83:W83)</f>
+        <v>0.7</v>
       </c>
       <c r="J83" s="73">
         <v>0</v>
       </c>
-      <c r="K83" s="30"/>
-      <c r="L83" s="30"/>
-      <c r="M83" s="30"/>
-      <c r="N83" s="30"/>
-      <c r="O83" s="30"/>
-      <c r="P83" s="31"/>
-      <c r="Q83" s="31"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
-      <c r="T83" s="31"/>
-      <c r="U83" s="31"/>
-      <c r="V83" s="31"/>
-      <c r="W83" s="32"/>
+      <c r="K83" s="50">
+        <v>0.7</v>
+      </c>
+      <c r="L83" s="50"/>
+      <c r="M83" s="50"/>
+      <c r="N83" s="50"/>
+      <c r="O83" s="50"/>
+      <c r="P83" s="121"/>
+      <c r="Q83" s="121"/>
+      <c r="R83" s="121"/>
+      <c r="S83" s="121"/>
+      <c r="T83" s="121"/>
+      <c r="U83" s="121"/>
+      <c r="V83" s="121"/>
+      <c r="W83" s="122"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="96"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="88"/>
+      <c r="C84" s="89" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="48" t="s">
@@ -5089,7 +5105,7 @@
         <v>0.2</v>
       </c>
       <c r="I84" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J84:W84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="73">
@@ -5110,8 +5126,8 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="96"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="54" t="s">
         <v>70</v>
       </c>
@@ -5126,7 +5142,7 @@
         <v>0.2</v>
       </c>
       <c r="I85" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J85:W85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="73">
@@ -5147,8 +5163,8 @@
       <c r="W85" s="32"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="96"/>
-      <c r="C86" s="97"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="54" t="s">
         <v>71</v>
       </c>
@@ -5163,7 +5179,7 @@
         <v>0.2</v>
       </c>
       <c r="I86" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J86:W86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="73">
@@ -5184,8 +5200,8 @@
       <c r="W86" s="32"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="96"/>
-      <c r="C87" s="97"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="54" t="s">
         <v>72</v>
       </c>
@@ -5200,7 +5216,7 @@
         <v>0.2</v>
       </c>
       <c r="I87" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J87:W87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="73">
@@ -5221,8 +5237,8 @@
       <c r="W87" s="32"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="96"/>
-      <c r="C88" s="97"/>
+      <c r="B88" s="88"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="54" t="s">
         <v>73</v>
       </c>
@@ -5237,7 +5253,7 @@
         <v>0.2</v>
       </c>
       <c r="I88" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J88:W88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="73">
@@ -5258,8 +5274,8 @@
       <c r="W88" s="60"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="96"/>
-      <c r="C89" s="97"/>
+      <c r="B89" s="88"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="54" t="s">
         <v>74</v>
       </c>
@@ -5274,7 +5290,7 @@
         <v>0.2</v>
       </c>
       <c r="I89" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J89:W89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="73">
@@ -5295,7 +5311,7 @@
       <c r="W89" s="32"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="96"/>
+      <c r="B90" s="88"/>
       <c r="C90" s="85" t="s">
         <v>125</v>
       </c>
@@ -5317,22 +5333,22 @@
       <c r="J90" s="50">
         <v>1.5</v>
       </c>
-      <c r="K90" s="30"/>
-      <c r="L90" s="30"/>
-      <c r="M90" s="30"/>
-      <c r="N90" s="30"/>
-      <c r="O90" s="30"/>
-      <c r="P90" s="30"/>
-      <c r="Q90" s="30"/>
-      <c r="R90" s="31"/>
-      <c r="S90" s="31"/>
-      <c r="T90" s="31"/>
-      <c r="U90" s="31"/>
-      <c r="V90" s="31"/>
-      <c r="W90" s="32"/>
+      <c r="K90" s="50"/>
+      <c r="L90" s="50"/>
+      <c r="M90" s="50"/>
+      <c r="N90" s="50"/>
+      <c r="O90" s="50"/>
+      <c r="P90" s="50"/>
+      <c r="Q90" s="50"/>
+      <c r="R90" s="121"/>
+      <c r="S90" s="121"/>
+      <c r="T90" s="121"/>
+      <c r="U90" s="121"/>
+      <c r="V90" s="121"/>
+      <c r="W90" s="122"/>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="96"/>
+      <c r="B91" s="88"/>
       <c r="C91" s="77" t="s">
         <v>113</v>
       </c>
@@ -5348,7 +5364,7 @@
         <v>1</v>
       </c>
       <c r="I91" s="57">
-        <f t="shared" si="1"/>
+        <f>SUM(J91:W91)</f>
         <v>0</v>
       </c>
       <c r="J91" s="73">
@@ -5369,7 +5385,7 @@
       <c r="W91" s="32"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="107" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="40" t="s">
@@ -5408,7 +5424,7 @@
       <c r="W92" s="69"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="116"/>
+      <c r="B93" s="108"/>
       <c r="C93" s="43" t="s">
         <v>119</v>
       </c>
@@ -5443,8 +5459,8 @@
       <c r="W93" s="68"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="117"/>
-      <c r="C94" s="94" t="s">
+      <c r="B94" s="109"/>
+      <c r="C94" s="119" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="44" t="s">
@@ -5482,8 +5498,8 @@
       <c r="W94" s="60"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="118"/>
-      <c r="C95" s="94"/>
+      <c r="B95" s="110"/>
+      <c r="C95" s="119"/>
       <c r="D95" s="44" t="s">
         <v>109</v>
       </c>
@@ -5519,7 +5535,7 @@
       <c r="W95" s="60"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="119"/>
+      <c r="B96" s="111"/>
       <c r="C96" s="46" t="s">
         <v>116</v>
       </c>
@@ -5556,7 +5572,7 @@
       <c r="W96" s="66"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="95" t="s">
+      <c r="B97" s="87" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="65" t="s">
@@ -5595,7 +5611,7 @@
       <c r="W97" s="29"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="118"/>
+      <c r="B98" s="110"/>
       <c r="C98" s="56" t="s">
         <v>131</v>
       </c>
@@ -5632,7 +5648,7 @@
       <c r="W98" s="32"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="118"/>
+      <c r="B99" s="110"/>
       <c r="C99" s="56" t="s">
         <v>130</v>
       </c>
@@ -5669,7 +5685,7 @@
       <c r="W99" s="32"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="118"/>
+      <c r="B100" s="110"/>
       <c r="C100" s="56" t="s">
         <v>129</v>
       </c>
@@ -5706,7 +5722,7 @@
       <c r="W100" s="32"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="118"/>
+      <c r="B101" s="110"/>
       <c r="C101" s="56" t="s">
         <v>128</v>
       </c>
@@ -5743,7 +5759,7 @@
       <c r="W101" s="32"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="119"/>
+      <c r="B102" s="111"/>
       <c r="C102" s="46" t="s">
         <v>127</v>
       </c>
@@ -5780,76 +5796,76 @@
       <c r="W102" s="36"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
+      <c r="C103" s="103"/>
+      <c r="D103" s="103"/>
+      <c r="E103" s="103"/>
+      <c r="F103" s="103"/>
+      <c r="G103" s="103"/>
       <c r="H103" s="17">
-        <f>SUM(H4:H102)</f>
+        <f t="shared" ref="H103:W103" si="3">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
-        <f>SUM(I4:I102)</f>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>2.65</v>
       </c>
       <c r="J103" s="17">
-        <f>SUM(J4:J102)</f>
-        <v>1.5</v>
+        <f t="shared" si="3"/>
+        <v>1.95</v>
       </c>
       <c r="K103" s="17">
-        <f>SUM(K4:K102)</f>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.7</v>
       </c>
       <c r="L103" s="17">
-        <f>SUM(L4:L102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M103" s="17">
-        <f>SUM(M4:M102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N103" s="17">
-        <f>SUM(N4:N102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O103" s="17">
-        <f>SUM(O4:O102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P103" s="17">
-        <f>SUM(P4:P102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="Q103" s="17">
-        <f>SUM(Q4:Q102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="R103" s="17">
-        <f>SUM(R4:R102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S103" s="17">
-        <f>SUM(S4:S102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="T103" s="17">
-        <f>SUM(T4:T102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="U103" s="17">
-        <f>SUM(U4:U102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="V103" s="17">
-        <f>SUM(V4:V102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="W103" s="18">
-        <f>SUM(W4:W102)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -5862,22 +5878,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="101" t="s">
+      <c r="J104" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="103"/>
+      <c r="K104" s="94"/>
+      <c r="L104" s="94"/>
+      <c r="M104" s="94"/>
+      <c r="N104" s="94"/>
+      <c r="O104" s="94"/>
+      <c r="P104" s="94"/>
+      <c r="Q104" s="94"/>
+      <c r="R104" s="94"/>
+      <c r="S104" s="94"/>
+      <c r="T104" s="94"/>
+      <c r="U104" s="94"/>
+      <c r="V104" s="94"/>
+      <c r="W104" s="95"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="78" t="s">
@@ -5921,65 +5937,65 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="87" t="s">
+      <c r="H106" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="90"/>
+      <c r="I106" s="115"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
-        <v>47.22</v>
+        <v>46.769999999999996</v>
       </c>
       <c r="K106" s="10">
         <f>J106-K103</f>
-        <v>47.22</v>
+        <v>46.069999999999993</v>
       </c>
       <c r="L106" s="10">
         <f>K106-L103</f>
-        <v>47.22</v>
+        <v>46.069999999999993</v>
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>47.22</v>
+        <v>46.069999999999993</v>
       </c>
       <c r="N106" s="10">
-        <f t="shared" ref="N106:W106" si="3">M106-N103</f>
-        <v>47.22</v>
+        <f t="shared" ref="N106:W106" si="4">M106-N103</f>
+        <v>46.069999999999993</v>
       </c>
       <c r="O106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="P106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="Q106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="R106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="S106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="T106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="U106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="V106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
       <c r="W106" s="10">
-        <f t="shared" si="3"/>
-        <v>47.22</v>
+        <f t="shared" si="4"/>
+        <v>46.069999999999993</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6017,34 +6033,34 @@
       </c>
       <c r="D108" s="5">
         <f>SUM(I41:I83,I37:I39)</f>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E108" s="5">
         <f>SUM(C108,-D108)</f>
-        <v>16.75</v>
+        <v>15.6</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="87" t="s">
+      <c r="H108" s="112" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="88"/>
-      <c r="J108" s="87">
+      <c r="I108" s="113"/>
+      <c r="J108" s="112">
         <f>H103-I103</f>
-        <v>47.22</v>
-      </c>
-      <c r="K108" s="88"/>
-      <c r="L108" s="88"/>
-      <c r="M108" s="88"/>
-      <c r="N108" s="88"/>
-      <c r="O108" s="88"/>
-      <c r="P108" s="88"/>
-      <c r="Q108" s="88"/>
-      <c r="R108" s="88"/>
-      <c r="S108" s="88"/>
-      <c r="T108" s="88"/>
-      <c r="U108" s="88"/>
-      <c r="V108" s="88"/>
-      <c r="W108" s="89"/>
+        <v>46.07</v>
+      </c>
+      <c r="K108" s="113"/>
+      <c r="L108" s="113"/>
+      <c r="M108" s="113"/>
+      <c r="N108" s="113"/>
+      <c r="O108" s="113"/>
+      <c r="P108" s="113"/>
+      <c r="Q108" s="113"/>
+      <c r="R108" s="113"/>
+      <c r="S108" s="113"/>
+      <c r="T108" s="113"/>
+      <c r="U108" s="113"/>
+      <c r="V108" s="113"/>
+      <c r="W108" s="114"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6124,6 +6140,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6136,12 +6158,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1081,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1333,6 +1333,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,37 +1441,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,43 +1564,43 @@
                   <c:v>46.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.069999999999993</c:v>
+                  <c:v>45.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1651,6 +1660,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1995,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90:W90"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB99" sqref="AB99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2025,22 +2035,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="91"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="92"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="103"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2111,7 +2121,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="96" t="s">
+      <c r="B4" s="107" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -2152,7 +2162,7 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="97"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="48" t="s">
         <v>59</v>
       </c>
@@ -2189,7 +2199,7 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="97"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="48" t="s">
         <v>75</v>
       </c>
@@ -2226,8 +2236,8 @@
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="97"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="108"/>
+      <c r="C7" s="116" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -2265,8 +2275,8 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="97"/>
-      <c r="C8" s="105"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="48" t="s">
         <v>62</v>
       </c>
@@ -2302,8 +2312,8 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="101"/>
-      <c r="C9" s="106"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="117"/>
       <c r="D9" s="45" t="s">
         <v>63</v>
       </c>
@@ -2339,7 +2349,7 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="98" t="s">
+      <c r="B10" s="109" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="53" t="s">
@@ -2378,7 +2388,7 @@
       <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="99"/>
+      <c r="B11" s="110"/>
       <c r="C11" s="48" t="s">
         <v>66</v>
       </c>
@@ -2415,7 +2425,7 @@
       <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="99"/>
+      <c r="B12" s="110"/>
       <c r="C12" s="48" t="s">
         <v>67</v>
       </c>
@@ -2452,7 +2462,7 @@
       <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="100"/>
+      <c r="B13" s="111"/>
       <c r="C13" s="47" t="s">
         <v>120</v>
       </c>
@@ -2487,7 +2497,7 @@
       <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="100"/>
+      <c r="B14" s="111"/>
       <c r="C14" s="47" t="s">
         <v>118</v>
       </c>
@@ -2522,7 +2532,7 @@
       <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="100"/>
+      <c r="B15" s="111"/>
       <c r="C15" s="47" t="s">
         <v>68</v>
       </c>
@@ -2559,7 +2569,7 @@
       <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="96" t="s">
+      <c r="B16" s="107" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -2598,7 +2608,7 @@
       <c r="W16" s="29"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="97"/>
+      <c r="B17" s="108"/>
       <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
@@ -2635,8 +2645,8 @@
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="97"/>
-      <c r="C18" s="104" t="s">
+      <c r="B18" s="108"/>
+      <c r="C18" s="115" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -2674,8 +2684,8 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="97"/>
-      <c r="C19" s="104"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="48" t="s">
         <v>39</v>
       </c>
@@ -2711,8 +2721,8 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="97"/>
-      <c r="C20" s="118" t="s">
+      <c r="B20" s="108"/>
+      <c r="C20" s="96" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="48" t="s">
@@ -2750,8 +2760,8 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="97"/>
-      <c r="C21" s="118"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="48" t="s">
         <v>34</v>
       </c>
@@ -2787,8 +2797,8 @@
       <c r="W21" s="32"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="97"/>
-      <c r="C22" s="118"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="96"/>
       <c r="D22" s="48" t="s">
         <v>35</v>
       </c>
@@ -2824,8 +2834,8 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="97"/>
-      <c r="C23" s="118"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="96"/>
       <c r="D23" s="48" t="s">
         <v>40</v>
       </c>
@@ -2861,8 +2871,8 @@
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="97"/>
-      <c r="C24" s="118"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="48" t="s">
         <v>41</v>
       </c>
@@ -2898,8 +2908,8 @@
       <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="97"/>
-      <c r="C25" s="118"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="48" t="s">
         <v>42</v>
       </c>
@@ -2935,8 +2945,8 @@
       <c r="W25" s="32"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="97"/>
-      <c r="C26" s="118"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="48" t="s">
         <v>43</v>
       </c>
@@ -2972,8 +2982,8 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="97"/>
-      <c r="C27" s="118"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="48" t="s">
         <v>44</v>
       </c>
@@ -3009,8 +3019,8 @@
       <c r="W27" s="32"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="97"/>
-      <c r="C28" s="118"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3046,8 +3056,8 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="118"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="96"/>
       <c r="D29" s="48" t="s">
         <v>46</v>
       </c>
@@ -3083,8 +3093,8 @@
       <c r="W29" s="32"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
-      <c r="C30" s="118"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3120,8 +3130,8 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="97"/>
-      <c r="C31" s="118"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="96"/>
       <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
@@ -3157,8 +3167,8 @@
       <c r="W31" s="32"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
-      <c r="C32" s="118"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="96"/>
       <c r="D32" s="48" t="s">
         <v>49</v>
       </c>
@@ -3194,8 +3204,8 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
-      <c r="C33" s="118"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="48" t="s">
         <v>50</v>
       </c>
@@ -3231,8 +3241,8 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
-      <c r="C34" s="118"/>
+      <c r="B34" s="108"/>
+      <c r="C34" s="96"/>
       <c r="D34" s="48" t="s">
         <v>51</v>
       </c>
@@ -3268,8 +3278,8 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="97"/>
-      <c r="C35" s="118"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="96"/>
       <c r="D35" s="48" t="s">
         <v>52</v>
       </c>
@@ -3305,8 +3315,8 @@
       <c r="W35" s="32"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="97"/>
-      <c r="C36" s="118"/>
+      <c r="B36" s="108"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="54" t="s">
         <v>111</v>
       </c>
@@ -3342,7 +3352,7 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="97"/>
+      <c r="B37" s="108"/>
       <c r="C37" s="51" t="s">
         <v>53</v>
       </c>
@@ -3379,7 +3389,7 @@
       <c r="W37" s="32"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="97"/>
+      <c r="B38" s="108"/>
       <c r="C38" s="51" t="s">
         <v>55</v>
       </c>
@@ -3416,7 +3426,7 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="97"/>
+      <c r="B39" s="108"/>
       <c r="C39" s="51" t="s">
         <v>56</v>
       </c>
@@ -3453,7 +3463,7 @@
       <c r="W39" s="32"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="97"/>
+      <c r="B40" s="108"/>
       <c r="C40" s="58" t="s">
         <v>112</v>
       </c>
@@ -3490,10 +3500,10 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="87" t="s">
+      <c r="B41" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="94" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="52" t="s">
@@ -3511,28 +3521,30 @@
       </c>
       <c r="I41" s="59">
         <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
+        <v>0.95</v>
+      </c>
+      <c r="J41" s="87">
         <v>0.45</v>
       </c>
-      <c r="J41" s="120">
-        <v>0.45</v>
-      </c>
-      <c r="K41" s="27"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="27"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="27"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="28"/>
-      <c r="R41" s="28"/>
-      <c r="S41" s="28"/>
-      <c r="T41" s="28"/>
-      <c r="U41" s="28"/>
-      <c r="V41" s="28"/>
-      <c r="W41" s="29"/>
+      <c r="K41" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="L41" s="123"/>
+      <c r="M41" s="123"/>
+      <c r="N41" s="123"/>
+      <c r="O41" s="123"/>
+      <c r="P41" s="124"/>
+      <c r="Q41" s="124"/>
+      <c r="R41" s="124"/>
+      <c r="S41" s="124"/>
+      <c r="T41" s="124"/>
+      <c r="U41" s="124"/>
+      <c r="V41" s="124"/>
+      <c r="W41" s="125"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="88"/>
-      <c r="C42" s="117"/>
+      <c r="B42" s="99"/>
+      <c r="C42" s="95"/>
       <c r="D42" s="51" t="s">
         <v>21</v>
       </c>
@@ -3568,8 +3580,8 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="88"/>
-      <c r="C43" s="117"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="95"/>
       <c r="D43" s="51" t="s">
         <v>22</v>
       </c>
@@ -3605,8 +3617,8 @@
       <c r="W43" s="32"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="88"/>
-      <c r="C44" s="117"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="95"/>
       <c r="D44" s="51" t="s">
         <v>23</v>
       </c>
@@ -3642,8 +3654,8 @@
       <c r="W44" s="32"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="88"/>
-      <c r="C45" s="117"/>
+      <c r="B45" s="99"/>
+      <c r="C45" s="95"/>
       <c r="D45" s="51" t="s">
         <v>24</v>
       </c>
@@ -3679,8 +3691,8 @@
       <c r="W45" s="32"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="88"/>
-      <c r="C46" s="117"/>
+      <c r="B46" s="99"/>
+      <c r="C46" s="95"/>
       <c r="D46" s="51" t="s">
         <v>25</v>
       </c>
@@ -3716,8 +3728,8 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="88"/>
-      <c r="C47" s="117"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="95"/>
       <c r="D47" s="51" t="s">
         <v>26</v>
       </c>
@@ -3753,8 +3765,8 @@
       <c r="W47" s="32"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="88"/>
-      <c r="C48" s="117"/>
+      <c r="B48" s="99"/>
+      <c r="C48" s="95"/>
       <c r="D48" s="51" t="s">
         <v>27</v>
       </c>
@@ -3790,8 +3802,8 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="88"/>
-      <c r="C49" s="117"/>
+      <c r="B49" s="99"/>
+      <c r="C49" s="95"/>
       <c r="D49" s="51" t="s">
         <v>28</v>
       </c>
@@ -3827,8 +3839,8 @@
       <c r="W49" s="32"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="88"/>
-      <c r="C50" s="117"/>
+      <c r="B50" s="99"/>
+      <c r="C50" s="95"/>
       <c r="D50" s="51" t="s">
         <v>29</v>
       </c>
@@ -3864,8 +3876,8 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="88"/>
-      <c r="C51" s="117"/>
+      <c r="B51" s="99"/>
+      <c r="C51" s="95"/>
       <c r="D51" s="51" t="s">
         <v>30</v>
       </c>
@@ -3901,8 +3913,8 @@
       <c r="W51" s="32"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="88"/>
-      <c r="C52" s="117"/>
+      <c r="B52" s="99"/>
+      <c r="C52" s="95"/>
       <c r="D52" s="51" t="s">
         <v>31</v>
       </c>
@@ -3938,8 +3950,8 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="88"/>
-      <c r="C53" s="117"/>
+      <c r="B53" s="99"/>
+      <c r="C53" s="95"/>
       <c r="D53" s="51" t="s">
         <v>77</v>
       </c>
@@ -3975,8 +3987,8 @@
       <c r="W53" s="32"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="88"/>
-      <c r="C54" s="117"/>
+      <c r="B54" s="99"/>
+      <c r="C54" s="95"/>
       <c r="D54" s="51" t="s">
         <v>78</v>
       </c>
@@ -4012,8 +4024,8 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="88"/>
-      <c r="C55" s="117"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="95"/>
       <c r="D55" s="51" t="s">
         <v>78</v>
       </c>
@@ -4049,8 +4061,8 @@
       <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="88"/>
-      <c r="C56" s="117"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="95"/>
       <c r="D56" s="51" t="s">
         <v>79</v>
       </c>
@@ -4086,8 +4098,8 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="88"/>
-      <c r="C57" s="117"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="95"/>
       <c r="D57" s="51" t="s">
         <v>80</v>
       </c>
@@ -4123,8 +4135,8 @@
       <c r="W57" s="32"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="88"/>
-      <c r="C58" s="117"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="95"/>
       <c r="D58" s="51" t="s">
         <v>81</v>
       </c>
@@ -4160,8 +4172,8 @@
       <c r="W58" s="32"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="88"/>
-      <c r="C59" s="117"/>
+      <c r="B59" s="99"/>
+      <c r="C59" s="95"/>
       <c r="D59" s="51" t="s">
         <v>82</v>
       </c>
@@ -4197,8 +4209,8 @@
       <c r="W59" s="32"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="88"/>
-      <c r="C60" s="117"/>
+      <c r="B60" s="99"/>
+      <c r="C60" s="95"/>
       <c r="D60" s="51" t="s">
         <v>83</v>
       </c>
@@ -4234,8 +4246,8 @@
       <c r="W60" s="32"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="88"/>
-      <c r="C61" s="117"/>
+      <c r="B61" s="99"/>
+      <c r="C61" s="95"/>
       <c r="D61" s="51" t="s">
         <v>84</v>
       </c>
@@ -4271,8 +4283,8 @@
       <c r="W61" s="32"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="88"/>
-      <c r="C62" s="117"/>
+      <c r="B62" s="99"/>
+      <c r="C62" s="95"/>
       <c r="D62" s="51" t="s">
         <v>85</v>
       </c>
@@ -4308,8 +4320,8 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="88"/>
-      <c r="C63" s="117"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="95"/>
       <c r="D63" s="51" t="s">
         <v>86</v>
       </c>
@@ -4345,8 +4357,8 @@
       <c r="W63" s="32"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="88"/>
-      <c r="C64" s="117"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="95"/>
       <c r="D64" s="51" t="s">
         <v>87</v>
       </c>
@@ -4382,8 +4394,8 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="88"/>
-      <c r="C65" s="117"/>
+      <c r="B65" s="99"/>
+      <c r="C65" s="95"/>
       <c r="D65" s="51" t="s">
         <v>88</v>
       </c>
@@ -4419,8 +4431,8 @@
       <c r="W65" s="32"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="88"/>
-      <c r="C66" s="117"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="95"/>
       <c r="D66" s="51" t="s">
         <v>89</v>
       </c>
@@ -4456,8 +4468,8 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="88"/>
-      <c r="C67" s="117"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="95"/>
       <c r="D67" s="51" t="s">
         <v>94</v>
       </c>
@@ -4493,8 +4505,8 @@
       <c r="W67" s="32"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="88"/>
-      <c r="C68" s="117"/>
+      <c r="B68" s="99"/>
+      <c r="C68" s="95"/>
       <c r="D68" s="51" t="s">
         <v>95</v>
       </c>
@@ -4530,8 +4542,8 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="88"/>
-      <c r="C69" s="117"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="95"/>
       <c r="D69" s="51" t="s">
         <v>96</v>
       </c>
@@ -4567,8 +4579,8 @@
       <c r="W69" s="32"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="88"/>
-      <c r="C70" s="117"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="95"/>
       <c r="D70" s="51" t="s">
         <v>97</v>
       </c>
@@ -4604,8 +4616,8 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="88"/>
-      <c r="C71" s="117"/>
+      <c r="B71" s="99"/>
+      <c r="C71" s="95"/>
       <c r="D71" s="51" t="s">
         <v>98</v>
       </c>
@@ -4641,8 +4653,8 @@
       <c r="W71" s="32"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="88"/>
-      <c r="C72" s="117"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="95"/>
       <c r="D72" s="51" t="s">
         <v>99</v>
       </c>
@@ -4678,8 +4690,8 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="88"/>
-      <c r="C73" s="117"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="95"/>
       <c r="D73" s="51" t="s">
         <v>100</v>
       </c>
@@ -4715,8 +4727,8 @@
       <c r="W73" s="32"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="88"/>
-      <c r="C74" s="117"/>
+      <c r="B74" s="99"/>
+      <c r="C74" s="95"/>
       <c r="D74" s="51" t="s">
         <v>101</v>
       </c>
@@ -4752,8 +4764,8 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="88"/>
-      <c r="C75" s="117"/>
+      <c r="B75" s="99"/>
+      <c r="C75" s="95"/>
       <c r="D75" s="51" t="s">
         <v>102</v>
       </c>
@@ -4789,8 +4801,8 @@
       <c r="W75" s="32"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="88"/>
-      <c r="C76" s="117"/>
+      <c r="B76" s="99"/>
+      <c r="C76" s="95"/>
       <c r="D76" s="51" t="s">
         <v>103</v>
       </c>
@@ -4826,8 +4838,8 @@
       <c r="W76" s="32"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="88"/>
-      <c r="C77" s="117"/>
+      <c r="B77" s="99"/>
+      <c r="C77" s="95"/>
       <c r="D77" s="51" t="s">
         <v>104</v>
       </c>
@@ -4863,8 +4875,8 @@
       <c r="W77" s="32"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="88"/>
-      <c r="C78" s="117"/>
+      <c r="B78" s="99"/>
+      <c r="C78" s="95"/>
       <c r="D78" s="51" t="s">
         <v>105</v>
       </c>
@@ -4900,8 +4912,8 @@
       <c r="W78" s="32"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="88"/>
-      <c r="C79" s="117"/>
+      <c r="B79" s="99"/>
+      <c r="C79" s="95"/>
       <c r="D79" s="51" t="s">
         <v>106</v>
       </c>
@@ -4937,8 +4949,8 @@
       <c r="W79" s="32"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="88"/>
-      <c r="C80" s="117"/>
+      <c r="B80" s="99"/>
+      <c r="C80" s="95"/>
       <c r="D80" s="51" t="s">
         <v>107</v>
       </c>
@@ -4953,7 +4965,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="57">
-        <f>SUM(J80:W80)</f>
+        <f t="shared" ref="I80:I89" si="2">SUM(J80:W80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="73">
@@ -4974,8 +4986,8 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="88"/>
-      <c r="C81" s="117"/>
+      <c r="B81" s="99"/>
+      <c r="C81" s="95"/>
       <c r="D81" s="51" t="s">
         <v>90</v>
       </c>
@@ -4990,7 +5002,7 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="57">
-        <f>SUM(J81:W81)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J81" s="73">
@@ -5011,8 +5023,8 @@
       <c r="W81" s="32"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="88"/>
-      <c r="C82" s="117"/>
+      <c r="B82" s="99"/>
+      <c r="C82" s="95"/>
       <c r="D82" s="51" t="s">
         <v>91</v>
       </c>
@@ -5027,7 +5039,7 @@
         <v>0.25</v>
       </c>
       <c r="I82" s="57">
-        <f>SUM(J82:W82)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J82" s="73">
@@ -5048,8 +5060,8 @@
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="88"/>
-      <c r="C83" s="117"/>
+      <c r="B83" s="99"/>
+      <c r="C83" s="95"/>
       <c r="D83" s="51" t="s">
         <v>114</v>
       </c>
@@ -5064,31 +5076,31 @@
         <v>1</v>
       </c>
       <c r="I83" s="57">
-        <f>SUM(J83:W83)</f>
-        <v>0.7</v>
+        <f t="shared" si="2"/>
+        <v>0.8</v>
       </c>
       <c r="J83" s="73">
         <v>0</v>
       </c>
       <c r="K83" s="50">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="L83" s="50"/>
       <c r="M83" s="50"/>
       <c r="N83" s="50"/>
       <c r="O83" s="50"/>
-      <c r="P83" s="121"/>
-      <c r="Q83" s="121"/>
-      <c r="R83" s="121"/>
-      <c r="S83" s="121"/>
-      <c r="T83" s="121"/>
-      <c r="U83" s="121"/>
-      <c r="V83" s="121"/>
-      <c r="W83" s="122"/>
+      <c r="P83" s="88"/>
+      <c r="Q83" s="88"/>
+      <c r="R83" s="88"/>
+      <c r="S83" s="88"/>
+      <c r="T83" s="88"/>
+      <c r="U83" s="88"/>
+      <c r="V83" s="88"/>
+      <c r="W83" s="89"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="88"/>
-      <c r="C84" s="89" t="s">
+      <c r="B84" s="99"/>
+      <c r="C84" s="100" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="48" t="s">
@@ -5105,7 +5117,7 @@
         <v>0.2</v>
       </c>
       <c r="I84" s="57">
-        <f>SUM(J84:W84)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J84" s="73">
@@ -5126,8 +5138,8 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="88"/>
-      <c r="C85" s="89"/>
+      <c r="B85" s="99"/>
+      <c r="C85" s="100"/>
       <c r="D85" s="54" t="s">
         <v>70</v>
       </c>
@@ -5142,7 +5154,7 @@
         <v>0.2</v>
       </c>
       <c r="I85" s="57">
-        <f>SUM(J85:W85)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J85" s="73">
@@ -5163,8 +5175,8 @@
       <c r="W85" s="32"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="88"/>
-      <c r="C86" s="89"/>
+      <c r="B86" s="99"/>
+      <c r="C86" s="100"/>
       <c r="D86" s="54" t="s">
         <v>71</v>
       </c>
@@ -5179,7 +5191,7 @@
         <v>0.2</v>
       </c>
       <c r="I86" s="57">
-        <f>SUM(J86:W86)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J86" s="73">
@@ -5200,8 +5212,8 @@
       <c r="W86" s="32"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="88"/>
-      <c r="C87" s="89"/>
+      <c r="B87" s="99"/>
+      <c r="C87" s="100"/>
       <c r="D87" s="54" t="s">
         <v>72</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>0.2</v>
       </c>
       <c r="I87" s="57">
-        <f>SUM(J87:W87)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J87" s="73">
@@ -5237,8 +5249,8 @@
       <c r="W87" s="32"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="88"/>
-      <c r="C88" s="89"/>
+      <c r="B88" s="99"/>
+      <c r="C88" s="100"/>
       <c r="D88" s="54" t="s">
         <v>73</v>
       </c>
@@ -5253,7 +5265,7 @@
         <v>0.2</v>
       </c>
       <c r="I88" s="57">
-        <f>SUM(J88:W88)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J88" s="73">
@@ -5274,8 +5286,8 @@
       <c r="W88" s="60"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="88"/>
-      <c r="C89" s="89"/>
+      <c r="B89" s="99"/>
+      <c r="C89" s="100"/>
       <c r="D89" s="54" t="s">
         <v>74</v>
       </c>
@@ -5290,7 +5302,7 @@
         <v>0.2</v>
       </c>
       <c r="I89" s="57">
-        <f>SUM(J89:W89)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J89" s="73">
@@ -5311,7 +5323,7 @@
       <c r="W89" s="32"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="88"/>
+      <c r="B90" s="99"/>
       <c r="C90" s="85" t="s">
         <v>125</v>
       </c>
@@ -5340,15 +5352,15 @@
       <c r="O90" s="50"/>
       <c r="P90" s="50"/>
       <c r="Q90" s="50"/>
-      <c r="R90" s="121"/>
-      <c r="S90" s="121"/>
-      <c r="T90" s="121"/>
-      <c r="U90" s="121"/>
-      <c r="V90" s="121"/>
-      <c r="W90" s="122"/>
+      <c r="R90" s="88"/>
+      <c r="S90" s="88"/>
+      <c r="T90" s="88"/>
+      <c r="U90" s="88"/>
+      <c r="V90" s="88"/>
+      <c r="W90" s="89"/>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="88"/>
+      <c r="B91" s="99"/>
       <c r="C91" s="77" t="s">
         <v>113</v>
       </c>
@@ -5385,7 +5397,7 @@
       <c r="W91" s="32"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="107" t="s">
+      <c r="B92" s="118" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="40" t="s">
@@ -5424,7 +5436,7 @@
       <c r="W92" s="69"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="108"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="43" t="s">
         <v>119</v>
       </c>
@@ -5459,8 +5471,8 @@
       <c r="W93" s="68"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="109"/>
-      <c r="C94" s="119" t="s">
+      <c r="B94" s="120"/>
+      <c r="C94" s="97" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="44" t="s">
@@ -5498,8 +5510,8 @@
       <c r="W94" s="60"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="110"/>
-      <c r="C95" s="119"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="97"/>
       <c r="D95" s="44" t="s">
         <v>109</v>
       </c>
@@ -5535,7 +5547,7 @@
       <c r="W95" s="60"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="111"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="46" t="s">
         <v>116</v>
       </c>
@@ -5572,7 +5584,7 @@
       <c r="W96" s="66"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="87" t="s">
+      <c r="B97" s="98" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="65" t="s">
@@ -5611,7 +5623,7 @@
       <c r="W97" s="29"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="110"/>
+      <c r="B98" s="121"/>
       <c r="C98" s="56" t="s">
         <v>131</v>
       </c>
@@ -5648,7 +5660,7 @@
       <c r="W98" s="32"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="110"/>
+      <c r="B99" s="121"/>
       <c r="C99" s="56" t="s">
         <v>130</v>
       </c>
@@ -5685,7 +5697,7 @@
       <c r="W99" s="32"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="110"/>
+      <c r="B100" s="121"/>
       <c r="C100" s="56" t="s">
         <v>129</v>
       </c>
@@ -5722,7 +5734,7 @@
       <c r="W100" s="32"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="110"/>
+      <c r="B101" s="121"/>
       <c r="C101" s="56" t="s">
         <v>128</v>
       </c>
@@ -5759,7 +5771,7 @@
       <c r="W101" s="32"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="111"/>
+      <c r="B102" s="122"/>
       <c r="C102" s="46" t="s">
         <v>127</v>
       </c>
@@ -5775,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="I102" s="61">
-        <f t="shared" ref="I102" si="2">SUM(J102:W102)</f>
+        <f t="shared" ref="I102" si="3">SUM(J102:W102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="74">
@@ -5796,76 +5808,76 @@
       <c r="W102" s="36"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="102" t="s">
+      <c r="B103" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="103"/>
-      <c r="D103" s="103"/>
-      <c r="E103" s="103"/>
-      <c r="F103" s="103"/>
-      <c r="G103" s="103"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114"/>
+      <c r="F103" s="114"/>
+      <c r="G103" s="114"/>
       <c r="H103" s="17">
-        <f t="shared" ref="H103:W103" si="3">SUM(H4:H102)</f>
+        <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
-        <f t="shared" si="3"/>
-        <v>2.65</v>
+        <f t="shared" si="4"/>
+        <v>3.25</v>
       </c>
       <c r="J103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.95</v>
       </c>
       <c r="K103" s="17">
-        <f t="shared" si="3"/>
-        <v>0.7</v>
+        <f t="shared" si="4"/>
+        <v>1.3</v>
       </c>
       <c r="L103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="O103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="P103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="R103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="U103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V103" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="W103" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -5878,22 +5890,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="93" t="s">
+      <c r="J104" s="104" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="94"/>
-      <c r="L104" s="94"/>
-      <c r="M104" s="94"/>
-      <c r="N104" s="94"/>
-      <c r="O104" s="94"/>
-      <c r="P104" s="94"/>
-      <c r="Q104" s="94"/>
-      <c r="R104" s="94"/>
-      <c r="S104" s="94"/>
-      <c r="T104" s="94"/>
-      <c r="U104" s="94"/>
-      <c r="V104" s="94"/>
-      <c r="W104" s="95"/>
+      <c r="K104" s="105"/>
+      <c r="L104" s="105"/>
+      <c r="M104" s="105"/>
+      <c r="N104" s="105"/>
+      <c r="O104" s="105"/>
+      <c r="P104" s="105"/>
+      <c r="Q104" s="105"/>
+      <c r="R104" s="105"/>
+      <c r="S104" s="105"/>
+      <c r="T104" s="105"/>
+      <c r="U104" s="105"/>
+      <c r="V104" s="105"/>
+      <c r="W104" s="106"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="78" t="s">
@@ -5937,65 +5949,65 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="112" t="s">
+      <c r="H106" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="115"/>
+      <c r="I106" s="93"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
       </c>
       <c r="K106" s="10">
         <f>J106-K103</f>
-        <v>46.069999999999993</v>
+        <v>45.47</v>
       </c>
       <c r="L106" s="10">
         <f>K106-L103</f>
-        <v>46.069999999999993</v>
+        <v>45.47</v>
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>46.069999999999993</v>
+        <v>45.47</v>
       </c>
       <c r="N106" s="10">
-        <f t="shared" ref="N106:W106" si="4">M106-N103</f>
-        <v>46.069999999999993</v>
+        <f t="shared" ref="N106:W106" si="5">M106-N103</f>
+        <v>45.47</v>
       </c>
       <c r="O106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="P106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="Q106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="R106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="S106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="T106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="U106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="V106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
       <c r="W106" s="10">
-        <f t="shared" si="4"/>
-        <v>46.069999999999993</v>
+        <f t="shared" si="5"/>
+        <v>45.47</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6033,34 +6045,34 @@
       </c>
       <c r="D108" s="5">
         <f>SUM(I41:I83,I37:I39)</f>
-        <v>1.1499999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="E108" s="5">
         <f>SUM(C108,-D108)</f>
-        <v>15.6</v>
+        <v>15</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="112" t="s">
+      <c r="H108" s="90" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="113"/>
-      <c r="J108" s="112">
+      <c r="I108" s="91"/>
+      <c r="J108" s="90">
         <f>H103-I103</f>
-        <v>46.07</v>
-      </c>
-      <c r="K108" s="113"/>
-      <c r="L108" s="113"/>
-      <c r="M108" s="113"/>
-      <c r="N108" s="113"/>
-      <c r="O108" s="113"/>
-      <c r="P108" s="113"/>
-      <c r="Q108" s="113"/>
-      <c r="R108" s="113"/>
-      <c r="S108" s="113"/>
-      <c r="T108" s="113"/>
-      <c r="U108" s="113"/>
-      <c r="V108" s="113"/>
-      <c r="W108" s="114"/>
+        <v>45.47</v>
+      </c>
+      <c r="K108" s="91"/>
+      <c r="L108" s="91"/>
+      <c r="M108" s="91"/>
+      <c r="N108" s="91"/>
+      <c r="O108" s="91"/>
+      <c r="P108" s="91"/>
+      <c r="Q108" s="91"/>
+      <c r="R108" s="91"/>
+      <c r="S108" s="91"/>
+      <c r="T108" s="91"/>
+      <c r="U108" s="91"/>
+      <c r="V108" s="91"/>
+      <c r="W108" s="92"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6140,12 +6152,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6158,6 +6164,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1342,6 +1342,90 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1364,90 +1448,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1564,43 +1564,43 @@
                   <c:v>46.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.47</c:v>
+                  <c:v>43.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.47</c:v>
+                  <c:v>42.47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2005,8 +2005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB99" sqref="AB99"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,22 +2035,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="101" t="s">
+      <c r="J2" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
-      <c r="O2" s="102"/>
-      <c r="P2" s="102"/>
-      <c r="Q2" s="102"/>
-      <c r="R2" s="102"/>
-      <c r="S2" s="102"/>
-      <c r="T2" s="102"/>
-      <c r="U2" s="102"/>
-      <c r="V2" s="102"/>
-      <c r="W2" s="103"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="98"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2121,7 +2121,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="102" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -2162,7 +2162,7 @@
       <c r="W4" s="20"/>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="108"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="48" t="s">
         <v>59</v>
       </c>
@@ -2199,7 +2199,7 @@
       <c r="W5" s="22"/>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="108"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="48" t="s">
         <v>75</v>
       </c>
@@ -2236,8 +2236,8 @@
       <c r="W6" s="22"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="108"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="103"/>
+      <c r="C7" s="111" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="44" t="s">
@@ -2275,8 +2275,8 @@
       <c r="W7" s="22"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="108"/>
-      <c r="C8" s="116"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="111"/>
       <c r="D8" s="48" t="s">
         <v>62</v>
       </c>
@@ -2312,8 +2312,8 @@
       <c r="W8" s="22"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="112"/>
-      <c r="C9" s="117"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="112"/>
       <c r="D9" s="45" t="s">
         <v>63</v>
       </c>
@@ -2349,7 +2349,7 @@
       <c r="W9" s="24"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="104" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="53" t="s">
@@ -2388,7 +2388,7 @@
       <c r="W10" s="26"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="110"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="48" t="s">
         <v>66</v>
       </c>
@@ -2425,7 +2425,7 @@
       <c r="W11" s="60"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="110"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="48" t="s">
         <v>67</v>
       </c>
@@ -2462,7 +2462,7 @@
       <c r="W12" s="60"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="111"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="47" t="s">
         <v>120</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="W13" s="71"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="111"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="47" t="s">
         <v>118</v>
       </c>
@@ -2532,7 +2532,7 @@
       <c r="W14" s="71"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="111"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="47" t="s">
         <v>68</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="W15" s="71"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="107" t="s">
+      <c r="B16" s="102" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="67" t="s">
@@ -2588,13 +2588,17 @@
       </c>
       <c r="I16" s="59">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" s="72">
         <v>0</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="87">
+        <v>2</v>
+      </c>
+      <c r="L16" s="87">
+        <v>1</v>
+      </c>
       <c r="M16" s="27"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
@@ -2608,7 +2612,7 @@
       <c r="W16" s="29"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="108"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="48" t="s">
         <v>36</v>
       </c>
@@ -2645,8 +2649,8 @@
       <c r="W17" s="32"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="108"/>
-      <c r="C18" s="115" t="s">
+      <c r="B18" s="103"/>
+      <c r="C18" s="110" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="48" t="s">
@@ -2684,8 +2688,8 @@
       <c r="W18" s="32"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="108"/>
-      <c r="C19" s="115"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="110"/>
       <c r="D19" s="48" t="s">
         <v>39</v>
       </c>
@@ -2721,8 +2725,8 @@
       <c r="W19" s="32"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="108"/>
-      <c r="C20" s="96" t="s">
+      <c r="B20" s="103"/>
+      <c r="C20" s="124" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="48" t="s">
@@ -2760,8 +2764,8 @@
       <c r="W20" s="32"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="108"/>
-      <c r="C21" s="96"/>
+      <c r="B21" s="103"/>
+      <c r="C21" s="124"/>
       <c r="D21" s="48" t="s">
         <v>34</v>
       </c>
@@ -2797,8 +2801,8 @@
       <c r="W21" s="32"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="108"/>
-      <c r="C22" s="96"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="124"/>
       <c r="D22" s="48" t="s">
         <v>35</v>
       </c>
@@ -2834,8 +2838,8 @@
       <c r="W22" s="32"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="108"/>
-      <c r="C23" s="96"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="124"/>
       <c r="D23" s="48" t="s">
         <v>40</v>
       </c>
@@ -2871,8 +2875,8 @@
       <c r="W23" s="32"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="108"/>
-      <c r="C24" s="96"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="124"/>
       <c r="D24" s="48" t="s">
         <v>41</v>
       </c>
@@ -2908,8 +2912,8 @@
       <c r="W24" s="32"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="108"/>
-      <c r="C25" s="96"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="124"/>
       <c r="D25" s="48" t="s">
         <v>42</v>
       </c>
@@ -2945,8 +2949,8 @@
       <c r="W25" s="32"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="108"/>
-      <c r="C26" s="96"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="124"/>
       <c r="D26" s="48" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +2986,8 @@
       <c r="W26" s="32"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="108"/>
-      <c r="C27" s="96"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="124"/>
       <c r="D27" s="48" t="s">
         <v>44</v>
       </c>
@@ -3019,8 +3023,8 @@
       <c r="W27" s="32"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="108"/>
-      <c r="C28" s="96"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="124"/>
       <c r="D28" s="48" t="s">
         <v>45</v>
       </c>
@@ -3056,8 +3060,8 @@
       <c r="W28" s="32"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="108"/>
-      <c r="C29" s="96"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="124"/>
       <c r="D29" s="48" t="s">
         <v>46</v>
       </c>
@@ -3093,8 +3097,8 @@
       <c r="W29" s="32"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="108"/>
-      <c r="C30" s="96"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="124"/>
       <c r="D30" s="48" t="s">
         <v>47</v>
       </c>
@@ -3130,8 +3134,8 @@
       <c r="W30" s="32"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="108"/>
-      <c r="C31" s="96"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="124"/>
       <c r="D31" s="48" t="s">
         <v>48</v>
       </c>
@@ -3167,8 +3171,8 @@
       <c r="W31" s="32"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="108"/>
-      <c r="C32" s="96"/>
+      <c r="B32" s="103"/>
+      <c r="C32" s="124"/>
       <c r="D32" s="48" t="s">
         <v>49</v>
       </c>
@@ -3204,8 +3208,8 @@
       <c r="W32" s="32"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="108"/>
-      <c r="C33" s="96"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="124"/>
       <c r="D33" s="48" t="s">
         <v>50</v>
       </c>
@@ -3241,8 +3245,8 @@
       <c r="W33" s="32"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="108"/>
-      <c r="C34" s="96"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="124"/>
       <c r="D34" s="48" t="s">
         <v>51</v>
       </c>
@@ -3278,8 +3282,8 @@
       <c r="W34" s="32"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="108"/>
-      <c r="C35" s="96"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="124"/>
       <c r="D35" s="48" t="s">
         <v>52</v>
       </c>
@@ -3315,8 +3319,8 @@
       <c r="W35" s="32"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="108"/>
-      <c r="C36" s="96"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="124"/>
       <c r="D36" s="54" t="s">
         <v>111</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c r="W36" s="32"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="108"/>
+      <c r="B37" s="103"/>
       <c r="C37" s="51" t="s">
         <v>53</v>
       </c>
@@ -3389,7 +3393,7 @@
       <c r="W37" s="32"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="108"/>
+      <c r="B38" s="103"/>
       <c r="C38" s="51" t="s">
         <v>55</v>
       </c>
@@ -3426,7 +3430,7 @@
       <c r="W38" s="32"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="108"/>
+      <c r="B39" s="103"/>
       <c r="C39" s="51" t="s">
         <v>56</v>
       </c>
@@ -3463,7 +3467,7 @@
       <c r="W39" s="32"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="108"/>
+      <c r="B40" s="103"/>
       <c r="C40" s="58" t="s">
         <v>112</v>
       </c>
@@ -3500,10 +3504,10 @@
       <c r="W40" s="32"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="94" t="s">
+      <c r="C41" s="122" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="52" t="s">
@@ -3526,25 +3530,25 @@
       <c r="J41" s="87">
         <v>0.45</v>
       </c>
-      <c r="K41" s="123">
+      <c r="K41" s="90">
         <v>0.5</v>
       </c>
-      <c r="L41" s="123"/>
-      <c r="M41" s="123"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="124"/>
-      <c r="Q41" s="124"/>
-      <c r="R41" s="124"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="124"/>
-      <c r="U41" s="124"/>
-      <c r="V41" s="124"/>
-      <c r="W41" s="125"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="90"/>
+      <c r="P41" s="91"/>
+      <c r="Q41" s="91"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
+      <c r="W41" s="92"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="99"/>
-      <c r="C42" s="95"/>
+      <c r="B42" s="94"/>
+      <c r="C42" s="123"/>
       <c r="D42" s="51" t="s">
         <v>21</v>
       </c>
@@ -3580,8 +3584,8 @@
       <c r="W42" s="32"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="99"/>
-      <c r="C43" s="95"/>
+      <c r="B43" s="94"/>
+      <c r="C43" s="123"/>
       <c r="D43" s="51" t="s">
         <v>22</v>
       </c>
@@ -3617,8 +3621,8 @@
       <c r="W43" s="32"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="99"/>
-      <c r="C44" s="95"/>
+      <c r="B44" s="94"/>
+      <c r="C44" s="123"/>
       <c r="D44" s="51" t="s">
         <v>23</v>
       </c>
@@ -3654,8 +3658,8 @@
       <c r="W44" s="32"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="99"/>
-      <c r="C45" s="95"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="123"/>
       <c r="D45" s="51" t="s">
         <v>24</v>
       </c>
@@ -3691,8 +3695,8 @@
       <c r="W45" s="32"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="99"/>
-      <c r="C46" s="95"/>
+      <c r="B46" s="94"/>
+      <c r="C46" s="123"/>
       <c r="D46" s="51" t="s">
         <v>25</v>
       </c>
@@ -3728,8 +3732,8 @@
       <c r="W46" s="32"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="99"/>
-      <c r="C47" s="95"/>
+      <c r="B47" s="94"/>
+      <c r="C47" s="123"/>
       <c r="D47" s="51" t="s">
         <v>26</v>
       </c>
@@ -3765,8 +3769,8 @@
       <c r="W47" s="32"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="99"/>
-      <c r="C48" s="95"/>
+      <c r="B48" s="94"/>
+      <c r="C48" s="123"/>
       <c r="D48" s="51" t="s">
         <v>27</v>
       </c>
@@ -3802,8 +3806,8 @@
       <c r="W48" s="32"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="99"/>
-      <c r="C49" s="95"/>
+      <c r="B49" s="94"/>
+      <c r="C49" s="123"/>
       <c r="D49" s="51" t="s">
         <v>28</v>
       </c>
@@ -3839,8 +3843,8 @@
       <c r="W49" s="32"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="99"/>
-      <c r="C50" s="95"/>
+      <c r="B50" s="94"/>
+      <c r="C50" s="123"/>
       <c r="D50" s="51" t="s">
         <v>29</v>
       </c>
@@ -3876,8 +3880,8 @@
       <c r="W50" s="32"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="99"/>
-      <c r="C51" s="95"/>
+      <c r="B51" s="94"/>
+      <c r="C51" s="123"/>
       <c r="D51" s="51" t="s">
         <v>30</v>
       </c>
@@ -3913,8 +3917,8 @@
       <c r="W51" s="32"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="99"/>
-      <c r="C52" s="95"/>
+      <c r="B52" s="94"/>
+      <c r="C52" s="123"/>
       <c r="D52" s="51" t="s">
         <v>31</v>
       </c>
@@ -3950,8 +3954,8 @@
       <c r="W52" s="32"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="99"/>
-      <c r="C53" s="95"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="123"/>
       <c r="D53" s="51" t="s">
         <v>77</v>
       </c>
@@ -3987,8 +3991,8 @@
       <c r="W53" s="32"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="99"/>
-      <c r="C54" s="95"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="123"/>
       <c r="D54" s="51" t="s">
         <v>78</v>
       </c>
@@ -4024,8 +4028,8 @@
       <c r="W54" s="32"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="99"/>
-      <c r="C55" s="95"/>
+      <c r="B55" s="94"/>
+      <c r="C55" s="123"/>
       <c r="D55" s="51" t="s">
         <v>78</v>
       </c>
@@ -4061,8 +4065,8 @@
       <c r="W55" s="32"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="99"/>
-      <c r="C56" s="95"/>
+      <c r="B56" s="94"/>
+      <c r="C56" s="123"/>
       <c r="D56" s="51" t="s">
         <v>79</v>
       </c>
@@ -4098,8 +4102,8 @@
       <c r="W56" s="32"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="99"/>
-      <c r="C57" s="95"/>
+      <c r="B57" s="94"/>
+      <c r="C57" s="123"/>
       <c r="D57" s="51" t="s">
         <v>80</v>
       </c>
@@ -4135,8 +4139,8 @@
       <c r="W57" s="32"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="99"/>
-      <c r="C58" s="95"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="123"/>
       <c r="D58" s="51" t="s">
         <v>81</v>
       </c>
@@ -4172,8 +4176,8 @@
       <c r="W58" s="32"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="99"/>
-      <c r="C59" s="95"/>
+      <c r="B59" s="94"/>
+      <c r="C59" s="123"/>
       <c r="D59" s="51" t="s">
         <v>82</v>
       </c>
@@ -4209,8 +4213,8 @@
       <c r="W59" s="32"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="99"/>
-      <c r="C60" s="95"/>
+      <c r="B60" s="94"/>
+      <c r="C60" s="123"/>
       <c r="D60" s="51" t="s">
         <v>83</v>
       </c>
@@ -4246,8 +4250,8 @@
       <c r="W60" s="32"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="99"/>
-      <c r="C61" s="95"/>
+      <c r="B61" s="94"/>
+      <c r="C61" s="123"/>
       <c r="D61" s="51" t="s">
         <v>84</v>
       </c>
@@ -4283,8 +4287,8 @@
       <c r="W61" s="32"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="99"/>
-      <c r="C62" s="95"/>
+      <c r="B62" s="94"/>
+      <c r="C62" s="123"/>
       <c r="D62" s="51" t="s">
         <v>85</v>
       </c>
@@ -4320,8 +4324,8 @@
       <c r="W62" s="32"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="99"/>
-      <c r="C63" s="95"/>
+      <c r="B63" s="94"/>
+      <c r="C63" s="123"/>
       <c r="D63" s="51" t="s">
         <v>86</v>
       </c>
@@ -4357,8 +4361,8 @@
       <c r="W63" s="32"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="99"/>
-      <c r="C64" s="95"/>
+      <c r="B64" s="94"/>
+      <c r="C64" s="123"/>
       <c r="D64" s="51" t="s">
         <v>87</v>
       </c>
@@ -4394,8 +4398,8 @@
       <c r="W64" s="32"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="99"/>
-      <c r="C65" s="95"/>
+      <c r="B65" s="94"/>
+      <c r="C65" s="123"/>
       <c r="D65" s="51" t="s">
         <v>88</v>
       </c>
@@ -4431,8 +4435,8 @@
       <c r="W65" s="32"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="99"/>
-      <c r="C66" s="95"/>
+      <c r="B66" s="94"/>
+      <c r="C66" s="123"/>
       <c r="D66" s="51" t="s">
         <v>89</v>
       </c>
@@ -4468,8 +4472,8 @@
       <c r="W66" s="32"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="99"/>
-      <c r="C67" s="95"/>
+      <c r="B67" s="94"/>
+      <c r="C67" s="123"/>
       <c r="D67" s="51" t="s">
         <v>94</v>
       </c>
@@ -4505,8 +4509,8 @@
       <c r="W67" s="32"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="99"/>
-      <c r="C68" s="95"/>
+      <c r="B68" s="94"/>
+      <c r="C68" s="123"/>
       <c r="D68" s="51" t="s">
         <v>95</v>
       </c>
@@ -4542,8 +4546,8 @@
       <c r="W68" s="32"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="99"/>
-      <c r="C69" s="95"/>
+      <c r="B69" s="94"/>
+      <c r="C69" s="123"/>
       <c r="D69" s="51" t="s">
         <v>96</v>
       </c>
@@ -4579,8 +4583,8 @@
       <c r="W69" s="32"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="99"/>
-      <c r="C70" s="95"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="123"/>
       <c r="D70" s="51" t="s">
         <v>97</v>
       </c>
@@ -4616,8 +4620,8 @@
       <c r="W70" s="32"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="99"/>
-      <c r="C71" s="95"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="123"/>
       <c r="D71" s="51" t="s">
         <v>98</v>
       </c>
@@ -4653,8 +4657,8 @@
       <c r="W71" s="32"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="99"/>
-      <c r="C72" s="95"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="123"/>
       <c r="D72" s="51" t="s">
         <v>99</v>
       </c>
@@ -4690,8 +4694,8 @@
       <c r="W72" s="32"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="99"/>
-      <c r="C73" s="95"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="123"/>
       <c r="D73" s="51" t="s">
         <v>100</v>
       </c>
@@ -4727,8 +4731,8 @@
       <c r="W73" s="32"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="99"/>
-      <c r="C74" s="95"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="123"/>
       <c r="D74" s="51" t="s">
         <v>101</v>
       </c>
@@ -4764,8 +4768,8 @@
       <c r="W74" s="32"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="99"/>
-      <c r="C75" s="95"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="123"/>
       <c r="D75" s="51" t="s">
         <v>102</v>
       </c>
@@ -4801,8 +4805,8 @@
       <c r="W75" s="32"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="99"/>
-      <c r="C76" s="95"/>
+      <c r="B76" s="94"/>
+      <c r="C76" s="123"/>
       <c r="D76" s="51" t="s">
         <v>103</v>
       </c>
@@ -4838,8 +4842,8 @@
       <c r="W76" s="32"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="99"/>
-      <c r="C77" s="95"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="123"/>
       <c r="D77" s="51" t="s">
         <v>104</v>
       </c>
@@ -4875,8 +4879,8 @@
       <c r="W77" s="32"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="99"/>
-      <c r="C78" s="95"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="123"/>
       <c r="D78" s="51" t="s">
         <v>105</v>
       </c>
@@ -4912,8 +4916,8 @@
       <c r="W78" s="32"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="99"/>
-      <c r="C79" s="95"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="123"/>
       <c r="D79" s="51" t="s">
         <v>106</v>
       </c>
@@ -4949,8 +4953,8 @@
       <c r="W79" s="32"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="99"/>
-      <c r="C80" s="95"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="123"/>
       <c r="D80" s="51" t="s">
         <v>107</v>
       </c>
@@ -4986,8 +4990,8 @@
       <c r="W80" s="32"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="99"/>
-      <c r="C81" s="95"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="123"/>
       <c r="D81" s="51" t="s">
         <v>90</v>
       </c>
@@ -5023,8 +5027,8 @@
       <c r="W81" s="32"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="99"/>
-      <c r="C82" s="95"/>
+      <c r="B82" s="94"/>
+      <c r="C82" s="123"/>
       <c r="D82" s="51" t="s">
         <v>91</v>
       </c>
@@ -5060,8 +5064,8 @@
       <c r="W82" s="32"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="99"/>
-      <c r="C83" s="95"/>
+      <c r="B83" s="94"/>
+      <c r="C83" s="123"/>
       <c r="D83" s="51" t="s">
         <v>114</v>
       </c>
@@ -5099,8 +5103,8 @@
       <c r="W83" s="89"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="99"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="94"/>
+      <c r="C84" s="95" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="48" t="s">
@@ -5138,8 +5142,8 @@
       <c r="W84" s="32"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="99"/>
-      <c r="C85" s="100"/>
+      <c r="B85" s="94"/>
+      <c r="C85" s="95"/>
       <c r="D85" s="54" t="s">
         <v>70</v>
       </c>
@@ -5175,8 +5179,8 @@
       <c r="W85" s="32"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="99"/>
-      <c r="C86" s="100"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="95"/>
       <c r="D86" s="54" t="s">
         <v>71</v>
       </c>
@@ -5212,8 +5216,8 @@
       <c r="W86" s="32"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="99"/>
-      <c r="C87" s="100"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="95"/>
       <c r="D87" s="54" t="s">
         <v>72</v>
       </c>
@@ -5249,8 +5253,8 @@
       <c r="W87" s="32"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="99"/>
-      <c r="C88" s="100"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="95"/>
       <c r="D88" s="54" t="s">
         <v>73</v>
       </c>
@@ -5286,8 +5290,8 @@
       <c r="W88" s="60"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="99"/>
-      <c r="C89" s="100"/>
+      <c r="B89" s="94"/>
+      <c r="C89" s="95"/>
       <c r="D89" s="54" t="s">
         <v>74</v>
       </c>
@@ -5323,7 +5327,7 @@
       <c r="W89" s="32"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="99"/>
+      <c r="B90" s="94"/>
       <c r="C90" s="85" t="s">
         <v>125</v>
       </c>
@@ -5360,7 +5364,7 @@
       <c r="W90" s="89"/>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="99"/>
+      <c r="B91" s="94"/>
       <c r="C91" s="77" t="s">
         <v>113</v>
       </c>
@@ -5397,7 +5401,7 @@
       <c r="W91" s="32"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="118" t="s">
+      <c r="B92" s="113" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="40" t="s">
@@ -5436,7 +5440,7 @@
       <c r="W92" s="69"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="119"/>
+      <c r="B93" s="114"/>
       <c r="C93" s="43" t="s">
         <v>119</v>
       </c>
@@ -5471,8 +5475,8 @@
       <c r="W93" s="68"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="120"/>
-      <c r="C94" s="97" t="s">
+      <c r="B94" s="115"/>
+      <c r="C94" s="125" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="44" t="s">
@@ -5510,8 +5514,8 @@
       <c r="W94" s="60"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="121"/>
-      <c r="C95" s="97"/>
+      <c r="B95" s="116"/>
+      <c r="C95" s="125"/>
       <c r="D95" s="44" t="s">
         <v>109</v>
       </c>
@@ -5547,7 +5551,7 @@
       <c r="W95" s="60"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="122"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="46" t="s">
         <v>116</v>
       </c>
@@ -5584,7 +5588,7 @@
       <c r="W96" s="66"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="98" t="s">
+      <c r="B97" s="93" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="65" t="s">
@@ -5623,7 +5627,7 @@
       <c r="W97" s="29"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="121"/>
+      <c r="B98" s="116"/>
       <c r="C98" s="56" t="s">
         <v>131</v>
       </c>
@@ -5660,7 +5664,7 @@
       <c r="W98" s="32"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="121"/>
+      <c r="B99" s="116"/>
       <c r="C99" s="56" t="s">
         <v>130</v>
       </c>
@@ -5697,7 +5701,7 @@
       <c r="W99" s="32"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="121"/>
+      <c r="B100" s="116"/>
       <c r="C100" s="56" t="s">
         <v>129</v>
       </c>
@@ -5734,7 +5738,7 @@
       <c r="W100" s="32"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="121"/>
+      <c r="B101" s="116"/>
       <c r="C101" s="56" t="s">
         <v>128</v>
       </c>
@@ -5771,7 +5775,7 @@
       <c r="W101" s="32"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="122"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="46" t="s">
         <v>127</v>
       </c>
@@ -5808,21 +5812,21 @@
       <c r="W102" s="36"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="113" t="s">
+      <c r="B103" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="114"/>
-      <c r="D103" s="114"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
-      <c r="G103" s="114"/>
+      <c r="C103" s="109"/>
+      <c r="D103" s="109"/>
+      <c r="E103" s="109"/>
+      <c r="F103" s="109"/>
+      <c r="G103" s="109"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>3.25</v>
+        <v>6.25</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -5830,11 +5834,11 @@
       </c>
       <c r="K103" s="17">
         <f t="shared" si="4"/>
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="L103" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M103" s="17">
         <f t="shared" si="4"/>
@@ -5890,22 +5894,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="104" t="s">
+      <c r="J104" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="105"/>
-      <c r="L104" s="105"/>
-      <c r="M104" s="105"/>
-      <c r="N104" s="105"/>
-      <c r="O104" s="105"/>
-      <c r="P104" s="105"/>
-      <c r="Q104" s="105"/>
-      <c r="R104" s="105"/>
-      <c r="S104" s="105"/>
-      <c r="T104" s="105"/>
-      <c r="U104" s="105"/>
-      <c r="V104" s="105"/>
-      <c r="W104" s="106"/>
+      <c r="K104" s="100"/>
+      <c r="L104" s="100"/>
+      <c r="M104" s="100"/>
+      <c r="N104" s="100"/>
+      <c r="O104" s="100"/>
+      <c r="P104" s="100"/>
+      <c r="Q104" s="100"/>
+      <c r="R104" s="100"/>
+      <c r="S104" s="100"/>
+      <c r="T104" s="100"/>
+      <c r="U104" s="100"/>
+      <c r="V104" s="100"/>
+      <c r="W104" s="101"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="78" t="s">
@@ -5949,65 +5953,65 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="90" t="s">
+      <c r="H106" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="93"/>
+      <c r="I106" s="121"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
       </c>
       <c r="K106" s="10">
         <f>J106-K103</f>
-        <v>45.47</v>
+        <v>43.47</v>
       </c>
       <c r="L106" s="10">
         <f>K106-L103</f>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="N106" s="10">
         <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>45.47</v>
+        <v>42.47</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6052,27 +6056,27 @@
         <v>15</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="90" t="s">
+      <c r="H108" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="91"/>
-      <c r="J108" s="90">
+      <c r="I108" s="119"/>
+      <c r="J108" s="118">
         <f>H103-I103</f>
-        <v>45.47</v>
-      </c>
-      <c r="K108" s="91"/>
-      <c r="L108" s="91"/>
-      <c r="M108" s="91"/>
-      <c r="N108" s="91"/>
-      <c r="O108" s="91"/>
-      <c r="P108" s="91"/>
-      <c r="Q108" s="91"/>
-      <c r="R108" s="91"/>
-      <c r="S108" s="91"/>
-      <c r="T108" s="91"/>
-      <c r="U108" s="91"/>
-      <c r="V108" s="91"/>
-      <c r="W108" s="92"/>
+        <v>42.47</v>
+      </c>
+      <c r="K108" s="119"/>
+      <c r="L108" s="119"/>
+      <c r="M108" s="119"/>
+      <c r="N108" s="119"/>
+      <c r="O108" s="119"/>
+      <c r="P108" s="119"/>
+      <c r="Q108" s="119"/>
+      <c r="R108" s="119"/>
+      <c r="S108" s="119"/>
+      <c r="T108" s="119"/>
+      <c r="U108" s="119"/>
+      <c r="V108" s="119"/>
+      <c r="W108" s="120"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6152,6 +6156,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6164,12 +6174,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -422,8 +422,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,6 +514,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1081,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1131,12 +1137,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1336,19 +1336,37 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1426,28 +1444,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1468,7 +1477,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1567,46 +1576,46 @@
                   <c:v>43.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.47</c:v>
+                  <c:v>42.32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1621,11 +1630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1594534288"/>
-        <c:axId val="1594528848"/>
+        <c:axId val="188830424"/>
+        <c:axId val="188828072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1594534288"/>
+        <c:axId val="188830424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,14 +1644,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1594528848"/>
+        <c:crossAx val="188828072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1594528848"/>
+        <c:axId val="188828072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1653,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1594534288"/>
+        <c:crossAx val="188830424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1695,7 +1704,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2030,27 +2039,27 @@
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="84" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="97"/>
-      <c r="L2" s="97"/>
-      <c r="M2" s="97"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
-      <c r="S2" s="97"/>
-      <c r="T2" s="97"/>
-      <c r="U2" s="97"/>
-      <c r="V2" s="97"/>
-      <c r="W2" s="98"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="101"/>
+      <c r="M2" s="101"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
+      <c r="S2" s="101"/>
+      <c r="T2" s="101"/>
+      <c r="U2" s="101"/>
+      <c r="V2" s="101"/>
+      <c r="W2" s="102"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2077,43 +2086,43 @@
       <c r="I3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="62">
+      <c r="J3" s="60">
         <v>43068</v>
       </c>
-      <c r="K3" s="62">
+      <c r="K3" s="60">
         <v>43069</v>
       </c>
-      <c r="L3" s="62">
+      <c r="L3" s="60">
         <v>43070</v>
       </c>
-      <c r="M3" s="62">
+      <c r="M3" s="60">
         <v>43071</v>
       </c>
-      <c r="N3" s="62">
+      <c r="N3" s="60">
         <v>43072</v>
       </c>
-      <c r="O3" s="62">
+      <c r="O3" s="60">
         <v>43073</v>
       </c>
-      <c r="P3" s="62">
+      <c r="P3" s="60">
         <v>43074</v>
       </c>
-      <c r="Q3" s="62">
+      <c r="Q3" s="60">
         <v>43075</v>
       </c>
-      <c r="R3" s="62">
+      <c r="R3" s="60">
         <v>43076</v>
       </c>
-      <c r="S3" s="62">
+      <c r="S3" s="60">
         <v>43077</v>
       </c>
-      <c r="T3" s="62">
+      <c r="T3" s="60">
         <v>43078</v>
       </c>
-      <c r="U3" s="62">
+      <c r="U3" s="60">
         <v>43079</v>
       </c>
-      <c r="V3" s="62">
+      <c r="V3" s="60">
         <v>43080</v>
       </c>
       <c r="W3" s="13">
@@ -2121,18 +2130,18 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="122" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="122" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40" t="s">
-        <v>16</v>
+      <c r="E4" s="122"/>
+      <c r="F4" s="122" t="s">
+        <v>15</v>
       </c>
       <c r="G4" s="12">
         <v>1</v>
@@ -2140,35 +2149,61 @@
       <c r="H4" s="12">
         <v>0.2</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="57">
         <f>SUM(J4:W4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="72">
-        <v>0</v>
-      </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="20"/>
+        <v>0.08</v>
+      </c>
+      <c r="J4" s="70">
+        <v>0</v>
+      </c>
+      <c r="K4" s="70">
+        <v>0</v>
+      </c>
+      <c r="L4" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="M4" s="87">
+        <v>0</v>
+      </c>
+      <c r="N4" s="87">
+        <v>0</v>
+      </c>
+      <c r="O4" s="87">
+        <v>0</v>
+      </c>
+      <c r="P4" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="123">
+        <v>0</v>
+      </c>
+      <c r="R4" s="123">
+        <v>0</v>
+      </c>
+      <c r="S4" s="123">
+        <v>0</v>
+      </c>
+      <c r="T4" s="123">
+        <v>0</v>
+      </c>
+      <c r="U4" s="123">
+        <v>0</v>
+      </c>
+      <c r="V4" s="123">
+        <v>0</v>
+      </c>
+      <c r="W4" s="124">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103"/>
-      <c r="C5" s="48" t="s">
+      <c r="B5" s="107"/>
+      <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54" t="s">
+      <c r="D5" s="46"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="4">
@@ -2177,35 +2212,61 @@
       <c r="H5" s="4">
         <v>0.2</v>
       </c>
-      <c r="I5" s="57">
+      <c r="I5" s="55">
         <f t="shared" ref="I5:I40" si="0">SUM(J5:W5)</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="73">
-        <v>0</v>
-      </c>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J5" s="71">
+        <v>0</v>
+      </c>
+      <c r="K5" s="71">
+        <v>0</v>
+      </c>
+      <c r="L5" s="48">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="M5" s="48">
+        <v>0</v>
+      </c>
+      <c r="N5" s="48">
+        <v>0</v>
+      </c>
+      <c r="O5" s="48">
+        <v>0</v>
+      </c>
+      <c r="P5" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="125">
+        <v>0</v>
+      </c>
+      <c r="R5" s="125">
+        <v>0</v>
+      </c>
+      <c r="S5" s="125">
+        <v>0</v>
+      </c>
+      <c r="T5" s="125">
+        <v>0</v>
+      </c>
+      <c r="U5" s="125">
+        <v>0</v>
+      </c>
+      <c r="V5" s="125">
+        <v>0</v>
+      </c>
+      <c r="W5" s="126">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
-      <c r="C6" s="48" t="s">
+      <c r="B6" s="107"/>
+      <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54" t="s">
+      <c r="D6" s="46"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="4">
@@ -2214,37 +2275,39 @@
       <c r="H6" s="4">
         <v>0.3</v>
       </c>
-      <c r="I6" s="57">
+      <c r="I6" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="73">
-        <v>0</v>
-      </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="22"/>
+      <c r="J6" s="71">
+        <v>0</v>
+      </c>
+      <c r="K6" s="71">
+        <v>0</v>
+      </c>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="103"/>
-      <c r="C7" s="111" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="115" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56" t="s">
+      <c r="E7" s="54"/>
+      <c r="F7" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="4">
@@ -2253,35 +2316,37 @@
       <c r="H7" s="4">
         <v>1</v>
       </c>
-      <c r="I7" s="57">
+      <c r="I7" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="73">
-        <v>0</v>
-      </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="22"/>
+      <c r="J7" s="71">
+        <v>0</v>
+      </c>
+      <c r="K7" s="71">
+        <v>0</v>
+      </c>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="28"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="103"/>
-      <c r="C8" s="111"/>
-      <c r="D8" s="48" t="s">
+      <c r="B8" s="107"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54" t="s">
+      <c r="E8" s="52"/>
+      <c r="F8" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G8" s="4">
@@ -2290,35 +2355,37 @@
       <c r="H8" s="4">
         <v>0.75</v>
       </c>
-      <c r="I8" s="57">
+      <c r="I8" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="73">
-        <v>0</v>
-      </c>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="22"/>
+      <c r="J8" s="71">
+        <v>0</v>
+      </c>
+      <c r="K8" s="71">
+        <v>0</v>
+      </c>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="107"/>
-      <c r="C9" s="112"/>
-      <c r="D9" s="45" t="s">
+      <c r="B9" s="111"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46" t="s">
+      <c r="E9" s="44"/>
+      <c r="F9" s="44" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="11">
@@ -2327,74 +2394,78 @@
       <c r="H9" s="11">
         <v>0.2</v>
       </c>
-      <c r="I9" s="61">
+      <c r="I9" s="59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="74">
-        <v>0</v>
-      </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="24"/>
+      <c r="J9" s="72">
+        <v>0</v>
+      </c>
+      <c r="K9" s="72">
+        <v>0</v>
+      </c>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49" t="s">
+      <c r="D10" s="51"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="37">
         <v>2</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="36">
         <v>0.2</v>
       </c>
-      <c r="I10" s="63">
+      <c r="I10" s="61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="75">
-        <v>0</v>
-      </c>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="26"/>
+      <c r="J10" s="73">
+        <v>0</v>
+      </c>
+      <c r="K10" s="73">
+        <v>0</v>
+      </c>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="105"/>
-      <c r="C11" s="48" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54" t="s">
+      <c r="D11" s="46"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G11" s="4">
@@ -2403,35 +2474,37 @@
       <c r="H11" s="4">
         <v>0.15</v>
       </c>
-      <c r="I11" s="57">
+      <c r="I11" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="73">
-        <v>0</v>
-      </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="60"/>
+      <c r="J11" s="71">
+        <v>0</v>
+      </c>
+      <c r="K11" s="71">
+        <v>0</v>
+      </c>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="28"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="28"/>
+      <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="105"/>
-      <c r="C12" s="48" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54" t="s">
+      <c r="D12" s="46"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="4">
@@ -2440,144 +2513,156 @@
       <c r="H12" s="4">
         <v>0.15</v>
       </c>
-      <c r="I12" s="57">
+      <c r="I12" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="73">
-        <v>0</v>
-      </c>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="30"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="60"/>
+      <c r="J12" s="71">
+        <v>0</v>
+      </c>
+      <c r="K12" s="71">
+        <v>0</v>
+      </c>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="106"/>
-      <c r="C13" s="47" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55" t="s">
+      <c r="D13" s="45"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="39">
+      <c r="G13" s="37">
         <v>5</v>
       </c>
-      <c r="H13" s="39">
+      <c r="H13" s="37">
         <v>0.15</v>
       </c>
-      <c r="I13" s="57">
+      <c r="I13" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="76"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="33"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="71"/>
+      <c r="J13" s="74">
+        <v>0</v>
+      </c>
+      <c r="K13" s="74">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+      <c r="T13" s="31"/>
+      <c r="U13" s="31"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="106"/>
-      <c r="C14" s="47" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55" t="s">
+      <c r="D14" s="45"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="37">
         <v>5</v>
       </c>
-      <c r="H14" s="39">
+      <c r="H14" s="37">
         <v>0.15</v>
       </c>
-      <c r="I14" s="57">
+      <c r="I14" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="76"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="33"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="71"/>
+      <c r="J14" s="74">
+        <v>0</v>
+      </c>
+      <c r="K14" s="74">
+        <v>0</v>
+      </c>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+      <c r="T14" s="31"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="106"/>
-      <c r="C15" s="47" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="47"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55" t="s">
+      <c r="D15" s="45"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="37">
         <v>5</v>
       </c>
-      <c r="H15" s="39">
+      <c r="H15" s="37">
         <v>0.15</v>
       </c>
-      <c r="I15" s="70">
+      <c r="I15" s="68">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="76">
-        <v>0</v>
-      </c>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="33"/>
-      <c r="W15" s="71"/>
+      <c r="J15" s="74">
+        <v>0</v>
+      </c>
+      <c r="K15" s="74">
+        <v>0</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+      <c r="S15" s="31"/>
+      <c r="T15" s="31"/>
+      <c r="U15" s="31"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="102" t="s">
+      <c r="B16" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="67" t="s">
+      <c r="C16" s="65" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52" t="s">
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="12">
@@ -2586,39 +2671,39 @@
       <c r="H16" s="12">
         <v>2</v>
       </c>
-      <c r="I16" s="59">
+      <c r="I16" s="57">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="J16" s="72">
-        <v>0</v>
-      </c>
-      <c r="K16" s="87">
+      <c r="J16" s="70">
+        <v>0</v>
+      </c>
+      <c r="K16" s="85">
         <v>2</v>
       </c>
-      <c r="L16" s="87">
+      <c r="L16" s="85">
         <v>1</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="29"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="27"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="103"/>
-      <c r="C17" s="48" t="s">
+      <c r="B17" s="107"/>
+      <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48" t="s">
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="4">
@@ -2627,37 +2712,39 @@
       <c r="H17" s="4">
         <v>1</v>
       </c>
-      <c r="I17" s="57">
+      <c r="I17" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J17" s="73">
-        <v>0</v>
-      </c>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-      <c r="M17" s="30"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="30"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="32"/>
+      <c r="J17" s="71">
+        <v>0</v>
+      </c>
+      <c r="K17" s="71">
+        <v>0</v>
+      </c>
+      <c r="L17" s="28"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="28"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="30"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="103"/>
-      <c r="C18" s="110" t="s">
+      <c r="B18" s="107"/>
+      <c r="C18" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="48"/>
-      <c r="F18" s="48" t="s">
+      <c r="E18" s="46"/>
+      <c r="F18" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G18" s="4">
@@ -2666,35 +2753,37 @@
       <c r="H18" s="4">
         <v>0.2</v>
       </c>
-      <c r="I18" s="57">
+      <c r="I18" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J18" s="73">
-        <v>0</v>
-      </c>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="30"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="32"/>
+      <c r="J18" s="71">
+        <v>0</v>
+      </c>
+      <c r="K18" s="71">
+        <v>0</v>
+      </c>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="30"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="103"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="48" t="s">
+      <c r="B19" s="107"/>
+      <c r="C19" s="114"/>
+      <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4">
@@ -2703,37 +2792,39 @@
       <c r="H19" s="4">
         <v>0.5</v>
       </c>
-      <c r="I19" s="57">
+      <c r="I19" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="73">
-        <v>0</v>
-      </c>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-      <c r="M19" s="30"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="30"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="32"/>
+      <c r="J19" s="71">
+        <v>0</v>
+      </c>
+      <c r="K19" s="71">
+        <v>0</v>
+      </c>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="30"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="103"/>
-      <c r="C20" s="124" t="s">
+      <c r="B20" s="107"/>
+      <c r="C20" s="95" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="48" t="s">
+      <c r="D20" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="48" t="s">
+      <c r="E20" s="46"/>
+      <c r="F20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="4">
@@ -2742,35 +2833,37 @@
       <c r="H20" s="4">
         <v>1</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="73">
-        <v>0</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-      <c r="M20" s="30"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="30"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="32"/>
+      <c r="J20" s="71">
+        <v>0</v>
+      </c>
+      <c r="K20" s="71">
+        <v>0</v>
+      </c>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="30"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="103"/>
-      <c r="C21" s="124"/>
-      <c r="D21" s="48" t="s">
+      <c r="B21" s="107"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48" t="s">
+      <c r="E21" s="46"/>
+      <c r="F21" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G21" s="4">
@@ -2779,35 +2872,37 @@
       <c r="H21" s="4">
         <v>1.5</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="73">
-        <v>0</v>
-      </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-      <c r="M21" s="30"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="30"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="32"/>
+      <c r="J21" s="71">
+        <v>0</v>
+      </c>
+      <c r="K21" s="71">
+        <v>0</v>
+      </c>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="30"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="103"/>
-      <c r="C22" s="124"/>
-      <c r="D22" s="48" t="s">
+      <c r="B22" s="107"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="48"/>
-      <c r="F22" s="48" t="s">
+      <c r="E22" s="46"/>
+      <c r="F22" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G22" s="4">
@@ -2816,35 +2911,37 @@
       <c r="H22" s="4">
         <v>1.5</v>
       </c>
-      <c r="I22" s="57">
+      <c r="I22" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="73">
-        <v>0</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="30"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
+      <c r="J22" s="71">
+        <v>0</v>
+      </c>
+      <c r="K22" s="71">
+        <v>0</v>
+      </c>
+      <c r="L22" s="28"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="28"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="103"/>
-      <c r="C23" s="124"/>
-      <c r="D23" s="48" t="s">
+      <c r="B23" s="107"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48" t="s">
+      <c r="E23" s="46"/>
+      <c r="F23" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G23" s="4">
@@ -2853,35 +2950,37 @@
       <c r="H23" s="4">
         <v>2</v>
       </c>
-      <c r="I23" s="57">
+      <c r="I23" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="73">
-        <v>0</v>
-      </c>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="32"/>
+      <c r="J23" s="71">
+        <v>0</v>
+      </c>
+      <c r="K23" s="71">
+        <v>0</v>
+      </c>
+      <c r="L23" s="28"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="28"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="30"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="103"/>
-      <c r="C24" s="124"/>
-      <c r="D24" s="48" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="48"/>
-      <c r="F24" s="48" t="s">
+      <c r="E24" s="46"/>
+      <c r="F24" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="4">
@@ -2890,35 +2989,37 @@
       <c r="H24" s="4">
         <v>0.2</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="73">
-        <v>0</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-      <c r="M24" s="30"/>
-      <c r="N24" s="30"/>
-      <c r="O24" s="30"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="32"/>
+      <c r="J24" s="71">
+        <v>0</v>
+      </c>
+      <c r="K24" s="71">
+        <v>0</v>
+      </c>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="28"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="30"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="103"/>
-      <c r="C25" s="124"/>
-      <c r="D25" s="48" t="s">
+      <c r="B25" s="107"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48" t="s">
+      <c r="E25" s="46"/>
+      <c r="F25" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="4">
@@ -2927,35 +3028,37 @@
       <c r="H25" s="4">
         <v>0.2</v>
       </c>
-      <c r="I25" s="57">
+      <c r="I25" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="73">
-        <v>0</v>
-      </c>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-      <c r="M25" s="30"/>
-      <c r="N25" s="30"/>
-      <c r="O25" s="30"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="32"/>
+      <c r="J25" s="71">
+        <v>0</v>
+      </c>
+      <c r="K25" s="71">
+        <v>0</v>
+      </c>
+      <c r="L25" s="28"/>
+      <c r="M25" s="28"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="30"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="103"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="48" t="s">
+      <c r="B26" s="107"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48" t="s">
+      <c r="E26" s="46"/>
+      <c r="F26" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="4">
@@ -2964,35 +3067,37 @@
       <c r="H26" s="4">
         <v>0.2</v>
       </c>
-      <c r="I26" s="57">
+      <c r="I26" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="73">
-        <v>0</v>
-      </c>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
-      <c r="Q26" s="31"/>
-      <c r="R26" s="31"/>
-      <c r="S26" s="31"/>
-      <c r="T26" s="31"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="32"/>
+      <c r="J26" s="71">
+        <v>0</v>
+      </c>
+      <c r="K26" s="71">
+        <v>0</v>
+      </c>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="30"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="103"/>
-      <c r="C27" s="124"/>
-      <c r="D27" s="48" t="s">
+      <c r="B27" s="107"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48" t="s">
+      <c r="E27" s="46"/>
+      <c r="F27" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="4">
@@ -3001,35 +3106,37 @@
       <c r="H27" s="4">
         <v>0.2</v>
       </c>
-      <c r="I27" s="57">
+      <c r="I27" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="73">
-        <v>0</v>
-      </c>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="31"/>
-      <c r="R27" s="31"/>
-      <c r="S27" s="31"/>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="31"/>
-      <c r="W27" s="32"/>
+      <c r="J27" s="71">
+        <v>0</v>
+      </c>
+      <c r="K27" s="71">
+        <v>0</v>
+      </c>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="30"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="103"/>
-      <c r="C28" s="124"/>
-      <c r="D28" s="48" t="s">
+      <c r="B28" s="107"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="48"/>
-      <c r="F28" s="48" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G28" s="4">
@@ -3038,35 +3145,37 @@
       <c r="H28" s="4">
         <v>0.2</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="73">
-        <v>0</v>
-      </c>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="32"/>
+      <c r="J28" s="71">
+        <v>0</v>
+      </c>
+      <c r="K28" s="71">
+        <v>0</v>
+      </c>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="30"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="103"/>
-      <c r="C29" s="124"/>
-      <c r="D29" s="48" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48" t="s">
+      <c r="E29" s="46"/>
+      <c r="F29" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="4">
@@ -3075,35 +3184,37 @@
       <c r="H29" s="4">
         <v>0.2</v>
       </c>
-      <c r="I29" s="57">
+      <c r="I29" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="73">
-        <v>0</v>
-      </c>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="32"/>
+      <c r="J29" s="71">
+        <v>0</v>
+      </c>
+      <c r="K29" s="71">
+        <v>0</v>
+      </c>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="30"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="103"/>
-      <c r="C30" s="124"/>
-      <c r="D30" s="48" t="s">
+      <c r="B30" s="107"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48" t="s">
+      <c r="E30" s="46"/>
+      <c r="F30" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="4">
@@ -3112,35 +3223,37 @@
       <c r="H30" s="4">
         <v>0.2</v>
       </c>
-      <c r="I30" s="57">
+      <c r="I30" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="73">
-        <v>0</v>
-      </c>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-      <c r="M30" s="30"/>
-      <c r="N30" s="30"/>
-      <c r="O30" s="30"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="32"/>
+      <c r="J30" s="71">
+        <v>0</v>
+      </c>
+      <c r="K30" s="71">
+        <v>0</v>
+      </c>
+      <c r="L30" s="28"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="30"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="103"/>
-      <c r="C31" s="124"/>
-      <c r="D31" s="48" t="s">
+      <c r="B31" s="107"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48" t="s">
+      <c r="E31" s="46"/>
+      <c r="F31" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G31" s="4">
@@ -3149,35 +3262,37 @@
       <c r="H31" s="4">
         <v>0.2</v>
       </c>
-      <c r="I31" s="57">
+      <c r="I31" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="73">
-        <v>0</v>
-      </c>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
-      <c r="O31" s="30"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="32"/>
+      <c r="J31" s="71">
+        <v>0</v>
+      </c>
+      <c r="K31" s="71">
+        <v>0</v>
+      </c>
+      <c r="L31" s="28"/>
+      <c r="M31" s="28"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="30"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="103"/>
-      <c r="C32" s="124"/>
-      <c r="D32" s="48" t="s">
+      <c r="B32" s="107"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48" t="s">
+      <c r="E32" s="46"/>
+      <c r="F32" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="4">
@@ -3186,35 +3301,37 @@
       <c r="H32" s="4">
         <v>0.2</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="73">
-        <v>0</v>
-      </c>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
+      <c r="J32" s="71">
+        <v>0</v>
+      </c>
+      <c r="K32" s="71">
+        <v>0</v>
+      </c>
+      <c r="L32" s="28"/>
+      <c r="M32" s="28"/>
+      <c r="N32" s="28"/>
+      <c r="O32" s="28"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="30"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="103"/>
-      <c r="C33" s="124"/>
-      <c r="D33" s="48" t="s">
+      <c r="B33" s="107"/>
+      <c r="C33" s="95"/>
+      <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="48" t="s">
+      <c r="E33" s="46"/>
+      <c r="F33" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G33" s="4">
@@ -3223,35 +3340,37 @@
       <c r="H33" s="4">
         <v>0.2</v>
       </c>
-      <c r="I33" s="57">
+      <c r="I33" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="73">
-        <v>0</v>
-      </c>
-      <c r="K33" s="30"/>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="32"/>
+      <c r="J33" s="71">
+        <v>0</v>
+      </c>
+      <c r="K33" s="71">
+        <v>0</v>
+      </c>
+      <c r="L33" s="28"/>
+      <c r="M33" s="28"/>
+      <c r="N33" s="28"/>
+      <c r="O33" s="28"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="30"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="103"/>
-      <c r="C34" s="124"/>
-      <c r="D34" s="48" t="s">
+      <c r="B34" s="107"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48" t="s">
+      <c r="E34" s="46"/>
+      <c r="F34" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="4">
@@ -3260,35 +3379,37 @@
       <c r="H34" s="4">
         <v>0.2</v>
       </c>
-      <c r="I34" s="57">
+      <c r="I34" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="73">
-        <v>0</v>
-      </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="32"/>
+      <c r="J34" s="71">
+        <v>0</v>
+      </c>
+      <c r="K34" s="71">
+        <v>0</v>
+      </c>
+      <c r="L34" s="28"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="28"/>
+      <c r="O34" s="28"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="30"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="103"/>
-      <c r="C35" s="124"/>
-      <c r="D35" s="48" t="s">
+      <c r="B35" s="107"/>
+      <c r="C35" s="95"/>
+      <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="48" t="s">
+      <c r="E35" s="46"/>
+      <c r="F35" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="4">
@@ -3297,35 +3418,37 @@
       <c r="H35" s="4">
         <v>0.2</v>
       </c>
-      <c r="I35" s="57">
+      <c r="I35" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="73">
-        <v>0</v>
-      </c>
-      <c r="K35" s="30"/>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
-      <c r="O35" s="30"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="32"/>
+      <c r="J35" s="71">
+        <v>0</v>
+      </c>
+      <c r="K35" s="71">
+        <v>0</v>
+      </c>
+      <c r="L35" s="28"/>
+      <c r="M35" s="28"/>
+      <c r="N35" s="28"/>
+      <c r="O35" s="28"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="30"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="103"/>
-      <c r="C36" s="124"/>
-      <c r="D36" s="54" t="s">
+      <c r="B36" s="107"/>
+      <c r="C36" s="95"/>
+      <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54" t="s">
+      <c r="E36" s="52"/>
+      <c r="F36" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G36" s="5">
@@ -3334,35 +3457,37 @@
       <c r="H36" s="5">
         <v>1</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="73">
-        <v>0</v>
-      </c>
-      <c r="K36" s="30"/>
-      <c r="L36" s="30"/>
-      <c r="M36" s="30"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="30"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="32"/>
+      <c r="J36" s="71">
+        <v>0</v>
+      </c>
+      <c r="K36" s="71">
+        <v>0</v>
+      </c>
+      <c r="L36" s="28"/>
+      <c r="M36" s="28"/>
+      <c r="N36" s="28"/>
+      <c r="O36" s="28"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="30"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="103"/>
-      <c r="C37" s="51" t="s">
+      <c r="B37" s="107"/>
+      <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="51" t="s">
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G37" s="4">
@@ -3371,35 +3496,37 @@
       <c r="H37" s="4">
         <v>1</v>
       </c>
-      <c r="I37" s="57">
+      <c r="I37" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="73">
-        <v>0</v>
-      </c>
-      <c r="K37" s="30"/>
-      <c r="L37" s="30"/>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="32"/>
+      <c r="J37" s="71">
+        <v>0</v>
+      </c>
+      <c r="K37" s="71">
+        <v>0</v>
+      </c>
+      <c r="L37" s="28"/>
+      <c r="M37" s="28"/>
+      <c r="N37" s="28"/>
+      <c r="O37" s="28"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="30"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="103"/>
-      <c r="C38" s="51" t="s">
+      <c r="B38" s="107"/>
+      <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51" t="s">
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G38" s="4">
@@ -3408,35 +3535,37 @@
       <c r="H38" s="4">
         <v>0.75</v>
       </c>
-      <c r="I38" s="57">
+      <c r="I38" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="73">
-        <v>0</v>
-      </c>
-      <c r="K38" s="30"/>
-      <c r="L38" s="30"/>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="32"/>
+      <c r="J38" s="71">
+        <v>0</v>
+      </c>
+      <c r="K38" s="71">
+        <v>0</v>
+      </c>
+      <c r="L38" s="28"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="28"/>
+      <c r="O38" s="28"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="103"/>
-      <c r="C39" s="51" t="s">
+      <c r="B39" s="107"/>
+      <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51" t="s">
+      <c r="D39" s="49"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G39" s="4">
@@ -3445,35 +3574,37 @@
       <c r="H39" s="4">
         <v>0.25</v>
       </c>
-      <c r="I39" s="57">
+      <c r="I39" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="73">
-        <v>0</v>
-      </c>
-      <c r="K39" s="30"/>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
-      <c r="O39" s="30"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="32"/>
+      <c r="J39" s="71">
+        <v>0</v>
+      </c>
+      <c r="K39" s="71">
+        <v>0</v>
+      </c>
+      <c r="L39" s="28"/>
+      <c r="M39" s="28"/>
+      <c r="N39" s="28"/>
+      <c r="O39" s="28"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="30"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="103"/>
-      <c r="C40" s="58" t="s">
+      <c r="B40" s="107"/>
+      <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
-      <c r="F40" s="58" t="s">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56" t="s">
         <v>16</v>
       </c>
       <c r="G40" s="4">
@@ -3482,39 +3613,41 @@
       <c r="H40" s="4">
         <v>0.5</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="73">
-        <v>0</v>
-      </c>
-      <c r="K40" s="30"/>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
-      <c r="O40" s="30"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="32"/>
+      <c r="J40" s="71">
+        <v>0</v>
+      </c>
+      <c r="K40" s="71">
+        <v>0</v>
+      </c>
+      <c r="L40" s="28"/>
+      <c r="M40" s="28"/>
+      <c r="N40" s="28"/>
+      <c r="O40" s="28"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="30"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="93" t="s">
+      <c r="B41" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="122" t="s">
+      <c r="C41" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="52"/>
-      <c r="F41" s="52" t="s">
+      <c r="E41" s="50"/>
+      <c r="F41" s="50" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="12">
@@ -3523,37 +3656,61 @@
       <c r="H41" s="12">
         <v>0.5</v>
       </c>
-      <c r="I41" s="59">
+      <c r="I41" s="57">
         <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
         <v>0.95</v>
       </c>
-      <c r="J41" s="87">
+      <c r="J41" s="85">
         <v>0.45</v>
       </c>
-      <c r="K41" s="90">
+      <c r="K41" s="87">
         <v>0.5</v>
       </c>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="90"/>
-      <c r="P41" s="91"/>
-      <c r="Q41" s="91"/>
-      <c r="R41" s="91"/>
-      <c r="S41" s="91"/>
-      <c r="T41" s="91"/>
-      <c r="U41" s="91"/>
-      <c r="V41" s="91"/>
-      <c r="W41" s="92"/>
+      <c r="L41" s="87">
+        <v>0</v>
+      </c>
+      <c r="M41" s="87">
+        <v>0</v>
+      </c>
+      <c r="N41" s="87">
+        <v>0</v>
+      </c>
+      <c r="O41" s="87">
+        <v>0</v>
+      </c>
+      <c r="P41" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="87">
+        <v>0</v>
+      </c>
+      <c r="R41" s="87">
+        <v>0</v>
+      </c>
+      <c r="S41" s="87">
+        <v>0</v>
+      </c>
+      <c r="T41" s="87">
+        <v>0</v>
+      </c>
+      <c r="U41" s="87">
+        <v>0</v>
+      </c>
+      <c r="V41" s="87">
+        <v>0</v>
+      </c>
+      <c r="W41" s="88">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="94"/>
-      <c r="C42" s="123"/>
-      <c r="D42" s="51" t="s">
+      <c r="B42" s="98"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51" t="s">
+      <c r="E42" s="49"/>
+      <c r="F42" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G42" s="4">
@@ -3562,35 +3719,37 @@
       <c r="H42" s="4">
         <v>0.5</v>
       </c>
-      <c r="I42" s="57">
+      <c r="I42" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J42" s="73">
-        <v>0</v>
-      </c>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="32"/>
+      <c r="J42" s="71">
+        <v>0</v>
+      </c>
+      <c r="K42" s="71">
+        <v>0</v>
+      </c>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="28"/>
+      <c r="O42" s="28"/>
+      <c r="P42" s="29"/>
+      <c r="Q42" s="29"/>
+      <c r="R42" s="29"/>
+      <c r="S42" s="29"/>
+      <c r="T42" s="29"/>
+      <c r="U42" s="29"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="30"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="94"/>
-      <c r="C43" s="123"/>
-      <c r="D43" s="51" t="s">
+      <c r="B43" s="98"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51" t="s">
+      <c r="E43" s="49"/>
+      <c r="F43" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G43" s="4">
@@ -3599,35 +3758,37 @@
       <c r="H43" s="4">
         <v>0.5</v>
       </c>
-      <c r="I43" s="57">
+      <c r="I43" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J43" s="73">
-        <v>0</v>
-      </c>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="32"/>
+      <c r="J43" s="71">
+        <v>0</v>
+      </c>
+      <c r="K43" s="71">
+        <v>0</v>
+      </c>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="28"/>
+      <c r="O43" s="28"/>
+      <c r="P43" s="29"/>
+      <c r="Q43" s="29"/>
+      <c r="R43" s="29"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="29"/>
+      <c r="U43" s="29"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="30"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="94"/>
-      <c r="C44" s="123"/>
-      <c r="D44" s="51" t="s">
+      <c r="B44" s="98"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="51"/>
-      <c r="F44" s="51" t="s">
+      <c r="E44" s="49"/>
+      <c r="F44" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G44" s="4">
@@ -3636,35 +3797,37 @@
       <c r="H44" s="4">
         <v>0.5</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J44" s="73">
-        <v>0</v>
-      </c>
-      <c r="K44" s="30"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="30"/>
-      <c r="N44" s="30"/>
-      <c r="O44" s="30"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="32"/>
+      <c r="J44" s="71">
+        <v>0</v>
+      </c>
+      <c r="K44" s="71">
+        <v>0</v>
+      </c>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="28"/>
+      <c r="O44" s="28"/>
+      <c r="P44" s="29"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
+      <c r="S44" s="29"/>
+      <c r="T44" s="29"/>
+      <c r="U44" s="29"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="30"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="94"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="51" t="s">
+      <c r="B45" s="98"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="E45" s="51"/>
-      <c r="F45" s="51" t="s">
+      <c r="E45" s="49"/>
+      <c r="F45" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G45" s="4">
@@ -3673,35 +3836,37 @@
       <c r="H45" s="4">
         <v>0.5</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="73">
-        <v>0</v>
-      </c>
-      <c r="K45" s="30"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="30"/>
-      <c r="O45" s="30"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="32"/>
+      <c r="J45" s="71">
+        <v>0</v>
+      </c>
+      <c r="K45" s="71">
+        <v>0</v>
+      </c>
+      <c r="L45" s="28"/>
+      <c r="M45" s="28"/>
+      <c r="N45" s="28"/>
+      <c r="O45" s="28"/>
+      <c r="P45" s="29"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="29"/>
+      <c r="U45" s="29"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="30"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="94"/>
-      <c r="C46" s="123"/>
-      <c r="D46" s="51" t="s">
+      <c r="B46" s="98"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="51" t="s">
+      <c r="E46" s="49"/>
+      <c r="F46" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G46" s="4">
@@ -3710,35 +3875,37 @@
       <c r="H46" s="4">
         <v>0.5</v>
       </c>
-      <c r="I46" s="57">
+      <c r="I46" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J46" s="73">
-        <v>0</v>
-      </c>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-      <c r="N46" s="30"/>
-      <c r="O46" s="30"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="32"/>
+      <c r="J46" s="71">
+        <v>0</v>
+      </c>
+      <c r="K46" s="71">
+        <v>0</v>
+      </c>
+      <c r="L46" s="28"/>
+      <c r="M46" s="28"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="28"/>
+      <c r="P46" s="29"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
+      <c r="S46" s="29"/>
+      <c r="T46" s="29"/>
+      <c r="U46" s="29"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="30"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="94"/>
-      <c r="C47" s="123"/>
-      <c r="D47" s="51" t="s">
+      <c r="B47" s="98"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="51"/>
-      <c r="F47" s="51" t="s">
+      <c r="E47" s="49"/>
+      <c r="F47" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G47" s="4">
@@ -3747,35 +3914,37 @@
       <c r="H47" s="4">
         <v>0.5</v>
       </c>
-      <c r="I47" s="57">
+      <c r="I47" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J47" s="73">
-        <v>0</v>
-      </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="32"/>
+      <c r="J47" s="71">
+        <v>0</v>
+      </c>
+      <c r="K47" s="71">
+        <v>0</v>
+      </c>
+      <c r="L47" s="28"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="28"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="29"/>
+      <c r="Q47" s="29"/>
+      <c r="R47" s="29"/>
+      <c r="S47" s="29"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="29"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="30"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="94"/>
-      <c r="C48" s="123"/>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="51"/>
-      <c r="F48" s="51" t="s">
+      <c r="E48" s="49"/>
+      <c r="F48" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G48" s="4">
@@ -3784,35 +3953,37 @@
       <c r="H48" s="4">
         <v>0.5</v>
       </c>
-      <c r="I48" s="57">
+      <c r="I48" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J48" s="73">
-        <v>0</v>
-      </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="30"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="32"/>
+      <c r="J48" s="71">
+        <v>0</v>
+      </c>
+      <c r="K48" s="71">
+        <v>0</v>
+      </c>
+      <c r="L48" s="28"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="28"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="29"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
+      <c r="S48" s="29"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="29"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="30"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="94"/>
-      <c r="C49" s="123"/>
-      <c r="D49" s="51" t="s">
+      <c r="B49" s="98"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="51"/>
-      <c r="F49" s="51" t="s">
+      <c r="E49" s="49"/>
+      <c r="F49" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G49" s="4">
@@ -3821,35 +3992,37 @@
       <c r="H49" s="4">
         <v>0.5</v>
       </c>
-      <c r="I49" s="57">
+      <c r="I49" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J49" s="73">
-        <v>0</v>
-      </c>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-      <c r="N49" s="30"/>
-      <c r="O49" s="30"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="32"/>
+      <c r="J49" s="71">
+        <v>0</v>
+      </c>
+      <c r="K49" s="71">
+        <v>0</v>
+      </c>
+      <c r="L49" s="28"/>
+      <c r="M49" s="28"/>
+      <c r="N49" s="28"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="30"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="94"/>
-      <c r="C50" s="123"/>
-      <c r="D50" s="51" t="s">
+      <c r="B50" s="98"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="E50" s="51"/>
-      <c r="F50" s="51" t="s">
+      <c r="E50" s="49"/>
+      <c r="F50" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G50" s="4">
@@ -3858,35 +4031,37 @@
       <c r="H50" s="4">
         <v>0.5</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J50" s="73">
-        <v>0</v>
-      </c>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-      <c r="N50" s="30"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="32"/>
+      <c r="J50" s="71">
+        <v>0</v>
+      </c>
+      <c r="K50" s="71">
+        <v>0</v>
+      </c>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="29"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
+      <c r="S50" s="29"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="29"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="30"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="94"/>
-      <c r="C51" s="123"/>
-      <c r="D51" s="51" t="s">
+      <c r="B51" s="98"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E51" s="51"/>
-      <c r="F51" s="51" t="s">
+      <c r="E51" s="49"/>
+      <c r="F51" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G51" s="4">
@@ -3895,35 +4070,37 @@
       <c r="H51" s="4">
         <v>0.5</v>
       </c>
-      <c r="I51" s="57">
+      <c r="I51" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J51" s="73">
-        <v>0</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="32"/>
+      <c r="J51" s="71">
+        <v>0</v>
+      </c>
+      <c r="K51" s="71">
+        <v>0</v>
+      </c>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="29"/>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="29"/>
+      <c r="S51" s="29"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="29"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="30"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="94"/>
-      <c r="C52" s="123"/>
-      <c r="D52" s="51" t="s">
+      <c r="B52" s="98"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="51"/>
-      <c r="F52" s="51" t="s">
+      <c r="E52" s="49"/>
+      <c r="F52" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G52" s="4">
@@ -3932,35 +4109,37 @@
       <c r="H52" s="4">
         <v>0.5</v>
       </c>
-      <c r="I52" s="57">
+      <c r="I52" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J52" s="73">
-        <v>0</v>
-      </c>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-      <c r="N52" s="30"/>
-      <c r="O52" s="30"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="32"/>
+      <c r="J52" s="71">
+        <v>0</v>
+      </c>
+      <c r="K52" s="71">
+        <v>0</v>
+      </c>
+      <c r="L52" s="28"/>
+      <c r="M52" s="28"/>
+      <c r="N52" s="28"/>
+      <c r="O52" s="28"/>
+      <c r="P52" s="29"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
+      <c r="S52" s="29"/>
+      <c r="T52" s="29"/>
+      <c r="U52" s="29"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="30"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="94"/>
-      <c r="C53" s="123"/>
-      <c r="D53" s="51" t="s">
+      <c r="B53" s="98"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51" t="s">
+      <c r="E53" s="49"/>
+      <c r="F53" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="4">
@@ -3969,35 +4148,37 @@
       <c r="H53" s="4">
         <v>0.5</v>
       </c>
-      <c r="I53" s="57">
+      <c r="I53" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J53" s="73">
-        <v>0</v>
-      </c>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-      <c r="N53" s="30"/>
-      <c r="O53" s="30"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="32"/>
+      <c r="J53" s="71">
+        <v>0</v>
+      </c>
+      <c r="K53" s="71">
+        <v>0</v>
+      </c>
+      <c r="L53" s="28"/>
+      <c r="M53" s="28"/>
+      <c r="N53" s="28"/>
+      <c r="O53" s="28"/>
+      <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="29"/>
+      <c r="U53" s="29"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="30"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="94"/>
-      <c r="C54" s="123"/>
-      <c r="D54" s="51" t="s">
+      <c r="B54" s="98"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E54" s="51"/>
-      <c r="F54" s="51" t="s">
+      <c r="E54" s="49"/>
+      <c r="F54" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G54" s="4">
@@ -4006,35 +4187,37 @@
       <c r="H54" s="4">
         <v>0.25</v>
       </c>
-      <c r="I54" s="57">
+      <c r="I54" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J54" s="73">
-        <v>0</v>
-      </c>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-      <c r="N54" s="30"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="32"/>
+      <c r="J54" s="71">
+        <v>0</v>
+      </c>
+      <c r="K54" s="71">
+        <v>0</v>
+      </c>
+      <c r="L54" s="28"/>
+      <c r="M54" s="28"/>
+      <c r="N54" s="28"/>
+      <c r="O54" s="28"/>
+      <c r="P54" s="29"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
+      <c r="S54" s="29"/>
+      <c r="T54" s="29"/>
+      <c r="U54" s="29"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="30"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="94"/>
-      <c r="C55" s="123"/>
-      <c r="D55" s="51" t="s">
+      <c r="B55" s="98"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="51"/>
-      <c r="F55" s="51" t="s">
+      <c r="E55" s="49"/>
+      <c r="F55" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G55" s="4">
@@ -4043,35 +4226,37 @@
       <c r="H55" s="4">
         <v>0.25</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J55" s="73">
-        <v>0</v>
-      </c>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-      <c r="N55" s="30"/>
-      <c r="O55" s="30"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="32"/>
+      <c r="J55" s="71">
+        <v>0</v>
+      </c>
+      <c r="K55" s="71">
+        <v>0</v>
+      </c>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="29"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
+      <c r="S55" s="29"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="29"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="30"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="94"/>
-      <c r="C56" s="123"/>
-      <c r="D56" s="51" t="s">
+      <c r="B56" s="98"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="E56" s="51"/>
-      <c r="F56" s="51" t="s">
+      <c r="E56" s="49"/>
+      <c r="F56" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G56" s="4">
@@ -4080,35 +4265,37 @@
       <c r="H56" s="4">
         <v>0.25</v>
       </c>
-      <c r="I56" s="57">
+      <c r="I56" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J56" s="73">
-        <v>0</v>
-      </c>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-      <c r="N56" s="30"/>
-      <c r="O56" s="30"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="32"/>
+      <c r="J56" s="71">
+        <v>0</v>
+      </c>
+      <c r="K56" s="71">
+        <v>0</v>
+      </c>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="29"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
+      <c r="S56" s="29"/>
+      <c r="T56" s="29"/>
+      <c r="U56" s="29"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="30"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="94"/>
-      <c r="C57" s="123"/>
-      <c r="D57" s="51" t="s">
+      <c r="B57" s="98"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="E57" s="51"/>
-      <c r="F57" s="51" t="s">
+      <c r="E57" s="49"/>
+      <c r="F57" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G57" s="4">
@@ -4117,35 +4304,37 @@
       <c r="H57" s="4">
         <v>0.25</v>
       </c>
-      <c r="I57" s="57">
+      <c r="I57" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J57" s="73">
-        <v>0</v>
-      </c>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="32"/>
+      <c r="J57" s="71">
+        <v>0</v>
+      </c>
+      <c r="K57" s="71">
+        <v>0</v>
+      </c>
+      <c r="L57" s="28"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="30"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="94"/>
-      <c r="C58" s="123"/>
-      <c r="D58" s="51" t="s">
+      <c r="B58" s="98"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="51"/>
-      <c r="F58" s="51" t="s">
+      <c r="E58" s="49"/>
+      <c r="F58" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G58" s="4">
@@ -4154,35 +4343,37 @@
       <c r="H58" s="4">
         <v>0.25</v>
       </c>
-      <c r="I58" s="57">
+      <c r="I58" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J58" s="73">
-        <v>0</v>
-      </c>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-      <c r="N58" s="30"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="32"/>
+      <c r="J58" s="71">
+        <v>0</v>
+      </c>
+      <c r="K58" s="71">
+        <v>0</v>
+      </c>
+      <c r="L58" s="28"/>
+      <c r="M58" s="28"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="29"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="30"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="94"/>
-      <c r="C59" s="123"/>
-      <c r="D59" s="51" t="s">
+      <c r="B59" s="98"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="E59" s="51"/>
-      <c r="F59" s="51" t="s">
+      <c r="E59" s="49"/>
+      <c r="F59" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G59" s="4">
@@ -4191,35 +4382,37 @@
       <c r="H59" s="4">
         <v>0.25</v>
       </c>
-      <c r="I59" s="57">
+      <c r="I59" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J59" s="73">
-        <v>0</v>
-      </c>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-      <c r="N59" s="30"/>
-      <c r="O59" s="30"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="32"/>
+      <c r="J59" s="71">
+        <v>0</v>
+      </c>
+      <c r="K59" s="71">
+        <v>0</v>
+      </c>
+      <c r="L59" s="28"/>
+      <c r="M59" s="28"/>
+      <c r="N59" s="28"/>
+      <c r="O59" s="28"/>
+      <c r="P59" s="29"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="30"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="94"/>
-      <c r="C60" s="123"/>
-      <c r="D60" s="51" t="s">
+      <c r="B60" s="98"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="51"/>
-      <c r="F60" s="51" t="s">
+      <c r="E60" s="49"/>
+      <c r="F60" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G60" s="4">
@@ -4228,35 +4421,37 @@
       <c r="H60" s="4">
         <v>0.25</v>
       </c>
-      <c r="I60" s="57">
+      <c r="I60" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J60" s="73">
-        <v>0</v>
-      </c>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-      <c r="N60" s="30"/>
-      <c r="O60" s="30"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="32"/>
+      <c r="J60" s="71">
+        <v>0</v>
+      </c>
+      <c r="K60" s="71">
+        <v>0</v>
+      </c>
+      <c r="L60" s="28"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="29"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="30"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="94"/>
-      <c r="C61" s="123"/>
-      <c r="D61" s="51" t="s">
+      <c r="B61" s="98"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51" t="s">
+      <c r="E61" s="49"/>
+      <c r="F61" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G61" s="4">
@@ -4265,35 +4460,37 @@
       <c r="H61" s="4">
         <v>0.25</v>
       </c>
-      <c r="I61" s="57">
+      <c r="I61" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J61" s="73">
-        <v>0</v>
-      </c>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="32"/>
+      <c r="J61" s="71">
+        <v>0</v>
+      </c>
+      <c r="K61" s="71">
+        <v>0</v>
+      </c>
+      <c r="L61" s="28"/>
+      <c r="M61" s="28"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="29"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="30"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="94"/>
-      <c r="C62" s="123"/>
-      <c r="D62" s="51" t="s">
+      <c r="B62" s="98"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="E62" s="51"/>
-      <c r="F62" s="51" t="s">
+      <c r="E62" s="49"/>
+      <c r="F62" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G62" s="4">
@@ -4302,35 +4499,37 @@
       <c r="H62" s="4">
         <v>0.25</v>
       </c>
-      <c r="I62" s="57">
+      <c r="I62" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J62" s="73">
-        <v>0</v>
-      </c>
-      <c r="K62" s="30"/>
-      <c r="L62" s="30"/>
-      <c r="M62" s="30"/>
-      <c r="N62" s="30"/>
-      <c r="O62" s="30"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="32"/>
+      <c r="J62" s="71">
+        <v>0</v>
+      </c>
+      <c r="K62" s="71">
+        <v>0</v>
+      </c>
+      <c r="L62" s="28"/>
+      <c r="M62" s="28"/>
+      <c r="N62" s="28"/>
+      <c r="O62" s="28"/>
+      <c r="P62" s="29"/>
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="30"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="94"/>
-      <c r="C63" s="123"/>
-      <c r="D63" s="51" t="s">
+      <c r="B63" s="98"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="E63" s="51"/>
-      <c r="F63" s="51" t="s">
+      <c r="E63" s="49"/>
+      <c r="F63" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G63" s="4">
@@ -4339,35 +4538,37 @@
       <c r="H63" s="4">
         <v>0.25</v>
       </c>
-      <c r="I63" s="57">
+      <c r="I63" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J63" s="73">
-        <v>0</v>
-      </c>
-      <c r="K63" s="30"/>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="32"/>
+      <c r="J63" s="71">
+        <v>0</v>
+      </c>
+      <c r="K63" s="71">
+        <v>0</v>
+      </c>
+      <c r="L63" s="28"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="29"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="30"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="94"/>
-      <c r="C64" s="123"/>
-      <c r="D64" s="51" t="s">
+      <c r="B64" s="98"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="51"/>
-      <c r="F64" s="51" t="s">
+      <c r="E64" s="49"/>
+      <c r="F64" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G64" s="4">
@@ -4376,35 +4577,37 @@
       <c r="H64" s="4">
         <v>0.25</v>
       </c>
-      <c r="I64" s="57">
+      <c r="I64" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J64" s="73">
-        <v>0</v>
-      </c>
-      <c r="K64" s="30"/>
-      <c r="L64" s="30"/>
-      <c r="M64" s="30"/>
-      <c r="N64" s="30"/>
-      <c r="O64" s="30"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="32"/>
+      <c r="J64" s="71">
+        <v>0</v>
+      </c>
+      <c r="K64" s="71">
+        <v>0</v>
+      </c>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="29"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="30"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="94"/>
-      <c r="C65" s="123"/>
-      <c r="D65" s="51" t="s">
+      <c r="B65" s="98"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="51" t="s">
+      <c r="E65" s="49"/>
+      <c r="F65" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G65" s="4">
@@ -4413,35 +4616,37 @@
       <c r="H65" s="4">
         <v>0.25</v>
       </c>
-      <c r="I65" s="57">
+      <c r="I65" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J65" s="73">
-        <v>0</v>
-      </c>
-      <c r="K65" s="30"/>
-      <c r="L65" s="30"/>
-      <c r="M65" s="30"/>
-      <c r="N65" s="30"/>
-      <c r="O65" s="30"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="32"/>
+      <c r="J65" s="71">
+        <v>0</v>
+      </c>
+      <c r="K65" s="71">
+        <v>0</v>
+      </c>
+      <c r="L65" s="28"/>
+      <c r="M65" s="28"/>
+      <c r="N65" s="28"/>
+      <c r="O65" s="28"/>
+      <c r="P65" s="29"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="30"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="94"/>
-      <c r="C66" s="123"/>
-      <c r="D66" s="51" t="s">
+      <c r="B66" s="98"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="E66" s="51"/>
-      <c r="F66" s="51" t="s">
+      <c r="E66" s="49"/>
+      <c r="F66" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G66" s="4">
@@ -4450,35 +4655,37 @@
       <c r="H66" s="4">
         <v>0.25</v>
       </c>
-      <c r="I66" s="57">
+      <c r="I66" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J66" s="73">
-        <v>0</v>
-      </c>
-      <c r="K66" s="30"/>
-      <c r="L66" s="30"/>
-      <c r="M66" s="30"/>
-      <c r="N66" s="30"/>
-      <c r="O66" s="30"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="32"/>
+      <c r="J66" s="71">
+        <v>0</v>
+      </c>
+      <c r="K66" s="71">
+        <v>0</v>
+      </c>
+      <c r="L66" s="28"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="29"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="30"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="94"/>
-      <c r="C67" s="123"/>
-      <c r="D67" s="51" t="s">
+      <c r="B67" s="98"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51" t="s">
+      <c r="E67" s="49"/>
+      <c r="F67" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G67" s="4">
@@ -4487,35 +4694,37 @@
       <c r="H67" s="4">
         <v>0.25</v>
       </c>
-      <c r="I67" s="57">
+      <c r="I67" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J67" s="73">
-        <v>0</v>
-      </c>
-      <c r="K67" s="30"/>
-      <c r="L67" s="30"/>
-      <c r="M67" s="30"/>
-      <c r="N67" s="30"/>
-      <c r="O67" s="30"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="32"/>
+      <c r="J67" s="71">
+        <v>0</v>
+      </c>
+      <c r="K67" s="71">
+        <v>0</v>
+      </c>
+      <c r="L67" s="28"/>
+      <c r="M67" s="28"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="30"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="94"/>
-      <c r="C68" s="123"/>
-      <c r="D68" s="51" t="s">
+      <c r="B68" s="98"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="E68" s="51"/>
-      <c r="F68" s="51" t="s">
+      <c r="E68" s="49"/>
+      <c r="F68" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G68" s="4">
@@ -4524,35 +4733,37 @@
       <c r="H68" s="4">
         <v>0.25</v>
       </c>
-      <c r="I68" s="57">
+      <c r="I68" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J68" s="73">
-        <v>0</v>
-      </c>
-      <c r="K68" s="30"/>
-      <c r="L68" s="30"/>
-      <c r="M68" s="30"/>
-      <c r="N68" s="30"/>
-      <c r="O68" s="30"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="32"/>
+      <c r="J68" s="71">
+        <v>0</v>
+      </c>
+      <c r="K68" s="71">
+        <v>0</v>
+      </c>
+      <c r="L68" s="28"/>
+      <c r="M68" s="28"/>
+      <c r="N68" s="28"/>
+      <c r="O68" s="28"/>
+      <c r="P68" s="29"/>
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="30"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="94"/>
-      <c r="C69" s="123"/>
-      <c r="D69" s="51" t="s">
+      <c r="B69" s="98"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51" t="s">
+      <c r="E69" s="49"/>
+      <c r="F69" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G69" s="4">
@@ -4561,35 +4772,37 @@
       <c r="H69" s="4">
         <v>0.25</v>
       </c>
-      <c r="I69" s="57">
+      <c r="I69" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J69" s="73">
-        <v>0</v>
-      </c>
-      <c r="K69" s="30"/>
-      <c r="L69" s="30"/>
-      <c r="M69" s="30"/>
-      <c r="N69" s="30"/>
-      <c r="O69" s="30"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="32"/>
+      <c r="J69" s="71">
+        <v>0</v>
+      </c>
+      <c r="K69" s="71">
+        <v>0</v>
+      </c>
+      <c r="L69" s="28"/>
+      <c r="M69" s="28"/>
+      <c r="N69" s="28"/>
+      <c r="O69" s="28"/>
+      <c r="P69" s="29"/>
+      <c r="Q69" s="29"/>
+      <c r="R69" s="29"/>
+      <c r="S69" s="29"/>
+      <c r="T69" s="29"/>
+      <c r="U69" s="29"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="30"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="94"/>
-      <c r="C70" s="123"/>
-      <c r="D70" s="51" t="s">
+      <c r="B70" s="98"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="E70" s="51"/>
-      <c r="F70" s="51" t="s">
+      <c r="E70" s="49"/>
+      <c r="F70" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G70" s="4">
@@ -4598,35 +4811,37 @@
       <c r="H70" s="4">
         <v>0.25</v>
       </c>
-      <c r="I70" s="57">
+      <c r="I70" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J70" s="73">
-        <v>0</v>
-      </c>
-      <c r="K70" s="30"/>
-      <c r="L70" s="30"/>
-      <c r="M70" s="30"/>
-      <c r="N70" s="30"/>
-      <c r="O70" s="30"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-      <c r="W70" s="32"/>
+      <c r="J70" s="71">
+        <v>0</v>
+      </c>
+      <c r="K70" s="71">
+        <v>0</v>
+      </c>
+      <c r="L70" s="28"/>
+      <c r="M70" s="28"/>
+      <c r="N70" s="28"/>
+      <c r="O70" s="28"/>
+      <c r="P70" s="29"/>
+      <c r="Q70" s="29"/>
+      <c r="R70" s="29"/>
+      <c r="S70" s="29"/>
+      <c r="T70" s="29"/>
+      <c r="U70" s="29"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="30"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="94"/>
-      <c r="C71" s="123"/>
-      <c r="D71" s="51" t="s">
+      <c r="B71" s="98"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51" t="s">
+      <c r="E71" s="49"/>
+      <c r="F71" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G71" s="4">
@@ -4635,35 +4850,37 @@
       <c r="H71" s="4">
         <v>0.25</v>
       </c>
-      <c r="I71" s="57">
+      <c r="I71" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J71" s="73">
-        <v>0</v>
-      </c>
-      <c r="K71" s="30"/>
-      <c r="L71" s="30"/>
-      <c r="M71" s="30"/>
-      <c r="N71" s="30"/>
-      <c r="O71" s="30"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="32"/>
+      <c r="J71" s="71">
+        <v>0</v>
+      </c>
+      <c r="K71" s="71">
+        <v>0</v>
+      </c>
+      <c r="L71" s="28"/>
+      <c r="M71" s="28"/>
+      <c r="N71" s="28"/>
+      <c r="O71" s="28"/>
+      <c r="P71" s="29"/>
+      <c r="Q71" s="29"/>
+      <c r="R71" s="29"/>
+      <c r="S71" s="29"/>
+      <c r="T71" s="29"/>
+      <c r="U71" s="29"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="30"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="94"/>
-      <c r="C72" s="123"/>
-      <c r="D72" s="51" t="s">
+      <c r="B72" s="98"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="E72" s="51"/>
-      <c r="F72" s="51" t="s">
+      <c r="E72" s="49"/>
+      <c r="F72" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G72" s="4">
@@ -4672,35 +4889,37 @@
       <c r="H72" s="4">
         <v>0.25</v>
       </c>
-      <c r="I72" s="57">
+      <c r="I72" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J72" s="73">
-        <v>0</v>
-      </c>
-      <c r="K72" s="30"/>
-      <c r="L72" s="30"/>
-      <c r="M72" s="30"/>
-      <c r="N72" s="30"/>
-      <c r="O72" s="30"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="32"/>
+      <c r="J72" s="71">
+        <v>0</v>
+      </c>
+      <c r="K72" s="71">
+        <v>0</v>
+      </c>
+      <c r="L72" s="28"/>
+      <c r="M72" s="28"/>
+      <c r="N72" s="28"/>
+      <c r="O72" s="28"/>
+      <c r="P72" s="29"/>
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29"/>
+      <c r="S72" s="29"/>
+      <c r="T72" s="29"/>
+      <c r="U72" s="29"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="30"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="94"/>
-      <c r="C73" s="123"/>
-      <c r="D73" s="51" t="s">
+      <c r="B73" s="98"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="51"/>
-      <c r="F73" s="51" t="s">
+      <c r="E73" s="49"/>
+      <c r="F73" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G73" s="4">
@@ -4709,35 +4928,37 @@
       <c r="H73" s="4">
         <v>0.25</v>
       </c>
-      <c r="I73" s="57">
+      <c r="I73" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J73" s="73">
-        <v>0</v>
-      </c>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="32"/>
+      <c r="J73" s="71">
+        <v>0</v>
+      </c>
+      <c r="K73" s="71">
+        <v>0</v>
+      </c>
+      <c r="L73" s="28"/>
+      <c r="M73" s="28"/>
+      <c r="N73" s="28"/>
+      <c r="O73" s="28"/>
+      <c r="P73" s="29"/>
+      <c r="Q73" s="29"/>
+      <c r="R73" s="29"/>
+      <c r="S73" s="29"/>
+      <c r="T73" s="29"/>
+      <c r="U73" s="29"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="30"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="94"/>
-      <c r="C74" s="123"/>
-      <c r="D74" s="51" t="s">
+      <c r="B74" s="98"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="E74" s="51"/>
-      <c r="F74" s="51" t="s">
+      <c r="E74" s="49"/>
+      <c r="F74" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G74" s="4">
@@ -4746,35 +4967,37 @@
       <c r="H74" s="4">
         <v>0.25</v>
       </c>
-      <c r="I74" s="57">
+      <c r="I74" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J74" s="73">
-        <v>0</v>
-      </c>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="32"/>
+      <c r="J74" s="71">
+        <v>0</v>
+      </c>
+      <c r="K74" s="71">
+        <v>0</v>
+      </c>
+      <c r="L74" s="28"/>
+      <c r="M74" s="28"/>
+      <c r="N74" s="28"/>
+      <c r="O74" s="28"/>
+      <c r="P74" s="29"/>
+      <c r="Q74" s="29"/>
+      <c r="R74" s="29"/>
+      <c r="S74" s="29"/>
+      <c r="T74" s="29"/>
+      <c r="U74" s="29"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="30"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="94"/>
-      <c r="C75" s="123"/>
-      <c r="D75" s="51" t="s">
+      <c r="B75" s="98"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="E75" s="51"/>
-      <c r="F75" s="51" t="s">
+      <c r="E75" s="49"/>
+      <c r="F75" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G75" s="4">
@@ -4783,35 +5006,37 @@
       <c r="H75" s="4">
         <v>0.25</v>
       </c>
-      <c r="I75" s="57">
+      <c r="I75" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J75" s="73">
-        <v>0</v>
-      </c>
-      <c r="K75" s="30"/>
-      <c r="L75" s="30"/>
-      <c r="M75" s="30"/>
-      <c r="N75" s="30"/>
-      <c r="O75" s="30"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="32"/>
+      <c r="J75" s="71">
+        <v>0</v>
+      </c>
+      <c r="K75" s="71">
+        <v>0</v>
+      </c>
+      <c r="L75" s="28"/>
+      <c r="M75" s="28"/>
+      <c r="N75" s="28"/>
+      <c r="O75" s="28"/>
+      <c r="P75" s="29"/>
+      <c r="Q75" s="29"/>
+      <c r="R75" s="29"/>
+      <c r="S75" s="29"/>
+      <c r="T75" s="29"/>
+      <c r="U75" s="29"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="30"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="94"/>
-      <c r="C76" s="123"/>
-      <c r="D76" s="51" t="s">
+      <c r="B76" s="98"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="E76" s="51"/>
-      <c r="F76" s="51" t="s">
+      <c r="E76" s="49"/>
+      <c r="F76" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G76" s="4">
@@ -4820,35 +5045,37 @@
       <c r="H76" s="4">
         <v>0.25</v>
       </c>
-      <c r="I76" s="57">
+      <c r="I76" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J76" s="73">
-        <v>0</v>
-      </c>
-      <c r="K76" s="30"/>
-      <c r="L76" s="30"/>
-      <c r="M76" s="30"/>
-      <c r="N76" s="30"/>
-      <c r="O76" s="30"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="32"/>
+      <c r="J76" s="71">
+        <v>0</v>
+      </c>
+      <c r="K76" s="71">
+        <v>0</v>
+      </c>
+      <c r="L76" s="28"/>
+      <c r="M76" s="28"/>
+      <c r="N76" s="28"/>
+      <c r="O76" s="28"/>
+      <c r="P76" s="29"/>
+      <c r="Q76" s="29"/>
+      <c r="R76" s="29"/>
+      <c r="S76" s="29"/>
+      <c r="T76" s="29"/>
+      <c r="U76" s="29"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="30"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="94"/>
-      <c r="C77" s="123"/>
-      <c r="D77" s="51" t="s">
+      <c r="B77" s="98"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="E77" s="51"/>
-      <c r="F77" s="51" t="s">
+      <c r="E77" s="49"/>
+      <c r="F77" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G77" s="4">
@@ -4857,35 +5084,37 @@
       <c r="H77" s="4">
         <v>0.25</v>
       </c>
-      <c r="I77" s="57">
+      <c r="I77" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J77" s="73">
-        <v>0</v>
-      </c>
-      <c r="K77" s="30"/>
-      <c r="L77" s="30"/>
-      <c r="M77" s="30"/>
-      <c r="N77" s="30"/>
-      <c r="O77" s="30"/>
-      <c r="P77" s="31"/>
-      <c r="Q77" s="31"/>
-      <c r="R77" s="31"/>
-      <c r="S77" s="31"/>
-      <c r="T77" s="31"/>
-      <c r="U77" s="31"/>
-      <c r="V77" s="31"/>
-      <c r="W77" s="32"/>
+      <c r="J77" s="71">
+        <v>0</v>
+      </c>
+      <c r="K77" s="71">
+        <v>0</v>
+      </c>
+      <c r="L77" s="28"/>
+      <c r="M77" s="28"/>
+      <c r="N77" s="28"/>
+      <c r="O77" s="28"/>
+      <c r="P77" s="29"/>
+      <c r="Q77" s="29"/>
+      <c r="R77" s="29"/>
+      <c r="S77" s="29"/>
+      <c r="T77" s="29"/>
+      <c r="U77" s="29"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="30"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="94"/>
-      <c r="C78" s="123"/>
-      <c r="D78" s="51" t="s">
+      <c r="B78" s="98"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="E78" s="51"/>
-      <c r="F78" s="51" t="s">
+      <c r="E78" s="49"/>
+      <c r="F78" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G78" s="4">
@@ -4894,35 +5123,37 @@
       <c r="H78" s="4">
         <v>0.25</v>
       </c>
-      <c r="I78" s="57">
+      <c r="I78" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J78" s="73">
-        <v>0</v>
-      </c>
-      <c r="K78" s="30"/>
-      <c r="L78" s="30"/>
-      <c r="M78" s="30"/>
-      <c r="N78" s="30"/>
-      <c r="O78" s="30"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="32"/>
+      <c r="J78" s="71">
+        <v>0</v>
+      </c>
+      <c r="K78" s="71">
+        <v>0</v>
+      </c>
+      <c r="L78" s="28"/>
+      <c r="M78" s="28"/>
+      <c r="N78" s="28"/>
+      <c r="O78" s="28"/>
+      <c r="P78" s="29"/>
+      <c r="Q78" s="29"/>
+      <c r="R78" s="29"/>
+      <c r="S78" s="29"/>
+      <c r="T78" s="29"/>
+      <c r="U78" s="29"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="30"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="94"/>
-      <c r="C79" s="123"/>
-      <c r="D79" s="51" t="s">
+      <c r="B79" s="98"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="51"/>
-      <c r="F79" s="51" t="s">
+      <c r="E79" s="49"/>
+      <c r="F79" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G79" s="4">
@@ -4931,35 +5162,37 @@
       <c r="H79" s="4">
         <v>0.25</v>
       </c>
-      <c r="I79" s="57">
+      <c r="I79" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J79" s="73">
-        <v>0</v>
-      </c>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="31"/>
-      <c r="Q79" s="31"/>
-      <c r="R79" s="31"/>
-      <c r="S79" s="31"/>
-      <c r="T79" s="31"/>
-      <c r="U79" s="31"/>
-      <c r="V79" s="31"/>
-      <c r="W79" s="32"/>
+      <c r="J79" s="71">
+        <v>0</v>
+      </c>
+      <c r="K79" s="71">
+        <v>0</v>
+      </c>
+      <c r="L79" s="28"/>
+      <c r="M79" s="28"/>
+      <c r="N79" s="28"/>
+      <c r="O79" s="28"/>
+      <c r="P79" s="29"/>
+      <c r="Q79" s="29"/>
+      <c r="R79" s="29"/>
+      <c r="S79" s="29"/>
+      <c r="T79" s="29"/>
+      <c r="U79" s="29"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="30"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="94"/>
-      <c r="C80" s="123"/>
-      <c r="D80" s="51" t="s">
+      <c r="B80" s="98"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E80" s="51"/>
-      <c r="F80" s="51" t="s">
+      <c r="E80" s="49"/>
+      <c r="F80" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G80" s="4">
@@ -4968,35 +5201,37 @@
       <c r="H80" s="4">
         <v>0.25</v>
       </c>
-      <c r="I80" s="57">
+      <c r="I80" s="55">
         <f t="shared" ref="I80:I89" si="2">SUM(J80:W80)</f>
         <v>0</v>
       </c>
-      <c r="J80" s="73">
-        <v>0</v>
-      </c>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="31"/>
-      <c r="Q80" s="31"/>
-      <c r="R80" s="31"/>
-      <c r="S80" s="31"/>
-      <c r="T80" s="31"/>
-      <c r="U80" s="31"/>
-      <c r="V80" s="31"/>
-      <c r="W80" s="32"/>
+      <c r="J80" s="71">
+        <v>0</v>
+      </c>
+      <c r="K80" s="71">
+        <v>0</v>
+      </c>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="30"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="94"/>
-      <c r="C81" s="123"/>
-      <c r="D81" s="51" t="s">
+      <c r="B81" s="98"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51" t="s">
+      <c r="E81" s="49"/>
+      <c r="F81" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G81" s="4">
@@ -5005,35 +5240,37 @@
       <c r="H81" s="4">
         <v>0.25</v>
       </c>
-      <c r="I81" s="57">
+      <c r="I81" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J81" s="73">
-        <v>0</v>
-      </c>
-      <c r="K81" s="30"/>
-      <c r="L81" s="30"/>
-      <c r="M81" s="30"/>
-      <c r="N81" s="30"/>
-      <c r="O81" s="30"/>
-      <c r="P81" s="31"/>
-      <c r="Q81" s="31"/>
-      <c r="R81" s="31"/>
-      <c r="S81" s="31"/>
-      <c r="T81" s="31"/>
-      <c r="U81" s="31"/>
-      <c r="V81" s="31"/>
-      <c r="W81" s="32"/>
+      <c r="J81" s="71">
+        <v>0</v>
+      </c>
+      <c r="K81" s="71">
+        <v>0</v>
+      </c>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="29"/>
+      <c r="Q81" s="29"/>
+      <c r="R81" s="29"/>
+      <c r="S81" s="29"/>
+      <c r="T81" s="29"/>
+      <c r="U81" s="29"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="30"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="94"/>
-      <c r="C82" s="123"/>
-      <c r="D82" s="51" t="s">
+      <c r="B82" s="98"/>
+      <c r="C82" s="94"/>
+      <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="51" t="s">
+      <c r="E82" s="49"/>
+      <c r="F82" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G82" s="4">
@@ -5042,35 +5279,37 @@
       <c r="H82" s="4">
         <v>0.25</v>
       </c>
-      <c r="I82" s="57">
+      <c r="I82" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J82" s="73">
-        <v>0</v>
-      </c>
-      <c r="K82" s="30"/>
-      <c r="L82" s="30"/>
-      <c r="M82" s="30"/>
-      <c r="N82" s="30"/>
-      <c r="O82" s="30"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="32"/>
+      <c r="J82" s="71">
+        <v>0</v>
+      </c>
+      <c r="K82" s="71">
+        <v>0</v>
+      </c>
+      <c r="L82" s="28"/>
+      <c r="M82" s="28"/>
+      <c r="N82" s="28"/>
+      <c r="O82" s="28"/>
+      <c r="P82" s="29"/>
+      <c r="Q82" s="29"/>
+      <c r="R82" s="29"/>
+      <c r="S82" s="29"/>
+      <c r="T82" s="29"/>
+      <c r="U82" s="29"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="30"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="94"/>
-      <c r="C83" s="123"/>
-      <c r="D83" s="51" t="s">
+      <c r="B83" s="98"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51" t="s">
+      <c r="E83" s="49"/>
+      <c r="F83" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G83" s="16">
@@ -5079,39 +5318,63 @@
       <c r="H83" s="16">
         <v>1</v>
       </c>
-      <c r="I83" s="57">
+      <c r="I83" s="55">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J83" s="73">
-        <v>0</v>
-      </c>
-      <c r="K83" s="50">
+      <c r="J83" s="71">
+        <v>0</v>
+      </c>
+      <c r="K83" s="48">
         <v>0.8</v>
       </c>
-      <c r="L83" s="50"/>
-      <c r="M83" s="50"/>
-      <c r="N83" s="50"/>
-      <c r="O83" s="50"/>
-      <c r="P83" s="88"/>
-      <c r="Q83" s="88"/>
-      <c r="R83" s="88"/>
-      <c r="S83" s="88"/>
-      <c r="T83" s="88"/>
-      <c r="U83" s="88"/>
-      <c r="V83" s="88"/>
-      <c r="W83" s="89"/>
+      <c r="L83" s="48">
+        <v>0</v>
+      </c>
+      <c r="M83" s="48">
+        <v>0</v>
+      </c>
+      <c r="N83" s="48">
+        <v>0</v>
+      </c>
+      <c r="O83" s="48">
+        <v>0</v>
+      </c>
+      <c r="P83" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="48">
+        <v>0</v>
+      </c>
+      <c r="R83" s="48">
+        <v>0</v>
+      </c>
+      <c r="S83" s="48">
+        <v>0</v>
+      </c>
+      <c r="T83" s="48">
+        <v>0</v>
+      </c>
+      <c r="U83" s="48">
+        <v>0</v>
+      </c>
+      <c r="V83" s="48">
+        <v>0</v>
+      </c>
+      <c r="W83" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="94"/>
-      <c r="C84" s="95" t="s">
+      <c r="B84" s="98"/>
+      <c r="C84" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="E84" s="54"/>
-      <c r="F84" s="54" t="s">
+      <c r="E84" s="52"/>
+      <c r="F84" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="4">
@@ -5120,35 +5383,37 @@
       <c r="H84" s="4">
         <v>0.2</v>
       </c>
-      <c r="I84" s="57">
+      <c r="I84" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J84" s="73">
-        <v>0</v>
-      </c>
-      <c r="K84" s="30"/>
-      <c r="L84" s="30"/>
-      <c r="M84" s="30"/>
-      <c r="N84" s="30"/>
-      <c r="O84" s="30"/>
-      <c r="P84" s="30"/>
-      <c r="Q84" s="30"/>
-      <c r="R84" s="31"/>
-      <c r="S84" s="31"/>
-      <c r="T84" s="31"/>
-      <c r="U84" s="31"/>
-      <c r="V84" s="31"/>
-      <c r="W84" s="32"/>
+      <c r="J84" s="71">
+        <v>0</v>
+      </c>
+      <c r="K84" s="71">
+        <v>0</v>
+      </c>
+      <c r="L84" s="28"/>
+      <c r="M84" s="28"/>
+      <c r="N84" s="28"/>
+      <c r="O84" s="28"/>
+      <c r="P84" s="28"/>
+      <c r="Q84" s="28"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="30"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="94"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="54" t="s">
+      <c r="B85" s="98"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="E85" s="54"/>
-      <c r="F85" s="54" t="s">
+      <c r="E85" s="52"/>
+      <c r="F85" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="4">
@@ -5157,35 +5422,37 @@
       <c r="H85" s="4">
         <v>0.2</v>
       </c>
-      <c r="I85" s="57">
+      <c r="I85" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J85" s="73">
-        <v>0</v>
-      </c>
-      <c r="K85" s="30"/>
-      <c r="L85" s="30"/>
-      <c r="M85" s="30"/>
-      <c r="N85" s="30"/>
-      <c r="O85" s="30"/>
-      <c r="P85" s="30"/>
-      <c r="Q85" s="30"/>
-      <c r="R85" s="31"/>
-      <c r="S85" s="31"/>
-      <c r="T85" s="31"/>
-      <c r="U85" s="31"/>
-      <c r="V85" s="31"/>
-      <c r="W85" s="32"/>
+      <c r="J85" s="71">
+        <v>0</v>
+      </c>
+      <c r="K85" s="71">
+        <v>0</v>
+      </c>
+      <c r="L85" s="28"/>
+      <c r="M85" s="28"/>
+      <c r="N85" s="28"/>
+      <c r="O85" s="28"/>
+      <c r="P85" s="28"/>
+      <c r="Q85" s="28"/>
+      <c r="R85" s="29"/>
+      <c r="S85" s="29"/>
+      <c r="T85" s="29"/>
+      <c r="U85" s="29"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="30"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="94"/>
-      <c r="C86" s="95"/>
-      <c r="D86" s="54" t="s">
+      <c r="B86" s="98"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="E86" s="54"/>
-      <c r="F86" s="54" t="s">
+      <c r="E86" s="52"/>
+      <c r="F86" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="4">
@@ -5194,35 +5461,37 @@
       <c r="H86" s="4">
         <v>0.2</v>
       </c>
-      <c r="I86" s="57">
+      <c r="I86" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J86" s="73">
-        <v>0</v>
-      </c>
-      <c r="K86" s="30"/>
-      <c r="L86" s="30"/>
-      <c r="M86" s="30"/>
-      <c r="N86" s="30"/>
-      <c r="O86" s="30"/>
-      <c r="P86" s="30"/>
-      <c r="Q86" s="30"/>
-      <c r="R86" s="31"/>
-      <c r="S86" s="31"/>
-      <c r="T86" s="31"/>
-      <c r="U86" s="31"/>
-      <c r="V86" s="31"/>
-      <c r="W86" s="32"/>
+      <c r="J86" s="71">
+        <v>0</v>
+      </c>
+      <c r="K86" s="71">
+        <v>0</v>
+      </c>
+      <c r="L86" s="28"/>
+      <c r="M86" s="28"/>
+      <c r="N86" s="28"/>
+      <c r="O86" s="28"/>
+      <c r="P86" s="28"/>
+      <c r="Q86" s="28"/>
+      <c r="R86" s="29"/>
+      <c r="S86" s="29"/>
+      <c r="T86" s="29"/>
+      <c r="U86" s="29"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="30"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="94"/>
-      <c r="C87" s="95"/>
-      <c r="D87" s="54" t="s">
+      <c r="B87" s="98"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E87" s="54"/>
-      <c r="F87" s="54" t="s">
+      <c r="E87" s="52"/>
+      <c r="F87" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="4">
@@ -5231,35 +5500,37 @@
       <c r="H87" s="4">
         <v>0.2</v>
       </c>
-      <c r="I87" s="57">
+      <c r="I87" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J87" s="73">
-        <v>0</v>
-      </c>
-      <c r="K87" s="30"/>
-      <c r="L87" s="30"/>
-      <c r="M87" s="30"/>
-      <c r="N87" s="30"/>
-      <c r="O87" s="30"/>
-      <c r="P87" s="30"/>
-      <c r="Q87" s="30"/>
-      <c r="R87" s="30"/>
-      <c r="S87" s="31"/>
-      <c r="T87" s="31"/>
-      <c r="U87" s="31"/>
-      <c r="V87" s="31"/>
-      <c r="W87" s="32"/>
+      <c r="J87" s="71">
+        <v>0</v>
+      </c>
+      <c r="K87" s="71">
+        <v>0</v>
+      </c>
+      <c r="L87" s="28"/>
+      <c r="M87" s="28"/>
+      <c r="N87" s="28"/>
+      <c r="O87" s="28"/>
+      <c r="P87" s="28"/>
+      <c r="Q87" s="28"/>
+      <c r="R87" s="28"/>
+      <c r="S87" s="29"/>
+      <c r="T87" s="29"/>
+      <c r="U87" s="29"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="30"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="94"/>
-      <c r="C88" s="95"/>
-      <c r="D88" s="54" t="s">
+      <c r="B88" s="98"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54" t="s">
+      <c r="E88" s="52"/>
+      <c r="F88" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G88" s="4">
@@ -5268,35 +5539,37 @@
       <c r="H88" s="4">
         <v>0.2</v>
       </c>
-      <c r="I88" s="57">
+      <c r="I88" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J88" s="73">
-        <v>0</v>
-      </c>
-      <c r="K88" s="30"/>
-      <c r="L88" s="30"/>
-      <c r="M88" s="30"/>
-      <c r="N88" s="30"/>
-      <c r="O88" s="30"/>
-      <c r="P88" s="30"/>
-      <c r="Q88" s="30"/>
-      <c r="R88" s="30"/>
-      <c r="S88" s="30"/>
-      <c r="T88" s="30"/>
-      <c r="U88" s="30"/>
-      <c r="V88" s="30"/>
-      <c r="W88" s="60"/>
+      <c r="J88" s="71">
+        <v>0</v>
+      </c>
+      <c r="K88" s="71">
+        <v>0</v>
+      </c>
+      <c r="L88" s="28"/>
+      <c r="M88" s="28"/>
+      <c r="N88" s="28"/>
+      <c r="O88" s="28"/>
+      <c r="P88" s="28"/>
+      <c r="Q88" s="28"/>
+      <c r="R88" s="28"/>
+      <c r="S88" s="28"/>
+      <c r="T88" s="28"/>
+      <c r="U88" s="28"/>
+      <c r="V88" s="28"/>
+      <c r="W88" s="58"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="94"/>
-      <c r="C89" s="95"/>
-      <c r="D89" s="54" t="s">
+      <c r="B89" s="98"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="E89" s="54"/>
-      <c r="F89" s="48" t="s">
+      <c r="E89" s="52"/>
+      <c r="F89" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="4">
@@ -5305,35 +5578,37 @@
       <c r="H89" s="4">
         <v>0.2</v>
       </c>
-      <c r="I89" s="57">
+      <c r="I89" s="55">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="73">
-        <v>0</v>
-      </c>
-      <c r="K89" s="30"/>
-      <c r="L89" s="30"/>
-      <c r="M89" s="30"/>
-      <c r="N89" s="30"/>
-      <c r="O89" s="30"/>
-      <c r="P89" s="30"/>
-      <c r="Q89" s="30"/>
-      <c r="R89" s="31"/>
-      <c r="S89" s="31"/>
-      <c r="T89" s="31"/>
-      <c r="U89" s="31"/>
-      <c r="V89" s="31"/>
-      <c r="W89" s="32"/>
+      <c r="J89" s="71">
+        <v>0</v>
+      </c>
+      <c r="K89" s="71">
+        <v>0</v>
+      </c>
+      <c r="L89" s="28"/>
+      <c r="M89" s="28"/>
+      <c r="N89" s="28"/>
+      <c r="O89" s="28"/>
+      <c r="P89" s="28"/>
+      <c r="Q89" s="28"/>
+      <c r="R89" s="29"/>
+      <c r="S89" s="29"/>
+      <c r="T89" s="29"/>
+      <c r="U89" s="29"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="30"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="94"/>
-      <c r="C90" s="85" t="s">
+      <c r="B90" s="98"/>
+      <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="D90" s="54"/>
-      <c r="E90" s="54"/>
-      <c r="F90" s="48" t="s">
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="4">
@@ -5342,35 +5617,61 @@
       <c r="H90" s="4">
         <v>2</v>
       </c>
-      <c r="I90" s="57">
+      <c r="I90" s="55">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J90" s="50">
+      <c r="J90" s="48">
         <v>1.5</v>
       </c>
-      <c r="K90" s="50"/>
-      <c r="L90" s="50"/>
-      <c r="M90" s="50"/>
-      <c r="N90" s="50"/>
-      <c r="O90" s="50"/>
-      <c r="P90" s="50"/>
-      <c r="Q90" s="50"/>
-      <c r="R90" s="88"/>
-      <c r="S90" s="88"/>
-      <c r="T90" s="88"/>
-      <c r="U90" s="88"/>
-      <c r="V90" s="88"/>
-      <c r="W90" s="89"/>
+      <c r="K90" s="48">
+        <v>0</v>
+      </c>
+      <c r="L90" s="48">
+        <v>0</v>
+      </c>
+      <c r="M90" s="48">
+        <v>0</v>
+      </c>
+      <c r="N90" s="48">
+        <v>0</v>
+      </c>
+      <c r="O90" s="48">
+        <v>0</v>
+      </c>
+      <c r="P90" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="48">
+        <v>0</v>
+      </c>
+      <c r="R90" s="48">
+        <v>0</v>
+      </c>
+      <c r="S90" s="48">
+        <v>0</v>
+      </c>
+      <c r="T90" s="48">
+        <v>0</v>
+      </c>
+      <c r="U90" s="48">
+        <v>0</v>
+      </c>
+      <c r="V90" s="48">
+        <v>0</v>
+      </c>
+      <c r="W90" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="94"/>
-      <c r="C91" s="77" t="s">
+      <c r="B91" s="98"/>
+      <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="44"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="56" t="s">
+      <c r="D91" s="42"/>
+      <c r="E91" s="54"/>
+      <c r="F91" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G91" s="4">
@@ -5379,37 +5680,39 @@
       <c r="H91" s="4">
         <v>1</v>
       </c>
-      <c r="I91" s="57">
+      <c r="I91" s="55">
         <f>SUM(J91:W91)</f>
         <v>0</v>
       </c>
-      <c r="J91" s="73">
-        <v>0</v>
-      </c>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="31"/>
-      <c r="S91" s="31"/>
-      <c r="T91" s="31"/>
-      <c r="U91" s="31"/>
-      <c r="V91" s="31"/>
-      <c r="W91" s="32"/>
+      <c r="J91" s="71">
+        <v>0</v>
+      </c>
+      <c r="K91" s="71">
+        <v>0</v>
+      </c>
+      <c r="L91" s="28"/>
+      <c r="M91" s="28"/>
+      <c r="N91" s="28"/>
+      <c r="O91" s="28"/>
+      <c r="P91" s="28"/>
+      <c r="Q91" s="28"/>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="30"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="117" t="s">
         <v>92</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="D92" s="41"/>
-      <c r="E92" s="40"/>
-      <c r="F92" s="40" t="s">
+      <c r="D92" s="39"/>
+      <c r="E92" s="38"/>
+      <c r="F92" s="38" t="s">
         <v>16</v>
       </c>
       <c r="G92" s="12">
@@ -5418,72 +5721,74 @@
       <c r="H92" s="12">
         <v>0.75</v>
       </c>
-      <c r="I92" s="59">
+      <c r="I92" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J92" s="72">
-        <v>0</v>
-      </c>
-      <c r="K92" s="27"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="27"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="27"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="27"/>
-      <c r="R92" s="27"/>
-      <c r="S92" s="27"/>
-      <c r="T92" s="27"/>
-      <c r="U92" s="27"/>
-      <c r="V92" s="27"/>
-      <c r="W92" s="69"/>
+      <c r="J92" s="70">
+        <v>0</v>
+      </c>
+      <c r="K92" s="70">
+        <v>0</v>
+      </c>
+      <c r="L92" s="25"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="25"/>
+      <c r="S92" s="25"/>
+      <c r="T92" s="25"/>
+      <c r="U92" s="25"/>
+      <c r="V92" s="25"/>
+      <c r="W92" s="67"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="114"/>
-      <c r="C93" s="43" t="s">
+      <c r="B93" s="118"/>
+      <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43" t="s">
+      <c r="D93" s="40"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="38">
+      <c r="G93" s="36">
         <v>2</v>
       </c>
-      <c r="H93" s="38">
+      <c r="H93" s="36">
         <v>1.5</v>
       </c>
-      <c r="I93" s="59">
+      <c r="I93" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J93" s="75"/>
-      <c r="K93" s="37"/>
-      <c r="L93" s="37"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="37"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="37"/>
-      <c r="Q93" s="37"/>
-      <c r="R93" s="37"/>
-      <c r="S93" s="37"/>
-      <c r="T93" s="37"/>
-      <c r="U93" s="37"/>
-      <c r="V93" s="37"/>
-      <c r="W93" s="68"/>
+      <c r="J93" s="73"/>
+      <c r="K93" s="73"/>
+      <c r="L93" s="35"/>
+      <c r="M93" s="35"/>
+      <c r="N93" s="35"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
+      <c r="Q93" s="35"/>
+      <c r="R93" s="35"/>
+      <c r="S93" s="35"/>
+      <c r="T93" s="35"/>
+      <c r="U93" s="35"/>
+      <c r="V93" s="35"/>
+      <c r="W93" s="66"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="115"/>
-      <c r="C94" s="125" t="s">
+      <c r="B94" s="119"/>
+      <c r="C94" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="D94" s="44" t="s">
+      <c r="D94" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56" t="s">
+      <c r="E94" s="54"/>
+      <c r="F94" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="4">
@@ -5492,35 +5797,37 @@
       <c r="H94" s="4">
         <v>1</v>
       </c>
-      <c r="I94" s="57">
+      <c r="I94" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J94" s="73">
-        <v>0</v>
-      </c>
-      <c r="K94" s="30"/>
-      <c r="L94" s="30"/>
-      <c r="M94" s="30"/>
-      <c r="N94" s="30"/>
-      <c r="O94" s="30"/>
-      <c r="P94" s="30"/>
-      <c r="Q94" s="30"/>
-      <c r="R94" s="30"/>
-      <c r="S94" s="30"/>
-      <c r="T94" s="30"/>
-      <c r="U94" s="30"/>
-      <c r="V94" s="30"/>
-      <c r="W94" s="60"/>
+      <c r="J94" s="71">
+        <v>0</v>
+      </c>
+      <c r="K94" s="71">
+        <v>0</v>
+      </c>
+      <c r="L94" s="28"/>
+      <c r="M94" s="28"/>
+      <c r="N94" s="28"/>
+      <c r="O94" s="28"/>
+      <c r="P94" s="28"/>
+      <c r="Q94" s="28"/>
+      <c r="R94" s="28"/>
+      <c r="S94" s="28"/>
+      <c r="T94" s="28"/>
+      <c r="U94" s="28"/>
+      <c r="V94" s="28"/>
+      <c r="W94" s="58"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="116"/>
-      <c r="C95" s="125"/>
-      <c r="D95" s="44" t="s">
+      <c r="B95" s="120"/>
+      <c r="C95" s="96"/>
+      <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E95" s="56"/>
-      <c r="F95" s="56" t="s">
+      <c r="E95" s="54"/>
+      <c r="F95" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="4">
@@ -5529,35 +5836,37 @@
       <c r="H95" s="4">
         <v>0.5</v>
       </c>
-      <c r="I95" s="57">
+      <c r="I95" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J95" s="73">
-        <v>0</v>
-      </c>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="31"/>
-      <c r="U95" s="31"/>
-      <c r="V95" s="31"/>
-      <c r="W95" s="60"/>
+      <c r="J95" s="71">
+        <v>0</v>
+      </c>
+      <c r="K95" s="71">
+        <v>0</v>
+      </c>
+      <c r="L95" s="28"/>
+      <c r="M95" s="28"/>
+      <c r="N95" s="28"/>
+      <c r="O95" s="28"/>
+      <c r="P95" s="28"/>
+      <c r="Q95" s="28"/>
+      <c r="R95" s="28"/>
+      <c r="S95" s="28"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="58"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="117"/>
-      <c r="C96" s="46" t="s">
+      <c r="B96" s="121"/>
+      <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="46" t="s">
+      <c r="D96" s="43"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="11">
@@ -5566,37 +5875,39 @@
       <c r="H96" s="11">
         <v>1</v>
       </c>
-      <c r="I96" s="61">
+      <c r="I96" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J96" s="74">
-        <v>0</v>
-      </c>
-      <c r="K96" s="34"/>
-      <c r="L96" s="34"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-      <c r="T96" s="34"/>
-      <c r="U96" s="34"/>
-      <c r="V96" s="34"/>
-      <c r="W96" s="66"/>
+      <c r="J96" s="72">
+        <v>0</v>
+      </c>
+      <c r="K96" s="72">
+        <v>0</v>
+      </c>
+      <c r="L96" s="32"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="32"/>
+      <c r="P96" s="32"/>
+      <c r="Q96" s="32"/>
+      <c r="R96" s="32"/>
+      <c r="S96" s="32"/>
+      <c r="T96" s="32"/>
+      <c r="U96" s="32"/>
+      <c r="V96" s="32"/>
+      <c r="W96" s="64"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="93" t="s">
+      <c r="B97" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="C97" s="65" t="s">
+      <c r="C97" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="64"/>
-      <c r="E97" s="65"/>
-      <c r="F97" s="65" t="s">
+      <c r="D97" s="62"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63" t="s">
         <v>15</v>
       </c>
       <c r="G97" s="12">
@@ -5605,35 +5916,37 @@
       <c r="H97" s="12">
         <v>1.5</v>
       </c>
-      <c r="I97" s="59">
+      <c r="I97" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J97" s="72">
-        <v>0</v>
-      </c>
-      <c r="K97" s="27"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="27"/>
-      <c r="N97" s="28"/>
-      <c r="O97" s="28"/>
-      <c r="P97" s="28"/>
-      <c r="Q97" s="28"/>
-      <c r="R97" s="28"/>
-      <c r="S97" s="28"/>
-      <c r="T97" s="28"/>
-      <c r="U97" s="28"/>
-      <c r="V97" s="28"/>
-      <c r="W97" s="29"/>
+      <c r="J97" s="70">
+        <v>0</v>
+      </c>
+      <c r="K97" s="70">
+        <v>0</v>
+      </c>
+      <c r="L97" s="25"/>
+      <c r="M97" s="25"/>
+      <c r="N97" s="26"/>
+      <c r="O97" s="26"/>
+      <c r="P97" s="26"/>
+      <c r="Q97" s="26"/>
+      <c r="R97" s="26"/>
+      <c r="S97" s="26"/>
+      <c r="T97" s="26"/>
+      <c r="U97" s="26"/>
+      <c r="V97" s="26"/>
+      <c r="W97" s="27"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="116"/>
-      <c r="C98" s="56" t="s">
+      <c r="B98" s="120"/>
+      <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="D98" s="44"/>
-      <c r="E98" s="56"/>
-      <c r="F98" s="56" t="s">
+      <c r="D98" s="42"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G98" s="4">
@@ -5642,35 +5955,37 @@
       <c r="H98" s="4">
         <v>0.33</v>
       </c>
-      <c r="I98" s="57">
+      <c r="I98" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J98" s="73">
-        <v>0</v>
-      </c>
-      <c r="K98" s="30"/>
-      <c r="L98" s="30"/>
-      <c r="M98" s="30"/>
-      <c r="N98" s="31"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="31"/>
-      <c r="Q98" s="31"/>
-      <c r="R98" s="31"/>
-      <c r="S98" s="31"/>
-      <c r="T98" s="31"/>
-      <c r="U98" s="31"/>
-      <c r="V98" s="31"/>
-      <c r="W98" s="32"/>
+      <c r="J98" s="71">
+        <v>0</v>
+      </c>
+      <c r="K98" s="71">
+        <v>0</v>
+      </c>
+      <c r="L98" s="28"/>
+      <c r="M98" s="28"/>
+      <c r="N98" s="29"/>
+      <c r="O98" s="29"/>
+      <c r="P98" s="29"/>
+      <c r="Q98" s="29"/>
+      <c r="R98" s="29"/>
+      <c r="S98" s="29"/>
+      <c r="T98" s="29"/>
+      <c r="U98" s="29"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="30"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="116"/>
-      <c r="C99" s="56" t="s">
+      <c r="B99" s="120"/>
+      <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="D99" s="44"/>
-      <c r="E99" s="56"/>
-      <c r="F99" s="56" t="s">
+      <c r="D99" s="42"/>
+      <c r="E99" s="54"/>
+      <c r="F99" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G99" s="4">
@@ -5679,35 +5994,37 @@
       <c r="H99" s="4">
         <v>0.33</v>
       </c>
-      <c r="I99" s="57">
+      <c r="I99" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J99" s="73">
-        <v>0</v>
-      </c>
-      <c r="K99" s="30"/>
-      <c r="L99" s="30"/>
-      <c r="M99" s="30"/>
-      <c r="N99" s="31"/>
-      <c r="O99" s="31"/>
-      <c r="P99" s="31"/>
-      <c r="Q99" s="31"/>
-      <c r="R99" s="31"/>
-      <c r="S99" s="31"/>
-      <c r="T99" s="31"/>
-      <c r="U99" s="31"/>
-      <c r="V99" s="31"/>
-      <c r="W99" s="32"/>
+      <c r="J99" s="71">
+        <v>0</v>
+      </c>
+      <c r="K99" s="71">
+        <v>0</v>
+      </c>
+      <c r="L99" s="28"/>
+      <c r="M99" s="28"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="30"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="116"/>
-      <c r="C100" s="56" t="s">
+      <c r="B100" s="120"/>
+      <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="44"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56" t="s">
+      <c r="D100" s="42"/>
+      <c r="E100" s="54"/>
+      <c r="F100" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G100" s="4">
@@ -5716,35 +6033,37 @@
       <c r="H100" s="4">
         <v>0.33</v>
       </c>
-      <c r="I100" s="57">
+      <c r="I100" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J100" s="73">
-        <v>0</v>
-      </c>
-      <c r="K100" s="30"/>
-      <c r="L100" s="30"/>
-      <c r="M100" s="30"/>
-      <c r="N100" s="31"/>
-      <c r="O100" s="31"/>
-      <c r="P100" s="31"/>
-      <c r="Q100" s="31"/>
-      <c r="R100" s="31"/>
-      <c r="S100" s="31"/>
-      <c r="T100" s="31"/>
-      <c r="U100" s="31"/>
-      <c r="V100" s="31"/>
-      <c r="W100" s="32"/>
+      <c r="J100" s="71">
+        <v>0</v>
+      </c>
+      <c r="K100" s="71">
+        <v>0</v>
+      </c>
+      <c r="L100" s="28"/>
+      <c r="M100" s="28"/>
+      <c r="N100" s="29"/>
+      <c r="O100" s="29"/>
+      <c r="P100" s="29"/>
+      <c r="Q100" s="29"/>
+      <c r="R100" s="29"/>
+      <c r="S100" s="29"/>
+      <c r="T100" s="29"/>
+      <c r="U100" s="29"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="30"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="116"/>
-      <c r="C101" s="56" t="s">
+      <c r="B101" s="120"/>
+      <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
-      <c r="D101" s="44"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56" t="s">
+      <c r="D101" s="42"/>
+      <c r="E101" s="54"/>
+      <c r="F101" s="54" t="s">
         <v>16</v>
       </c>
       <c r="G101" s="4">
@@ -5753,35 +6072,37 @@
       <c r="H101" s="4">
         <v>0.33</v>
       </c>
-      <c r="I101" s="57">
+      <c r="I101" s="55">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J101" s="73">
-        <v>0</v>
-      </c>
-      <c r="K101" s="30"/>
-      <c r="L101" s="30"/>
-      <c r="M101" s="30"/>
-      <c r="N101" s="31"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="31"/>
-      <c r="Q101" s="31"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="31"/>
-      <c r="T101" s="31"/>
-      <c r="U101" s="31"/>
-      <c r="V101" s="31"/>
-      <c r="W101" s="32"/>
+      <c r="J101" s="71">
+        <v>0</v>
+      </c>
+      <c r="K101" s="71">
+        <v>0</v>
+      </c>
+      <c r="L101" s="28"/>
+      <c r="M101" s="28"/>
+      <c r="N101" s="29"/>
+      <c r="O101" s="29"/>
+      <c r="P101" s="29"/>
+      <c r="Q101" s="29"/>
+      <c r="R101" s="29"/>
+      <c r="S101" s="29"/>
+      <c r="T101" s="29"/>
+      <c r="U101" s="29"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="30"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="117"/>
-      <c r="C102" s="46" t="s">
+      <c r="B102" s="121"/>
+      <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="45"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="46" t="s">
+      <c r="D102" s="43"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44" t="s">
         <v>16</v>
       </c>
       <c r="G102" s="11">
@@ -5790,43 +6111,45 @@
       <c r="H102" s="11">
         <v>3</v>
       </c>
-      <c r="I102" s="61">
+      <c r="I102" s="59">
         <f t="shared" ref="I102" si="3">SUM(J102:W102)</f>
         <v>0</v>
       </c>
-      <c r="J102" s="74">
-        <v>0</v>
-      </c>
-      <c r="K102" s="34"/>
-      <c r="L102" s="34"/>
-      <c r="M102" s="34"/>
-      <c r="N102" s="34"/>
-      <c r="O102" s="34"/>
-      <c r="P102" s="35"/>
-      <c r="Q102" s="35"/>
-      <c r="R102" s="35"/>
-      <c r="S102" s="35"/>
-      <c r="T102" s="35"/>
-      <c r="U102" s="35"/>
-      <c r="V102" s="35"/>
-      <c r="W102" s="36"/>
+      <c r="J102" s="72">
+        <v>0</v>
+      </c>
+      <c r="K102" s="72">
+        <v>0</v>
+      </c>
+      <c r="L102" s="32"/>
+      <c r="M102" s="32"/>
+      <c r="N102" s="32"/>
+      <c r="O102" s="32"/>
+      <c r="P102" s="33"/>
+      <c r="Q102" s="33"/>
+      <c r="R102" s="33"/>
+      <c r="S102" s="33"/>
+      <c r="T102" s="33"/>
+      <c r="U102" s="33"/>
+      <c r="V102" s="33"/>
+      <c r="W102" s="34"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="108" t="s">
+      <c r="B103" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="109"/>
-      <c r="D103" s="109"/>
-      <c r="E103" s="109"/>
-      <c r="F103" s="109"/>
-      <c r="G103" s="109"/>
+      <c r="C103" s="113"/>
+      <c r="D103" s="113"/>
+      <c r="E103" s="113"/>
+      <c r="F103" s="113"/>
+      <c r="G103" s="113"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>6.25</v>
+        <v>6.3999999999999995</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -5837,8 +6160,8 @@
         <v>3.3</v>
       </c>
       <c r="L103" s="17">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f>SUM(L4:L102)</f>
+        <v>1.1499999999999999</v>
       </c>
       <c r="M103" s="17">
         <f t="shared" si="4"/>
@@ -5894,34 +6217,34 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="99" t="s">
+      <c r="J104" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="100"/>
-      <c r="L104" s="100"/>
-      <c r="M104" s="100"/>
-      <c r="N104" s="100"/>
-      <c r="O104" s="100"/>
-      <c r="P104" s="100"/>
-      <c r="Q104" s="100"/>
-      <c r="R104" s="100"/>
-      <c r="S104" s="100"/>
-      <c r="T104" s="100"/>
-      <c r="U104" s="100"/>
-      <c r="V104" s="100"/>
-      <c r="W104" s="101"/>
+      <c r="K104" s="104"/>
+      <c r="L104" s="104"/>
+      <c r="M104" s="104"/>
+      <c r="N104" s="104"/>
+      <c r="O104" s="104"/>
+      <c r="P104" s="104"/>
+      <c r="Q104" s="104"/>
+      <c r="R104" s="104"/>
+      <c r="S104" s="104"/>
+      <c r="T104" s="104"/>
+      <c r="U104" s="104"/>
+      <c r="V104" s="104"/>
+      <c r="W104" s="105"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="78" t="s">
+      <c r="B105" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C105" s="79" t="s">
+      <c r="C105" s="77" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="79" t="s">
+      <c r="D105" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="E105" s="80" t="s">
+      <c r="E105" s="78" t="s">
         <v>123</v>
       </c>
       <c r="F105" s="2"/>
@@ -5936,27 +6259,27 @@
       <c r="P105" s="9"/>
     </row>
     <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="84" t="s">
+      <c r="B106" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="C106" s="83">
-        <f>SUM(H4,H7,H9,H40,H91,H92,H93,H94,H95,H96,H98:H102,H40)</f>
-        <v>12.47</v>
-      </c>
-      <c r="D106" s="38">
-        <f>SUM(I98:I102,I91:I96,I9,I7,I4,I40)</f>
-        <v>0</v>
-      </c>
-      <c r="E106" s="38">
+      <c r="C106" s="81">
+        <f>SUM(H7,H9,H40,H91,H92,H93,H94,H95,H96,H98:H102,H40)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D106" s="36">
+        <f>SUM(I98:I102,I91:I96,I9,I7,I40)</f>
+        <v>0</v>
+      </c>
+      <c r="E106" s="36">
         <f>SUM(C106,-D106)</f>
-        <v>12.47</v>
+        <v>12.27</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="118" t="s">
+      <c r="H106" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="121"/>
+      <c r="I106" s="92"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -5967,68 +6290,68 @@
       </c>
       <c r="L106" s="10">
         <f>K106-L103</f>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="N106" s="10">
         <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>42.47</v>
+        <v>42.32</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="82" t="s">
+      <c r="B107" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C107" s="81">
-        <f>SUM(H84:H89,H97,H17:H36,H10:H15,H8,H6,H5,H90)</f>
-        <v>17.999999999999993</v>
+      <c r="C107" s="79">
+        <f>SUM(H4,H84:H89,H97,H17:H36,H10:H15,H8,H6,H5,H90)</f>
+        <v>18.199999999999992</v>
       </c>
       <c r="D107" s="5">
-        <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90)</f>
-        <v>1.5</v>
+        <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90,I4)</f>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E107" s="5">
         <f>SUM(C107,-D107)</f>
-        <v>16.499999999999993</v>
+        <v>16.549999999999994</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6040,10 +6363,10 @@
       <c r="M107" s="3"/>
     </row>
     <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="82" t="s">
+      <c r="B108" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="81">
+      <c r="C108" s="79">
         <f>SUM(H41:H83,H37:H39)</f>
         <v>16.75</v>
       </c>
@@ -6056,27 +6379,27 @@
         <v>15</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="118" t="s">
+      <c r="H108" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="119"/>
-      <c r="J108" s="118">
+      <c r="I108" s="90"/>
+      <c r="J108" s="89">
         <f>H103-I103</f>
-        <v>42.47</v>
-      </c>
-      <c r="K108" s="119"/>
-      <c r="L108" s="119"/>
-      <c r="M108" s="119"/>
-      <c r="N108" s="119"/>
-      <c r="O108" s="119"/>
-      <c r="P108" s="119"/>
-      <c r="Q108" s="119"/>
-      <c r="R108" s="119"/>
-      <c r="S108" s="119"/>
-      <c r="T108" s="119"/>
-      <c r="U108" s="119"/>
-      <c r="V108" s="119"/>
-      <c r="W108" s="120"/>
+        <v>42.32</v>
+      </c>
+      <c r="K108" s="90"/>
+      <c r="L108" s="90"/>
+      <c r="M108" s="90"/>
+      <c r="N108" s="90"/>
+      <c r="O108" s="90"/>
+      <c r="P108" s="90"/>
+      <c r="Q108" s="90"/>
+      <c r="R108" s="90"/>
+      <c r="S108" s="90"/>
+      <c r="T108" s="90"/>
+      <c r="U108" s="90"/>
+      <c r="V108" s="90"/>
+      <c r="W108" s="91"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6156,12 +6479,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6174,6 +6491,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1345,6 +1345,96 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1367,96 +1457,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1630,11 +1630,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="188830424"/>
-        <c:axId val="188828072"/>
+        <c:axId val="194458696"/>
+        <c:axId val="194459480"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="188830424"/>
+        <c:axId val="194458696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,14 +1644,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188828072"/>
+        <c:crossAx val="194459480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="188828072"/>
+        <c:axId val="194459480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188830424"/>
+        <c:crossAx val="194458696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1704,7 +1704,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,8 +2014,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,22 +2044,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
+      <c r="K2" s="98"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="98"/>
+      <c r="N2" s="98"/>
+      <c r="O2" s="98"/>
+      <c r="P2" s="98"/>
+      <c r="Q2" s="98"/>
+      <c r="R2" s="98"/>
+      <c r="S2" s="98"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
+      <c r="W2" s="99"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2130,17 +2130,17 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122" t="s">
+      <c r="E4" s="89"/>
+      <c r="F4" s="89" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="12">
@@ -2174,30 +2174,30 @@
       <c r="P4" s="87">
         <v>0</v>
       </c>
-      <c r="Q4" s="123">
-        <v>0</v>
-      </c>
-      <c r="R4" s="123">
-        <v>0</v>
-      </c>
-      <c r="S4" s="123">
-        <v>0</v>
-      </c>
-      <c r="T4" s="123">
-        <v>0</v>
-      </c>
-      <c r="U4" s="123">
-        <v>0</v>
-      </c>
-      <c r="V4" s="123">
-        <v>0</v>
-      </c>
-      <c r="W4" s="124">
+      <c r="Q4" s="90">
+        <v>0</v>
+      </c>
+      <c r="R4" s="90">
+        <v>0</v>
+      </c>
+      <c r="S4" s="90">
+        <v>0</v>
+      </c>
+      <c r="T4" s="90">
+        <v>0</v>
+      </c>
+      <c r="U4" s="90">
+        <v>0</v>
+      </c>
+      <c r="V4" s="90">
+        <v>0</v>
+      </c>
+      <c r="W4" s="91">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="107"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2237,30 +2237,30 @@
       <c r="P5" s="48">
         <v>0</v>
       </c>
-      <c r="Q5" s="125">
-        <v>0</v>
-      </c>
-      <c r="R5" s="125">
-        <v>0</v>
-      </c>
-      <c r="S5" s="125">
-        <v>0</v>
-      </c>
-      <c r="T5" s="125">
-        <v>0</v>
-      </c>
-      <c r="U5" s="125">
-        <v>0</v>
-      </c>
-      <c r="V5" s="125">
-        <v>0</v>
-      </c>
-      <c r="W5" s="126">
+      <c r="Q5" s="92">
+        <v>0</v>
+      </c>
+      <c r="R5" s="92">
+        <v>0</v>
+      </c>
+      <c r="S5" s="92">
+        <v>0</v>
+      </c>
+      <c r="T5" s="92">
+        <v>0</v>
+      </c>
+      <c r="U5" s="92">
+        <v>0</v>
+      </c>
+      <c r="V5" s="92">
+        <v>0</v>
+      </c>
+      <c r="W5" s="93">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="107"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2299,8 +2299,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="107"/>
-      <c r="C7" s="115" t="s">
+      <c r="B7" s="104"/>
+      <c r="C7" s="112" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2340,8 +2340,8 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="107"/>
-      <c r="C8" s="115"/>
+      <c r="B8" s="104"/>
+      <c r="C8" s="112"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2379,8 +2379,8 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="111"/>
-      <c r="C9" s="116"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="105" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2459,7 +2459,7 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="109"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2498,7 +2498,7 @@
       <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="109"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="110"/>
+      <c r="B13" s="107"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="110"/>
+      <c r="B14" s="107"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="110"/>
+      <c r="B15" s="107"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2654,7 +2654,7 @@
       <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="106" t="s">
+      <c r="B16" s="103" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2697,7 +2697,7 @@
       <c r="W16" s="27"/>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="107"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2736,8 +2736,8 @@
       <c r="W17" s="30"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="107"/>
-      <c r="C18" s="114" t="s">
+      <c r="B18" s="104"/>
+      <c r="C18" s="111" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2777,8 +2777,8 @@
       <c r="W18" s="30"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="107"/>
-      <c r="C19" s="114"/>
+      <c r="B19" s="104"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2816,8 +2816,8 @@
       <c r="W19" s="30"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="107"/>
-      <c r="C20" s="95" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="125" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -2857,8 +2857,8 @@
       <c r="W20" s="30"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="107"/>
-      <c r="C21" s="95"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -2896,8 +2896,8 @@
       <c r="W21" s="30"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="107"/>
-      <c r="C22" s="95"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -2935,8 +2935,8 @@
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="107"/>
-      <c r="C23" s="95"/>
+      <c r="B23" s="104"/>
+      <c r="C23" s="125"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -2974,8 +2974,8 @@
       <c r="W23" s="30"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="107"/>
-      <c r="C24" s="95"/>
+      <c r="B24" s="104"/>
+      <c r="C24" s="125"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3013,8 +3013,8 @@
       <c r="W24" s="30"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="107"/>
-      <c r="C25" s="95"/>
+      <c r="B25" s="104"/>
+      <c r="C25" s="125"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3052,8 +3052,8 @@
       <c r="W25" s="30"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="107"/>
-      <c r="C26" s="95"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="125"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3091,8 +3091,8 @@
       <c r="W26" s="30"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="107"/>
-      <c r="C27" s="95"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="125"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3130,8 +3130,8 @@
       <c r="W27" s="30"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="107"/>
-      <c r="C28" s="95"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="125"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3169,8 +3169,8 @@
       <c r="W28" s="30"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="107"/>
-      <c r="C29" s="95"/>
+      <c r="B29" s="104"/>
+      <c r="C29" s="125"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3208,8 +3208,8 @@
       <c r="W29" s="30"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="107"/>
-      <c r="C30" s="95"/>
+      <c r="B30" s="104"/>
+      <c r="C30" s="125"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3247,8 +3247,8 @@
       <c r="W30" s="30"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="107"/>
-      <c r="C31" s="95"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="125"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3286,8 +3286,8 @@
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="107"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="104"/>
+      <c r="C32" s="125"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3325,8 +3325,8 @@
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="107"/>
-      <c r="C33" s="95"/>
+      <c r="B33" s="104"/>
+      <c r="C33" s="125"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3364,8 +3364,8 @@
       <c r="W33" s="30"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="107"/>
-      <c r="C34" s="95"/>
+      <c r="B34" s="104"/>
+      <c r="C34" s="125"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="W34" s="30"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="107"/>
-      <c r="C35" s="95"/>
+      <c r="B35" s="104"/>
+      <c r="C35" s="125"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3442,8 +3442,8 @@
       <c r="W35" s="30"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="107"/>
-      <c r="C36" s="95"/>
+      <c r="B36" s="104"/>
+      <c r="C36" s="125"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3481,7 +3481,7 @@
       <c r="W36" s="30"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="107"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="W37" s="30"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="107"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="107"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3598,7 +3598,7 @@
       <c r="W39" s="30"/>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="107"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3637,10 +3637,10 @@
       <c r="W40" s="30"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="93" t="s">
+      <c r="C41" s="123" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3704,8 +3704,8 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="98"/>
-      <c r="C42" s="94"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="124"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -3743,8 +3743,8 @@
       <c r="W42" s="30"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="98"/>
-      <c r="C43" s="94"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="124"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -3782,8 +3782,8 @@
       <c r="W43" s="30"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="98"/>
-      <c r="C44" s="94"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="124"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -3821,8 +3821,8 @@
       <c r="W44" s="30"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="98"/>
-      <c r="C45" s="94"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="124"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -3860,8 +3860,8 @@
       <c r="W45" s="30"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="98"/>
-      <c r="C46" s="94"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="124"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -3899,8 +3899,8 @@
       <c r="W46" s="30"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="98"/>
-      <c r="C47" s="94"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="124"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -3938,8 +3938,8 @@
       <c r="W47" s="30"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="98"/>
-      <c r="C48" s="94"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="124"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -3977,8 +3977,8 @@
       <c r="W48" s="30"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="98"/>
-      <c r="C49" s="94"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="124"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4016,8 +4016,8 @@
       <c r="W49" s="30"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="98"/>
-      <c r="C50" s="94"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="124"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4055,8 +4055,8 @@
       <c r="W50" s="30"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="98"/>
-      <c r="C51" s="94"/>
+      <c r="B51" s="95"/>
+      <c r="C51" s="124"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4094,8 +4094,8 @@
       <c r="W51" s="30"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="98"/>
-      <c r="C52" s="94"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="124"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4133,8 +4133,8 @@
       <c r="W52" s="30"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="98"/>
-      <c r="C53" s="94"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="124"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4172,8 +4172,8 @@
       <c r="W53" s="30"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="98"/>
-      <c r="C54" s="94"/>
+      <c r="B54" s="95"/>
+      <c r="C54" s="124"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4211,8 +4211,8 @@
       <c r="W54" s="30"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="98"/>
-      <c r="C55" s="94"/>
+      <c r="B55" s="95"/>
+      <c r="C55" s="124"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4250,8 +4250,8 @@
       <c r="W55" s="30"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="98"/>
-      <c r="C56" s="94"/>
+      <c r="B56" s="95"/>
+      <c r="C56" s="124"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4289,8 +4289,8 @@
       <c r="W56" s="30"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="98"/>
-      <c r="C57" s="94"/>
+      <c r="B57" s="95"/>
+      <c r="C57" s="124"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4328,8 +4328,8 @@
       <c r="W57" s="30"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="98"/>
-      <c r="C58" s="94"/>
+      <c r="B58" s="95"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4367,8 +4367,8 @@
       <c r="W58" s="30"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="98"/>
-      <c r="C59" s="94"/>
+      <c r="B59" s="95"/>
+      <c r="C59" s="124"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4406,8 +4406,8 @@
       <c r="W59" s="30"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="98"/>
-      <c r="C60" s="94"/>
+      <c r="B60" s="95"/>
+      <c r="C60" s="124"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4445,8 +4445,8 @@
       <c r="W60" s="30"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="98"/>
-      <c r="C61" s="94"/>
+      <c r="B61" s="95"/>
+      <c r="C61" s="124"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4484,8 +4484,8 @@
       <c r="W61" s="30"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="98"/>
-      <c r="C62" s="94"/>
+      <c r="B62" s="95"/>
+      <c r="C62" s="124"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4523,8 +4523,8 @@
       <c r="W62" s="30"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="98"/>
-      <c r="C63" s="94"/>
+      <c r="B63" s="95"/>
+      <c r="C63" s="124"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4562,8 +4562,8 @@
       <c r="W63" s="30"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="98"/>
-      <c r="C64" s="94"/>
+      <c r="B64" s="95"/>
+      <c r="C64" s="124"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -4601,8 +4601,8 @@
       <c r="W64" s="30"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="98"/>
-      <c r="C65" s="94"/>
+      <c r="B65" s="95"/>
+      <c r="C65" s="124"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -4640,8 +4640,8 @@
       <c r="W65" s="30"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="98"/>
-      <c r="C66" s="94"/>
+      <c r="B66" s="95"/>
+      <c r="C66" s="124"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -4679,8 +4679,8 @@
       <c r="W66" s="30"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="98"/>
-      <c r="C67" s="94"/>
+      <c r="B67" s="95"/>
+      <c r="C67" s="124"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -4718,8 +4718,8 @@
       <c r="W67" s="30"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="98"/>
-      <c r="C68" s="94"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="124"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -4757,8 +4757,8 @@
       <c r="W68" s="30"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="98"/>
-      <c r="C69" s="94"/>
+      <c r="B69" s="95"/>
+      <c r="C69" s="124"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -4796,8 +4796,8 @@
       <c r="W69" s="30"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="98"/>
-      <c r="C70" s="94"/>
+      <c r="B70" s="95"/>
+      <c r="C70" s="124"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -4835,8 +4835,8 @@
       <c r="W70" s="30"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="98"/>
-      <c r="C71" s="94"/>
+      <c r="B71" s="95"/>
+      <c r="C71" s="124"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -4874,8 +4874,8 @@
       <c r="W71" s="30"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="98"/>
-      <c r="C72" s="94"/>
+      <c r="B72" s="95"/>
+      <c r="C72" s="124"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -4913,8 +4913,8 @@
       <c r="W72" s="30"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="98"/>
-      <c r="C73" s="94"/>
+      <c r="B73" s="95"/>
+      <c r="C73" s="124"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -4952,8 +4952,8 @@
       <c r="W73" s="30"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="98"/>
-      <c r="C74" s="94"/>
+      <c r="B74" s="95"/>
+      <c r="C74" s="124"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -4991,8 +4991,8 @@
       <c r="W74" s="30"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="98"/>
-      <c r="C75" s="94"/>
+      <c r="B75" s="95"/>
+      <c r="C75" s="124"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5030,8 +5030,8 @@
       <c r="W75" s="30"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="98"/>
-      <c r="C76" s="94"/>
+      <c r="B76" s="95"/>
+      <c r="C76" s="124"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5069,8 +5069,8 @@
       <c r="W76" s="30"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="98"/>
-      <c r="C77" s="94"/>
+      <c r="B77" s="95"/>
+      <c r="C77" s="124"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5108,8 +5108,8 @@
       <c r="W77" s="30"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="98"/>
-      <c r="C78" s="94"/>
+      <c r="B78" s="95"/>
+      <c r="C78" s="124"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5147,8 +5147,8 @@
       <c r="W78" s="30"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="98"/>
-      <c r="C79" s="94"/>
+      <c r="B79" s="95"/>
+      <c r="C79" s="124"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5186,8 +5186,8 @@
       <c r="W79" s="30"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="98"/>
-      <c r="C80" s="94"/>
+      <c r="B80" s="95"/>
+      <c r="C80" s="124"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5225,8 +5225,8 @@
       <c r="W80" s="30"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="98"/>
-      <c r="C81" s="94"/>
+      <c r="B81" s="95"/>
+      <c r="C81" s="124"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5264,8 +5264,8 @@
       <c r="W81" s="30"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="98"/>
-      <c r="C82" s="94"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="124"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5303,8 +5303,8 @@
       <c r="W82" s="30"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="98"/>
-      <c r="C83" s="94"/>
+      <c r="B83" s="95"/>
+      <c r="C83" s="124"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5366,8 +5366,8 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="98"/>
-      <c r="C84" s="99" t="s">
+      <c r="B84" s="95"/>
+      <c r="C84" s="96" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5407,8 +5407,8 @@
       <c r="W84" s="30"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="98"/>
-      <c r="C85" s="99"/>
+      <c r="B85" s="95"/>
+      <c r="C85" s="96"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -5446,8 +5446,8 @@
       <c r="W85" s="30"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="98"/>
-      <c r="C86" s="99"/>
+      <c r="B86" s="95"/>
+      <c r="C86" s="96"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -5485,8 +5485,8 @@
       <c r="W86" s="30"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="98"/>
-      <c r="C87" s="99"/>
+      <c r="B87" s="95"/>
+      <c r="C87" s="96"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -5524,8 +5524,8 @@
       <c r="W87" s="30"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="98"/>
-      <c r="C88" s="99"/>
+      <c r="B88" s="95"/>
+      <c r="C88" s="96"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -5563,8 +5563,8 @@
       <c r="W88" s="58"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="98"/>
-      <c r="C89" s="99"/>
+      <c r="B89" s="95"/>
+      <c r="C89" s="96"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -5602,7 +5602,7 @@
       <c r="W89" s="30"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="98"/>
+      <c r="B90" s="95"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -5665,7 +5665,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="98"/>
+      <c r="B91" s="95"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -5704,7 +5704,7 @@
       <c r="W91" s="30"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="117" t="s">
+      <c r="B92" s="114" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -5716,7 +5716,7 @@
         <v>16</v>
       </c>
       <c r="G92" s="12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H92" s="12">
         <v>0.75</v>
@@ -5745,7 +5745,7 @@
       <c r="W92" s="67"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="118"/>
+      <c r="B93" s="115"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="G93" s="36">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H93" s="36">
         <v>1.5</v>
@@ -5780,8 +5780,8 @@
       <c r="W93" s="66"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="119"/>
-      <c r="C94" s="96" t="s">
+      <c r="B94" s="116"/>
+      <c r="C94" s="126" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -5792,7 +5792,7 @@
         <v>16</v>
       </c>
       <c r="G94" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H94" s="4">
         <v>1</v>
@@ -5821,8 +5821,8 @@
       <c r="W94" s="58"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="120"/>
-      <c r="C95" s="96"/>
+      <c r="B95" s="117"/>
+      <c r="C95" s="126"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>16</v>
       </c>
       <c r="G95" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H95" s="4">
         <v>0.5</v>
@@ -5860,7 +5860,7 @@
       <c r="W95" s="58"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="121"/>
+      <c r="B96" s="118"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>16</v>
       </c>
       <c r="G96" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" s="11">
         <v>1</v>
@@ -5899,7 +5899,7 @@
       <c r="W96" s="64"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="97" t="s">
+      <c r="B97" s="94" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -5940,7 +5940,7 @@
       <c r="W97" s="27"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="120"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="W98" s="30"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="120"/>
+      <c r="B99" s="117"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6018,7 +6018,7 @@
       <c r="W99" s="30"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="120"/>
+      <c r="B100" s="117"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6057,7 +6057,7 @@
       <c r="W100" s="30"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="120"/>
+      <c r="B101" s="117"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6096,7 +6096,7 @@
       <c r="W101" s="30"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="121"/>
+      <c r="B102" s="118"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6135,14 +6135,14 @@
       <c r="W102" s="34"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="112" t="s">
+      <c r="B103" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="113"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="113"/>
-      <c r="F103" s="113"/>
-      <c r="G103" s="113"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
+      <c r="E103" s="110"/>
+      <c r="F103" s="110"/>
+      <c r="G103" s="110"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
@@ -6217,22 +6217,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="103" t="s">
+      <c r="J104" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="104"/>
-      <c r="L104" s="104"/>
-      <c r="M104" s="104"/>
-      <c r="N104" s="104"/>
-      <c r="O104" s="104"/>
-      <c r="P104" s="104"/>
-      <c r="Q104" s="104"/>
-      <c r="R104" s="104"/>
-      <c r="S104" s="104"/>
-      <c r="T104" s="104"/>
-      <c r="U104" s="104"/>
-      <c r="V104" s="104"/>
-      <c r="W104" s="105"/>
+      <c r="K104" s="101"/>
+      <c r="L104" s="101"/>
+      <c r="M104" s="101"/>
+      <c r="N104" s="101"/>
+      <c r="O104" s="101"/>
+      <c r="P104" s="101"/>
+      <c r="Q104" s="101"/>
+      <c r="R104" s="101"/>
+      <c r="S104" s="101"/>
+      <c r="T104" s="101"/>
+      <c r="U104" s="101"/>
+      <c r="V104" s="101"/>
+      <c r="W104" s="102"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="76" t="s">
@@ -6276,10 +6276,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="89" t="s">
+      <c r="H106" s="119" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="92"/>
+      <c r="I106" s="122"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6379,27 +6379,27 @@
         <v>15</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="89" t="s">
+      <c r="H108" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="90"/>
-      <c r="J108" s="89">
+      <c r="I108" s="120"/>
+      <c r="J108" s="119">
         <f>H103-I103</f>
         <v>42.32</v>
       </c>
-      <c r="K108" s="90"/>
-      <c r="L108" s="90"/>
-      <c r="M108" s="90"/>
-      <c r="N108" s="90"/>
-      <c r="O108" s="90"/>
-      <c r="P108" s="90"/>
-      <c r="Q108" s="90"/>
-      <c r="R108" s="90"/>
-      <c r="S108" s="90"/>
-      <c r="T108" s="90"/>
-      <c r="U108" s="90"/>
-      <c r="V108" s="90"/>
-      <c r="W108" s="91"/>
+      <c r="K108" s="120"/>
+      <c r="L108" s="120"/>
+      <c r="M108" s="120"/>
+      <c r="N108" s="120"/>
+      <c r="O108" s="120"/>
+      <c r="P108" s="120"/>
+      <c r="Q108" s="120"/>
+      <c r="R108" s="120"/>
+      <c r="S108" s="120"/>
+      <c r="T108" s="120"/>
+      <c r="U108" s="120"/>
+      <c r="V108" s="120"/>
+      <c r="W108" s="121"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6479,6 +6479,12 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6491,12 +6497,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -422,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1360,6 +1360,30 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1435,28 +1459,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1477,7 +1480,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1576,46 +1579,46 @@
                   <c:v>43.47</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.32</c:v>
+                  <c:v>36.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42.32</c:v>
+                  <c:v>35.82</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1704,7 +1707,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,8 +2017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,22 +2047,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="97" t="s">
+      <c r="J2" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="99"/>
+      <c r="K2" s="106"/>
+      <c r="L2" s="106"/>
+      <c r="M2" s="106"/>
+      <c r="N2" s="106"/>
+      <c r="O2" s="106"/>
+      <c r="P2" s="106"/>
+      <c r="Q2" s="106"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="106"/>
+      <c r="T2" s="106"/>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="107"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
@@ -2130,7 +2133,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="111" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="89" t="s">
@@ -2197,7 +2200,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="104"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2260,7 +2263,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="104"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2299,8 +2302,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="104"/>
-      <c r="C7" s="112" t="s">
+      <c r="B7" s="112"/>
+      <c r="C7" s="120" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2340,8 +2343,8 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="104"/>
-      <c r="C8" s="112"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="120"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2379,8 +2382,8 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="108"/>
-      <c r="C9" s="113"/>
+      <c r="B9" s="116"/>
+      <c r="C9" s="121"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2418,7 +2421,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="105" t="s">
+      <c r="B10" s="113" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2459,7 +2462,7 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="106"/>
+      <c r="B11" s="114"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2498,7 +2501,7 @@
       <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="106"/>
+      <c r="B12" s="114"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2537,7 +2540,7 @@
       <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="107"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2576,7 +2579,7 @@
       <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="107"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2615,7 +2618,7 @@
       <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="107"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2654,7 +2657,7 @@
       <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="111" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2673,7 +2676,7 @@
       </c>
       <c r="I16" s="57">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>8.75</v>
       </c>
       <c r="J16" s="70">
         <v>0</v>
@@ -2682,22 +2685,44 @@
         <v>2</v>
       </c>
       <c r="L16" s="85">
-        <v>1</v>
-      </c>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="27"/>
+        <v>6.5</v>
+      </c>
+      <c r="M16" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="87">
+        <v>0</v>
+      </c>
+      <c r="O16" s="87">
+        <v>0</v>
+      </c>
+      <c r="P16" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="87">
+        <v>0</v>
+      </c>
+      <c r="R16" s="87">
+        <v>0</v>
+      </c>
+      <c r="S16" s="87">
+        <v>0</v>
+      </c>
+      <c r="T16" s="87">
+        <v>0</v>
+      </c>
+      <c r="U16" s="87">
+        <v>0</v>
+      </c>
+      <c r="V16" s="87">
+        <v>0</v>
+      </c>
+      <c r="W16" s="88">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="104"/>
+      <c r="B17" s="112"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2736,8 +2761,8 @@
       <c r="W17" s="30"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="104"/>
-      <c r="C18" s="111" t="s">
+      <c r="B18" s="112"/>
+      <c r="C18" s="119" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2777,8 +2802,8 @@
       <c r="W18" s="30"/>
     </row>
     <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="104"/>
-      <c r="C19" s="111"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="119"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2816,8 +2841,8 @@
       <c r="W19" s="30"/>
     </row>
     <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="104"/>
-      <c r="C20" s="125" t="s">
+      <c r="B20" s="112"/>
+      <c r="C20" s="100" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -2857,8 +2882,8 @@
       <c r="W20" s="30"/>
     </row>
     <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="104"/>
-      <c r="C21" s="125"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -2896,8 +2921,8 @@
       <c r="W21" s="30"/>
     </row>
     <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="104"/>
-      <c r="C22" s="125"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="100"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -2935,8 +2960,8 @@
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="104"/>
-      <c r="C23" s="125"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="100"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -2974,8 +2999,8 @@
       <c r="W23" s="30"/>
     </row>
     <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="104"/>
-      <c r="C24" s="125"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="100"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3013,8 +3038,8 @@
       <c r="W24" s="30"/>
     </row>
     <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="104"/>
-      <c r="C25" s="125"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="100"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3052,8 +3077,8 @@
       <c r="W25" s="30"/>
     </row>
     <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="104"/>
-      <c r="C26" s="125"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3091,8 +3116,8 @@
       <c r="W26" s="30"/>
     </row>
     <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="104"/>
-      <c r="C27" s="125"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="100"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3130,8 +3155,8 @@
       <c r="W27" s="30"/>
     </row>
     <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="104"/>
-      <c r="C28" s="125"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="100"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3169,8 +3194,8 @@
       <c r="W28" s="30"/>
     </row>
     <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="104"/>
-      <c r="C29" s="125"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="100"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3208,8 +3233,8 @@
       <c r="W29" s="30"/>
     </row>
     <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="104"/>
-      <c r="C30" s="125"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="100"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3247,8 +3272,8 @@
       <c r="W30" s="30"/>
     </row>
     <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="104"/>
-      <c r="C31" s="125"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="100"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3286,8 +3311,8 @@
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="104"/>
-      <c r="C32" s="125"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="100"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3325,8 +3350,8 @@
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="104"/>
-      <c r="C33" s="125"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="100"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3364,8 +3389,8 @@
       <c r="W33" s="30"/>
     </row>
     <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="104"/>
-      <c r="C34" s="125"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="100"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3403,8 +3428,8 @@
       <c r="W34" s="30"/>
     </row>
     <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="104"/>
-      <c r="C35" s="125"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="100"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3442,8 +3467,8 @@
       <c r="W35" s="30"/>
     </row>
     <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="104"/>
-      <c r="C36" s="125"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="100"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3481,7 +3506,7 @@
       <c r="W36" s="30"/>
     </row>
     <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="104"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3520,7 +3545,7 @@
       <c r="W37" s="30"/>
     </row>
     <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="104"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3559,7 +3584,7 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="104"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3576,7 +3601,7 @@
       </c>
       <c r="I39" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J39" s="71">
         <v>0</v>
@@ -3584,21 +3609,45 @@
       <c r="K39" s="71">
         <v>0</v>
       </c>
-      <c r="L39" s="28"/>
-      <c r="M39" s="28"/>
-      <c r="N39" s="28"/>
-      <c r="O39" s="28"/>
-      <c r="P39" s="29"/>
-      <c r="Q39" s="29"/>
-      <c r="R39" s="29"/>
-      <c r="S39" s="29"/>
-      <c r="T39" s="29"/>
-      <c r="U39" s="29"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="30"/>
+      <c r="L39" s="127">
+        <v>0.5</v>
+      </c>
+      <c r="M39" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="N39" s="48">
+        <v>0</v>
+      </c>
+      <c r="O39" s="48">
+        <v>0</v>
+      </c>
+      <c r="P39" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="48">
+        <v>0</v>
+      </c>
+      <c r="R39" s="48">
+        <v>0</v>
+      </c>
+      <c r="S39" s="48">
+        <v>0</v>
+      </c>
+      <c r="T39" s="48">
+        <v>0</v>
+      </c>
+      <c r="U39" s="48">
+        <v>0</v>
+      </c>
+      <c r="V39" s="48">
+        <v>0</v>
+      </c>
+      <c r="W39" s="86">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="104"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3623,7 +3672,9 @@
       <c r="K40" s="71">
         <v>0</v>
       </c>
-      <c r="L40" s="28"/>
+      <c r="L40" s="71">
+        <v>0</v>
+      </c>
       <c r="M40" s="28"/>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
@@ -3637,10 +3688,10 @@
       <c r="W40" s="30"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="123" t="s">
+      <c r="C41" s="98" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3704,8 +3755,8 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="95"/>
-      <c r="C42" s="124"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="99"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -3729,7 +3780,9 @@
       <c r="K42" s="71">
         <v>0</v>
       </c>
-      <c r="L42" s="28"/>
+      <c r="L42" s="71">
+        <v>0</v>
+      </c>
       <c r="M42" s="28"/>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
@@ -3743,8 +3796,8 @@
       <c r="W42" s="30"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="95"/>
-      <c r="C43" s="124"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -3768,7 +3821,9 @@
       <c r="K43" s="71">
         <v>0</v>
       </c>
-      <c r="L43" s="28"/>
+      <c r="L43" s="71">
+        <v>0</v>
+      </c>
       <c r="M43" s="28"/>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
@@ -3782,8 +3837,8 @@
       <c r="W43" s="30"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="95"/>
-      <c r="C44" s="124"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -3807,7 +3862,9 @@
       <c r="K44" s="71">
         <v>0</v>
       </c>
-      <c r="L44" s="28"/>
+      <c r="L44" s="71">
+        <v>0</v>
+      </c>
       <c r="M44" s="28"/>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
@@ -3821,8 +3878,8 @@
       <c r="W44" s="30"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="95"/>
-      <c r="C45" s="124"/>
+      <c r="B45" s="103"/>
+      <c r="C45" s="99"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -3846,7 +3903,9 @@
       <c r="K45" s="71">
         <v>0</v>
       </c>
-      <c r="L45" s="28"/>
+      <c r="L45" s="71">
+        <v>0</v>
+      </c>
       <c r="M45" s="28"/>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
@@ -3860,8 +3919,8 @@
       <c r="W45" s="30"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="95"/>
-      <c r="C46" s="124"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="99"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -3885,7 +3944,9 @@
       <c r="K46" s="71">
         <v>0</v>
       </c>
-      <c r="L46" s="28"/>
+      <c r="L46" s="71">
+        <v>0</v>
+      </c>
       <c r="M46" s="28"/>
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
@@ -3899,8 +3960,8 @@
       <c r="W46" s="30"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="95"/>
-      <c r="C47" s="124"/>
+      <c r="B47" s="103"/>
+      <c r="C47" s="99"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -3924,7 +3985,9 @@
       <c r="K47" s="71">
         <v>0</v>
       </c>
-      <c r="L47" s="28"/>
+      <c r="L47" s="71">
+        <v>0</v>
+      </c>
       <c r="M47" s="28"/>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
@@ -3938,8 +4001,8 @@
       <c r="W47" s="30"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="95"/>
-      <c r="C48" s="124"/>
+      <c r="B48" s="103"/>
+      <c r="C48" s="99"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -3963,7 +4026,9 @@
       <c r="K48" s="71">
         <v>0</v>
       </c>
-      <c r="L48" s="28"/>
+      <c r="L48" s="71">
+        <v>0</v>
+      </c>
       <c r="M48" s="28"/>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
@@ -3977,8 +4042,8 @@
       <c r="W48" s="30"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="95"/>
-      <c r="C49" s="124"/>
+      <c r="B49" s="103"/>
+      <c r="C49" s="99"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4002,7 +4067,9 @@
       <c r="K49" s="71">
         <v>0</v>
       </c>
-      <c r="L49" s="28"/>
+      <c r="L49" s="71">
+        <v>0</v>
+      </c>
       <c r="M49" s="28"/>
       <c r="N49" s="28"/>
       <c r="O49" s="28"/>
@@ -4016,8 +4083,8 @@
       <c r="W49" s="30"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="95"/>
-      <c r="C50" s="124"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="99"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4041,7 +4108,9 @@
       <c r="K50" s="71">
         <v>0</v>
       </c>
-      <c r="L50" s="28"/>
+      <c r="L50" s="71">
+        <v>0</v>
+      </c>
       <c r="M50" s="28"/>
       <c r="N50" s="28"/>
       <c r="O50" s="28"/>
@@ -4055,8 +4124,8 @@
       <c r="W50" s="30"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="95"/>
-      <c r="C51" s="124"/>
+      <c r="B51" s="103"/>
+      <c r="C51" s="99"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4080,7 +4149,9 @@
       <c r="K51" s="71">
         <v>0</v>
       </c>
-      <c r="L51" s="28"/>
+      <c r="L51" s="71">
+        <v>0</v>
+      </c>
       <c r="M51" s="28"/>
       <c r="N51" s="28"/>
       <c r="O51" s="28"/>
@@ -4094,8 +4165,8 @@
       <c r="W51" s="30"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="95"/>
-      <c r="C52" s="124"/>
+      <c r="B52" s="103"/>
+      <c r="C52" s="99"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4119,7 +4190,9 @@
       <c r="K52" s="71">
         <v>0</v>
       </c>
-      <c r="L52" s="28"/>
+      <c r="L52" s="71">
+        <v>0</v>
+      </c>
       <c r="M52" s="28"/>
       <c r="N52" s="28"/>
       <c r="O52" s="28"/>
@@ -4133,8 +4206,8 @@
       <c r="W52" s="30"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="95"/>
-      <c r="C53" s="124"/>
+      <c r="B53" s="103"/>
+      <c r="C53" s="99"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4158,7 +4231,9 @@
       <c r="K53" s="71">
         <v>0</v>
       </c>
-      <c r="L53" s="28"/>
+      <c r="L53" s="71">
+        <v>0</v>
+      </c>
       <c r="M53" s="28"/>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
@@ -4172,8 +4247,8 @@
       <c r="W53" s="30"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="95"/>
-      <c r="C54" s="124"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="99"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4197,7 +4272,9 @@
       <c r="K54" s="71">
         <v>0</v>
       </c>
-      <c r="L54" s="28"/>
+      <c r="L54" s="71">
+        <v>0</v>
+      </c>
       <c r="M54" s="28"/>
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
@@ -4211,8 +4288,8 @@
       <c r="W54" s="30"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="95"/>
-      <c r="C55" s="124"/>
+      <c r="B55" s="103"/>
+      <c r="C55" s="99"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4236,7 +4313,9 @@
       <c r="K55" s="71">
         <v>0</v>
       </c>
-      <c r="L55" s="28"/>
+      <c r="L55" s="71">
+        <v>0</v>
+      </c>
       <c r="M55" s="28"/>
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
@@ -4250,8 +4329,8 @@
       <c r="W55" s="30"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="95"/>
-      <c r="C56" s="124"/>
+      <c r="B56" s="103"/>
+      <c r="C56" s="99"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4275,7 +4354,9 @@
       <c r="K56" s="71">
         <v>0</v>
       </c>
-      <c r="L56" s="28"/>
+      <c r="L56" s="71">
+        <v>0</v>
+      </c>
       <c r="M56" s="28"/>
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
@@ -4289,8 +4370,8 @@
       <c r="W56" s="30"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="95"/>
-      <c r="C57" s="124"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="99"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4314,7 +4395,9 @@
       <c r="K57" s="71">
         <v>0</v>
       </c>
-      <c r="L57" s="28"/>
+      <c r="L57" s="71">
+        <v>0</v>
+      </c>
       <c r="M57" s="28"/>
       <c r="N57" s="28"/>
       <c r="O57" s="28"/>
@@ -4328,8 +4411,8 @@
       <c r="W57" s="30"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="95"/>
-      <c r="C58" s="124"/>
+      <c r="B58" s="103"/>
+      <c r="C58" s="99"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4353,7 +4436,9 @@
       <c r="K58" s="71">
         <v>0</v>
       </c>
-      <c r="L58" s="28"/>
+      <c r="L58" s="71">
+        <v>0</v>
+      </c>
       <c r="M58" s="28"/>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
@@ -4367,8 +4452,8 @@
       <c r="W58" s="30"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="95"/>
-      <c r="C59" s="124"/>
+      <c r="B59" s="103"/>
+      <c r="C59" s="99"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4392,7 +4477,9 @@
       <c r="K59" s="71">
         <v>0</v>
       </c>
-      <c r="L59" s="28"/>
+      <c r="L59" s="71">
+        <v>0</v>
+      </c>
       <c r="M59" s="28"/>
       <c r="N59" s="28"/>
       <c r="O59" s="28"/>
@@ -4406,8 +4493,8 @@
       <c r="W59" s="30"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="95"/>
-      <c r="C60" s="124"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="99"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4431,7 +4518,9 @@
       <c r="K60" s="71">
         <v>0</v>
       </c>
-      <c r="L60" s="28"/>
+      <c r="L60" s="71">
+        <v>0</v>
+      </c>
       <c r="M60" s="28"/>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
@@ -4445,8 +4534,8 @@
       <c r="W60" s="30"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="95"/>
-      <c r="C61" s="124"/>
+      <c r="B61" s="103"/>
+      <c r="C61" s="99"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4470,7 +4559,9 @@
       <c r="K61" s="71">
         <v>0</v>
       </c>
-      <c r="L61" s="28"/>
+      <c r="L61" s="71">
+        <v>0</v>
+      </c>
       <c r="M61" s="28"/>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
@@ -4484,8 +4575,8 @@
       <c r="W61" s="30"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="95"/>
-      <c r="C62" s="124"/>
+      <c r="B62" s="103"/>
+      <c r="C62" s="99"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4509,7 +4600,9 @@
       <c r="K62" s="71">
         <v>0</v>
       </c>
-      <c r="L62" s="28"/>
+      <c r="L62" s="71">
+        <v>0</v>
+      </c>
       <c r="M62" s="28"/>
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
@@ -4523,8 +4616,8 @@
       <c r="W62" s="30"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="95"/>
-      <c r="C63" s="124"/>
+      <c r="B63" s="103"/>
+      <c r="C63" s="99"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4548,7 +4641,9 @@
       <c r="K63" s="71">
         <v>0</v>
       </c>
-      <c r="L63" s="28"/>
+      <c r="L63" s="71">
+        <v>0</v>
+      </c>
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
@@ -4562,8 +4657,8 @@
       <c r="W63" s="30"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="95"/>
-      <c r="C64" s="124"/>
+      <c r="B64" s="103"/>
+      <c r="C64" s="99"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -4587,7 +4682,9 @@
       <c r="K64" s="71">
         <v>0</v>
       </c>
-      <c r="L64" s="28"/>
+      <c r="L64" s="71">
+        <v>0</v>
+      </c>
       <c r="M64" s="28"/>
       <c r="N64" s="28"/>
       <c r="O64" s="28"/>
@@ -4601,8 +4698,8 @@
       <c r="W64" s="30"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="95"/>
-      <c r="C65" s="124"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="99"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -4626,7 +4723,9 @@
       <c r="K65" s="71">
         <v>0</v>
       </c>
-      <c r="L65" s="28"/>
+      <c r="L65" s="71">
+        <v>0</v>
+      </c>
       <c r="M65" s="28"/>
       <c r="N65" s="28"/>
       <c r="O65" s="28"/>
@@ -4640,8 +4739,8 @@
       <c r="W65" s="30"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="95"/>
-      <c r="C66" s="124"/>
+      <c r="B66" s="103"/>
+      <c r="C66" s="99"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -4665,7 +4764,9 @@
       <c r="K66" s="71">
         <v>0</v>
       </c>
-      <c r="L66" s="28"/>
+      <c r="L66" s="71">
+        <v>0</v>
+      </c>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
@@ -4679,8 +4780,8 @@
       <c r="W66" s="30"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="95"/>
-      <c r="C67" s="124"/>
+      <c r="B67" s="103"/>
+      <c r="C67" s="99"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -4704,7 +4805,9 @@
       <c r="K67" s="71">
         <v>0</v>
       </c>
-      <c r="L67" s="28"/>
+      <c r="L67" s="71">
+        <v>0</v>
+      </c>
       <c r="M67" s="28"/>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
@@ -4718,8 +4821,8 @@
       <c r="W67" s="30"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="95"/>
-      <c r="C68" s="124"/>
+      <c r="B68" s="103"/>
+      <c r="C68" s="99"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -4743,7 +4846,9 @@
       <c r="K68" s="71">
         <v>0</v>
       </c>
-      <c r="L68" s="28"/>
+      <c r="L68" s="71">
+        <v>0</v>
+      </c>
       <c r="M68" s="28"/>
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
@@ -4757,8 +4862,8 @@
       <c r="W68" s="30"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="95"/>
-      <c r="C69" s="124"/>
+      <c r="B69" s="103"/>
+      <c r="C69" s="99"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -4782,7 +4887,9 @@
       <c r="K69" s="71">
         <v>0</v>
       </c>
-      <c r="L69" s="28"/>
+      <c r="L69" s="71">
+        <v>0</v>
+      </c>
       <c r="M69" s="28"/>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
@@ -4796,8 +4903,8 @@
       <c r="W69" s="30"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="95"/>
-      <c r="C70" s="124"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="99"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -4821,7 +4928,9 @@
       <c r="K70" s="71">
         <v>0</v>
       </c>
-      <c r="L70" s="28"/>
+      <c r="L70" s="71">
+        <v>0</v>
+      </c>
       <c r="M70" s="28"/>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
@@ -4835,8 +4944,8 @@
       <c r="W70" s="30"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="95"/>
-      <c r="C71" s="124"/>
+      <c r="B71" s="103"/>
+      <c r="C71" s="99"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -4860,7 +4969,9 @@
       <c r="K71" s="71">
         <v>0</v>
       </c>
-      <c r="L71" s="28"/>
+      <c r="L71" s="71">
+        <v>0</v>
+      </c>
       <c r="M71" s="28"/>
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
@@ -4874,8 +4985,8 @@
       <c r="W71" s="30"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="95"/>
-      <c r="C72" s="124"/>
+      <c r="B72" s="103"/>
+      <c r="C72" s="99"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -4899,7 +5010,9 @@
       <c r="K72" s="71">
         <v>0</v>
       </c>
-      <c r="L72" s="28"/>
+      <c r="L72" s="71">
+        <v>0</v>
+      </c>
       <c r="M72" s="28"/>
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
@@ -4913,8 +5026,8 @@
       <c r="W72" s="30"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="95"/>
-      <c r="C73" s="124"/>
+      <c r="B73" s="103"/>
+      <c r="C73" s="99"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -4938,7 +5051,9 @@
       <c r="K73" s="71">
         <v>0</v>
       </c>
-      <c r="L73" s="28"/>
+      <c r="L73" s="71">
+        <v>0</v>
+      </c>
       <c r="M73" s="28"/>
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
@@ -4952,8 +5067,8 @@
       <c r="W73" s="30"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="95"/>
-      <c r="C74" s="124"/>
+      <c r="B74" s="103"/>
+      <c r="C74" s="99"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -4977,7 +5092,9 @@
       <c r="K74" s="71">
         <v>0</v>
       </c>
-      <c r="L74" s="28"/>
+      <c r="L74" s="71">
+        <v>0</v>
+      </c>
       <c r="M74" s="28"/>
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
@@ -4991,8 +5108,8 @@
       <c r="W74" s="30"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="95"/>
-      <c r="C75" s="124"/>
+      <c r="B75" s="103"/>
+      <c r="C75" s="99"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5016,7 +5133,9 @@
       <c r="K75" s="71">
         <v>0</v>
       </c>
-      <c r="L75" s="28"/>
+      <c r="L75" s="71">
+        <v>0</v>
+      </c>
       <c r="M75" s="28"/>
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
@@ -5030,8 +5149,8 @@
       <c r="W75" s="30"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="95"/>
-      <c r="C76" s="124"/>
+      <c r="B76" s="103"/>
+      <c r="C76" s="99"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5055,7 +5174,9 @@
       <c r="K76" s="71">
         <v>0</v>
       </c>
-      <c r="L76" s="28"/>
+      <c r="L76" s="71">
+        <v>0</v>
+      </c>
       <c r="M76" s="28"/>
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
@@ -5069,8 +5190,8 @@
       <c r="W76" s="30"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="95"/>
-      <c r="C77" s="124"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="99"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5094,7 +5215,9 @@
       <c r="K77" s="71">
         <v>0</v>
       </c>
-      <c r="L77" s="28"/>
+      <c r="L77" s="71">
+        <v>0</v>
+      </c>
       <c r="M77" s="28"/>
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
@@ -5108,8 +5231,8 @@
       <c r="W77" s="30"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="95"/>
-      <c r="C78" s="124"/>
+      <c r="B78" s="103"/>
+      <c r="C78" s="99"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5133,7 +5256,9 @@
       <c r="K78" s="71">
         <v>0</v>
       </c>
-      <c r="L78" s="28"/>
+      <c r="L78" s="71">
+        <v>0</v>
+      </c>
       <c r="M78" s="28"/>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
@@ -5147,8 +5272,8 @@
       <c r="W78" s="30"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="95"/>
-      <c r="C79" s="124"/>
+      <c r="B79" s="103"/>
+      <c r="C79" s="99"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5172,7 +5297,9 @@
       <c r="K79" s="71">
         <v>0</v>
       </c>
-      <c r="L79" s="28"/>
+      <c r="L79" s="71">
+        <v>0</v>
+      </c>
       <c r="M79" s="28"/>
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
@@ -5186,8 +5313,8 @@
       <c r="W79" s="30"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="95"/>
-      <c r="C80" s="124"/>
+      <c r="B80" s="103"/>
+      <c r="C80" s="99"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5211,7 +5338,9 @@
       <c r="K80" s="71">
         <v>0</v>
       </c>
-      <c r="L80" s="28"/>
+      <c r="L80" s="71">
+        <v>0</v>
+      </c>
       <c r="M80" s="28"/>
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
@@ -5225,8 +5354,8 @@
       <c r="W80" s="30"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="95"/>
-      <c r="C81" s="124"/>
+      <c r="B81" s="103"/>
+      <c r="C81" s="99"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5250,7 +5379,9 @@
       <c r="K81" s="71">
         <v>0</v>
       </c>
-      <c r="L81" s="28"/>
+      <c r="L81" s="71">
+        <v>0</v>
+      </c>
       <c r="M81" s="28"/>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
@@ -5264,8 +5395,8 @@
       <c r="W81" s="30"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="95"/>
-      <c r="C82" s="124"/>
+      <c r="B82" s="103"/>
+      <c r="C82" s="99"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5289,7 +5420,9 @@
       <c r="K82" s="71">
         <v>0</v>
       </c>
-      <c r="L82" s="28"/>
+      <c r="L82" s="71">
+        <v>0</v>
+      </c>
       <c r="M82" s="28"/>
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
@@ -5303,8 +5436,8 @@
       <c r="W82" s="30"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="95"/>
-      <c r="C83" s="124"/>
+      <c r="B83" s="103"/>
+      <c r="C83" s="99"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5366,8 +5499,8 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="95"/>
-      <c r="C84" s="96" t="s">
+      <c r="B84" s="103"/>
+      <c r="C84" s="104" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5407,8 +5540,8 @@
       <c r="W84" s="30"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="95"/>
-      <c r="C85" s="96"/>
+      <c r="B85" s="103"/>
+      <c r="C85" s="104"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -5446,8 +5579,8 @@
       <c r="W85" s="30"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="95"/>
-      <c r="C86" s="96"/>
+      <c r="B86" s="103"/>
+      <c r="C86" s="104"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -5485,8 +5618,8 @@
       <c r="W86" s="30"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="95"/>
-      <c r="C87" s="96"/>
+      <c r="B87" s="103"/>
+      <c r="C87" s="104"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -5524,8 +5657,8 @@
       <c r="W87" s="30"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="95"/>
-      <c r="C88" s="96"/>
+      <c r="B88" s="103"/>
+      <c r="C88" s="104"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -5563,8 +5696,8 @@
       <c r="W88" s="58"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="95"/>
-      <c r="C89" s="96"/>
+      <c r="B89" s="103"/>
+      <c r="C89" s="104"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -5602,7 +5735,7 @@
       <c r="W89" s="30"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="95"/>
+      <c r="B90" s="103"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -5665,7 +5798,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="95"/>
+      <c r="B91" s="103"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -5704,7 +5837,7 @@
       <c r="W91" s="30"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="114" t="s">
+      <c r="B92" s="122" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -5745,7 +5878,7 @@
       <c r="W92" s="67"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="115"/>
+      <c r="B93" s="123"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -5780,8 +5913,8 @@
       <c r="W93" s="66"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="116"/>
-      <c r="C94" s="126" t="s">
+      <c r="B94" s="124"/>
+      <c r="C94" s="101" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -5821,8 +5954,8 @@
       <c r="W94" s="58"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="117"/>
-      <c r="C95" s="126"/>
+      <c r="B95" s="125"/>
+      <c r="C95" s="101"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -5860,7 +5993,7 @@
       <c r="W95" s="58"/>
     </row>
     <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="118"/>
+      <c r="B96" s="126"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -5899,7 +6032,7 @@
       <c r="W96" s="64"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="94" t="s">
+      <c r="B97" s="102" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -5940,7 +6073,7 @@
       <c r="W97" s="27"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="117"/>
+      <c r="B98" s="125"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -5979,7 +6112,7 @@
       <c r="W98" s="30"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="117"/>
+      <c r="B99" s="125"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6018,7 +6151,7 @@
       <c r="W99" s="30"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="117"/>
+      <c r="B100" s="125"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6057,7 +6190,7 @@
       <c r="W100" s="30"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="117"/>
+      <c r="B101" s="125"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6096,7 +6229,7 @@
       <c r="W101" s="30"/>
     </row>
     <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="118"/>
+      <c r="B102" s="126"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6135,21 +6268,21 @@
       <c r="W102" s="34"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="109" t="s">
+      <c r="B103" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="110"/>
-      <c r="D103" s="110"/>
-      <c r="E103" s="110"/>
-      <c r="F103" s="110"/>
-      <c r="G103" s="110"/>
+      <c r="C103" s="118"/>
+      <c r="D103" s="118"/>
+      <c r="E103" s="118"/>
+      <c r="F103" s="118"/>
+      <c r="G103" s="118"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>6.3999999999999995</v>
+        <v>12.9</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -6161,11 +6294,11 @@
       </c>
       <c r="L103" s="17">
         <f>SUM(L4:L102)</f>
-        <v>1.1499999999999999</v>
+        <v>7.15</v>
       </c>
       <c r="M103" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="N103" s="17">
         <f t="shared" si="4"/>
@@ -6217,22 +6350,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="100" t="s">
+      <c r="J104" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="101"/>
-      <c r="L104" s="101"/>
-      <c r="M104" s="101"/>
-      <c r="N104" s="101"/>
-      <c r="O104" s="101"/>
-      <c r="P104" s="101"/>
-      <c r="Q104" s="101"/>
-      <c r="R104" s="101"/>
-      <c r="S104" s="101"/>
-      <c r="T104" s="101"/>
-      <c r="U104" s="101"/>
-      <c r="V104" s="101"/>
-      <c r="W104" s="102"/>
+      <c r="K104" s="109"/>
+      <c r="L104" s="109"/>
+      <c r="M104" s="109"/>
+      <c r="N104" s="109"/>
+      <c r="O104" s="109"/>
+      <c r="P104" s="109"/>
+      <c r="Q104" s="109"/>
+      <c r="R104" s="109"/>
+      <c r="S104" s="109"/>
+      <c r="T104" s="109"/>
+      <c r="U104" s="109"/>
+      <c r="V104" s="109"/>
+      <c r="W104" s="110"/>
     </row>
     <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="76" t="s">
@@ -6276,10 +6409,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="119" t="s">
+      <c r="H106" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="122"/>
+      <c r="I106" s="97"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6290,51 +6423,51 @@
       </c>
       <c r="L106" s="10">
         <f>K106-L103</f>
-        <v>42.32</v>
+        <v>36.32</v>
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="N106" s="10">
         <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>42.32</v>
+        <v>35.82</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6371,35 +6504,35 @@
         <v>16.75</v>
       </c>
       <c r="D108" s="5">
-        <f>SUM(I41:I83,I37:I39)</f>
-        <v>1.75</v>
+        <f>SUM(I41:I83,I37:I39,I16)</f>
+        <v>11.25</v>
       </c>
       <c r="E108" s="5">
         <f>SUM(C108,-D108)</f>
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="119" t="s">
+      <c r="H108" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="120"/>
-      <c r="J108" s="119">
+      <c r="I108" s="95"/>
+      <c r="J108" s="94">
         <f>H103-I103</f>
-        <v>42.32</v>
-      </c>
-      <c r="K108" s="120"/>
-      <c r="L108" s="120"/>
-      <c r="M108" s="120"/>
-      <c r="N108" s="120"/>
-      <c r="O108" s="120"/>
-      <c r="P108" s="120"/>
-      <c r="Q108" s="120"/>
-      <c r="R108" s="120"/>
-      <c r="S108" s="120"/>
-      <c r="T108" s="120"/>
-      <c r="U108" s="120"/>
-      <c r="V108" s="120"/>
-      <c r="W108" s="121"/>
+        <v>35.82</v>
+      </c>
+      <c r="K108" s="95"/>
+      <c r="L108" s="95"/>
+      <c r="M108" s="95"/>
+      <c r="N108" s="95"/>
+      <c r="O108" s="95"/>
+      <c r="P108" s="95"/>
+      <c r="Q108" s="95"/>
+      <c r="R108" s="95"/>
+      <c r="S108" s="95"/>
+      <c r="T108" s="95"/>
+      <c r="U108" s="95"/>
+      <c r="V108" s="95"/>
+      <c r="W108" s="96"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
@@ -6479,12 +6612,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6497,6 +6624,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1087,7 +1093,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1360,6 +1366,84 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1384,82 +1468,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1582,37 +1597,37 @@
                   <c:v>36.32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.82</c:v>
+                  <c:v>32.326999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1672,7 +1687,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1804,6 +1818,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1839,6 +1870,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2017,28 +2065,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98:M100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
@@ -2046,25 +2094,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="105" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="107"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="99"/>
+      <c r="W2" s="100"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2132,8 +2180,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="111" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="104" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="89" t="s">
@@ -2199,8 +2247,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="105"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2262,8 +2310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="112"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="105"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2280,7 +2328,7 @@
       </c>
       <c r="I6" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="J6" s="71">
         <v>0</v>
@@ -2288,8 +2336,12 @@
       <c r="K6" s="71">
         <v>0</v>
       </c>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="L6" s="71">
+        <v>0</v>
+      </c>
+      <c r="M6" s="48">
+        <v>0.96</v>
+      </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
@@ -2301,9 +2353,9 @@
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="112"/>
-      <c r="C7" s="120" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="105"/>
+      <c r="C7" s="113" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2329,8 +2381,12 @@
       <c r="K7" s="71">
         <v>0</v>
       </c>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
+      <c r="L7" s="71">
+        <v>0</v>
+      </c>
+      <c r="M7" s="71">
+        <v>0</v>
+      </c>
       <c r="N7" s="28"/>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
@@ -2342,9 +2398,9 @@
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="112"/>
-      <c r="C8" s="120"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="105"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2368,8 +2424,12 @@
       <c r="K8" s="71">
         <v>0</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="L8" s="71">
+        <v>0</v>
+      </c>
+      <c r="M8" s="71">
+        <v>0</v>
+      </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
@@ -2381,9 +2441,9 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="116"/>
-      <c r="C9" s="121"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="109"/>
+      <c r="C9" s="114"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2407,8 +2467,12 @@
       <c r="K9" s="72">
         <v>0</v>
       </c>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
+      <c r="L9" s="72">
+        <v>0</v>
+      </c>
+      <c r="M9" s="72">
+        <v>0</v>
+      </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
@@ -2420,8 +2484,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="113" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="106" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2440,7 +2504,7 @@
       </c>
       <c r="I10" s="61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J10" s="73">
         <v>0</v>
@@ -2448,8 +2512,12 @@
       <c r="K10" s="73">
         <v>0</v>
       </c>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="73">
+        <v>0</v>
+      </c>
+      <c r="M10" s="128">
+        <v>8.3000000000000004E-2</v>
+      </c>
       <c r="N10" s="35"/>
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
@@ -2461,8 +2529,8 @@
       <c r="V10" s="23"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="114"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="107"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2487,8 +2555,12 @@
       <c r="K11" s="71">
         <v>0</v>
       </c>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="L11" s="71">
+        <v>0</v>
+      </c>
+      <c r="M11" s="71">
+        <v>0</v>
+      </c>
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
@@ -2500,8 +2572,8 @@
       <c r="V11" s="28"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="114"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="107"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2526,8 +2598,12 @@
       <c r="K12" s="71">
         <v>0</v>
       </c>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="L12" s="71">
+        <v>0</v>
+      </c>
+      <c r="M12" s="71">
+        <v>0</v>
+      </c>
       <c r="N12" s="28"/>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
@@ -2539,8 +2615,8 @@
       <c r="V12" s="28"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="108"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2565,8 +2641,12 @@
       <c r="K13" s="74">
         <v>0</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
+      <c r="L13" s="74">
+        <v>0</v>
+      </c>
+      <c r="M13" s="74">
+        <v>0</v>
+      </c>
       <c r="N13" s="31"/>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
@@ -2578,8 +2658,8 @@
       <c r="V13" s="31"/>
       <c r="W13" s="69"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="115"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="108"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2604,8 +2684,12 @@
       <c r="K14" s="74">
         <v>0</v>
       </c>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
+      <c r="L14" s="74">
+        <v>0</v>
+      </c>
+      <c r="M14" s="74">
+        <v>0</v>
+      </c>
       <c r="N14" s="31"/>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
@@ -2617,8 +2701,8 @@
       <c r="V14" s="31"/>
       <c r="W14" s="69"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="115"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="108"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2643,8 +2727,12 @@
       <c r="K15" s="74">
         <v>0</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
+      <c r="L15" s="74">
+        <v>0</v>
+      </c>
+      <c r="M15" s="74">
+        <v>0</v>
+      </c>
       <c r="N15" s="31"/>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
@@ -2656,8 +2744,8 @@
       <c r="V15" s="31"/>
       <c r="W15" s="69"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="111" t="s">
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="104" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2721,8 +2809,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="112"/>
+    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="105"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2739,7 +2827,7 @@
       </c>
       <c r="I17" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.083</v>
       </c>
       <c r="J17" s="71">
         <v>0</v>
@@ -2747,8 +2835,12 @@
       <c r="K17" s="71">
         <v>0</v>
       </c>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
+      <c r="L17" s="71">
+        <v>0</v>
+      </c>
+      <c r="M17" s="48">
+        <v>1.083</v>
+      </c>
       <c r="N17" s="28"/>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
@@ -2760,9 +2852,9 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="112"/>
-      <c r="C18" s="119" t="s">
+    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="105"/>
+      <c r="C18" s="112" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2788,8 +2880,12 @@
       <c r="K18" s="71">
         <v>0</v>
       </c>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
+      <c r="L18" s="71">
+        <v>0</v>
+      </c>
+      <c r="M18" s="71">
+        <v>0</v>
+      </c>
       <c r="N18" s="28"/>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
@@ -2801,9 +2897,9 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="112"/>
-      <c r="C19" s="119"/>
+    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="105"/>
+      <c r="C19" s="112"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2819,7 +2915,7 @@
       </c>
       <c r="I19" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J19" s="71">
         <v>0</v>
@@ -2827,8 +2923,12 @@
       <c r="K19" s="71">
         <v>0</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="28"/>
+      <c r="L19" s="71">
+        <v>0</v>
+      </c>
+      <c r="M19" s="48">
+        <v>0.15</v>
+      </c>
       <c r="N19" s="28"/>
       <c r="O19" s="28"/>
       <c r="P19" s="29"/>
@@ -2840,9 +2940,9 @@
       <c r="V19" s="29"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="112"/>
-      <c r="C20" s="100" t="s">
+    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="105"/>
+      <c r="C20" s="126" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -2868,8 +2968,12 @@
       <c r="K20" s="71">
         <v>0</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="28"/>
+      <c r="L20" s="71">
+        <v>0</v>
+      </c>
+      <c r="M20" s="71">
+        <v>0</v>
+      </c>
       <c r="N20" s="28"/>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
@@ -2881,9 +2985,9 @@
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="112"/>
-      <c r="C21" s="100"/>
+    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="105"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -2907,8 +3011,12 @@
       <c r="K21" s="71">
         <v>0</v>
       </c>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
+      <c r="L21" s="71">
+        <v>0</v>
+      </c>
+      <c r="M21" s="71">
+        <v>0</v>
+      </c>
       <c r="N21" s="28"/>
       <c r="O21" s="28"/>
       <c r="P21" s="29"/>
@@ -2920,9 +3028,9 @@
       <c r="V21" s="29"/>
       <c r="W21" s="30"/>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="112"/>
-      <c r="C22" s="100"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="105"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -2946,8 +3054,12 @@
       <c r="K22" s="71">
         <v>0</v>
       </c>
-      <c r="L22" s="28"/>
-      <c r="M22" s="28"/>
+      <c r="L22" s="71">
+        <v>0</v>
+      </c>
+      <c r="M22" s="71">
+        <v>0</v>
+      </c>
       <c r="N22" s="28"/>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
@@ -2959,9 +3071,9 @@
       <c r="V22" s="29"/>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="112"/>
-      <c r="C23" s="100"/>
+    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="105"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -2985,8 +3097,12 @@
       <c r="K23" s="71">
         <v>0</v>
       </c>
-      <c r="L23" s="28"/>
-      <c r="M23" s="28"/>
+      <c r="L23" s="71">
+        <v>0</v>
+      </c>
+      <c r="M23" s="71">
+        <v>0</v>
+      </c>
       <c r="N23" s="28"/>
       <c r="O23" s="28"/>
       <c r="P23" s="29"/>
@@ -2998,9 +3114,9 @@
       <c r="V23" s="29"/>
       <c r="W23" s="30"/>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="112"/>
-      <c r="C24" s="100"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="105"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3024,8 +3140,12 @@
       <c r="K24" s="71">
         <v>0</v>
       </c>
-      <c r="L24" s="28"/>
-      <c r="M24" s="28"/>
+      <c r="L24" s="71">
+        <v>0</v>
+      </c>
+      <c r="M24" s="71">
+        <v>0</v>
+      </c>
       <c r="N24" s="28"/>
       <c r="O24" s="28"/>
       <c r="P24" s="29"/>
@@ -3037,9 +3157,9 @@
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
     </row>
-    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="112"/>
-      <c r="C25" s="100"/>
+    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="105"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3063,8 +3183,12 @@
       <c r="K25" s="71">
         <v>0</v>
       </c>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
+      <c r="L25" s="71">
+        <v>0</v>
+      </c>
+      <c r="M25" s="71">
+        <v>0</v>
+      </c>
       <c r="N25" s="28"/>
       <c r="O25" s="28"/>
       <c r="P25" s="29"/>
@@ -3076,9 +3200,9 @@
       <c r="V25" s="29"/>
       <c r="W25" s="30"/>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="112"/>
-      <c r="C26" s="100"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="105"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3102,8 +3226,12 @@
       <c r="K26" s="71">
         <v>0</v>
       </c>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
+      <c r="L26" s="71">
+        <v>0</v>
+      </c>
+      <c r="M26" s="71">
+        <v>0</v>
+      </c>
       <c r="N26" s="28"/>
       <c r="O26" s="28"/>
       <c r="P26" s="29"/>
@@ -3115,9 +3243,9 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
     </row>
-    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="112"/>
-      <c r="C27" s="100"/>
+    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="105"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3141,8 +3269,12 @@
       <c r="K27" s="71">
         <v>0</v>
       </c>
-      <c r="L27" s="28"/>
-      <c r="M27" s="28"/>
+      <c r="L27" s="71">
+        <v>0</v>
+      </c>
+      <c r="M27" s="71">
+        <v>0</v>
+      </c>
       <c r="N27" s="28"/>
       <c r="O27" s="28"/>
       <c r="P27" s="29"/>
@@ -3154,9 +3286,9 @@
       <c r="V27" s="29"/>
       <c r="W27" s="30"/>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="112"/>
-      <c r="C28" s="100"/>
+    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="105"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3180,8 +3312,12 @@
       <c r="K28" s="71">
         <v>0</v>
       </c>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
+      <c r="L28" s="71">
+        <v>0</v>
+      </c>
+      <c r="M28" s="71">
+        <v>0</v>
+      </c>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
@@ -3193,9 +3329,9 @@
       <c r="V28" s="29"/>
       <c r="W28" s="30"/>
     </row>
-    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="112"/>
-      <c r="C29" s="100"/>
+    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="105"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3219,8 +3355,12 @@
       <c r="K29" s="71">
         <v>0</v>
       </c>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
+      <c r="L29" s="71">
+        <v>0</v>
+      </c>
+      <c r="M29" s="71">
+        <v>0</v>
+      </c>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
@@ -3232,9 +3372,9 @@
       <c r="V29" s="29"/>
       <c r="W29" s="30"/>
     </row>
-    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="112"/>
-      <c r="C30" s="100"/>
+    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="105"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3258,8 +3398,12 @@
       <c r="K30" s="71">
         <v>0</v>
       </c>
-      <c r="L30" s="28"/>
-      <c r="M30" s="28"/>
+      <c r="L30" s="71">
+        <v>0</v>
+      </c>
+      <c r="M30" s="71">
+        <v>0</v>
+      </c>
       <c r="N30" s="28"/>
       <c r="O30" s="28"/>
       <c r="P30" s="29"/>
@@ -3271,9 +3415,9 @@
       <c r="V30" s="29"/>
       <c r="W30" s="30"/>
     </row>
-    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="112"/>
-      <c r="C31" s="100"/>
+    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="105"/>
+      <c r="C31" s="126"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3297,8 +3441,12 @@
       <c r="K31" s="71">
         <v>0</v>
       </c>
-      <c r="L31" s="28"/>
-      <c r="M31" s="28"/>
+      <c r="L31" s="71">
+        <v>0</v>
+      </c>
+      <c r="M31" s="71">
+        <v>0</v>
+      </c>
       <c r="N31" s="28"/>
       <c r="O31" s="28"/>
       <c r="P31" s="29"/>
@@ -3310,9 +3458,9 @@
       <c r="V31" s="29"/>
       <c r="W31" s="30"/>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="112"/>
-      <c r="C32" s="100"/>
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="105"/>
+      <c r="C32" s="126"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3336,8 +3484,12 @@
       <c r="K32" s="71">
         <v>0</v>
       </c>
-      <c r="L32" s="28"/>
-      <c r="M32" s="28"/>
+      <c r="L32" s="71">
+        <v>0</v>
+      </c>
+      <c r="M32" s="71">
+        <v>0</v>
+      </c>
       <c r="N32" s="28"/>
       <c r="O32" s="28"/>
       <c r="P32" s="29"/>
@@ -3349,9 +3501,9 @@
       <c r="V32" s="29"/>
       <c r="W32" s="30"/>
     </row>
-    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="112"/>
-      <c r="C33" s="100"/>
+    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="105"/>
+      <c r="C33" s="126"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3375,8 +3527,12 @@
       <c r="K33" s="71">
         <v>0</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="28"/>
+      <c r="L33" s="71">
+        <v>0</v>
+      </c>
+      <c r="M33" s="71">
+        <v>0</v>
+      </c>
       <c r="N33" s="28"/>
       <c r="O33" s="28"/>
       <c r="P33" s="29"/>
@@ -3388,9 +3544,9 @@
       <c r="V33" s="29"/>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="112"/>
-      <c r="C34" s="100"/>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="105"/>
+      <c r="C34" s="126"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3414,8 +3570,12 @@
       <c r="K34" s="71">
         <v>0</v>
       </c>
-      <c r="L34" s="28"/>
-      <c r="M34" s="28"/>
+      <c r="L34" s="71">
+        <v>0</v>
+      </c>
+      <c r="M34" s="71">
+        <v>0</v>
+      </c>
       <c r="N34" s="28"/>
       <c r="O34" s="28"/>
       <c r="P34" s="29"/>
@@ -3427,9 +3587,9 @@
       <c r="V34" s="29"/>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="112"/>
-      <c r="C35" s="100"/>
+    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="105"/>
+      <c r="C35" s="126"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3453,8 +3613,12 @@
       <c r="K35" s="71">
         <v>0</v>
       </c>
-      <c r="L35" s="28"/>
-      <c r="M35" s="28"/>
+      <c r="L35" s="71">
+        <v>0</v>
+      </c>
+      <c r="M35" s="71">
+        <v>0</v>
+      </c>
       <c r="N35" s="28"/>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
@@ -3466,9 +3630,9 @@
       <c r="V35" s="29"/>
       <c r="W35" s="30"/>
     </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="112"/>
-      <c r="C36" s="100"/>
+    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="105"/>
+      <c r="C36" s="126"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3492,8 +3656,12 @@
       <c r="K36" s="71">
         <v>0</v>
       </c>
-      <c r="L36" s="28"/>
-      <c r="M36" s="28"/>
+      <c r="L36" s="71">
+        <v>0</v>
+      </c>
+      <c r="M36" s="71">
+        <v>0</v>
+      </c>
       <c r="N36" s="28"/>
       <c r="O36" s="28"/>
       <c r="P36" s="29"/>
@@ -3505,8 +3673,8 @@
       <c r="V36" s="29"/>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="112"/>
+    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="105"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3531,8 +3699,12 @@
       <c r="K37" s="71">
         <v>0</v>
       </c>
-      <c r="L37" s="28"/>
-      <c r="M37" s="28"/>
+      <c r="L37" s="71">
+        <v>0</v>
+      </c>
+      <c r="M37" s="71">
+        <v>0</v>
+      </c>
       <c r="N37" s="28"/>
       <c r="O37" s="28"/>
       <c r="P37" s="29"/>
@@ -3544,8 +3716,8 @@
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="112"/>
+    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="105"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3570,8 +3742,12 @@
       <c r="K38" s="71">
         <v>0</v>
       </c>
-      <c r="L38" s="28"/>
-      <c r="M38" s="28"/>
+      <c r="L38" s="71">
+        <v>0</v>
+      </c>
+      <c r="M38" s="71">
+        <v>0</v>
+      </c>
       <c r="N38" s="28"/>
       <c r="O38" s="28"/>
       <c r="P38" s="29"/>
@@ -3583,8 +3759,8 @@
       <c r="V38" s="29"/>
       <c r="W38" s="30"/>
     </row>
-    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="112"/>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="105"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3609,7 +3785,7 @@
       <c r="K39" s="71">
         <v>0</v>
       </c>
-      <c r="L39" s="127">
+      <c r="L39" s="94">
         <v>0.5</v>
       </c>
       <c r="M39" s="48">
@@ -3646,8 +3822,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="112"/>
+    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="105"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3675,7 +3851,9 @@
       <c r="L40" s="71">
         <v>0</v>
       </c>
-      <c r="M40" s="28"/>
+      <c r="M40" s="71">
+        <v>0</v>
+      </c>
       <c r="N40" s="28"/>
       <c r="O40" s="28"/>
       <c r="P40" s="29"/>
@@ -3687,11 +3865,11 @@
       <c r="V40" s="29"/>
       <c r="W40" s="30"/>
     </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="102" t="s">
+    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="98" t="s">
+      <c r="C41" s="124" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3754,9 +3932,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="103"/>
-      <c r="C42" s="99"/>
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="96"/>
+      <c r="C42" s="125"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -3783,7 +3961,9 @@
       <c r="L42" s="71">
         <v>0</v>
       </c>
-      <c r="M42" s="28"/>
+      <c r="M42" s="71">
+        <v>0</v>
+      </c>
       <c r="N42" s="28"/>
       <c r="O42" s="28"/>
       <c r="P42" s="29"/>
@@ -3795,9 +3975,9 @@
       <c r="V42" s="29"/>
       <c r="W42" s="30"/>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="103"/>
-      <c r="C43" s="99"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="96"/>
+      <c r="C43" s="125"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -3824,7 +4004,9 @@
       <c r="L43" s="71">
         <v>0</v>
       </c>
-      <c r="M43" s="28"/>
+      <c r="M43" s="71">
+        <v>0</v>
+      </c>
       <c r="N43" s="28"/>
       <c r="O43" s="28"/>
       <c r="P43" s="29"/>
@@ -3836,9 +4018,9 @@
       <c r="V43" s="29"/>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="103"/>
-      <c r="C44" s="99"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="96"/>
+      <c r="C44" s="125"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -3865,7 +4047,9 @@
       <c r="L44" s="71">
         <v>0</v>
       </c>
-      <c r="M44" s="28"/>
+      <c r="M44" s="71">
+        <v>0</v>
+      </c>
       <c r="N44" s="28"/>
       <c r="O44" s="28"/>
       <c r="P44" s="29"/>
@@ -3877,9 +4061,9 @@
       <c r="V44" s="29"/>
       <c r="W44" s="30"/>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="103"/>
-      <c r="C45" s="99"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="96"/>
+      <c r="C45" s="125"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -3906,7 +4090,9 @@
       <c r="L45" s="71">
         <v>0</v>
       </c>
-      <c r="M45" s="28"/>
+      <c r="M45" s="71">
+        <v>0</v>
+      </c>
       <c r="N45" s="28"/>
       <c r="O45" s="28"/>
       <c r="P45" s="29"/>
@@ -3918,9 +4104,9 @@
       <c r="V45" s="29"/>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="103"/>
-      <c r="C46" s="99"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="96"/>
+      <c r="C46" s="125"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -3947,7 +4133,9 @@
       <c r="L46" s="71">
         <v>0</v>
       </c>
-      <c r="M46" s="28"/>
+      <c r="M46" s="71">
+        <v>0</v>
+      </c>
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="29"/>
@@ -3959,9 +4147,9 @@
       <c r="V46" s="29"/>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="103"/>
-      <c r="C47" s="99"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="96"/>
+      <c r="C47" s="125"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -3988,7 +4176,9 @@
       <c r="L47" s="71">
         <v>0</v>
       </c>
-      <c r="M47" s="28"/>
+      <c r="M47" s="71">
+        <v>0</v>
+      </c>
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="29"/>
@@ -4000,9 +4190,9 @@
       <c r="V47" s="29"/>
       <c r="W47" s="30"/>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="103"/>
-      <c r="C48" s="99"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="96"/>
+      <c r="C48" s="125"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -4029,7 +4219,9 @@
       <c r="L48" s="71">
         <v>0</v>
       </c>
-      <c r="M48" s="28"/>
+      <c r="M48" s="71">
+        <v>0</v>
+      </c>
       <c r="N48" s="28"/>
       <c r="O48" s="28"/>
       <c r="P48" s="29"/>
@@ -4041,9 +4233,9 @@
       <c r="V48" s="29"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="103"/>
-      <c r="C49" s="99"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="96"/>
+      <c r="C49" s="125"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4070,7 +4262,9 @@
       <c r="L49" s="71">
         <v>0</v>
       </c>
-      <c r="M49" s="28"/>
+      <c r="M49" s="71">
+        <v>0</v>
+      </c>
       <c r="N49" s="28"/>
       <c r="O49" s="28"/>
       <c r="P49" s="29"/>
@@ -4082,9 +4276,9 @@
       <c r="V49" s="29"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="103"/>
-      <c r="C50" s="99"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="96"/>
+      <c r="C50" s="125"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4111,7 +4305,9 @@
       <c r="L50" s="71">
         <v>0</v>
       </c>
-      <c r="M50" s="28"/>
+      <c r="M50" s="71">
+        <v>0</v>
+      </c>
       <c r="N50" s="28"/>
       <c r="O50" s="28"/>
       <c r="P50" s="29"/>
@@ -4123,9 +4319,9 @@
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="103"/>
-      <c r="C51" s="99"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="96"/>
+      <c r="C51" s="125"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4152,7 +4348,9 @@
       <c r="L51" s="71">
         <v>0</v>
       </c>
-      <c r="M51" s="28"/>
+      <c r="M51" s="71">
+        <v>0</v>
+      </c>
       <c r="N51" s="28"/>
       <c r="O51" s="28"/>
       <c r="P51" s="29"/>
@@ -4164,9 +4362,9 @@
       <c r="V51" s="29"/>
       <c r="W51" s="30"/>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="103"/>
-      <c r="C52" s="99"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="96"/>
+      <c r="C52" s="125"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4193,7 +4391,9 @@
       <c r="L52" s="71">
         <v>0</v>
       </c>
-      <c r="M52" s="28"/>
+      <c r="M52" s="71">
+        <v>0</v>
+      </c>
       <c r="N52" s="28"/>
       <c r="O52" s="28"/>
       <c r="P52" s="29"/>
@@ -4205,9 +4405,9 @@
       <c r="V52" s="29"/>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="103"/>
-      <c r="C53" s="99"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="96"/>
+      <c r="C53" s="125"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4234,7 +4434,9 @@
       <c r="L53" s="71">
         <v>0</v>
       </c>
-      <c r="M53" s="28"/>
+      <c r="M53" s="71">
+        <v>0</v>
+      </c>
       <c r="N53" s="28"/>
       <c r="O53" s="28"/>
       <c r="P53" s="29"/>
@@ -4246,9 +4448,9 @@
       <c r="V53" s="29"/>
       <c r="W53" s="30"/>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="103"/>
-      <c r="C54" s="99"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="96"/>
+      <c r="C54" s="125"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4275,7 +4477,9 @@
       <c r="L54" s="71">
         <v>0</v>
       </c>
-      <c r="M54" s="28"/>
+      <c r="M54" s="71">
+        <v>0</v>
+      </c>
       <c r="N54" s="28"/>
       <c r="O54" s="28"/>
       <c r="P54" s="29"/>
@@ -4287,9 +4491,9 @@
       <c r="V54" s="29"/>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="103"/>
-      <c r="C55" s="99"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="96"/>
+      <c r="C55" s="125"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4316,7 +4520,9 @@
       <c r="L55" s="71">
         <v>0</v>
       </c>
-      <c r="M55" s="28"/>
+      <c r="M55" s="71">
+        <v>0</v>
+      </c>
       <c r="N55" s="28"/>
       <c r="O55" s="28"/>
       <c r="P55" s="29"/>
@@ -4328,9 +4534,9 @@
       <c r="V55" s="29"/>
       <c r="W55" s="30"/>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="103"/>
-      <c r="C56" s="99"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="96"/>
+      <c r="C56" s="125"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4357,7 +4563,9 @@
       <c r="L56" s="71">
         <v>0</v>
       </c>
-      <c r="M56" s="28"/>
+      <c r="M56" s="71">
+        <v>0</v>
+      </c>
       <c r="N56" s="28"/>
       <c r="O56" s="28"/>
       <c r="P56" s="29"/>
@@ -4369,9 +4577,9 @@
       <c r="V56" s="29"/>
       <c r="W56" s="30"/>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="103"/>
-      <c r="C57" s="99"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="96"/>
+      <c r="C57" s="125"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4398,7 +4606,9 @@
       <c r="L57" s="71">
         <v>0</v>
       </c>
-      <c r="M57" s="28"/>
+      <c r="M57" s="71">
+        <v>0</v>
+      </c>
       <c r="N57" s="28"/>
       <c r="O57" s="28"/>
       <c r="P57" s="29"/>
@@ -4410,9 +4620,9 @@
       <c r="V57" s="29"/>
       <c r="W57" s="30"/>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="103"/>
-      <c r="C58" s="99"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="96"/>
+      <c r="C58" s="125"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4439,7 +4649,9 @@
       <c r="L58" s="71">
         <v>0</v>
       </c>
-      <c r="M58" s="28"/>
+      <c r="M58" s="71">
+        <v>0</v>
+      </c>
       <c r="N58" s="28"/>
       <c r="O58" s="28"/>
       <c r="P58" s="29"/>
@@ -4451,9 +4663,9 @@
       <c r="V58" s="29"/>
       <c r="W58" s="30"/>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="103"/>
-      <c r="C59" s="99"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="96"/>
+      <c r="C59" s="125"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4480,7 +4692,9 @@
       <c r="L59" s="71">
         <v>0</v>
       </c>
-      <c r="M59" s="28"/>
+      <c r="M59" s="71">
+        <v>0</v>
+      </c>
       <c r="N59" s="28"/>
       <c r="O59" s="28"/>
       <c r="P59" s="29"/>
@@ -4492,9 +4706,9 @@
       <c r="V59" s="29"/>
       <c r="W59" s="30"/>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="103"/>
-      <c r="C60" s="99"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="96"/>
+      <c r="C60" s="125"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4521,7 +4735,9 @@
       <c r="L60" s="71">
         <v>0</v>
       </c>
-      <c r="M60" s="28"/>
+      <c r="M60" s="71">
+        <v>0</v>
+      </c>
       <c r="N60" s="28"/>
       <c r="O60" s="28"/>
       <c r="P60" s="29"/>
@@ -4533,9 +4749,9 @@
       <c r="V60" s="29"/>
       <c r="W60" s="30"/>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="103"/>
-      <c r="C61" s="99"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="96"/>
+      <c r="C61" s="125"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4562,7 +4778,9 @@
       <c r="L61" s="71">
         <v>0</v>
       </c>
-      <c r="M61" s="28"/>
+      <c r="M61" s="71">
+        <v>0</v>
+      </c>
       <c r="N61" s="28"/>
       <c r="O61" s="28"/>
       <c r="P61" s="29"/>
@@ -4574,9 +4792,9 @@
       <c r="V61" s="29"/>
       <c r="W61" s="30"/>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="103"/>
-      <c r="C62" s="99"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="96"/>
+      <c r="C62" s="125"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4603,7 +4821,9 @@
       <c r="L62" s="71">
         <v>0</v>
       </c>
-      <c r="M62" s="28"/>
+      <c r="M62" s="71">
+        <v>0</v>
+      </c>
       <c r="N62" s="28"/>
       <c r="O62" s="28"/>
       <c r="P62" s="29"/>
@@ -4615,9 +4835,9 @@
       <c r="V62" s="29"/>
       <c r="W62" s="30"/>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="103"/>
-      <c r="C63" s="99"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="96"/>
+      <c r="C63" s="125"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4644,7 +4864,9 @@
       <c r="L63" s="71">
         <v>0</v>
       </c>
-      <c r="M63" s="28"/>
+      <c r="M63" s="71">
+        <v>0</v>
+      </c>
       <c r="N63" s="28"/>
       <c r="O63" s="28"/>
       <c r="P63" s="29"/>
@@ -4656,9 +4878,9 @@
       <c r="V63" s="29"/>
       <c r="W63" s="30"/>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="103"/>
-      <c r="C64" s="99"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="96"/>
+      <c r="C64" s="125"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -4685,7 +4907,9 @@
       <c r="L64" s="71">
         <v>0</v>
       </c>
-      <c r="M64" s="28"/>
+      <c r="M64" s="71">
+        <v>0</v>
+      </c>
       <c r="N64" s="28"/>
       <c r="O64" s="28"/>
       <c r="P64" s="29"/>
@@ -4697,9 +4921,9 @@
       <c r="V64" s="29"/>
       <c r="W64" s="30"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="103"/>
-      <c r="C65" s="99"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="96"/>
+      <c r="C65" s="125"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -4726,7 +4950,9 @@
       <c r="L65" s="71">
         <v>0</v>
       </c>
-      <c r="M65" s="28"/>
+      <c r="M65" s="71">
+        <v>0</v>
+      </c>
       <c r="N65" s="28"/>
       <c r="O65" s="28"/>
       <c r="P65" s="29"/>
@@ -4738,9 +4964,9 @@
       <c r="V65" s="29"/>
       <c r="W65" s="30"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="103"/>
-      <c r="C66" s="99"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="96"/>
+      <c r="C66" s="125"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -4767,7 +4993,9 @@
       <c r="L66" s="71">
         <v>0</v>
       </c>
-      <c r="M66" s="28"/>
+      <c r="M66" s="71">
+        <v>0</v>
+      </c>
       <c r="N66" s="28"/>
       <c r="O66" s="28"/>
       <c r="P66" s="29"/>
@@ -4779,9 +5007,9 @@
       <c r="V66" s="29"/>
       <c r="W66" s="30"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="103"/>
-      <c r="C67" s="99"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="96"/>
+      <c r="C67" s="125"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -4808,7 +5036,9 @@
       <c r="L67" s="71">
         <v>0</v>
       </c>
-      <c r="M67" s="28"/>
+      <c r="M67" s="71">
+        <v>0</v>
+      </c>
       <c r="N67" s="28"/>
       <c r="O67" s="28"/>
       <c r="P67" s="29"/>
@@ -4820,9 +5050,9 @@
       <c r="V67" s="29"/>
       <c r="W67" s="30"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="103"/>
-      <c r="C68" s="99"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="96"/>
+      <c r="C68" s="125"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -4849,7 +5079,9 @@
       <c r="L68" s="71">
         <v>0</v>
       </c>
-      <c r="M68" s="28"/>
+      <c r="M68" s="71">
+        <v>0</v>
+      </c>
       <c r="N68" s="28"/>
       <c r="O68" s="28"/>
       <c r="P68" s="29"/>
@@ -4861,9 +5093,9 @@
       <c r="V68" s="29"/>
       <c r="W68" s="30"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="103"/>
-      <c r="C69" s="99"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="96"/>
+      <c r="C69" s="125"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -4890,7 +5122,9 @@
       <c r="L69" s="71">
         <v>0</v>
       </c>
-      <c r="M69" s="28"/>
+      <c r="M69" s="71">
+        <v>0</v>
+      </c>
       <c r="N69" s="28"/>
       <c r="O69" s="28"/>
       <c r="P69" s="29"/>
@@ -4902,9 +5136,9 @@
       <c r="V69" s="29"/>
       <c r="W69" s="30"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="103"/>
-      <c r="C70" s="99"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="96"/>
+      <c r="C70" s="125"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -4931,7 +5165,9 @@
       <c r="L70" s="71">
         <v>0</v>
       </c>
-      <c r="M70" s="28"/>
+      <c r="M70" s="71">
+        <v>0</v>
+      </c>
       <c r="N70" s="28"/>
       <c r="O70" s="28"/>
       <c r="P70" s="29"/>
@@ -4943,9 +5179,9 @@
       <c r="V70" s="29"/>
       <c r="W70" s="30"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="103"/>
-      <c r="C71" s="99"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="96"/>
+      <c r="C71" s="125"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -4972,7 +5208,9 @@
       <c r="L71" s="71">
         <v>0</v>
       </c>
-      <c r="M71" s="28"/>
+      <c r="M71" s="71">
+        <v>0</v>
+      </c>
       <c r="N71" s="28"/>
       <c r="O71" s="28"/>
       <c r="P71" s="29"/>
@@ -4984,9 +5222,9 @@
       <c r="V71" s="29"/>
       <c r="W71" s="30"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="103"/>
-      <c r="C72" s="99"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="96"/>
+      <c r="C72" s="125"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -5013,7 +5251,9 @@
       <c r="L72" s="71">
         <v>0</v>
       </c>
-      <c r="M72" s="28"/>
+      <c r="M72" s="71">
+        <v>0</v>
+      </c>
       <c r="N72" s="28"/>
       <c r="O72" s="28"/>
       <c r="P72" s="29"/>
@@ -5025,9 +5265,9 @@
       <c r="V72" s="29"/>
       <c r="W72" s="30"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="103"/>
-      <c r="C73" s="99"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="96"/>
+      <c r="C73" s="125"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -5054,7 +5294,9 @@
       <c r="L73" s="71">
         <v>0</v>
       </c>
-      <c r="M73" s="28"/>
+      <c r="M73" s="71">
+        <v>0</v>
+      </c>
       <c r="N73" s="28"/>
       <c r="O73" s="28"/>
       <c r="P73" s="29"/>
@@ -5066,9 +5308,9 @@
       <c r="V73" s="29"/>
       <c r="W73" s="30"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="103"/>
-      <c r="C74" s="99"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="96"/>
+      <c r="C74" s="125"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -5095,7 +5337,9 @@
       <c r="L74" s="71">
         <v>0</v>
       </c>
-      <c r="M74" s="28"/>
+      <c r="M74" s="71">
+        <v>0</v>
+      </c>
       <c r="N74" s="28"/>
       <c r="O74" s="28"/>
       <c r="P74" s="29"/>
@@ -5107,9 +5351,9 @@
       <c r="V74" s="29"/>
       <c r="W74" s="30"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="103"/>
-      <c r="C75" s="99"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="96"/>
+      <c r="C75" s="125"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5136,7 +5380,9 @@
       <c r="L75" s="71">
         <v>0</v>
       </c>
-      <c r="M75" s="28"/>
+      <c r="M75" s="71">
+        <v>0</v>
+      </c>
       <c r="N75" s="28"/>
       <c r="O75" s="28"/>
       <c r="P75" s="29"/>
@@ -5148,9 +5394,9 @@
       <c r="V75" s="29"/>
       <c r="W75" s="30"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="103"/>
-      <c r="C76" s="99"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="96"/>
+      <c r="C76" s="125"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5177,7 +5423,9 @@
       <c r="L76" s="71">
         <v>0</v>
       </c>
-      <c r="M76" s="28"/>
+      <c r="M76" s="71">
+        <v>0</v>
+      </c>
       <c r="N76" s="28"/>
       <c r="O76" s="28"/>
       <c r="P76" s="29"/>
@@ -5189,9 +5437,9 @@
       <c r="V76" s="29"/>
       <c r="W76" s="30"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="103"/>
-      <c r="C77" s="99"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="96"/>
+      <c r="C77" s="125"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5218,7 +5466,9 @@
       <c r="L77" s="71">
         <v>0</v>
       </c>
-      <c r="M77" s="28"/>
+      <c r="M77" s="71">
+        <v>0</v>
+      </c>
       <c r="N77" s="28"/>
       <c r="O77" s="28"/>
       <c r="P77" s="29"/>
@@ -5230,9 +5480,9 @@
       <c r="V77" s="29"/>
       <c r="W77" s="30"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="103"/>
-      <c r="C78" s="99"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="96"/>
+      <c r="C78" s="125"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5259,7 +5509,9 @@
       <c r="L78" s="71">
         <v>0</v>
       </c>
-      <c r="M78" s="28"/>
+      <c r="M78" s="71">
+        <v>0</v>
+      </c>
       <c r="N78" s="28"/>
       <c r="O78" s="28"/>
       <c r="P78" s="29"/>
@@ -5271,9 +5523,9 @@
       <c r="V78" s="29"/>
       <c r="W78" s="30"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="103"/>
-      <c r="C79" s="99"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="96"/>
+      <c r="C79" s="125"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5300,7 +5552,9 @@
       <c r="L79" s="71">
         <v>0</v>
       </c>
-      <c r="M79" s="28"/>
+      <c r="M79" s="71">
+        <v>0</v>
+      </c>
       <c r="N79" s="28"/>
       <c r="O79" s="28"/>
       <c r="P79" s="29"/>
@@ -5312,9 +5566,9 @@
       <c r="V79" s="29"/>
       <c r="W79" s="30"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="103"/>
-      <c r="C80" s="99"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="96"/>
+      <c r="C80" s="125"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5341,7 +5595,9 @@
       <c r="L80" s="71">
         <v>0</v>
       </c>
-      <c r="M80" s="28"/>
+      <c r="M80" s="71">
+        <v>0</v>
+      </c>
       <c r="N80" s="28"/>
       <c r="O80" s="28"/>
       <c r="P80" s="29"/>
@@ -5353,9 +5609,9 @@
       <c r="V80" s="29"/>
       <c r="W80" s="30"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="103"/>
-      <c r="C81" s="99"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="96"/>
+      <c r="C81" s="125"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5382,7 +5638,9 @@
       <c r="L81" s="71">
         <v>0</v>
       </c>
-      <c r="M81" s="28"/>
+      <c r="M81" s="71">
+        <v>0</v>
+      </c>
       <c r="N81" s="28"/>
       <c r="O81" s="28"/>
       <c r="P81" s="29"/>
@@ -5394,9 +5652,9 @@
       <c r="V81" s="29"/>
       <c r="W81" s="30"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="103"/>
-      <c r="C82" s="99"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="96"/>
+      <c r="C82" s="125"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5423,7 +5681,9 @@
       <c r="L82" s="71">
         <v>0</v>
       </c>
-      <c r="M82" s="28"/>
+      <c r="M82" s="71">
+        <v>0</v>
+      </c>
       <c r="N82" s="28"/>
       <c r="O82" s="28"/>
       <c r="P82" s="29"/>
@@ -5435,9 +5695,9 @@
       <c r="V82" s="29"/>
       <c r="W82" s="30"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="103"/>
-      <c r="C83" s="99"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="96"/>
+      <c r="C83" s="125"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5498,9 +5758,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="103"/>
-      <c r="C84" s="104" t="s">
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="96"/>
+      <c r="C84" s="97" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5526,8 +5786,12 @@
       <c r="K84" s="71">
         <v>0</v>
       </c>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
+      <c r="L84" s="71">
+        <v>0</v>
+      </c>
+      <c r="M84" s="71">
+        <v>0</v>
+      </c>
       <c r="N84" s="28"/>
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
@@ -5539,9 +5803,9 @@
       <c r="V84" s="29"/>
       <c r="W84" s="30"/>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="103"/>
-      <c r="C85" s="104"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="96"/>
+      <c r="C85" s="97"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -5565,8 +5829,12 @@
       <c r="K85" s="71">
         <v>0</v>
       </c>
-      <c r="L85" s="28"/>
-      <c r="M85" s="28"/>
+      <c r="L85" s="71">
+        <v>0</v>
+      </c>
+      <c r="M85" s="71">
+        <v>0</v>
+      </c>
       <c r="N85" s="28"/>
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
@@ -5578,9 +5846,9 @@
       <c r="V85" s="29"/>
       <c r="W85" s="30"/>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="103"/>
-      <c r="C86" s="104"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="96"/>
+      <c r="C86" s="97"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -5604,8 +5872,12 @@
       <c r="K86" s="71">
         <v>0</v>
       </c>
-      <c r="L86" s="28"/>
-      <c r="M86" s="28"/>
+      <c r="L86" s="71">
+        <v>0</v>
+      </c>
+      <c r="M86" s="71">
+        <v>0</v>
+      </c>
       <c r="N86" s="28"/>
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
@@ -5617,9 +5889,9 @@
       <c r="V86" s="29"/>
       <c r="W86" s="30"/>
     </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="103"/>
-      <c r="C87" s="104"/>
+    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="96"/>
+      <c r="C87" s="97"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -5643,8 +5915,12 @@
       <c r="K87" s="71">
         <v>0</v>
       </c>
-      <c r="L87" s="28"/>
-      <c r="M87" s="28"/>
+      <c r="L87" s="71">
+        <v>0</v>
+      </c>
+      <c r="M87" s="71">
+        <v>0</v>
+      </c>
       <c r="N87" s="28"/>
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
@@ -5656,9 +5932,9 @@
       <c r="V87" s="29"/>
       <c r="W87" s="30"/>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="103"/>
-      <c r="C88" s="104"/>
+    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="96"/>
+      <c r="C88" s="97"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -5682,8 +5958,12 @@
       <c r="K88" s="71">
         <v>0</v>
       </c>
-      <c r="L88" s="28"/>
-      <c r="M88" s="28"/>
+      <c r="L88" s="71">
+        <v>0</v>
+      </c>
+      <c r="M88" s="71">
+        <v>0</v>
+      </c>
       <c r="N88" s="28"/>
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
@@ -5695,9 +5975,9 @@
       <c r="V88" s="28"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="103"/>
-      <c r="C89" s="104"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="96"/>
+      <c r="C89" s="97"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -5721,8 +6001,12 @@
       <c r="K89" s="71">
         <v>0</v>
       </c>
-      <c r="L89" s="28"/>
-      <c r="M89" s="28"/>
+      <c r="L89" s="71">
+        <v>0</v>
+      </c>
+      <c r="M89" s="71">
+        <v>0</v>
+      </c>
       <c r="N89" s="28"/>
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
@@ -5734,8 +6018,8 @@
       <c r="V89" s="29"/>
       <c r="W89" s="30"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="103"/>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="96"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -5797,8 +6081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="103"/>
+    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="96"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -5823,8 +6107,12 @@
       <c r="K91" s="71">
         <v>0</v>
       </c>
-      <c r="L91" s="28"/>
-      <c r="M91" s="28"/>
+      <c r="L91" s="71">
+        <v>0</v>
+      </c>
+      <c r="M91" s="71">
+        <v>0</v>
+      </c>
       <c r="N91" s="28"/>
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
@@ -5836,8 +6124,8 @@
       <c r="V91" s="29"/>
       <c r="W91" s="30"/>
     </row>
-    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="122" t="s">
+    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="115" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -5864,8 +6152,12 @@
       <c r="K92" s="70">
         <v>0</v>
       </c>
-      <c r="L92" s="25"/>
-      <c r="M92" s="25"/>
+      <c r="L92" s="70">
+        <v>0</v>
+      </c>
+      <c r="M92" s="70">
+        <v>0</v>
+      </c>
       <c r="N92" s="25"/>
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
@@ -5877,8 +6169,8 @@
       <c r="V92" s="25"/>
       <c r="W92" s="67"/>
     </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="123"/>
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="116"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -5897,10 +6189,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J93" s="73"/>
-      <c r="K93" s="73"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
+      <c r="J93" s="73">
+        <v>0</v>
+      </c>
+      <c r="K93" s="73">
+        <v>0</v>
+      </c>
+      <c r="L93" s="73">
+        <v>0</v>
+      </c>
+      <c r="M93" s="73">
+        <v>0</v>
+      </c>
       <c r="N93" s="35"/>
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
@@ -5912,9 +6212,9 @@
       <c r="V93" s="35"/>
       <c r="W93" s="66"/>
     </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="124"/>
-      <c r="C94" s="101" t="s">
+    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="117"/>
+      <c r="C94" s="127" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -5940,8 +6240,12 @@
       <c r="K94" s="71">
         <v>0</v>
       </c>
-      <c r="L94" s="28"/>
-      <c r="M94" s="28"/>
+      <c r="L94" s="71">
+        <v>0</v>
+      </c>
+      <c r="M94" s="71">
+        <v>0</v>
+      </c>
       <c r="N94" s="28"/>
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
@@ -5953,9 +6257,9 @@
       <c r="V94" s="28"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="125"/>
-      <c r="C95" s="101"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" s="118"/>
+      <c r="C95" s="127"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -5979,8 +6283,12 @@
       <c r="K95" s="71">
         <v>0</v>
       </c>
-      <c r="L95" s="28"/>
-      <c r="M95" s="28"/>
+      <c r="L95" s="71">
+        <v>0</v>
+      </c>
+      <c r="M95" s="71">
+        <v>0</v>
+      </c>
       <c r="N95" s="28"/>
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
@@ -5992,8 +6300,8 @@
       <c r="V95" s="29"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="126"/>
+    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="119"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -6010,7 +6318,7 @@
       </c>
       <c r="I96" s="59">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J96" s="72">
         <v>0</v>
@@ -6018,8 +6326,12 @@
       <c r="K96" s="72">
         <v>0</v>
       </c>
-      <c r="L96" s="32"/>
-      <c r="M96" s="32"/>
+      <c r="L96" s="72">
+        <v>0</v>
+      </c>
+      <c r="M96" s="129">
+        <v>0.75</v>
+      </c>
       <c r="N96" s="32"/>
       <c r="O96" s="32"/>
       <c r="P96" s="32"/>
@@ -6031,8 +6343,8 @@
       <c r="V96" s="32"/>
       <c r="W96" s="64"/>
     </row>
-    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="102" t="s">
+    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="95" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -6051,7 +6363,7 @@
       </c>
       <c r="I97" s="57">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="J97" s="70">
         <v>0</v>
@@ -6059,8 +6371,12 @@
       <c r="K97" s="70">
         <v>0</v>
       </c>
-      <c r="L97" s="25"/>
-      <c r="M97" s="25"/>
+      <c r="L97" s="70">
+        <v>0</v>
+      </c>
+      <c r="M97" s="87">
+        <v>0.46700000000000003</v>
+      </c>
       <c r="N97" s="26"/>
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
@@ -6072,8 +6388,8 @@
       <c r="V97" s="26"/>
       <c r="W97" s="27"/>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="125"/>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B98" s="118"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -6098,8 +6414,12 @@
       <c r="K98" s="71">
         <v>0</v>
       </c>
-      <c r="L98" s="28"/>
-      <c r="M98" s="28"/>
+      <c r="L98" s="71">
+        <v>0</v>
+      </c>
+      <c r="M98" s="130">
+        <v>0</v>
+      </c>
       <c r="N98" s="29"/>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
@@ -6111,8 +6431,8 @@
       <c r="V98" s="29"/>
       <c r="W98" s="30"/>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="125"/>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B99" s="118"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6137,8 +6457,12 @@
       <c r="K99" s="71">
         <v>0</v>
       </c>
-      <c r="L99" s="28"/>
-      <c r="M99" s="28"/>
+      <c r="L99" s="71">
+        <v>0</v>
+      </c>
+      <c r="M99" s="130">
+        <v>0</v>
+      </c>
       <c r="N99" s="29"/>
       <c r="O99" s="29"/>
       <c r="P99" s="29"/>
@@ -6150,8 +6474,8 @@
       <c r="V99" s="29"/>
       <c r="W99" s="30"/>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="125"/>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B100" s="118"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6176,8 +6500,12 @@
       <c r="K100" s="71">
         <v>0</v>
       </c>
-      <c r="L100" s="28"/>
-      <c r="M100" s="28"/>
+      <c r="L100" s="71">
+        <v>0</v>
+      </c>
+      <c r="M100" s="130">
+        <v>0</v>
+      </c>
       <c r="N100" s="29"/>
       <c r="O100" s="29"/>
       <c r="P100" s="29"/>
@@ -6189,8 +6517,8 @@
       <c r="V100" s="29"/>
       <c r="W100" s="30"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="125"/>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B101" s="118"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6215,8 +6543,12 @@
       <c r="K101" s="71">
         <v>0</v>
       </c>
-      <c r="L101" s="28"/>
-      <c r="M101" s="28"/>
+      <c r="L101" s="71">
+        <v>0</v>
+      </c>
+      <c r="M101" s="71">
+        <v>0</v>
+      </c>
       <c r="N101" s="29"/>
       <c r="O101" s="29"/>
       <c r="P101" s="29"/>
@@ -6228,8 +6560,8 @@
       <c r="V101" s="29"/>
       <c r="W101" s="30"/>
     </row>
-    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="126"/>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="119"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6254,8 +6586,12 @@
       <c r="K102" s="72">
         <v>0</v>
       </c>
-      <c r="L102" s="32"/>
-      <c r="M102" s="32"/>
+      <c r="L102" s="72">
+        <v>0</v>
+      </c>
+      <c r="M102" s="72">
+        <v>0</v>
+      </c>
       <c r="N102" s="32"/>
       <c r="O102" s="32"/>
       <c r="P102" s="33"/>
@@ -6267,22 +6603,22 @@
       <c r="V102" s="33"/>
       <c r="W102" s="34"/>
     </row>
-    <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="117" t="s">
+    <row r="103" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="118"/>
-      <c r="D103" s="118"/>
-      <c r="E103" s="118"/>
-      <c r="F103" s="118"/>
-      <c r="G103" s="118"/>
+      <c r="C103" s="111"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="111"/>
+      <c r="F103" s="111"/>
+      <c r="G103" s="111"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>12.9</v>
+        <v>16.393000000000001</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -6298,7 +6634,7 @@
       </c>
       <c r="M103" s="17">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>3.9929999999999999</v>
       </c>
       <c r="N103" s="17">
         <f t="shared" si="4"/>
@@ -6341,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6350,24 +6686,24 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="108" t="s">
+      <c r="J104" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="109"/>
-      <c r="L104" s="109"/>
-      <c r="M104" s="109"/>
-      <c r="N104" s="109"/>
-      <c r="O104" s="109"/>
-      <c r="P104" s="109"/>
-      <c r="Q104" s="109"/>
-      <c r="R104" s="109"/>
-      <c r="S104" s="109"/>
-      <c r="T104" s="109"/>
-      <c r="U104" s="109"/>
-      <c r="V104" s="109"/>
-      <c r="W104" s="110"/>
-    </row>
-    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K104" s="102"/>
+      <c r="L104" s="102"/>
+      <c r="M104" s="102"/>
+      <c r="N104" s="102"/>
+      <c r="O104" s="102"/>
+      <c r="P104" s="102"/>
+      <c r="Q104" s="102"/>
+      <c r="R104" s="102"/>
+      <c r="S104" s="102"/>
+      <c r="T104" s="102"/>
+      <c r="U104" s="102"/>
+      <c r="V104" s="102"/>
+      <c r="W104" s="103"/>
+    </row>
+    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="76" t="s">
         <v>124</v>
       </c>
@@ -6391,7 +6727,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="82" t="s">
         <v>16</v>
       </c>
@@ -6401,18 +6737,18 @@
       </c>
       <c r="D106" s="36">
         <f>SUM(I98:I102,I91:I96,I9,I7,I40)</f>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="E106" s="36">
         <f>SUM(C106,-D106)</f>
-        <v>12.27</v>
+        <v>11.52</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="94" t="s">
+      <c r="H106" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="97"/>
+      <c r="I106" s="123"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6427,50 +6763,50 @@
       </c>
       <c r="M106" s="10">
         <f>L106-M103</f>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="N106" s="10">
         <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
+        <v>32.326999999999998</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>35.82</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>32.326999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="80" t="s">
         <v>15</v>
       </c>
@@ -6480,11 +6816,11 @@
       </c>
       <c r="D107" s="5">
         <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90,I4)</f>
-        <v>1.6500000000000001</v>
+        <v>4.3929999999999998</v>
       </c>
       <c r="E107" s="5">
         <f>SUM(C107,-D107)</f>
-        <v>16.549999999999994</v>
+        <v>13.806999999999992</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6495,7 +6831,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="80" t="s">
         <v>17</v>
       </c>
@@ -6512,29 +6848,29 @@
         <v>5.5</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="94" t="s">
+      <c r="H108" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="95"/>
-      <c r="J108" s="94">
+      <c r="I108" s="121"/>
+      <c r="J108" s="120">
         <f>H103-I103</f>
-        <v>35.82</v>
-      </c>
-      <c r="K108" s="95"/>
-      <c r="L108" s="95"/>
-      <c r="M108" s="95"/>
-      <c r="N108" s="95"/>
-      <c r="O108" s="95"/>
-      <c r="P108" s="95"/>
-      <c r="Q108" s="95"/>
-      <c r="R108" s="95"/>
-      <c r="S108" s="95"/>
-      <c r="T108" s="95"/>
-      <c r="U108" s="95"/>
-      <c r="V108" s="95"/>
-      <c r="W108" s="96"/>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+        <v>32.326999999999998</v>
+      </c>
+      <c r="K108" s="121"/>
+      <c r="L108" s="121"/>
+      <c r="M108" s="121"/>
+      <c r="N108" s="121"/>
+      <c r="O108" s="121"/>
+      <c r="P108" s="121"/>
+      <c r="Q108" s="121"/>
+      <c r="R108" s="121"/>
+      <c r="S108" s="121"/>
+      <c r="T108" s="121"/>
+      <c r="U108" s="121"/>
+      <c r="V108" s="121"/>
+      <c r="W108" s="122"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -6548,7 +6884,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -6562,7 +6898,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -6576,42 +6912,48 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6624,12 +6966,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6643,7 +6979,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6655,7 +6991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -521,7 +521,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -582,6 +582,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1093,7 +1099,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1369,6 +1375,39 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,37 +1483,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1600,34 +1609,34 @@
                   <c:v>32.326999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>30.826999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2065,8 +2074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M98" sqref="M98:M100"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="N81" sqref="N81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2095,22 +2104,22 @@
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="98" t="s">
+      <c r="J2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
-      <c r="V2" s="99"/>
-      <c r="W2" s="100"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
@@ -2181,7 +2190,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="104" t="s">
+      <c r="B4" s="115" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="89" t="s">
@@ -2248,7 +2257,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="105"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2311,7 +2320,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="105"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2342,7 +2351,9 @@
       <c r="M6" s="48">
         <v>0.96</v>
       </c>
-      <c r="N6" s="28"/>
+      <c r="N6" s="48">
+        <v>0</v>
+      </c>
       <c r="O6" s="28"/>
       <c r="P6" s="28"/>
       <c r="Q6" s="19"/>
@@ -2354,8 +2365,8 @@
       <c r="W6" s="20"/>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="105"/>
-      <c r="C7" s="113" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2387,7 +2398,9 @@
       <c r="M7" s="71">
         <v>0</v>
       </c>
-      <c r="N7" s="28"/>
+      <c r="N7" s="71">
+        <v>0</v>
+      </c>
       <c r="O7" s="28"/>
       <c r="P7" s="28"/>
       <c r="Q7" s="19"/>
@@ -2399,8 +2412,8 @@
       <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="105"/>
-      <c r="C8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2430,7 +2443,9 @@
       <c r="M8" s="71">
         <v>0</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="131">
+        <v>0</v>
+      </c>
       <c r="O8" s="28"/>
       <c r="P8" s="28"/>
       <c r="Q8" s="19"/>
@@ -2442,8 +2457,8 @@
       <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="109"/>
-      <c r="C9" s="114"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2473,7 +2488,9 @@
       <c r="M9" s="72">
         <v>0</v>
       </c>
-      <c r="N9" s="32"/>
+      <c r="N9" s="72">
+        <v>0</v>
+      </c>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="21"/>
@@ -2485,7 +2502,7 @@
       <c r="W9" s="22"/>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="106" t="s">
+      <c r="B10" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2515,10 +2532,12 @@
       <c r="L10" s="73">
         <v>0</v>
       </c>
-      <c r="M10" s="128">
+      <c r="M10" s="95">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="95">
+        <v>0</v>
+      </c>
       <c r="O10" s="35"/>
       <c r="P10" s="35"/>
       <c r="Q10" s="35"/>
@@ -2530,7 +2549,7 @@
       <c r="W10" s="24"/>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="107"/>
+      <c r="B11" s="118"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2561,7 +2580,9 @@
       <c r="M11" s="71">
         <v>0</v>
       </c>
-      <c r="N11" s="28"/>
+      <c r="N11" s="71">
+        <v>0</v>
+      </c>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
       <c r="Q11" s="28"/>
@@ -2573,7 +2594,7 @@
       <c r="W11" s="58"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107"/>
+      <c r="B12" s="118"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2604,7 +2625,9 @@
       <c r="M12" s="71">
         <v>0</v>
       </c>
-      <c r="N12" s="28"/>
+      <c r="N12" s="71">
+        <v>0</v>
+      </c>
       <c r="O12" s="28"/>
       <c r="P12" s="28"/>
       <c r="Q12" s="28"/>
@@ -2616,7 +2639,7 @@
       <c r="W12" s="58"/>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="108"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2647,7 +2670,9 @@
       <c r="M13" s="74">
         <v>0</v>
       </c>
-      <c r="N13" s="31"/>
+      <c r="N13" s="74">
+        <v>0</v>
+      </c>
       <c r="O13" s="31"/>
       <c r="P13" s="31"/>
       <c r="Q13" s="31"/>
@@ -2659,7 +2684,7 @@
       <c r="W13" s="69"/>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="108"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2690,7 +2715,9 @@
       <c r="M14" s="74">
         <v>0</v>
       </c>
-      <c r="N14" s="31"/>
+      <c r="N14" s="74">
+        <v>0</v>
+      </c>
       <c r="O14" s="31"/>
       <c r="P14" s="31"/>
       <c r="Q14" s="31"/>
@@ -2702,7 +2729,7 @@
       <c r="W14" s="69"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="108"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2733,7 +2760,9 @@
       <c r="M15" s="74">
         <v>0</v>
       </c>
-      <c r="N15" s="31"/>
+      <c r="N15" s="74">
+        <v>0</v>
+      </c>
       <c r="O15" s="31"/>
       <c r="P15" s="31"/>
       <c r="Q15" s="31"/>
@@ -2745,7 +2774,7 @@
       <c r="W15" s="69"/>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2810,7 +2839,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="105"/>
+      <c r="B17" s="116"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2841,7 +2870,9 @@
       <c r="M17" s="48">
         <v>1.083</v>
       </c>
-      <c r="N17" s="28"/>
+      <c r="N17" s="48">
+        <v>0</v>
+      </c>
       <c r="O17" s="28"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="29"/>
@@ -2853,8 +2884,8 @@
       <c r="W17" s="30"/>
     </row>
     <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="105"/>
-      <c r="C18" s="112" t="s">
+      <c r="B18" s="116"/>
+      <c r="C18" s="123" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2886,7 +2917,9 @@
       <c r="M18" s="71">
         <v>0</v>
       </c>
-      <c r="N18" s="28"/>
+      <c r="N18" s="71">
+        <v>0</v>
+      </c>
       <c r="O18" s="28"/>
       <c r="P18" s="29"/>
       <c r="Q18" s="29"/>
@@ -2898,8 +2931,8 @@
       <c r="W18" s="30"/>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="105"/>
-      <c r="C19" s="112"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2929,7 +2962,9 @@
       <c r="M19" s="48">
         <v>0.15</v>
       </c>
-      <c r="N19" s="28"/>
+      <c r="N19" s="48">
+        <v>0</v>
+      </c>
       <c r="O19" s="28"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="29"/>
@@ -2941,8 +2976,8 @@
       <c r="W19" s="30"/>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="105"/>
-      <c r="C20" s="126" t="s">
+      <c r="B20" s="116"/>
+      <c r="C20" s="104" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -2960,7 +2995,7 @@
       </c>
       <c r="I20" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J20" s="71">
         <v>0</v>
@@ -2974,7 +3009,9 @@
       <c r="M20" s="71">
         <v>0</v>
       </c>
-      <c r="N20" s="28"/>
+      <c r="N20" s="48">
+        <v>1.1499999999999999</v>
+      </c>
       <c r="O20" s="28"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="29"/>
@@ -2986,8 +3023,8 @@
       <c r="W20" s="30"/>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="105"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -3017,7 +3054,9 @@
       <c r="M21" s="71">
         <v>0</v>
       </c>
-      <c r="N21" s="28"/>
+      <c r="N21" s="71">
+        <v>0</v>
+      </c>
       <c r="O21" s="28"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="29"/>
@@ -3029,8 +3068,8 @@
       <c r="W21" s="30"/>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="105"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3046,7 +3085,7 @@
       </c>
       <c r="I22" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="J22" s="71">
         <v>0</v>
@@ -3060,7 +3099,9 @@
       <c r="M22" s="71">
         <v>0</v>
       </c>
-      <c r="N22" s="28"/>
+      <c r="N22" s="94">
+        <v>0.35</v>
+      </c>
       <c r="O22" s="28"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="29"/>
@@ -3072,8 +3113,8 @@
       <c r="W22" s="30"/>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="105"/>
-      <c r="C23" s="126"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -3103,7 +3144,9 @@
       <c r="M23" s="71">
         <v>0</v>
       </c>
-      <c r="N23" s="28"/>
+      <c r="N23" s="71">
+        <v>0</v>
+      </c>
       <c r="O23" s="28"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="29"/>
@@ -3115,8 +3158,8 @@
       <c r="W23" s="30"/>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="105"/>
-      <c r="C24" s="126"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3189,9 @@
       <c r="M24" s="71">
         <v>0</v>
       </c>
-      <c r="N24" s="28"/>
+      <c r="N24" s="71">
+        <v>0</v>
+      </c>
       <c r="O24" s="28"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="29"/>
@@ -3158,8 +3203,8 @@
       <c r="W24" s="30"/>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="105"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3189,7 +3234,9 @@
       <c r="M25" s="71">
         <v>0</v>
       </c>
-      <c r="N25" s="28"/>
+      <c r="N25" s="71">
+        <v>0</v>
+      </c>
       <c r="O25" s="28"/>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3201,8 +3248,8 @@
       <c r="W25" s="30"/>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="105"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3232,7 +3279,9 @@
       <c r="M26" s="71">
         <v>0</v>
       </c>
-      <c r="N26" s="28"/>
+      <c r="N26" s="71">
+        <v>0</v>
+      </c>
       <c r="O26" s="28"/>
       <c r="P26" s="29"/>
       <c r="Q26" s="29"/>
@@ -3244,8 +3293,8 @@
       <c r="W26" s="30"/>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="105"/>
-      <c r="C27" s="126"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3275,7 +3324,9 @@
       <c r="M27" s="71">
         <v>0</v>
       </c>
-      <c r="N27" s="28"/>
+      <c r="N27" s="71">
+        <v>0</v>
+      </c>
       <c r="O27" s="28"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="29"/>
@@ -3287,8 +3338,8 @@
       <c r="W27" s="30"/>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="105"/>
-      <c r="C28" s="126"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3318,7 +3369,9 @@
       <c r="M28" s="71">
         <v>0</v>
       </c>
-      <c r="N28" s="28"/>
+      <c r="N28" s="71">
+        <v>0</v>
+      </c>
       <c r="O28" s="28"/>
       <c r="P28" s="29"/>
       <c r="Q28" s="29"/>
@@ -3330,8 +3383,8 @@
       <c r="W28" s="30"/>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="105"/>
-      <c r="C29" s="126"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3361,7 +3414,9 @@
       <c r="M29" s="71">
         <v>0</v>
       </c>
-      <c r="N29" s="28"/>
+      <c r="N29" s="71">
+        <v>0</v>
+      </c>
       <c r="O29" s="28"/>
       <c r="P29" s="29"/>
       <c r="Q29" s="29"/>
@@ -3373,8 +3428,8 @@
       <c r="W29" s="30"/>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="105"/>
-      <c r="C30" s="126"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3404,7 +3459,9 @@
       <c r="M30" s="71">
         <v>0</v>
       </c>
-      <c r="N30" s="28"/>
+      <c r="N30" s="71">
+        <v>0</v>
+      </c>
       <c r="O30" s="28"/>
       <c r="P30" s="29"/>
       <c r="Q30" s="29"/>
@@ -3416,8 +3473,8 @@
       <c r="W30" s="30"/>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="105"/>
-      <c r="C31" s="126"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3447,7 +3504,9 @@
       <c r="M31" s="71">
         <v>0</v>
       </c>
-      <c r="N31" s="28"/>
+      <c r="N31" s="71">
+        <v>0</v>
+      </c>
       <c r="O31" s="28"/>
       <c r="P31" s="29"/>
       <c r="Q31" s="29"/>
@@ -3459,8 +3518,8 @@
       <c r="W31" s="30"/>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="105"/>
-      <c r="C32" s="126"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3490,7 +3549,9 @@
       <c r="M32" s="71">
         <v>0</v>
       </c>
-      <c r="N32" s="28"/>
+      <c r="N32" s="71">
+        <v>0</v>
+      </c>
       <c r="O32" s="28"/>
       <c r="P32" s="29"/>
       <c r="Q32" s="29"/>
@@ -3502,8 +3563,8 @@
       <c r="W32" s="30"/>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="105"/>
-      <c r="C33" s="126"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3533,7 +3594,9 @@
       <c r="M33" s="71">
         <v>0</v>
       </c>
-      <c r="N33" s="28"/>
+      <c r="N33" s="71">
+        <v>0</v>
+      </c>
       <c r="O33" s="28"/>
       <c r="P33" s="29"/>
       <c r="Q33" s="29"/>
@@ -3545,8 +3608,8 @@
       <c r="W33" s="30"/>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="105"/>
-      <c r="C34" s="126"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3576,7 +3639,9 @@
       <c r="M34" s="71">
         <v>0</v>
       </c>
-      <c r="N34" s="28"/>
+      <c r="N34" s="71">
+        <v>0</v>
+      </c>
       <c r="O34" s="28"/>
       <c r="P34" s="29"/>
       <c r="Q34" s="29"/>
@@ -3588,8 +3653,8 @@
       <c r="W34" s="30"/>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="105"/>
-      <c r="C35" s="126"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3619,7 +3684,9 @@
       <c r="M35" s="71">
         <v>0</v>
       </c>
-      <c r="N35" s="28"/>
+      <c r="N35" s="71">
+        <v>0</v>
+      </c>
       <c r="O35" s="28"/>
       <c r="P35" s="29"/>
       <c r="Q35" s="29"/>
@@ -3631,8 +3698,8 @@
       <c r="W35" s="30"/>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="105"/>
-      <c r="C36" s="126"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3662,7 +3729,9 @@
       <c r="M36" s="71">
         <v>0</v>
       </c>
-      <c r="N36" s="28"/>
+      <c r="N36" s="71">
+        <v>0</v>
+      </c>
       <c r="O36" s="28"/>
       <c r="P36" s="29"/>
       <c r="Q36" s="29"/>
@@ -3674,7 +3743,7 @@
       <c r="W36" s="30"/>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="105"/>
+      <c r="B37" s="116"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3705,7 +3774,9 @@
       <c r="M37" s="71">
         <v>0</v>
       </c>
-      <c r="N37" s="28"/>
+      <c r="N37" s="71">
+        <v>0</v>
+      </c>
       <c r="O37" s="28"/>
       <c r="P37" s="29"/>
       <c r="Q37" s="29"/>
@@ -3717,7 +3788,7 @@
       <c r="W37" s="30"/>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="105"/>
+      <c r="B38" s="116"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3748,7 +3819,9 @@
       <c r="M38" s="71">
         <v>0</v>
       </c>
-      <c r="N38" s="28"/>
+      <c r="N38" s="71">
+        <v>0</v>
+      </c>
       <c r="O38" s="28"/>
       <c r="P38" s="29"/>
       <c r="Q38" s="29"/>
@@ -3760,7 +3833,7 @@
       <c r="W38" s="30"/>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="105"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3823,7 +3896,7 @@
       </c>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="105"/>
+      <c r="B40" s="116"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3854,7 +3927,9 @@
       <c r="M40" s="71">
         <v>0</v>
       </c>
-      <c r="N40" s="28"/>
+      <c r="N40" s="71">
+        <v>0</v>
+      </c>
       <c r="O40" s="28"/>
       <c r="P40" s="29"/>
       <c r="Q40" s="29"/>
@@ -3866,10 +3941,10 @@
       <c r="W40" s="30"/>
     </row>
     <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="95" t="s">
+      <c r="B41" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3933,8 +4008,8 @@
       </c>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="96"/>
-      <c r="C42" s="125"/>
+      <c r="B42" s="107"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -3964,7 +4039,9 @@
       <c r="M42" s="71">
         <v>0</v>
       </c>
-      <c r="N42" s="28"/>
+      <c r="N42" s="71">
+        <v>0</v>
+      </c>
       <c r="O42" s="28"/>
       <c r="P42" s="29"/>
       <c r="Q42" s="29"/>
@@ -3976,8 +4053,8 @@
       <c r="W42" s="30"/>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="96"/>
-      <c r="C43" s="125"/>
+      <c r="B43" s="107"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -4007,7 +4084,9 @@
       <c r="M43" s="71">
         <v>0</v>
       </c>
-      <c r="N43" s="28"/>
+      <c r="N43" s="71">
+        <v>0</v>
+      </c>
       <c r="O43" s="28"/>
       <c r="P43" s="29"/>
       <c r="Q43" s="29"/>
@@ -4019,8 +4098,8 @@
       <c r="W43" s="30"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="96"/>
-      <c r="C44" s="125"/>
+      <c r="B44" s="107"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -4050,7 +4129,9 @@
       <c r="M44" s="71">
         <v>0</v>
       </c>
-      <c r="N44" s="28"/>
+      <c r="N44" s="71">
+        <v>0</v>
+      </c>
       <c r="O44" s="28"/>
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
@@ -4062,8 +4143,8 @@
       <c r="W44" s="30"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="96"/>
-      <c r="C45" s="125"/>
+      <c r="B45" s="107"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -4093,7 +4174,9 @@
       <c r="M45" s="71">
         <v>0</v>
       </c>
-      <c r="N45" s="28"/>
+      <c r="N45" s="71">
+        <v>0</v>
+      </c>
       <c r="O45" s="28"/>
       <c r="P45" s="29"/>
       <c r="Q45" s="29"/>
@@ -4105,8 +4188,8 @@
       <c r="W45" s="30"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="96"/>
-      <c r="C46" s="125"/>
+      <c r="B46" s="107"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -4136,7 +4219,9 @@
       <c r="M46" s="71">
         <v>0</v>
       </c>
-      <c r="N46" s="28"/>
+      <c r="N46" s="71">
+        <v>0</v>
+      </c>
       <c r="O46" s="28"/>
       <c r="P46" s="29"/>
       <c r="Q46" s="29"/>
@@ -4148,8 +4233,8 @@
       <c r="W46" s="30"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="96"/>
-      <c r="C47" s="125"/>
+      <c r="B47" s="107"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -4179,7 +4264,9 @@
       <c r="M47" s="71">
         <v>0</v>
       </c>
-      <c r="N47" s="28"/>
+      <c r="N47" s="71">
+        <v>0</v>
+      </c>
       <c r="O47" s="28"/>
       <c r="P47" s="29"/>
       <c r="Q47" s="29"/>
@@ -4191,8 +4278,8 @@
       <c r="W47" s="30"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="96"/>
-      <c r="C48" s="125"/>
+      <c r="B48" s="107"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -4222,7 +4309,9 @@
       <c r="M48" s="71">
         <v>0</v>
       </c>
-      <c r="N48" s="28"/>
+      <c r="N48" s="71">
+        <v>0</v>
+      </c>
       <c r="O48" s="28"/>
       <c r="P48" s="29"/>
       <c r="Q48" s="29"/>
@@ -4234,8 +4323,8 @@
       <c r="W48" s="30"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="96"/>
-      <c r="C49" s="125"/>
+      <c r="B49" s="107"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4265,7 +4354,9 @@
       <c r="M49" s="71">
         <v>0</v>
       </c>
-      <c r="N49" s="28"/>
+      <c r="N49" s="71">
+        <v>0</v>
+      </c>
       <c r="O49" s="28"/>
       <c r="P49" s="29"/>
       <c r="Q49" s="29"/>
@@ -4277,8 +4368,8 @@
       <c r="W49" s="30"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="96"/>
-      <c r="C50" s="125"/>
+      <c r="B50" s="107"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4308,7 +4399,9 @@
       <c r="M50" s="71">
         <v>0</v>
       </c>
-      <c r="N50" s="28"/>
+      <c r="N50" s="71">
+        <v>0</v>
+      </c>
       <c r="O50" s="28"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
@@ -4320,8 +4413,8 @@
       <c r="W50" s="30"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="96"/>
-      <c r="C51" s="125"/>
+      <c r="B51" s="107"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4351,7 +4444,9 @@
       <c r="M51" s="71">
         <v>0</v>
       </c>
-      <c r="N51" s="28"/>
+      <c r="N51" s="71">
+        <v>0</v>
+      </c>
       <c r="O51" s="28"/>
       <c r="P51" s="29"/>
       <c r="Q51" s="29"/>
@@ -4363,8 +4458,8 @@
       <c r="W51" s="30"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="96"/>
-      <c r="C52" s="125"/>
+      <c r="B52" s="107"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4394,7 +4489,9 @@
       <c r="M52" s="71">
         <v>0</v>
       </c>
-      <c r="N52" s="28"/>
+      <c r="N52" s="71">
+        <v>0</v>
+      </c>
       <c r="O52" s="28"/>
       <c r="P52" s="29"/>
       <c r="Q52" s="29"/>
@@ -4406,8 +4503,8 @@
       <c r="W52" s="30"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="96"/>
-      <c r="C53" s="125"/>
+      <c r="B53" s="107"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4437,7 +4534,9 @@
       <c r="M53" s="71">
         <v>0</v>
       </c>
-      <c r="N53" s="28"/>
+      <c r="N53" s="71">
+        <v>0</v>
+      </c>
       <c r="O53" s="28"/>
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
@@ -4449,8 +4548,8 @@
       <c r="W53" s="30"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="96"/>
-      <c r="C54" s="125"/>
+      <c r="B54" s="107"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4480,7 +4579,9 @@
       <c r="M54" s="71">
         <v>0</v>
       </c>
-      <c r="N54" s="28"/>
+      <c r="N54" s="71">
+        <v>0</v>
+      </c>
       <c r="O54" s="28"/>
       <c r="P54" s="29"/>
       <c r="Q54" s="29"/>
@@ -4492,8 +4593,8 @@
       <c r="W54" s="30"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="96"/>
-      <c r="C55" s="125"/>
+      <c r="B55" s="107"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4523,7 +4624,9 @@
       <c r="M55" s="71">
         <v>0</v>
       </c>
-      <c r="N55" s="28"/>
+      <c r="N55" s="71">
+        <v>0</v>
+      </c>
       <c r="O55" s="28"/>
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
@@ -4535,8 +4638,8 @@
       <c r="W55" s="30"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="96"/>
-      <c r="C56" s="125"/>
+      <c r="B56" s="107"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4566,7 +4669,9 @@
       <c r="M56" s="71">
         <v>0</v>
       </c>
-      <c r="N56" s="28"/>
+      <c r="N56" s="71">
+        <v>0</v>
+      </c>
       <c r="O56" s="28"/>
       <c r="P56" s="29"/>
       <c r="Q56" s="29"/>
@@ -4578,8 +4683,8 @@
       <c r="W56" s="30"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="96"/>
-      <c r="C57" s="125"/>
+      <c r="B57" s="107"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4609,7 +4714,9 @@
       <c r="M57" s="71">
         <v>0</v>
       </c>
-      <c r="N57" s="28"/>
+      <c r="N57" s="71">
+        <v>0</v>
+      </c>
       <c r="O57" s="28"/>
       <c r="P57" s="29"/>
       <c r="Q57" s="29"/>
@@ -4621,8 +4728,8 @@
       <c r="W57" s="30"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="96"/>
-      <c r="C58" s="125"/>
+      <c r="B58" s="107"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4652,7 +4759,9 @@
       <c r="M58" s="71">
         <v>0</v>
       </c>
-      <c r="N58" s="28"/>
+      <c r="N58" s="71">
+        <v>0</v>
+      </c>
       <c r="O58" s="28"/>
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
@@ -4664,8 +4773,8 @@
       <c r="W58" s="30"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="96"/>
-      <c r="C59" s="125"/>
+      <c r="B59" s="107"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4695,7 +4804,9 @@
       <c r="M59" s="71">
         <v>0</v>
       </c>
-      <c r="N59" s="28"/>
+      <c r="N59" s="71">
+        <v>0</v>
+      </c>
       <c r="O59" s="28"/>
       <c r="P59" s="29"/>
       <c r="Q59" s="29"/>
@@ -4707,8 +4818,8 @@
       <c r="W59" s="30"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="96"/>
-      <c r="C60" s="125"/>
+      <c r="B60" s="107"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4738,7 +4849,9 @@
       <c r="M60" s="71">
         <v>0</v>
       </c>
-      <c r="N60" s="28"/>
+      <c r="N60" s="71">
+        <v>0</v>
+      </c>
       <c r="O60" s="28"/>
       <c r="P60" s="29"/>
       <c r="Q60" s="29"/>
@@ -4750,8 +4863,8 @@
       <c r="W60" s="30"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="96"/>
-      <c r="C61" s="125"/>
+      <c r="B61" s="107"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4781,7 +4894,9 @@
       <c r="M61" s="71">
         <v>0</v>
       </c>
-      <c r="N61" s="28"/>
+      <c r="N61" s="71">
+        <v>0</v>
+      </c>
       <c r="O61" s="28"/>
       <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
@@ -4793,8 +4908,8 @@
       <c r="W61" s="30"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="96"/>
-      <c r="C62" s="125"/>
+      <c r="B62" s="107"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4824,7 +4939,9 @@
       <c r="M62" s="71">
         <v>0</v>
       </c>
-      <c r="N62" s="28"/>
+      <c r="N62" s="71">
+        <v>0</v>
+      </c>
       <c r="O62" s="28"/>
       <c r="P62" s="29"/>
       <c r="Q62" s="29"/>
@@ -4836,8 +4953,8 @@
       <c r="W62" s="30"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="96"/>
-      <c r="C63" s="125"/>
+      <c r="B63" s="107"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4867,7 +4984,9 @@
       <c r="M63" s="71">
         <v>0</v>
       </c>
-      <c r="N63" s="28"/>
+      <c r="N63" s="71">
+        <v>0</v>
+      </c>
       <c r="O63" s="28"/>
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
@@ -4879,8 +4998,8 @@
       <c r="W63" s="30"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="96"/>
-      <c r="C64" s="125"/>
+      <c r="B64" s="107"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -4910,7 +5029,9 @@
       <c r="M64" s="71">
         <v>0</v>
       </c>
-      <c r="N64" s="28"/>
+      <c r="N64" s="71">
+        <v>0</v>
+      </c>
       <c r="O64" s="28"/>
       <c r="P64" s="29"/>
       <c r="Q64" s="29"/>
@@ -4922,8 +5043,8 @@
       <c r="W64" s="30"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="96"/>
-      <c r="C65" s="125"/>
+      <c r="B65" s="107"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -4953,7 +5074,9 @@
       <c r="M65" s="71">
         <v>0</v>
       </c>
-      <c r="N65" s="28"/>
+      <c r="N65" s="71">
+        <v>0</v>
+      </c>
       <c r="O65" s="28"/>
       <c r="P65" s="29"/>
       <c r="Q65" s="29"/>
@@ -4965,8 +5088,8 @@
       <c r="W65" s="30"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="96"/>
-      <c r="C66" s="125"/>
+      <c r="B66" s="107"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -4996,7 +5119,9 @@
       <c r="M66" s="71">
         <v>0</v>
       </c>
-      <c r="N66" s="28"/>
+      <c r="N66" s="71">
+        <v>0</v>
+      </c>
       <c r="O66" s="28"/>
       <c r="P66" s="29"/>
       <c r="Q66" s="29"/>
@@ -5008,8 +5133,8 @@
       <c r="W66" s="30"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="96"/>
-      <c r="C67" s="125"/>
+      <c r="B67" s="107"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -5039,7 +5164,9 @@
       <c r="M67" s="71">
         <v>0</v>
       </c>
-      <c r="N67" s="28"/>
+      <c r="N67" s="71">
+        <v>0</v>
+      </c>
       <c r="O67" s="28"/>
       <c r="P67" s="29"/>
       <c r="Q67" s="29"/>
@@ -5051,8 +5178,8 @@
       <c r="W67" s="30"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="96"/>
-      <c r="C68" s="125"/>
+      <c r="B68" s="107"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -5082,7 +5209,9 @@
       <c r="M68" s="71">
         <v>0</v>
       </c>
-      <c r="N68" s="28"/>
+      <c r="N68" s="71">
+        <v>0</v>
+      </c>
       <c r="O68" s="28"/>
       <c r="P68" s="29"/>
       <c r="Q68" s="29"/>
@@ -5094,8 +5223,8 @@
       <c r="W68" s="30"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="96"/>
-      <c r="C69" s="125"/>
+      <c r="B69" s="107"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -5125,7 +5254,9 @@
       <c r="M69" s="71">
         <v>0</v>
       </c>
-      <c r="N69" s="28"/>
+      <c r="N69" s="71">
+        <v>0</v>
+      </c>
       <c r="O69" s="28"/>
       <c r="P69" s="29"/>
       <c r="Q69" s="29"/>
@@ -5137,8 +5268,8 @@
       <c r="W69" s="30"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="96"/>
-      <c r="C70" s="125"/>
+      <c r="B70" s="107"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -5168,7 +5299,9 @@
       <c r="M70" s="71">
         <v>0</v>
       </c>
-      <c r="N70" s="28"/>
+      <c r="N70" s="71">
+        <v>0</v>
+      </c>
       <c r="O70" s="28"/>
       <c r="P70" s="29"/>
       <c r="Q70" s="29"/>
@@ -5180,8 +5313,8 @@
       <c r="W70" s="30"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="96"/>
-      <c r="C71" s="125"/>
+      <c r="B71" s="107"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -5211,7 +5344,9 @@
       <c r="M71" s="71">
         <v>0</v>
       </c>
-      <c r="N71" s="28"/>
+      <c r="N71" s="71">
+        <v>0</v>
+      </c>
       <c r="O71" s="28"/>
       <c r="P71" s="29"/>
       <c r="Q71" s="29"/>
@@ -5223,8 +5358,8 @@
       <c r="W71" s="30"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="96"/>
-      <c r="C72" s="125"/>
+      <c r="B72" s="107"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -5254,7 +5389,9 @@
       <c r="M72" s="71">
         <v>0</v>
       </c>
-      <c r="N72" s="28"/>
+      <c r="N72" s="71">
+        <v>0</v>
+      </c>
       <c r="O72" s="28"/>
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
@@ -5266,8 +5403,8 @@
       <c r="W72" s="30"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="96"/>
-      <c r="C73" s="125"/>
+      <c r="B73" s="107"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -5297,7 +5434,9 @@
       <c r="M73" s="71">
         <v>0</v>
       </c>
-      <c r="N73" s="28"/>
+      <c r="N73" s="71">
+        <v>0</v>
+      </c>
       <c r="O73" s="28"/>
       <c r="P73" s="29"/>
       <c r="Q73" s="29"/>
@@ -5309,8 +5448,8 @@
       <c r="W73" s="30"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="96"/>
-      <c r="C74" s="125"/>
+      <c r="B74" s="107"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -5340,7 +5479,9 @@
       <c r="M74" s="71">
         <v>0</v>
       </c>
-      <c r="N74" s="28"/>
+      <c r="N74" s="71">
+        <v>0</v>
+      </c>
       <c r="O74" s="28"/>
       <c r="P74" s="29"/>
       <c r="Q74" s="29"/>
@@ -5352,8 +5493,8 @@
       <c r="W74" s="30"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="96"/>
-      <c r="C75" s="125"/>
+      <c r="B75" s="107"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5383,7 +5524,9 @@
       <c r="M75" s="71">
         <v>0</v>
       </c>
-      <c r="N75" s="28"/>
+      <c r="N75" s="71">
+        <v>0</v>
+      </c>
       <c r="O75" s="28"/>
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
@@ -5395,8 +5538,8 @@
       <c r="W75" s="30"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="96"/>
-      <c r="C76" s="125"/>
+      <c r="B76" s="107"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5426,7 +5569,9 @@
       <c r="M76" s="71">
         <v>0</v>
       </c>
-      <c r="N76" s="28"/>
+      <c r="N76" s="71">
+        <v>0</v>
+      </c>
       <c r="O76" s="28"/>
       <c r="P76" s="29"/>
       <c r="Q76" s="29"/>
@@ -5438,8 +5583,8 @@
       <c r="W76" s="30"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="96"/>
-      <c r="C77" s="125"/>
+      <c r="B77" s="107"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5469,7 +5614,9 @@
       <c r="M77" s="71">
         <v>0</v>
       </c>
-      <c r="N77" s="28"/>
+      <c r="N77" s="71">
+        <v>0</v>
+      </c>
       <c r="O77" s="28"/>
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
@@ -5481,8 +5628,8 @@
       <c r="W77" s="30"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="96"/>
-      <c r="C78" s="125"/>
+      <c r="B78" s="107"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5512,7 +5659,9 @@
       <c r="M78" s="71">
         <v>0</v>
       </c>
-      <c r="N78" s="28"/>
+      <c r="N78" s="71">
+        <v>0</v>
+      </c>
       <c r="O78" s="28"/>
       <c r="P78" s="29"/>
       <c r="Q78" s="29"/>
@@ -5524,8 +5673,8 @@
       <c r="W78" s="30"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="96"/>
-      <c r="C79" s="125"/>
+      <c r="B79" s="107"/>
+      <c r="C79" s="103"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5555,7 +5704,9 @@
       <c r="M79" s="71">
         <v>0</v>
       </c>
-      <c r="N79" s="28"/>
+      <c r="N79" s="71">
+        <v>0</v>
+      </c>
       <c r="O79" s="28"/>
       <c r="P79" s="29"/>
       <c r="Q79" s="29"/>
@@ -5567,8 +5718,8 @@
       <c r="W79" s="30"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="96"/>
-      <c r="C80" s="125"/>
+      <c r="B80" s="107"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5598,7 +5749,9 @@
       <c r="M80" s="71">
         <v>0</v>
       </c>
-      <c r="N80" s="28"/>
+      <c r="N80" s="71">
+        <v>0</v>
+      </c>
       <c r="O80" s="28"/>
       <c r="P80" s="29"/>
       <c r="Q80" s="29"/>
@@ -5610,8 +5763,8 @@
       <c r="W80" s="30"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="96"/>
-      <c r="C81" s="125"/>
+      <c r="B81" s="107"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5641,7 +5794,9 @@
       <c r="M81" s="71">
         <v>0</v>
       </c>
-      <c r="N81" s="28"/>
+      <c r="N81" s="71">
+        <v>0</v>
+      </c>
       <c r="O81" s="28"/>
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
@@ -5653,8 +5808,8 @@
       <c r="W81" s="30"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="96"/>
-      <c r="C82" s="125"/>
+      <c r="B82" s="107"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5684,7 +5839,9 @@
       <c r="M82" s="71">
         <v>0</v>
       </c>
-      <c r="N82" s="28"/>
+      <c r="N82" s="71">
+        <v>0</v>
+      </c>
       <c r="O82" s="28"/>
       <c r="P82" s="29"/>
       <c r="Q82" s="29"/>
@@ -5696,8 +5853,8 @@
       <c r="W82" s="30"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="96"/>
-      <c r="C83" s="125"/>
+      <c r="B83" s="107"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5759,8 +5916,8 @@
       </c>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="96"/>
-      <c r="C84" s="97" t="s">
+      <c r="B84" s="107"/>
+      <c r="C84" s="108" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5792,7 +5949,9 @@
       <c r="M84" s="71">
         <v>0</v>
       </c>
-      <c r="N84" s="28"/>
+      <c r="N84" s="71">
+        <v>0</v>
+      </c>
       <c r="O84" s="28"/>
       <c r="P84" s="28"/>
       <c r="Q84" s="28"/>
@@ -5804,8 +5963,8 @@
       <c r="W84" s="30"/>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="96"/>
-      <c r="C85" s="97"/>
+      <c r="B85" s="107"/>
+      <c r="C85" s="108"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -5835,7 +5994,9 @@
       <c r="M85" s="71">
         <v>0</v>
       </c>
-      <c r="N85" s="28"/>
+      <c r="N85" s="71">
+        <v>0</v>
+      </c>
       <c r="O85" s="28"/>
       <c r="P85" s="28"/>
       <c r="Q85" s="28"/>
@@ -5847,8 +6008,8 @@
       <c r="W85" s="30"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="96"/>
-      <c r="C86" s="97"/>
+      <c r="B86" s="107"/>
+      <c r="C86" s="108"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -5878,7 +6039,9 @@
       <c r="M86" s="71">
         <v>0</v>
       </c>
-      <c r="N86" s="28"/>
+      <c r="N86" s="71">
+        <v>0</v>
+      </c>
       <c r="O86" s="28"/>
       <c r="P86" s="28"/>
       <c r="Q86" s="28"/>
@@ -5890,8 +6053,8 @@
       <c r="W86" s="30"/>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="96"/>
-      <c r="C87" s="97"/>
+      <c r="B87" s="107"/>
+      <c r="C87" s="108"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -5921,7 +6084,9 @@
       <c r="M87" s="71">
         <v>0</v>
       </c>
-      <c r="N87" s="28"/>
+      <c r="N87" s="71">
+        <v>0</v>
+      </c>
       <c r="O87" s="28"/>
       <c r="P87" s="28"/>
       <c r="Q87" s="28"/>
@@ -5933,8 +6098,8 @@
       <c r="W87" s="30"/>
     </row>
     <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="96"/>
-      <c r="C88" s="97"/>
+      <c r="B88" s="107"/>
+      <c r="C88" s="108"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -5964,7 +6129,9 @@
       <c r="M88" s="71">
         <v>0</v>
       </c>
-      <c r="N88" s="28"/>
+      <c r="N88" s="71">
+        <v>0</v>
+      </c>
       <c r="O88" s="28"/>
       <c r="P88" s="28"/>
       <c r="Q88" s="28"/>
@@ -5976,8 +6143,8 @@
       <c r="W88" s="58"/>
     </row>
     <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="96"/>
-      <c r="C89" s="97"/>
+      <c r="B89" s="107"/>
+      <c r="C89" s="108"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -6007,7 +6174,9 @@
       <c r="M89" s="71">
         <v>0</v>
       </c>
-      <c r="N89" s="28"/>
+      <c r="N89" s="71">
+        <v>0</v>
+      </c>
       <c r="O89" s="28"/>
       <c r="P89" s="28"/>
       <c r="Q89" s="28"/>
@@ -6019,7 +6188,7 @@
       <c r="W89" s="30"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="96"/>
+      <c r="B90" s="107"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -6082,7 +6251,7 @@
       </c>
     </row>
     <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="96"/>
+      <c r="B91" s="107"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -6113,7 +6282,9 @@
       <c r="M91" s="71">
         <v>0</v>
       </c>
-      <c r="N91" s="28"/>
+      <c r="N91" s="71">
+        <v>0</v>
+      </c>
       <c r="O91" s="28"/>
       <c r="P91" s="28"/>
       <c r="Q91" s="28"/>
@@ -6125,7 +6296,7 @@
       <c r="W91" s="30"/>
     </row>
     <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="115" t="s">
+      <c r="B92" s="126" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -6158,7 +6329,9 @@
       <c r="M92" s="70">
         <v>0</v>
       </c>
-      <c r="N92" s="25"/>
+      <c r="N92" s="70">
+        <v>0</v>
+      </c>
       <c r="O92" s="25"/>
       <c r="P92" s="25"/>
       <c r="Q92" s="25"/>
@@ -6170,7 +6343,7 @@
       <c r="W92" s="67"/>
     </row>
     <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="116"/>
+      <c r="B93" s="127"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -6201,7 +6374,9 @@
       <c r="M93" s="73">
         <v>0</v>
       </c>
-      <c r="N93" s="35"/>
+      <c r="N93" s="73">
+        <v>0</v>
+      </c>
       <c r="O93" s="35"/>
       <c r="P93" s="35"/>
       <c r="Q93" s="35"/>
@@ -6213,8 +6388,8 @@
       <c r="W93" s="66"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="117"/>
-      <c r="C94" s="127" t="s">
+      <c r="B94" s="128"/>
+      <c r="C94" s="105" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -6246,7 +6421,9 @@
       <c r="M94" s="71">
         <v>0</v>
       </c>
-      <c r="N94" s="28"/>
+      <c r="N94" s="71">
+        <v>0</v>
+      </c>
       <c r="O94" s="28"/>
       <c r="P94" s="28"/>
       <c r="Q94" s="28"/>
@@ -6258,8 +6435,8 @@
       <c r="W94" s="58"/>
     </row>
     <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="118"/>
-      <c r="C95" s="127"/>
+      <c r="B95" s="129"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -6289,7 +6466,9 @@
       <c r="M95" s="71">
         <v>0</v>
       </c>
-      <c r="N95" s="28"/>
+      <c r="N95" s="71">
+        <v>0</v>
+      </c>
       <c r="O95" s="28"/>
       <c r="P95" s="28"/>
       <c r="Q95" s="28"/>
@@ -6301,7 +6480,7 @@
       <c r="W95" s="58"/>
     </row>
     <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="119"/>
+      <c r="B96" s="130"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -6329,10 +6508,12 @@
       <c r="L96" s="72">
         <v>0</v>
       </c>
-      <c r="M96" s="129">
+      <c r="M96" s="96">
         <v>0.75</v>
       </c>
-      <c r="N96" s="32"/>
+      <c r="N96" s="96">
+        <v>0</v>
+      </c>
       <c r="O96" s="32"/>
       <c r="P96" s="32"/>
       <c r="Q96" s="32"/>
@@ -6344,7 +6525,7 @@
       <c r="W96" s="64"/>
     </row>
     <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="95" t="s">
+      <c r="B97" s="106" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -6377,7 +6558,9 @@
       <c r="M97" s="87">
         <v>0.46700000000000003</v>
       </c>
-      <c r="N97" s="26"/>
+      <c r="N97" s="87">
+        <v>0</v>
+      </c>
       <c r="O97" s="26"/>
       <c r="P97" s="26"/>
       <c r="Q97" s="26"/>
@@ -6389,7 +6572,7 @@
       <c r="W97" s="27"/>
     </row>
     <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="118"/>
+      <c r="B98" s="129"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -6417,10 +6600,12 @@
       <c r="L98" s="71">
         <v>0</v>
       </c>
-      <c r="M98" s="130">
-        <v>0</v>
-      </c>
-      <c r="N98" s="29"/>
+      <c r="M98" s="97">
+        <v>0</v>
+      </c>
+      <c r="N98" s="97">
+        <v>0</v>
+      </c>
       <c r="O98" s="29"/>
       <c r="P98" s="29"/>
       <c r="Q98" s="29"/>
@@ -6432,7 +6617,7 @@
       <c r="W98" s="30"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="118"/>
+      <c r="B99" s="129"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6460,10 +6645,12 @@
       <c r="L99" s="71">
         <v>0</v>
       </c>
-      <c r="M99" s="130">
-        <v>0</v>
-      </c>
-      <c r="N99" s="29"/>
+      <c r="M99" s="97">
+        <v>0</v>
+      </c>
+      <c r="N99" s="97">
+        <v>0</v>
+      </c>
       <c r="O99" s="29"/>
       <c r="P99" s="29"/>
       <c r="Q99" s="29"/>
@@ -6475,7 +6662,7 @@
       <c r="W99" s="30"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="118"/>
+      <c r="B100" s="129"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6503,10 +6690,12 @@
       <c r="L100" s="71">
         <v>0</v>
       </c>
-      <c r="M100" s="130">
-        <v>0</v>
-      </c>
-      <c r="N100" s="29"/>
+      <c r="M100" s="97">
+        <v>0</v>
+      </c>
+      <c r="N100" s="97">
+        <v>0</v>
+      </c>
       <c r="O100" s="29"/>
       <c r="P100" s="29"/>
       <c r="Q100" s="29"/>
@@ -6518,7 +6707,7 @@
       <c r="W100" s="30"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="118"/>
+      <c r="B101" s="129"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6549,7 +6738,9 @@
       <c r="M101" s="71">
         <v>0</v>
       </c>
-      <c r="N101" s="29"/>
+      <c r="N101" s="71">
+        <v>0</v>
+      </c>
       <c r="O101" s="29"/>
       <c r="P101" s="29"/>
       <c r="Q101" s="29"/>
@@ -6561,7 +6752,7 @@
       <c r="W101" s="30"/>
     </row>
     <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="119"/>
+      <c r="B102" s="130"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6592,7 +6783,9 @@
       <c r="M102" s="72">
         <v>0</v>
       </c>
-      <c r="N102" s="32"/>
+      <c r="N102" s="72">
+        <v>0</v>
+      </c>
       <c r="O102" s="32"/>
       <c r="P102" s="33"/>
       <c r="Q102" s="33"/>
@@ -6604,21 +6797,21 @@
       <c r="W102" s="34"/>
     </row>
     <row r="103" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="110" t="s">
+      <c r="B103" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="111"/>
-      <c r="D103" s="111"/>
-      <c r="E103" s="111"/>
-      <c r="F103" s="111"/>
-      <c r="G103" s="111"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="122"/>
+      <c r="G103" s="122"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>16.393000000000001</v>
+        <v>17.893000000000001</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -6638,7 +6831,7 @@
       </c>
       <c r="N103" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O103" s="17">
         <f t="shared" si="4"/>
@@ -6686,22 +6879,22 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="101" t="s">
+      <c r="J104" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
-      <c r="O104" s="102"/>
-      <c r="P104" s="102"/>
-      <c r="Q104" s="102"/>
-      <c r="R104" s="102"/>
-      <c r="S104" s="102"/>
-      <c r="T104" s="102"/>
-      <c r="U104" s="102"/>
-      <c r="V104" s="102"/>
-      <c r="W104" s="103"/>
+      <c r="K104" s="113"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="113"/>
+      <c r="N104" s="113"/>
+      <c r="O104" s="113"/>
+      <c r="P104" s="113"/>
+      <c r="Q104" s="113"/>
+      <c r="R104" s="113"/>
+      <c r="S104" s="113"/>
+      <c r="T104" s="113"/>
+      <c r="U104" s="113"/>
+      <c r="V104" s="113"/>
+      <c r="W104" s="114"/>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="76" t="s">
@@ -6745,10 +6938,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="120" t="s">
+      <c r="H106" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="123"/>
+      <c r="I106" s="101"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6767,43 +6960,43 @@
       </c>
       <c r="N106" s="10">
         <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>32.326999999999998</v>
+        <v>30.826999999999998</v>
       </c>
     </row>
     <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6816,11 +7009,11 @@
       </c>
       <c r="D107" s="5">
         <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90,I4)</f>
-        <v>4.3929999999999998</v>
+        <v>5.8929999999999998</v>
       </c>
       <c r="E107" s="5">
         <f>SUM(C107,-D107)</f>
-        <v>13.806999999999992</v>
+        <v>12.306999999999992</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -6848,27 +7041,27 @@
         <v>5.5</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="120" t="s">
+      <c r="H108" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="121"/>
-      <c r="J108" s="120">
+      <c r="I108" s="99"/>
+      <c r="J108" s="98">
         <f>H103-I103</f>
-        <v>32.326999999999998</v>
-      </c>
-      <c r="K108" s="121"/>
-      <c r="L108" s="121"/>
-      <c r="M108" s="121"/>
-      <c r="N108" s="121"/>
-      <c r="O108" s="121"/>
-      <c r="P108" s="121"/>
-      <c r="Q108" s="121"/>
-      <c r="R108" s="121"/>
-      <c r="S108" s="121"/>
-      <c r="T108" s="121"/>
-      <c r="U108" s="121"/>
-      <c r="V108" s="121"/>
-      <c r="W108" s="122"/>
+        <v>30.826999999999998</v>
+      </c>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="99"/>
+      <c r="Q108" s="99"/>
+      <c r="R108" s="99"/>
+      <c r="S108" s="99"/>
+      <c r="T108" s="99"/>
+      <c r="U108" s="99"/>
+      <c r="V108" s="99"/>
+      <c r="W108" s="100"/>
     </row>
     <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
@@ -6948,12 +7141,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -6966,6 +7153,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
   <si>
     <t>Subtarea</t>
   </si>
@@ -417,6 +417,9 @@
   </si>
   <si>
     <t>Guardar</t>
+  </si>
+  <si>
+    <t>0.7</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -588,6 +591,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="39">
     <border>
@@ -1099,7 +1108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,6 +1393,84 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,82 +1495,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1612,31 +1630,31 @@
                   <c:v>30.826999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>29.726999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,23 +1845,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1879,23 +1880,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2074,28 +2058,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N81" sqref="N81"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
@@ -2103,25 +2087,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="109" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="103"/>
+      <c r="N2" s="103"/>
+      <c r="O2" s="103"/>
+      <c r="P2" s="103"/>
+      <c r="Q2" s="103"/>
+      <c r="R2" s="103"/>
+      <c r="S2" s="103"/>
+      <c r="T2" s="103"/>
+      <c r="U2" s="103"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2189,8 +2173,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="108" t="s">
         <v>57</v>
       </c>
       <c r="C4" s="89" t="s">
@@ -2256,8 +2240,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="109"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2319,8 +2303,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="109"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2364,9 +2348,9 @@
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="124" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="109"/>
+      <c r="C7" s="117" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2411,9 +2395,9 @@
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="124"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="109"/>
+      <c r="C8" s="117"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2443,7 +2427,7 @@
       <c r="M8" s="71">
         <v>0</v>
       </c>
-      <c r="N8" s="131">
+      <c r="N8" s="98">
         <v>0</v>
       </c>
       <c r="O8" s="28"/>
@@ -2456,9 +2440,9 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="120"/>
-      <c r="C9" s="125"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="113"/>
+      <c r="C9" s="118"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2501,8 +2485,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="117" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="110" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2548,8 +2532,8 @@
       <c r="V10" s="23"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="111"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2593,8 +2577,8 @@
       <c r="V11" s="28"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="111"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2638,8 +2622,8 @@
       <c r="V12" s="28"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="112"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2683,8 +2667,8 @@
       <c r="V13" s="31"/>
       <c r="W13" s="69"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="119"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="112"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2728,8 +2712,8 @@
       <c r="V14" s="31"/>
       <c r="W14" s="69"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="119"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="112"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2773,8 +2757,8 @@
       <c r="V15" s="31"/>
       <c r="W15" s="69"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="115" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="108" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2838,8 +2822,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="116"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="109"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2883,9 +2867,9 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="116"/>
-      <c r="C18" s="123" t="s">
+    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="109"/>
+      <c r="C18" s="116" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2930,9 +2914,9 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="116"/>
-      <c r="C19" s="123"/>
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="109"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2975,9 +2959,9 @@
       <c r="V19" s="29"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="116"/>
-      <c r="C20" s="104" t="s">
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="109"/>
+      <c r="C20" s="130" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -3022,9 +3006,9 @@
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="116"/>
-      <c r="C21" s="104"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="109"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -3067,9 +3051,9 @@
       <c r="V21" s="29"/>
       <c r="W21" s="30"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="116"/>
-      <c r="C22" s="104"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="109"/>
+      <c r="C22" s="130"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3112,9 +3096,9 @@
       <c r="V22" s="29"/>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="116"/>
-      <c r="C23" s="104"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="109"/>
+      <c r="C23" s="130"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -3157,9 +3141,9 @@
       <c r="V23" s="29"/>
       <c r="W23" s="30"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="116"/>
-      <c r="C24" s="104"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="109"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3202,9 +3186,9 @@
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="116"/>
-      <c r="C25" s="104"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="109"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3247,9 +3231,9 @@
       <c r="V25" s="29"/>
       <c r="W25" s="30"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="116"/>
-      <c r="C26" s="104"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="109"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3292,9 +3276,9 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="116"/>
-      <c r="C27" s="104"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="109"/>
+      <c r="C27" s="130"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3337,9 +3321,9 @@
       <c r="V27" s="29"/>
       <c r="W27" s="30"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="116"/>
-      <c r="C28" s="104"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="109"/>
+      <c r="C28" s="130"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3382,9 +3366,9 @@
       <c r="V28" s="29"/>
       <c r="W28" s="30"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="116"/>
-      <c r="C29" s="104"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="109"/>
+      <c r="C29" s="130"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3427,9 +3411,9 @@
       <c r="V29" s="29"/>
       <c r="W29" s="30"/>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="116"/>
-      <c r="C30" s="104"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="109"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3472,9 +3456,9 @@
       <c r="V30" s="29"/>
       <c r="W30" s="30"/>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="116"/>
-      <c r="C31" s="104"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="109"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3517,9 +3501,9 @@
       <c r="V31" s="29"/>
       <c r="W31" s="30"/>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="116"/>
-      <c r="C32" s="104"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="109"/>
+      <c r="C32" s="130"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3562,9 +3546,9 @@
       <c r="V32" s="29"/>
       <c r="W32" s="30"/>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="116"/>
-      <c r="C33" s="104"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="109"/>
+      <c r="C33" s="130"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3607,9 +3591,9 @@
       <c r="V33" s="29"/>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="116"/>
-      <c r="C34" s="104"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="109"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3652,9 +3636,9 @@
       <c r="V34" s="29"/>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="116"/>
-      <c r="C35" s="104"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="109"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3697,9 +3681,9 @@
       <c r="V35" s="29"/>
       <c r="W35" s="30"/>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="116"/>
-      <c r="C36" s="104"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="109"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3742,8 +3726,8 @@
       <c r="V36" s="29"/>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="116"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="109"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3787,8 +3771,8 @@
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="116"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="109"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3832,8 +3816,8 @@
       <c r="V38" s="29"/>
       <c r="W38" s="30"/>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="116"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="109"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3895,8 +3879,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="116"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="109"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3940,11 +3924,11 @@
       <c r="V40" s="29"/>
       <c r="W40" s="30"/>
     </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="106" t="s">
+    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="128" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -4007,9 +3991,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="107"/>
-      <c r="C42" s="103"/>
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="100"/>
+      <c r="C42" s="129"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -4052,9 +4036,9 @@
       <c r="V42" s="29"/>
       <c r="W42" s="30"/>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="103"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="100"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -4097,9 +4081,9 @@
       <c r="V43" s="29"/>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="103"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="100"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -4142,9 +4126,9 @@
       <c r="V44" s="29"/>
       <c r="W44" s="30"/>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="103"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="100"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -4187,9 +4171,9 @@
       <c r="V45" s="29"/>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="103"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="100"/>
+      <c r="C46" s="129"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -4232,9 +4216,9 @@
       <c r="V46" s="29"/>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="107"/>
-      <c r="C47" s="103"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="100"/>
+      <c r="C47" s="129"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -4277,9 +4261,9 @@
       <c r="V47" s="29"/>
       <c r="W47" s="30"/>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="107"/>
-      <c r="C48" s="103"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="100"/>
+      <c r="C48" s="129"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -4322,9 +4306,9 @@
       <c r="V48" s="29"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="107"/>
-      <c r="C49" s="103"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="100"/>
+      <c r="C49" s="129"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4367,9 +4351,9 @@
       <c r="V49" s="29"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="107"/>
-      <c r="C50" s="103"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="100"/>
+      <c r="C50" s="129"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4412,9 +4396,9 @@
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="107"/>
-      <c r="C51" s="103"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="100"/>
+      <c r="C51" s="129"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4457,9 +4441,9 @@
       <c r="V51" s="29"/>
       <c r="W51" s="30"/>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="107"/>
-      <c r="C52" s="103"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="100"/>
+      <c r="C52" s="129"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4502,9 +4486,9 @@
       <c r="V52" s="29"/>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="107"/>
-      <c r="C53" s="103"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="100"/>
+      <c r="C53" s="129"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4547,9 +4531,9 @@
       <c r="V53" s="29"/>
       <c r="W53" s="30"/>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="103"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="100"/>
+      <c r="C54" s="129"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4592,9 +4576,9 @@
       <c r="V54" s="29"/>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="107"/>
-      <c r="C55" s="103"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="100"/>
+      <c r="C55" s="129"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4637,9 +4621,9 @@
       <c r="V55" s="29"/>
       <c r="W55" s="30"/>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="107"/>
-      <c r="C56" s="103"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="100"/>
+      <c r="C56" s="129"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4682,9 +4666,9 @@
       <c r="V56" s="29"/>
       <c r="W56" s="30"/>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="107"/>
-      <c r="C57" s="103"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="100"/>
+      <c r="C57" s="129"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4727,9 +4711,9 @@
       <c r="V57" s="29"/>
       <c r="W57" s="30"/>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="107"/>
-      <c r="C58" s="103"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="100"/>
+      <c r="C58" s="129"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4772,9 +4756,9 @@
       <c r="V58" s="29"/>
       <c r="W58" s="30"/>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="103"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="100"/>
+      <c r="C59" s="129"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4817,9 +4801,9 @@
       <c r="V59" s="29"/>
       <c r="W59" s="30"/>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="107"/>
-      <c r="C60" s="103"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="100"/>
+      <c r="C60" s="129"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4862,9 +4846,9 @@
       <c r="V60" s="29"/>
       <c r="W60" s="30"/>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="107"/>
-      <c r="C61" s="103"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="100"/>
+      <c r="C61" s="129"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4907,9 +4891,9 @@
       <c r="V61" s="29"/>
       <c r="W61" s="30"/>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="107"/>
-      <c r="C62" s="103"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="100"/>
+      <c r="C62" s="129"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4952,9 +4936,9 @@
       <c r="V62" s="29"/>
       <c r="W62" s="30"/>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="107"/>
-      <c r="C63" s="103"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="100"/>
+      <c r="C63" s="129"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4997,9 +4981,9 @@
       <c r="V63" s="29"/>
       <c r="W63" s="30"/>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="103"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="100"/>
+      <c r="C64" s="129"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -5042,9 +5026,9 @@
       <c r="V64" s="29"/>
       <c r="W64" s="30"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="103"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="100"/>
+      <c r="C65" s="129"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -5087,9 +5071,9 @@
       <c r="V65" s="29"/>
       <c r="W65" s="30"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="103"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="100"/>
+      <c r="C66" s="129"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -5132,9 +5116,9 @@
       <c r="V66" s="29"/>
       <c r="W66" s="30"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="103"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="100"/>
+      <c r="C67" s="129"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -5177,9 +5161,9 @@
       <c r="V67" s="29"/>
       <c r="W67" s="30"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="107"/>
-      <c r="C68" s="103"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="100"/>
+      <c r="C68" s="129"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -5222,9 +5206,9 @@
       <c r="V68" s="29"/>
       <c r="W68" s="30"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="103"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="100"/>
+      <c r="C69" s="129"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -5267,9 +5251,9 @@
       <c r="V69" s="29"/>
       <c r="W69" s="30"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="103"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="100"/>
+      <c r="C70" s="129"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -5312,9 +5296,9 @@
       <c r="V70" s="29"/>
       <c r="W70" s="30"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="103"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="100"/>
+      <c r="C71" s="129"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -5357,9 +5341,9 @@
       <c r="V71" s="29"/>
       <c r="W71" s="30"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="107"/>
-      <c r="C72" s="103"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="100"/>
+      <c r="C72" s="129"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -5402,9 +5386,9 @@
       <c r="V72" s="29"/>
       <c r="W72" s="30"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="107"/>
-      <c r="C73" s="103"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="100"/>
+      <c r="C73" s="129"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -5447,9 +5431,9 @@
       <c r="V73" s="29"/>
       <c r="W73" s="30"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="107"/>
-      <c r="C74" s="103"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="100"/>
+      <c r="C74" s="129"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -5492,9 +5476,9 @@
       <c r="V74" s="29"/>
       <c r="W74" s="30"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="107"/>
-      <c r="C75" s="103"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="100"/>
+      <c r="C75" s="129"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5537,9 +5521,9 @@
       <c r="V75" s="29"/>
       <c r="W75" s="30"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="107"/>
-      <c r="C76" s="103"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="100"/>
+      <c r="C76" s="129"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5582,9 +5566,9 @@
       <c r="V76" s="29"/>
       <c r="W76" s="30"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="103"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="100"/>
+      <c r="C77" s="129"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5627,9 +5611,9 @@
       <c r="V77" s="29"/>
       <c r="W77" s="30"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="107"/>
-      <c r="C78" s="103"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="100"/>
+      <c r="C78" s="129"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5672,9 +5656,9 @@
       <c r="V78" s="29"/>
       <c r="W78" s="30"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="107"/>
-      <c r="C79" s="103"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="100"/>
+      <c r="C79" s="129"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5717,9 +5701,9 @@
       <c r="V79" s="29"/>
       <c r="W79" s="30"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="107"/>
-      <c r="C80" s="103"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="100"/>
+      <c r="C80" s="129"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5762,9 +5746,9 @@
       <c r="V80" s="29"/>
       <c r="W80" s="30"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="107"/>
-      <c r="C81" s="103"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="100"/>
+      <c r="C81" s="129"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5807,9 +5791,9 @@
       <c r="V81" s="29"/>
       <c r="W81" s="30"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="107"/>
-      <c r="C82" s="103"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="100"/>
+      <c r="C82" s="129"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5852,9 +5836,9 @@
       <c r="V82" s="29"/>
       <c r="W82" s="30"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="107"/>
-      <c r="C83" s="103"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="100"/>
+      <c r="C83" s="129"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5915,9 +5899,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="107"/>
-      <c r="C84" s="108" t="s">
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="100"/>
+      <c r="C84" s="101" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5962,9 +5946,9 @@
       <c r="V84" s="29"/>
       <c r="W84" s="30"/>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="107"/>
-      <c r="C85" s="108"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="100"/>
+      <c r="C85" s="101"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -6007,9 +5991,9 @@
       <c r="V85" s="29"/>
       <c r="W85" s="30"/>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="107"/>
-      <c r="C86" s="108"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="100"/>
+      <c r="C86" s="101"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -6052,9 +6036,9 @@
       <c r="V86" s="29"/>
       <c r="W86" s="30"/>
     </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="107"/>
-      <c r="C87" s="108"/>
+    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="100"/>
+      <c r="C87" s="101"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -6097,9 +6081,9 @@
       <c r="V87" s="29"/>
       <c r="W87" s="30"/>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="107"/>
-      <c r="C88" s="108"/>
+    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="100"/>
+      <c r="C88" s="101"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -6142,9 +6126,9 @@
       <c r="V88" s="28"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="107"/>
-      <c r="C89" s="108"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="100"/>
+      <c r="C89" s="101"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -6187,8 +6171,8 @@
       <c r="V89" s="29"/>
       <c r="W89" s="30"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107"/>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="100"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -6250,8 +6234,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="107"/>
+    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="100"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -6295,8 +6279,8 @@
       <c r="V91" s="29"/>
       <c r="W91" s="30"/>
     </row>
-    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="126" t="s">
+    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="119" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -6342,8 +6326,8 @@
       <c r="V92" s="25"/>
       <c r="W92" s="67"/>
     </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="127"/>
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="120"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -6387,9 +6371,9 @@
       <c r="V93" s="35"/>
       <c r="W93" s="66"/>
     </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="128"/>
-      <c r="C94" s="105" t="s">
+    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="121"/>
+      <c r="C94" s="131" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -6434,9 +6418,9 @@
       <c r="V94" s="28"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="129"/>
-      <c r="C95" s="105"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="122"/>
+      <c r="C95" s="131"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -6479,8 +6463,8 @@
       <c r="V95" s="29"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="130"/>
+    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="123"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -6524,8 +6508,8 @@
       <c r="V96" s="32"/>
       <c r="W96" s="64"/>
     </row>
-    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="106" t="s">
+    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="99" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -6571,8 +6555,8 @@
       <c r="V97" s="26"/>
       <c r="W97" s="27"/>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="129"/>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B98" s="122"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -6606,7 +6590,9 @@
       <c r="N98" s="97">
         <v>0</v>
       </c>
-      <c r="O98" s="29"/>
+      <c r="O98" s="134">
+        <v>0</v>
+      </c>
       <c r="P98" s="29"/>
       <c r="Q98" s="29"/>
       <c r="R98" s="29"/>
@@ -6616,8 +6602,8 @@
       <c r="V98" s="29"/>
       <c r="W98" s="30"/>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="129"/>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B99" s="122"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6634,7 +6620,7 @@
       </c>
       <c r="I99" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" s="71">
         <v>0</v>
@@ -6651,7 +6637,9 @@
       <c r="N99" s="97">
         <v>0</v>
       </c>
-      <c r="O99" s="29"/>
+      <c r="O99" s="133">
+        <v>1</v>
+      </c>
       <c r="P99" s="29"/>
       <c r="Q99" s="29"/>
       <c r="R99" s="29"/>
@@ -6661,8 +6649,8 @@
       <c r="V99" s="29"/>
       <c r="W99" s="30"/>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="129"/>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100" s="122"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6679,7 +6667,7 @@
       </c>
       <c r="I100" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J100" s="71">
         <v>0</v>
@@ -6696,7 +6684,9 @@
       <c r="N100" s="97">
         <v>0</v>
       </c>
-      <c r="O100" s="29"/>
+      <c r="O100" s="133">
+        <v>0.1</v>
+      </c>
       <c r="P100" s="29"/>
       <c r="Q100" s="29"/>
       <c r="R100" s="29"/>
@@ -6706,8 +6696,8 @@
       <c r="V100" s="29"/>
       <c r="W100" s="30"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="129"/>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="122"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6751,8 +6741,8 @@
       <c r="V101" s="29"/>
       <c r="W101" s="30"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="130"/>
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="123"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6783,8 +6773,8 @@
       <c r="M102" s="72">
         <v>0</v>
       </c>
-      <c r="N102" s="72">
-        <v>0</v>
+      <c r="N102" s="132" t="s">
+        <v>132</v>
       </c>
       <c r="O102" s="32"/>
       <c r="P102" s="33"/>
@@ -6796,22 +6786,22 @@
       <c r="V102" s="33"/>
       <c r="W102" s="34"/>
     </row>
-    <row r="103" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="121" t="s">
+    <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
+      <c r="C103" s="115"/>
+      <c r="D103" s="115"/>
+      <c r="E103" s="115"/>
+      <c r="F103" s="115"/>
+      <c r="G103" s="115"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>17.893000000000001</v>
+        <v>18.993000000000002</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -6835,7 +6825,7 @@
       </c>
       <c r="O103" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P103" s="17">
         <f t="shared" si="4"/>
@@ -6870,7 +6860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6879,24 +6869,24 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="112" t="s">
+      <c r="J104" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="113"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="113"/>
-      <c r="N104" s="113"/>
-      <c r="O104" s="113"/>
-      <c r="P104" s="113"/>
-      <c r="Q104" s="113"/>
-      <c r="R104" s="113"/>
-      <c r="S104" s="113"/>
-      <c r="T104" s="113"/>
-      <c r="U104" s="113"/>
-      <c r="V104" s="113"/>
-      <c r="W104" s="114"/>
-    </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K104" s="106"/>
+      <c r="L104" s="106"/>
+      <c r="M104" s="106"/>
+      <c r="N104" s="106"/>
+      <c r="O104" s="106"/>
+      <c r="P104" s="106"/>
+      <c r="Q104" s="106"/>
+      <c r="R104" s="106"/>
+      <c r="S104" s="106"/>
+      <c r="T104" s="106"/>
+      <c r="U104" s="106"/>
+      <c r="V104" s="106"/>
+      <c r="W104" s="107"/>
+    </row>
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="76" t="s">
         <v>124</v>
       </c>
@@ -6920,7 +6910,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="82" t="s">
         <v>16</v>
       </c>
@@ -6930,18 +6920,18 @@
       </c>
       <c r="D106" s="36">
         <f>SUM(I98:I102,I91:I96,I9,I7,I40)</f>
-        <v>0.75</v>
+        <v>1.85</v>
       </c>
       <c r="E106" s="36">
         <f>SUM(C106,-D106)</f>
-        <v>11.52</v>
+        <v>10.42</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="98" t="s">
+      <c r="H106" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="101"/>
+      <c r="I106" s="127"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6964,42 +6954,42 @@
       </c>
       <c r="O106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
+        <v>29.726999999999997</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>30.826999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>29.726999999999997</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="80" t="s">
         <v>15</v>
       </c>
@@ -7024,7 +7014,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="80" t="s">
         <v>17</v>
       </c>
@@ -7041,29 +7031,29 @@
         <v>5.5</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="98" t="s">
+      <c r="H108" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="99"/>
-      <c r="J108" s="98">
+      <c r="I108" s="125"/>
+      <c r="J108" s="124">
         <f>H103-I103</f>
-        <v>30.826999999999998</v>
-      </c>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
-      <c r="S108" s="99"/>
-      <c r="T108" s="99"/>
-      <c r="U108" s="99"/>
-      <c r="V108" s="99"/>
-      <c r="W108" s="100"/>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
+        <v>29.726999999999997</v>
+      </c>
+      <c r="K108" s="125"/>
+      <c r="L108" s="125"/>
+      <c r="M108" s="125"/>
+      <c r="N108" s="125"/>
+      <c r="O108" s="125"/>
+      <c r="P108" s="125"/>
+      <c r="Q108" s="125"/>
+      <c r="R108" s="125"/>
+      <c r="S108" s="125"/>
+      <c r="T108" s="125"/>
+      <c r="U108" s="125"/>
+      <c r="V108" s="125"/>
+      <c r="W108" s="126"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7077,7 +7067,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7091,7 +7081,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7105,42 +7095,48 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -7153,12 +7149,6 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7172,7 +7162,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7184,7 +7174,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,12 +575,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -593,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1354,9 +1348,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1381,19 +1372,43 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1471,37 +1486,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1633,28 +1636,28 @@
                   <c:v>29.726999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.696999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1845,6 +1848,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1880,6 +1900,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2058,28 +2095,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R59" sqref="R59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>126</v>
       </c>
@@ -2087,25 +2124,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="102" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="104"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="110"/>
+      <c r="P2" s="110"/>
+      <c r="Q2" s="110"/>
+      <c r="R2" s="110"/>
+      <c r="S2" s="110"/>
+      <c r="T2" s="110"/>
+      <c r="U2" s="110"/>
+      <c r="V2" s="110"/>
+      <c r="W2" s="111"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2173,18 +2210,18 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="108" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="115" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="88" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89" t="s">
+      <c r="E4" s="88"/>
+      <c r="F4" s="88" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="12">
@@ -2203,45 +2240,45 @@
       <c r="K4" s="70">
         <v>0</v>
       </c>
-      <c r="L4" s="87">
+      <c r="L4" s="86">
         <v>0.08</v>
       </c>
-      <c r="M4" s="87">
-        <v>0</v>
-      </c>
-      <c r="N4" s="87">
-        <v>0</v>
-      </c>
-      <c r="O4" s="87">
-        <v>0</v>
-      </c>
-      <c r="P4" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="90">
-        <v>0</v>
-      </c>
-      <c r="R4" s="90">
-        <v>0</v>
-      </c>
-      <c r="S4" s="90">
-        <v>0</v>
-      </c>
-      <c r="T4" s="90">
-        <v>0</v>
-      </c>
-      <c r="U4" s="90">
-        <v>0</v>
-      </c>
-      <c r="V4" s="90">
-        <v>0</v>
-      </c>
-      <c r="W4" s="91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="109"/>
+      <c r="M4" s="86">
+        <v>0</v>
+      </c>
+      <c r="N4" s="86">
+        <v>0</v>
+      </c>
+      <c r="O4" s="86">
+        <v>0</v>
+      </c>
+      <c r="P4" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="89">
+        <v>0</v>
+      </c>
+      <c r="R4" s="89">
+        <v>0</v>
+      </c>
+      <c r="S4" s="89">
+        <v>0</v>
+      </c>
+      <c r="T4" s="89">
+        <v>0</v>
+      </c>
+      <c r="U4" s="89">
+        <v>0</v>
+      </c>
+      <c r="V4" s="89">
+        <v>0</v>
+      </c>
+      <c r="W4" s="90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="116"/>
       <c r="C5" s="46" t="s">
         <v>59</v>
       </c>
@@ -2281,30 +2318,30 @@
       <c r="P5" s="48">
         <v>0</v>
       </c>
-      <c r="Q5" s="92">
-        <v>0</v>
-      </c>
-      <c r="R5" s="92">
-        <v>0</v>
-      </c>
-      <c r="S5" s="92">
-        <v>0</v>
-      </c>
-      <c r="T5" s="92">
-        <v>0</v>
-      </c>
-      <c r="U5" s="92">
-        <v>0</v>
-      </c>
-      <c r="V5" s="92">
-        <v>0</v>
-      </c>
-      <c r="W5" s="93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="109"/>
+      <c r="Q5" s="91">
+        <v>0</v>
+      </c>
+      <c r="R5" s="91">
+        <v>0</v>
+      </c>
+      <c r="S5" s="91">
+        <v>0</v>
+      </c>
+      <c r="T5" s="91">
+        <v>0</v>
+      </c>
+      <c r="U5" s="91">
+        <v>0</v>
+      </c>
+      <c r="V5" s="91">
+        <v>0</v>
+      </c>
+      <c r="W5" s="92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="116"/>
       <c r="C6" s="46" t="s">
         <v>75</v>
       </c>
@@ -2338,8 +2375,12 @@
       <c r="N6" s="48">
         <v>0</v>
       </c>
-      <c r="O6" s="28"/>
-      <c r="P6" s="28"/>
+      <c r="O6" s="48">
+        <v>0</v>
+      </c>
+      <c r="P6" s="48">
+        <v>0</v>
+      </c>
       <c r="Q6" s="19"/>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
@@ -2348,9 +2389,9 @@
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="109"/>
-      <c r="C7" s="117" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="116"/>
+      <c r="C7" s="124" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2385,8 +2426,12 @@
       <c r="N7" s="71">
         <v>0</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
+      <c r="O7" s="71">
+        <v>0</v>
+      </c>
+      <c r="P7" s="71">
+        <v>0</v>
+      </c>
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
@@ -2395,9 +2440,9 @@
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="109"/>
-      <c r="C8" s="117"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="116"/>
+      <c r="C8" s="124"/>
       <c r="D8" s="46" t="s">
         <v>62</v>
       </c>
@@ -2427,11 +2472,15 @@
       <c r="M8" s="71">
         <v>0</v>
       </c>
-      <c r="N8" s="98">
-        <v>0</v>
-      </c>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
+      <c r="N8" s="96">
+        <v>0</v>
+      </c>
+      <c r="O8" s="96">
+        <v>0</v>
+      </c>
+      <c r="P8" s="96">
+        <v>0</v>
+      </c>
       <c r="Q8" s="19"/>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
@@ -2440,9 +2489,9 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="113"/>
-      <c r="C9" s="118"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="120"/>
+      <c r="C9" s="125"/>
       <c r="D9" s="43" t="s">
         <v>63</v>
       </c>
@@ -2475,8 +2524,12 @@
       <c r="N9" s="72">
         <v>0</v>
       </c>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
+      <c r="O9" s="72">
+        <v>0</v>
+      </c>
+      <c r="P9" s="72">
+        <v>0</v>
+      </c>
       <c r="Q9" s="21"/>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
@@ -2485,8 +2538,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="110" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="117" t="s">
         <v>64</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2516,14 +2569,18 @@
       <c r="L10" s="73">
         <v>0</v>
       </c>
-      <c r="M10" s="95">
+      <c r="M10" s="93">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="N10" s="95">
-        <v>0</v>
-      </c>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="N10" s="93">
+        <v>0</v>
+      </c>
+      <c r="O10" s="93">
+        <v>0</v>
+      </c>
+      <c r="P10" s="93">
+        <v>0</v>
+      </c>
       <c r="Q10" s="35"/>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
@@ -2532,8 +2589,8 @@
       <c r="V10" s="23"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="111"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="118"/>
       <c r="C11" s="46" t="s">
         <v>66</v>
       </c>
@@ -2567,8 +2624,12 @@
       <c r="N11" s="71">
         <v>0</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
+      <c r="O11" s="71">
+        <v>0</v>
+      </c>
+      <c r="P11" s="71">
+        <v>0</v>
+      </c>
       <c r="Q11" s="28"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
@@ -2577,8 +2638,8 @@
       <c r="V11" s="28"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="111"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="118"/>
       <c r="C12" s="46" t="s">
         <v>67</v>
       </c>
@@ -2612,8 +2673,12 @@
       <c r="N12" s="71">
         <v>0</v>
       </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
+      <c r="O12" s="71">
+        <v>0</v>
+      </c>
+      <c r="P12" s="71">
+        <v>0</v>
+      </c>
       <c r="Q12" s="28"/>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
@@ -2622,8 +2687,8 @@
       <c r="V12" s="28"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="112"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="119"/>
       <c r="C13" s="45" t="s">
         <v>120</v>
       </c>
@@ -2657,8 +2722,12 @@
       <c r="N13" s="74">
         <v>0</v>
       </c>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="O13" s="74">
+        <v>0</v>
+      </c>
+      <c r="P13" s="74">
+        <v>0</v>
+      </c>
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
@@ -2667,8 +2736,8 @@
       <c r="V13" s="31"/>
       <c r="W13" s="69"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="119"/>
       <c r="C14" s="45" t="s">
         <v>118</v>
       </c>
@@ -2702,8 +2771,12 @@
       <c r="N14" s="74">
         <v>0</v>
       </c>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="O14" s="74">
+        <v>0</v>
+      </c>
+      <c r="P14" s="74">
+        <v>0</v>
+      </c>
       <c r="Q14" s="31"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
@@ -2712,8 +2785,8 @@
       <c r="V14" s="31"/>
       <c r="W14" s="69"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="112"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="119"/>
       <c r="C15" s="45" t="s">
         <v>68</v>
       </c>
@@ -2747,8 +2820,12 @@
       <c r="N15" s="74">
         <v>0</v>
       </c>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="O15" s="74">
+        <v>0</v>
+      </c>
+      <c r="P15" s="74">
+        <v>0</v>
+      </c>
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
@@ -2757,8 +2834,8 @@
       <c r="V15" s="31"/>
       <c r="W15" s="69"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="108" t="s">
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="115" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2782,48 +2859,48 @@
       <c r="J16" s="70">
         <v>0</v>
       </c>
-      <c r="K16" s="85">
+      <c r="K16" s="134">
         <v>2</v>
       </c>
-      <c r="L16" s="85">
+      <c r="L16" s="134">
         <v>6.5</v>
       </c>
-      <c r="M16" s="87">
+      <c r="M16" s="86">
         <v>0.25</v>
       </c>
-      <c r="N16" s="87">
-        <v>0</v>
-      </c>
-      <c r="O16" s="87">
-        <v>0</v>
-      </c>
-      <c r="P16" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="87">
-        <v>0</v>
-      </c>
-      <c r="R16" s="87">
-        <v>0</v>
-      </c>
-      <c r="S16" s="87">
-        <v>0</v>
-      </c>
-      <c r="T16" s="87">
-        <v>0</v>
-      </c>
-      <c r="U16" s="87">
-        <v>0</v>
-      </c>
-      <c r="V16" s="87">
-        <v>0</v>
-      </c>
-      <c r="W16" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="109"/>
+      <c r="N16" s="86">
+        <v>0</v>
+      </c>
+      <c r="O16" s="86">
+        <v>0</v>
+      </c>
+      <c r="P16" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="86">
+        <v>0</v>
+      </c>
+      <c r="R16" s="86">
+        <v>0</v>
+      </c>
+      <c r="S16" s="86">
+        <v>0</v>
+      </c>
+      <c r="T16" s="86">
+        <v>0</v>
+      </c>
+      <c r="U16" s="86">
+        <v>0</v>
+      </c>
+      <c r="V16" s="86">
+        <v>0</v>
+      </c>
+      <c r="W16" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="116"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2857,8 +2934,12 @@
       <c r="N17" s="48">
         <v>0</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29"/>
+      <c r="O17" s="48">
+        <v>0</v>
+      </c>
+      <c r="P17" s="48">
+        <v>0</v>
+      </c>
       <c r="Q17" s="29"/>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
@@ -2867,9 +2948,9 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="109"/>
-      <c r="C18" s="116" t="s">
+    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="116"/>
+      <c r="C18" s="123" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2904,8 +2985,12 @@
       <c r="N18" s="71">
         <v>0</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29"/>
+      <c r="O18" s="71">
+        <v>0</v>
+      </c>
+      <c r="P18" s="71">
+        <v>0</v>
+      </c>
       <c r="Q18" s="29"/>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
@@ -2914,9 +2999,9 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="109"/>
-      <c r="C19" s="116"/>
+    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="116"/>
+      <c r="C19" s="123"/>
       <c r="D19" s="46" t="s">
         <v>39</v>
       </c>
@@ -2949,8 +3034,12 @@
       <c r="N19" s="48">
         <v>0</v>
       </c>
-      <c r="O19" s="28"/>
-      <c r="P19" s="29"/>
+      <c r="O19" s="48">
+        <v>0</v>
+      </c>
+      <c r="P19" s="48">
+        <v>0</v>
+      </c>
       <c r="Q19" s="29"/>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
@@ -2959,9 +3048,9 @@
       <c r="V19" s="29"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="109"/>
-      <c r="C20" s="130" t="s">
+    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="116"/>
+      <c r="C20" s="104" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="46" t="s">
@@ -2996,8 +3085,12 @@
       <c r="N20" s="48">
         <v>1.1499999999999999</v>
       </c>
-      <c r="O20" s="28"/>
-      <c r="P20" s="29"/>
+      <c r="O20" s="48">
+        <v>0</v>
+      </c>
+      <c r="P20" s="48">
+        <v>0</v>
+      </c>
       <c r="Q20" s="29"/>
       <c r="R20" s="29"/>
       <c r="S20" s="29"/>
@@ -3006,9 +3099,9 @@
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="109"/>
-      <c r="C21" s="130"/>
+    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="116"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -3041,8 +3134,12 @@
       <c r="N21" s="71">
         <v>0</v>
       </c>
-      <c r="O21" s="28"/>
-      <c r="P21" s="29"/>
+      <c r="O21" s="71">
+        <v>0</v>
+      </c>
+      <c r="P21" s="71">
+        <v>0</v>
+      </c>
       <c r="Q21" s="29"/>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
@@ -3051,9 +3148,9 @@
       <c r="V21" s="29"/>
       <c r="W21" s="30"/>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="109"/>
-      <c r="C22" s="130"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="116"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3069,25 +3166,29 @@
       </c>
       <c r="I22" s="55">
         <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+      <c r="J22" s="71">
+        <v>0</v>
+      </c>
+      <c r="K22" s="71">
+        <v>0</v>
+      </c>
+      <c r="L22" s="71">
+        <v>0</v>
+      </c>
+      <c r="M22" s="71">
+        <v>0</v>
+      </c>
+      <c r="N22" s="132">
         <v>0.35</v>
       </c>
-      <c r="J22" s="71">
-        <v>0</v>
-      </c>
-      <c r="K22" s="71">
-        <v>0</v>
-      </c>
-      <c r="L22" s="71">
-        <v>0</v>
-      </c>
-      <c r="M22" s="71">
-        <v>0</v>
-      </c>
-      <c r="N22" s="94">
-        <v>0.35</v>
-      </c>
-      <c r="O22" s="28"/>
-      <c r="P22" s="29"/>
+      <c r="O22" s="132">
+        <v>0</v>
+      </c>
+      <c r="P22" s="133">
+        <v>0.03</v>
+      </c>
       <c r="Q22" s="29"/>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
@@ -3096,9 +3197,9 @@
       <c r="V22" s="29"/>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="109"/>
-      <c r="C23" s="130"/>
+    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="116"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="46" t="s">
         <v>40</v>
       </c>
@@ -3131,8 +3232,12 @@
       <c r="N23" s="71">
         <v>0</v>
       </c>
-      <c r="O23" s="28"/>
-      <c r="P23" s="29"/>
+      <c r="O23" s="71">
+        <v>0</v>
+      </c>
+      <c r="P23" s="71">
+        <v>0</v>
+      </c>
       <c r="Q23" s="29"/>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
@@ -3141,9 +3246,9 @@
       <c r="V23" s="29"/>
       <c r="W23" s="30"/>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="109"/>
-      <c r="C24" s="130"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="116"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="46" t="s">
         <v>41</v>
       </c>
@@ -3176,8 +3281,12 @@
       <c r="N24" s="71">
         <v>0</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="29"/>
+      <c r="O24" s="71">
+        <v>0</v>
+      </c>
+      <c r="P24" s="71">
+        <v>0</v>
+      </c>
       <c r="Q24" s="29"/>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
@@ -3186,9 +3295,9 @@
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
     </row>
-    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="109"/>
-      <c r="C25" s="130"/>
+    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="116"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="46" t="s">
         <v>42</v>
       </c>
@@ -3221,8 +3330,12 @@
       <c r="N25" s="71">
         <v>0</v>
       </c>
-      <c r="O25" s="28"/>
-      <c r="P25" s="29"/>
+      <c r="O25" s="71">
+        <v>0</v>
+      </c>
+      <c r="P25" s="71">
+        <v>0</v>
+      </c>
       <c r="Q25" s="29"/>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
@@ -3231,9 +3344,9 @@
       <c r="V25" s="29"/>
       <c r="W25" s="30"/>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="109"/>
-      <c r="C26" s="130"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="116"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="46" t="s">
         <v>43</v>
       </c>
@@ -3266,8 +3379,12 @@
       <c r="N26" s="71">
         <v>0</v>
       </c>
-      <c r="O26" s="28"/>
-      <c r="P26" s="29"/>
+      <c r="O26" s="71">
+        <v>0</v>
+      </c>
+      <c r="P26" s="71">
+        <v>0</v>
+      </c>
       <c r="Q26" s="29"/>
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
@@ -3276,9 +3393,9 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
     </row>
-    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="109"/>
-      <c r="C27" s="130"/>
+    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="116"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="46" t="s">
         <v>44</v>
       </c>
@@ -3311,8 +3428,12 @@
       <c r="N27" s="71">
         <v>0</v>
       </c>
-      <c r="O27" s="28"/>
-      <c r="P27" s="29"/>
+      <c r="O27" s="71">
+        <v>0</v>
+      </c>
+      <c r="P27" s="71">
+        <v>0</v>
+      </c>
       <c r="Q27" s="29"/>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
@@ -3321,9 +3442,9 @@
       <c r="V27" s="29"/>
       <c r="W27" s="30"/>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="109"/>
-      <c r="C28" s="130"/>
+    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="116"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="46" t="s">
         <v>45</v>
       </c>
@@ -3356,8 +3477,12 @@
       <c r="N28" s="71">
         <v>0</v>
       </c>
-      <c r="O28" s="28"/>
-      <c r="P28" s="29"/>
+      <c r="O28" s="71">
+        <v>0</v>
+      </c>
+      <c r="P28" s="71">
+        <v>0</v>
+      </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
@@ -3366,9 +3491,9 @@
       <c r="V28" s="29"/>
       <c r="W28" s="30"/>
     </row>
-    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="109"/>
-      <c r="C29" s="130"/>
+    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="116"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="46" t="s">
         <v>46</v>
       </c>
@@ -3401,8 +3526,12 @@
       <c r="N29" s="71">
         <v>0</v>
       </c>
-      <c r="O29" s="28"/>
-      <c r="P29" s="29"/>
+      <c r="O29" s="71">
+        <v>0</v>
+      </c>
+      <c r="P29" s="71">
+        <v>0</v>
+      </c>
       <c r="Q29" s="29"/>
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
@@ -3411,9 +3540,9 @@
       <c r="V29" s="29"/>
       <c r="W29" s="30"/>
     </row>
-    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="109"/>
-      <c r="C30" s="130"/>
+    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="116"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="46" t="s">
         <v>47</v>
       </c>
@@ -3446,8 +3575,12 @@
       <c r="N30" s="71">
         <v>0</v>
       </c>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
+      <c r="O30" s="71">
+        <v>0</v>
+      </c>
+      <c r="P30" s="71">
+        <v>0</v>
+      </c>
       <c r="Q30" s="29"/>
       <c r="R30" s="29"/>
       <c r="S30" s="29"/>
@@ -3456,9 +3589,9 @@
       <c r="V30" s="29"/>
       <c r="W30" s="30"/>
     </row>
-    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="109"/>
-      <c r="C31" s="130"/>
+    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="116"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="46" t="s">
         <v>48</v>
       </c>
@@ -3491,8 +3624,12 @@
       <c r="N31" s="71">
         <v>0</v>
       </c>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
+      <c r="O31" s="71">
+        <v>0</v>
+      </c>
+      <c r="P31" s="71">
+        <v>0</v>
+      </c>
       <c r="Q31" s="29"/>
       <c r="R31" s="29"/>
       <c r="S31" s="29"/>
@@ -3501,9 +3638,9 @@
       <c r="V31" s="29"/>
       <c r="W31" s="30"/>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="109"/>
-      <c r="C32" s="130"/>
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="116"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="46" t="s">
         <v>49</v>
       </c>
@@ -3536,8 +3673,12 @@
       <c r="N32" s="71">
         <v>0</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29"/>
+      <c r="O32" s="71">
+        <v>0</v>
+      </c>
+      <c r="P32" s="71">
+        <v>0</v>
+      </c>
       <c r="Q32" s="29"/>
       <c r="R32" s="29"/>
       <c r="S32" s="29"/>
@@ -3546,9 +3687,9 @@
       <c r="V32" s="29"/>
       <c r="W32" s="30"/>
     </row>
-    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="109"/>
-      <c r="C33" s="130"/>
+    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="116"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="46" t="s">
         <v>50</v>
       </c>
@@ -3581,8 +3722,12 @@
       <c r="N33" s="71">
         <v>0</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29"/>
+      <c r="O33" s="71">
+        <v>0</v>
+      </c>
+      <c r="P33" s="71">
+        <v>0</v>
+      </c>
       <c r="Q33" s="29"/>
       <c r="R33" s="29"/>
       <c r="S33" s="29"/>
@@ -3591,9 +3736,9 @@
       <c r="V33" s="29"/>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="109"/>
-      <c r="C34" s="130"/>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="116"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="46" t="s">
         <v>51</v>
       </c>
@@ -3626,8 +3771,12 @@
       <c r="N34" s="71">
         <v>0</v>
       </c>
-      <c r="O34" s="28"/>
-      <c r="P34" s="29"/>
+      <c r="O34" s="71">
+        <v>0</v>
+      </c>
+      <c r="P34" s="71">
+        <v>0</v>
+      </c>
       <c r="Q34" s="29"/>
       <c r="R34" s="29"/>
       <c r="S34" s="29"/>
@@ -3636,9 +3785,9 @@
       <c r="V34" s="29"/>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="109"/>
-      <c r="C35" s="130"/>
+    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="116"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="46" t="s">
         <v>52</v>
       </c>
@@ -3671,8 +3820,12 @@
       <c r="N35" s="71">
         <v>0</v>
       </c>
-      <c r="O35" s="28"/>
-      <c r="P35" s="29"/>
+      <c r="O35" s="71">
+        <v>0</v>
+      </c>
+      <c r="P35" s="71">
+        <v>0</v>
+      </c>
       <c r="Q35" s="29"/>
       <c r="R35" s="29"/>
       <c r="S35" s="29"/>
@@ -3681,9 +3834,9 @@
       <c r="V35" s="29"/>
       <c r="W35" s="30"/>
     </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="109"/>
-      <c r="C36" s="130"/>
+    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="116"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="52" t="s">
         <v>111</v>
       </c>
@@ -3716,8 +3869,12 @@
       <c r="N36" s="71">
         <v>0</v>
       </c>
-      <c r="O36" s="28"/>
-      <c r="P36" s="29"/>
+      <c r="O36" s="71">
+        <v>0</v>
+      </c>
+      <c r="P36" s="71">
+        <v>0</v>
+      </c>
       <c r="Q36" s="29"/>
       <c r="R36" s="29"/>
       <c r="S36" s="29"/>
@@ -3726,8 +3883,8 @@
       <c r="V36" s="29"/>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="109"/>
+    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="116"/>
       <c r="C37" s="49" t="s">
         <v>53</v>
       </c>
@@ -3761,8 +3918,12 @@
       <c r="N37" s="71">
         <v>0</v>
       </c>
-      <c r="O37" s="28"/>
-      <c r="P37" s="29"/>
+      <c r="O37" s="71">
+        <v>0</v>
+      </c>
+      <c r="P37" s="71">
+        <v>0</v>
+      </c>
       <c r="Q37" s="29"/>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
@@ -3771,8 +3932,8 @@
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="109"/>
+    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="116"/>
       <c r="C38" s="49" t="s">
         <v>55</v>
       </c>
@@ -3806,8 +3967,12 @@
       <c r="N38" s="71">
         <v>0</v>
       </c>
-      <c r="O38" s="28"/>
-      <c r="P38" s="29"/>
+      <c r="O38" s="71">
+        <v>0</v>
+      </c>
+      <c r="P38" s="71">
+        <v>0</v>
+      </c>
       <c r="Q38" s="29"/>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
@@ -3816,8 +3981,8 @@
       <c r="V38" s="29"/>
       <c r="W38" s="30"/>
     </row>
-    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="109"/>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="116"/>
       <c r="C39" s="49" t="s">
         <v>56</v>
       </c>
@@ -3842,7 +4007,7 @@
       <c r="K39" s="71">
         <v>0</v>
       </c>
-      <c r="L39" s="94">
+      <c r="L39" s="132">
         <v>0.5</v>
       </c>
       <c r="M39" s="48">
@@ -3875,12 +4040,12 @@
       <c r="V39" s="48">
         <v>0</v>
       </c>
-      <c r="W39" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="109"/>
+      <c r="W39" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="116"/>
       <c r="C40" s="56" t="s">
         <v>112</v>
       </c>
@@ -3914,8 +4079,12 @@
       <c r="N40" s="71">
         <v>0</v>
       </c>
-      <c r="O40" s="28"/>
-      <c r="P40" s="29"/>
+      <c r="O40" s="71">
+        <v>0</v>
+      </c>
+      <c r="P40" s="71">
+        <v>0</v>
+      </c>
       <c r="Q40" s="29"/>
       <c r="R40" s="29"/>
       <c r="S40" s="29"/>
@@ -3924,11 +4093,11 @@
       <c r="V40" s="29"/>
       <c r="W40" s="30"/>
     </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="99" t="s">
+    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="128" t="s">
+      <c r="C41" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -3948,52 +4117,52 @@
         <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
         <v>0.95</v>
       </c>
-      <c r="J41" s="85">
+      <c r="J41" s="134">
         <v>0.45</v>
       </c>
-      <c r="K41" s="87">
+      <c r="K41" s="86">
         <v>0.5</v>
       </c>
-      <c r="L41" s="87">
-        <v>0</v>
-      </c>
-      <c r="M41" s="87">
-        <v>0</v>
-      </c>
-      <c r="N41" s="87">
-        <v>0</v>
-      </c>
-      <c r="O41" s="87">
-        <v>0</v>
-      </c>
-      <c r="P41" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="87">
-        <v>0</v>
-      </c>
-      <c r="R41" s="87">
-        <v>0</v>
-      </c>
-      <c r="S41" s="87">
-        <v>0</v>
-      </c>
-      <c r="T41" s="87">
-        <v>0</v>
-      </c>
-      <c r="U41" s="87">
-        <v>0</v>
-      </c>
-      <c r="V41" s="87">
-        <v>0</v>
-      </c>
-      <c r="W41" s="88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="100"/>
-      <c r="C42" s="129"/>
+      <c r="L41" s="86">
+        <v>0</v>
+      </c>
+      <c r="M41" s="86">
+        <v>0</v>
+      </c>
+      <c r="N41" s="86">
+        <v>0</v>
+      </c>
+      <c r="O41" s="86">
+        <v>0</v>
+      </c>
+      <c r="P41" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="86">
+        <v>0</v>
+      </c>
+      <c r="R41" s="86">
+        <v>0</v>
+      </c>
+      <c r="S41" s="86">
+        <v>0</v>
+      </c>
+      <c r="T41" s="86">
+        <v>0</v>
+      </c>
+      <c r="U41" s="86">
+        <v>0</v>
+      </c>
+      <c r="V41" s="86">
+        <v>0</v>
+      </c>
+      <c r="W41" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="107"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -4026,8 +4195,12 @@
       <c r="N42" s="71">
         <v>0</v>
       </c>
-      <c r="O42" s="28"/>
-      <c r="P42" s="29"/>
+      <c r="O42" s="71">
+        <v>0</v>
+      </c>
+      <c r="P42" s="71">
+        <v>0</v>
+      </c>
       <c r="Q42" s="29"/>
       <c r="R42" s="29"/>
       <c r="S42" s="29"/>
@@ -4036,9 +4209,9 @@
       <c r="V42" s="29"/>
       <c r="W42" s="30"/>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="100"/>
-      <c r="C43" s="129"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="107"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -4071,8 +4244,12 @@
       <c r="N43" s="71">
         <v>0</v>
       </c>
-      <c r="O43" s="28"/>
-      <c r="P43" s="29"/>
+      <c r="O43" s="71">
+        <v>0</v>
+      </c>
+      <c r="P43" s="71">
+        <v>0</v>
+      </c>
       <c r="Q43" s="29"/>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
@@ -4081,9 +4258,9 @@
       <c r="V43" s="29"/>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="100"/>
-      <c r="C44" s="129"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="107"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -4116,8 +4293,12 @@
       <c r="N44" s="71">
         <v>0</v>
       </c>
-      <c r="O44" s="28"/>
-      <c r="P44" s="29"/>
+      <c r="O44" s="71">
+        <v>0</v>
+      </c>
+      <c r="P44" s="71">
+        <v>0</v>
+      </c>
       <c r="Q44" s="29"/>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
@@ -4126,9 +4307,9 @@
       <c r="V44" s="29"/>
       <c r="W44" s="30"/>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="100"/>
-      <c r="C45" s="129"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="107"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -4161,8 +4342,12 @@
       <c r="N45" s="71">
         <v>0</v>
       </c>
-      <c r="O45" s="28"/>
-      <c r="P45" s="29"/>
+      <c r="O45" s="71">
+        <v>0</v>
+      </c>
+      <c r="P45" s="71">
+        <v>0</v>
+      </c>
       <c r="Q45" s="29"/>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
@@ -4171,9 +4356,9 @@
       <c r="V45" s="29"/>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="100"/>
-      <c r="C46" s="129"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="107"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -4206,8 +4391,12 @@
       <c r="N46" s="71">
         <v>0</v>
       </c>
-      <c r="O46" s="28"/>
-      <c r="P46" s="29"/>
+      <c r="O46" s="71">
+        <v>0</v>
+      </c>
+      <c r="P46" s="71">
+        <v>0</v>
+      </c>
       <c r="Q46" s="29"/>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
@@ -4216,9 +4405,9 @@
       <c r="V46" s="29"/>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="100"/>
-      <c r="C47" s="129"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="107"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -4251,8 +4440,12 @@
       <c r="N47" s="71">
         <v>0</v>
       </c>
-      <c r="O47" s="28"/>
-      <c r="P47" s="29"/>
+      <c r="O47" s="71">
+        <v>0</v>
+      </c>
+      <c r="P47" s="71">
+        <v>0</v>
+      </c>
       <c r="Q47" s="29"/>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
@@ -4261,9 +4454,9 @@
       <c r="V47" s="29"/>
       <c r="W47" s="30"/>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="100"/>
-      <c r="C48" s="129"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="107"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -4296,8 +4489,12 @@
       <c r="N48" s="71">
         <v>0</v>
       </c>
-      <c r="O48" s="28"/>
-      <c r="P48" s="29"/>
+      <c r="O48" s="71">
+        <v>0</v>
+      </c>
+      <c r="P48" s="71">
+        <v>0</v>
+      </c>
       <c r="Q48" s="29"/>
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
@@ -4306,9 +4503,9 @@
       <c r="V48" s="29"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="100"/>
-      <c r="C49" s="129"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="107"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4341,8 +4538,12 @@
       <c r="N49" s="71">
         <v>0</v>
       </c>
-      <c r="O49" s="28"/>
-      <c r="P49" s="29"/>
+      <c r="O49" s="71">
+        <v>0</v>
+      </c>
+      <c r="P49" s="71">
+        <v>0</v>
+      </c>
       <c r="Q49" s="29"/>
       <c r="R49" s="29"/>
       <c r="S49" s="29"/>
@@ -4351,9 +4552,9 @@
       <c r="V49" s="29"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="100"/>
-      <c r="C50" s="129"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="107"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4386,8 +4587,12 @@
       <c r="N50" s="71">
         <v>0</v>
       </c>
-      <c r="O50" s="28"/>
-      <c r="P50" s="29"/>
+      <c r="O50" s="71">
+        <v>0</v>
+      </c>
+      <c r="P50" s="71">
+        <v>0</v>
+      </c>
       <c r="Q50" s="29"/>
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
@@ -4396,9 +4601,9 @@
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="100"/>
-      <c r="C51" s="129"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="107"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4431,8 +4636,12 @@
       <c r="N51" s="71">
         <v>0</v>
       </c>
-      <c r="O51" s="28"/>
-      <c r="P51" s="29"/>
+      <c r="O51" s="71">
+        <v>0</v>
+      </c>
+      <c r="P51" s="71">
+        <v>0</v>
+      </c>
       <c r="Q51" s="29"/>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
@@ -4441,9 +4650,9 @@
       <c r="V51" s="29"/>
       <c r="W51" s="30"/>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="100"/>
-      <c r="C52" s="129"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="107"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4476,8 +4685,12 @@
       <c r="N52" s="71">
         <v>0</v>
       </c>
-      <c r="O52" s="28"/>
-      <c r="P52" s="29"/>
+      <c r="O52" s="71">
+        <v>0</v>
+      </c>
+      <c r="P52" s="71">
+        <v>0</v>
+      </c>
       <c r="Q52" s="29"/>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
@@ -4486,9 +4699,9 @@
       <c r="V52" s="29"/>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="100"/>
-      <c r="C53" s="129"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="107"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="49" t="s">
         <v>77</v>
       </c>
@@ -4521,8 +4734,12 @@
       <c r="N53" s="71">
         <v>0</v>
       </c>
-      <c r="O53" s="28"/>
-      <c r="P53" s="29"/>
+      <c r="O53" s="71">
+        <v>0</v>
+      </c>
+      <c r="P53" s="71">
+        <v>0</v>
+      </c>
       <c r="Q53" s="29"/>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
@@ -4531,9 +4748,9 @@
       <c r="V53" s="29"/>
       <c r="W53" s="30"/>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="100"/>
-      <c r="C54" s="129"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="107"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="49" t="s">
         <v>78</v>
       </c>
@@ -4566,8 +4783,12 @@
       <c r="N54" s="71">
         <v>0</v>
       </c>
-      <c r="O54" s="28"/>
-      <c r="P54" s="29"/>
+      <c r="O54" s="71">
+        <v>0</v>
+      </c>
+      <c r="P54" s="71">
+        <v>0</v>
+      </c>
       <c r="Q54" s="29"/>
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
@@ -4576,9 +4797,9 @@
       <c r="V54" s="29"/>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="100"/>
-      <c r="C55" s="129"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="107"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="49" t="s">
         <v>78</v>
       </c>
@@ -4611,8 +4832,12 @@
       <c r="N55" s="71">
         <v>0</v>
       </c>
-      <c r="O55" s="28"/>
-      <c r="P55" s="29"/>
+      <c r="O55" s="71">
+        <v>0</v>
+      </c>
+      <c r="P55" s="71">
+        <v>0</v>
+      </c>
       <c r="Q55" s="29"/>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
@@ -4621,9 +4846,9 @@
       <c r="V55" s="29"/>
       <c r="W55" s="30"/>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="100"/>
-      <c r="C56" s="129"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="107"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="49" t="s">
         <v>79</v>
       </c>
@@ -4656,8 +4881,12 @@
       <c r="N56" s="71">
         <v>0</v>
       </c>
-      <c r="O56" s="28"/>
-      <c r="P56" s="29"/>
+      <c r="O56" s="71">
+        <v>0</v>
+      </c>
+      <c r="P56" s="71">
+        <v>0</v>
+      </c>
       <c r="Q56" s="29"/>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
@@ -4666,9 +4895,9 @@
       <c r="V56" s="29"/>
       <c r="W56" s="30"/>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="100"/>
-      <c r="C57" s="129"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="107"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="49" t="s">
         <v>80</v>
       </c>
@@ -4701,8 +4930,12 @@
       <c r="N57" s="71">
         <v>0</v>
       </c>
-      <c r="O57" s="28"/>
-      <c r="P57" s="29"/>
+      <c r="O57" s="71">
+        <v>0</v>
+      </c>
+      <c r="P57" s="71">
+        <v>0</v>
+      </c>
       <c r="Q57" s="29"/>
       <c r="R57" s="29"/>
       <c r="S57" s="29"/>
@@ -4711,9 +4944,9 @@
       <c r="V57" s="29"/>
       <c r="W57" s="30"/>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="100"/>
-      <c r="C58" s="129"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="107"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="49" t="s">
         <v>81</v>
       </c>
@@ -4746,8 +4979,12 @@
       <c r="N58" s="71">
         <v>0</v>
       </c>
-      <c r="O58" s="28"/>
-      <c r="P58" s="29"/>
+      <c r="O58" s="71">
+        <v>0</v>
+      </c>
+      <c r="P58" s="71">
+        <v>0</v>
+      </c>
       <c r="Q58" s="29"/>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
@@ -4756,9 +4993,9 @@
       <c r="V58" s="29"/>
       <c r="W58" s="30"/>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="100"/>
-      <c r="C59" s="129"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="107"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="49" t="s">
         <v>82</v>
       </c>
@@ -4791,8 +5028,12 @@
       <c r="N59" s="71">
         <v>0</v>
       </c>
-      <c r="O59" s="28"/>
-      <c r="P59" s="29"/>
+      <c r="O59" s="71">
+        <v>0</v>
+      </c>
+      <c r="P59" s="71">
+        <v>0</v>
+      </c>
       <c r="Q59" s="29"/>
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
@@ -4801,9 +5042,9 @@
       <c r="V59" s="29"/>
       <c r="W59" s="30"/>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="100"/>
-      <c r="C60" s="129"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="107"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="49" t="s">
         <v>83</v>
       </c>
@@ -4836,8 +5077,12 @@
       <c r="N60" s="71">
         <v>0</v>
       </c>
-      <c r="O60" s="28"/>
-      <c r="P60" s="29"/>
+      <c r="O60" s="71">
+        <v>0</v>
+      </c>
+      <c r="P60" s="71">
+        <v>0</v>
+      </c>
       <c r="Q60" s="29"/>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
@@ -4846,9 +5091,9 @@
       <c r="V60" s="29"/>
       <c r="W60" s="30"/>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="100"/>
-      <c r="C61" s="129"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="107"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="49" t="s">
         <v>84</v>
       </c>
@@ -4881,8 +5126,12 @@
       <c r="N61" s="71">
         <v>0</v>
       </c>
-      <c r="O61" s="28"/>
-      <c r="P61" s="29"/>
+      <c r="O61" s="71">
+        <v>0</v>
+      </c>
+      <c r="P61" s="71">
+        <v>0</v>
+      </c>
       <c r="Q61" s="29"/>
       <c r="R61" s="29"/>
       <c r="S61" s="29"/>
@@ -4891,9 +5140,9 @@
       <c r="V61" s="29"/>
       <c r="W61" s="30"/>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="100"/>
-      <c r="C62" s="129"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="107"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="49" t="s">
         <v>85</v>
       </c>
@@ -4926,8 +5175,12 @@
       <c r="N62" s="71">
         <v>0</v>
       </c>
-      <c r="O62" s="28"/>
-      <c r="P62" s="29"/>
+      <c r="O62" s="71">
+        <v>0</v>
+      </c>
+      <c r="P62" s="71">
+        <v>0</v>
+      </c>
       <c r="Q62" s="29"/>
       <c r="R62" s="29"/>
       <c r="S62" s="29"/>
@@ -4936,9 +5189,9 @@
       <c r="V62" s="29"/>
       <c r="W62" s="30"/>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="100"/>
-      <c r="C63" s="129"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="107"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="49" t="s">
         <v>86</v>
       </c>
@@ -4971,8 +5224,12 @@
       <c r="N63" s="71">
         <v>0</v>
       </c>
-      <c r="O63" s="28"/>
-      <c r="P63" s="29"/>
+      <c r="O63" s="71">
+        <v>0</v>
+      </c>
+      <c r="P63" s="71">
+        <v>0</v>
+      </c>
       <c r="Q63" s="29"/>
       <c r="R63" s="29"/>
       <c r="S63" s="29"/>
@@ -4981,9 +5238,9 @@
       <c r="V63" s="29"/>
       <c r="W63" s="30"/>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="100"/>
-      <c r="C64" s="129"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="107"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="49" t="s">
         <v>87</v>
       </c>
@@ -5016,8 +5273,12 @@
       <c r="N64" s="71">
         <v>0</v>
       </c>
-      <c r="O64" s="28"/>
-      <c r="P64" s="29"/>
+      <c r="O64" s="71">
+        <v>0</v>
+      </c>
+      <c r="P64" s="71">
+        <v>0</v>
+      </c>
       <c r="Q64" s="29"/>
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
@@ -5026,9 +5287,9 @@
       <c r="V64" s="29"/>
       <c r="W64" s="30"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="100"/>
-      <c r="C65" s="129"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="107"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="49" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5322,12 @@
       <c r="N65" s="71">
         <v>0</v>
       </c>
-      <c r="O65" s="28"/>
-      <c r="P65" s="29"/>
+      <c r="O65" s="71">
+        <v>0</v>
+      </c>
+      <c r="P65" s="71">
+        <v>0</v>
+      </c>
       <c r="Q65" s="29"/>
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
@@ -5071,9 +5336,9 @@
       <c r="V65" s="29"/>
       <c r="W65" s="30"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="100"/>
-      <c r="C66" s="129"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="107"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="49" t="s">
         <v>89</v>
       </c>
@@ -5106,8 +5371,12 @@
       <c r="N66" s="71">
         <v>0</v>
       </c>
-      <c r="O66" s="28"/>
-      <c r="P66" s="29"/>
+      <c r="O66" s="71">
+        <v>0</v>
+      </c>
+      <c r="P66" s="71">
+        <v>0</v>
+      </c>
       <c r="Q66" s="29"/>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
@@ -5116,9 +5385,9 @@
       <c r="V66" s="29"/>
       <c r="W66" s="30"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="100"/>
-      <c r="C67" s="129"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="107"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="49" t="s">
         <v>94</v>
       </c>
@@ -5151,8 +5420,12 @@
       <c r="N67" s="71">
         <v>0</v>
       </c>
-      <c r="O67" s="28"/>
-      <c r="P67" s="29"/>
+      <c r="O67" s="71">
+        <v>0</v>
+      </c>
+      <c r="P67" s="71">
+        <v>0</v>
+      </c>
       <c r="Q67" s="29"/>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
@@ -5161,9 +5434,9 @@
       <c r="V67" s="29"/>
       <c r="W67" s="30"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="100"/>
-      <c r="C68" s="129"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="107"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="49" t="s">
         <v>95</v>
       </c>
@@ -5196,8 +5469,12 @@
       <c r="N68" s="71">
         <v>0</v>
       </c>
-      <c r="O68" s="28"/>
-      <c r="P68" s="29"/>
+      <c r="O68" s="71">
+        <v>0</v>
+      </c>
+      <c r="P68" s="71">
+        <v>0</v>
+      </c>
       <c r="Q68" s="29"/>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
@@ -5206,9 +5483,9 @@
       <c r="V68" s="29"/>
       <c r="W68" s="30"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="100"/>
-      <c r="C69" s="129"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="107"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="49" t="s">
         <v>96</v>
       </c>
@@ -5241,8 +5518,12 @@
       <c r="N69" s="71">
         <v>0</v>
       </c>
-      <c r="O69" s="28"/>
-      <c r="P69" s="29"/>
+      <c r="O69" s="71">
+        <v>0</v>
+      </c>
+      <c r="P69" s="71">
+        <v>0</v>
+      </c>
       <c r="Q69" s="29"/>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
@@ -5251,9 +5532,9 @@
       <c r="V69" s="29"/>
       <c r="W69" s="30"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="100"/>
-      <c r="C70" s="129"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="107"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="49" t="s">
         <v>97</v>
       </c>
@@ -5286,8 +5567,12 @@
       <c r="N70" s="71">
         <v>0</v>
       </c>
-      <c r="O70" s="28"/>
-      <c r="P70" s="29"/>
+      <c r="O70" s="71">
+        <v>0</v>
+      </c>
+      <c r="P70" s="71">
+        <v>0</v>
+      </c>
       <c r="Q70" s="29"/>
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
@@ -5296,9 +5581,9 @@
       <c r="V70" s="29"/>
       <c r="W70" s="30"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="100"/>
-      <c r="C71" s="129"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="107"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="49" t="s">
         <v>98</v>
       </c>
@@ -5331,8 +5616,12 @@
       <c r="N71" s="71">
         <v>0</v>
       </c>
-      <c r="O71" s="28"/>
-      <c r="P71" s="29"/>
+      <c r="O71" s="71">
+        <v>0</v>
+      </c>
+      <c r="P71" s="71">
+        <v>0</v>
+      </c>
       <c r="Q71" s="29"/>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
@@ -5341,9 +5630,9 @@
       <c r="V71" s="29"/>
       <c r="W71" s="30"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="100"/>
-      <c r="C72" s="129"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="107"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="49" t="s">
         <v>99</v>
       </c>
@@ -5376,8 +5665,12 @@
       <c r="N72" s="71">
         <v>0</v>
       </c>
-      <c r="O72" s="28"/>
-      <c r="P72" s="29"/>
+      <c r="O72" s="71">
+        <v>0</v>
+      </c>
+      <c r="P72" s="71">
+        <v>0</v>
+      </c>
       <c r="Q72" s="29"/>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
@@ -5386,9 +5679,9 @@
       <c r="V72" s="29"/>
       <c r="W72" s="30"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="100"/>
-      <c r="C73" s="129"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="107"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="49" t="s">
         <v>100</v>
       </c>
@@ -5421,8 +5714,12 @@
       <c r="N73" s="71">
         <v>0</v>
       </c>
-      <c r="O73" s="28"/>
-      <c r="P73" s="29"/>
+      <c r="O73" s="71">
+        <v>0</v>
+      </c>
+      <c r="P73" s="71">
+        <v>0</v>
+      </c>
       <c r="Q73" s="29"/>
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
@@ -5431,9 +5728,9 @@
       <c r="V73" s="29"/>
       <c r="W73" s="30"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="100"/>
-      <c r="C74" s="129"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="107"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="49" t="s">
         <v>101</v>
       </c>
@@ -5466,8 +5763,12 @@
       <c r="N74" s="71">
         <v>0</v>
       </c>
-      <c r="O74" s="28"/>
-      <c r="P74" s="29"/>
+      <c r="O74" s="71">
+        <v>0</v>
+      </c>
+      <c r="P74" s="71">
+        <v>0</v>
+      </c>
       <c r="Q74" s="29"/>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
@@ -5476,9 +5777,9 @@
       <c r="V74" s="29"/>
       <c r="W74" s="30"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="100"/>
-      <c r="C75" s="129"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="107"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="49" t="s">
         <v>102</v>
       </c>
@@ -5511,8 +5812,12 @@
       <c r="N75" s="71">
         <v>0</v>
       </c>
-      <c r="O75" s="28"/>
-      <c r="P75" s="29"/>
+      <c r="O75" s="71">
+        <v>0</v>
+      </c>
+      <c r="P75" s="71">
+        <v>0</v>
+      </c>
       <c r="Q75" s="29"/>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
@@ -5521,9 +5826,9 @@
       <c r="V75" s="29"/>
       <c r="W75" s="30"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="100"/>
-      <c r="C76" s="129"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="107"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="49" t="s">
         <v>103</v>
       </c>
@@ -5556,8 +5861,12 @@
       <c r="N76" s="71">
         <v>0</v>
       </c>
-      <c r="O76" s="28"/>
-      <c r="P76" s="29"/>
+      <c r="O76" s="71">
+        <v>0</v>
+      </c>
+      <c r="P76" s="71">
+        <v>0</v>
+      </c>
       <c r="Q76" s="29"/>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
@@ -5566,9 +5875,9 @@
       <c r="V76" s="29"/>
       <c r="W76" s="30"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="100"/>
-      <c r="C77" s="129"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="107"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="49" t="s">
         <v>104</v>
       </c>
@@ -5601,8 +5910,12 @@
       <c r="N77" s="71">
         <v>0</v>
       </c>
-      <c r="O77" s="28"/>
-      <c r="P77" s="29"/>
+      <c r="O77" s="71">
+        <v>0</v>
+      </c>
+      <c r="P77" s="71">
+        <v>0</v>
+      </c>
       <c r="Q77" s="29"/>
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
@@ -5611,9 +5924,9 @@
       <c r="V77" s="29"/>
       <c r="W77" s="30"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="100"/>
-      <c r="C78" s="129"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="107"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="49" t="s">
         <v>105</v>
       </c>
@@ -5646,8 +5959,12 @@
       <c r="N78" s="71">
         <v>0</v>
       </c>
-      <c r="O78" s="28"/>
-      <c r="P78" s="29"/>
+      <c r="O78" s="71">
+        <v>0</v>
+      </c>
+      <c r="P78" s="71">
+        <v>0</v>
+      </c>
       <c r="Q78" s="29"/>
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
@@ -5656,9 +5973,9 @@
       <c r="V78" s="29"/>
       <c r="W78" s="30"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="100"/>
-      <c r="C79" s="129"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="107"/>
+      <c r="C79" s="103"/>
       <c r="D79" s="49" t="s">
         <v>106</v>
       </c>
@@ -5691,8 +6008,12 @@
       <c r="N79" s="71">
         <v>0</v>
       </c>
-      <c r="O79" s="28"/>
-      <c r="P79" s="29"/>
+      <c r="O79" s="71">
+        <v>0</v>
+      </c>
+      <c r="P79" s="71">
+        <v>0</v>
+      </c>
       <c r="Q79" s="29"/>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
@@ -5701,9 +6022,9 @@
       <c r="V79" s="29"/>
       <c r="W79" s="30"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="100"/>
-      <c r="C80" s="129"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="107"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="49" t="s">
         <v>107</v>
       </c>
@@ -5736,8 +6057,12 @@
       <c r="N80" s="71">
         <v>0</v>
       </c>
-      <c r="O80" s="28"/>
-      <c r="P80" s="29"/>
+      <c r="O80" s="71">
+        <v>0</v>
+      </c>
+      <c r="P80" s="71">
+        <v>0</v>
+      </c>
       <c r="Q80" s="29"/>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
@@ -5746,9 +6071,9 @@
       <c r="V80" s="29"/>
       <c r="W80" s="30"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="100"/>
-      <c r="C81" s="129"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="107"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="49" t="s">
         <v>90</v>
       </c>
@@ -5781,8 +6106,12 @@
       <c r="N81" s="71">
         <v>0</v>
       </c>
-      <c r="O81" s="28"/>
-      <c r="P81" s="29"/>
+      <c r="O81" s="71">
+        <v>0</v>
+      </c>
+      <c r="P81" s="71">
+        <v>0</v>
+      </c>
       <c r="Q81" s="29"/>
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
@@ -5791,9 +6120,9 @@
       <c r="V81" s="29"/>
       <c r="W81" s="30"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="100"/>
-      <c r="C82" s="129"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="107"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="49" t="s">
         <v>91</v>
       </c>
@@ -5826,8 +6155,12 @@
       <c r="N82" s="71">
         <v>0</v>
       </c>
-      <c r="O82" s="28"/>
-      <c r="P82" s="29"/>
+      <c r="O82" s="71">
+        <v>0</v>
+      </c>
+      <c r="P82" s="71">
+        <v>0</v>
+      </c>
       <c r="Q82" s="29"/>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
@@ -5836,9 +6169,9 @@
       <c r="V82" s="29"/>
       <c r="W82" s="30"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="100"/>
-      <c r="C83" s="129"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="107"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="49" t="s">
         <v>114</v>
       </c>
@@ -5899,9 +6232,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="100"/>
-      <c r="C84" s="101" t="s">
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="107"/>
+      <c r="C84" s="108" t="s">
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
@@ -5936,8 +6269,12 @@
       <c r="N84" s="71">
         <v>0</v>
       </c>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
+      <c r="O84" s="71">
+        <v>0</v>
+      </c>
+      <c r="P84" s="71">
+        <v>0</v>
+      </c>
       <c r="Q84" s="28"/>
       <c r="R84" s="29"/>
       <c r="S84" s="29"/>
@@ -5946,9 +6283,9 @@
       <c r="V84" s="29"/>
       <c r="W84" s="30"/>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="100"/>
-      <c r="C85" s="101"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="107"/>
+      <c r="C85" s="108"/>
       <c r="D85" s="52" t="s">
         <v>70</v>
       </c>
@@ -5981,8 +6318,12 @@
       <c r="N85" s="71">
         <v>0</v>
       </c>
-      <c r="O85" s="28"/>
-      <c r="P85" s="28"/>
+      <c r="O85" s="71">
+        <v>0</v>
+      </c>
+      <c r="P85" s="71">
+        <v>0</v>
+      </c>
       <c r="Q85" s="28"/>
       <c r="R85" s="29"/>
       <c r="S85" s="29"/>
@@ -5991,9 +6332,9 @@
       <c r="V85" s="29"/>
       <c r="W85" s="30"/>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="100"/>
-      <c r="C86" s="101"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="107"/>
+      <c r="C86" s="108"/>
       <c r="D86" s="52" t="s">
         <v>71</v>
       </c>
@@ -6026,8 +6367,12 @@
       <c r="N86" s="71">
         <v>0</v>
       </c>
-      <c r="O86" s="28"/>
-      <c r="P86" s="28"/>
+      <c r="O86" s="71">
+        <v>0</v>
+      </c>
+      <c r="P86" s="71">
+        <v>0</v>
+      </c>
       <c r="Q86" s="28"/>
       <c r="R86" s="29"/>
       <c r="S86" s="29"/>
@@ -6036,9 +6381,9 @@
       <c r="V86" s="29"/>
       <c r="W86" s="30"/>
     </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="100"/>
-      <c r="C87" s="101"/>
+    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="107"/>
+      <c r="C87" s="108"/>
       <c r="D87" s="52" t="s">
         <v>72</v>
       </c>
@@ -6071,8 +6416,12 @@
       <c r="N87" s="71">
         <v>0</v>
       </c>
-      <c r="O87" s="28"/>
-      <c r="P87" s="28"/>
+      <c r="O87" s="71">
+        <v>0</v>
+      </c>
+      <c r="P87" s="71">
+        <v>0</v>
+      </c>
       <c r="Q87" s="28"/>
       <c r="R87" s="28"/>
       <c r="S87" s="29"/>
@@ -6081,9 +6430,9 @@
       <c r="V87" s="29"/>
       <c r="W87" s="30"/>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="100"/>
-      <c r="C88" s="101"/>
+    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="107"/>
+      <c r="C88" s="108"/>
       <c r="D88" s="52" t="s">
         <v>73</v>
       </c>
@@ -6116,8 +6465,12 @@
       <c r="N88" s="71">
         <v>0</v>
       </c>
-      <c r="O88" s="28"/>
-      <c r="P88" s="28"/>
+      <c r="O88" s="71">
+        <v>0</v>
+      </c>
+      <c r="P88" s="71">
+        <v>0</v>
+      </c>
       <c r="Q88" s="28"/>
       <c r="R88" s="28"/>
       <c r="S88" s="28"/>
@@ -6126,9 +6479,9 @@
       <c r="V88" s="28"/>
       <c r="W88" s="58"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="100"/>
-      <c r="C89" s="101"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="107"/>
+      <c r="C89" s="108"/>
       <c r="D89" s="52" t="s">
         <v>74</v>
       </c>
@@ -6161,8 +6514,12 @@
       <c r="N89" s="71">
         <v>0</v>
       </c>
-      <c r="O89" s="28"/>
-      <c r="P89" s="28"/>
+      <c r="O89" s="71">
+        <v>0</v>
+      </c>
+      <c r="P89" s="71">
+        <v>0</v>
+      </c>
       <c r="Q89" s="28"/>
       <c r="R89" s="29"/>
       <c r="S89" s="29"/>
@@ -6171,8 +6528,8 @@
       <c r="V89" s="29"/>
       <c r="W89" s="30"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="100"/>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="107"/>
       <c r="C90" s="83" t="s">
         <v>125</v>
       </c>
@@ -6230,12 +6587,12 @@
       <c r="V90" s="48">
         <v>0</v>
       </c>
-      <c r="W90" s="86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="100"/>
+      <c r="W90" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="107"/>
       <c r="C91" s="75" t="s">
         <v>113</v>
       </c>
@@ -6269,8 +6626,12 @@
       <c r="N91" s="71">
         <v>0</v>
       </c>
-      <c r="O91" s="28"/>
-      <c r="P91" s="28"/>
+      <c r="O91" s="71">
+        <v>0</v>
+      </c>
+      <c r="P91" s="71">
+        <v>0</v>
+      </c>
       <c r="Q91" s="28"/>
       <c r="R91" s="29"/>
       <c r="S91" s="29"/>
@@ -6279,8 +6640,8 @@
       <c r="V91" s="29"/>
       <c r="W91" s="30"/>
     </row>
-    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="119" t="s">
+    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="126" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="38" t="s">
@@ -6316,8 +6677,12 @@
       <c r="N92" s="70">
         <v>0</v>
       </c>
-      <c r="O92" s="25"/>
-      <c r="P92" s="25"/>
+      <c r="O92" s="70">
+        <v>0</v>
+      </c>
+      <c r="P92" s="70">
+        <v>0</v>
+      </c>
       <c r="Q92" s="25"/>
       <c r="R92" s="25"/>
       <c r="S92" s="25"/>
@@ -6326,8 +6691,8 @@
       <c r="V92" s="25"/>
       <c r="W92" s="67"/>
     </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="120"/>
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="127"/>
       <c r="C93" s="41" t="s">
         <v>119</v>
       </c>
@@ -6361,8 +6726,12 @@
       <c r="N93" s="73">
         <v>0</v>
       </c>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
+      <c r="O93" s="73">
+        <v>0</v>
+      </c>
+      <c r="P93" s="73">
+        <v>0</v>
+      </c>
       <c r="Q93" s="35"/>
       <c r="R93" s="35"/>
       <c r="S93" s="35"/>
@@ -6371,9 +6740,9 @@
       <c r="V93" s="35"/>
       <c r="W93" s="66"/>
     </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="121"/>
-      <c r="C94" s="131" t="s">
+    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="128"/>
+      <c r="C94" s="105" t="s">
         <v>108</v>
       </c>
       <c r="D94" s="42" t="s">
@@ -6408,8 +6777,12 @@
       <c r="N94" s="71">
         <v>0</v>
       </c>
-      <c r="O94" s="28"/>
-      <c r="P94" s="28"/>
+      <c r="O94" s="71">
+        <v>0</v>
+      </c>
+      <c r="P94" s="71">
+        <v>0</v>
+      </c>
       <c r="Q94" s="28"/>
       <c r="R94" s="28"/>
       <c r="S94" s="28"/>
@@ -6418,9 +6791,9 @@
       <c r="V94" s="28"/>
       <c r="W94" s="58"/>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="122"/>
-      <c r="C95" s="131"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" s="129"/>
+      <c r="C95" s="105"/>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -6453,8 +6826,12 @@
       <c r="N95" s="71">
         <v>0</v>
       </c>
-      <c r="O95" s="28"/>
-      <c r="P95" s="28"/>
+      <c r="O95" s="71">
+        <v>0</v>
+      </c>
+      <c r="P95" s="71">
+        <v>0</v>
+      </c>
       <c r="Q95" s="28"/>
       <c r="R95" s="28"/>
       <c r="S95" s="28"/>
@@ -6463,8 +6840,8 @@
       <c r="V95" s="29"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="123"/>
+    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="130"/>
       <c r="C96" s="44" t="s">
         <v>116</v>
       </c>
@@ -6492,14 +6869,18 @@
       <c r="L96" s="72">
         <v>0</v>
       </c>
-      <c r="M96" s="96">
+      <c r="M96" s="94">
         <v>0.75</v>
       </c>
-      <c r="N96" s="96">
-        <v>0</v>
-      </c>
-      <c r="O96" s="32"/>
-      <c r="P96" s="32"/>
+      <c r="N96" s="94">
+        <v>0</v>
+      </c>
+      <c r="O96" s="94">
+        <v>0</v>
+      </c>
+      <c r="P96" s="94">
+        <v>0</v>
+      </c>
       <c r="Q96" s="32"/>
       <c r="R96" s="32"/>
       <c r="S96" s="32"/>
@@ -6508,8 +6889,8 @@
       <c r="V96" s="32"/>
       <c r="W96" s="64"/>
     </row>
-    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="99" t="s">
+    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="106" t="s">
         <v>93</v>
       </c>
       <c r="C97" s="63" t="s">
@@ -6539,14 +6920,18 @@
       <c r="L97" s="70">
         <v>0</v>
       </c>
-      <c r="M97" s="87">
+      <c r="M97" s="86">
         <v>0.46700000000000003</v>
       </c>
-      <c r="N97" s="87">
-        <v>0</v>
-      </c>
-      <c r="O97" s="26"/>
-      <c r="P97" s="26"/>
+      <c r="N97" s="86">
+        <v>0</v>
+      </c>
+      <c r="O97" s="86">
+        <v>0</v>
+      </c>
+      <c r="P97" s="86">
+        <v>0</v>
+      </c>
       <c r="Q97" s="26"/>
       <c r="R97" s="26"/>
       <c r="S97" s="26"/>
@@ -6555,8 +6940,8 @@
       <c r="V97" s="26"/>
       <c r="W97" s="27"/>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="122"/>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B98" s="129"/>
       <c r="C98" s="54" t="s">
         <v>131</v>
       </c>
@@ -6584,16 +6969,18 @@
       <c r="L98" s="71">
         <v>0</v>
       </c>
-      <c r="M98" s="97">
-        <v>0</v>
-      </c>
-      <c r="N98" s="97">
-        <v>0</v>
-      </c>
-      <c r="O98" s="134">
-        <v>0</v>
-      </c>
-      <c r="P98" s="29"/>
+      <c r="M98" s="95">
+        <v>0</v>
+      </c>
+      <c r="N98" s="95">
+        <v>0</v>
+      </c>
+      <c r="O98" s="131">
+        <v>0</v>
+      </c>
+      <c r="P98" s="131">
+        <v>0</v>
+      </c>
       <c r="Q98" s="29"/>
       <c r="R98" s="29"/>
       <c r="S98" s="29"/>
@@ -6602,8 +6989,8 @@
       <c r="V98" s="29"/>
       <c r="W98" s="30"/>
     </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B99" s="122"/>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B99" s="129"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -6631,16 +7018,18 @@
       <c r="L99" s="71">
         <v>0</v>
       </c>
-      <c r="M99" s="97">
-        <v>0</v>
-      </c>
-      <c r="N99" s="97">
-        <v>0</v>
-      </c>
-      <c r="O99" s="133">
+      <c r="M99" s="95">
+        <v>0</v>
+      </c>
+      <c r="N99" s="95">
+        <v>0</v>
+      </c>
+      <c r="O99" s="97">
         <v>1</v>
       </c>
-      <c r="P99" s="29"/>
+      <c r="P99" s="135">
+        <v>0</v>
+      </c>
       <c r="Q99" s="29"/>
       <c r="R99" s="29"/>
       <c r="S99" s="29"/>
@@ -6649,8 +7038,8 @@
       <c r="V99" s="29"/>
       <c r="W99" s="30"/>
     </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B100" s="122"/>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B100" s="129"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -6678,16 +7067,18 @@
       <c r="L100" s="71">
         <v>0</v>
       </c>
-      <c r="M100" s="97">
-        <v>0</v>
-      </c>
-      <c r="N100" s="97">
-        <v>0</v>
-      </c>
-      <c r="O100" s="133">
+      <c r="M100" s="95">
+        <v>0</v>
+      </c>
+      <c r="N100" s="95">
+        <v>0</v>
+      </c>
+      <c r="O100" s="97">
         <v>0.1</v>
       </c>
-      <c r="P100" s="29"/>
+      <c r="P100" s="97">
+        <v>0</v>
+      </c>
       <c r="Q100" s="29"/>
       <c r="R100" s="29"/>
       <c r="S100" s="29"/>
@@ -6696,8 +7087,8 @@
       <c r="V100" s="29"/>
       <c r="W100" s="30"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B101" s="122"/>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B101" s="129"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -6731,8 +7122,12 @@
       <c r="N101" s="71">
         <v>0</v>
       </c>
-      <c r="O101" s="29"/>
-      <c r="P101" s="29"/>
+      <c r="O101" s="71">
+        <v>0</v>
+      </c>
+      <c r="P101" s="71">
+        <v>0</v>
+      </c>
       <c r="Q101" s="29"/>
       <c r="R101" s="29"/>
       <c r="S101" s="29"/>
@@ -6741,8 +7136,8 @@
       <c r="V101" s="29"/>
       <c r="W101" s="30"/>
     </row>
-    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="123"/>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="130"/>
       <c r="C102" s="44" t="s">
         <v>127</v>
       </c>
@@ -6773,11 +7168,15 @@
       <c r="M102" s="72">
         <v>0</v>
       </c>
-      <c r="N102" s="132" t="s">
+      <c r="N102" s="136" t="s">
         <v>132</v>
       </c>
-      <c r="O102" s="32"/>
-      <c r="P102" s="33"/>
+      <c r="O102" s="136">
+        <v>0</v>
+      </c>
+      <c r="P102" s="137">
+        <v>0</v>
+      </c>
       <c r="Q102" s="33"/>
       <c r="R102" s="33"/>
       <c r="S102" s="33"/>
@@ -6786,22 +7185,22 @@
       <c r="V102" s="33"/>
       <c r="W102" s="34"/>
     </row>
-    <row r="103" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="114" t="s">
+    <row r="103" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="115"/>
-      <c r="D103" s="115"/>
-      <c r="E103" s="115"/>
-      <c r="F103" s="115"/>
-      <c r="G103" s="115"/>
+      <c r="C103" s="122"/>
+      <c r="D103" s="122"/>
+      <c r="E103" s="122"/>
+      <c r="F103" s="122"/>
+      <c r="G103" s="122"/>
       <c r="H103" s="17">
         <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
         <v>48.72</v>
       </c>
       <c r="I103" s="17">
         <f t="shared" si="4"/>
-        <v>18.993000000000002</v>
+        <v>19.023000000000003</v>
       </c>
       <c r="J103" s="17">
         <f t="shared" si="4"/>
@@ -6829,7 +7228,7 @@
       </c>
       <c r="P103" s="17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="Q103" s="17">
         <f t="shared" si="4"/>
@@ -6860,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -6869,24 +7268,24 @@
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-      <c r="J104" s="105" t="s">
+      <c r="J104" s="112" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="106"/>
-      <c r="L104" s="106"/>
-      <c r="M104" s="106"/>
-      <c r="N104" s="106"/>
-      <c r="O104" s="106"/>
-      <c r="P104" s="106"/>
-      <c r="Q104" s="106"/>
-      <c r="R104" s="106"/>
-      <c r="S104" s="106"/>
-      <c r="T104" s="106"/>
-      <c r="U104" s="106"/>
-      <c r="V104" s="106"/>
-      <c r="W104" s="107"/>
-    </row>
-    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K104" s="113"/>
+      <c r="L104" s="113"/>
+      <c r="M104" s="113"/>
+      <c r="N104" s="113"/>
+      <c r="O104" s="113"/>
+      <c r="P104" s="113"/>
+      <c r="Q104" s="113"/>
+      <c r="R104" s="113"/>
+      <c r="S104" s="113"/>
+      <c r="T104" s="113"/>
+      <c r="U104" s="113"/>
+      <c r="V104" s="113"/>
+      <c r="W104" s="114"/>
+    </row>
+    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B105" s="76" t="s">
         <v>124</v>
       </c>
@@ -6910,7 +7309,7 @@
       <c r="O105" s="9"/>
       <c r="P105" s="9"/>
     </row>
-    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="82" t="s">
         <v>16</v>
       </c>
@@ -6928,10 +7327,10 @@
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="124" t="s">
+      <c r="H106" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="127"/>
+      <c r="I106" s="101"/>
       <c r="J106" s="10">
         <f>H103-J103</f>
         <v>46.769999999999996</v>
@@ -6958,38 +7357,38 @@
       </c>
       <c r="P106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="Q106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="R106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="S106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="T106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="U106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="V106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
+        <v>29.696999999999996</v>
       </c>
       <c r="W106" s="10">
         <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>29.696999999999996</v>
+      </c>
+    </row>
+    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="80" t="s">
         <v>15</v>
       </c>
@@ -6999,11 +7398,11 @@
       </c>
       <c r="D107" s="5">
         <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90,I4)</f>
-        <v>5.8929999999999998</v>
+        <v>5.923</v>
       </c>
       <c r="E107" s="5">
         <f>SUM(C107,-D107)</f>
-        <v>12.306999999999992</v>
+        <v>12.276999999999992</v>
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
@@ -7014,7 +7413,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="80" t="s">
         <v>17</v>
       </c>
@@ -7031,29 +7430,29 @@
         <v>5.5</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="H108" s="124" t="s">
+      <c r="H108" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="125"/>
-      <c r="J108" s="124">
+      <c r="I108" s="99"/>
+      <c r="J108" s="98">
         <f>H103-I103</f>
-        <v>29.726999999999997</v>
-      </c>
-      <c r="K108" s="125"/>
-      <c r="L108" s="125"/>
-      <c r="M108" s="125"/>
-      <c r="N108" s="125"/>
-      <c r="O108" s="125"/>
-      <c r="P108" s="125"/>
-      <c r="Q108" s="125"/>
-      <c r="R108" s="125"/>
-      <c r="S108" s="125"/>
-      <c r="T108" s="125"/>
-      <c r="U108" s="125"/>
-      <c r="V108" s="125"/>
-      <c r="W108" s="126"/>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.25">
+        <v>29.696999999999996</v>
+      </c>
+      <c r="K108" s="99"/>
+      <c r="L108" s="99"/>
+      <c r="M108" s="99"/>
+      <c r="N108" s="99"/>
+      <c r="O108" s="99"/>
+      <c r="P108" s="99"/>
+      <c r="Q108" s="99"/>
+      <c r="R108" s="99"/>
+      <c r="S108" s="99"/>
+      <c r="T108" s="99"/>
+      <c r="U108" s="99"/>
+      <c r="V108" s="99"/>
+      <c r="W108" s="100"/>
+    </row>
+    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -7067,7 +7466,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
     </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -7081,7 +7480,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
     </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7095,48 +7494,42 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B117" s="7"/>
     </row>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B128" s="6"/>
       <c r="C128" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
     <mergeCell ref="B41:B91"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
@@ -7149,6 +7542,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B92:B96"/>
     <mergeCell ref="B97:B102"/>
+    <mergeCell ref="J108:W108"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C20:C36"/>
+    <mergeCell ref="C94:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7162,7 +7561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7174,7 +7573,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="134">
   <si>
     <t>Subtarea</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Enemigos</t>
   </si>
   <si>
-    <t>Introducir prefab</t>
-  </si>
-  <si>
     <t>Implementar datos comportamiento</t>
   </si>
   <si>
@@ -420,13 +417,19 @@
   </si>
   <si>
     <t>0.7</t>
+  </si>
+  <si>
+    <t>Crear entrada dungeon</t>
+  </si>
+  <si>
+    <t>Implementar Métodos de spawn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +526,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1102,7 +1112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1387,6 +1397,102 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1411,100 +1517,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1613,51 +1626,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$106:$W$106</c:f>
+              <c:f>Hoja1!$J$107:$W$107</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>46.769999999999996</c:v>
+                  <c:v>46.17</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.47</c:v>
+                  <c:v>42.870000000000005</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.32</c:v>
+                  <c:v>35.720000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.326999999999998</c:v>
+                  <c:v>31.727000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.826999999999998</c:v>
+                  <c:v>30.227000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.726999999999997</c:v>
+                  <c:v>29.127000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>29.097000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29.696999999999996</c:v>
+                  <c:v>27.068000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W128"/>
+  <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2118,7 +2131,7 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B1" s="84" t="s">
         <v>12</v>
@@ -2212,13 +2225,13 @@
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="115" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="88" t="s">
-        <v>58</v>
-      </c>
       <c r="D4" s="88" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E4" s="88"/>
       <c r="F4" s="88" t="s">
@@ -2280,7 +2293,7 @@
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="116"/>
       <c r="C5" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" s="46"/>
       <c r="E5" s="52"/>
@@ -2343,7 +2356,7 @@
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="116"/>
       <c r="C6" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="52"/>
@@ -2391,11 +2404,11 @@
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="116"/>
-      <c r="C7" s="124" t="s">
-        <v>54</v>
+      <c r="C7" s="123" t="s">
+        <v>53</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E7" s="54"/>
       <c r="F7" s="54" t="s">
@@ -2442,9 +2455,9 @@
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="116"/>
-      <c r="C8" s="124"/>
+      <c r="C8" s="123"/>
       <c r="D8" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="52"/>
       <c r="F8" s="52" t="s">
@@ -2491,9 +2504,9 @@
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="120"/>
-      <c r="C9" s="125"/>
+      <c r="C9" s="124"/>
       <c r="D9" s="43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E9" s="44"/>
       <c r="F9" s="44" t="s">
@@ -2540,10 +2553,10 @@
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="51" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="51"/>
       <c r="E10" s="47"/>
@@ -2592,7 +2605,7 @@
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="118"/>
       <c r="C11" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D11" s="46"/>
       <c r="E11" s="52"/>
@@ -2641,7 +2654,7 @@
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="118"/>
       <c r="C12" s="46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="46"/>
       <c r="E12" s="52"/>
@@ -2690,7 +2703,7 @@
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="119"/>
       <c r="C13" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D13" s="45"/>
       <c r="E13" s="53"/>
@@ -2739,7 +2752,7 @@
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="119"/>
       <c r="C14" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D14" s="45"/>
       <c r="E14" s="53"/>
@@ -2788,7 +2801,7 @@
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="119"/>
       <c r="C15" s="45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="45"/>
       <c r="E15" s="53"/>
@@ -2839,7 +2852,7 @@
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D16" s="50"/>
       <c r="E16" s="50"/>
@@ -2859,10 +2872,10 @@
       <c r="J16" s="70">
         <v>0</v>
       </c>
-      <c r="K16" s="134">
+      <c r="K16" s="102">
         <v>2</v>
       </c>
-      <c r="L16" s="134">
+      <c r="L16" s="102">
         <v>6.5</v>
       </c>
       <c r="M16" s="86">
@@ -2948,9 +2961,9 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="2:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="116"/>
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="98" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="46" t="s">
@@ -2964,11 +2977,11 @@
         <v>1</v>
       </c>
       <c r="H18" s="4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="I18" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J18" s="71">
         <v>0</v>
@@ -2979,16 +2992,16 @@
       <c r="L18" s="71">
         <v>0</v>
       </c>
-      <c r="M18" s="71">
-        <v>0</v>
-      </c>
-      <c r="N18" s="71">
-        <v>0</v>
-      </c>
-      <c r="O18" s="71">
-        <v>0</v>
-      </c>
-      <c r="P18" s="71">
+      <c r="M18" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="N18" s="48">
+        <v>0</v>
+      </c>
+      <c r="O18" s="48">
+        <v>0</v>
+      </c>
+      <c r="P18" s="48">
         <v>0</v>
       </c>
       <c r="Q18" s="29"/>
@@ -3001,23 +3014,25 @@
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="116"/>
-      <c r="C19" s="123"/>
+      <c r="C19" s="136" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="46" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E19" s="46"/>
       <c r="F19" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G19" s="4">
+        <v>3</v>
+      </c>
+      <c r="H19" s="4">
         <v>1</v>
-      </c>
-      <c r="H19" s="4">
-        <v>0.5</v>
       </c>
       <c r="I19" s="55">
         <f t="shared" si="0"/>
-        <v>0.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="J19" s="71">
         <v>0</v>
@@ -3028,11 +3043,11 @@
       <c r="L19" s="71">
         <v>0</v>
       </c>
-      <c r="M19" s="48">
-        <v>0.15</v>
+      <c r="M19" s="71">
+        <v>0</v>
       </c>
       <c r="N19" s="48">
-        <v>0</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="O19" s="48">
         <v>0</v>
@@ -3050,25 +3065,23 @@
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="116"/>
-      <c r="C20" s="104" t="s">
-        <v>37</v>
-      </c>
+      <c r="C20" s="136"/>
       <c r="D20" s="46" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="E20" s="46"/>
       <c r="F20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="55">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>0</v>
       </c>
       <c r="J20" s="71">
         <v>0</v>
@@ -3082,13 +3095,13 @@
       <c r="M20" s="71">
         <v>0</v>
       </c>
-      <c r="N20" s="48">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O20" s="48">
-        <v>0</v>
-      </c>
-      <c r="P20" s="48">
+      <c r="N20" s="71">
+        <v>0</v>
+      </c>
+      <c r="O20" s="71">
+        <v>0</v>
+      </c>
+      <c r="P20" s="71">
         <v>0</v>
       </c>
       <c r="Q20" s="29"/>
@@ -3101,7 +3114,7 @@
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="116"/>
-      <c r="C21" s="104"/>
+      <c r="C21" s="136"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -3150,7 +3163,7 @@
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="116"/>
-      <c r="C22" s="104"/>
+      <c r="C22" s="136"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3166,7 +3179,7 @@
       </c>
       <c r="I22" s="55">
         <f t="shared" si="0"/>
-        <v>0.38</v>
+        <v>1.2469999999999999</v>
       </c>
       <c r="J22" s="71">
         <v>0</v>
@@ -3180,16 +3193,18 @@
       <c r="M22" s="71">
         <v>0</v>
       </c>
-      <c r="N22" s="132">
+      <c r="N22" s="100">
         <v>0.35</v>
       </c>
-      <c r="O22" s="132">
-        <v>0</v>
-      </c>
-      <c r="P22" s="133">
+      <c r="O22" s="100">
+        <v>0</v>
+      </c>
+      <c r="P22" s="101">
         <v>0.03</v>
       </c>
-      <c r="Q22" s="29"/>
+      <c r="Q22" s="97">
+        <v>0.86699999999999999</v>
+      </c>
       <c r="R22" s="29"/>
       <c r="S22" s="29"/>
       <c r="T22" s="29"/>
@@ -3199,9 +3214,9 @@
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="116"/>
-      <c r="C23" s="104"/>
+      <c r="C23" s="136"/>
       <c r="D23" s="46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="46"/>
       <c r="F23" s="46" t="s">
@@ -3211,11 +3226,11 @@
         <v>4</v>
       </c>
       <c r="H23" s="4">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="I23" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J23" s="71">
         <v>0</v>
@@ -3238,7 +3253,9 @@
       <c r="P23" s="71">
         <v>0</v>
       </c>
-      <c r="Q23" s="29"/>
+      <c r="Q23" s="97">
+        <v>0.33</v>
+      </c>
       <c r="R23" s="29"/>
       <c r="S23" s="29"/>
       <c r="T23" s="29"/>
@@ -3248,9 +3265,9 @@
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="116"/>
-      <c r="C24" s="104"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="46"/>
       <c r="F24" s="46" t="s">
@@ -3264,7 +3281,7 @@
       </c>
       <c r="I24" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J24" s="71">
         <v>0</v>
@@ -3287,7 +3304,9 @@
       <c r="P24" s="71">
         <v>0</v>
       </c>
-      <c r="Q24" s="29"/>
+      <c r="Q24" s="97">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
@@ -3297,9 +3316,9 @@
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="116"/>
-      <c r="C25" s="104"/>
+      <c r="C25" s="136"/>
       <c r="D25" s="46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E25" s="46"/>
       <c r="F25" s="46" t="s">
@@ -3313,7 +3332,7 @@
       </c>
       <c r="I25" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J25" s="71">
         <v>0</v>
@@ -3336,7 +3355,9 @@
       <c r="P25" s="71">
         <v>0</v>
       </c>
-      <c r="Q25" s="29"/>
+      <c r="Q25" s="97">
+        <v>0.3</v>
+      </c>
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
@@ -3346,9 +3367,9 @@
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="116"/>
-      <c r="C26" s="104"/>
+      <c r="C26" s="136"/>
       <c r="D26" s="46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="46"/>
       <c r="F26" s="46" t="s">
@@ -3362,7 +3383,7 @@
       </c>
       <c r="I26" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J26" s="71">
         <v>0</v>
@@ -3385,7 +3406,9 @@
       <c r="P26" s="71">
         <v>0</v>
       </c>
-      <c r="Q26" s="29"/>
+      <c r="Q26" s="97">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
@@ -3395,9 +3418,9 @@
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="116"/>
-      <c r="C27" s="104"/>
+      <c r="C27" s="136"/>
       <c r="D27" s="46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="46"/>
       <c r="F27" s="46" t="s">
@@ -3411,7 +3434,7 @@
       </c>
       <c r="I27" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J27" s="71">
         <v>0</v>
@@ -3434,7 +3457,9 @@
       <c r="P27" s="71">
         <v>0</v>
       </c>
-      <c r="Q27" s="29"/>
+      <c r="Q27" s="97">
+        <v>0.05</v>
+      </c>
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
@@ -3444,9 +3469,9 @@
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="116"/>
-      <c r="C28" s="104"/>
+      <c r="C28" s="136"/>
       <c r="D28" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E28" s="46"/>
       <c r="F28" s="46" t="s">
@@ -3493,9 +3518,9 @@
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="116"/>
-      <c r="C29" s="104"/>
+      <c r="C29" s="136"/>
       <c r="D29" s="46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E29" s="46"/>
       <c r="F29" s="46" t="s">
@@ -3542,9 +3567,9 @@
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="116"/>
-      <c r="C30" s="104"/>
+      <c r="C30" s="136"/>
       <c r="D30" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="46"/>
       <c r="F30" s="46" t="s">
@@ -3591,9 +3616,9 @@
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="116"/>
-      <c r="C31" s="104"/>
+      <c r="C31" s="136"/>
       <c r="D31" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" s="46"/>
       <c r="F31" s="46" t="s">
@@ -3640,9 +3665,9 @@
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="116"/>
-      <c r="C32" s="104"/>
+      <c r="C32" s="136"/>
       <c r="D32" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E32" s="46"/>
       <c r="F32" s="46" t="s">
@@ -3689,9 +3714,9 @@
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="116"/>
-      <c r="C33" s="104"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="46"/>
       <c r="F33" s="46" t="s">
@@ -3738,9 +3763,9 @@
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B34" s="116"/>
-      <c r="C34" s="104"/>
+      <c r="C34" s="136"/>
       <c r="D34" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E34" s="46"/>
       <c r="F34" s="46" t="s">
@@ -3787,9 +3812,9 @@
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B35" s="116"/>
-      <c r="C35" s="104"/>
+      <c r="C35" s="136"/>
       <c r="D35" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E35" s="46"/>
       <c r="F35" s="46" t="s">
@@ -3836,9 +3861,9 @@
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B36" s="116"/>
-      <c r="C36" s="104"/>
+      <c r="C36" s="136"/>
       <c r="D36" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E36" s="52"/>
       <c r="F36" s="52" t="s">
@@ -3886,7 +3911,7 @@
     <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B37" s="116"/>
       <c r="C37" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="49"/>
@@ -3935,7 +3960,7 @@
     <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="116"/>
       <c r="C38" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
@@ -3984,7 +4009,7 @@
     <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B39" s="116"/>
       <c r="C39" s="49" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
@@ -4007,7 +4032,7 @@
       <c r="K39" s="71">
         <v>0</v>
       </c>
-      <c r="L39" s="132">
+      <c r="L39" s="100">
         <v>0.5</v>
       </c>
       <c r="M39" s="48">
@@ -4047,7 +4072,7 @@
     <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="116"/>
       <c r="C40" s="56" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D40" s="56"/>
       <c r="E40" s="56"/>
@@ -4097,7 +4122,7 @@
       <c r="B41" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="102" t="s">
+      <c r="C41" s="134" t="s">
         <v>19</v>
       </c>
       <c r="D41" s="50" t="s">
@@ -4114,10 +4139,10 @@
         <v>0.5</v>
       </c>
       <c r="I41" s="57">
-        <f t="shared" ref="I41:I101" si="1">SUM(J41:W41)</f>
+        <f t="shared" ref="I41:I102" si="1">SUM(J41:W41)</f>
         <v>0.95</v>
       </c>
-      <c r="J41" s="134">
+      <c r="J41" s="102">
         <v>0.45</v>
       </c>
       <c r="K41" s="86">
@@ -4162,7 +4187,7 @@
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B42" s="107"/>
-      <c r="C42" s="103"/>
+      <c r="C42" s="135"/>
       <c r="D42" s="49" t="s">
         <v>21</v>
       </c>
@@ -4211,7 +4236,7 @@
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B43" s="107"/>
-      <c r="C43" s="103"/>
+      <c r="C43" s="135"/>
       <c r="D43" s="49" t="s">
         <v>22</v>
       </c>
@@ -4260,7 +4285,7 @@
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B44" s="107"/>
-      <c r="C44" s="103"/>
+      <c r="C44" s="135"/>
       <c r="D44" s="49" t="s">
         <v>23</v>
       </c>
@@ -4309,7 +4334,7 @@
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B45" s="107"/>
-      <c r="C45" s="103"/>
+      <c r="C45" s="135"/>
       <c r="D45" s="49" t="s">
         <v>24</v>
       </c>
@@ -4358,7 +4383,7 @@
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B46" s="107"/>
-      <c r="C46" s="103"/>
+      <c r="C46" s="135"/>
       <c r="D46" s="49" t="s">
         <v>25</v>
       </c>
@@ -4407,7 +4432,7 @@
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B47" s="107"/>
-      <c r="C47" s="103"/>
+      <c r="C47" s="135"/>
       <c r="D47" s="49" t="s">
         <v>26</v>
       </c>
@@ -4456,7 +4481,7 @@
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B48" s="107"/>
-      <c r="C48" s="103"/>
+      <c r="C48" s="135"/>
       <c r="D48" s="49" t="s">
         <v>27</v>
       </c>
@@ -4505,7 +4530,7 @@
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="107"/>
-      <c r="C49" s="103"/>
+      <c r="C49" s="135"/>
       <c r="D49" s="49" t="s">
         <v>28</v>
       </c>
@@ -4554,7 +4579,7 @@
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="107"/>
-      <c r="C50" s="103"/>
+      <c r="C50" s="135"/>
       <c r="D50" s="49" t="s">
         <v>29</v>
       </c>
@@ -4603,7 +4628,7 @@
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="107"/>
-      <c r="C51" s="103"/>
+      <c r="C51" s="135"/>
       <c r="D51" s="49" t="s">
         <v>30</v>
       </c>
@@ -4652,7 +4677,7 @@
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="107"/>
-      <c r="C52" s="103"/>
+      <c r="C52" s="135"/>
       <c r="D52" s="49" t="s">
         <v>31</v>
       </c>
@@ -4701,9 +4726,9 @@
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B53" s="107"/>
-      <c r="C53" s="103"/>
+      <c r="C53" s="135"/>
       <c r="D53" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49" t="s">
@@ -4750,9 +4775,9 @@
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B54" s="107"/>
-      <c r="C54" s="103"/>
+      <c r="C54" s="135"/>
       <c r="D54" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49" t="s">
@@ -4799,9 +4824,9 @@
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B55" s="107"/>
-      <c r="C55" s="103"/>
+      <c r="C55" s="135"/>
       <c r="D55" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E55" s="49"/>
       <c r="F55" s="49" t="s">
@@ -4848,9 +4873,9 @@
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B56" s="107"/>
-      <c r="C56" s="103"/>
+      <c r="C56" s="135"/>
       <c r="D56" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49" t="s">
@@ -4897,9 +4922,9 @@
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B57" s="107"/>
-      <c r="C57" s="103"/>
+      <c r="C57" s="135"/>
       <c r="D57" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="49" t="s">
@@ -4946,9 +4971,9 @@
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B58" s="107"/>
-      <c r="C58" s="103"/>
+      <c r="C58" s="135"/>
       <c r="D58" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49" t="s">
@@ -4995,9 +5020,9 @@
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B59" s="107"/>
-      <c r="C59" s="103"/>
+      <c r="C59" s="135"/>
       <c r="D59" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49" t="s">
@@ -5044,9 +5069,9 @@
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="107"/>
-      <c r="C60" s="103"/>
+      <c r="C60" s="135"/>
       <c r="D60" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E60" s="49"/>
       <c r="F60" s="49" t="s">
@@ -5093,9 +5118,9 @@
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B61" s="107"/>
-      <c r="C61" s="103"/>
+      <c r="C61" s="135"/>
       <c r="D61" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49" t="s">
@@ -5142,9 +5167,9 @@
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="107"/>
-      <c r="C62" s="103"/>
+      <c r="C62" s="135"/>
       <c r="D62" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49" t="s">
@@ -5191,9 +5216,9 @@
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B63" s="107"/>
-      <c r="C63" s="103"/>
+      <c r="C63" s="135"/>
       <c r="D63" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49" t="s">
@@ -5240,9 +5265,9 @@
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B64" s="107"/>
-      <c r="C64" s="103"/>
+      <c r="C64" s="135"/>
       <c r="D64" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49" t="s">
@@ -5289,9 +5314,9 @@
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="107"/>
-      <c r="C65" s="103"/>
+      <c r="C65" s="135"/>
       <c r="D65" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49" t="s">
@@ -5338,9 +5363,9 @@
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B66" s="107"/>
-      <c r="C66" s="103"/>
+      <c r="C66" s="135"/>
       <c r="D66" s="49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49" t="s">
@@ -5387,9 +5412,9 @@
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B67" s="107"/>
-      <c r="C67" s="103"/>
+      <c r="C67" s="135"/>
       <c r="D67" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49" t="s">
@@ -5436,9 +5461,9 @@
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B68" s="107"/>
-      <c r="C68" s="103"/>
+      <c r="C68" s="135"/>
       <c r="D68" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49" t="s">
@@ -5485,9 +5510,9 @@
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B69" s="107"/>
-      <c r="C69" s="103"/>
+      <c r="C69" s="135"/>
       <c r="D69" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49" t="s">
@@ -5534,9 +5559,9 @@
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B70" s="107"/>
-      <c r="C70" s="103"/>
+      <c r="C70" s="135"/>
       <c r="D70" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" s="49"/>
       <c r="F70" s="49" t="s">
@@ -5583,9 +5608,9 @@
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B71" s="107"/>
-      <c r="C71" s="103"/>
+      <c r="C71" s="135"/>
       <c r="D71" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="49" t="s">
@@ -5632,9 +5657,9 @@
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B72" s="107"/>
-      <c r="C72" s="103"/>
+      <c r="C72" s="135"/>
       <c r="D72" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49" t="s">
@@ -5681,9 +5706,9 @@
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B73" s="107"/>
-      <c r="C73" s="103"/>
+      <c r="C73" s="135"/>
       <c r="D73" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49" t="s">
@@ -5730,9 +5755,9 @@
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="107"/>
-      <c r="C74" s="103"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E74" s="49"/>
       <c r="F74" s="49" t="s">
@@ -5779,9 +5804,9 @@
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B75" s="107"/>
-      <c r="C75" s="103"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49" t="s">
@@ -5828,9 +5853,9 @@
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="107"/>
-      <c r="C76" s="103"/>
+      <c r="C76" s="135"/>
       <c r="D76" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49" t="s">
@@ -5877,9 +5902,9 @@
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B77" s="107"/>
-      <c r="C77" s="103"/>
+      <c r="C77" s="135"/>
       <c r="D77" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49" t="s">
@@ -5926,9 +5951,9 @@
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B78" s="107"/>
-      <c r="C78" s="103"/>
+      <c r="C78" s="135"/>
       <c r="D78" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E78" s="49"/>
       <c r="F78" s="49" t="s">
@@ -5975,9 +6000,9 @@
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B79" s="107"/>
-      <c r="C79" s="103"/>
+      <c r="C79" s="135"/>
       <c r="D79" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" s="49"/>
       <c r="F79" s="49" t="s">
@@ -6024,9 +6049,9 @@
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B80" s="107"/>
-      <c r="C80" s="103"/>
+      <c r="C80" s="135"/>
       <c r="D80" s="49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49" t="s">
@@ -6039,7 +6064,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="55">
-        <f t="shared" ref="I80:I89" si="2">SUM(J80:W80)</f>
+        <f t="shared" ref="I80:I90" si="2">SUM(J80:W80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="71">
@@ -6073,9 +6098,9 @@
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B81" s="107"/>
-      <c r="C81" s="103"/>
+      <c r="C81" s="135"/>
       <c r="D81" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E81" s="49"/>
       <c r="F81" s="49" t="s">
@@ -6122,9 +6147,9 @@
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B82" s="107"/>
-      <c r="C82" s="103"/>
+      <c r="C82" s="135"/>
       <c r="D82" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E82" s="49"/>
       <c r="F82" s="49" t="s">
@@ -6171,9 +6196,9 @@
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="107"/>
-      <c r="C83" s="103"/>
+      <c r="C83" s="135"/>
       <c r="D83" s="49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E83" s="49"/>
       <c r="F83" s="49" t="s">
@@ -6238,7 +6263,7 @@
         <v>37</v>
       </c>
       <c r="D84" s="46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E84" s="52"/>
       <c r="F84" s="52" t="s">
@@ -6287,7 +6312,7 @@
       <c r="B85" s="107"/>
       <c r="C85" s="108"/>
       <c r="D85" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E85" s="52"/>
       <c r="F85" s="52" t="s">
@@ -6336,7 +6361,7 @@
       <c r="B86" s="107"/>
       <c r="C86" s="108"/>
       <c r="D86" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E86" s="52"/>
       <c r="F86" s="52" t="s">
@@ -6385,7 +6410,7 @@
       <c r="B87" s="107"/>
       <c r="C87" s="108"/>
       <c r="D87" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E87" s="52"/>
       <c r="F87" s="52" t="s">
@@ -6434,7 +6459,7 @@
       <c r="B88" s="107"/>
       <c r="C88" s="108"/>
       <c r="D88" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E88" s="52"/>
       <c r="F88" s="52" t="s">
@@ -6483,7 +6508,7 @@
       <c r="B89" s="107"/>
       <c r="C89" s="108"/>
       <c r="D89" s="52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E89" s="52"/>
       <c r="F89" s="46" t="s">
@@ -6530,8 +6555,8 @@
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="107"/>
-      <c r="C90" s="83" t="s">
-        <v>125</v>
+      <c r="C90" s="138" t="s">
+        <v>132</v>
       </c>
       <c r="D90" s="52"/>
       <c r="E90" s="52"/>
@@ -6539,261 +6564,263 @@
         <v>15</v>
       </c>
       <c r="G90" s="4">
+        <v>3</v>
+      </c>
+      <c r="H90" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I90" s="55">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+      <c r="J90" s="71">
+        <v>0</v>
+      </c>
+      <c r="K90" s="71">
+        <v>0</v>
+      </c>
+      <c r="L90" s="71">
+        <v>0</v>
+      </c>
+      <c r="M90" s="71">
+        <v>0</v>
+      </c>
+      <c r="N90" s="71">
+        <v>0</v>
+      </c>
+      <c r="O90" s="71">
+        <v>0</v>
+      </c>
+      <c r="P90" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="30"/>
+    </row>
+    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="107"/>
+      <c r="C91" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G91" s="4">
         <v>1</v>
       </c>
-      <c r="H90" s="4">
+      <c r="H91" s="4">
         <v>2</v>
       </c>
-      <c r="I90" s="55">
+      <c r="I91" s="55">
         <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J91" s="48">
         <v>1.5</v>
       </c>
-      <c r="K90" s="48">
-        <v>0</v>
-      </c>
-      <c r="L90" s="48">
-        <v>0</v>
-      </c>
-      <c r="M90" s="48">
-        <v>0</v>
-      </c>
-      <c r="N90" s="48">
-        <v>0</v>
-      </c>
-      <c r="O90" s="48">
-        <v>0</v>
-      </c>
-      <c r="P90" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="48">
-        <v>0</v>
-      </c>
-      <c r="R90" s="48">
-        <v>0</v>
-      </c>
-      <c r="S90" s="48">
-        <v>0</v>
-      </c>
-      <c r="T90" s="48">
-        <v>0</v>
-      </c>
-      <c r="U90" s="48">
-        <v>0</v>
-      </c>
-      <c r="V90" s="48">
-        <v>0</v>
-      </c>
-      <c r="W90" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="107"/>
-      <c r="C91" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="54"/>
-      <c r="F91" s="54" t="s">
+      <c r="K91" s="48">
+        <v>0</v>
+      </c>
+      <c r="L91" s="48">
+        <v>0</v>
+      </c>
+      <c r="M91" s="48">
+        <v>0</v>
+      </c>
+      <c r="N91" s="48">
+        <v>0</v>
+      </c>
+      <c r="O91" s="48">
+        <v>0</v>
+      </c>
+      <c r="P91" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="48">
+        <v>0</v>
+      </c>
+      <c r="R91" s="48">
+        <v>0</v>
+      </c>
+      <c r="S91" s="48">
+        <v>0</v>
+      </c>
+      <c r="T91" s="48">
+        <v>0</v>
+      </c>
+      <c r="U91" s="48">
+        <v>0</v>
+      </c>
+      <c r="V91" s="48">
+        <v>0</v>
+      </c>
+      <c r="W91" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="107"/>
+      <c r="C92" s="75" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="42"/>
+      <c r="E92" s="54"/>
+      <c r="F92" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G91" s="4">
+      <c r="G92" s="4">
         <v>4</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H92" s="4">
         <v>1</v>
       </c>
-      <c r="I91" s="55">
-        <f>SUM(J91:W91)</f>
-        <v>0</v>
-      </c>
-      <c r="J91" s="71">
-        <v>0</v>
-      </c>
-      <c r="K91" s="71">
-        <v>0</v>
-      </c>
-      <c r="L91" s="71">
-        <v>0</v>
-      </c>
-      <c r="M91" s="71">
-        <v>0</v>
-      </c>
-      <c r="N91" s="71">
-        <v>0</v>
-      </c>
-      <c r="O91" s="71">
-        <v>0</v>
-      </c>
-      <c r="P91" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="28"/>
-      <c r="R91" s="29"/>
-      <c r="S91" s="29"/>
-      <c r="T91" s="29"/>
-      <c r="U91" s="29"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="30"/>
-    </row>
-    <row r="92" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="D92" s="39"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38" t="s">
+      <c r="I92" s="55">
+        <f>SUM(J92:W92)</f>
+        <v>0</v>
+      </c>
+      <c r="J92" s="71">
+        <v>0</v>
+      </c>
+      <c r="K92" s="71">
+        <v>0</v>
+      </c>
+      <c r="L92" s="71">
+        <v>0</v>
+      </c>
+      <c r="M92" s="71">
+        <v>0</v>
+      </c>
+      <c r="N92" s="71">
+        <v>0</v>
+      </c>
+      <c r="O92" s="71">
+        <v>0</v>
+      </c>
+      <c r="P92" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="28"/>
+      <c r="R92" s="29"/>
+      <c r="S92" s="29"/>
+      <c r="T92" s="29"/>
+      <c r="U92" s="29"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="30"/>
+    </row>
+    <row r="93" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="125" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" s="39"/>
+      <c r="E93" s="38"/>
+      <c r="F93" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>6</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H93" s="12">
         <v>0.75</v>
-      </c>
-      <c r="I92" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="70">
-        <v>0</v>
-      </c>
-      <c r="K92" s="70">
-        <v>0</v>
-      </c>
-      <c r="L92" s="70">
-        <v>0</v>
-      </c>
-      <c r="M92" s="70">
-        <v>0</v>
-      </c>
-      <c r="N92" s="70">
-        <v>0</v>
-      </c>
-      <c r="O92" s="70">
-        <v>0</v>
-      </c>
-      <c r="P92" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="25"/>
-      <c r="S92" s="25"/>
-      <c r="T92" s="25"/>
-      <c r="U92" s="25"/>
-      <c r="V92" s="25"/>
-      <c r="W92" s="67"/>
-    </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="127"/>
-      <c r="C93" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="D93" s="40"/>
-      <c r="E93" s="41"/>
-      <c r="F93" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="36">
-        <v>6</v>
-      </c>
-      <c r="H93" s="36">
-        <v>1.5</v>
       </c>
       <c r="I93" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J93" s="73">
-        <v>0</v>
-      </c>
-      <c r="K93" s="73">
-        <v>0</v>
-      </c>
-      <c r="L93" s="73">
-        <v>0</v>
-      </c>
-      <c r="M93" s="73">
-        <v>0</v>
-      </c>
-      <c r="N93" s="73">
-        <v>0</v>
-      </c>
-      <c r="O93" s="73">
-        <v>0</v>
-      </c>
-      <c r="P93" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="66"/>
+      <c r="J93" s="70">
+        <v>0</v>
+      </c>
+      <c r="K93" s="70">
+        <v>0</v>
+      </c>
+      <c r="L93" s="70">
+        <v>0</v>
+      </c>
+      <c r="M93" s="70">
+        <v>0</v>
+      </c>
+      <c r="N93" s="70">
+        <v>0</v>
+      </c>
+      <c r="O93" s="70">
+        <v>0</v>
+      </c>
+      <c r="P93" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25"/>
+      <c r="S93" s="25"/>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="67"/>
     </row>
     <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="128"/>
-      <c r="C94" s="105" t="s">
-        <v>108</v>
-      </c>
-      <c r="D94" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54" t="s">
+      <c r="B94" s="126"/>
+      <c r="C94" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D94" s="40"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="4">
+      <c r="G94" s="36">
         <v>6</v>
       </c>
-      <c r="H94" s="4">
-        <v>1</v>
-      </c>
-      <c r="I94" s="55">
+      <c r="H94" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="I94" s="57">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J94" s="71">
-        <v>0</v>
-      </c>
-      <c r="K94" s="71">
-        <v>0</v>
-      </c>
-      <c r="L94" s="71">
-        <v>0</v>
-      </c>
-      <c r="M94" s="71">
-        <v>0</v>
-      </c>
-      <c r="N94" s="71">
-        <v>0</v>
-      </c>
-      <c r="O94" s="71">
-        <v>0</v>
-      </c>
-      <c r="P94" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="28"/>
-      <c r="R94" s="28"/>
-      <c r="S94" s="28"/>
-      <c r="T94" s="28"/>
-      <c r="U94" s="28"/>
-      <c r="V94" s="28"/>
-      <c r="W94" s="58"/>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="129"/>
-      <c r="C95" s="105"/>
+      <c r="J94" s="73">
+        <v>0</v>
+      </c>
+      <c r="K94" s="73">
+        <v>0</v>
+      </c>
+      <c r="L94" s="73">
+        <v>0</v>
+      </c>
+      <c r="M94" s="73">
+        <v>0</v>
+      </c>
+      <c r="N94" s="73">
+        <v>0</v>
+      </c>
+      <c r="O94" s="73">
+        <v>0</v>
+      </c>
+      <c r="P94" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="35"/>
+      <c r="R94" s="35"/>
+      <c r="S94" s="35"/>
+      <c r="T94" s="35"/>
+      <c r="U94" s="35"/>
+      <c r="V94" s="35"/>
+      <c r="W94" s="66"/>
+    </row>
+    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="127"/>
+      <c r="C95" s="137" t="s">
+        <v>107</v>
+      </c>
       <c r="D95" s="42" t="s">
         <v>109</v>
       </c>
@@ -6805,7 +6832,7 @@
         <v>6</v>
       </c>
       <c r="H95" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I95" s="55">
         <f t="shared" si="1"/>
@@ -6835,162 +6862,162 @@
       <c r="Q95" s="28"/>
       <c r="R95" s="28"/>
       <c r="S95" s="28"/>
-      <c r="T95" s="29"/>
-      <c r="U95" s="29"/>
-      <c r="V95" s="29"/>
+      <c r="T95" s="28"/>
+      <c r="U95" s="28"/>
+      <c r="V95" s="28"/>
       <c r="W95" s="58"/>
     </row>
-    <row r="96" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="130"/>
-      <c r="C96" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" s="43"/>
-      <c r="E96" s="44"/>
-      <c r="F96" s="44" t="s">
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B96" s="128"/>
+      <c r="C96" s="137"/>
+      <c r="D96" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E96" s="54"/>
+      <c r="F96" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G96" s="11">
+      <c r="G96" s="4">
+        <v>6</v>
+      </c>
+      <c r="H96" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="71">
+        <v>0</v>
+      </c>
+      <c r="K96" s="71">
+        <v>0</v>
+      </c>
+      <c r="L96" s="71">
+        <v>0</v>
+      </c>
+      <c r="M96" s="71">
+        <v>0</v>
+      </c>
+      <c r="N96" s="71">
+        <v>0</v>
+      </c>
+      <c r="O96" s="71">
+        <v>0</v>
+      </c>
+      <c r="P96" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="28"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
+      <c r="T96" s="29"/>
+      <c r="U96" s="29"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="58"/>
+    </row>
+    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="129"/>
+      <c r="C97" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" s="43"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="11">
         <v>1</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H97" s="11">
         <v>1</v>
       </c>
-      <c r="I96" s="59">
+      <c r="I97" s="59">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="J96" s="72">
-        <v>0</v>
-      </c>
-      <c r="K96" s="72">
-        <v>0</v>
-      </c>
-      <c r="L96" s="72">
-        <v>0</v>
-      </c>
-      <c r="M96" s="94">
+      <c r="J97" s="72">
+        <v>0</v>
+      </c>
+      <c r="K97" s="72">
+        <v>0</v>
+      </c>
+      <c r="L97" s="72">
+        <v>0</v>
+      </c>
+      <c r="M97" s="94">
         <v>0.75</v>
       </c>
-      <c r="N96" s="94">
-        <v>0</v>
-      </c>
-      <c r="O96" s="94">
-        <v>0</v>
-      </c>
-      <c r="P96" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="32"/>
-      <c r="R96" s="32"/>
-      <c r="S96" s="32"/>
-      <c r="T96" s="32"/>
-      <c r="U96" s="32"/>
-      <c r="V96" s="32"/>
-      <c r="W96" s="64"/>
-    </row>
-    <row r="97" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="106" t="s">
-        <v>93</v>
-      </c>
-      <c r="C97" s="63" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" s="62"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63" t="s">
+      <c r="N97" s="94">
+        <v>0</v>
+      </c>
+      <c r="O97" s="94">
+        <v>0</v>
+      </c>
+      <c r="P97" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="32"/>
+      <c r="R97" s="32"/>
+      <c r="S97" s="32"/>
+      <c r="T97" s="32"/>
+      <c r="U97" s="32"/>
+      <c r="V97" s="32"/>
+      <c r="W97" s="64"/>
+    </row>
+    <row r="98" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="C98" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D98" s="62"/>
+      <c r="E98" s="63"/>
+      <c r="F98" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="12">
+      <c r="G98" s="12">
         <v>1</v>
       </c>
-      <c r="H97" s="12">
+      <c r="H98" s="12">
         <v>1.5</v>
       </c>
-      <c r="I97" s="57">
+      <c r="I98" s="57">
         <f t="shared" si="1"/>
         <v>0.46700000000000003</v>
       </c>
-      <c r="J97" s="70">
-        <v>0</v>
-      </c>
-      <c r="K97" s="70">
-        <v>0</v>
-      </c>
-      <c r="L97" s="70">
-        <v>0</v>
-      </c>
-      <c r="M97" s="86">
+      <c r="J98" s="70">
+        <v>0</v>
+      </c>
+      <c r="K98" s="70">
+        <v>0</v>
+      </c>
+      <c r="L98" s="70">
+        <v>0</v>
+      </c>
+      <c r="M98" s="86">
         <v>0.46700000000000003</v>
       </c>
-      <c r="N97" s="86">
-        <v>0</v>
-      </c>
-      <c r="O97" s="86">
-        <v>0</v>
-      </c>
-      <c r="P97" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="26"/>
-      <c r="R97" s="26"/>
-      <c r="S97" s="26"/>
-      <c r="T97" s="26"/>
-      <c r="U97" s="26"/>
-      <c r="V97" s="26"/>
-      <c r="W97" s="27"/>
-    </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="129"/>
-      <c r="C98" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="D98" s="42"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G98" s="4">
-        <v>1</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I98" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="71">
-        <v>0</v>
-      </c>
-      <c r="K98" s="71">
-        <v>0</v>
-      </c>
-      <c r="L98" s="71">
-        <v>0</v>
-      </c>
-      <c r="M98" s="95">
-        <v>0</v>
-      </c>
-      <c r="N98" s="95">
-        <v>0</v>
-      </c>
-      <c r="O98" s="131">
-        <v>0</v>
-      </c>
-      <c r="P98" s="131">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="30"/>
+      <c r="N98" s="86">
+        <v>0</v>
+      </c>
+      <c r="O98" s="86">
+        <v>0</v>
+      </c>
+      <c r="P98" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="26"/>
+      <c r="R98" s="26"/>
+      <c r="S98" s="26"/>
+      <c r="T98" s="26"/>
+      <c r="U98" s="26"/>
+      <c r="V98" s="26"/>
+      <c r="W98" s="27"/>
     </row>
     <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="129"/>
+      <c r="B99" s="128"/>
       <c r="C99" s="54" t="s">
         <v>130</v>
       </c>
@@ -7007,7 +7034,7 @@
       </c>
       <c r="I99" s="55">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" s="71">
         <v>0</v>
@@ -7024,10 +7051,10 @@
       <c r="N99" s="95">
         <v>0</v>
       </c>
-      <c r="O99" s="97">
-        <v>1</v>
-      </c>
-      <c r="P99" s="135">
+      <c r="O99" s="99">
+        <v>0</v>
+      </c>
+      <c r="P99" s="99">
         <v>0</v>
       </c>
       <c r="Q99" s="29"/>
@@ -7039,7 +7066,7 @@
       <c r="W99" s="30"/>
     </row>
     <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="129"/>
+      <c r="B100" s="128"/>
       <c r="C100" s="54" t="s">
         <v>129</v>
       </c>
@@ -7056,7 +7083,7 @@
       </c>
       <c r="I100" s="55">
         <f t="shared" si="1"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J100" s="71">
         <v>0</v>
@@ -7074,9 +7101,9 @@
         <v>0</v>
       </c>
       <c r="O100" s="97">
-        <v>0.1</v>
-      </c>
-      <c r="P100" s="97">
+        <v>1</v>
+      </c>
+      <c r="P100" s="103">
         <v>0</v>
       </c>
       <c r="Q100" s="29"/>
@@ -7088,7 +7115,7 @@
       <c r="W100" s="30"/>
     </row>
     <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="129"/>
+      <c r="B101" s="128"/>
       <c r="C101" s="54" t="s">
         <v>128</v>
       </c>
@@ -7098,14 +7125,14 @@
         <v>16</v>
       </c>
       <c r="G101" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H101" s="4">
         <v>0.33</v>
       </c>
       <c r="I101" s="55">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J101" s="71">
         <v>0</v>
@@ -7116,16 +7143,16 @@
       <c r="L101" s="71">
         <v>0</v>
       </c>
-      <c r="M101" s="71">
-        <v>0</v>
-      </c>
-      <c r="N101" s="71">
-        <v>0</v>
-      </c>
-      <c r="O101" s="71">
-        <v>0</v>
-      </c>
-      <c r="P101" s="71">
+      <c r="M101" s="95">
+        <v>0</v>
+      </c>
+      <c r="N101" s="95">
+        <v>0</v>
+      </c>
+      <c r="O101" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="P101" s="97">
         <v>0</v>
       </c>
       <c r="Q101" s="29"/>
@@ -7136,335 +7163,370 @@
       <c r="V101" s="29"/>
       <c r="W101" s="30"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="130"/>
-      <c r="C102" s="44" t="s">
+    <row r="102" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B102" s="128"/>
+      <c r="C102" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="D102" s="43"/>
-      <c r="E102" s="44"/>
-      <c r="F102" s="44" t="s">
+      <c r="D102" s="42"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="11">
+      <c r="G102" s="4">
+        <v>3</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I102" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="71">
+        <v>0</v>
+      </c>
+      <c r="K102" s="71">
+        <v>0</v>
+      </c>
+      <c r="L102" s="71">
+        <v>0</v>
+      </c>
+      <c r="M102" s="71">
+        <v>0</v>
+      </c>
+      <c r="N102" s="71">
+        <v>0</v>
+      </c>
+      <c r="O102" s="71">
+        <v>0</v>
+      </c>
+      <c r="P102" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="29"/>
+      <c r="R102" s="29"/>
+      <c r="S102" s="29"/>
+      <c r="T102" s="29"/>
+      <c r="U102" s="29"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="30"/>
+    </row>
+    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="129"/>
+      <c r="C103" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" s="43"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="11">
         <v>1</v>
       </c>
-      <c r="H102" s="11">
+      <c r="H103" s="11">
         <v>3</v>
       </c>
-      <c r="I102" s="59">
-        <f t="shared" ref="I102" si="3">SUM(J102:W102)</f>
-        <v>0</v>
-      </c>
-      <c r="J102" s="72">
-        <v>0</v>
-      </c>
-      <c r="K102" s="72">
-        <v>0</v>
-      </c>
-      <c r="L102" s="72">
-        <v>0</v>
-      </c>
-      <c r="M102" s="72">
-        <v>0</v>
-      </c>
-      <c r="N102" s="136" t="s">
-        <v>132</v>
-      </c>
-      <c r="O102" s="136">
-        <v>0</v>
-      </c>
-      <c r="P102" s="137">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="33"/>
-      <c r="R102" s="33"/>
-      <c r="S102" s="33"/>
-      <c r="T102" s="33"/>
-      <c r="U102" s="33"/>
-      <c r="V102" s="33"/>
-      <c r="W102" s="34"/>
-    </row>
-    <row r="103" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="121" t="s">
+      <c r="I103" s="59">
+        <f t="shared" ref="I103" si="3">SUM(J103:W103)</f>
+        <v>0</v>
+      </c>
+      <c r="J103" s="72">
+        <v>0</v>
+      </c>
+      <c r="K103" s="72">
+        <v>0</v>
+      </c>
+      <c r="L103" s="72">
+        <v>0</v>
+      </c>
+      <c r="M103" s="72">
+        <v>0</v>
+      </c>
+      <c r="N103" s="104" t="s">
+        <v>131</v>
+      </c>
+      <c r="O103" s="104">
+        <v>0</v>
+      </c>
+      <c r="P103" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="33"/>
+      <c r="R103" s="33"/>
+      <c r="S103" s="33"/>
+      <c r="T103" s="33"/>
+      <c r="U103" s="33"/>
+      <c r="V103" s="33"/>
+      <c r="W103" s="34"/>
+    </row>
+    <row r="104" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="17">
-        <f t="shared" ref="H103:W103" si="4">SUM(H4:H102)</f>
-        <v>48.72</v>
-      </c>
-      <c r="I103" s="17">
-        <f t="shared" si="4"/>
-        <v>19.023000000000003</v>
-      </c>
-      <c r="J103" s="17">
-        <f t="shared" si="4"/>
+      <c r="C104" s="122"/>
+      <c r="D104" s="122"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="122"/>
+      <c r="G104" s="122"/>
+      <c r="H104" s="17">
+        <f>SUM(H4:H103)</f>
+        <v>48.120000000000005</v>
+      </c>
+      <c r="I104" s="17">
+        <f>SUM(I4:I103)</f>
+        <v>21.052000000000003</v>
+      </c>
+      <c r="J104" s="17">
+        <f>SUM(J4:J103)</f>
         <v>1.95</v>
       </c>
-      <c r="K103" s="17">
-        <f t="shared" si="4"/>
+      <c r="K104" s="17">
+        <f>SUM(K4:K103)</f>
         <v>3.3</v>
       </c>
-      <c r="L103" s="17">
-        <f>SUM(L4:L102)</f>
+      <c r="L104" s="17">
+        <f>SUM(L4:L103)</f>
         <v>7.15</v>
       </c>
-      <c r="M103" s="17">
-        <f t="shared" si="4"/>
+      <c r="M104" s="17">
+        <f>SUM(M4:M103)</f>
         <v>3.9929999999999999</v>
       </c>
-      <c r="N103" s="17">
-        <f t="shared" si="4"/>
+      <c r="N104" s="17">
+        <f>SUM(N4:N103)</f>
         <v>1.5</v>
       </c>
-      <c r="O103" s="17">
-        <f t="shared" si="4"/>
+      <c r="O104" s="17">
+        <f>SUM(O4:O103)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P103" s="17">
-        <f t="shared" si="4"/>
+      <c r="P104" s="17">
+        <f>SUM(P4:P103)</f>
         <v>0.03</v>
       </c>
-      <c r="Q103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V103" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W103" s="18">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="113"/>
-      <c r="L104" s="113"/>
-      <c r="M104" s="113"/>
-      <c r="N104" s="113"/>
-      <c r="O104" s="113"/>
-      <c r="P104" s="113"/>
-      <c r="Q104" s="113"/>
-      <c r="R104" s="113"/>
-      <c r="S104" s="113"/>
-      <c r="T104" s="113"/>
-      <c r="U104" s="113"/>
-      <c r="V104" s="113"/>
-      <c r="W104" s="114"/>
+      <c r="Q104" s="17">
+        <f>SUM(Q4:Q103)</f>
+        <v>2.0290000000000004</v>
+      </c>
+      <c r="R104" s="17">
+        <f>SUM(R4:R103)</f>
+        <v>0</v>
+      </c>
+      <c r="S104" s="17">
+        <f>SUM(S4:S103)</f>
+        <v>0</v>
+      </c>
+      <c r="T104" s="17">
+        <f>SUM(T4:T103)</f>
+        <v>0</v>
+      </c>
+      <c r="U104" s="17">
+        <f>SUM(U4:U103)</f>
+        <v>0</v>
+      </c>
+      <c r="V104" s="17">
+        <f>SUM(V4:V103)</f>
+        <v>0</v>
+      </c>
+      <c r="W104" s="18">
+        <f>SUM(W4:W103)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="76" t="s">
-        <v>124</v>
-      </c>
-      <c r="C105" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="D105" s="77" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105" s="78" t="s">
-        <v>123</v>
-      </c>
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="3"/>
-      <c r="K105" s="3"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3"/>
-      <c r="O105" s="9"/>
-      <c r="P105" s="9"/>
+      <c r="J105" s="112" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="113"/>
+      <c r="L105" s="113"/>
+      <c r="M105" s="113"/>
+      <c r="N105" s="113"/>
+      <c r="O105" s="113"/>
+      <c r="P105" s="113"/>
+      <c r="Q105" s="113"/>
+      <c r="R105" s="113"/>
+      <c r="S105" s="113"/>
+      <c r="T105" s="113"/>
+      <c r="U105" s="113"/>
+      <c r="V105" s="113"/>
+      <c r="W105" s="114"/>
     </row>
     <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" s="81">
-        <f>SUM(H7,H9,H40,H91,H92,H93,H94,H95,H96,H98:H102,H40)</f>
-        <v>12.27</v>
-      </c>
-      <c r="D106" s="36">
-        <f>SUM(I98:I102,I91:I96,I9,I7,I40)</f>
-        <v>1.85</v>
-      </c>
-      <c r="E106" s="36">
-        <f>SUM(C106,-D106)</f>
-        <v>10.42</v>
+      <c r="B106" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D106" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="E106" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
-      <c r="H106" s="98" t="s">
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+    </row>
+    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B107" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" s="81">
+        <f>SUM(H7,H9,H40,H92,H93,H94,H95,H96,H97,H99:H103,H40)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D107" s="36">
+        <f>SUM(I99:I103,I92:I97,I9,I7,I40)</f>
+        <v>1.85</v>
+      </c>
+      <c r="E107" s="36">
+        <f>SUM(C107,-D107)</f>
+        <v>10.42</v>
+      </c>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="130" t="s">
         <v>9</v>
       </c>
-      <c r="I106" s="101"/>
-      <c r="J106" s="10">
-        <f>H103-J103</f>
-        <v>46.769999999999996</v>
-      </c>
-      <c r="K106" s="10">
-        <f>J106-K103</f>
-        <v>43.47</v>
-      </c>
-      <c r="L106" s="10">
-        <f>K106-L103</f>
-        <v>36.32</v>
-      </c>
-      <c r="M106" s="10">
-        <f>L106-M103</f>
-        <v>32.326999999999998</v>
-      </c>
-      <c r="N106" s="10">
-        <f t="shared" ref="N106:W106" si="5">M106-N103</f>
-        <v>30.826999999999998</v>
-      </c>
-      <c r="O106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.726999999999997</v>
-      </c>
-      <c r="P106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="Q106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="R106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="S106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="T106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="U106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="V106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="W106" s="10">
-        <f t="shared" si="5"/>
-        <v>29.696999999999996</v>
-      </c>
-    </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C107" s="79">
-        <f>SUM(H4,H84:H89,H97,H17:H36,H10:H15,H8,H6,H5,H90)</f>
-        <v>18.199999999999992</v>
-      </c>
-      <c r="D107" s="5">
-        <f>SUM(I97,I84:I89,I17:I36,I10:I15,I8,I5:I6,I90,I4)</f>
-        <v>5.923</v>
-      </c>
-      <c r="E107" s="5">
-        <f>SUM(C107,-D107)</f>
-        <v>12.276999999999992</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3"/>
+      <c r="I107" s="133"/>
+      <c r="J107" s="10">
+        <f>H104-J104</f>
+        <v>46.17</v>
+      </c>
+      <c r="K107" s="10">
+        <f>J107-K104</f>
+        <v>42.870000000000005</v>
+      </c>
+      <c r="L107" s="10">
+        <f>K107-L104</f>
+        <v>35.720000000000006</v>
+      </c>
+      <c r="M107" s="10">
+        <f>L107-M104</f>
+        <v>31.727000000000007</v>
+      </c>
+      <c r="N107" s="10">
+        <f t="shared" ref="N107:W107" si="4">M107-N104</f>
+        <v>30.227000000000007</v>
+      </c>
+      <c r="O107" s="10">
+        <f t="shared" si="4"/>
+        <v>29.127000000000006</v>
+      </c>
+      <c r="P107" s="10">
+        <f t="shared" si="4"/>
+        <v>29.097000000000005</v>
+      </c>
+      <c r="Q107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="R107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="S107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="T107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="U107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="V107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
+      <c r="W107" s="10">
+        <f t="shared" si="4"/>
+        <v>27.068000000000005</v>
+      </c>
     </row>
     <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" s="79">
+        <f>SUM(H4,H84:H89,H98,H17:H36,H10:H15,H8,H6,H5,H91)</f>
+        <v>17.399999999999991</v>
+      </c>
+      <c r="D108" s="5">
+        <f>SUM(I98,I84:I89,I17:I36,I10:I15,I8,I5:I6,I91,I4)</f>
+        <v>7.7019999999999991</v>
+      </c>
+      <c r="E108" s="5">
+        <f>SUM(C108,-D108)</f>
+        <v>9.6979999999999933</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B109" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C108" s="79">
+      <c r="C109" s="79">
         <f>SUM(H41:H83,H37:H39)</f>
         <v>16.75</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D109" s="5">
         <f>SUM(I41:I83,I37:I39,I16)</f>
         <v>11.25</v>
       </c>
-      <c r="E108" s="5">
-        <f>SUM(C108,-D108)</f>
+      <c r="E109" s="5">
+        <f>SUM(C109,-D109)</f>
         <v>5.5</v>
       </c>
-      <c r="F108" s="3"/>
-      <c r="H108" s="98" t="s">
+      <c r="F109" s="3"/>
+      <c r="H109" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="99"/>
-      <c r="J108" s="98">
-        <f>H103-I103</f>
-        <v>29.696999999999996</v>
-      </c>
-      <c r="K108" s="99"/>
-      <c r="L108" s="99"/>
-      <c r="M108" s="99"/>
-      <c r="N108" s="99"/>
-      <c r="O108" s="99"/>
-      <c r="P108" s="99"/>
-      <c r="Q108" s="99"/>
-      <c r="R108" s="99"/>
-      <c r="S108" s="99"/>
-      <c r="T108" s="99"/>
-      <c r="U108" s="99"/>
-      <c r="V108" s="99"/>
-      <c r="W108" s="100"/>
-    </row>
-    <row r="109" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
+      <c r="I109" s="131"/>
+      <c r="J109" s="130">
+        <f>H104-I104</f>
+        <v>27.068000000000001</v>
+      </c>
+      <c r="K109" s="131"/>
+      <c r="L109" s="131"/>
+      <c r="M109" s="131"/>
+      <c r="N109" s="131"/>
+      <c r="O109" s="131"/>
+      <c r="P109" s="131"/>
+      <c r="Q109" s="131"/>
+      <c r="R109" s="131"/>
+      <c r="S109" s="131"/>
+      <c r="T109" s="131"/>
+      <c r="U109" s="131"/>
+      <c r="V109" s="131"/>
+      <c r="W109" s="132"/>
     </row>
     <row r="110" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
@@ -7494,60 +7556,73 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="7"/>
-    </row>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+    </row>
+    <row r="113" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="116" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B118" s="7"/>
     </row>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="7"/>
-    </row>
-    <row r="125" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="122" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="123" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="124" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B125" s="7"/>
     </row>
-    <row r="126" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B128" s="6"/>
-      <c r="C128" s="6"/>
+    <row r="128" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="7"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="6"/>
+      <c r="C129" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B41:B91"/>
+  <mergeCells count="17">
+    <mergeCell ref="J109:W109"/>
+    <mergeCell ref="H107:I107"/>
+    <mergeCell ref="H109:I109"/>
+    <mergeCell ref="C41:C83"/>
+    <mergeCell ref="C19:C36"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="B41:B92"/>
     <mergeCell ref="C84:C89"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J104:W104"/>
+    <mergeCell ref="J105:W105"/>
     <mergeCell ref="B16:B40"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B103:G103"/>
-    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="B104:G104"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B102"/>
-    <mergeCell ref="J108:W108"/>
-    <mergeCell ref="H106:I106"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C20:C36"/>
-    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="B98:B103"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
   <si>
     <t>Subtarea</t>
   </si>
@@ -423,12 +423,15 @@
   </si>
   <si>
     <t>Implementar Métodos de spawn</t>
+  </si>
+  <si>
+    <t>Introducir spawns sala 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1421,76 +1424,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,7 +1451,76 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1538,7 +1541,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -1626,57 +1629,57 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$107:$W$107</c:f>
+              <c:f>Hoja1!$J$108:$W$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>46.17</c:v>
+                  <c:v>46.370000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42.870000000000005</c:v>
+                  <c:v>43.070000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.720000000000006</c:v>
+                  <c:v>35.920000000000009</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.727000000000007</c:v>
+                  <c:v>31.92700000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.227000000000007</c:v>
+                  <c:v>30.42700000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.127000000000006</c:v>
+                  <c:v>29.327000000000009</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.097000000000005</c:v>
+                  <c:v>29.297000000000008</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>27.268000000000008</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.068000000000005</c:v>
+                  <c:v>25.885300000000008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-08BE-4709-9DE4-AEC2E98B8D97}"/>
             </c:ext>
@@ -1691,11 +1694,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="194458696"/>
-        <c:axId val="194459480"/>
+        <c:axId val="185911808"/>
+        <c:axId val="185912200"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="194458696"/>
+        <c:axId val="185911808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1705,14 +1708,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194459480"/>
+        <c:crossAx val="185912200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="194459480"/>
+        <c:axId val="185912200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1723,13 +1726,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194458696"/>
+        <c:crossAx val="185911808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1756,7 +1760,7 @@
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>623453</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1764,7 +1768,7 @@
         <xdr:cNvPr id="4" name="3 Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1861,23 +1865,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1913,23 +1900,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2106,30 +2076,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W129"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T88" sqref="T88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>125</v>
       </c>
@@ -2137,25 +2107,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="109" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="110"/>
-      <c r="P2" s="110"/>
-      <c r="Q2" s="110"/>
-      <c r="R2" s="110"/>
-      <c r="S2" s="110"/>
-      <c r="T2" s="110"/>
-      <c r="U2" s="110"/>
-      <c r="V2" s="110"/>
-      <c r="W2" s="111"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
+      <c r="P2" s="119"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="119"/>
+      <c r="S2" s="119"/>
+      <c r="T2" s="119"/>
+      <c r="U2" s="119"/>
+      <c r="V2" s="119"/>
+      <c r="W2" s="120"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2223,8 +2193,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="124" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="88" t="s">
@@ -2290,8 +2260,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="116"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="125"/>
       <c r="C5" s="46" t="s">
         <v>58</v>
       </c>
@@ -2307,7 +2277,7 @@
         <v>0.2</v>
       </c>
       <c r="I5" s="55">
-        <f t="shared" ref="I5:I40" si="0">SUM(J5:W5)</f>
+        <f t="shared" ref="I5:I41" si="0">SUM(J5:W5)</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J5" s="71">
@@ -2353,8 +2323,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="116"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="125"/>
       <c r="C6" s="46" t="s">
         <v>74</v>
       </c>
@@ -2394,7 +2364,9 @@
       <c r="P6" s="48">
         <v>0</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="48">
+        <v>0</v>
+      </c>
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
       <c r="T6" s="19"/>
@@ -2402,9 +2374,9 @@
       <c r="V6" s="19"/>
       <c r="W6" s="20"/>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="116"/>
-      <c r="C7" s="123" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="125"/>
+      <c r="C7" s="132" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -2445,7 +2417,9 @@
       <c r="P7" s="71">
         <v>0</v>
       </c>
-      <c r="Q7" s="19"/>
+      <c r="Q7" s="71">
+        <v>0</v>
+      </c>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
       <c r="T7" s="19"/>
@@ -2453,9 +2427,9 @@
       <c r="V7" s="19"/>
       <c r="W7" s="20"/>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="116"/>
-      <c r="C8" s="123"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="125"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="46" t="s">
         <v>61</v>
       </c>
@@ -2494,7 +2468,9 @@
       <c r="P8" s="96">
         <v>0</v>
       </c>
-      <c r="Q8" s="19"/>
+      <c r="Q8" s="96">
+        <v>0</v>
+      </c>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
@@ -2502,9 +2478,9 @@
       <c r="V8" s="19"/>
       <c r="W8" s="20"/>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="120"/>
-      <c r="C9" s="124"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="129"/>
+      <c r="C9" s="133"/>
       <c r="D9" s="43" t="s">
         <v>62</v>
       </c>
@@ -2543,7 +2519,9 @@
       <c r="P9" s="72">
         <v>0</v>
       </c>
-      <c r="Q9" s="21"/>
+      <c r="Q9" s="72">
+        <v>0</v>
+      </c>
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>
@@ -2551,8 +2529,8 @@
       <c r="V9" s="21"/>
       <c r="W9" s="22"/>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="117" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="126" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="51" t="s">
@@ -2594,7 +2572,9 @@
       <c r="P10" s="93">
         <v>0</v>
       </c>
-      <c r="Q10" s="35"/>
+      <c r="Q10" s="93">
+        <v>0</v>
+      </c>
       <c r="R10" s="35"/>
       <c r="S10" s="35"/>
       <c r="T10" s="23"/>
@@ -2602,8 +2582,8 @@
       <c r="V10" s="23"/>
       <c r="W10" s="24"/>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="127"/>
       <c r="C11" s="46" t="s">
         <v>65</v>
       </c>
@@ -2643,7 +2623,9 @@
       <c r="P11" s="71">
         <v>0</v>
       </c>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="71">
+        <v>0</v>
+      </c>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
@@ -2651,8 +2633,8 @@
       <c r="V11" s="28"/>
       <c r="W11" s="58"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="127"/>
       <c r="C12" s="46" t="s">
         <v>66</v>
       </c>
@@ -2692,7 +2674,9 @@
       <c r="P12" s="71">
         <v>0</v>
       </c>
-      <c r="Q12" s="28"/>
+      <c r="Q12" s="71">
+        <v>0</v>
+      </c>
       <c r="R12" s="28"/>
       <c r="S12" s="28"/>
       <c r="T12" s="28"/>
@@ -2700,8 +2684,8 @@
       <c r="V12" s="28"/>
       <c r="W12" s="58"/>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="119"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="128"/>
       <c r="C13" s="45" t="s">
         <v>119</v>
       </c>
@@ -2741,7 +2725,9 @@
       <c r="P13" s="74">
         <v>0</v>
       </c>
-      <c r="Q13" s="31"/>
+      <c r="Q13" s="74">
+        <v>0</v>
+      </c>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
@@ -2749,8 +2735,8 @@
       <c r="V13" s="31"/>
       <c r="W13" s="69"/>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="119"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="128"/>
       <c r="C14" s="45" t="s">
         <v>117</v>
       </c>
@@ -2790,7 +2776,9 @@
       <c r="P14" s="74">
         <v>0</v>
       </c>
-      <c r="Q14" s="31"/>
+      <c r="Q14" s="74">
+        <v>0</v>
+      </c>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
@@ -2798,8 +2786,8 @@
       <c r="V14" s="31"/>
       <c r="W14" s="69"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="119"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="128"/>
       <c r="C15" s="45" t="s">
         <v>67</v>
       </c>
@@ -2839,7 +2827,9 @@
       <c r="P15" s="74">
         <v>0</v>
       </c>
-      <c r="Q15" s="31"/>
+      <c r="Q15" s="74">
+        <v>0</v>
+      </c>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
@@ -2847,8 +2837,8 @@
       <c r="V15" s="31"/>
       <c r="W15" s="69"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="115" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="124" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="65" t="s">
@@ -2912,8 +2902,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="116"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="125"/>
       <c r="C17" s="46" t="s">
         <v>36</v>
       </c>
@@ -2953,7 +2943,9 @@
       <c r="P17" s="48">
         <v>0</v>
       </c>
-      <c r="Q17" s="29"/>
+      <c r="Q17" s="48">
+        <v>0</v>
+      </c>
       <c r="R17" s="29"/>
       <c r="S17" s="29"/>
       <c r="T17" s="29"/>
@@ -2961,8 +2953,8 @@
       <c r="V17" s="29"/>
       <c r="W17" s="30"/>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="116"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="125"/>
       <c r="C18" s="98" t="s">
         <v>14</v>
       </c>
@@ -3004,7 +2996,9 @@
       <c r="P18" s="48">
         <v>0</v>
       </c>
-      <c r="Q18" s="29"/>
+      <c r="Q18" s="48">
+        <v>0</v>
+      </c>
       <c r="R18" s="29"/>
       <c r="S18" s="29"/>
       <c r="T18" s="29"/>
@@ -3012,9 +3006,9 @@
       <c r="V18" s="29"/>
       <c r="W18" s="30"/>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="116"/>
-      <c r="C19" s="136" t="s">
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="125"/>
+      <c r="C19" s="113" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="46" t="s">
@@ -3055,7 +3049,9 @@
       <c r="P19" s="48">
         <v>0</v>
       </c>
-      <c r="Q19" s="29"/>
+      <c r="Q19" s="48">
+        <v>0</v>
+      </c>
       <c r="R19" s="29"/>
       <c r="S19" s="29"/>
       <c r="T19" s="29"/>
@@ -3063,9 +3059,9 @@
       <c r="V19" s="29"/>
       <c r="W19" s="30"/>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="116"/>
-      <c r="C20" s="136"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="125"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="46" t="s">
         <v>133</v>
       </c>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="I20" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="J20" s="71">
         <v>0</v>
@@ -3104,17 +3100,21 @@
       <c r="P20" s="71">
         <v>0</v>
       </c>
-      <c r="Q20" s="29"/>
-      <c r="R20" s="29"/>
+      <c r="Q20" s="71">
+        <v>0</v>
+      </c>
+      <c r="R20" s="97">
+        <v>0.83299999999999996</v>
+      </c>
       <c r="S20" s="29"/>
       <c r="T20" s="29"/>
       <c r="U20" s="29"/>
       <c r="V20" s="29"/>
       <c r="W20" s="30"/>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="116"/>
-      <c r="C21" s="136"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="125"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="46" t="s">
         <v>34</v>
       </c>
@@ -3153,7 +3153,9 @@
       <c r="P21" s="71">
         <v>0</v>
       </c>
-      <c r="Q21" s="29"/>
+      <c r="Q21" s="71">
+        <v>0</v>
+      </c>
       <c r="R21" s="29"/>
       <c r="S21" s="29"/>
       <c r="T21" s="29"/>
@@ -3161,9 +3163,9 @@
       <c r="V21" s="29"/>
       <c r="W21" s="30"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="116"/>
-      <c r="C22" s="136"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="125"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="46" t="s">
         <v>35</v>
       </c>
@@ -3212,9 +3214,9 @@
       <c r="V22" s="29"/>
       <c r="W22" s="30"/>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="116"/>
-      <c r="C23" s="136"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="125"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="46" t="s">
         <v>39</v>
       </c>
@@ -3263,9 +3265,9 @@
       <c r="V23" s="29"/>
       <c r="W23" s="30"/>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="116"/>
-      <c r="C24" s="136"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="125"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="46" t="s">
         <v>40</v>
       </c>
@@ -3314,9 +3316,9 @@
       <c r="V24" s="29"/>
       <c r="W24" s="30"/>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="116"/>
-      <c r="C25" s="136"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="125"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="46" t="s">
         <v>41</v>
       </c>
@@ -3365,9 +3367,9 @@
       <c r="V25" s="29"/>
       <c r="W25" s="30"/>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="116"/>
-      <c r="C26" s="136"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="125"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="46" t="s">
         <v>42</v>
       </c>
@@ -3416,9 +3418,9 @@
       <c r="V26" s="29"/>
       <c r="W26" s="30"/>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="116"/>
-      <c r="C27" s="136"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="125"/>
+      <c r="C27" s="113"/>
       <c r="D27" s="46" t="s">
         <v>43</v>
       </c>
@@ -3467,9 +3469,9 @@
       <c r="V27" s="29"/>
       <c r="W27" s="30"/>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="116"/>
-      <c r="C28" s="136"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="125"/>
+      <c r="C28" s="113"/>
       <c r="D28" s="46" t="s">
         <v>44</v>
       </c>
@@ -3485,7 +3487,7 @@
       </c>
       <c r="I28" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J28" s="71">
         <v>0</v>
@@ -3508,17 +3510,21 @@
       <c r="P28" s="71">
         <v>0</v>
       </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
+      <c r="Q28" s="71">
+        <v>0</v>
+      </c>
+      <c r="R28" s="97">
+        <v>0.1</v>
+      </c>
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
       <c r="U28" s="29"/>
       <c r="V28" s="29"/>
       <c r="W28" s="30"/>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="116"/>
-      <c r="C29" s="136"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="125"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="46" t="s">
         <v>45</v>
       </c>
@@ -3534,7 +3540,7 @@
       </c>
       <c r="I29" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J29" s="71">
         <v>0</v>
@@ -3557,17 +3563,21 @@
       <c r="P29" s="71">
         <v>0</v>
       </c>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
+      <c r="Q29" s="71">
+        <v>0</v>
+      </c>
+      <c r="R29" s="97">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
       <c r="U29" s="29"/>
       <c r="V29" s="29"/>
       <c r="W29" s="30"/>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="116"/>
-      <c r="C30" s="136"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="125"/>
+      <c r="C30" s="113"/>
       <c r="D30" s="46" t="s">
         <v>46</v>
       </c>
@@ -3583,7 +3593,7 @@
       </c>
       <c r="I30" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J30" s="71">
         <v>0</v>
@@ -3606,17 +3616,21 @@
       <c r="P30" s="71">
         <v>0</v>
       </c>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
+      <c r="Q30" s="71">
+        <v>0</v>
+      </c>
+      <c r="R30" s="97">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="S30" s="29"/>
       <c r="T30" s="29"/>
       <c r="U30" s="29"/>
       <c r="V30" s="29"/>
       <c r="W30" s="30"/>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="116"/>
-      <c r="C31" s="136"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="125"/>
+      <c r="C31" s="113"/>
       <c r="D31" s="46" t="s">
         <v>47</v>
       </c>
@@ -3632,7 +3646,7 @@
       </c>
       <c r="I31" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J31" s="71">
         <v>0</v>
@@ -3655,17 +3669,21 @@
       <c r="P31" s="71">
         <v>0</v>
       </c>
-      <c r="Q31" s="29"/>
-      <c r="R31" s="29"/>
+      <c r="Q31" s="71">
+        <v>0</v>
+      </c>
+      <c r="R31" s="97">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="S31" s="29"/>
       <c r="T31" s="29"/>
       <c r="U31" s="29"/>
       <c r="V31" s="29"/>
       <c r="W31" s="30"/>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="116"/>
-      <c r="C32" s="136"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="125"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="46" t="s">
         <v>48</v>
       </c>
@@ -3681,7 +3699,7 @@
       </c>
       <c r="I32" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.67E-2</v>
       </c>
       <c r="J32" s="71">
         <v>0</v>
@@ -3704,17 +3722,21 @@
       <c r="P32" s="71">
         <v>0</v>
       </c>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
+      <c r="Q32" s="71">
+        <v>0</v>
+      </c>
+      <c r="R32" s="97">
+        <v>1.67E-2</v>
+      </c>
       <c r="S32" s="29"/>
       <c r="T32" s="29"/>
       <c r="U32" s="29"/>
       <c r="V32" s="29"/>
       <c r="W32" s="30"/>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="116"/>
-      <c r="C33" s="136"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="125"/>
+      <c r="C33" s="113"/>
       <c r="D33" s="46" t="s">
         <v>49</v>
       </c>
@@ -3730,7 +3752,7 @@
       </c>
       <c r="I33" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J33" s="71">
         <v>0</v>
@@ -3753,17 +3775,21 @@
       <c r="P33" s="71">
         <v>0</v>
       </c>
-      <c r="Q33" s="29"/>
-      <c r="R33" s="29"/>
+      <c r="Q33" s="71">
+        <v>0</v>
+      </c>
+      <c r="R33" s="97">
+        <v>0.05</v>
+      </c>
       <c r="S33" s="29"/>
       <c r="T33" s="29"/>
       <c r="U33" s="29"/>
       <c r="V33" s="29"/>
       <c r="W33" s="30"/>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="116"/>
-      <c r="C34" s="136"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="125"/>
+      <c r="C34" s="113"/>
       <c r="D34" s="46" t="s">
         <v>50</v>
       </c>
@@ -3779,7 +3805,7 @@
       </c>
       <c r="I34" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="J34" s="71">
         <v>0</v>
@@ -3802,17 +3828,21 @@
       <c r="P34" s="71">
         <v>0</v>
       </c>
-      <c r="Q34" s="29"/>
-      <c r="R34" s="29"/>
+      <c r="Q34" s="71">
+        <v>0</v>
+      </c>
+      <c r="R34" s="97">
+        <v>3.3000000000000002E-2</v>
+      </c>
       <c r="S34" s="29"/>
       <c r="T34" s="29"/>
       <c r="U34" s="29"/>
       <c r="V34" s="29"/>
       <c r="W34" s="30"/>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="116"/>
-      <c r="C35" s="136"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="125"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="46" t="s">
         <v>51</v>
       </c>
@@ -3827,8 +3857,8 @@
         <v>0.2</v>
       </c>
       <c r="I35" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I35:I36" si="1">SUM(J35:W35)</f>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J35" s="71">
         <v>0</v>
@@ -3851,33 +3881,37 @@
       <c r="P35" s="71">
         <v>0</v>
       </c>
-      <c r="Q35" s="29"/>
-      <c r="R35" s="29"/>
+      <c r="Q35" s="71">
+        <v>0</v>
+      </c>
+      <c r="R35" s="97">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="S35" s="29"/>
       <c r="T35" s="29"/>
       <c r="U35" s="29"/>
       <c r="V35" s="29"/>
       <c r="W35" s="30"/>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="116"/>
-      <c r="C36" s="136"/>
-      <c r="D36" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52" t="s">
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="125"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="G36" s="5">
-        <v>5</v>
-      </c>
-      <c r="H36" s="5">
-        <v>1</v>
+      <c r="G36" s="4">
+        <v>4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>0.2</v>
       </c>
       <c r="I36" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.11600000000000001</v>
       </c>
       <c r="J36" s="71">
         <v>0</v>
@@ -3900,28 +3934,32 @@
       <c r="P36" s="71">
         <v>0</v>
       </c>
-      <c r="Q36" s="29"/>
-      <c r="R36" s="29"/>
+      <c r="Q36" s="71">
+        <v>0</v>
+      </c>
+      <c r="R36" s="97">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="S36" s="29"/>
       <c r="T36" s="29"/>
       <c r="U36" s="29"/>
       <c r="V36" s="29"/>
       <c r="W36" s="30"/>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="116"/>
-      <c r="C37" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="4">
-        <v>4</v>
-      </c>
-      <c r="H37" s="4">
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="125"/>
+      <c r="C37" s="113"/>
+      <c r="D37" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="5">
+        <v>5</v>
+      </c>
+      <c r="H37" s="5">
         <v>1</v>
       </c>
       <c r="I37" s="55">
@@ -3949,7 +3987,9 @@
       <c r="P37" s="71">
         <v>0</v>
       </c>
-      <c r="Q37" s="29"/>
+      <c r="Q37" s="71">
+        <v>0</v>
+      </c>
       <c r="R37" s="29"/>
       <c r="S37" s="29"/>
       <c r="T37" s="29"/>
@@ -3957,10 +3997,10 @@
       <c r="V37" s="29"/>
       <c r="W37" s="30"/>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="116"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="125"/>
       <c r="C38" s="49" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D38" s="49"/>
       <c r="E38" s="49"/>
@@ -3971,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="H38" s="4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="I38" s="55">
         <f t="shared" si="0"/>
@@ -3998,7 +4038,9 @@
       <c r="P38" s="71">
         <v>0</v>
       </c>
-      <c r="Q38" s="29"/>
+      <c r="Q38" s="71">
+        <v>0</v>
+      </c>
       <c r="R38" s="29"/>
       <c r="S38" s="29"/>
       <c r="T38" s="29"/>
@@ -4006,10 +4048,10 @@
       <c r="V38" s="29"/>
       <c r="W38" s="30"/>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="116"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="125"/>
       <c r="C39" s="49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D39" s="49"/>
       <c r="E39" s="49"/>
@@ -4017,14 +4059,14 @@
         <v>17</v>
       </c>
       <c r="G39" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H39" s="4">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="I39" s="55">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="J39" s="71">
         <v>0</v>
@@ -4032,62 +4074,50 @@
       <c r="K39" s="71">
         <v>0</v>
       </c>
-      <c r="L39" s="100">
-        <v>0.5</v>
-      </c>
-      <c r="M39" s="48">
+      <c r="L39" s="71">
+        <v>0</v>
+      </c>
+      <c r="M39" s="71">
+        <v>0</v>
+      </c>
+      <c r="N39" s="71">
+        <v>0</v>
+      </c>
+      <c r="O39" s="71">
+        <v>0</v>
+      </c>
+      <c r="P39" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="71">
+        <v>0</v>
+      </c>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="30"/>
+    </row>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="125"/>
+      <c r="C40" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" s="49"/>
+      <c r="E40" s="49"/>
+      <c r="F40" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="4">
+        <v>2</v>
+      </c>
+      <c r="H40" s="4">
         <v>0.25</v>
-      </c>
-      <c r="N39" s="48">
-        <v>0</v>
-      </c>
-      <c r="O39" s="48">
-        <v>0</v>
-      </c>
-      <c r="P39" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="48">
-        <v>0</v>
-      </c>
-      <c r="R39" s="48">
-        <v>0</v>
-      </c>
-      <c r="S39" s="48">
-        <v>0</v>
-      </c>
-      <c r="T39" s="48">
-        <v>0</v>
-      </c>
-      <c r="U39" s="48">
-        <v>0</v>
-      </c>
-      <c r="V39" s="48">
-        <v>0</v>
-      </c>
-      <c r="W39" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="116"/>
-      <c r="C40" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="G40" s="4">
-        <v>5</v>
-      </c>
-      <c r="H40" s="4">
-        <v>0.5</v>
       </c>
       <c r="I40" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J40" s="71">
         <v>0</v>
@@ -4095,150 +4125,166 @@
       <c r="K40" s="71">
         <v>0</v>
       </c>
-      <c r="L40" s="71">
-        <v>0</v>
-      </c>
-      <c r="M40" s="71">
-        <v>0</v>
-      </c>
-      <c r="N40" s="71">
-        <v>0</v>
-      </c>
-      <c r="O40" s="71">
-        <v>0</v>
-      </c>
-      <c r="P40" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="29"/>
-      <c r="R40" s="29"/>
-      <c r="S40" s="29"/>
-      <c r="T40" s="29"/>
-      <c r="U40" s="29"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="30"/>
-    </row>
-    <row r="41" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="106" t="s">
+      <c r="L40" s="100">
+        <v>0.5</v>
+      </c>
+      <c r="M40" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="N40" s="48">
+        <v>0</v>
+      </c>
+      <c r="O40" s="48">
+        <v>0</v>
+      </c>
+      <c r="P40" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="48">
+        <v>0</v>
+      </c>
+      <c r="R40" s="48">
+        <v>0</v>
+      </c>
+      <c r="S40" s="48">
+        <v>0</v>
+      </c>
+      <c r="T40" s="48">
+        <v>0</v>
+      </c>
+      <c r="U40" s="48">
+        <v>0</v>
+      </c>
+      <c r="V40" s="48">
+        <v>0</v>
+      </c>
+      <c r="W40" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="125"/>
+      <c r="C41" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="71">
+        <v>0</v>
+      </c>
+      <c r="K41" s="71">
+        <v>0</v>
+      </c>
+      <c r="L41" s="71">
+        <v>0</v>
+      </c>
+      <c r="M41" s="71">
+        <v>0</v>
+      </c>
+      <c r="N41" s="71">
+        <v>0</v>
+      </c>
+      <c r="O41" s="71">
+        <v>0</v>
+      </c>
+      <c r="P41" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="71">
+        <v>0</v>
+      </c>
+      <c r="R41" s="29"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="29"/>
+      <c r="U41" s="29"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="30"/>
+    </row>
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C41" s="134" t="s">
+      <c r="C42" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D42" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50" t="s">
+      <c r="E42" s="50"/>
+      <c r="F42" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>1</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H42" s="12">
         <v>0.5</v>
       </c>
-      <c r="I41" s="57">
-        <f t="shared" ref="I41:I102" si="1">SUM(J41:W41)</f>
+      <c r="I42" s="57">
+        <f t="shared" ref="I42:I103" si="2">SUM(J42:W42)</f>
         <v>0.95</v>
       </c>
-      <c r="J41" s="102">
+      <c r="J42" s="102">
         <v>0.45</v>
       </c>
-      <c r="K41" s="86">
+      <c r="K42" s="86">
         <v>0.5</v>
       </c>
-      <c r="L41" s="86">
-        <v>0</v>
-      </c>
-      <c r="M41" s="86">
-        <v>0</v>
-      </c>
-      <c r="N41" s="86">
-        <v>0</v>
-      </c>
-      <c r="O41" s="86">
-        <v>0</v>
-      </c>
-      <c r="P41" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="86">
-        <v>0</v>
-      </c>
-      <c r="R41" s="86">
-        <v>0</v>
-      </c>
-      <c r="S41" s="86">
-        <v>0</v>
-      </c>
-      <c r="T41" s="86">
-        <v>0</v>
-      </c>
-      <c r="U41" s="86">
-        <v>0</v>
-      </c>
-      <c r="V41" s="86">
-        <v>0</v>
-      </c>
-      <c r="W41" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="107"/>
-      <c r="C42" s="135"/>
-      <c r="D42" s="49" t="s">
+      <c r="L42" s="86">
+        <v>0</v>
+      </c>
+      <c r="M42" s="86">
+        <v>0</v>
+      </c>
+      <c r="N42" s="86">
+        <v>0</v>
+      </c>
+      <c r="O42" s="86">
+        <v>0</v>
+      </c>
+      <c r="P42" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="86">
+        <v>0</v>
+      </c>
+      <c r="R42" s="86">
+        <v>0</v>
+      </c>
+      <c r="S42" s="86">
+        <v>0</v>
+      </c>
+      <c r="T42" s="86">
+        <v>0</v>
+      </c>
+      <c r="U42" s="86">
+        <v>0</v>
+      </c>
+      <c r="V42" s="86">
+        <v>0</v>
+      </c>
+      <c r="W42" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="116"/>
+      <c r="C43" s="112"/>
+      <c r="D43" s="49" t="s">
         <v>21</v>
-      </c>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I42" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="71">
-        <v>0</v>
-      </c>
-      <c r="K42" s="71">
-        <v>0</v>
-      </c>
-      <c r="L42" s="71">
-        <v>0</v>
-      </c>
-      <c r="M42" s="71">
-        <v>0</v>
-      </c>
-      <c r="N42" s="71">
-        <v>0</v>
-      </c>
-      <c r="O42" s="71">
-        <v>0</v>
-      </c>
-      <c r="P42" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="29"/>
-      <c r="R42" s="29"/>
-      <c r="S42" s="29"/>
-      <c r="T42" s="29"/>
-      <c r="U42" s="29"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="30"/>
-    </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="107"/>
-      <c r="C43" s="135"/>
-      <c r="D43" s="49" t="s">
-        <v>22</v>
       </c>
       <c r="E43" s="49"/>
       <c r="F43" s="49" t="s">
@@ -4251,7 +4297,7 @@
         <v>0.5</v>
       </c>
       <c r="I43" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43" s="71">
@@ -4275,7 +4321,9 @@
       <c r="P43" s="71">
         <v>0</v>
       </c>
-      <c r="Q43" s="29"/>
+      <c r="Q43" s="71">
+        <v>0</v>
+      </c>
       <c r="R43" s="29"/>
       <c r="S43" s="29"/>
       <c r="T43" s="29"/>
@@ -4283,11 +4331,11 @@
       <c r="V43" s="29"/>
       <c r="W43" s="30"/>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="107"/>
-      <c r="C44" s="135"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="116"/>
+      <c r="C44" s="112"/>
       <c r="D44" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E44" s="49"/>
       <c r="F44" s="49" t="s">
@@ -4300,7 +4348,7 @@
         <v>0.5</v>
       </c>
       <c r="I44" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44" s="71">
@@ -4324,7 +4372,9 @@
       <c r="P44" s="71">
         <v>0</v>
       </c>
-      <c r="Q44" s="29"/>
+      <c r="Q44" s="71">
+        <v>0</v>
+      </c>
       <c r="R44" s="29"/>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
@@ -4332,11 +4382,11 @@
       <c r="V44" s="29"/>
       <c r="W44" s="30"/>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="107"/>
-      <c r="C45" s="135"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="116"/>
+      <c r="C45" s="112"/>
       <c r="D45" s="49" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E45" s="49"/>
       <c r="F45" s="49" t="s">
@@ -4349,7 +4399,7 @@
         <v>0.5</v>
       </c>
       <c r="I45" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45" s="71">
@@ -4373,7 +4423,9 @@
       <c r="P45" s="71">
         <v>0</v>
       </c>
-      <c r="Q45" s="29"/>
+      <c r="Q45" s="71">
+        <v>0</v>
+      </c>
       <c r="R45" s="29"/>
       <c r="S45" s="29"/>
       <c r="T45" s="29"/>
@@ -4381,11 +4433,11 @@
       <c r="V45" s="29"/>
       <c r="W45" s="30"/>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="107"/>
-      <c r="C46" s="135"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="116"/>
+      <c r="C46" s="112"/>
       <c r="D46" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E46" s="49"/>
       <c r="F46" s="49" t="s">
@@ -4398,7 +4450,7 @@
         <v>0.5</v>
       </c>
       <c r="I46" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46" s="71">
@@ -4422,7 +4474,9 @@
       <c r="P46" s="71">
         <v>0</v>
       </c>
-      <c r="Q46" s="29"/>
+      <c r="Q46" s="71">
+        <v>0</v>
+      </c>
       <c r="R46" s="29"/>
       <c r="S46" s="29"/>
       <c r="T46" s="29"/>
@@ -4430,11 +4484,11 @@
       <c r="V46" s="29"/>
       <c r="W46" s="30"/>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="107"/>
-      <c r="C47" s="135"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="116"/>
+      <c r="C47" s="112"/>
       <c r="D47" s="49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E47" s="49"/>
       <c r="F47" s="49" t="s">
@@ -4447,7 +4501,7 @@
         <v>0.5</v>
       </c>
       <c r="I47" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47" s="71">
@@ -4471,7 +4525,9 @@
       <c r="P47" s="71">
         <v>0</v>
       </c>
-      <c r="Q47" s="29"/>
+      <c r="Q47" s="71">
+        <v>0</v>
+      </c>
       <c r="R47" s="29"/>
       <c r="S47" s="29"/>
       <c r="T47" s="29"/>
@@ -4479,11 +4535,11 @@
       <c r="V47" s="29"/>
       <c r="W47" s="30"/>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="107"/>
-      <c r="C48" s="135"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="116"/>
+      <c r="C48" s="112"/>
       <c r="D48" s="49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E48" s="49"/>
       <c r="F48" s="49" t="s">
@@ -4496,7 +4552,7 @@
         <v>0.5</v>
       </c>
       <c r="I48" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48" s="71">
@@ -4520,7 +4576,9 @@
       <c r="P48" s="71">
         <v>0</v>
       </c>
-      <c r="Q48" s="29"/>
+      <c r="Q48" s="71">
+        <v>0</v>
+      </c>
       <c r="R48" s="29"/>
       <c r="S48" s="29"/>
       <c r="T48" s="29"/>
@@ -4528,11 +4586,11 @@
       <c r="V48" s="29"/>
       <c r="W48" s="30"/>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="107"/>
-      <c r="C49" s="135"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="116"/>
+      <c r="C49" s="112"/>
       <c r="D49" s="49" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E49" s="49"/>
       <c r="F49" s="49" t="s">
@@ -4545,7 +4603,7 @@
         <v>0.5</v>
       </c>
       <c r="I49" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49" s="71">
@@ -4569,7 +4627,9 @@
       <c r="P49" s="71">
         <v>0</v>
       </c>
-      <c r="Q49" s="29"/>
+      <c r="Q49" s="71">
+        <v>0</v>
+      </c>
       <c r="R49" s="29"/>
       <c r="S49" s="29"/>
       <c r="T49" s="29"/>
@@ -4577,11 +4637,11 @@
       <c r="V49" s="29"/>
       <c r="W49" s="30"/>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="107"/>
-      <c r="C50" s="135"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="116"/>
+      <c r="C50" s="112"/>
       <c r="D50" s="49" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E50" s="49"/>
       <c r="F50" s="49" t="s">
@@ -4594,7 +4654,7 @@
         <v>0.5</v>
       </c>
       <c r="I50" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50" s="71">
@@ -4618,7 +4678,9 @@
       <c r="P50" s="71">
         <v>0</v>
       </c>
-      <c r="Q50" s="29"/>
+      <c r="Q50" s="71">
+        <v>0</v>
+      </c>
       <c r="R50" s="29"/>
       <c r="S50" s="29"/>
       <c r="T50" s="29"/>
@@ -4626,11 +4688,11 @@
       <c r="V50" s="29"/>
       <c r="W50" s="30"/>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="107"/>
-      <c r="C51" s="135"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="116"/>
+      <c r="C51" s="112"/>
       <c r="D51" s="49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E51" s="49"/>
       <c r="F51" s="49" t="s">
@@ -4643,7 +4705,7 @@
         <v>0.5</v>
       </c>
       <c r="I51" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51" s="71">
@@ -4667,7 +4729,9 @@
       <c r="P51" s="71">
         <v>0</v>
       </c>
-      <c r="Q51" s="29"/>
+      <c r="Q51" s="71">
+        <v>0</v>
+      </c>
       <c r="R51" s="29"/>
       <c r="S51" s="29"/>
       <c r="T51" s="29"/>
@@ -4675,11 +4739,11 @@
       <c r="V51" s="29"/>
       <c r="W51" s="30"/>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="107"/>
-      <c r="C52" s="135"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="116"/>
+      <c r="C52" s="112"/>
       <c r="D52" s="49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E52" s="49"/>
       <c r="F52" s="49" t="s">
@@ -4692,7 +4756,7 @@
         <v>0.5</v>
       </c>
       <c r="I52" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52" s="71">
@@ -4716,7 +4780,9 @@
       <c r="P52" s="71">
         <v>0</v>
       </c>
-      <c r="Q52" s="29"/>
+      <c r="Q52" s="71">
+        <v>0</v>
+      </c>
       <c r="R52" s="29"/>
       <c r="S52" s="29"/>
       <c r="T52" s="29"/>
@@ -4724,24 +4790,24 @@
       <c r="V52" s="29"/>
       <c r="W52" s="30"/>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="107"/>
-      <c r="C53" s="135"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="116"/>
+      <c r="C53" s="112"/>
       <c r="D53" s="49" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="E53" s="49"/>
       <c r="F53" s="49" t="s">
         <v>17</v>
       </c>
       <c r="G53" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" s="4">
         <v>0.5</v>
       </c>
       <c r="I53" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53" s="71">
@@ -4765,7 +4831,9 @@
       <c r="P53" s="71">
         <v>0</v>
       </c>
-      <c r="Q53" s="29"/>
+      <c r="Q53" s="71">
+        <v>0</v>
+      </c>
       <c r="R53" s="29"/>
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
@@ -4773,11 +4841,11 @@
       <c r="V53" s="29"/>
       <c r="W53" s="30"/>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="107"/>
-      <c r="C54" s="135"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="116"/>
+      <c r="C54" s="112"/>
       <c r="D54" s="49" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="49"/>
       <c r="F54" s="49" t="s">
@@ -4787,10 +4855,10 @@
         <v>2</v>
       </c>
       <c r="H54" s="4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="I54" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54" s="71">
@@ -4814,7 +4882,9 @@
       <c r="P54" s="71">
         <v>0</v>
       </c>
-      <c r="Q54" s="29"/>
+      <c r="Q54" s="71">
+        <v>0</v>
+      </c>
       <c r="R54" s="29"/>
       <c r="S54" s="29"/>
       <c r="T54" s="29"/>
@@ -4822,9 +4892,9 @@
       <c r="V54" s="29"/>
       <c r="W54" s="30"/>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="107"/>
-      <c r="C55" s="135"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="116"/>
+      <c r="C55" s="112"/>
       <c r="D55" s="49" t="s">
         <v>77</v>
       </c>
@@ -4839,7 +4909,7 @@
         <v>0.25</v>
       </c>
       <c r="I55" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55" s="71">
@@ -4863,7 +4933,9 @@
       <c r="P55" s="71">
         <v>0</v>
       </c>
-      <c r="Q55" s="29"/>
+      <c r="Q55" s="71">
+        <v>0</v>
+      </c>
       <c r="R55" s="29"/>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
@@ -4871,11 +4943,11 @@
       <c r="V55" s="29"/>
       <c r="W55" s="30"/>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="107"/>
-      <c r="C56" s="135"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="116"/>
+      <c r="C56" s="112"/>
       <c r="D56" s="49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E56" s="49"/>
       <c r="F56" s="49" t="s">
@@ -4888,7 +4960,7 @@
         <v>0.25</v>
       </c>
       <c r="I56" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56" s="71">
@@ -4912,7 +4984,9 @@
       <c r="P56" s="71">
         <v>0</v>
       </c>
-      <c r="Q56" s="29"/>
+      <c r="Q56" s="71">
+        <v>0</v>
+      </c>
       <c r="R56" s="29"/>
       <c r="S56" s="29"/>
       <c r="T56" s="29"/>
@@ -4920,11 +4994,11 @@
       <c r="V56" s="29"/>
       <c r="W56" s="30"/>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="107"/>
-      <c r="C57" s="135"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="116"/>
+      <c r="C57" s="112"/>
       <c r="D57" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E57" s="49"/>
       <c r="F57" s="49" t="s">
@@ -4937,7 +5011,7 @@
         <v>0.25</v>
       </c>
       <c r="I57" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57" s="71">
@@ -4961,7 +5035,9 @@
       <c r="P57" s="71">
         <v>0</v>
       </c>
-      <c r="Q57" s="29"/>
+      <c r="Q57" s="71">
+        <v>0</v>
+      </c>
       <c r="R57" s="29"/>
       <c r="S57" s="29"/>
       <c r="T57" s="29"/>
@@ -4969,11 +5045,11 @@
       <c r="V57" s="29"/>
       <c r="W57" s="30"/>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="107"/>
-      <c r="C58" s="135"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="116"/>
+      <c r="C58" s="112"/>
       <c r="D58" s="49" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E58" s="49"/>
       <c r="F58" s="49" t="s">
@@ -4986,7 +5062,7 @@
         <v>0.25</v>
       </c>
       <c r="I58" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58" s="71">
@@ -5010,7 +5086,9 @@
       <c r="P58" s="71">
         <v>0</v>
       </c>
-      <c r="Q58" s="29"/>
+      <c r="Q58" s="71">
+        <v>0</v>
+      </c>
       <c r="R58" s="29"/>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
@@ -5018,11 +5096,11 @@
       <c r="V58" s="29"/>
       <c r="W58" s="30"/>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="107"/>
-      <c r="C59" s="135"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="116"/>
+      <c r="C59" s="112"/>
       <c r="D59" s="49" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E59" s="49"/>
       <c r="F59" s="49" t="s">
@@ -5035,7 +5113,7 @@
         <v>0.25</v>
       </c>
       <c r="I59" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59" s="71">
@@ -5059,7 +5137,9 @@
       <c r="P59" s="71">
         <v>0</v>
       </c>
-      <c r="Q59" s="29"/>
+      <c r="Q59" s="71">
+        <v>0</v>
+      </c>
       <c r="R59" s="29"/>
       <c r="S59" s="29"/>
       <c r="T59" s="29"/>
@@ -5067,11 +5147,11 @@
       <c r="V59" s="29"/>
       <c r="W59" s="30"/>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="107"/>
-      <c r="C60" s="135"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="116"/>
+      <c r="C60" s="112"/>
       <c r="D60" s="49" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E60" s="49"/>
       <c r="F60" s="49" t="s">
@@ -5084,7 +5164,7 @@
         <v>0.25</v>
       </c>
       <c r="I60" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60" s="71">
@@ -5108,7 +5188,9 @@
       <c r="P60" s="71">
         <v>0</v>
       </c>
-      <c r="Q60" s="29"/>
+      <c r="Q60" s="71">
+        <v>0</v>
+      </c>
       <c r="R60" s="29"/>
       <c r="S60" s="29"/>
       <c r="T60" s="29"/>
@@ -5116,11 +5198,11 @@
       <c r="V60" s="29"/>
       <c r="W60" s="30"/>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="107"/>
-      <c r="C61" s="135"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="116"/>
+      <c r="C61" s="112"/>
       <c r="D61" s="49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E61" s="49"/>
       <c r="F61" s="49" t="s">
@@ -5133,7 +5215,7 @@
         <v>0.25</v>
       </c>
       <c r="I61" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61" s="71">
@@ -5157,7 +5239,9 @@
       <c r="P61" s="71">
         <v>0</v>
       </c>
-      <c r="Q61" s="29"/>
+      <c r="Q61" s="71">
+        <v>0</v>
+      </c>
       <c r="R61" s="29"/>
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
@@ -5165,11 +5249,11 @@
       <c r="V61" s="29"/>
       <c r="W61" s="30"/>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="107"/>
-      <c r="C62" s="135"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="116"/>
+      <c r="C62" s="112"/>
       <c r="D62" s="49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E62" s="49"/>
       <c r="F62" s="49" t="s">
@@ -5182,7 +5266,7 @@
         <v>0.25</v>
       </c>
       <c r="I62" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62" s="71">
@@ -5206,7 +5290,9 @@
       <c r="P62" s="71">
         <v>0</v>
       </c>
-      <c r="Q62" s="29"/>
+      <c r="Q62" s="71">
+        <v>0</v>
+      </c>
       <c r="R62" s="29"/>
       <c r="S62" s="29"/>
       <c r="T62" s="29"/>
@@ -5214,11 +5300,11 @@
       <c r="V62" s="29"/>
       <c r="W62" s="30"/>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="107"/>
-      <c r="C63" s="135"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="116"/>
+      <c r="C63" s="112"/>
       <c r="D63" s="49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E63" s="49"/>
       <c r="F63" s="49" t="s">
@@ -5231,7 +5317,7 @@
         <v>0.25</v>
       </c>
       <c r="I63" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63" s="71">
@@ -5255,7 +5341,9 @@
       <c r="P63" s="71">
         <v>0</v>
       </c>
-      <c r="Q63" s="29"/>
+      <c r="Q63" s="71">
+        <v>0</v>
+      </c>
       <c r="R63" s="29"/>
       <c r="S63" s="29"/>
       <c r="T63" s="29"/>
@@ -5263,11 +5351,11 @@
       <c r="V63" s="29"/>
       <c r="W63" s="30"/>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="107"/>
-      <c r="C64" s="135"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="116"/>
+      <c r="C64" s="112"/>
       <c r="D64" s="49" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E64" s="49"/>
       <c r="F64" s="49" t="s">
@@ -5280,7 +5368,7 @@
         <v>0.25</v>
       </c>
       <c r="I64" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64" s="71">
@@ -5304,7 +5392,9 @@
       <c r="P64" s="71">
         <v>0</v>
       </c>
-      <c r="Q64" s="29"/>
+      <c r="Q64" s="71">
+        <v>0</v>
+      </c>
       <c r="R64" s="29"/>
       <c r="S64" s="29"/>
       <c r="T64" s="29"/>
@@ -5312,11 +5402,11 @@
       <c r="V64" s="29"/>
       <c r="W64" s="30"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="107"/>
-      <c r="C65" s="135"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="116"/>
+      <c r="C65" s="112"/>
       <c r="D65" s="49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E65" s="49"/>
       <c r="F65" s="49" t="s">
@@ -5329,7 +5419,7 @@
         <v>0.25</v>
       </c>
       <c r="I65" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65" s="71">
@@ -5353,7 +5443,9 @@
       <c r="P65" s="71">
         <v>0</v>
       </c>
-      <c r="Q65" s="29"/>
+      <c r="Q65" s="71">
+        <v>0</v>
+      </c>
       <c r="R65" s="29"/>
       <c r="S65" s="29"/>
       <c r="T65" s="29"/>
@@ -5361,11 +5453,11 @@
       <c r="V65" s="29"/>
       <c r="W65" s="30"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="107"/>
-      <c r="C66" s="135"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="116"/>
+      <c r="C66" s="112"/>
       <c r="D66" s="49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E66" s="49"/>
       <c r="F66" s="49" t="s">
@@ -5378,7 +5470,7 @@
         <v>0.25</v>
       </c>
       <c r="I66" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="71">
@@ -5402,7 +5494,9 @@
       <c r="P66" s="71">
         <v>0</v>
       </c>
-      <c r="Q66" s="29"/>
+      <c r="Q66" s="71">
+        <v>0</v>
+      </c>
       <c r="R66" s="29"/>
       <c r="S66" s="29"/>
       <c r="T66" s="29"/>
@@ -5410,11 +5504,11 @@
       <c r="V66" s="29"/>
       <c r="W66" s="30"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="107"/>
-      <c r="C67" s="135"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="116"/>
+      <c r="C67" s="112"/>
       <c r="D67" s="49" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E67" s="49"/>
       <c r="F67" s="49" t="s">
@@ -5427,7 +5521,7 @@
         <v>0.25</v>
       </c>
       <c r="I67" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="71">
@@ -5451,7 +5545,9 @@
       <c r="P67" s="71">
         <v>0</v>
       </c>
-      <c r="Q67" s="29"/>
+      <c r="Q67" s="71">
+        <v>0</v>
+      </c>
       <c r="R67" s="29"/>
       <c r="S67" s="29"/>
       <c r="T67" s="29"/>
@@ -5459,11 +5555,11 @@
       <c r="V67" s="29"/>
       <c r="W67" s="30"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="107"/>
-      <c r="C68" s="135"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="116"/>
+      <c r="C68" s="112"/>
       <c r="D68" s="49" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E68" s="49"/>
       <c r="F68" s="49" t="s">
@@ -5476,7 +5572,7 @@
         <v>0.25</v>
       </c>
       <c r="I68" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68" s="71">
@@ -5500,7 +5596,9 @@
       <c r="P68" s="71">
         <v>0</v>
       </c>
-      <c r="Q68" s="29"/>
+      <c r="Q68" s="71">
+        <v>0</v>
+      </c>
       <c r="R68" s="29"/>
       <c r="S68" s="29"/>
       <c r="T68" s="29"/>
@@ -5508,11 +5606,11 @@
       <c r="V68" s="29"/>
       <c r="W68" s="30"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="107"/>
-      <c r="C69" s="135"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="116"/>
+      <c r="C69" s="112"/>
       <c r="D69" s="49" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E69" s="49"/>
       <c r="F69" s="49" t="s">
@@ -5525,7 +5623,7 @@
         <v>0.25</v>
       </c>
       <c r="I69" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="71">
@@ -5549,7 +5647,9 @@
       <c r="P69" s="71">
         <v>0</v>
       </c>
-      <c r="Q69" s="29"/>
+      <c r="Q69" s="71">
+        <v>0</v>
+      </c>
       <c r="R69" s="29"/>
       <c r="S69" s="29"/>
       <c r="T69" s="29"/>
@@ -5557,11 +5657,11 @@
       <c r="V69" s="29"/>
       <c r="W69" s="30"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="107"/>
-      <c r="C70" s="135"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="116"/>
+      <c r="C70" s="112"/>
       <c r="D70" s="49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E70" s="49"/>
       <c r="F70" s="49" t="s">
@@ -5574,7 +5674,7 @@
         <v>0.25</v>
       </c>
       <c r="I70" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="71">
@@ -5598,7 +5698,9 @@
       <c r="P70" s="71">
         <v>0</v>
       </c>
-      <c r="Q70" s="29"/>
+      <c r="Q70" s="71">
+        <v>0</v>
+      </c>
       <c r="R70" s="29"/>
       <c r="S70" s="29"/>
       <c r="T70" s="29"/>
@@ -5606,11 +5708,11 @@
       <c r="V70" s="29"/>
       <c r="W70" s="30"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="107"/>
-      <c r="C71" s="135"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="116"/>
+      <c r="C71" s="112"/>
       <c r="D71" s="49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" s="49"/>
       <c r="F71" s="49" t="s">
@@ -5623,7 +5725,7 @@
         <v>0.25</v>
       </c>
       <c r="I71" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="71">
@@ -5647,7 +5749,9 @@
       <c r="P71" s="71">
         <v>0</v>
       </c>
-      <c r="Q71" s="29"/>
+      <c r="Q71" s="71">
+        <v>0</v>
+      </c>
       <c r="R71" s="29"/>
       <c r="S71" s="29"/>
       <c r="T71" s="29"/>
@@ -5655,11 +5759,11 @@
       <c r="V71" s="29"/>
       <c r="W71" s="30"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="107"/>
-      <c r="C72" s="135"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="116"/>
+      <c r="C72" s="112"/>
       <c r="D72" s="49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" s="49"/>
       <c r="F72" s="49" t="s">
@@ -5672,7 +5776,7 @@
         <v>0.25</v>
       </c>
       <c r="I72" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="71">
@@ -5696,7 +5800,9 @@
       <c r="P72" s="71">
         <v>0</v>
       </c>
-      <c r="Q72" s="29"/>
+      <c r="Q72" s="71">
+        <v>0</v>
+      </c>
       <c r="R72" s="29"/>
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
@@ -5704,11 +5810,11 @@
       <c r="V72" s="29"/>
       <c r="W72" s="30"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="107"/>
-      <c r="C73" s="135"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="116"/>
+      <c r="C73" s="112"/>
       <c r="D73" s="49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E73" s="49"/>
       <c r="F73" s="49" t="s">
@@ -5721,7 +5827,7 @@
         <v>0.25</v>
       </c>
       <c r="I73" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="71">
@@ -5745,7 +5851,9 @@
       <c r="P73" s="71">
         <v>0</v>
       </c>
-      <c r="Q73" s="29"/>
+      <c r="Q73" s="71">
+        <v>0</v>
+      </c>
       <c r="R73" s="29"/>
       <c r="S73" s="29"/>
       <c r="T73" s="29"/>
@@ -5753,11 +5861,11 @@
       <c r="V73" s="29"/>
       <c r="W73" s="30"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="107"/>
-      <c r="C74" s="135"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="116"/>
+      <c r="C74" s="112"/>
       <c r="D74" s="49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E74" s="49"/>
       <c r="F74" s="49" t="s">
@@ -5770,7 +5878,7 @@
         <v>0.25</v>
       </c>
       <c r="I74" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="71">
@@ -5794,7 +5902,9 @@
       <c r="P74" s="71">
         <v>0</v>
       </c>
-      <c r="Q74" s="29"/>
+      <c r="Q74" s="71">
+        <v>0</v>
+      </c>
       <c r="R74" s="29"/>
       <c r="S74" s="29"/>
       <c r="T74" s="29"/>
@@ -5802,11 +5912,11 @@
       <c r="V74" s="29"/>
       <c r="W74" s="30"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="107"/>
-      <c r="C75" s="135"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="116"/>
+      <c r="C75" s="112"/>
       <c r="D75" s="49" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E75" s="49"/>
       <c r="F75" s="49" t="s">
@@ -5819,7 +5929,7 @@
         <v>0.25</v>
       </c>
       <c r="I75" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="71">
@@ -5843,7 +5953,9 @@
       <c r="P75" s="71">
         <v>0</v>
       </c>
-      <c r="Q75" s="29"/>
+      <c r="Q75" s="71">
+        <v>0</v>
+      </c>
       <c r="R75" s="29"/>
       <c r="S75" s="29"/>
       <c r="T75" s="29"/>
@@ -5851,11 +5963,11 @@
       <c r="V75" s="29"/>
       <c r="W75" s="30"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="107"/>
-      <c r="C76" s="135"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="116"/>
+      <c r="C76" s="112"/>
       <c r="D76" s="49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E76" s="49"/>
       <c r="F76" s="49" t="s">
@@ -5868,7 +5980,7 @@
         <v>0.25</v>
       </c>
       <c r="I76" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76" s="71">
@@ -5892,7 +6004,9 @@
       <c r="P76" s="71">
         <v>0</v>
       </c>
-      <c r="Q76" s="29"/>
+      <c r="Q76" s="71">
+        <v>0</v>
+      </c>
       <c r="R76" s="29"/>
       <c r="S76" s="29"/>
       <c r="T76" s="29"/>
@@ -5900,11 +6014,11 @@
       <c r="V76" s="29"/>
       <c r="W76" s="30"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="107"/>
-      <c r="C77" s="135"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="116"/>
+      <c r="C77" s="112"/>
       <c r="D77" s="49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E77" s="49"/>
       <c r="F77" s="49" t="s">
@@ -5917,7 +6031,7 @@
         <v>0.25</v>
       </c>
       <c r="I77" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77" s="71">
@@ -5941,7 +6055,9 @@
       <c r="P77" s="71">
         <v>0</v>
       </c>
-      <c r="Q77" s="29"/>
+      <c r="Q77" s="71">
+        <v>0</v>
+      </c>
       <c r="R77" s="29"/>
       <c r="S77" s="29"/>
       <c r="T77" s="29"/>
@@ -5949,11 +6065,11 @@
       <c r="V77" s="29"/>
       <c r="W77" s="30"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="107"/>
-      <c r="C78" s="135"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="116"/>
+      <c r="C78" s="112"/>
       <c r="D78" s="49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E78" s="49"/>
       <c r="F78" s="49" t="s">
@@ -5966,7 +6082,7 @@
         <v>0.25</v>
       </c>
       <c r="I78" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78" s="71">
@@ -5990,7 +6106,9 @@
       <c r="P78" s="71">
         <v>0</v>
       </c>
-      <c r="Q78" s="29"/>
+      <c r="Q78" s="71">
+        <v>0</v>
+      </c>
       <c r="R78" s="29"/>
       <c r="S78" s="29"/>
       <c r="T78" s="29"/>
@@ -5998,11 +6116,11 @@
       <c r="V78" s="29"/>
       <c r="W78" s="30"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="107"/>
-      <c r="C79" s="135"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="116"/>
+      <c r="C79" s="112"/>
       <c r="D79" s="49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E79" s="49"/>
       <c r="F79" s="49" t="s">
@@ -6015,7 +6133,7 @@
         <v>0.25</v>
       </c>
       <c r="I79" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J79" s="71">
@@ -6039,7 +6157,9 @@
       <c r="P79" s="71">
         <v>0</v>
       </c>
-      <c r="Q79" s="29"/>
+      <c r="Q79" s="71">
+        <v>0</v>
+      </c>
       <c r="R79" s="29"/>
       <c r="S79" s="29"/>
       <c r="T79" s="29"/>
@@ -6047,11 +6167,11 @@
       <c r="V79" s="29"/>
       <c r="W79" s="30"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="107"/>
-      <c r="C80" s="135"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="116"/>
+      <c r="C80" s="112"/>
       <c r="D80" s="49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E80" s="49"/>
       <c r="F80" s="49" t="s">
@@ -6064,7 +6184,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="55">
-        <f t="shared" ref="I80:I90" si="2">SUM(J80:W80)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J80" s="71">
@@ -6088,7 +6208,9 @@
       <c r="P80" s="71">
         <v>0</v>
       </c>
-      <c r="Q80" s="29"/>
+      <c r="Q80" s="71">
+        <v>0</v>
+      </c>
       <c r="R80" s="29"/>
       <c r="S80" s="29"/>
       <c r="T80" s="29"/>
@@ -6096,11 +6218,11 @@
       <c r="V80" s="29"/>
       <c r="W80" s="30"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="107"/>
-      <c r="C81" s="135"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="116"/>
+      <c r="C81" s="112"/>
       <c r="D81" s="49" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="E81" s="49"/>
       <c r="F81" s="49" t="s">
@@ -6113,7 +6235,7 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I81:I91" si="3">SUM(J81:W81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="71">
@@ -6137,7 +6259,9 @@
       <c r="P81" s="71">
         <v>0</v>
       </c>
-      <c r="Q81" s="29"/>
+      <c r="Q81" s="71">
+        <v>0</v>
+      </c>
       <c r="R81" s="29"/>
       <c r="S81" s="29"/>
       <c r="T81" s="29"/>
@@ -6145,11 +6269,11 @@
       <c r="V81" s="29"/>
       <c r="W81" s="30"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="107"/>
-      <c r="C82" s="135"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="116"/>
+      <c r="C82" s="112"/>
       <c r="D82" s="49" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E82" s="49"/>
       <c r="F82" s="49" t="s">
@@ -6162,7 +6286,7 @@
         <v>0.25</v>
       </c>
       <c r="I82" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J82" s="71">
@@ -6186,7 +6310,9 @@
       <c r="P82" s="71">
         <v>0</v>
       </c>
-      <c r="Q82" s="29"/>
+      <c r="Q82" s="71">
+        <v>0</v>
+      </c>
       <c r="R82" s="29"/>
       <c r="S82" s="29"/>
       <c r="T82" s="29"/>
@@ -6194,125 +6320,127 @@
       <c r="V82" s="29"/>
       <c r="W82" s="30"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="107"/>
-      <c r="C83" s="135"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="116"/>
+      <c r="C83" s="112"/>
       <c r="D83" s="49" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E83" s="49"/>
       <c r="F83" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G83" s="4">
+        <v>2</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I83" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="71">
+        <v>0</v>
+      </c>
+      <c r="K83" s="71">
+        <v>0</v>
+      </c>
+      <c r="L83" s="71">
+        <v>0</v>
+      </c>
+      <c r="M83" s="71">
+        <v>0</v>
+      </c>
+      <c r="N83" s="71">
+        <v>0</v>
+      </c>
+      <c r="O83" s="71">
+        <v>0</v>
+      </c>
+      <c r="P83" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="71">
+        <v>0</v>
+      </c>
+      <c r="R83" s="29"/>
+      <c r="S83" s="29"/>
+      <c r="T83" s="29"/>
+      <c r="U83" s="29"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="30"/>
+    </row>
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="116"/>
+      <c r="C84" s="112"/>
+      <c r="D84" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="E84" s="49"/>
+      <c r="F84" s="49" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84" s="16">
         <v>1</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H84" s="16">
         <v>1</v>
       </c>
-      <c r="I83" s="55">
-        <f t="shared" si="2"/>
+      <c r="I84" s="55">
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
-      <c r="J83" s="71">
-        <v>0</v>
-      </c>
-      <c r="K83" s="48">
+      <c r="J84" s="71">
+        <v>0</v>
+      </c>
+      <c r="K84" s="48">
         <v>0.8</v>
       </c>
-      <c r="L83" s="48">
-        <v>0</v>
-      </c>
-      <c r="M83" s="48">
-        <v>0</v>
-      </c>
-      <c r="N83" s="48">
-        <v>0</v>
-      </c>
-      <c r="O83" s="48">
-        <v>0</v>
-      </c>
-      <c r="P83" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="48">
-        <v>0</v>
-      </c>
-      <c r="R83" s="48">
-        <v>0</v>
-      </c>
-      <c r="S83" s="48">
-        <v>0</v>
-      </c>
-      <c r="T83" s="48">
-        <v>0</v>
-      </c>
-      <c r="U83" s="48">
-        <v>0</v>
-      </c>
-      <c r="V83" s="48">
-        <v>0</v>
-      </c>
-      <c r="W83" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="107"/>
-      <c r="C84" s="108" t="s">
+      <c r="L84" s="48">
+        <v>0</v>
+      </c>
+      <c r="M84" s="48">
+        <v>0</v>
+      </c>
+      <c r="N84" s="48">
+        <v>0</v>
+      </c>
+      <c r="O84" s="48">
+        <v>0</v>
+      </c>
+      <c r="P84" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="48">
+        <v>0</v>
+      </c>
+      <c r="R84" s="48">
+        <v>0</v>
+      </c>
+      <c r="S84" s="48">
+        <v>0</v>
+      </c>
+      <c r="T84" s="48">
+        <v>0</v>
+      </c>
+      <c r="U84" s="48">
+        <v>0</v>
+      </c>
+      <c r="V84" s="48">
+        <v>0</v>
+      </c>
+      <c r="W84" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="116"/>
+      <c r="C85" s="117" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="46" t="s">
+      <c r="D85" s="46" t="s">
         <v>68</v>
-      </c>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" s="4">
-        <v>5</v>
-      </c>
-      <c r="H84" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I84" s="55">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="71">
-        <v>0</v>
-      </c>
-      <c r="K84" s="71">
-        <v>0</v>
-      </c>
-      <c r="L84" s="71">
-        <v>0</v>
-      </c>
-      <c r="M84" s="71">
-        <v>0</v>
-      </c>
-      <c r="N84" s="71">
-        <v>0</v>
-      </c>
-      <c r="O84" s="71">
-        <v>0</v>
-      </c>
-      <c r="P84" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="30"/>
-    </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="107"/>
-      <c r="C85" s="108"/>
-      <c r="D85" s="52" t="s">
-        <v>69</v>
       </c>
       <c r="E85" s="52"/>
       <c r="F85" s="52" t="s">
@@ -6325,7 +6453,7 @@
         <v>0.2</v>
       </c>
       <c r="I85" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85" s="71">
@@ -6349,7 +6477,9 @@
       <c r="P85" s="71">
         <v>0</v>
       </c>
-      <c r="Q85" s="28"/>
+      <c r="Q85" s="71">
+        <v>0</v>
+      </c>
       <c r="R85" s="29"/>
       <c r="S85" s="29"/>
       <c r="T85" s="29"/>
@@ -6357,11 +6487,11 @@
       <c r="V85" s="29"/>
       <c r="W85" s="30"/>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="107"/>
-      <c r="C86" s="108"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="116"/>
+      <c r="C86" s="117"/>
       <c r="D86" s="52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E86" s="52"/>
       <c r="F86" s="52" t="s">
@@ -6374,7 +6504,7 @@
         <v>0.2</v>
       </c>
       <c r="I86" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86" s="71">
@@ -6398,7 +6528,9 @@
       <c r="P86" s="71">
         <v>0</v>
       </c>
-      <c r="Q86" s="28"/>
+      <c r="Q86" s="71">
+        <v>0</v>
+      </c>
       <c r="R86" s="29"/>
       <c r="S86" s="29"/>
       <c r="T86" s="29"/>
@@ -6406,11 +6538,11 @@
       <c r="V86" s="29"/>
       <c r="W86" s="30"/>
     </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="107"/>
-      <c r="C87" s="108"/>
+    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="116"/>
+      <c r="C87" s="117"/>
       <c r="D87" s="52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E87" s="52"/>
       <c r="F87" s="52" t="s">
@@ -6423,7 +6555,7 @@
         <v>0.2</v>
       </c>
       <c r="I87" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87" s="71">
@@ -6447,19 +6579,21 @@
       <c r="P87" s="71">
         <v>0</v>
       </c>
-      <c r="Q87" s="28"/>
-      <c r="R87" s="28"/>
+      <c r="Q87" s="71">
+        <v>0</v>
+      </c>
+      <c r="R87" s="29"/>
       <c r="S87" s="29"/>
       <c r="T87" s="29"/>
       <c r="U87" s="29"/>
       <c r="V87" s="29"/>
       <c r="W87" s="30"/>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="107"/>
-      <c r="C88" s="108"/>
+    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="116"/>
+      <c r="C88" s="117"/>
       <c r="D88" s="52" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E88" s="52"/>
       <c r="F88" s="52" t="s">
@@ -6472,7 +6606,7 @@
         <v>0.2</v>
       </c>
       <c r="I88" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="71">
@@ -6496,22 +6630,24 @@
       <c r="P88" s="71">
         <v>0</v>
       </c>
-      <c r="Q88" s="28"/>
+      <c r="Q88" s="71">
+        <v>0</v>
+      </c>
       <c r="R88" s="28"/>
-      <c r="S88" s="28"/>
-      <c r="T88" s="28"/>
-      <c r="U88" s="28"/>
-      <c r="V88" s="28"/>
-      <c r="W88" s="58"/>
-    </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="107"/>
-      <c r="C89" s="108"/>
+      <c r="S88" s="29"/>
+      <c r="T88" s="29"/>
+      <c r="U88" s="29"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="30"/>
+    </row>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="116"/>
+      <c r="C89" s="117"/>
       <c r="D89" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E89" s="52"/>
-      <c r="F89" s="46" t="s">
+      <c r="F89" s="52" t="s">
         <v>15</v>
       </c>
       <c r="G89" s="4">
@@ -6521,7 +6657,7 @@
         <v>0.2</v>
       </c>
       <c r="I89" s="55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89" s="71">
@@ -6545,33 +6681,35 @@
       <c r="P89" s="71">
         <v>0</v>
       </c>
-      <c r="Q89" s="28"/>
-      <c r="R89" s="29"/>
-      <c r="S89" s="29"/>
-      <c r="T89" s="29"/>
-      <c r="U89" s="29"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="30"/>
-    </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="107"/>
-      <c r="C90" s="138" t="s">
-        <v>132</v>
-      </c>
-      <c r="D90" s="52"/>
+      <c r="Q89" s="71">
+        <v>0</v>
+      </c>
+      <c r="R89" s="28"/>
+      <c r="S89" s="28"/>
+      <c r="T89" s="28"/>
+      <c r="U89" s="28"/>
+      <c r="V89" s="28"/>
+      <c r="W89" s="58"/>
+    </row>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="116"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="52" t="s">
+        <v>73</v>
+      </c>
       <c r="E90" s="52"/>
       <c r="F90" s="46" t="s">
         <v>15</v>
       </c>
       <c r="G90" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H90" s="4">
         <v>0.2</v>
       </c>
       <c r="I90" s="55">
-        <f t="shared" si="2"/>
-        <v>0.25</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J90" s="71">
         <v>0</v>
@@ -6594,8 +6732,8 @@
       <c r="P90" s="71">
         <v>0</v>
       </c>
-      <c r="Q90" s="48">
-        <v>0.25</v>
+      <c r="Q90" s="71">
+        <v>0</v>
       </c>
       <c r="R90" s="29"/>
       <c r="S90" s="29"/>
@@ -6604,10 +6742,10 @@
       <c r="V90" s="29"/>
       <c r="W90" s="30"/>
     </row>
-    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="107"/>
-      <c r="C91" s="83" t="s">
-        <v>124</v>
+    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="116"/>
+      <c r="C91" s="106" t="s">
+        <v>132</v>
       </c>
       <c r="D91" s="52"/>
       <c r="E91" s="52"/>
@@ -6615,263 +6753,271 @@
         <v>15</v>
       </c>
       <c r="G91" s="4">
+        <v>3</v>
+      </c>
+      <c r="H91" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I91" s="55">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J91" s="71">
+        <v>0</v>
+      </c>
+      <c r="K91" s="71">
+        <v>0</v>
+      </c>
+      <c r="L91" s="71">
+        <v>0</v>
+      </c>
+      <c r="M91" s="71">
+        <v>0</v>
+      </c>
+      <c r="N91" s="71">
+        <v>0</v>
+      </c>
+      <c r="O91" s="71">
+        <v>0</v>
+      </c>
+      <c r="P91" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="48">
+        <v>0.25</v>
+      </c>
+      <c r="R91" s="29"/>
+      <c r="S91" s="29"/>
+      <c r="T91" s="29"/>
+      <c r="U91" s="29"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="30"/>
+    </row>
+    <row r="92" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="116"/>
+      <c r="C92" s="83" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="4">
         <v>1</v>
       </c>
-      <c r="H91" s="4">
+      <c r="H92" s="4">
         <v>2</v>
       </c>
-      <c r="I91" s="55">
-        <f t="shared" si="1"/>
+      <c r="I92" s="55">
+        <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J91" s="48">
+      <c r="J92" s="48">
         <v>1.5</v>
       </c>
-      <c r="K91" s="48">
-        <v>0</v>
-      </c>
-      <c r="L91" s="48">
-        <v>0</v>
-      </c>
-      <c r="M91" s="48">
-        <v>0</v>
-      </c>
-      <c r="N91" s="48">
-        <v>0</v>
-      </c>
-      <c r="O91" s="48">
-        <v>0</v>
-      </c>
-      <c r="P91" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="48">
-        <v>0</v>
-      </c>
-      <c r="R91" s="48">
-        <v>0</v>
-      </c>
-      <c r="S91" s="48">
-        <v>0</v>
-      </c>
-      <c r="T91" s="48">
-        <v>0</v>
-      </c>
-      <c r="U91" s="48">
-        <v>0</v>
-      </c>
-      <c r="V91" s="48">
-        <v>0</v>
-      </c>
-      <c r="W91" s="85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="107"/>
-      <c r="C92" s="75" t="s">
+      <c r="K92" s="48">
+        <v>0</v>
+      </c>
+      <c r="L92" s="48">
+        <v>0</v>
+      </c>
+      <c r="M92" s="48">
+        <v>0</v>
+      </c>
+      <c r="N92" s="48">
+        <v>0</v>
+      </c>
+      <c r="O92" s="48">
+        <v>0</v>
+      </c>
+      <c r="P92" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="48">
+        <v>0</v>
+      </c>
+      <c r="R92" s="48">
+        <v>0</v>
+      </c>
+      <c r="S92" s="48">
+        <v>0</v>
+      </c>
+      <c r="T92" s="48">
+        <v>0</v>
+      </c>
+      <c r="U92" s="48">
+        <v>0</v>
+      </c>
+      <c r="V92" s="48">
+        <v>0</v>
+      </c>
+      <c r="W92" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="116"/>
+      <c r="C93" s="75" t="s">
         <v>112</v>
       </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="54"/>
-      <c r="F92" s="54" t="s">
+      <c r="D93" s="42"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="4">
+      <c r="G93" s="4">
         <v>4</v>
       </c>
-      <c r="H92" s="4">
+      <c r="H93" s="4">
         <v>1</v>
       </c>
-      <c r="I92" s="55">
-        <f>SUM(J92:W92)</f>
-        <v>0</v>
-      </c>
-      <c r="J92" s="71">
-        <v>0</v>
-      </c>
-      <c r="K92" s="71">
-        <v>0</v>
-      </c>
-      <c r="L92" s="71">
-        <v>0</v>
-      </c>
-      <c r="M92" s="71">
-        <v>0</v>
-      </c>
-      <c r="N92" s="71">
-        <v>0</v>
-      </c>
-      <c r="O92" s="71">
-        <v>0</v>
-      </c>
-      <c r="P92" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="28"/>
-      <c r="R92" s="29"/>
-      <c r="S92" s="29"/>
-      <c r="T92" s="29"/>
-      <c r="U92" s="29"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="30"/>
-    </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="125" t="s">
+      <c r="I93" s="55">
+        <f>SUM(J93:W93)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="71">
+        <v>0</v>
+      </c>
+      <c r="K93" s="71">
+        <v>0</v>
+      </c>
+      <c r="L93" s="71">
+        <v>0</v>
+      </c>
+      <c r="M93" s="71">
+        <v>0</v>
+      </c>
+      <c r="N93" s="71">
+        <v>0</v>
+      </c>
+      <c r="O93" s="71">
+        <v>0</v>
+      </c>
+      <c r="P93" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="71">
+        <v>0</v>
+      </c>
+      <c r="R93" s="29"/>
+      <c r="S93" s="29"/>
+      <c r="T93" s="29"/>
+      <c r="U93" s="29"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="30"/>
+    </row>
+    <row r="94" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="C93" s="38" t="s">
+      <c r="C94" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D93" s="39"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38" t="s">
+      <c r="D94" s="39"/>
+      <c r="E94" s="38"/>
+      <c r="F94" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="12">
         <v>6</v>
       </c>
-      <c r="H93" s="12">
+      <c r="H94" s="12">
         <v>0.75</v>
       </c>
-      <c r="I93" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="70">
-        <v>0</v>
-      </c>
-      <c r="K93" s="70">
-        <v>0</v>
-      </c>
-      <c r="L93" s="70">
-        <v>0</v>
-      </c>
-      <c r="M93" s="70">
-        <v>0</v>
-      </c>
-      <c r="N93" s="70">
-        <v>0</v>
-      </c>
-      <c r="O93" s="70">
-        <v>0</v>
-      </c>
-      <c r="P93" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="25"/>
-      <c r="R93" s="25"/>
-      <c r="S93" s="25"/>
-      <c r="T93" s="25"/>
-      <c r="U93" s="25"/>
-      <c r="V93" s="25"/>
-      <c r="W93" s="67"/>
-    </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="126"/>
-      <c r="C94" s="41" t="s">
+      <c r="I94" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="70">
+        <v>0</v>
+      </c>
+      <c r="K94" s="70">
+        <v>0</v>
+      </c>
+      <c r="L94" s="70">
+        <v>0</v>
+      </c>
+      <c r="M94" s="70">
+        <v>0</v>
+      </c>
+      <c r="N94" s="70">
+        <v>0</v>
+      </c>
+      <c r="O94" s="70">
+        <v>0</v>
+      </c>
+      <c r="P94" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="70">
+        <v>0</v>
+      </c>
+      <c r="R94" s="25"/>
+      <c r="S94" s="25"/>
+      <c r="T94" s="25"/>
+      <c r="U94" s="25"/>
+      <c r="V94" s="25"/>
+      <c r="W94" s="67"/>
+    </row>
+    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="135"/>
+      <c r="C95" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="D94" s="40"/>
-      <c r="E94" s="41"/>
-      <c r="F94" s="41" t="s">
+      <c r="D95" s="40"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="G94" s="36">
+      <c r="G95" s="36">
         <v>6</v>
       </c>
-      <c r="H94" s="36">
+      <c r="H95" s="36">
         <v>1.5</v>
       </c>
-      <c r="I94" s="57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="73">
-        <v>0</v>
-      </c>
-      <c r="K94" s="73">
-        <v>0</v>
-      </c>
-      <c r="L94" s="73">
-        <v>0</v>
-      </c>
-      <c r="M94" s="73">
-        <v>0</v>
-      </c>
-      <c r="N94" s="73">
-        <v>0</v>
-      </c>
-      <c r="O94" s="73">
-        <v>0</v>
-      </c>
-      <c r="P94" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="35"/>
-      <c r="R94" s="35"/>
-      <c r="S94" s="35"/>
-      <c r="T94" s="35"/>
-      <c r="U94" s="35"/>
-      <c r="V94" s="35"/>
-      <c r="W94" s="66"/>
-    </row>
-    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="127"/>
-      <c r="C95" s="137" t="s">
+      <c r="I95" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="73">
+        <v>0</v>
+      </c>
+      <c r="K95" s="73">
+        <v>0</v>
+      </c>
+      <c r="L95" s="73">
+        <v>0</v>
+      </c>
+      <c r="M95" s="73">
+        <v>0</v>
+      </c>
+      <c r="N95" s="73">
+        <v>0</v>
+      </c>
+      <c r="O95" s="73">
+        <v>0</v>
+      </c>
+      <c r="P95" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="73">
+        <v>0</v>
+      </c>
+      <c r="R95" s="35"/>
+      <c r="S95" s="35"/>
+      <c r="T95" s="35"/>
+      <c r="U95" s="35"/>
+      <c r="V95" s="35"/>
+      <c r="W95" s="66"/>
+    </row>
+    <row r="96" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="136"/>
+      <c r="C96" s="114" t="s">
         <v>107</v>
       </c>
-      <c r="D95" s="42" t="s">
+      <c r="D96" s="42" t="s">
         <v>109</v>
-      </c>
-      <c r="E95" s="54"/>
-      <c r="F95" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G95" s="4">
-        <v>6</v>
-      </c>
-      <c r="H95" s="4">
-        <v>1</v>
-      </c>
-      <c r="I95" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="71">
-        <v>0</v>
-      </c>
-      <c r="K95" s="71">
-        <v>0</v>
-      </c>
-      <c r="L95" s="71">
-        <v>0</v>
-      </c>
-      <c r="M95" s="71">
-        <v>0</v>
-      </c>
-      <c r="N95" s="71">
-        <v>0</v>
-      </c>
-      <c r="O95" s="71">
-        <v>0</v>
-      </c>
-      <c r="P95" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="28"/>
-      <c r="R95" s="28"/>
-      <c r="S95" s="28"/>
-      <c r="T95" s="28"/>
-      <c r="U95" s="28"/>
-      <c r="V95" s="28"/>
-      <c r="W95" s="58"/>
-    </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="128"/>
-      <c r="C96" s="137"/>
-      <c r="D96" s="42" t="s">
-        <v>108</v>
       </c>
       <c r="E96" s="54"/>
       <c r="F96" s="54" t="s">
@@ -6881,10 +7027,10 @@
         <v>6</v>
       </c>
       <c r="H96" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I96" s="55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J96" s="71">
@@ -6908,167 +7054,175 @@
       <c r="P96" s="71">
         <v>0</v>
       </c>
-      <c r="Q96" s="28"/>
+      <c r="Q96" s="71">
+        <v>0</v>
+      </c>
       <c r="R96" s="28"/>
       <c r="S96" s="28"/>
-      <c r="T96" s="29"/>
-      <c r="U96" s="29"/>
-      <c r="V96" s="29"/>
+      <c r="T96" s="28"/>
+      <c r="U96" s="28"/>
+      <c r="V96" s="28"/>
       <c r="W96" s="58"/>
     </row>
-    <row r="97" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="129"/>
-      <c r="C97" s="44" t="s">
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="137"/>
+      <c r="C97" s="114"/>
+      <c r="D97" s="42" t="s">
+        <v>108</v>
+      </c>
+      <c r="E97" s="54"/>
+      <c r="F97" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="4">
+        <v>6</v>
+      </c>
+      <c r="H97" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="71">
+        <v>0</v>
+      </c>
+      <c r="K97" s="71">
+        <v>0</v>
+      </c>
+      <c r="L97" s="71">
+        <v>0</v>
+      </c>
+      <c r="M97" s="71">
+        <v>0</v>
+      </c>
+      <c r="N97" s="71">
+        <v>0</v>
+      </c>
+      <c r="O97" s="71">
+        <v>0</v>
+      </c>
+      <c r="P97" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="71">
+        <v>0</v>
+      </c>
+      <c r="R97" s="28"/>
+      <c r="S97" s="28"/>
+      <c r="T97" s="29"/>
+      <c r="U97" s="29"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="58"/>
+    </row>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="138"/>
+      <c r="C98" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="D97" s="43"/>
-      <c r="E97" s="44"/>
-      <c r="F97" s="44" t="s">
+      <c r="D98" s="43"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="11">
+      <c r="G98" s="11">
         <v>1</v>
       </c>
-      <c r="H97" s="11">
+      <c r="H98" s="11">
         <v>1</v>
       </c>
-      <c r="I97" s="59">
-        <f t="shared" si="1"/>
+      <c r="I98" s="59">
+        <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="J97" s="72">
-        <v>0</v>
-      </c>
-      <c r="K97" s="72">
-        <v>0</v>
-      </c>
-      <c r="L97" s="72">
-        <v>0</v>
-      </c>
-      <c r="M97" s="94">
+      <c r="J98" s="72">
+        <v>0</v>
+      </c>
+      <c r="K98" s="72">
+        <v>0</v>
+      </c>
+      <c r="L98" s="72">
+        <v>0</v>
+      </c>
+      <c r="M98" s="94">
         <v>0.75</v>
       </c>
-      <c r="N97" s="94">
-        <v>0</v>
-      </c>
-      <c r="O97" s="94">
-        <v>0</v>
-      </c>
-      <c r="P97" s="94">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="32"/>
-      <c r="R97" s="32"/>
-      <c r="S97" s="32"/>
-      <c r="T97" s="32"/>
-      <c r="U97" s="32"/>
-      <c r="V97" s="32"/>
-      <c r="W97" s="64"/>
-    </row>
-    <row r="98" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="106" t="s">
+      <c r="N98" s="94">
+        <v>0</v>
+      </c>
+      <c r="O98" s="94">
+        <v>0</v>
+      </c>
+      <c r="P98" s="94">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="94">
+        <v>0</v>
+      </c>
+      <c r="R98" s="32"/>
+      <c r="S98" s="32"/>
+      <c r="T98" s="32"/>
+      <c r="U98" s="32"/>
+      <c r="V98" s="32"/>
+      <c r="W98" s="64"/>
+    </row>
+    <row r="99" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="C98" s="63" t="s">
+      <c r="C99" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D98" s="62"/>
-      <c r="E98" s="63"/>
-      <c r="F98" s="63" t="s">
+      <c r="D99" s="62"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="G98" s="12">
+      <c r="G99" s="12">
         <v>1</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H99" s="12">
         <v>1.5</v>
       </c>
-      <c r="I98" s="57">
-        <f t="shared" si="1"/>
+      <c r="I99" s="57">
+        <f t="shared" si="2"/>
         <v>0.46700000000000003</v>
       </c>
-      <c r="J98" s="70">
-        <v>0</v>
-      </c>
-      <c r="K98" s="70">
-        <v>0</v>
-      </c>
-      <c r="L98" s="70">
-        <v>0</v>
-      </c>
-      <c r="M98" s="86">
+      <c r="J99" s="70">
+        <v>0</v>
+      </c>
+      <c r="K99" s="70">
+        <v>0</v>
+      </c>
+      <c r="L99" s="70">
+        <v>0</v>
+      </c>
+      <c r="M99" s="86">
         <v>0.46700000000000003</v>
       </c>
-      <c r="N98" s="86">
-        <v>0</v>
-      </c>
-      <c r="O98" s="86">
-        <v>0</v>
-      </c>
-      <c r="P98" s="86">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="26"/>
-      <c r="R98" s="26"/>
-      <c r="S98" s="26"/>
-      <c r="T98" s="26"/>
-      <c r="U98" s="26"/>
-      <c r="V98" s="26"/>
-      <c r="W98" s="27"/>
-    </row>
-    <row r="99" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B99" s="128"/>
-      <c r="C99" s="54" t="s">
+      <c r="N99" s="86">
+        <v>0</v>
+      </c>
+      <c r="O99" s="86">
+        <v>0</v>
+      </c>
+      <c r="P99" s="86">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="86">
+        <v>0</v>
+      </c>
+      <c r="R99" s="26"/>
+      <c r="S99" s="26"/>
+      <c r="T99" s="26"/>
+      <c r="U99" s="26"/>
+      <c r="V99" s="26"/>
+      <c r="W99" s="27"/>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B100" s="137"/>
+      <c r="C100" s="54" t="s">
         <v>130</v>
-      </c>
-      <c r="D99" s="42"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="4">
-        <v>1</v>
-      </c>
-      <c r="H99" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I99" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="71">
-        <v>0</v>
-      </c>
-      <c r="K99" s="71">
-        <v>0</v>
-      </c>
-      <c r="L99" s="71">
-        <v>0</v>
-      </c>
-      <c r="M99" s="95">
-        <v>0</v>
-      </c>
-      <c r="N99" s="95">
-        <v>0</v>
-      </c>
-      <c r="O99" s="99">
-        <v>0</v>
-      </c>
-      <c r="P99" s="99">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="29"/>
-      <c r="R99" s="29"/>
-      <c r="S99" s="29"/>
-      <c r="T99" s="29"/>
-      <c r="U99" s="29"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="30"/>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="128"/>
-      <c r="C100" s="54" t="s">
-        <v>129</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="54"/>
@@ -7082,8 +7236,8 @@
         <v>0.33</v>
       </c>
       <c r="I100" s="55">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J100" s="71">
         <v>0</v>
@@ -7100,13 +7254,15 @@
       <c r="N100" s="95">
         <v>0</v>
       </c>
-      <c r="O100" s="97">
-        <v>1</v>
-      </c>
-      <c r="P100" s="103">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="29"/>
+      <c r="O100" s="99">
+        <v>0</v>
+      </c>
+      <c r="P100" s="99">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="99">
+        <v>0</v>
+      </c>
       <c r="R100" s="29"/>
       <c r="S100" s="29"/>
       <c r="T100" s="29"/>
@@ -7114,10 +7270,10 @@
       <c r="V100" s="29"/>
       <c r="W100" s="30"/>
     </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="128"/>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B101" s="137"/>
       <c r="C101" s="54" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D101" s="42"/>
       <c r="E101" s="54"/>
@@ -7131,8 +7287,8 @@
         <v>0.33</v>
       </c>
       <c r="I101" s="55">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="J101" s="71">
         <v>0</v>
@@ -7150,12 +7306,14 @@
         <v>0</v>
       </c>
       <c r="O101" s="97">
-        <v>0.1</v>
-      </c>
-      <c r="P101" s="97">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="29"/>
+        <v>1</v>
+      </c>
+      <c r="P101" s="103">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="103">
+        <v>0</v>
+      </c>
       <c r="R101" s="29"/>
       <c r="S101" s="29"/>
       <c r="T101" s="29"/>
@@ -7163,10 +7321,10 @@
       <c r="V101" s="29"/>
       <c r="W101" s="30"/>
     </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B102" s="128"/>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B102" s="137"/>
       <c r="C102" s="54" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D102" s="42"/>
       <c r="E102" s="54"/>
@@ -7174,14 +7332,14 @@
         <v>16</v>
       </c>
       <c r="G102" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H102" s="4">
         <v>0.33</v>
       </c>
       <c r="I102" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.1</v>
       </c>
       <c r="J102" s="71">
         <v>0</v>
@@ -7192,19 +7350,21 @@
       <c r="L102" s="71">
         <v>0</v>
       </c>
-      <c r="M102" s="71">
-        <v>0</v>
-      </c>
-      <c r="N102" s="71">
-        <v>0</v>
-      </c>
-      <c r="O102" s="71">
-        <v>0</v>
-      </c>
-      <c r="P102" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="29"/>
+      <c r="M102" s="95">
+        <v>0</v>
+      </c>
+      <c r="N102" s="95">
+        <v>0</v>
+      </c>
+      <c r="O102" s="97">
+        <v>0.1</v>
+      </c>
+      <c r="P102" s="97">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="97">
+        <v>0</v>
+      </c>
       <c r="R102" s="29"/>
       <c r="S102" s="29"/>
       <c r="T102" s="29"/>
@@ -7212,337 +7372,376 @@
       <c r="V102" s="29"/>
       <c r="W102" s="30"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="129"/>
-      <c r="C103" s="44" t="s">
+    <row r="103" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B103" s="137"/>
+      <c r="C103" s="54" t="s">
+        <v>127</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="54"/>
+      <c r="F103" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="4">
+        <v>3</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I103" s="55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="71">
+        <v>0</v>
+      </c>
+      <c r="K103" s="71">
+        <v>0</v>
+      </c>
+      <c r="L103" s="71">
+        <v>0</v>
+      </c>
+      <c r="M103" s="71">
+        <v>0</v>
+      </c>
+      <c r="N103" s="71">
+        <v>0</v>
+      </c>
+      <c r="O103" s="71">
+        <v>0</v>
+      </c>
+      <c r="P103" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="71">
+        <v>0</v>
+      </c>
+      <c r="R103" s="29"/>
+      <c r="S103" s="29"/>
+      <c r="T103" s="29"/>
+      <c r="U103" s="29"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="30"/>
+    </row>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="138"/>
+      <c r="C104" s="44" t="s">
         <v>126</v>
       </c>
-      <c r="D103" s="43"/>
-      <c r="E103" s="44"/>
-      <c r="F103" s="44" t="s">
+      <c r="D104" s="43"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="11">
+      <c r="G104" s="11">
         <v>1</v>
       </c>
-      <c r="H103" s="11">
+      <c r="H104" s="11">
         <v>3</v>
       </c>
-      <c r="I103" s="59">
-        <f t="shared" ref="I103" si="3">SUM(J103:W103)</f>
-        <v>0</v>
-      </c>
-      <c r="J103" s="72">
-        <v>0</v>
-      </c>
-      <c r="K103" s="72">
-        <v>0</v>
-      </c>
-      <c r="L103" s="72">
-        <v>0</v>
-      </c>
-      <c r="M103" s="72">
-        <v>0</v>
-      </c>
-      <c r="N103" s="104" t="s">
+      <c r="I104" s="59">
+        <f t="shared" ref="I104" si="4">SUM(J104:W104)</f>
+        <v>0</v>
+      </c>
+      <c r="J104" s="72">
+        <v>0</v>
+      </c>
+      <c r="K104" s="72">
+        <v>0</v>
+      </c>
+      <c r="L104" s="72">
+        <v>0</v>
+      </c>
+      <c r="M104" s="72">
+        <v>0</v>
+      </c>
+      <c r="N104" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="O103" s="104">
-        <v>0</v>
-      </c>
-      <c r="P103" s="105">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="33"/>
-      <c r="R103" s="33"/>
-      <c r="S103" s="33"/>
-      <c r="T103" s="33"/>
-      <c r="U103" s="33"/>
-      <c r="V103" s="33"/>
-      <c r="W103" s="34"/>
-    </row>
-    <row r="104" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="121" t="s">
+      <c r="O104" s="104">
+        <v>0</v>
+      </c>
+      <c r="P104" s="105">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="105">
+        <v>0</v>
+      </c>
+      <c r="R104" s="33"/>
+      <c r="S104" s="33"/>
+      <c r="T104" s="33"/>
+      <c r="U104" s="33"/>
+      <c r="V104" s="33"/>
+      <c r="W104" s="34"/>
+    </row>
+    <row r="105" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="122"/>
-      <c r="H104" s="17">
-        <f>SUM(H4:H103)</f>
-        <v>48.120000000000005</v>
-      </c>
-      <c r="I104" s="17">
-        <f>SUM(I4:I103)</f>
-        <v>21.052000000000003</v>
-      </c>
-      <c r="J104" s="17">
-        <f>SUM(J4:J103)</f>
+      <c r="C105" s="131"/>
+      <c r="D105" s="131"/>
+      <c r="E105" s="131"/>
+      <c r="F105" s="131"/>
+      <c r="G105" s="131"/>
+      <c r="H105" s="17">
+        <f>SUM(H4:H104)</f>
+        <v>48.320000000000007</v>
+      </c>
+      <c r="I105" s="17">
+        <f>SUM(I4:I104)</f>
+        <v>22.434699999999999</v>
+      </c>
+      <c r="J105" s="17">
+        <f>SUM(J4:J104)</f>
         <v>1.95</v>
       </c>
-      <c r="K104" s="17">
-        <f>SUM(K4:K103)</f>
+      <c r="K105" s="17">
+        <f>SUM(K4:K104)</f>
         <v>3.3</v>
       </c>
-      <c r="L104" s="17">
-        <f>SUM(L4:L103)</f>
+      <c r="L105" s="17">
+        <f>SUM(L4:L104)</f>
         <v>7.15</v>
       </c>
-      <c r="M104" s="17">
-        <f>SUM(M4:M103)</f>
+      <c r="M105" s="17">
+        <f>SUM(M4:M104)</f>
         <v>3.9929999999999999</v>
       </c>
-      <c r="N104" s="17">
-        <f>SUM(N4:N103)</f>
+      <c r="N105" s="17">
+        <f>SUM(N4:N104)</f>
         <v>1.5</v>
       </c>
-      <c r="O104" s="17">
-        <f>SUM(O4:O103)</f>
+      <c r="O105" s="17">
+        <f>SUM(O4:O104)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P104" s="17">
-        <f>SUM(P4:P103)</f>
+      <c r="P105" s="17">
+        <f>SUM(P4:P104)</f>
         <v>0.03</v>
       </c>
-      <c r="Q104" s="17">
-        <f>SUM(Q4:Q103)</f>
+      <c r="Q105" s="17">
+        <f>SUM(Q4:Q104)</f>
         <v>2.0290000000000004</v>
       </c>
-      <c r="R104" s="17">
-        <f>SUM(R4:R103)</f>
-        <v>0</v>
-      </c>
-      <c r="S104" s="17">
-        <f>SUM(S4:S103)</f>
-        <v>0</v>
-      </c>
-      <c r="T104" s="17">
-        <f>SUM(T4:T103)</f>
-        <v>0</v>
-      </c>
-      <c r="U104" s="17">
-        <f>SUM(U4:U103)</f>
-        <v>0</v>
-      </c>
-      <c r="V104" s="17">
-        <f>SUM(V4:V103)</f>
-        <v>0</v>
-      </c>
-      <c r="W104" s="18">
-        <f>SUM(W4:W103)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="112" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="113"/>
-      <c r="L105" s="113"/>
-      <c r="M105" s="113"/>
-      <c r="N105" s="113"/>
-      <c r="O105" s="113"/>
-      <c r="P105" s="113"/>
-      <c r="Q105" s="113"/>
-      <c r="R105" s="113"/>
-      <c r="S105" s="113"/>
-      <c r="T105" s="113"/>
-      <c r="U105" s="113"/>
-      <c r="V105" s="113"/>
-      <c r="W105" s="114"/>
-    </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="76" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="77" t="s">
-        <v>120</v>
-      </c>
-      <c r="D106" s="77" t="s">
-        <v>121</v>
-      </c>
-      <c r="E106" s="78" t="s">
-        <v>122</v>
-      </c>
+      <c r="R105" s="17">
+        <f>SUM(R4:R104)</f>
+        <v>1.3826999999999998</v>
+      </c>
+      <c r="S105" s="17">
+        <f>SUM(S4:S104)</f>
+        <v>0</v>
+      </c>
+      <c r="T105" s="17">
+        <f>SUM(T4:T104)</f>
+        <v>0</v>
+      </c>
+      <c r="U105" s="17">
+        <f>SUM(U4:U104)</f>
+        <v>0</v>
+      </c>
+      <c r="V105" s="17">
+        <f>SUM(V4:V104)</f>
+        <v>0</v>
+      </c>
+      <c r="W105" s="18">
+        <f>SUM(W4:W104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="9"/>
-    </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" s="81">
-        <f>SUM(H7,H9,H40,H92,H93,H94,H95,H96,H97,H99:H103,H40)</f>
-        <v>12.27</v>
-      </c>
-      <c r="D107" s="36">
-        <f>SUM(I99:I103,I92:I97,I9,I7,I40)</f>
-        <v>1.85</v>
-      </c>
-      <c r="E107" s="36">
-        <f>SUM(C107,-D107)</f>
-        <v>10.42</v>
+      <c r="J106" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="122"/>
+      <c r="L106" s="122"/>
+      <c r="M106" s="122"/>
+      <c r="N106" s="122"/>
+      <c r="O106" s="122"/>
+      <c r="P106" s="122"/>
+      <c r="Q106" s="122"/>
+      <c r="R106" s="122"/>
+      <c r="S106" s="122"/>
+      <c r="T106" s="122"/>
+      <c r="U106" s="122"/>
+      <c r="V106" s="122"/>
+      <c r="W106" s="123"/>
+    </row>
+    <row r="107" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="C107" s="77" t="s">
+        <v>120</v>
+      </c>
+      <c r="D107" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="E107" s="78" t="s">
+        <v>122</v>
       </c>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
-      <c r="H107" s="130" t="s">
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+    </row>
+    <row r="108" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" s="81">
+        <f>SUM(H7,H9,H41,H93,H94,H95,H96,H97,H98,H100:H104,H41)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D108" s="36">
+        <f>SUM(I100:I104,I93:I98,I9,I7,I41)</f>
+        <v>1.85</v>
+      </c>
+      <c r="E108" s="36">
+        <f>SUM(C108,-D108)</f>
+        <v>10.42</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="I107" s="133"/>
-      <c r="J107" s="10">
-        <f>H104-J104</f>
-        <v>46.17</v>
-      </c>
-      <c r="K107" s="10">
-        <f>J107-K104</f>
-        <v>42.870000000000005</v>
-      </c>
-      <c r="L107" s="10">
-        <f>K107-L104</f>
-        <v>35.720000000000006</v>
-      </c>
-      <c r="M107" s="10">
-        <f>L107-M104</f>
-        <v>31.727000000000007</v>
-      </c>
-      <c r="N107" s="10">
-        <f t="shared" ref="N107:W107" si="4">M107-N104</f>
-        <v>30.227000000000007</v>
-      </c>
-      <c r="O107" s="10">
-        <f t="shared" si="4"/>
-        <v>29.127000000000006</v>
-      </c>
-      <c r="P107" s="10">
-        <f t="shared" si="4"/>
-        <v>29.097000000000005</v>
-      </c>
-      <c r="Q107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="R107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="S107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="T107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="U107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="V107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-      <c r="W107" s="10">
-        <f t="shared" si="4"/>
-        <v>27.068000000000005</v>
-      </c>
-    </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="80" t="s">
+      <c r="I108" s="110"/>
+      <c r="J108" s="10">
+        <f>H105-J105</f>
+        <v>46.370000000000005</v>
+      </c>
+      <c r="K108" s="10">
+        <f>J108-K105</f>
+        <v>43.070000000000007</v>
+      </c>
+      <c r="L108" s="10">
+        <f>K108-L105</f>
+        <v>35.920000000000009</v>
+      </c>
+      <c r="M108" s="10">
+        <f>L108-M105</f>
+        <v>31.92700000000001</v>
+      </c>
+      <c r="N108" s="10">
+        <f t="shared" ref="N108:W108" si="5">M108-N105</f>
+        <v>30.42700000000001</v>
+      </c>
+      <c r="O108" s="10">
+        <f t="shared" si="5"/>
+        <v>29.327000000000009</v>
+      </c>
+      <c r="P108" s="10">
+        <f t="shared" si="5"/>
+        <v>29.297000000000008</v>
+      </c>
+      <c r="Q108" s="10">
+        <f t="shared" si="5"/>
+        <v>27.268000000000008</v>
+      </c>
+      <c r="R108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="S108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="T108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="U108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="V108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="W108" s="10">
+        <f t="shared" si="5"/>
+        <v>25.885300000000008</v>
+      </c>
+    </row>
+    <row r="109" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C108" s="79">
-        <f>SUM(H4,H84:H89,H98,H17:H36,H10:H15,H8,H6,H5,H91)</f>
-        <v>17.399999999999991</v>
-      </c>
-      <c r="D108" s="5">
-        <f>SUM(I98,I84:I89,I17:I36,I10:I15,I8,I5:I6,I91,I4)</f>
-        <v>7.7019999999999991</v>
-      </c>
-      <c r="E108" s="5">
-        <f>SUM(C108,-D108)</f>
-        <v>9.6979999999999933</v>
-      </c>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="80" t="s">
-        <v>17</v>
-      </c>
       <c r="C109" s="79">
-        <f>SUM(H41:H83,H37:H39)</f>
-        <v>16.75</v>
+        <f>SUM(H4,H85:H90,H99,H17:H37,H10:H15,H8,H6,H5,H92)</f>
+        <v>17.599999999999994</v>
       </c>
       <c r="D109" s="5">
-        <f>SUM(I41:I83,I37:I39,I16)</f>
-        <v>11.25</v>
+        <f>SUM(I99,I85:I90,I17:I37,I10:I15,I8,I5:I6,I92,I4)</f>
+        <v>9.0846999999999998</v>
       </c>
       <c r="E109" s="5">
         <f>SUM(C109,-D109)</f>
+        <v>8.5152999999999945</v>
+      </c>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
+      <c r="H109" s="3"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+    </row>
+    <row r="110" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="79">
+        <f>SUM(H42:H84,H38:H40)</f>
+        <v>16.75</v>
+      </c>
+      <c r="D110" s="5">
+        <f>SUM(I42:I84,I38:I40,I16)</f>
+        <v>11.25</v>
+      </c>
+      <c r="E110" s="5">
+        <f>SUM(C110,-D110)</f>
         <v>5.5</v>
       </c>
-      <c r="F109" s="3"/>
-      <c r="H109" s="130" t="s">
+      <c r="F110" s="3"/>
+      <c r="H110" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="131"/>
-      <c r="J109" s="130">
-        <f>H104-I104</f>
-        <v>27.068000000000001</v>
-      </c>
-      <c r="K109" s="131"/>
-      <c r="L109" s="131"/>
-      <c r="M109" s="131"/>
-      <c r="N109" s="131"/>
-      <c r="O109" s="131"/>
-      <c r="P109" s="131"/>
-      <c r="Q109" s="131"/>
-      <c r="R109" s="131"/>
-      <c r="S109" s="131"/>
-      <c r="T109" s="131"/>
-      <c r="U109" s="131"/>
-      <c r="V109" s="131"/>
-      <c r="W109" s="132"/>
-    </row>
-    <row r="110" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="3"/>
-      <c r="J110" s="3"/>
-      <c r="K110" s="3"/>
-      <c r="L110" s="3"/>
-      <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="I110" s="108"/>
+      <c r="J110" s="107">
+        <f>H105-I105</f>
+        <v>25.885300000000008</v>
+      </c>
+      <c r="K110" s="108"/>
+      <c r="L110" s="108"/>
+      <c r="M110" s="108"/>
+      <c r="N110" s="108"/>
+      <c r="O110" s="108"/>
+      <c r="P110" s="108"/>
+      <c r="Q110" s="108"/>
+      <c r="R110" s="108"/>
+      <c r="S110" s="108"/>
+      <c r="T110" s="108"/>
+      <c r="U110" s="108"/>
+      <c r="V110" s="108"/>
+      <c r="W110" s="109"/>
+    </row>
+    <row r="111" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -7556,7 +7755,7 @@
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
     </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -7570,59 +7769,73 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
     </row>
-    <row r="113" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="7"/>
-    </row>
-    <row r="119" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+    </row>
+    <row r="114" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B119" s="7"/>
     </row>
-    <row r="120" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="122" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="7"/>
-    </row>
-    <row r="126" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B121" s="7"/>
+    </row>
+    <row r="122" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="7"/>
     </row>
-    <row r="127" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="7"/>
     </row>
-    <row r="128" spans="2:2" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="7"/>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B129" s="6"/>
-      <c r="C129" s="6"/>
+    <row r="129" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B129" s="7"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="J109:W109"/>
-    <mergeCell ref="H107:I107"/>
-    <mergeCell ref="H109:I109"/>
-    <mergeCell ref="C41:C83"/>
-    <mergeCell ref="C19:C36"/>
-    <mergeCell ref="C95:C96"/>
-    <mergeCell ref="B41:B92"/>
-    <mergeCell ref="C84:C89"/>
+    <mergeCell ref="B42:B93"/>
+    <mergeCell ref="C85:C90"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J105:W105"/>
-    <mergeCell ref="B16:B40"/>
+    <mergeCell ref="J106:W106"/>
+    <mergeCell ref="B16:B41"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B104:G104"/>
+    <mergeCell ref="B105:G105"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="B94:B98"/>
+    <mergeCell ref="B99:B104"/>
+    <mergeCell ref="J110:W110"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H110:I110"/>
+    <mergeCell ref="C42:C84"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C96:C97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7636,7 +7849,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7648,7 +7861,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
   <si>
     <t>Subtarea</t>
   </si>
@@ -227,24 +227,6 @@
     <t>Introducir sonido encontrar secreto</t>
   </si>
   <si>
-    <t>Introducir animación morir Oktorok</t>
-  </si>
-  <si>
-    <t>Introducir animación morir Leever</t>
-  </si>
-  <si>
-    <t>Introducir animación morir Tektite</t>
-  </si>
-  <si>
-    <t>Introducir animación morir River Zola</t>
-  </si>
-  <si>
-    <t>Introducir animación morir Moblin</t>
-  </si>
-  <si>
-    <t>Introducir animación morir Peahat</t>
-  </si>
-  <si>
     <t>Crear prefab Trifuerza</t>
   </si>
   <si>
@@ -426,6 +408,9 @@
   </si>
   <si>
     <t>Introducir spawns sala 14</t>
+  </si>
+  <si>
+    <t>Introducir animación morir</t>
   </si>
 </sst>
 </file>
@@ -1121,7 +1106,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1418,6 +1403,84 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1440,87 +1503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1629,51 +1611,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$108:$W$108</c:f>
+              <c:f>Hoja1!$J$103:$W$103</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>46.370000000000005</c:v>
+                  <c:v>47.169999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.070000000000007</c:v>
+                  <c:v>43.86999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>35.920000000000009</c:v>
+                  <c:v>36.719999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.92700000000001</c:v>
+                  <c:v>32.72699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30.42700000000001</c:v>
+                  <c:v>31.22699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>29.327000000000009</c:v>
+                  <c:v>30.126999999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29.297000000000008</c:v>
+                  <c:v>30.096999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>27.268000000000008</c:v>
+                  <c:v>28.067999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>25.785300000000007</c:v>
+                  <c:v>26.585299999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.068300000000008</c:v>
+                  <c:v>21.868299999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.918300000000009</c:v>
+                  <c:v>15.238299999999985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.918300000000009</c:v>
+                  <c:v>15.238299999999985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.918300000000009</c:v>
+                  <c:v>15.238299999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.918300000000009</c:v>
+                  <c:v>15.238299999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2109,10 +2091,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W130"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q104" sqref="Q104:T104"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2134,29 +2116,29 @@
   <sheetData>
     <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B1" s="74" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="113" t="s">
+      <c r="J2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="115"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
     </row>
     <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
@@ -2227,7 +2209,7 @@
       </c>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="119" t="s">
+      <c r="B4" s="113" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="78" t="s">
@@ -2294,7 +2276,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="120"/>
+      <c r="B5" s="114"/>
       <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
@@ -2357,9 +2339,9 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="120"/>
+      <c r="B6" s="114"/>
       <c r="C6" s="37" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="43"/>
@@ -2420,8 +2402,8 @@
       </c>
     </row>
     <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="120"/>
-      <c r="C7" s="127" t="s">
+      <c r="B7" s="114"/>
+      <c r="C7" s="121" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2485,8 +2467,8 @@
       </c>
     </row>
     <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="120"/>
-      <c r="C8" s="127"/>
+      <c r="B8" s="114"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="37" t="s">
         <v>61</v>
       </c>
@@ -2548,8 +2530,8 @@
       </c>
     </row>
     <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="124"/>
-      <c r="C9" s="128"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="34" t="s">
         <v>62</v>
       </c>
@@ -2606,12 +2588,12 @@
       <c r="V9" s="97">
         <v>0</v>
       </c>
-      <c r="W9" s="135">
+      <c r="W9" s="103">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="115" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2676,7 +2658,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="122"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="37" t="s">
         <v>65</v>
       </c>
@@ -2730,7 +2712,7 @@
       <c r="W11" s="26"/>
     </row>
     <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="122"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
@@ -2793,9 +2775,9 @@
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="123"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="36" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="44"/>
@@ -2842,7 +2824,7 @@
       <c r="S13" s="64">
         <v>0</v>
       </c>
-      <c r="T13" s="136">
+      <c r="T13" s="104">
         <v>0.15</v>
       </c>
       <c r="U13" s="83">
@@ -2856,9 +2838,9 @@
       </c>
     </row>
     <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="123"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="44"/>
@@ -2911,7 +2893,7 @@
       <c r="W14" s="59"/>
     </row>
     <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="123"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
@@ -2966,11 +2948,11 @@
       <c r="W15" s="59"/>
     </row>
     <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="119" t="s">
+      <c r="B16" s="113" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
@@ -3031,7 +3013,7 @@
       </c>
     </row>
     <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="120"/>
+      <c r="B17" s="114"/>
       <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
@@ -3094,7 +3076,7 @@
       </c>
     </row>
     <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="120"/>
+      <c r="B18" s="114"/>
       <c r="C18" s="88" t="s">
         <v>14</v>
       </c>
@@ -3159,8 +3141,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="120"/>
-      <c r="C19" s="108" t="s">
+      <c r="B19" s="114"/>
+      <c r="C19" s="134" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3224,10 +3206,10 @@
       </c>
     </row>
     <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="120"/>
-      <c r="C20" s="108"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="37" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E20" s="37"/>
       <c r="F20" s="37" t="s">
@@ -3287,8 +3269,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="120"/>
-      <c r="C21" s="108"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
@@ -3342,8 +3324,8 @@
       <c r="W21" s="22"/>
     </row>
     <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="120"/>
-      <c r="C22" s="108"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
@@ -3405,8 +3387,8 @@
       </c>
     </row>
     <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="120"/>
-      <c r="C23" s="108"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="37" t="s">
         <v>39</v>
       </c>
@@ -3468,8 +3450,8 @@
       </c>
     </row>
     <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="120"/>
-      <c r="C24" s="108"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="37" t="s">
         <v>40</v>
       </c>
@@ -3531,8 +3513,8 @@
       </c>
     </row>
     <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="120"/>
-      <c r="C25" s="108"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37" t="s">
         <v>41</v>
       </c>
@@ -3594,8 +3576,8 @@
       </c>
     </row>
     <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="120"/>
-      <c r="C26" s="108"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
@@ -3657,8 +3639,8 @@
       </c>
     </row>
     <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="120"/>
-      <c r="C27" s="108"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="37" t="s">
         <v>43</v>
       </c>
@@ -3720,8 +3702,8 @@
       </c>
     </row>
     <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="120"/>
-      <c r="C28" s="108"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="37" t="s">
         <v>44</v>
       </c>
@@ -3783,8 +3765,8 @@
       </c>
     </row>
     <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="120"/>
-      <c r="C29" s="108"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="37" t="s">
         <v>45</v>
       </c>
@@ -3846,8 +3828,8 @@
       </c>
     </row>
     <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="120"/>
-      <c r="C30" s="108"/>
+      <c r="B30" s="114"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="37" t="s">
         <v>46</v>
       </c>
@@ -3909,8 +3891,8 @@
       </c>
     </row>
     <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="120"/>
-      <c r="C31" s="108"/>
+      <c r="B31" s="114"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="37" t="s">
         <v>47</v>
       </c>
@@ -3972,8 +3954,8 @@
       </c>
     </row>
     <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="120"/>
-      <c r="C32" s="108"/>
+      <c r="B32" s="114"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="37" t="s">
         <v>48</v>
       </c>
@@ -4035,8 +4017,8 @@
       </c>
     </row>
     <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="120"/>
-      <c r="C33" s="108"/>
+      <c r="B33" s="114"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="37" t="s">
         <v>49</v>
       </c>
@@ -4098,8 +4080,8 @@
       </c>
     </row>
     <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="120"/>
-      <c r="C34" s="108"/>
+      <c r="B34" s="114"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="37" t="s">
         <v>50</v>
       </c>
@@ -4161,8 +4143,8 @@
       </c>
     </row>
     <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="120"/>
-      <c r="C35" s="108"/>
+      <c r="B35" s="114"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="37" t="s">
         <v>51</v>
       </c>
@@ -4224,10 +4206,10 @@
       </c>
     </row>
     <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="120"/>
-      <c r="C36" s="108"/>
+      <c r="B36" s="114"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="37" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="37" t="s">
@@ -4287,10 +4269,10 @@
       </c>
     </row>
     <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="120"/>
-      <c r="C37" s="108"/>
+      <c r="B37" s="114"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="43" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
@@ -4333,7 +4315,7 @@
       <c r="R37" s="61">
         <v>0</v>
       </c>
-      <c r="S37" s="134">
+      <c r="S37" s="102">
         <v>0.317</v>
       </c>
       <c r="T37" s="87">
@@ -4350,7 +4332,7 @@
       </c>
     </row>
     <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="120"/>
+      <c r="B38" s="114"/>
       <c r="C38" s="40" t="s">
         <v>52</v>
       </c>
@@ -4405,7 +4387,7 @@
       <c r="W38" s="22"/>
     </row>
     <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="120"/>
+      <c r="B39" s="114"/>
       <c r="C39" s="40" t="s">
         <v>54</v>
       </c>
@@ -4460,7 +4442,7 @@
       <c r="W39" s="22"/>
     </row>
     <row r="40" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="120"/>
+      <c r="B40" s="114"/>
       <c r="C40" s="40" t="s">
         <v>55</v>
       </c>
@@ -4523,9 +4505,9 @@
       </c>
     </row>
     <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="120"/>
+      <c r="B41" s="114"/>
       <c r="C41" s="47" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="47"/>
@@ -4578,10 +4560,10 @@
       <c r="W41" s="22"/>
     </row>
     <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="110" t="s">
+      <c r="B42" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="106" t="s">
+      <c r="C42" s="132" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -4598,7 +4580,7 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="48">
-        <f t="shared" ref="I42:I103" si="2">SUM(J42:W42)</f>
+        <f t="shared" ref="I42:I98" si="2">SUM(J42:W42)</f>
         <v>0.95</v>
       </c>
       <c r="J42" s="92">
@@ -4645,8 +4627,8 @@
       </c>
     </row>
     <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="111"/>
-      <c r="C43" s="107"/>
+      <c r="B43" s="106"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="40" t="s">
         <v>21</v>
       </c>
@@ -4700,8 +4682,8 @@
       <c r="W43" s="22"/>
     </row>
     <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="111"/>
-      <c r="C44" s="107"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="40" t="s">
         <v>22</v>
       </c>
@@ -4755,8 +4737,8 @@
       <c r="W44" s="22"/>
     </row>
     <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="111"/>
-      <c r="C45" s="107"/>
+      <c r="B45" s="106"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="40" t="s">
         <v>23</v>
       </c>
@@ -4810,8 +4792,8 @@
       <c r="W45" s="22"/>
     </row>
     <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="111"/>
-      <c r="C46" s="107"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
@@ -4865,8 +4847,8 @@
       <c r="W46" s="22"/>
     </row>
     <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="111"/>
-      <c r="C47" s="107"/>
+      <c r="B47" s="106"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="40" t="s">
         <v>25</v>
       </c>
@@ -4920,8 +4902,8 @@
       <c r="W47" s="22"/>
     </row>
     <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="111"/>
-      <c r="C48" s="107"/>
+      <c r="B48" s="106"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="40" t="s">
         <v>26</v>
       </c>
@@ -4975,8 +4957,8 @@
       <c r="W48" s="22"/>
     </row>
     <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="111"/>
-      <c r="C49" s="107"/>
+      <c r="B49" s="106"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="40" t="s">
         <v>27</v>
       </c>
@@ -5030,8 +5012,8 @@
       <c r="W49" s="22"/>
     </row>
     <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="111"/>
-      <c r="C50" s="107"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="40" t="s">
         <v>28</v>
       </c>
@@ -5085,8 +5067,8 @@
       <c r="W50" s="22"/>
     </row>
     <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="111"/>
-      <c r="C51" s="107"/>
+      <c r="B51" s="106"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
@@ -5140,8 +5122,8 @@
       <c r="W51" s="22"/>
     </row>
     <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="111"/>
-      <c r="C52" s="107"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="133"/>
       <c r="D52" s="40" t="s">
         <v>30</v>
       </c>
@@ -5195,8 +5177,8 @@
       <c r="W52" s="22"/>
     </row>
     <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="111"/>
-      <c r="C53" s="107"/>
+      <c r="B53" s="106"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="40" t="s">
         <v>31</v>
       </c>
@@ -5250,10 +5232,10 @@
       <c r="W53" s="22"/>
     </row>
     <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="111"/>
-      <c r="C54" s="107"/>
+      <c r="B54" s="106"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E54" s="40"/>
       <c r="F54" s="40" t="s">
@@ -5305,10 +5287,10 @@
       <c r="W54" s="22"/>
     </row>
     <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="111"/>
-      <c r="C55" s="107"/>
+      <c r="B55" s="106"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40" t="s">
@@ -5360,10 +5342,10 @@
       <c r="W55" s="22"/>
     </row>
     <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="111"/>
-      <c r="C56" s="107"/>
+      <c r="B56" s="106"/>
+      <c r="C56" s="133"/>
       <c r="D56" s="40" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
@@ -5415,10 +5397,10 @@
       <c r="W56" s="22"/>
     </row>
     <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="111"/>
-      <c r="C57" s="107"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="133"/>
       <c r="D57" s="40" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
@@ -5470,10 +5452,10 @@
       <c r="W57" s="22"/>
     </row>
     <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="111"/>
-      <c r="C58" s="107"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="133"/>
       <c r="D58" s="40" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
@@ -5525,10 +5507,10 @@
       <c r="W58" s="22"/>
     </row>
     <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="111"/>
-      <c r="C59" s="107"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="40" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
@@ -5580,10 +5562,10 @@
       <c r="W59" s="22"/>
     </row>
     <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="111"/>
-      <c r="C60" s="107"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="133"/>
       <c r="D60" s="40" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
@@ -5635,10 +5617,10 @@
       <c r="W60" s="22"/>
     </row>
     <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="111"/>
-      <c r="C61" s="107"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="133"/>
       <c r="D61" s="40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
@@ -5690,10 +5672,10 @@
       <c r="W61" s="22"/>
     </row>
     <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="111"/>
-      <c r="C62" s="107"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
@@ -5745,10 +5727,10 @@
       <c r="W62" s="22"/>
     </row>
     <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="111"/>
-      <c r="C63" s="107"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="40" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
@@ -5800,10 +5782,10 @@
       <c r="W63" s="22"/>
     </row>
     <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="111"/>
-      <c r="C64" s="107"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="40" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
@@ -5855,10 +5837,10 @@
       <c r="W64" s="22"/>
     </row>
     <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="111"/>
-      <c r="C65" s="107"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="133"/>
       <c r="D65" s="40" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
@@ -5910,10 +5892,10 @@
       <c r="W65" s="22"/>
     </row>
     <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="111"/>
-      <c r="C66" s="107"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="133"/>
       <c r="D66" s="40" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E66" s="40"/>
       <c r="F66" s="40" t="s">
@@ -5965,10 +5947,10 @@
       <c r="W66" s="22"/>
     </row>
     <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="111"/>
-      <c r="C67" s="107"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="133"/>
       <c r="D67" s="40" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40" t="s">
@@ -6020,10 +6002,10 @@
       <c r="W67" s="22"/>
     </row>
     <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="111"/>
-      <c r="C68" s="107"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="133"/>
       <c r="D68" s="40" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E68" s="40"/>
       <c r="F68" s="40" t="s">
@@ -6075,10 +6057,10 @@
       <c r="W68" s="22"/>
     </row>
     <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="111"/>
-      <c r="C69" s="107"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="133"/>
       <c r="D69" s="40" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40" t="s">
@@ -6130,10 +6112,10 @@
       <c r="W69" s="22"/>
     </row>
     <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="111"/>
-      <c r="C70" s="107"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="133"/>
       <c r="D70" s="40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E70" s="40"/>
       <c r="F70" s="40" t="s">
@@ -6185,10 +6167,10 @@
       <c r="W70" s="22"/>
     </row>
     <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="111"/>
-      <c r="C71" s="107"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="133"/>
       <c r="D71" s="40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="40" t="s">
@@ -6240,10 +6222,10 @@
       <c r="W71" s="22"/>
     </row>
     <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="111"/>
-      <c r="C72" s="107"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="133"/>
       <c r="D72" s="40" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40" t="s">
@@ -6295,10 +6277,10 @@
       <c r="W72" s="22"/>
     </row>
     <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="111"/>
-      <c r="C73" s="107"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="40" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E73" s="40"/>
       <c r="F73" s="40" t="s">
@@ -6350,10 +6332,10 @@
       <c r="W73" s="22"/>
     </row>
     <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="111"/>
-      <c r="C74" s="107"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="133"/>
       <c r="D74" s="40" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E74" s="40"/>
       <c r="F74" s="40" t="s">
@@ -6405,10 +6387,10 @@
       <c r="W74" s="22"/>
     </row>
     <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="111"/>
-      <c r="C75" s="107"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="133"/>
       <c r="D75" s="40" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E75" s="40"/>
       <c r="F75" s="40" t="s">
@@ -6460,10 +6442,10 @@
       <c r="W75" s="22"/>
     </row>
     <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="111"/>
-      <c r="C76" s="107"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E76" s="40"/>
       <c r="F76" s="40" t="s">
@@ -6515,10 +6497,10 @@
       <c r="W76" s="22"/>
     </row>
     <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="111"/>
-      <c r="C77" s="107"/>
+      <c r="B77" s="106"/>
+      <c r="C77" s="133"/>
       <c r="D77" s="40" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="E77" s="40"/>
       <c r="F77" s="40" t="s">
@@ -6570,10 +6552,10 @@
       <c r="W77" s="22"/>
     </row>
     <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="111"/>
-      <c r="C78" s="107"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="40" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E78" s="40"/>
       <c r="F78" s="40" t="s">
@@ -6625,10 +6607,10 @@
       <c r="W78" s="22"/>
     </row>
     <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="111"/>
-      <c r="C79" s="107"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="133"/>
       <c r="D79" s="40" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E79" s="40"/>
       <c r="F79" s="40" t="s">
@@ -6680,10 +6662,10 @@
       <c r="W79" s="22"/>
     </row>
     <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="111"/>
-      <c r="C80" s="107"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="133"/>
       <c r="D80" s="40" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E80" s="40"/>
       <c r="F80" s="40" t="s">
@@ -6735,10 +6717,10 @@
       <c r="W80" s="22"/>
     </row>
     <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="111"/>
-      <c r="C81" s="107"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="40" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E81" s="40"/>
       <c r="F81" s="40" t="s">
@@ -6751,7 +6733,7 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="46">
-        <f t="shared" ref="I81:I91" si="3">SUM(J81:W81)</f>
+        <f t="shared" ref="I81:I86" si="3">SUM(J81:W81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="61">
@@ -6790,10 +6772,10 @@
       <c r="W81" s="22"/>
     </row>
     <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="111"/>
-      <c r="C82" s="107"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="133"/>
       <c r="D82" s="40" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E82" s="40"/>
       <c r="F82" s="40" t="s">
@@ -6845,10 +6827,10 @@
       <c r="W82" s="22"/>
     </row>
     <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="111"/>
-      <c r="C83" s="107"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="133"/>
       <c r="D83" s="40" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E83" s="40"/>
       <c r="F83" s="40" t="s">
@@ -6900,10 +6882,10 @@
       <c r="W83" s="22"/>
     </row>
     <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="111"/>
-      <c r="C84" s="107"/>
+      <c r="B84" s="106"/>
+      <c r="C84" s="133"/>
       <c r="D84" s="40" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E84" s="40"/>
       <c r="F84" s="40" t="s">
@@ -6963,12 +6945,12 @@
       </c>
     </row>
     <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="111"/>
-      <c r="C85" s="112" t="s">
+      <c r="B85" s="106"/>
+      <c r="C85" s="96" t="s">
         <v>37</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="E85" s="43"/>
       <c r="F85" s="43" t="s">
@@ -6978,11 +6960,11 @@
         <v>5</v>
       </c>
       <c r="H85" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I85" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="J85" s="61">
         <v>0</v>
@@ -7014,30 +6996,32 @@
       <c r="S85" s="61">
         <v>0</v>
       </c>
-      <c r="T85" s="21"/>
+      <c r="T85" s="87">
+        <v>1.48</v>
+      </c>
       <c r="U85" s="21"/>
       <c r="V85" s="21"/>
       <c r="W85" s="22"/>
     </row>
     <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="111"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="43" t="s">
-        <v>69</v>
-      </c>
+      <c r="B86" s="106"/>
+      <c r="C86" s="96" t="s">
+        <v>126</v>
+      </c>
+      <c r="D86" s="43"/>
       <c r="E86" s="43"/>
-      <c r="F86" s="43" t="s">
+      <c r="F86" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G86" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H86" s="4">
         <v>0.2</v>
       </c>
       <c r="I86" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J86" s="61">
         <v>0</v>
@@ -7060,93 +7044,109 @@
       <c r="P86" s="61">
         <v>0</v>
       </c>
-      <c r="Q86" s="61">
-        <v>0</v>
-      </c>
-      <c r="R86" s="61">
-        <v>0</v>
-      </c>
-      <c r="S86" s="61">
-        <v>0</v>
-      </c>
-      <c r="T86" s="21"/>
-      <c r="U86" s="21"/>
-      <c r="V86" s="21"/>
-      <c r="W86" s="22"/>
+      <c r="Q86" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="R86" s="39">
+        <v>0</v>
+      </c>
+      <c r="S86" s="39">
+        <v>0</v>
+      </c>
+      <c r="T86" s="39">
+        <v>0</v>
+      </c>
+      <c r="U86" s="39">
+        <v>0</v>
+      </c>
+      <c r="V86" s="39">
+        <v>0</v>
+      </c>
+      <c r="W86" s="75">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="111"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="43" t="s">
-        <v>70</v>
-      </c>
+      <c r="B87" s="106"/>
+      <c r="C87" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="43"/>
       <c r="E87" s="43"/>
-      <c r="F87" s="43" t="s">
+      <c r="F87" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G87" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H87" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I87" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="61">
-        <v>0</v>
-      </c>
-      <c r="K87" s="61">
-        <v>0</v>
-      </c>
-      <c r="L87" s="61">
-        <v>0</v>
-      </c>
-      <c r="M87" s="61">
-        <v>0</v>
-      </c>
-      <c r="N87" s="61">
-        <v>0</v>
-      </c>
-      <c r="O87" s="61">
-        <v>0</v>
-      </c>
-      <c r="P87" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="61">
-        <v>0</v>
-      </c>
-      <c r="R87" s="61">
-        <v>0</v>
-      </c>
-      <c r="S87" s="61">
-        <v>0</v>
-      </c>
-      <c r="T87" s="21"/>
-      <c r="U87" s="21"/>
-      <c r="V87" s="21"/>
-      <c r="W87" s="22"/>
-    </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="111"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43" t="s">
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>1.5</v>
+      </c>
+      <c r="J87" s="39">
+        <v>1.5</v>
+      </c>
+      <c r="K87" s="39">
+        <v>0</v>
+      </c>
+      <c r="L87" s="39">
+        <v>0</v>
+      </c>
+      <c r="M87" s="39">
+        <v>0</v>
+      </c>
+      <c r="N87" s="39">
+        <v>0</v>
+      </c>
+      <c r="O87" s="39">
+        <v>0</v>
+      </c>
+      <c r="P87" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="39">
+        <v>0</v>
+      </c>
+      <c r="R87" s="39">
+        <v>0</v>
+      </c>
+      <c r="S87" s="39">
+        <v>0</v>
+      </c>
+      <c r="T87" s="39">
+        <v>0</v>
+      </c>
+      <c r="U87" s="39">
+        <v>0</v>
+      </c>
+      <c r="V87" s="39">
+        <v>0</v>
+      </c>
+      <c r="W87" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="106"/>
+      <c r="C88" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D88" s="33"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G88" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H88" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I88" s="46">
-        <f t="shared" si="3"/>
+        <f>SUM(J88:W88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="61">
@@ -7184,135 +7184,139 @@
       <c r="V88" s="21"/>
       <c r="W88" s="22"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="111"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="E89" s="43"/>
-      <c r="F89" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" s="4">
-        <v>5</v>
-      </c>
-      <c r="H89" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I89" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="61">
-        <v>0</v>
-      </c>
-      <c r="K89" s="61">
-        <v>0</v>
-      </c>
-      <c r="L89" s="61">
-        <v>0</v>
-      </c>
-      <c r="M89" s="61">
-        <v>0</v>
-      </c>
-      <c r="N89" s="61">
-        <v>0</v>
-      </c>
-      <c r="O89" s="61">
-        <v>0</v>
-      </c>
-      <c r="P89" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="61">
-        <v>0</v>
-      </c>
-      <c r="R89" s="61">
-        <v>0</v>
-      </c>
-      <c r="S89" s="61">
-        <v>0</v>
-      </c>
-      <c r="T89" s="20"/>
-      <c r="U89" s="20"/>
-      <c r="V89" s="20"/>
-      <c r="W89" s="49"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="123" t="s">
+        <v>85</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" s="30"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="12">
+        <v>6</v>
+      </c>
+      <c r="H89" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I89" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="60">
+        <v>0</v>
+      </c>
+      <c r="K89" s="60">
+        <v>0</v>
+      </c>
+      <c r="L89" s="60">
+        <v>0</v>
+      </c>
+      <c r="M89" s="60">
+        <v>0</v>
+      </c>
+      <c r="N89" s="60">
+        <v>0</v>
+      </c>
+      <c r="O89" s="60">
+        <v>0</v>
+      </c>
+      <c r="P89" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="60">
+        <v>0</v>
+      </c>
+      <c r="R89" s="60">
+        <v>0</v>
+      </c>
+      <c r="S89" s="60">
+        <v>0</v>
+      </c>
+      <c r="T89" s="19"/>
+      <c r="U89" s="19"/>
+      <c r="V89" s="19"/>
+      <c r="W89" s="57"/>
     </row>
     <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="111"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="E90" s="43"/>
-      <c r="F90" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" s="4">
-        <v>5</v>
-      </c>
-      <c r="H90" s="4">
-        <v>0.2</v>
-      </c>
-      <c r="I90" s="46">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="61">
-        <v>0</v>
-      </c>
-      <c r="K90" s="61">
-        <v>0</v>
-      </c>
-      <c r="L90" s="61">
-        <v>0</v>
-      </c>
-      <c r="M90" s="61">
-        <v>0</v>
-      </c>
-      <c r="N90" s="61">
-        <v>0</v>
-      </c>
-      <c r="O90" s="61">
-        <v>0</v>
-      </c>
-      <c r="P90" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="61">
-        <v>0</v>
-      </c>
-      <c r="R90" s="61">
-        <v>0</v>
-      </c>
-      <c r="S90" s="61">
-        <v>0</v>
-      </c>
-      <c r="T90" s="21"/>
-      <c r="U90" s="21"/>
-      <c r="V90" s="21"/>
-      <c r="W90" s="22"/>
+      <c r="B90" s="124"/>
+      <c r="C90" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="27">
+        <v>6</v>
+      </c>
+      <c r="H90" s="27">
+        <v>1.5</v>
+      </c>
+      <c r="I90" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="63">
+        <v>0</v>
+      </c>
+      <c r="K90" s="63">
+        <v>0</v>
+      </c>
+      <c r="L90" s="63">
+        <v>0</v>
+      </c>
+      <c r="M90" s="63">
+        <v>0</v>
+      </c>
+      <c r="N90" s="63">
+        <v>0</v>
+      </c>
+      <c r="O90" s="63">
+        <v>0</v>
+      </c>
+      <c r="P90" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="63">
+        <v>0</v>
+      </c>
+      <c r="R90" s="63">
+        <v>0</v>
+      </c>
+      <c r="S90" s="63">
+        <v>0</v>
+      </c>
+      <c r="T90" s="26"/>
+      <c r="U90" s="26"/>
+      <c r="V90" s="26"/>
+      <c r="W90" s="56"/>
     </row>
     <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="111"/>
-      <c r="C91" s="96" t="s">
-        <v>132</v>
-      </c>
-      <c r="D91" s="43"/>
-      <c r="E91" s="43"/>
-      <c r="F91" s="37" t="s">
-        <v>15</v>
+      <c r="B91" s="125"/>
+      <c r="C91" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="D91" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G91" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H91" s="4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I91" s="46">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="J91" s="61">
         <v>0</v>
@@ -7335,167 +7339,159 @@
       <c r="P91" s="61">
         <v>0</v>
       </c>
-      <c r="Q91" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="R91" s="39">
-        <v>0</v>
-      </c>
-      <c r="S91" s="39">
-        <v>0</v>
-      </c>
-      <c r="T91" s="39">
-        <v>0</v>
-      </c>
-      <c r="U91" s="39">
-        <v>0</v>
-      </c>
-      <c r="V91" s="39">
-        <v>0</v>
-      </c>
-      <c r="W91" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="111"/>
-      <c r="C92" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="43"/>
-      <c r="E92" s="43"/>
-      <c r="F92" s="37" t="s">
-        <v>15</v>
+      <c r="Q91" s="61">
+        <v>0</v>
+      </c>
+      <c r="R91" s="61">
+        <v>0</v>
+      </c>
+      <c r="S91" s="61">
+        <v>0</v>
+      </c>
+      <c r="T91" s="20"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="20"/>
+      <c r="W91" s="49"/>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B92" s="126"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45" t="s">
+        <v>16</v>
       </c>
       <c r="G92" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H92" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I92" s="46">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="61">
+        <v>0</v>
+      </c>
+      <c r="K92" s="61">
+        <v>0</v>
+      </c>
+      <c r="L92" s="61">
+        <v>0</v>
+      </c>
+      <c r="M92" s="61">
+        <v>0</v>
+      </c>
+      <c r="N92" s="61">
+        <v>0</v>
+      </c>
+      <c r="O92" s="61">
+        <v>0</v>
+      </c>
+      <c r="P92" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="61">
+        <v>0</v>
+      </c>
+      <c r="R92" s="61">
+        <v>0</v>
+      </c>
+      <c r="S92" s="61">
+        <v>0</v>
+      </c>
+      <c r="T92" s="21"/>
+      <c r="U92" s="21"/>
+      <c r="V92" s="21"/>
+      <c r="W92" s="49"/>
+    </row>
+    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="127"/>
+      <c r="C93" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D93" s="34"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="11">
+        <v>1</v>
+      </c>
+      <c r="H93" s="11">
+        <v>1</v>
+      </c>
+      <c r="I93" s="50">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="J93" s="62">
+        <v>0</v>
+      </c>
+      <c r="K93" s="62">
+        <v>0</v>
+      </c>
+      <c r="L93" s="62">
+        <v>0</v>
+      </c>
+      <c r="M93" s="84">
+        <v>0.75</v>
+      </c>
+      <c r="N93" s="84">
+        <v>0</v>
+      </c>
+      <c r="O93" s="84">
+        <v>0</v>
+      </c>
+      <c r="P93" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="84">
+        <v>0</v>
+      </c>
+      <c r="R93" s="84">
+        <v>0</v>
+      </c>
+      <c r="S93" s="84">
+        <v>0</v>
+      </c>
+      <c r="T93" s="84">
+        <v>0</v>
+      </c>
+      <c r="U93" s="84">
+        <v>0</v>
+      </c>
+      <c r="V93" s="84">
+        <v>0</v>
+      </c>
+      <c r="W93" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C94" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="D94" s="53"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="G94" s="12">
+        <v>1</v>
+      </c>
+      <c r="H94" s="12">
         <v>1.5</v>
-      </c>
-      <c r="J92" s="39">
-        <v>1.5</v>
-      </c>
-      <c r="K92" s="39">
-        <v>0</v>
-      </c>
-      <c r="L92" s="39">
-        <v>0</v>
-      </c>
-      <c r="M92" s="39">
-        <v>0</v>
-      </c>
-      <c r="N92" s="39">
-        <v>0</v>
-      </c>
-      <c r="O92" s="39">
-        <v>0</v>
-      </c>
-      <c r="P92" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="39">
-        <v>0</v>
-      </c>
-      <c r="R92" s="39">
-        <v>0</v>
-      </c>
-      <c r="S92" s="39">
-        <v>0</v>
-      </c>
-      <c r="T92" s="39">
-        <v>0</v>
-      </c>
-      <c r="U92" s="39">
-        <v>0</v>
-      </c>
-      <c r="V92" s="39">
-        <v>0</v>
-      </c>
-      <c r="W92" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="111"/>
-      <c r="C93" s="65" t="s">
-        <v>112</v>
-      </c>
-      <c r="D93" s="33"/>
-      <c r="E93" s="45"/>
-      <c r="F93" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="4">
-        <v>4</v>
-      </c>
-      <c r="H93" s="4">
-        <v>1</v>
-      </c>
-      <c r="I93" s="46">
-        <f>SUM(J93:W93)</f>
-        <v>0</v>
-      </c>
-      <c r="J93" s="61">
-        <v>0</v>
-      </c>
-      <c r="K93" s="61">
-        <v>0</v>
-      </c>
-      <c r="L93" s="61">
-        <v>0</v>
-      </c>
-      <c r="M93" s="61">
-        <v>0</v>
-      </c>
-      <c r="N93" s="61">
-        <v>0</v>
-      </c>
-      <c r="O93" s="61">
-        <v>0</v>
-      </c>
-      <c r="P93" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="61">
-        <v>0</v>
-      </c>
-      <c r="R93" s="61">
-        <v>0</v>
-      </c>
-      <c r="S93" s="61">
-        <v>0</v>
-      </c>
-      <c r="T93" s="21"/>
-      <c r="U93" s="21"/>
-      <c r="V93" s="21"/>
-      <c r="W93" s="22"/>
-    </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="129" t="s">
-        <v>91</v>
-      </c>
-      <c r="C94" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" s="30"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="G94" s="12">
-        <v>6</v>
-      </c>
-      <c r="H94" s="12">
-        <v>0.75</v>
       </c>
       <c r="I94" s="48">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="J94" s="60">
         <v>0</v>
@@ -7506,108 +7502,122 @@
       <c r="L94" s="60">
         <v>0</v>
       </c>
-      <c r="M94" s="60">
-        <v>0</v>
-      </c>
-      <c r="N94" s="60">
-        <v>0</v>
-      </c>
-      <c r="O94" s="60">
-        <v>0</v>
-      </c>
-      <c r="P94" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="60">
-        <v>0</v>
-      </c>
-      <c r="R94" s="60">
-        <v>0</v>
-      </c>
-      <c r="S94" s="60">
-        <v>0</v>
-      </c>
-      <c r="T94" s="19"/>
-      <c r="U94" s="19"/>
-      <c r="V94" s="19"/>
-      <c r="W94" s="57"/>
-    </row>
-    <row r="95" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="130"/>
-      <c r="C95" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32" t="s">
+      <c r="M94" s="76">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="N94" s="76">
+        <v>0</v>
+      </c>
+      <c r="O94" s="76">
+        <v>0</v>
+      </c>
+      <c r="P94" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="76">
+        <v>0</v>
+      </c>
+      <c r="R94" s="76">
+        <v>0</v>
+      </c>
+      <c r="S94" s="76">
+        <v>0</v>
+      </c>
+      <c r="T94" s="76">
+        <v>0</v>
+      </c>
+      <c r="U94" s="76">
+        <v>0</v>
+      </c>
+      <c r="V94" s="76">
+        <v>0</v>
+      </c>
+      <c r="W94" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" s="126"/>
+      <c r="C95" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D95" s="33"/>
+      <c r="E95" s="45"/>
+      <c r="F95" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G95" s="27">
-        <v>6</v>
-      </c>
-      <c r="H95" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="I95" s="48">
+      <c r="G95" s="4">
+        <v>1</v>
+      </c>
+      <c r="H95" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I95" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="63">
-        <v>0</v>
-      </c>
-      <c r="K95" s="63">
-        <v>0</v>
-      </c>
-      <c r="L95" s="63">
-        <v>0</v>
-      </c>
-      <c r="M95" s="63">
-        <v>0</v>
-      </c>
-      <c r="N95" s="63">
-        <v>0</v>
-      </c>
-      <c r="O95" s="63">
-        <v>0</v>
-      </c>
-      <c r="P95" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="63">
-        <v>0</v>
-      </c>
-      <c r="R95" s="63">
-        <v>0</v>
-      </c>
-      <c r="S95" s="63">
-        <v>0</v>
-      </c>
-      <c r="T95" s="26"/>
-      <c r="U95" s="26"/>
-      <c r="V95" s="26"/>
-      <c r="W95" s="56"/>
-    </row>
-    <row r="96" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="131"/>
-      <c r="C96" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="D96" s="33" t="s">
-        <v>109</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="J95" s="61">
+        <v>0</v>
+      </c>
+      <c r="K95" s="61">
+        <v>0</v>
+      </c>
+      <c r="L95" s="61">
+        <v>0</v>
+      </c>
+      <c r="M95" s="85">
+        <v>0</v>
+      </c>
+      <c r="N95" s="85">
+        <v>0</v>
+      </c>
+      <c r="O95" s="89">
+        <v>0</v>
+      </c>
+      <c r="P95" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="89">
+        <v>0</v>
+      </c>
+      <c r="R95" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="S95" s="87">
+        <v>0</v>
+      </c>
+      <c r="T95" s="87">
+        <v>0</v>
+      </c>
+      <c r="U95" s="87">
+        <v>0</v>
+      </c>
+      <c r="V95" s="87">
+        <v>0</v>
+      </c>
+      <c r="W95" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B96" s="126"/>
+      <c r="C96" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="D96" s="33"/>
       <c r="E96" s="45"/>
       <c r="F96" s="45" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H96" s="4">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="I96" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" s="61">
         <v>0</v>
@@ -7618,51 +7628,59 @@
       <c r="L96" s="61">
         <v>0</v>
       </c>
-      <c r="M96" s="61">
-        <v>0</v>
-      </c>
-      <c r="N96" s="61">
-        <v>0</v>
-      </c>
-      <c r="O96" s="61">
-        <v>0</v>
-      </c>
-      <c r="P96" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q96" s="61">
-        <v>0</v>
-      </c>
-      <c r="R96" s="61">
-        <v>0</v>
-      </c>
-      <c r="S96" s="61">
-        <v>0</v>
-      </c>
-      <c r="T96" s="20"/>
-      <c r="U96" s="20"/>
-      <c r="V96" s="20"/>
-      <c r="W96" s="49"/>
+      <c r="M96" s="85">
+        <v>0</v>
+      </c>
+      <c r="N96" s="85">
+        <v>0</v>
+      </c>
+      <c r="O96" s="87">
+        <v>1</v>
+      </c>
+      <c r="P96" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="87">
+        <v>0</v>
+      </c>
+      <c r="R96" s="87">
+        <v>0</v>
+      </c>
+      <c r="S96" s="87">
+        <v>0</v>
+      </c>
+      <c r="T96" s="87">
+        <v>0</v>
+      </c>
+      <c r="U96" s="87">
+        <v>0</v>
+      </c>
+      <c r="V96" s="87">
+        <v>0</v>
+      </c>
+      <c r="W96" s="87">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="132"/>
-      <c r="C97" s="109"/>
-      <c r="D97" s="33" t="s">
-        <v>108</v>
-      </c>
+      <c r="B97" s="126"/>
+      <c r="C97" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="D97" s="33"/>
       <c r="E97" s="45"/>
       <c r="F97" s="45" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H97" s="4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I97" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J97" s="61">
         <v>0</v>
@@ -7673,827 +7691,517 @@
       <c r="L97" s="61">
         <v>0</v>
       </c>
-      <c r="M97" s="61">
-        <v>0</v>
-      </c>
-      <c r="N97" s="61">
-        <v>0</v>
-      </c>
-      <c r="O97" s="61">
-        <v>0</v>
-      </c>
-      <c r="P97" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="61">
-        <v>0</v>
-      </c>
-      <c r="R97" s="61">
-        <v>0</v>
-      </c>
-      <c r="S97" s="61">
-        <v>0</v>
-      </c>
-      <c r="T97" s="21"/>
-      <c r="U97" s="21"/>
-      <c r="V97" s="21"/>
-      <c r="W97" s="49"/>
-    </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="133"/>
-      <c r="C98" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="D98" s="34"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35" t="s">
+      <c r="M97" s="85">
+        <v>0</v>
+      </c>
+      <c r="N97" s="85">
+        <v>0</v>
+      </c>
+      <c r="O97" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="P97" s="87">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="87">
+        <v>0</v>
+      </c>
+      <c r="R97" s="87">
+        <v>0</v>
+      </c>
+      <c r="S97" s="87">
+        <v>0</v>
+      </c>
+      <c r="T97" s="87">
+        <v>0</v>
+      </c>
+      <c r="U97" s="87">
+        <v>0</v>
+      </c>
+      <c r="V97" s="87">
+        <v>0</v>
+      </c>
+      <c r="W97" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B98" s="126"/>
+      <c r="C98" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="33"/>
+      <c r="E98" s="45"/>
+      <c r="F98" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="11">
-        <v>1</v>
-      </c>
-      <c r="H98" s="11">
-        <v>1</v>
-      </c>
-      <c r="I98" s="50">
-        <f t="shared" si="2"/>
-        <v>0.75</v>
-      </c>
-      <c r="J98" s="62">
-        <v>0</v>
-      </c>
-      <c r="K98" s="62">
-        <v>0</v>
-      </c>
-      <c r="L98" s="62">
-        <v>0</v>
-      </c>
-      <c r="M98" s="84">
-        <v>0.75</v>
-      </c>
-      <c r="N98" s="84">
-        <v>0</v>
-      </c>
-      <c r="O98" s="84">
-        <v>0</v>
-      </c>
-      <c r="P98" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="84">
-        <v>0</v>
-      </c>
-      <c r="R98" s="84">
-        <v>0</v>
-      </c>
-      <c r="S98" s="84">
-        <v>0</v>
-      </c>
-      <c r="T98" s="84">
-        <v>0</v>
-      </c>
-      <c r="U98" s="84">
-        <v>0</v>
-      </c>
-      <c r="V98" s="84">
-        <v>0</v>
-      </c>
-      <c r="W98" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="110" t="s">
-        <v>92</v>
-      </c>
-      <c r="C99" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="D99" s="53"/>
-      <c r="E99" s="54"/>
-      <c r="F99" s="54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" s="12">
-        <v>1</v>
-      </c>
-      <c r="H99" s="12">
-        <v>1.5</v>
-      </c>
-      <c r="I99" s="48">
-        <f t="shared" si="2"/>
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="J99" s="60">
-        <v>0</v>
-      </c>
-      <c r="K99" s="60">
-        <v>0</v>
-      </c>
-      <c r="L99" s="60">
-        <v>0</v>
-      </c>
-      <c r="M99" s="76">
-        <v>0.46700000000000003</v>
-      </c>
-      <c r="N99" s="76">
-        <v>0</v>
-      </c>
-      <c r="O99" s="76">
-        <v>0</v>
-      </c>
-      <c r="P99" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="76">
-        <v>0</v>
-      </c>
-      <c r="R99" s="76">
-        <v>0</v>
-      </c>
-      <c r="S99" s="76">
-        <v>0</v>
-      </c>
-      <c r="T99" s="76">
-        <v>0</v>
-      </c>
-      <c r="U99" s="76">
-        <v>0</v>
-      </c>
-      <c r="V99" s="76">
-        <v>0</v>
-      </c>
-      <c r="W99" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B100" s="132"/>
-      <c r="C100" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="D100" s="33"/>
-      <c r="E100" s="45"/>
-      <c r="F100" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G100" s="4">
-        <v>1</v>
-      </c>
-      <c r="H100" s="4">
+      <c r="G98" s="4">
+        <v>3</v>
+      </c>
+      <c r="H98" s="4">
         <v>0.33</v>
       </c>
-      <c r="I100" s="46">
+      <c r="I98" s="46">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="J100" s="61">
-        <v>0</v>
-      </c>
-      <c r="K100" s="61">
-        <v>0</v>
-      </c>
-      <c r="L100" s="61">
-        <v>0</v>
-      </c>
-      <c r="M100" s="85">
-        <v>0</v>
-      </c>
-      <c r="N100" s="85">
-        <v>0</v>
-      </c>
-      <c r="O100" s="89">
-        <v>0</v>
-      </c>
-      <c r="P100" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q100" s="89">
-        <v>0</v>
-      </c>
-      <c r="R100" s="87">
+      <c r="J98" s="61">
+        <v>0</v>
+      </c>
+      <c r="K98" s="61">
+        <v>0</v>
+      </c>
+      <c r="L98" s="61">
+        <v>0</v>
+      </c>
+      <c r="M98" s="61">
+        <v>0</v>
+      </c>
+      <c r="N98" s="61">
+        <v>0</v>
+      </c>
+      <c r="O98" s="61">
+        <v>0</v>
+      </c>
+      <c r="P98" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="61">
+        <v>0</v>
+      </c>
+      <c r="R98" s="101"/>
+      <c r="S98" s="101"/>
+      <c r="T98" s="87">
         <v>0.1</v>
       </c>
-      <c r="S100" s="87">
-        <v>0</v>
-      </c>
-      <c r="T100" s="87">
-        <v>0</v>
-      </c>
-      <c r="U100" s="87">
-        <v>0</v>
-      </c>
-      <c r="V100" s="87">
-        <v>0</v>
-      </c>
-      <c r="W100" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B101" s="132"/>
-      <c r="C101" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="D101" s="33"/>
-      <c r="E101" s="45"/>
-      <c r="F101" s="45" t="s">
+      <c r="U98" s="87">
+        <v>0</v>
+      </c>
+      <c r="V98" s="87">
+        <v>0</v>
+      </c>
+      <c r="W98" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="127"/>
+      <c r="C99" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" s="34"/>
+      <c r="E99" s="35"/>
+      <c r="F99" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G99" s="11">
         <v>1</v>
       </c>
-      <c r="H101" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I101" s="46">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J101" s="61">
-        <v>0</v>
-      </c>
-      <c r="K101" s="61">
-        <v>0</v>
-      </c>
-      <c r="L101" s="61">
-        <v>0</v>
-      </c>
-      <c r="M101" s="85">
-        <v>0</v>
-      </c>
-      <c r="N101" s="85">
-        <v>0</v>
-      </c>
-      <c r="O101" s="87">
-        <v>1</v>
-      </c>
-      <c r="P101" s="93">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="87">
-        <v>0</v>
-      </c>
-      <c r="R101" s="87">
-        <v>0</v>
-      </c>
-      <c r="S101" s="87">
-        <v>0</v>
-      </c>
-      <c r="T101" s="87">
-        <v>0</v>
-      </c>
-      <c r="U101" s="87">
-        <v>0</v>
-      </c>
-      <c r="V101" s="87">
-        <v>0</v>
-      </c>
-      <c r="W101" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B102" s="132"/>
-      <c r="C102" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="D102" s="33"/>
-      <c r="E102" s="45"/>
-      <c r="F102" s="45" t="s">
+      <c r="H99" s="11">
+        <v>3</v>
+      </c>
+      <c r="I99" s="50">
+        <f t="shared" ref="I99" si="4">SUM(J99:W99)</f>
+        <v>0</v>
+      </c>
+      <c r="J99" s="62">
+        <v>0</v>
+      </c>
+      <c r="K99" s="62">
+        <v>0</v>
+      </c>
+      <c r="L99" s="62">
+        <v>0</v>
+      </c>
+      <c r="M99" s="62">
+        <v>0</v>
+      </c>
+      <c r="N99" s="94" t="s">
+        <v>125</v>
+      </c>
+      <c r="O99" s="94">
+        <v>0</v>
+      </c>
+      <c r="P99" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="95">
+        <v>0</v>
+      </c>
+      <c r="R99" s="95">
+        <v>0</v>
+      </c>
+      <c r="S99" s="95">
+        <v>0</v>
+      </c>
+      <c r="T99" s="95">
+        <v>0</v>
+      </c>
+      <c r="U99" s="24"/>
+      <c r="V99" s="24"/>
+      <c r="W99" s="25"/>
+    </row>
+    <row r="100" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="120"/>
+      <c r="D100" s="120"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="120"/>
+      <c r="G100" s="120"/>
+      <c r="H100" s="17">
+        <f>SUM(H4:H99)</f>
+        <v>49.11999999999999</v>
+      </c>
+      <c r="I100" s="17">
+        <f>SUM(I4:I99)</f>
+        <v>33.881700000000002</v>
+      </c>
+      <c r="J100" s="17">
+        <f>SUM(J4:J99)</f>
+        <v>1.95</v>
+      </c>
+      <c r="K100" s="17">
+        <f>SUM(K4:K99)</f>
+        <v>3.3</v>
+      </c>
+      <c r="L100" s="17">
+        <f>SUM(L4:L99)</f>
+        <v>7.15</v>
+      </c>
+      <c r="M100" s="17">
+        <f>SUM(M4:M99)</f>
+        <v>3.9929999999999999</v>
+      </c>
+      <c r="N100" s="17">
+        <f>SUM(N4:N99)</f>
+        <v>1.5</v>
+      </c>
+      <c r="O100" s="17">
+        <f>SUM(O4:O99)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P100" s="17">
+        <f>SUM(P4:P99)</f>
+        <v>0.03</v>
+      </c>
+      <c r="Q100" s="17">
+        <f>SUM(Q4:Q99)</f>
+        <v>2.0290000000000004</v>
+      </c>
+      <c r="R100" s="17">
+        <f>SUM(R4:R99)</f>
+        <v>1.4826999999999999</v>
+      </c>
+      <c r="S100" s="17">
+        <f>SUM(S4:S99)</f>
+        <v>4.7170000000000005</v>
+      </c>
+      <c r="T100" s="17">
+        <f>SUM(T4:T99)</f>
+        <v>6.629999999999999</v>
+      </c>
+      <c r="U100" s="17">
+        <f>SUM(U4:U99)</f>
+        <v>0</v>
+      </c>
+      <c r="V100" s="17">
+        <f>SUM(V4:V99)</f>
+        <v>0</v>
+      </c>
+      <c r="W100" s="18">
+        <f>SUM(W4:W99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="K101" s="111"/>
+      <c r="L101" s="111"/>
+      <c r="M101" s="111"/>
+      <c r="N101" s="111"/>
+      <c r="O101" s="111"/>
+      <c r="P101" s="111"/>
+      <c r="Q101" s="111"/>
+      <c r="R101" s="111"/>
+      <c r="S101" s="111"/>
+      <c r="T101" s="111"/>
+      <c r="U101" s="111"/>
+      <c r="V101" s="111"/>
+      <c r="W101" s="112"/>
+    </row>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C102" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D102" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E102" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+    </row>
+    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="G102" s="4">
-        <v>1</v>
-      </c>
-      <c r="H102" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I102" s="46">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="J102" s="61">
-        <v>0</v>
-      </c>
-      <c r="K102" s="61">
-        <v>0</v>
-      </c>
-      <c r="L102" s="61">
-        <v>0</v>
-      </c>
-      <c r="M102" s="85">
-        <v>0</v>
-      </c>
-      <c r="N102" s="85">
-        <v>0</v>
-      </c>
-      <c r="O102" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="P102" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="87">
-        <v>0</v>
-      </c>
-      <c r="R102" s="87">
-        <v>0</v>
-      </c>
-      <c r="S102" s="87">
-        <v>0</v>
-      </c>
-      <c r="T102" s="87">
-        <v>0</v>
-      </c>
-      <c r="U102" s="87">
-        <v>0</v>
-      </c>
-      <c r="V102" s="87">
-        <v>0</v>
-      </c>
-      <c r="W102" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B103" s="132"/>
-      <c r="C103" s="45" t="s">
-        <v>127</v>
-      </c>
-      <c r="D103" s="33"/>
-      <c r="E103" s="45"/>
-      <c r="F103" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G103" s="4">
-        <v>3</v>
-      </c>
-      <c r="H103" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I103" s="46">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="J103" s="61">
-        <v>0</v>
-      </c>
-      <c r="K103" s="61">
-        <v>0</v>
-      </c>
-      <c r="L103" s="61">
-        <v>0</v>
-      </c>
-      <c r="M103" s="61">
-        <v>0</v>
-      </c>
-      <c r="N103" s="61">
-        <v>0</v>
-      </c>
-      <c r="O103" s="61">
-        <v>0</v>
-      </c>
-      <c r="P103" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q103" s="61">
-        <v>0</v>
-      </c>
-      <c r="R103" s="101"/>
-      <c r="S103" s="101"/>
-      <c r="T103" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="U103" s="87">
-        <v>0</v>
-      </c>
-      <c r="V103" s="87">
-        <v>0</v>
-      </c>
-      <c r="W103" s="87">
-        <v>0</v>
+      <c r="C103" s="71">
+        <f>SUM(H7,H9,H41,H88,H89,H90,H91,H92,H93,H95:H99,H41)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D103" s="27">
+        <f>SUM(I95:I99,I88:I93,I9,I7,I41)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E103" s="27">
+        <f>SUM(C103,-D103)</f>
+        <v>4.2199999999999989</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="I103" s="131"/>
+      <c r="J103" s="10">
+        <f>H100-J100</f>
+        <v>47.169999999999987</v>
+      </c>
+      <c r="K103" s="10">
+        <f>J103-K100</f>
+        <v>43.86999999999999</v>
+      </c>
+      <c r="L103" s="10">
+        <f>K103-L100</f>
+        <v>36.719999999999992</v>
+      </c>
+      <c r="M103" s="10">
+        <f>L103-M100</f>
+        <v>32.72699999999999</v>
+      </c>
+      <c r="N103" s="10">
+        <f t="shared" ref="N103:W103" si="5">M103-N100</f>
+        <v>31.22699999999999</v>
+      </c>
+      <c r="O103" s="10">
+        <f t="shared" si="5"/>
+        <v>30.126999999999988</v>
+      </c>
+      <c r="P103" s="10">
+        <f t="shared" si="5"/>
+        <v>30.096999999999987</v>
+      </c>
+      <c r="Q103" s="10">
+        <f t="shared" si="5"/>
+        <v>28.067999999999987</v>
+      </c>
+      <c r="R103" s="10">
+        <f t="shared" si="5"/>
+        <v>26.585299999999986</v>
+      </c>
+      <c r="S103" s="10">
+        <f t="shared" si="5"/>
+        <v>21.868299999999984</v>
+      </c>
+      <c r="T103" s="10">
+        <f t="shared" si="5"/>
+        <v>15.238299999999985</v>
+      </c>
+      <c r="U103" s="10">
+        <f t="shared" si="5"/>
+        <v>15.238299999999985</v>
+      </c>
+      <c r="V103" s="10">
+        <f t="shared" si="5"/>
+        <v>15.238299999999985</v>
+      </c>
+      <c r="W103" s="10">
+        <f t="shared" si="5"/>
+        <v>15.238299999999985</v>
       </c>
     </row>
     <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="133"/>
-      <c r="C104" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="D104" s="34"/>
-      <c r="E104" s="35"/>
-      <c r="F104" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G104" s="11">
-        <v>1</v>
-      </c>
-      <c r="H104" s="11">
-        <v>3</v>
-      </c>
-      <c r="I104" s="50">
-        <f t="shared" ref="I104" si="4">SUM(J104:W104)</f>
-        <v>0</v>
-      </c>
-      <c r="J104" s="62">
-        <v>0</v>
-      </c>
-      <c r="K104" s="62">
-        <v>0</v>
-      </c>
-      <c r="L104" s="62">
-        <v>0</v>
-      </c>
-      <c r="M104" s="62">
-        <v>0</v>
-      </c>
-      <c r="N104" s="94" t="s">
-        <v>131</v>
-      </c>
-      <c r="O104" s="94">
-        <v>0</v>
-      </c>
-      <c r="P104" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q104" s="95">
-        <v>0</v>
-      </c>
-      <c r="R104" s="95">
-        <v>0</v>
-      </c>
-      <c r="S104" s="95">
-        <v>0</v>
-      </c>
-      <c r="T104" s="95">
-        <v>0</v>
-      </c>
-      <c r="U104" s="24"/>
-      <c r="V104" s="24"/>
-      <c r="W104" s="25"/>
-    </row>
-    <row r="105" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="126"/>
-      <c r="D105" s="126"/>
-      <c r="E105" s="126"/>
-      <c r="F105" s="126"/>
-      <c r="G105" s="126"/>
-      <c r="H105" s="17">
-        <f t="shared" ref="H105:W105" si="5">SUM(H4:H104)</f>
-        <v>48.320000000000007</v>
-      </c>
-      <c r="I105" s="17">
-        <f t="shared" si="5"/>
-        <v>32.401700000000005</v>
-      </c>
-      <c r="J105" s="17">
-        <f t="shared" si="5"/>
-        <v>1.95</v>
-      </c>
-      <c r="K105" s="17">
-        <f t="shared" si="5"/>
-        <v>3.3</v>
-      </c>
-      <c r="L105" s="17">
-        <f t="shared" si="5"/>
-        <v>7.15</v>
-      </c>
-      <c r="M105" s="17">
-        <f t="shared" si="5"/>
-        <v>3.9929999999999999</v>
-      </c>
-      <c r="N105" s="17">
-        <f t="shared" si="5"/>
-        <v>1.5</v>
-      </c>
-      <c r="O105" s="17">
-        <f t="shared" si="5"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P105" s="17">
-        <f t="shared" si="5"/>
-        <v>0.03</v>
-      </c>
-      <c r="Q105" s="17">
-        <f t="shared" si="5"/>
-        <v>2.0290000000000004</v>
-      </c>
-      <c r="R105" s="17">
-        <f t="shared" si="5"/>
-        <v>1.4826999999999999</v>
-      </c>
-      <c r="S105" s="17">
-        <f t="shared" si="5"/>
-        <v>4.7170000000000005</v>
-      </c>
-      <c r="T105" s="17">
-        <f t="shared" si="5"/>
-        <v>5.1499999999999995</v>
-      </c>
-      <c r="U105" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V105" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W105" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="116" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="117"/>
-      <c r="L106" s="117"/>
-      <c r="M106" s="117"/>
-      <c r="N106" s="117"/>
-      <c r="O106" s="117"/>
-      <c r="P106" s="117"/>
-      <c r="Q106" s="117"/>
-      <c r="R106" s="117"/>
-      <c r="S106" s="117"/>
-      <c r="T106" s="117"/>
-      <c r="U106" s="117"/>
-      <c r="V106" s="117"/>
-      <c r="W106" s="118"/>
-    </row>
-    <row r="107" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="66" t="s">
-        <v>123</v>
-      </c>
-      <c r="C107" s="67" t="s">
-        <v>120</v>
-      </c>
-      <c r="D107" s="67" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
+      <c r="B104" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C104" s="69">
+        <f>SUM(H4,H85:H85,H94,H17:H37,H10:H15,H8,H6,H5,H87)</f>
+        <v>18.399999999999991</v>
+      </c>
+      <c r="D104" s="5">
+        <f>SUM(I94,I85:I85,I17:I37,I10:I15,I8,I5:I6,I87,I4)</f>
+        <v>14.3317</v>
+      </c>
+      <c r="E104" s="5">
+        <f>SUM(C104,-D104)</f>
+        <v>4.0682999999999918</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3"/>
+      <c r="I104" s="3"/>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="70" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="69">
+        <f>SUM(H42:H84,H38:H40)</f>
+        <v>16.75</v>
+      </c>
+      <c r="D105" s="5">
+        <f>SUM(I42:I84,I38:I40,I16)</f>
+        <v>11.25</v>
+      </c>
+      <c r="E105" s="5">
+        <f>SUM(C105,-D105)</f>
+        <v>5.5</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="H105" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I105" s="129"/>
+      <c r="J105" s="128">
+        <f>H100-I100</f>
+        <v>15.238299999999988</v>
+      </c>
+      <c r="K105" s="129"/>
+      <c r="L105" s="129"/>
+      <c r="M105" s="129"/>
+      <c r="N105" s="129"/>
+      <c r="O105" s="129"/>
+      <c r="P105" s="129"/>
+      <c r="Q105" s="129"/>
+      <c r="R105" s="129"/>
+      <c r="S105" s="129"/>
+      <c r="T105" s="129"/>
+      <c r="U105" s="129"/>
+      <c r="V105" s="129"/>
+      <c r="W105" s="130"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+      <c r="E106" s="3"/>
+      <c r="F106" s="3"/>
+      <c r="G106" s="3"/>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
       <c r="J107" s="3"/>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="9"/>
-    </row>
-    <row r="108" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" s="71">
-        <f>SUM(H7,H9,H41,H93,H94,H95,H96,H97,H98,H100:H104,H41)</f>
-        <v>12.27</v>
-      </c>
-      <c r="D108" s="27">
-        <f>SUM(I100:I104,I93:I98,I9,I7,I41)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E108" s="27">
-        <f>SUM(C108,-D108)</f>
-        <v>4.2199999999999989</v>
-      </c>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" s="105"/>
-      <c r="J108" s="10">
-        <f>H105-J105</f>
-        <v>46.370000000000005</v>
-      </c>
-      <c r="K108" s="10">
-        <f>J108-K105</f>
-        <v>43.070000000000007</v>
-      </c>
-      <c r="L108" s="10">
-        <f>K108-L105</f>
-        <v>35.920000000000009</v>
-      </c>
-      <c r="M108" s="10">
-        <f>L108-M105</f>
-        <v>31.92700000000001</v>
-      </c>
-      <c r="N108" s="10">
-        <f t="shared" ref="N108:W108" si="6">M108-N105</f>
-        <v>30.42700000000001</v>
-      </c>
-      <c r="O108" s="10">
-        <f t="shared" si="6"/>
-        <v>29.327000000000009</v>
-      </c>
-      <c r="P108" s="10">
-        <f t="shared" si="6"/>
-        <v>29.297000000000008</v>
-      </c>
-      <c r="Q108" s="10">
-        <f t="shared" si="6"/>
-        <v>27.268000000000008</v>
-      </c>
-      <c r="R108" s="10">
-        <f t="shared" si="6"/>
-        <v>25.785300000000007</v>
-      </c>
-      <c r="S108" s="10">
-        <f t="shared" si="6"/>
-        <v>21.068300000000008</v>
-      </c>
-      <c r="T108" s="10">
-        <f t="shared" si="6"/>
-        <v>15.918300000000009</v>
-      </c>
-      <c r="U108" s="10">
-        <f t="shared" si="6"/>
-        <v>15.918300000000009</v>
-      </c>
-      <c r="V108" s="10">
-        <f t="shared" si="6"/>
-        <v>15.918300000000009</v>
-      </c>
-      <c r="W108" s="10">
-        <f t="shared" si="6"/>
-        <v>15.918300000000009</v>
-      </c>
-    </row>
-    <row r="109" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109" s="69">
-        <f>SUM(H4,H85:H90,H99,H17:H37,H10:H15,H8,H6,H5,H92)</f>
-        <v>17.599999999999994</v>
-      </c>
-      <c r="D109" s="5">
-        <f>SUM(I99,I85:I90,I17:I37,I10:I15,I8,I5:I6,I92,I4)</f>
-        <v>12.851699999999999</v>
-      </c>
-      <c r="E109" s="5">
-        <f>SUM(C109,-D109)</f>
-        <v>4.7482999999999951</v>
-      </c>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="3"/>
-      <c r="J109" s="3"/>
-      <c r="K109" s="3"/>
-      <c r="L109" s="3"/>
-      <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C110" s="69">
-        <f>SUM(H42:H84,H38:H40)</f>
-        <v>16.75</v>
-      </c>
-      <c r="D110" s="5">
-        <f>SUM(I42:I84,I38:I40,I16)</f>
-        <v>11.25</v>
-      </c>
-      <c r="E110" s="5">
-        <f>SUM(C110,-D110)</f>
-        <v>5.5</v>
-      </c>
-      <c r="F110" s="3"/>
-      <c r="H110" s="102" t="s">
-        <v>10</v>
-      </c>
-      <c r="I110" s="103"/>
-      <c r="J110" s="102">
-        <f>H105-I105</f>
-        <v>15.918300000000002</v>
-      </c>
-      <c r="K110" s="103"/>
-      <c r="L110" s="103"/>
-      <c r="M110" s="103"/>
-      <c r="N110" s="103"/>
-      <c r="O110" s="103"/>
-      <c r="P110" s="103"/>
-      <c r="Q110" s="103"/>
-      <c r="R110" s="103"/>
-      <c r="S110" s="103"/>
-      <c r="T110" s="103"/>
-      <c r="U110" s="103"/>
-      <c r="V110" s="103"/>
-      <c r="W110" s="104"/>
-    </row>
-    <row r="111" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="3"/>
-      <c r="J111" s="3"/>
-      <c r="K111" s="3"/>
-      <c r="L111" s="3"/>
-      <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="3"/>
-      <c r="J112" s="3"/>
-      <c r="K112" s="3"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="3"/>
-      <c r="J113" s="3"/>
-      <c r="K113" s="3"/>
-      <c r="L113" s="3"/>
-      <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="116" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="7"/>
-    </row>
-    <row r="120" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="7"/>
-    </row>
-    <row r="121" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+      <c r="E108" s="3"/>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+    </row>
+    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="7"/>
+    </row>
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="7"/>
+    </row>
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="7"/>
+    </row>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="123" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="124" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="125" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="126" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="7"/>
-    </row>
-    <row r="127" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="7"/>
-    </row>
-    <row r="128" spans="2:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="7"/>
-    </row>
-    <row r="129" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="7"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B130" s="6"/>
-      <c r="C130" s="6"/>
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="7"/>
+    </row>
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="7"/>
+    </row>
+    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="7"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="6"/>
+      <c r="C125" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B42:B93"/>
-    <mergeCell ref="C85:C90"/>
+  <mergeCells count="16">
+    <mergeCell ref="J105:W105"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="C42:C84"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B42:B88"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J106:W106"/>
+    <mergeCell ref="J101:W101"/>
     <mergeCell ref="B16:B41"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B105:G105"/>
+    <mergeCell ref="B100:G100"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B94:B98"/>
-    <mergeCell ref="B99:B104"/>
-    <mergeCell ref="J110:W110"/>
-    <mergeCell ref="H108:I108"/>
-    <mergeCell ref="H110:I110"/>
-    <mergeCell ref="C42:C84"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C96:C97"/>
+    <mergeCell ref="B89:B93"/>
+    <mergeCell ref="B94:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iriag\Desktop\Alex\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -1412,75 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,6 +1434,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1525,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1646,16 +1646,16 @@
                   <c:v>21.868299999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15.238299999999985</c:v>
+                  <c:v>14.228299999999985</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.238299999999985</c:v>
+                  <c:v>12.078299999999984</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15.238299999999985</c:v>
+                  <c:v>12.078299999999984</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15.238299999999985</c:v>
+                  <c:v>12.078299999999984</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2093,28 +2093,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T85" sqref="T85"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V44" sqref="V44:V53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
@@ -2122,25 +2122,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="107" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="117"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2208,8 +2208,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="78" t="s">
@@ -2275,8 +2275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="122"/>
       <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
@@ -2338,8 +2338,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="122"/>
       <c r="C6" s="37" t="s">
         <v>68</v>
       </c>
@@ -2401,9 +2401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="121" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
+      <c r="C7" s="129" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2466,9 +2466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="121"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="37" t="s">
         <v>61</v>
       </c>
@@ -2529,9 +2529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="118"/>
-      <c r="C9" s="122"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="126"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="34" t="s">
         <v>62</v>
       </c>
@@ -2592,8 +2592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="123" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2657,8 +2657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="124"/>
       <c r="C11" s="37" t="s">
         <v>65</v>
       </c>
@@ -2711,8 +2711,8 @@
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="116"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="124"/>
       <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
@@ -2774,8 +2774,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="117"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="125"/>
       <c r="C13" s="36" t="s">
         <v>113</v>
       </c>
@@ -2837,8 +2837,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="117"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="125"/>
       <c r="C14" s="36" t="s">
         <v>111</v>
       </c>
@@ -2892,8 +2892,8 @@
       <c r="V14" s="23"/>
       <c r="W14" s="59"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="117"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
       <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
@@ -2947,8 +2947,8 @@
       <c r="V15" s="23"/>
       <c r="W15" s="59"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="113" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="121" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -3012,8 +3012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="122"/>
       <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
@@ -3075,8 +3075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
       <c r="C18" s="88" t="s">
         <v>14</v>
       </c>
@@ -3140,9 +3140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="134" t="s">
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="122"/>
+      <c r="C19" s="111" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3205,9 +3205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="134"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="122"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="37" t="s">
         <v>127</v>
       </c>
@@ -3268,9 +3268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="134"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
@@ -3323,9 +3323,9 @@
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="134"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="122"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
@@ -3386,9 +3386,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="134"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="122"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="37" t="s">
         <v>39</v>
       </c>
@@ -3449,9 +3449,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="134"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="122"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="37" t="s">
         <v>40</v>
       </c>
@@ -3512,9 +3512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="134"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="122"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="37" t="s">
         <v>41</v>
       </c>
@@ -3575,9 +3575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="134"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="122"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
@@ -3638,9 +3638,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="134"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="122"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="37" t="s">
         <v>43</v>
       </c>
@@ -3701,9 +3701,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="134"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="122"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="37" t="s">
         <v>44</v>
       </c>
@@ -3764,9 +3764,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="134"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="37" t="s">
         <v>45</v>
       </c>
@@ -3827,9 +3827,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="134"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="122"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="37" t="s">
         <v>46</v>
       </c>
@@ -3890,9 +3890,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="134"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="122"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="37" t="s">
         <v>47</v>
       </c>
@@ -3953,9 +3953,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="134"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="122"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="37" t="s">
         <v>48</v>
       </c>
@@ -4016,9 +4016,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="134"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="122"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="37" t="s">
         <v>49</v>
       </c>
@@ -4079,9 +4079,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="134"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="122"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="37" t="s">
         <v>50</v>
       </c>
@@ -4142,9 +4142,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="134"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="122"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="37" t="s">
         <v>51</v>
       </c>
@@ -4205,9 +4205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="134"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="122"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="37" t="s">
         <v>128</v>
       </c>
@@ -4268,9 +4268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="134"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="122"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="43" t="s">
         <v>104</v>
       </c>
@@ -4331,8 +4331,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="122"/>
       <c r="C38" s="40" t="s">
         <v>52</v>
       </c>
@@ -4386,8 +4386,8 @@
       <c r="V38" s="21"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="122"/>
       <c r="C39" s="40" t="s">
         <v>54</v>
       </c>
@@ -4441,8 +4441,8 @@
       <c r="V39" s="21"/>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="122"/>
       <c r="C40" s="40" t="s">
         <v>55</v>
       </c>
@@ -4504,8 +4504,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="114"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="122"/>
       <c r="C41" s="47" t="s">
         <v>105</v>
       </c>
@@ -4559,11 +4559,11 @@
       <c r="V41" s="21"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="105" t="s">
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -4626,9 +4626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="106"/>
-      <c r="C43" s="133"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="114"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="40" t="s">
         <v>21</v>
       </c>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="I43" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="61">
         <v>0</v>
@@ -4676,14 +4676,22 @@
       <c r="S43" s="61">
         <v>0</v>
       </c>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="22"/>
-    </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
-      <c r="C44" s="133"/>
+      <c r="T43" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="U43" s="87">
+        <v>0</v>
+      </c>
+      <c r="V43" s="87">
+        <v>0</v>
+      </c>
+      <c r="W43" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="114"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="40" t="s">
         <v>22</v>
       </c>
@@ -4699,7 +4707,7 @@
       </c>
       <c r="I44" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="J44" s="61">
         <v>0</v>
@@ -4731,14 +4739,22 @@
       <c r="S44" s="61">
         <v>0</v>
       </c>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="22"/>
-    </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="106"/>
-      <c r="C45" s="133"/>
+      <c r="T44" s="87">
+        <v>0.33</v>
+      </c>
+      <c r="U44" s="87">
+        <v>0</v>
+      </c>
+      <c r="V44" s="87">
+        <v>0</v>
+      </c>
+      <c r="W44" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="114"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="40" t="s">
         <v>23</v>
       </c>
@@ -4754,7 +4770,7 @@
       </c>
       <c r="I45" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.84000000000000008</v>
       </c>
       <c r="J45" s="61">
         <v>0</v>
@@ -4786,14 +4802,22 @@
       <c r="S45" s="61">
         <v>0</v>
       </c>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="22"/>
-    </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="106"/>
-      <c r="C46" s="133"/>
+      <c r="T45" s="102">
+        <v>0.18</v>
+      </c>
+      <c r="U45" s="87">
+        <v>0.66</v>
+      </c>
+      <c r="V45" s="87">
+        <v>0</v>
+      </c>
+      <c r="W45" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="114"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
@@ -4809,7 +4833,7 @@
       </c>
       <c r="I46" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J46" s="61">
         <v>0</v>
@@ -4841,14 +4865,22 @@
       <c r="S46" s="61">
         <v>0</v>
       </c>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="22"/>
-    </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="106"/>
-      <c r="C47" s="133"/>
+      <c r="T46" s="101">
+        <v>0</v>
+      </c>
+      <c r="U46" s="87">
+        <v>0.5</v>
+      </c>
+      <c r="V46" s="87">
+        <v>0</v>
+      </c>
+      <c r="W46" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="114"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="40" t="s">
         <v>25</v>
       </c>
@@ -4864,7 +4896,7 @@
       </c>
       <c r="I47" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J47" s="61">
         <v>0</v>
@@ -4896,14 +4928,22 @@
       <c r="S47" s="61">
         <v>0</v>
       </c>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-      <c r="V47" s="21"/>
-      <c r="W47" s="22"/>
-    </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="106"/>
-      <c r="C48" s="133"/>
+      <c r="T47" s="101">
+        <v>0</v>
+      </c>
+      <c r="U47" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="V47" s="87">
+        <v>0</v>
+      </c>
+      <c r="W47" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="114"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="40" t="s">
         <v>26</v>
       </c>
@@ -4919,7 +4959,7 @@
       </c>
       <c r="I48" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J48" s="61">
         <v>0</v>
@@ -4951,14 +4991,22 @@
       <c r="S48" s="61">
         <v>0</v>
       </c>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-      <c r="V48" s="21"/>
-      <c r="W48" s="22"/>
-    </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
-      <c r="C49" s="133"/>
+      <c r="T48" s="101">
+        <v>0</v>
+      </c>
+      <c r="U48" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="V48" s="87">
+        <v>0</v>
+      </c>
+      <c r="W48" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="114"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="40" t="s">
         <v>27</v>
       </c>
@@ -4974,7 +5022,7 @@
       </c>
       <c r="I49" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J49" s="61">
         <v>0</v>
@@ -5006,14 +5054,22 @@
       <c r="S49" s="61">
         <v>0</v>
       </c>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="22"/>
-    </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
-      <c r="C50" s="133"/>
+      <c r="T49" s="101">
+        <v>0</v>
+      </c>
+      <c r="U49" s="87">
+        <v>0.3</v>
+      </c>
+      <c r="V49" s="87">
+        <v>0</v>
+      </c>
+      <c r="W49" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="114"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="40" t="s">
         <v>28</v>
       </c>
@@ -5029,7 +5085,7 @@
       </c>
       <c r="I50" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J50" s="61">
         <v>0</v>
@@ -5061,14 +5117,22 @@
       <c r="S50" s="61">
         <v>0</v>
       </c>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-      <c r="V50" s="21"/>
-      <c r="W50" s="22"/>
-    </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="106"/>
-      <c r="C51" s="133"/>
+      <c r="T50" s="101">
+        <v>0</v>
+      </c>
+      <c r="U50" s="87">
+        <v>0.21</v>
+      </c>
+      <c r="V50" s="87">
+        <v>0</v>
+      </c>
+      <c r="W50" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="114"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
@@ -5084,7 +5148,7 @@
       </c>
       <c r="I51" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J51" s="61">
         <v>0</v>
@@ -5116,14 +5180,22 @@
       <c r="S51" s="61">
         <v>0</v>
       </c>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-      <c r="V51" s="21"/>
-      <c r="W51" s="22"/>
-    </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="106"/>
-      <c r="C52" s="133"/>
+      <c r="T51" s="101">
+        <v>0</v>
+      </c>
+      <c r="U51" s="87">
+        <v>0.09</v>
+      </c>
+      <c r="V51" s="87">
+        <v>0</v>
+      </c>
+      <c r="W51" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="114"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="40" t="s">
         <v>30</v>
       </c>
@@ -5139,7 +5211,7 @@
       </c>
       <c r="I52" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J52" s="61">
         <v>0</v>
@@ -5171,14 +5243,22 @@
       <c r="S52" s="61">
         <v>0</v>
       </c>
-      <c r="T52" s="21"/>
-      <c r="U52" s="21"/>
-      <c r="V52" s="21"/>
-      <c r="W52" s="22"/>
-    </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="106"/>
-      <c r="C53" s="133"/>
+      <c r="T52" s="101">
+        <v>0</v>
+      </c>
+      <c r="U52" s="87">
+        <v>0.11</v>
+      </c>
+      <c r="V52" s="87">
+        <v>0</v>
+      </c>
+      <c r="W52" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="114"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="40" t="s">
         <v>31</v>
       </c>
@@ -5194,7 +5274,7 @@
       </c>
       <c r="I53" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J53" s="61">
         <v>0</v>
@@ -5226,14 +5306,22 @@
       <c r="S53" s="61">
         <v>0</v>
       </c>
-      <c r="T53" s="21"/>
-      <c r="U53" s="21"/>
-      <c r="V53" s="21"/>
-      <c r="W53" s="22"/>
-    </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="106"/>
-      <c r="C54" s="133"/>
+      <c r="T53" s="101">
+        <v>0</v>
+      </c>
+      <c r="U53" s="87">
+        <v>0.05</v>
+      </c>
+      <c r="V53" s="87">
+        <v>0</v>
+      </c>
+      <c r="W53" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="114"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="40" t="s">
         <v>70</v>
       </c>
@@ -5281,14 +5369,16 @@
       <c r="S54" s="61">
         <v>0</v>
       </c>
-      <c r="T54" s="21"/>
+      <c r="T54" s="101">
+        <v>0</v>
+      </c>
       <c r="U54" s="21"/>
       <c r="V54" s="21"/>
       <c r="W54" s="22"/>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="106"/>
-      <c r="C55" s="133"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="114"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="40" t="s">
         <v>71</v>
       </c>
@@ -5336,14 +5426,16 @@
       <c r="S55" s="61">
         <v>0</v>
       </c>
-      <c r="T55" s="21"/>
+      <c r="T55" s="101">
+        <v>0</v>
+      </c>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="22"/>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="106"/>
-      <c r="C56" s="133"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="114"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="40" t="s">
         <v>71</v>
       </c>
@@ -5391,14 +5483,16 @@
       <c r="S56" s="61">
         <v>0</v>
       </c>
-      <c r="T56" s="21"/>
+      <c r="T56" s="101">
+        <v>0</v>
+      </c>
       <c r="U56" s="21"/>
       <c r="V56" s="21"/>
       <c r="W56" s="22"/>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="106"/>
-      <c r="C57" s="133"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="114"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="40" t="s">
         <v>72</v>
       </c>
@@ -5446,14 +5540,16 @@
       <c r="S57" s="61">
         <v>0</v>
       </c>
-      <c r="T57" s="21"/>
+      <c r="T57" s="101">
+        <v>0</v>
+      </c>
       <c r="U57" s="21"/>
       <c r="V57" s="21"/>
       <c r="W57" s="22"/>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="106"/>
-      <c r="C58" s="133"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="114"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="40" t="s">
         <v>73</v>
       </c>
@@ -5501,14 +5597,16 @@
       <c r="S58" s="61">
         <v>0</v>
       </c>
-      <c r="T58" s="21"/>
+      <c r="T58" s="101">
+        <v>0</v>
+      </c>
       <c r="U58" s="21"/>
       <c r="V58" s="21"/>
       <c r="W58" s="22"/>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="106"/>
-      <c r="C59" s="133"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="114"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="40" t="s">
         <v>74</v>
       </c>
@@ -5556,14 +5654,16 @@
       <c r="S59" s="61">
         <v>0</v>
       </c>
-      <c r="T59" s="21"/>
+      <c r="T59" s="101">
+        <v>0</v>
+      </c>
       <c r="U59" s="21"/>
       <c r="V59" s="21"/>
       <c r="W59" s="22"/>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="106"/>
-      <c r="C60" s="133"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="114"/>
+      <c r="C60" s="110"/>
       <c r="D60" s="40" t="s">
         <v>75</v>
       </c>
@@ -5611,14 +5711,16 @@
       <c r="S60" s="61">
         <v>0</v>
       </c>
-      <c r="T60" s="21"/>
+      <c r="T60" s="101">
+        <v>0</v>
+      </c>
       <c r="U60" s="21"/>
       <c r="V60" s="21"/>
       <c r="W60" s="22"/>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="106"/>
-      <c r="C61" s="133"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="114"/>
+      <c r="C61" s="110"/>
       <c r="D61" s="40" t="s">
         <v>76</v>
       </c>
@@ -5666,14 +5768,16 @@
       <c r="S61" s="61">
         <v>0</v>
       </c>
-      <c r="T61" s="21"/>
+      <c r="T61" s="101">
+        <v>0</v>
+      </c>
       <c r="U61" s="21"/>
       <c r="V61" s="21"/>
       <c r="W61" s="22"/>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="106"/>
-      <c r="C62" s="133"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="114"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="40" t="s">
         <v>77</v>
       </c>
@@ -5721,14 +5825,16 @@
       <c r="S62" s="61">
         <v>0</v>
       </c>
-      <c r="T62" s="21"/>
+      <c r="T62" s="101">
+        <v>0</v>
+      </c>
       <c r="U62" s="21"/>
       <c r="V62" s="21"/>
       <c r="W62" s="22"/>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="106"/>
-      <c r="C63" s="133"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="114"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="40" t="s">
         <v>78</v>
       </c>
@@ -5776,14 +5882,16 @@
       <c r="S63" s="61">
         <v>0</v>
       </c>
-      <c r="T63" s="21"/>
+      <c r="T63" s="101">
+        <v>0</v>
+      </c>
       <c r="U63" s="21"/>
       <c r="V63" s="21"/>
       <c r="W63" s="22"/>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="106"/>
-      <c r="C64" s="133"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="114"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="40" t="s">
         <v>79</v>
       </c>
@@ -5831,14 +5939,16 @@
       <c r="S64" s="61">
         <v>0</v>
       </c>
-      <c r="T64" s="21"/>
+      <c r="T64" s="101">
+        <v>0</v>
+      </c>
       <c r="U64" s="21"/>
       <c r="V64" s="21"/>
       <c r="W64" s="22"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="106"/>
-      <c r="C65" s="133"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="114"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="40" t="s">
         <v>80</v>
       </c>
@@ -5886,14 +5996,16 @@
       <c r="S65" s="61">
         <v>0</v>
       </c>
-      <c r="T65" s="21"/>
+      <c r="T65" s="101">
+        <v>0</v>
+      </c>
       <c r="U65" s="21"/>
       <c r="V65" s="21"/>
       <c r="W65" s="22"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="106"/>
-      <c r="C66" s="133"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="114"/>
+      <c r="C66" s="110"/>
       <c r="D66" s="40" t="s">
         <v>81</v>
       </c>
@@ -5941,14 +6053,16 @@
       <c r="S66" s="61">
         <v>0</v>
       </c>
-      <c r="T66" s="21"/>
+      <c r="T66" s="101">
+        <v>0</v>
+      </c>
       <c r="U66" s="21"/>
       <c r="V66" s="21"/>
       <c r="W66" s="22"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="133"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="114"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="40" t="s">
         <v>82</v>
       </c>
@@ -5996,14 +6110,16 @@
       <c r="S67" s="61">
         <v>0</v>
       </c>
-      <c r="T67" s="21"/>
+      <c r="T67" s="101">
+        <v>0</v>
+      </c>
       <c r="U67" s="21"/>
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="106"/>
-      <c r="C68" s="133"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="114"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="40" t="s">
         <v>87</v>
       </c>
@@ -6051,14 +6167,16 @@
       <c r="S68" s="61">
         <v>0</v>
       </c>
-      <c r="T68" s="21"/>
+      <c r="T68" s="101">
+        <v>0</v>
+      </c>
       <c r="U68" s="21"/>
       <c r="V68" s="21"/>
       <c r="W68" s="22"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="106"/>
-      <c r="C69" s="133"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="114"/>
+      <c r="C69" s="110"/>
       <c r="D69" s="40" t="s">
         <v>88</v>
       </c>
@@ -6106,14 +6224,16 @@
       <c r="S69" s="61">
         <v>0</v>
       </c>
-      <c r="T69" s="21"/>
+      <c r="T69" s="101">
+        <v>0</v>
+      </c>
       <c r="U69" s="21"/>
       <c r="V69" s="21"/>
       <c r="W69" s="22"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="106"/>
-      <c r="C70" s="133"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="114"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="40" t="s">
         <v>89</v>
       </c>
@@ -6161,14 +6281,16 @@
       <c r="S70" s="61">
         <v>0</v>
       </c>
-      <c r="T70" s="21"/>
+      <c r="T70" s="101">
+        <v>0</v>
+      </c>
       <c r="U70" s="21"/>
       <c r="V70" s="21"/>
       <c r="W70" s="22"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="106"/>
-      <c r="C71" s="133"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="114"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="40" t="s">
         <v>90</v>
       </c>
@@ -6216,14 +6338,16 @@
       <c r="S71" s="61">
         <v>0</v>
       </c>
-      <c r="T71" s="21"/>
+      <c r="T71" s="101">
+        <v>0</v>
+      </c>
       <c r="U71" s="21"/>
       <c r="V71" s="21"/>
       <c r="W71" s="22"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106"/>
-      <c r="C72" s="133"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="114"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="40" t="s">
         <v>91</v>
       </c>
@@ -6271,14 +6395,16 @@
       <c r="S72" s="61">
         <v>0</v>
       </c>
-      <c r="T72" s="21"/>
+      <c r="T72" s="101">
+        <v>0</v>
+      </c>
       <c r="U72" s="21"/>
       <c r="V72" s="21"/>
       <c r="W72" s="22"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="106"/>
-      <c r="C73" s="133"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="114"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="40" t="s">
         <v>92</v>
       </c>
@@ -6326,14 +6452,16 @@
       <c r="S73" s="61">
         <v>0</v>
       </c>
-      <c r="T73" s="21"/>
+      <c r="T73" s="101">
+        <v>0</v>
+      </c>
       <c r="U73" s="21"/>
       <c r="V73" s="21"/>
       <c r="W73" s="22"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="106"/>
-      <c r="C74" s="133"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="114"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="40" t="s">
         <v>93</v>
       </c>
@@ -6381,14 +6509,16 @@
       <c r="S74" s="61">
         <v>0</v>
       </c>
-      <c r="T74" s="21"/>
+      <c r="T74" s="101">
+        <v>0</v>
+      </c>
       <c r="U74" s="21"/>
       <c r="V74" s="21"/>
       <c r="W74" s="22"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="106"/>
-      <c r="C75" s="133"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="114"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="40" t="s">
         <v>94</v>
       </c>
@@ -6436,14 +6566,16 @@
       <c r="S75" s="61">
         <v>0</v>
       </c>
-      <c r="T75" s="21"/>
+      <c r="T75" s="101">
+        <v>0</v>
+      </c>
       <c r="U75" s="21"/>
       <c r="V75" s="21"/>
       <c r="W75" s="22"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="106"/>
-      <c r="C76" s="133"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="114"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="40" t="s">
         <v>95</v>
       </c>
@@ -6491,14 +6623,16 @@
       <c r="S76" s="61">
         <v>0</v>
       </c>
-      <c r="T76" s="21"/>
+      <c r="T76" s="101">
+        <v>0</v>
+      </c>
       <c r="U76" s="21"/>
       <c r="V76" s="21"/>
       <c r="W76" s="22"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="106"/>
-      <c r="C77" s="133"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="114"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="40" t="s">
         <v>96</v>
       </c>
@@ -6546,14 +6680,16 @@
       <c r="S77" s="61">
         <v>0</v>
       </c>
-      <c r="T77" s="21"/>
+      <c r="T77" s="101">
+        <v>0</v>
+      </c>
       <c r="U77" s="21"/>
       <c r="V77" s="21"/>
       <c r="W77" s="22"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="106"/>
-      <c r="C78" s="133"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="114"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="40" t="s">
         <v>97</v>
       </c>
@@ -6601,14 +6737,16 @@
       <c r="S78" s="61">
         <v>0</v>
       </c>
-      <c r="T78" s="21"/>
+      <c r="T78" s="101">
+        <v>0</v>
+      </c>
       <c r="U78" s="21"/>
       <c r="V78" s="21"/>
       <c r="W78" s="22"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="106"/>
-      <c r="C79" s="133"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="114"/>
+      <c r="C79" s="110"/>
       <c r="D79" s="40" t="s">
         <v>98</v>
       </c>
@@ -6656,14 +6794,16 @@
       <c r="S79" s="61">
         <v>0</v>
       </c>
-      <c r="T79" s="21"/>
+      <c r="T79" s="101">
+        <v>0</v>
+      </c>
       <c r="U79" s="21"/>
       <c r="V79" s="21"/>
       <c r="W79" s="22"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="106"/>
-      <c r="C80" s="133"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="114"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="40" t="s">
         <v>99</v>
       </c>
@@ -6711,14 +6851,16 @@
       <c r="S80" s="61">
         <v>0</v>
       </c>
-      <c r="T80" s="21"/>
+      <c r="T80" s="101">
+        <v>0</v>
+      </c>
       <c r="U80" s="21"/>
       <c r="V80" s="21"/>
       <c r="W80" s="22"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="106"/>
-      <c r="C81" s="133"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="114"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="40" t="s">
         <v>100</v>
       </c>
@@ -6766,14 +6908,16 @@
       <c r="S81" s="61">
         <v>0</v>
       </c>
-      <c r="T81" s="21"/>
+      <c r="T81" s="101">
+        <v>0</v>
+      </c>
       <c r="U81" s="21"/>
       <c r="V81" s="21"/>
       <c r="W81" s="22"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="106"/>
-      <c r="C82" s="133"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="114"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="40" t="s">
         <v>83</v>
       </c>
@@ -6821,14 +6965,16 @@
       <c r="S82" s="61">
         <v>0</v>
       </c>
-      <c r="T82" s="21"/>
+      <c r="T82" s="101">
+        <v>0</v>
+      </c>
       <c r="U82" s="21"/>
       <c r="V82" s="21"/>
       <c r="W82" s="22"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="106"/>
-      <c r="C83" s="133"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="114"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="40" t="s">
         <v>84</v>
       </c>
@@ -6876,14 +7022,16 @@
       <c r="S83" s="61">
         <v>0</v>
       </c>
-      <c r="T83" s="21"/>
+      <c r="T83" s="101">
+        <v>0</v>
+      </c>
       <c r="U83" s="21"/>
       <c r="V83" s="21"/>
       <c r="W83" s="22"/>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="106"/>
-      <c r="C84" s="133"/>
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="114"/>
+      <c r="C84" s="110"/>
       <c r="D84" s="40" t="s">
         <v>107</v>
       </c>
@@ -6944,8 +7092,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="106"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="114"/>
       <c r="C85" s="96" t="s">
         <v>37</v>
       </c>
@@ -7003,8 +7151,8 @@
       <c r="V85" s="21"/>
       <c r="W85" s="22"/>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="106"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="114"/>
       <c r="C86" s="96" t="s">
         <v>126</v>
       </c>
@@ -7066,8 +7214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="106"/>
+    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="114"/>
       <c r="C87" s="73" t="s">
         <v>118</v>
       </c>
@@ -7129,8 +7277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="106"/>
+    <row r="88" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="114"/>
       <c r="C88" s="65" t="s">
         <v>106</v>
       </c>
@@ -7184,8 +7332,8 @@
       <c r="V88" s="21"/>
       <c r="W88" s="22"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="123" t="s">
+    <row r="89" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="131" t="s">
         <v>85</v>
       </c>
       <c r="C89" s="29" t="s">
@@ -7241,8 +7389,8 @@
       <c r="V89" s="19"/>
       <c r="W89" s="57"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="124"/>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="132"/>
       <c r="C90" s="32" t="s">
         <v>112</v>
       </c>
@@ -7296,9 +7444,9 @@
       <c r="V90" s="26"/>
       <c r="W90" s="56"/>
     </row>
-    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="125"/>
-      <c r="C91" s="135" t="s">
+    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="133"/>
+      <c r="C91" s="112" t="s">
         <v>101</v>
       </c>
       <c r="D91" s="33" t="s">
@@ -7353,9 +7501,9 @@
       <c r="V91" s="20"/>
       <c r="W91" s="49"/>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B92" s="126"/>
-      <c r="C92" s="135"/>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B92" s="134"/>
+      <c r="C92" s="112"/>
       <c r="D92" s="33" t="s">
         <v>102</v>
       </c>
@@ -7408,8 +7556,8 @@
       <c r="V92" s="21"/>
       <c r="W92" s="49"/>
     </row>
-    <row r="93" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="127"/>
+    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="135"/>
       <c r="C93" s="35" t="s">
         <v>109</v>
       </c>
@@ -7471,8 +7619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="105" t="s">
+    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="113" t="s">
         <v>86</v>
       </c>
       <c r="C94" s="54" t="s">
@@ -7536,8 +7684,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="126"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="134"/>
       <c r="C95" s="45" t="s">
         <v>124</v>
       </c>
@@ -7599,8 +7747,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="126"/>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96" s="134"/>
       <c r="C96" s="45" t="s">
         <v>123</v>
       </c>
@@ -7662,8 +7810,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="126"/>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="134"/>
       <c r="C97" s="45" t="s">
         <v>122</v>
       </c>
@@ -7725,8 +7873,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B98" s="126"/>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B98" s="134"/>
       <c r="C98" s="45" t="s">
         <v>121</v>
       </c>
@@ -7784,8 +7932,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="127"/>
+    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="135"/>
       <c r="C99" s="35" t="s">
         <v>120</v>
       </c>
@@ -7841,81 +7989,81 @@
       <c r="V99" s="24"/>
       <c r="W99" s="25"/>
     </row>
-    <row r="100" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="119" t="s">
+    <row r="100" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="120"/>
-      <c r="D100" s="120"/>
-      <c r="E100" s="120"/>
-      <c r="F100" s="120"/>
-      <c r="G100" s="120"/>
+      <c r="C100" s="128"/>
+      <c r="D100" s="128"/>
+      <c r="E100" s="128"/>
+      <c r="F100" s="128"/>
+      <c r="G100" s="128"/>
       <c r="H100" s="17">
-        <f>SUM(H4:H99)</f>
+        <f t="shared" ref="H100:W100" si="5">SUM(H4:H99)</f>
         <v>49.11999999999999</v>
       </c>
       <c r="I100" s="17">
-        <f>SUM(I4:I99)</f>
-        <v>33.881700000000002</v>
+        <f t="shared" si="5"/>
+        <v>37.041699999999999</v>
       </c>
       <c r="J100" s="17">
-        <f>SUM(J4:J99)</f>
+        <f t="shared" si="5"/>
         <v>1.95</v>
       </c>
       <c r="K100" s="17">
-        <f>SUM(K4:K99)</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="L100" s="17">
-        <f>SUM(L4:L99)</f>
+        <f t="shared" si="5"/>
         <v>7.15</v>
       </c>
       <c r="M100" s="17">
-        <f>SUM(M4:M99)</f>
+        <f t="shared" si="5"/>
         <v>3.9929999999999999</v>
       </c>
       <c r="N100" s="17">
-        <f>SUM(N4:N99)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="O100" s="17">
-        <f>SUM(O4:O99)</f>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P100" s="17">
-        <f>SUM(P4:P99)</f>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="Q100" s="17">
-        <f>SUM(Q4:Q99)</f>
+        <f t="shared" si="5"/>
         <v>2.0290000000000004</v>
       </c>
       <c r="R100" s="17">
-        <f>SUM(R4:R99)</f>
+        <f t="shared" si="5"/>
         <v>1.4826999999999999</v>
       </c>
       <c r="S100" s="17">
-        <f>SUM(S4:S99)</f>
+        <f t="shared" si="5"/>
         <v>4.7170000000000005</v>
       </c>
       <c r="T100" s="17">
-        <f>SUM(T4:T99)</f>
-        <v>6.629999999999999</v>
+        <f t="shared" si="5"/>
+        <v>7.6399999999999988</v>
       </c>
       <c r="U100" s="17">
-        <f>SUM(U4:U99)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2.15</v>
       </c>
       <c r="V100" s="17">
-        <f>SUM(V4:V99)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W100" s="18">
-        <f>SUM(W4:W99)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -7924,24 +8072,24 @@
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="110" t="s">
+      <c r="J101" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="K101" s="111"/>
-      <c r="L101" s="111"/>
-      <c r="M101" s="111"/>
-      <c r="N101" s="111"/>
-      <c r="O101" s="111"/>
-      <c r="P101" s="111"/>
-      <c r="Q101" s="111"/>
-      <c r="R101" s="111"/>
-      <c r="S101" s="111"/>
-      <c r="T101" s="111"/>
-      <c r="U101" s="111"/>
-      <c r="V101" s="111"/>
-      <c r="W101" s="112"/>
-    </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K101" s="119"/>
+      <c r="L101" s="119"/>
+      <c r="M101" s="119"/>
+      <c r="N101" s="119"/>
+      <c r="O101" s="119"/>
+      <c r="P101" s="119"/>
+      <c r="Q101" s="119"/>
+      <c r="R101" s="119"/>
+      <c r="S101" s="119"/>
+      <c r="T101" s="119"/>
+      <c r="U101" s="119"/>
+      <c r="V101" s="119"/>
+      <c r="W101" s="120"/>
+    </row>
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="66" t="s">
         <v>117</v>
       </c>
@@ -7965,7 +8113,7 @@
       <c r="O102" s="9"/>
       <c r="P102" s="9"/>
     </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="72" t="s">
         <v>16</v>
       </c>
@@ -7983,10 +8131,10 @@
       </c>
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
-      <c r="H103" s="128" t="s">
+      <c r="H103" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I103" s="131"/>
+      <c r="I103" s="108"/>
       <c r="J103" s="10">
         <f>H100-J100</f>
         <v>47.169999999999987</v>
@@ -8004,47 +8152,47 @@
         <v>32.72699999999999</v>
       </c>
       <c r="N103" s="10">
-        <f t="shared" ref="N103:W103" si="5">M103-N100</f>
+        <f t="shared" ref="N103:W103" si="6">M103-N100</f>
         <v>31.22699999999999</v>
       </c>
       <c r="O103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.126999999999988</v>
       </c>
       <c r="P103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>30.096999999999987</v>
       </c>
       <c r="Q103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>28.067999999999987</v>
       </c>
       <c r="R103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.585299999999986</v>
       </c>
       <c r="S103" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.868299999999984</v>
       </c>
       <c r="T103" s="10">
-        <f t="shared" si="5"/>
-        <v>15.238299999999985</v>
+        <f t="shared" si="6"/>
+        <v>14.228299999999985</v>
       </c>
       <c r="U103" s="10">
-        <f t="shared" si="5"/>
-        <v>15.238299999999985</v>
+        <f t="shared" si="6"/>
+        <v>12.078299999999984</v>
       </c>
       <c r="V103" s="10">
-        <f t="shared" si="5"/>
-        <v>15.238299999999985</v>
+        <f t="shared" si="6"/>
+        <v>12.078299999999984</v>
       </c>
       <c r="W103" s="10">
-        <f t="shared" si="5"/>
-        <v>15.238299999999985</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>12.078299999999984</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="70" t="s">
         <v>15</v>
       </c>
@@ -8069,7 +8217,7 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
     </row>
-    <row r="105" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="70" t="s">
         <v>17</v>
       </c>
@@ -8079,36 +8227,36 @@
       </c>
       <c r="D105" s="5">
         <f>SUM(I42:I84,I38:I40,I16)</f>
-        <v>11.25</v>
+        <v>14.41</v>
       </c>
       <c r="E105" s="5">
         <f>SUM(C105,-D105)</f>
-        <v>5.5</v>
+        <v>2.34</v>
       </c>
       <c r="F105" s="3"/>
-      <c r="H105" s="128" t="s">
+      <c r="H105" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I105" s="129"/>
-      <c r="J105" s="128">
+      <c r="I105" s="106"/>
+      <c r="J105" s="105">
         <f>H100-I100</f>
-        <v>15.238299999999988</v>
-      </c>
-      <c r="K105" s="129"/>
-      <c r="L105" s="129"/>
-      <c r="M105" s="129"/>
-      <c r="N105" s="129"/>
-      <c r="O105" s="129"/>
-      <c r="P105" s="129"/>
-      <c r="Q105" s="129"/>
-      <c r="R105" s="129"/>
-      <c r="S105" s="129"/>
-      <c r="T105" s="129"/>
-      <c r="U105" s="129"/>
-      <c r="V105" s="129"/>
-      <c r="W105" s="130"/>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
+        <v>12.078299999999992</v>
+      </c>
+      <c r="K105" s="106"/>
+      <c r="L105" s="106"/>
+      <c r="M105" s="106"/>
+      <c r="N105" s="106"/>
+      <c r="O105" s="106"/>
+      <c r="P105" s="106"/>
+      <c r="Q105" s="106"/>
+      <c r="R105" s="106"/>
+      <c r="S105" s="106"/>
+      <c r="T105" s="106"/>
+      <c r="U105" s="106"/>
+      <c r="V105" s="106"/>
+      <c r="W105" s="107"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8122,7 +8270,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8136,7 +8284,7 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -8150,48 +8298,42 @@
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
     </row>
-    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B116" s="7"/>
     </row>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="7"/>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B125" s="6"/>
       <c r="C125" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J105:W105"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="C42:C84"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C91:C92"/>
     <mergeCell ref="B42:B88"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J101:W101"/>
@@ -8202,6 +8344,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="B94:B99"/>
+    <mergeCell ref="J105:W105"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="C42:C84"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C91:C92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8215,7 +8363,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8227,7 +8375,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iriag\Desktop\Alex\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="130">
   <si>
     <t>Subtarea</t>
   </si>
@@ -1412,6 +1412,75 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1434,75 +1503,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1525,7 +1525,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1611,51 +1611,51 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$J$103:$W$103</c:f>
+              <c:f>Hoja1!$J$102:$W$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>47.169999999999987</c:v>
+                  <c:v>46.919999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43.86999999999999</c:v>
+                  <c:v>43.61999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36.719999999999992</c:v>
+                  <c:v>36.469999999999992</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>32.72699999999999</c:v>
+                  <c:v>32.47699999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.22699999999999</c:v>
+                  <c:v>30.97699999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.126999999999988</c:v>
+                  <c:v>29.876999999999988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.096999999999987</c:v>
+                  <c:v>29.846999999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.067999999999987</c:v>
+                  <c:v>27.817999999999987</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>26.585299999999986</c:v>
+                  <c:v>26.335299999999986</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.868299999999984</c:v>
+                  <c:v>21.618299999999984</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.228299999999985</c:v>
+                  <c:v>13.748299999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12.078299999999984</c:v>
+                  <c:v>10.658299999999985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12.078299999999984</c:v>
+                  <c:v>10.658299999999985</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>12.078299999999984</c:v>
+                  <c:v>10.658299999999985</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1771,7 +1771,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2091,30 +2091,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W125"/>
+  <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V44" sqref="V44:V53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C14" sqref="C13:O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="10.6640625" customWidth="1"/>
+    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
@@ -2122,25 +2122,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J2" s="115" t="s">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J2" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
+      <c r="S2" s="108"/>
+      <c r="T2" s="108"/>
+      <c r="U2" s="108"/>
+      <c r="V2" s="108"/>
+      <c r="W2" s="109"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2208,8 +2208,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="113" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="78" t="s">
@@ -2275,8 +2275,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="122"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="114"/>
       <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
@@ -2338,8 +2338,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="114"/>
       <c r="C6" s="37" t="s">
         <v>68</v>
       </c>
@@ -2401,9 +2401,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="122"/>
-      <c r="C7" s="129" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="114"/>
+      <c r="C7" s="121" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2466,9 +2466,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="122"/>
-      <c r="C8" s="129"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="114"/>
+      <c r="C8" s="121"/>
       <c r="D8" s="37" t="s">
         <v>61</v>
       </c>
@@ -2529,9 +2529,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="126"/>
-      <c r="C9" s="130"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="118"/>
+      <c r="C9" s="122"/>
       <c r="D9" s="34" t="s">
         <v>62</v>
       </c>
@@ -2592,8 +2592,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="123" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="115" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2657,8 +2657,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="124"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="116"/>
       <c r="C11" s="37" t="s">
         <v>65</v>
       </c>
@@ -2711,8 +2711,8 @@
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="124"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="116"/>
       <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
@@ -2774,8 +2774,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="125"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="117"/>
       <c r="C13" s="36" t="s">
         <v>113</v>
       </c>
@@ -2837,8 +2837,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="125"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="117"/>
       <c r="C14" s="36" t="s">
         <v>111</v>
       </c>
@@ -2892,8 +2892,8 @@
       <c r="V14" s="23"/>
       <c r="W14" s="59"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="125"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="117"/>
       <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
@@ -2947,8 +2947,8 @@
       <c r="V15" s="23"/>
       <c r="W15" s="59"/>
     </row>
-    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="121" t="s">
+    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="113" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -3012,8 +3012,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="122"/>
+    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="114"/>
       <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
@@ -3075,8 +3075,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="122"/>
+    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="114"/>
       <c r="C18" s="88" t="s">
         <v>14</v>
       </c>
@@ -3140,9 +3140,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="122"/>
-      <c r="C19" s="111" t="s">
+    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="114"/>
+      <c r="C19" s="134" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3205,9 +3205,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="122"/>
-      <c r="C20" s="111"/>
+    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="114"/>
+      <c r="C20" s="134"/>
       <c r="D20" s="37" t="s">
         <v>127</v>
       </c>
@@ -3268,9 +3268,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="122"/>
-      <c r="C21" s="111"/>
+    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="114"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="I21" s="46">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="J21" s="61">
         <v>0</v>
@@ -3318,14 +3318,16 @@
       <c r="S21" s="61">
         <v>0</v>
       </c>
-      <c r="T21" s="21"/>
+      <c r="T21" s="91">
+        <v>0.23</v>
+      </c>
       <c r="U21" s="21"/>
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="122"/>
-      <c r="C22" s="111"/>
+    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="114"/>
+      <c r="C22" s="134"/>
       <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
@@ -3386,9 +3388,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="122"/>
-      <c r="C23" s="111"/>
+    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="114"/>
+      <c r="C23" s="134"/>
       <c r="D23" s="37" t="s">
         <v>39</v>
       </c>
@@ -3449,9 +3451,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="122"/>
-      <c r="C24" s="111"/>
+    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="114"/>
+      <c r="C24" s="134"/>
       <c r="D24" s="37" t="s">
         <v>40</v>
       </c>
@@ -3512,9 +3514,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="122"/>
-      <c r="C25" s="111"/>
+    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="114"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="37" t="s">
         <v>41</v>
       </c>
@@ -3575,9 +3577,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="122"/>
-      <c r="C26" s="111"/>
+    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="114"/>
+      <c r="C26" s="134"/>
       <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
@@ -3638,9 +3640,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="122"/>
-      <c r="C27" s="111"/>
+    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="114"/>
+      <c r="C27" s="134"/>
       <c r="D27" s="37" t="s">
         <v>43</v>
       </c>
@@ -3701,9 +3703,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="122"/>
-      <c r="C28" s="111"/>
+    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="114"/>
+      <c r="C28" s="134"/>
       <c r="D28" s="37" t="s">
         <v>44</v>
       </c>
@@ -3764,9 +3766,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="122"/>
-      <c r="C29" s="111"/>
+    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="114"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="37" t="s">
         <v>45</v>
       </c>
@@ -3827,9 +3829,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="122"/>
-      <c r="C30" s="111"/>
+    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="114"/>
+      <c r="C30" s="134"/>
       <c r="D30" s="37" t="s">
         <v>46</v>
       </c>
@@ -3890,9 +3892,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="122"/>
-      <c r="C31" s="111"/>
+    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="114"/>
+      <c r="C31" s="134"/>
       <c r="D31" s="37" t="s">
         <v>47</v>
       </c>
@@ -3953,9 +3955,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="122"/>
-      <c r="C32" s="111"/>
+    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="114"/>
+      <c r="C32" s="134"/>
       <c r="D32" s="37" t="s">
         <v>48</v>
       </c>
@@ -4016,9 +4018,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="122"/>
-      <c r="C33" s="111"/>
+    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="114"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="37" t="s">
         <v>49</v>
       </c>
@@ -4079,9 +4081,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="122"/>
-      <c r="C34" s="111"/>
+    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="114"/>
+      <c r="C34" s="134"/>
       <c r="D34" s="37" t="s">
         <v>50</v>
       </c>
@@ -4142,9 +4144,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="122"/>
-      <c r="C35" s="111"/>
+    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="114"/>
+      <c r="C35" s="134"/>
       <c r="D35" s="37" t="s">
         <v>51</v>
       </c>
@@ -4205,9 +4207,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="122"/>
-      <c r="C36" s="111"/>
+    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="114"/>
+      <c r="C36" s="134"/>
       <c r="D36" s="37" t="s">
         <v>128</v>
       </c>
@@ -4268,9 +4270,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="122"/>
-      <c r="C37" s="111"/>
+    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="114"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="43" t="s">
         <v>104</v>
       </c>
@@ -4331,8 +4333,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="122"/>
+    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="114"/>
       <c r="C38" s="40" t="s">
         <v>52</v>
       </c>
@@ -4386,8 +4388,8 @@
       <c r="V38" s="21"/>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="122"/>
+    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="114"/>
       <c r="C39" s="40" t="s">
         <v>54</v>
       </c>
@@ -4441,8 +4443,8 @@
       <c r="V39" s="21"/>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="122"/>
+    <row r="40" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="114"/>
       <c r="C40" s="40" t="s">
         <v>55</v>
       </c>
@@ -4504,8 +4506,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="122"/>
+    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="114"/>
       <c r="C41" s="47" t="s">
         <v>105</v>
       </c>
@@ -4559,11 +4561,11 @@
       <c r="V41" s="21"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="113" t="s">
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="109" t="s">
+      <c r="C42" s="132" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -4580,7 +4582,7 @@
         <v>0.5</v>
       </c>
       <c r="I42" s="48">
-        <f t="shared" ref="I42:I98" si="2">SUM(J42:W42)</f>
+        <f t="shared" ref="I42:I97" si="2">SUM(J42:W42)</f>
         <v>0.95</v>
       </c>
       <c r="J42" s="92">
@@ -4626,9 +4628,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="114"/>
-      <c r="C43" s="110"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="106"/>
+      <c r="C43" s="133"/>
       <c r="D43" s="40" t="s">
         <v>21</v>
       </c>
@@ -4689,9 +4691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="114"/>
-      <c r="C44" s="110"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="106"/>
+      <c r="C44" s="133"/>
       <c r="D44" s="40" t="s">
         <v>22</v>
       </c>
@@ -4752,9 +4754,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="114"/>
-      <c r="C45" s="110"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="106"/>
+      <c r="C45" s="133"/>
       <c r="D45" s="40" t="s">
         <v>23</v>
       </c>
@@ -4815,9 +4817,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="114"/>
-      <c r="C46" s="110"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="106"/>
+      <c r="C46" s="133"/>
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
@@ -4878,9 +4880,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="114"/>
-      <c r="C47" s="110"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="106"/>
+      <c r="C47" s="133"/>
       <c r="D47" s="40" t="s">
         <v>25</v>
       </c>
@@ -4941,9 +4943,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="114"/>
-      <c r="C48" s="110"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="106"/>
+      <c r="C48" s="133"/>
       <c r="D48" s="40" t="s">
         <v>26</v>
       </c>
@@ -5004,9 +5006,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="114"/>
-      <c r="C49" s="110"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="106"/>
+      <c r="C49" s="133"/>
       <c r="D49" s="40" t="s">
         <v>27</v>
       </c>
@@ -5067,9 +5069,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="114"/>
-      <c r="C50" s="110"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="106"/>
+      <c r="C50" s="133"/>
       <c r="D50" s="40" t="s">
         <v>28</v>
       </c>
@@ -5130,9 +5132,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="114"/>
-      <c r="C51" s="110"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="106"/>
+      <c r="C51" s="133"/>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
@@ -5193,9 +5195,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="114"/>
-      <c r="C52" s="110"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="106"/>
+      <c r="C52" s="133"/>
       <c r="D52" s="40" t="s">
         <v>30</v>
       </c>
@@ -5256,9 +5258,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="114"/>
-      <c r="C53" s="110"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="106"/>
+      <c r="C53" s="133"/>
       <c r="D53" s="40" t="s">
         <v>31</v>
       </c>
@@ -5319,9 +5321,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="114"/>
-      <c r="C54" s="110"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="106"/>
+      <c r="C54" s="133"/>
       <c r="D54" s="40" t="s">
         <v>70</v>
       </c>
@@ -5337,7 +5339,7 @@
       </c>
       <c r="I54" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J54" s="61">
         <v>0</v>
@@ -5372,13 +5374,19 @@
       <c r="T54" s="101">
         <v>0</v>
       </c>
-      <c r="U54" s="21"/>
-      <c r="V54" s="21"/>
-      <c r="W54" s="22"/>
-    </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="114"/>
-      <c r="C55" s="110"/>
+      <c r="U54" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="V54" s="87">
+        <v>0</v>
+      </c>
+      <c r="W54" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="106"/>
+      <c r="C55" s="133"/>
       <c r="D55" s="40" t="s">
         <v>71</v>
       </c>
@@ -5394,7 +5402,7 @@
       </c>
       <c r="I55" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J55" s="61">
         <v>0</v>
@@ -5429,15 +5437,21 @@
       <c r="T55" s="101">
         <v>0</v>
       </c>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="22"/>
-    </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="114"/>
-      <c r="C56" s="110"/>
+      <c r="U55" s="87">
+        <v>0.17</v>
+      </c>
+      <c r="V55" s="87">
+        <v>0</v>
+      </c>
+      <c r="W55" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="106"/>
+      <c r="C56" s="133"/>
       <c r="D56" s="40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
@@ -5451,7 +5465,7 @@
       </c>
       <c r="I56" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="J56" s="61">
         <v>0</v>
@@ -5486,15 +5500,21 @@
       <c r="T56" s="101">
         <v>0</v>
       </c>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="22"/>
-    </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="114"/>
-      <c r="C57" s="110"/>
+      <c r="U56" s="87">
+        <v>0.17</v>
+      </c>
+      <c r="V56" s="87">
+        <v>0</v>
+      </c>
+      <c r="W56" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="106"/>
+      <c r="C57" s="133"/>
       <c r="D57" s="40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
@@ -5508,7 +5528,7 @@
       </c>
       <c r="I57" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J57" s="61">
         <v>0</v>
@@ -5543,15 +5563,21 @@
       <c r="T57" s="101">
         <v>0</v>
       </c>
-      <c r="U57" s="21"/>
-      <c r="V57" s="21"/>
-      <c r="W57" s="22"/>
-    </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="114"/>
-      <c r="C58" s="110"/>
+      <c r="U57" s="87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V57" s="87">
+        <v>0</v>
+      </c>
+      <c r="W57" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="106"/>
+      <c r="C58" s="133"/>
       <c r="D58" s="40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
@@ -5565,7 +5591,7 @@
       </c>
       <c r="I58" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J58" s="61">
         <v>0</v>
@@ -5600,15 +5626,21 @@
       <c r="T58" s="101">
         <v>0</v>
       </c>
-      <c r="U58" s="21"/>
-      <c r="V58" s="21"/>
-      <c r="W58" s="22"/>
-    </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="114"/>
-      <c r="C59" s="110"/>
+      <c r="U58" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="V58" s="87">
+        <v>0</v>
+      </c>
+      <c r="W58" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="106"/>
+      <c r="C59" s="133"/>
       <c r="D59" s="40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
@@ -5622,7 +5654,7 @@
       </c>
       <c r="I59" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="J59" s="61">
         <v>0</v>
@@ -5657,15 +5689,21 @@
       <c r="T59" s="101">
         <v>0</v>
       </c>
-      <c r="U59" s="21"/>
-      <c r="V59" s="21"/>
-      <c r="W59" s="22"/>
-    </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="114"/>
-      <c r="C60" s="110"/>
+      <c r="U59" s="87">
+        <v>0.06</v>
+      </c>
+      <c r="V59" s="87">
+        <v>0</v>
+      </c>
+      <c r="W59" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="106"/>
+      <c r="C60" s="133"/>
       <c r="D60" s="40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
@@ -5679,7 +5717,7 @@
       </c>
       <c r="I60" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J60" s="61">
         <v>0</v>
@@ -5714,15 +5752,21 @@
       <c r="T60" s="101">
         <v>0</v>
       </c>
-      <c r="U60" s="21"/>
-      <c r="V60" s="21"/>
-      <c r="W60" s="22"/>
-    </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="114"/>
-      <c r="C61" s="110"/>
+      <c r="U60" s="87">
+        <v>0.04</v>
+      </c>
+      <c r="V60" s="87">
+        <v>0</v>
+      </c>
+      <c r="W60" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="106"/>
+      <c r="C61" s="133"/>
       <c r="D61" s="40" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
@@ -5736,7 +5780,7 @@
       </c>
       <c r="I61" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="J61" s="61">
         <v>0</v>
@@ -5771,15 +5815,21 @@
       <c r="T61" s="101">
         <v>0</v>
       </c>
-      <c r="U61" s="21"/>
-      <c r="V61" s="21"/>
-      <c r="W61" s="22"/>
-    </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="114"/>
-      <c r="C62" s="110"/>
+      <c r="U61" s="87">
+        <v>0.05</v>
+      </c>
+      <c r="V61" s="87">
+        <v>0</v>
+      </c>
+      <c r="W61" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="106"/>
+      <c r="C62" s="133"/>
       <c r="D62" s="40" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
@@ -5793,7 +5843,7 @@
       </c>
       <c r="I62" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="J62" s="61">
         <v>0</v>
@@ -5828,15 +5878,21 @@
       <c r="T62" s="101">
         <v>0</v>
       </c>
-      <c r="U62" s="21"/>
-      <c r="V62" s="21"/>
-      <c r="W62" s="22"/>
-    </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="114"/>
-      <c r="C63" s="110"/>
+      <c r="U62" s="87">
+        <v>0.04</v>
+      </c>
+      <c r="V62" s="87">
+        <v>0</v>
+      </c>
+      <c r="W62" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="106"/>
+      <c r="C63" s="133"/>
       <c r="D63" s="40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
@@ -5850,7 +5906,7 @@
       </c>
       <c r="I63" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J63" s="61">
         <v>0</v>
@@ -5885,15 +5941,21 @@
       <c r="T63" s="101">
         <v>0</v>
       </c>
-      <c r="U63" s="21"/>
-      <c r="V63" s="21"/>
-      <c r="W63" s="22"/>
-    </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="114"/>
-      <c r="C64" s="110"/>
+      <c r="U63" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="V63" s="87">
+        <v>0</v>
+      </c>
+      <c r="W63" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="106"/>
+      <c r="C64" s="133"/>
       <c r="D64" s="40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
@@ -5946,11 +6008,11 @@
       <c r="V64" s="21"/>
       <c r="W64" s="22"/>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="114"/>
-      <c r="C65" s="110"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="106"/>
+      <c r="C65" s="133"/>
       <c r="D65" s="40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
@@ -6003,11 +6065,11 @@
       <c r="V65" s="21"/>
       <c r="W65" s="22"/>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="114"/>
-      <c r="C66" s="110"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="106"/>
+      <c r="C66" s="133"/>
       <c r="D66" s="40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E66" s="40"/>
       <c r="F66" s="40" t="s">
@@ -6060,11 +6122,11 @@
       <c r="V66" s="21"/>
       <c r="W66" s="22"/>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="114"/>
-      <c r="C67" s="110"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="106"/>
+      <c r="C67" s="133"/>
       <c r="D67" s="40" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E67" s="40"/>
       <c r="F67" s="40" t="s">
@@ -6117,11 +6179,11 @@
       <c r="V67" s="21"/>
       <c r="W67" s="22"/>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="114"/>
-      <c r="C68" s="110"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="106"/>
+      <c r="C68" s="133"/>
       <c r="D68" s="40" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E68" s="40"/>
       <c r="F68" s="40" t="s">
@@ -6174,11 +6236,11 @@
       <c r="V68" s="21"/>
       <c r="W68" s="22"/>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="114"/>
-      <c r="C69" s="110"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="106"/>
+      <c r="C69" s="133"/>
       <c r="D69" s="40" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E69" s="40"/>
       <c r="F69" s="40" t="s">
@@ -6231,11 +6293,11 @@
       <c r="V69" s="21"/>
       <c r="W69" s="22"/>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="114"/>
-      <c r="C70" s="110"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="106"/>
+      <c r="C70" s="133"/>
       <c r="D70" s="40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E70" s="40"/>
       <c r="F70" s="40" t="s">
@@ -6288,11 +6350,11 @@
       <c r="V70" s="21"/>
       <c r="W70" s="22"/>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="114"/>
-      <c r="C71" s="110"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="106"/>
+      <c r="C71" s="133"/>
       <c r="D71" s="40" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="40" t="s">
@@ -6345,11 +6407,11 @@
       <c r="V71" s="21"/>
       <c r="W71" s="22"/>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="114"/>
-      <c r="C72" s="110"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="106"/>
+      <c r="C72" s="133"/>
       <c r="D72" s="40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40" t="s">
@@ -6402,11 +6464,11 @@
       <c r="V72" s="21"/>
       <c r="W72" s="22"/>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="114"/>
-      <c r="C73" s="110"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="106"/>
+      <c r="C73" s="133"/>
       <c r="D73" s="40" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E73" s="40"/>
       <c r="F73" s="40" t="s">
@@ -6459,11 +6521,11 @@
       <c r="V73" s="21"/>
       <c r="W73" s="22"/>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="114"/>
-      <c r="C74" s="110"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="106"/>
+      <c r="C74" s="133"/>
       <c r="D74" s="40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E74" s="40"/>
       <c r="F74" s="40" t="s">
@@ -6516,11 +6578,11 @@
       <c r="V74" s="21"/>
       <c r="W74" s="22"/>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="114"/>
-      <c r="C75" s="110"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="106"/>
+      <c r="C75" s="133"/>
       <c r="D75" s="40" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E75" s="40"/>
       <c r="F75" s="40" t="s">
@@ -6573,11 +6635,11 @@
       <c r="V75" s="21"/>
       <c r="W75" s="22"/>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="114"/>
-      <c r="C76" s="110"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="106"/>
+      <c r="C76" s="133"/>
       <c r="D76" s="40" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E76" s="40"/>
       <c r="F76" s="40" t="s">
@@ -6630,11 +6692,11 @@
       <c r="V76" s="21"/>
       <c r="W76" s="22"/>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="114"/>
-      <c r="C77" s="110"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="106"/>
+      <c r="C77" s="133"/>
       <c r="D77" s="40" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="40"/>
       <c r="F77" s="40" t="s">
@@ -6687,11 +6749,11 @@
       <c r="V77" s="21"/>
       <c r="W77" s="22"/>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="114"/>
-      <c r="C78" s="110"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="106"/>
+      <c r="C78" s="133"/>
       <c r="D78" s="40" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E78" s="40"/>
       <c r="F78" s="40" t="s">
@@ -6744,11 +6806,11 @@
       <c r="V78" s="21"/>
       <c r="W78" s="22"/>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="114"/>
-      <c r="C79" s="110"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="106"/>
+      <c r="C79" s="133"/>
       <c r="D79" s="40" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E79" s="40"/>
       <c r="F79" s="40" t="s">
@@ -6801,11 +6863,11 @@
       <c r="V79" s="21"/>
       <c r="W79" s="22"/>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="114"/>
-      <c r="C80" s="110"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="106"/>
+      <c r="C80" s="133"/>
       <c r="D80" s="40" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E80" s="40"/>
       <c r="F80" s="40" t="s">
@@ -6818,7 +6880,7 @@
         <v>0.25</v>
       </c>
       <c r="I80" s="46">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I80:I85" si="3">SUM(J80:W80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="61">
@@ -6858,11 +6920,11 @@
       <c r="V80" s="21"/>
       <c r="W80" s="22"/>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="114"/>
-      <c r="C81" s="110"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="106"/>
+      <c r="C81" s="133"/>
       <c r="D81" s="40" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E81" s="40"/>
       <c r="F81" s="40" t="s">
@@ -6875,7 +6937,7 @@
         <v>0.25</v>
       </c>
       <c r="I81" s="46">
-        <f t="shared" ref="I81:I86" si="3">SUM(J81:W81)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81" s="61">
@@ -6915,11 +6977,11 @@
       <c r="V81" s="21"/>
       <c r="W81" s="22"/>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="114"/>
-      <c r="C82" s="110"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="106"/>
+      <c r="C82" s="133"/>
       <c r="D82" s="40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E82" s="40"/>
       <c r="F82" s="40" t="s">
@@ -6972,147 +7034,147 @@
       <c r="V82" s="21"/>
       <c r="W82" s="22"/>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="114"/>
-      <c r="C83" s="110"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="106"/>
+      <c r="C83" s="133"/>
       <c r="D83" s="40" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E83" s="40"/>
       <c r="F83" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="G83" s="4">
-        <v>2</v>
-      </c>
-      <c r="H83" s="4">
-        <v>0.25</v>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16">
+        <v>1</v>
       </c>
       <c r="I83" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J83" s="61">
         <v>0</v>
       </c>
-      <c r="K83" s="61">
-        <v>0</v>
-      </c>
-      <c r="L83" s="61">
-        <v>0</v>
-      </c>
-      <c r="M83" s="61">
-        <v>0</v>
-      </c>
-      <c r="N83" s="61">
-        <v>0</v>
-      </c>
-      <c r="O83" s="61">
-        <v>0</v>
-      </c>
-      <c r="P83" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="61">
-        <v>0</v>
-      </c>
-      <c r="R83" s="61">
-        <v>0</v>
-      </c>
-      <c r="S83" s="61">
-        <v>0</v>
-      </c>
-      <c r="T83" s="101">
-        <v>0</v>
-      </c>
-      <c r="U83" s="21"/>
-      <c r="V83" s="21"/>
-      <c r="W83" s="22"/>
-    </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="114"/>
-      <c r="C84" s="110"/>
-      <c r="D84" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" s="16">
-        <v>1</v>
-      </c>
-      <c r="H84" s="16">
-        <v>1</v>
+      <c r="K83" s="39">
+        <v>0.8</v>
+      </c>
+      <c r="L83" s="39">
+        <v>0</v>
+      </c>
+      <c r="M83" s="39">
+        <v>0</v>
+      </c>
+      <c r="N83" s="39">
+        <v>0</v>
+      </c>
+      <c r="O83" s="39">
+        <v>0</v>
+      </c>
+      <c r="P83" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="39">
+        <v>0</v>
+      </c>
+      <c r="R83" s="39">
+        <v>0</v>
+      </c>
+      <c r="S83" s="39">
+        <v>0</v>
+      </c>
+      <c r="T83" s="39">
+        <v>0</v>
+      </c>
+      <c r="U83" s="39">
+        <v>0</v>
+      </c>
+      <c r="V83" s="39">
+        <v>0</v>
+      </c>
+      <c r="W83" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="106"/>
+      <c r="C84" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="E84" s="43"/>
+      <c r="F84" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" s="4">
+        <v>5</v>
+      </c>
+      <c r="H84" s="4">
+        <v>2</v>
       </c>
       <c r="I84" s="46">
         <f t="shared" si="3"/>
-        <v>0.8</v>
+        <v>1.48</v>
       </c>
       <c r="J84" s="61">
         <v>0</v>
       </c>
-      <c r="K84" s="39">
-        <v>0.8</v>
-      </c>
-      <c r="L84" s="39">
-        <v>0</v>
-      </c>
-      <c r="M84" s="39">
-        <v>0</v>
-      </c>
-      <c r="N84" s="39">
-        <v>0</v>
-      </c>
-      <c r="O84" s="39">
-        <v>0</v>
-      </c>
-      <c r="P84" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="39">
-        <v>0</v>
-      </c>
-      <c r="R84" s="39">
-        <v>0</v>
-      </c>
-      <c r="S84" s="39">
-        <v>0</v>
-      </c>
-      <c r="T84" s="39">
-        <v>0</v>
-      </c>
-      <c r="U84" s="39">
-        <v>0</v>
-      </c>
-      <c r="V84" s="39">
-        <v>0</v>
-      </c>
-      <c r="W84" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="114"/>
+      <c r="K84" s="61">
+        <v>0</v>
+      </c>
+      <c r="L84" s="61">
+        <v>0</v>
+      </c>
+      <c r="M84" s="61">
+        <v>0</v>
+      </c>
+      <c r="N84" s="61">
+        <v>0</v>
+      </c>
+      <c r="O84" s="61">
+        <v>0</v>
+      </c>
+      <c r="P84" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="61">
+        <v>0</v>
+      </c>
+      <c r="R84" s="61">
+        <v>0</v>
+      </c>
+      <c r="S84" s="61">
+        <v>0</v>
+      </c>
+      <c r="T84" s="87">
+        <v>1.48</v>
+      </c>
+      <c r="U84" s="21"/>
+      <c r="V84" s="21"/>
+      <c r="W84" s="22"/>
+    </row>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="106"/>
       <c r="C85" s="96" t="s">
-        <v>37</v>
-      </c>
-      <c r="D85" s="37" t="s">
-        <v>129</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="D85" s="43"/>
       <c r="E85" s="43"/>
-      <c r="F85" s="43" t="s">
+      <c r="F85" s="37" t="s">
         <v>15</v>
       </c>
       <c r="G85" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H85" s="4">
-        <v>2</v>
+        <v>0.2</v>
       </c>
       <c r="I85" s="46">
         <f t="shared" si="3"/>
-        <v>1.48</v>
+        <v>0.25</v>
       </c>
       <c r="J85" s="61">
         <v>0</v>
@@ -7135,26 +7197,32 @@
       <c r="P85" s="61">
         <v>0</v>
       </c>
-      <c r="Q85" s="61">
-        <v>0</v>
-      </c>
-      <c r="R85" s="61">
-        <v>0</v>
-      </c>
-      <c r="S85" s="61">
-        <v>0</v>
-      </c>
-      <c r="T85" s="87">
-        <v>1.48</v>
-      </c>
-      <c r="U85" s="21"/>
-      <c r="V85" s="21"/>
-      <c r="W85" s="22"/>
-    </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="114"/>
-      <c r="C86" s="96" t="s">
-        <v>126</v>
+      <c r="Q85" s="39">
+        <v>0.25</v>
+      </c>
+      <c r="R85" s="39">
+        <v>0</v>
+      </c>
+      <c r="S85" s="39">
+        <v>0</v>
+      </c>
+      <c r="T85" s="39">
+        <v>0</v>
+      </c>
+      <c r="U85" s="39">
+        <v>0</v>
+      </c>
+      <c r="V85" s="39">
+        <v>0</v>
+      </c>
+      <c r="W85" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="106"/>
+      <c r="C86" s="73" t="s">
+        <v>118</v>
       </c>
       <c r="D86" s="43"/>
       <c r="E86" s="43"/>
@@ -7162,295 +7230,287 @@
         <v>15</v>
       </c>
       <c r="G86" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H86" s="4">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="I86" s="46">
-        <f t="shared" si="3"/>
-        <v>0.25</v>
-      </c>
-      <c r="J86" s="61">
-        <v>0</v>
-      </c>
-      <c r="K86" s="61">
-        <v>0</v>
-      </c>
-      <c r="L86" s="61">
-        <v>0</v>
-      </c>
-      <c r="M86" s="61">
-        <v>0</v>
-      </c>
-      <c r="N86" s="61">
-        <v>0</v>
-      </c>
-      <c r="O86" s="61">
-        <v>0</v>
-      </c>
-      <c r="P86" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="39">
-        <v>0.25</v>
-      </c>
-      <c r="R86" s="39">
-        <v>0</v>
-      </c>
-      <c r="S86" s="39">
-        <v>0</v>
-      </c>
-      <c r="T86" s="39">
-        <v>0</v>
-      </c>
-      <c r="U86" s="39">
-        <v>0</v>
-      </c>
-      <c r="V86" s="39">
-        <v>0</v>
-      </c>
-      <c r="W86" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="114"/>
-      <c r="C87" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="43"/>
-      <c r="E87" s="43"/>
-      <c r="F87" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" s="4">
-        <v>1</v>
-      </c>
-      <c r="H87" s="4">
-        <v>2</v>
-      </c>
-      <c r="I87" s="46">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="J87" s="39">
+      <c r="J86" s="39">
         <v>1.5</v>
       </c>
-      <c r="K87" s="39">
-        <v>0</v>
-      </c>
-      <c r="L87" s="39">
-        <v>0</v>
-      </c>
-      <c r="M87" s="39">
-        <v>0</v>
-      </c>
-      <c r="N87" s="39">
-        <v>0</v>
-      </c>
-      <c r="O87" s="39">
-        <v>0</v>
-      </c>
-      <c r="P87" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q87" s="39">
-        <v>0</v>
-      </c>
-      <c r="R87" s="39">
-        <v>0</v>
-      </c>
-      <c r="S87" s="39">
-        <v>0</v>
-      </c>
-      <c r="T87" s="39">
-        <v>0</v>
-      </c>
-      <c r="U87" s="39">
-        <v>0</v>
-      </c>
-      <c r="V87" s="39">
-        <v>0</v>
-      </c>
-      <c r="W87" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="114"/>
-      <c r="C88" s="65" t="s">
+      <c r="K86" s="39">
+        <v>0</v>
+      </c>
+      <c r="L86" s="39">
+        <v>0</v>
+      </c>
+      <c r="M86" s="39">
+        <v>0</v>
+      </c>
+      <c r="N86" s="39">
+        <v>0</v>
+      </c>
+      <c r="O86" s="39">
+        <v>0</v>
+      </c>
+      <c r="P86" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="39">
+        <v>0</v>
+      </c>
+      <c r="R86" s="39">
+        <v>0</v>
+      </c>
+      <c r="S86" s="39">
+        <v>0</v>
+      </c>
+      <c r="T86" s="39">
+        <v>0</v>
+      </c>
+      <c r="U86" s="39">
+        <v>0</v>
+      </c>
+      <c r="V86" s="39">
+        <v>0</v>
+      </c>
+      <c r="W86" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="106"/>
+      <c r="C87" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="D88" s="33"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45" t="s">
+      <c r="D87" s="33"/>
+      <c r="E87" s="45"/>
+      <c r="F87" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G88" s="4">
+      <c r="G87" s="4">
         <v>4</v>
       </c>
-      <c r="H88" s="4">
+      <c r="H87" s="4">
         <v>1</v>
       </c>
-      <c r="I88" s="46">
-        <f>SUM(J88:W88)</f>
-        <v>0</v>
-      </c>
-      <c r="J88" s="61">
-        <v>0</v>
-      </c>
-      <c r="K88" s="61">
-        <v>0</v>
-      </c>
-      <c r="L88" s="61">
-        <v>0</v>
-      </c>
-      <c r="M88" s="61">
-        <v>0</v>
-      </c>
-      <c r="N88" s="61">
-        <v>0</v>
-      </c>
-      <c r="O88" s="61">
-        <v>0</v>
-      </c>
-      <c r="P88" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q88" s="61">
-        <v>0</v>
-      </c>
-      <c r="R88" s="61">
-        <v>0</v>
-      </c>
-      <c r="S88" s="61">
-        <v>0</v>
-      </c>
-      <c r="T88" s="21"/>
-      <c r="U88" s="21"/>
-      <c r="V88" s="21"/>
-      <c r="W88" s="22"/>
-    </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="131" t="s">
+      <c r="I87" s="46">
+        <f>SUM(J87:W87)</f>
+        <v>0</v>
+      </c>
+      <c r="J87" s="61">
+        <v>0</v>
+      </c>
+      <c r="K87" s="61">
+        <v>0</v>
+      </c>
+      <c r="L87" s="61">
+        <v>0</v>
+      </c>
+      <c r="M87" s="61">
+        <v>0</v>
+      </c>
+      <c r="N87" s="61">
+        <v>0</v>
+      </c>
+      <c r="O87" s="61">
+        <v>0</v>
+      </c>
+      <c r="P87" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="61">
+        <v>0</v>
+      </c>
+      <c r="R87" s="61">
+        <v>0</v>
+      </c>
+      <c r="S87" s="61">
+        <v>0</v>
+      </c>
+      <c r="T87" s="21"/>
+      <c r="U87" s="21"/>
+      <c r="V87" s="21"/>
+      <c r="W87" s="22"/>
+    </row>
+    <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C88" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="D89" s="30"/>
-      <c r="E89" s="29"/>
-      <c r="F89" s="29" t="s">
+      <c r="D88" s="30"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G88" s="12">
         <v>6</v>
       </c>
-      <c r="H89" s="12">
+      <c r="H88" s="12">
         <v>0.75</v>
+      </c>
+      <c r="I88" s="48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="60">
+        <v>0</v>
+      </c>
+      <c r="K88" s="60">
+        <v>0</v>
+      </c>
+      <c r="L88" s="60">
+        <v>0</v>
+      </c>
+      <c r="M88" s="60">
+        <v>0</v>
+      </c>
+      <c r="N88" s="60">
+        <v>0</v>
+      </c>
+      <c r="O88" s="60">
+        <v>0</v>
+      </c>
+      <c r="P88" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="60">
+        <v>0</v>
+      </c>
+      <c r="R88" s="60">
+        <v>0</v>
+      </c>
+      <c r="S88" s="60">
+        <v>0</v>
+      </c>
+      <c r="T88" s="19"/>
+      <c r="U88" s="19"/>
+      <c r="V88" s="19"/>
+      <c r="W88" s="57"/>
+    </row>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="124"/>
+      <c r="C89" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="31"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="27">
+        <v>6</v>
+      </c>
+      <c r="H89" s="27">
+        <v>1.5</v>
       </c>
       <c r="I89" s="48">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J89" s="60">
-        <v>0</v>
-      </c>
-      <c r="K89" s="60">
-        <v>0</v>
-      </c>
-      <c r="L89" s="60">
-        <v>0</v>
-      </c>
-      <c r="M89" s="60">
-        <v>0</v>
-      </c>
-      <c r="N89" s="60">
-        <v>0</v>
-      </c>
-      <c r="O89" s="60">
-        <v>0</v>
-      </c>
-      <c r="P89" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="60">
-        <v>0</v>
-      </c>
-      <c r="R89" s="60">
-        <v>0</v>
-      </c>
-      <c r="S89" s="60">
-        <v>0</v>
-      </c>
-      <c r="T89" s="19"/>
-      <c r="U89" s="19"/>
-      <c r="V89" s="19"/>
-      <c r="W89" s="57"/>
-    </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="132"/>
-      <c r="C90" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="32"/>
-      <c r="F90" s="32" t="s">
+      <c r="J89" s="63">
+        <v>0</v>
+      </c>
+      <c r="K89" s="63">
+        <v>0</v>
+      </c>
+      <c r="L89" s="63">
+        <v>0</v>
+      </c>
+      <c r="M89" s="63">
+        <v>0</v>
+      </c>
+      <c r="N89" s="63">
+        <v>0</v>
+      </c>
+      <c r="O89" s="63">
+        <v>0</v>
+      </c>
+      <c r="P89" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="63">
+        <v>0</v>
+      </c>
+      <c r="R89" s="63">
+        <v>0</v>
+      </c>
+      <c r="S89" s="63">
+        <v>0</v>
+      </c>
+      <c r="T89" s="26"/>
+      <c r="U89" s="26"/>
+      <c r="V89" s="26"/>
+      <c r="W89" s="56"/>
+    </row>
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="125"/>
+      <c r="C90" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="D90" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E90" s="45"/>
+      <c r="F90" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="27">
+      <c r="G90" s="4">
         <v>6</v>
       </c>
-      <c r="H90" s="27">
-        <v>1.5</v>
-      </c>
-      <c r="I90" s="48">
+      <c r="H90" s="4">
+        <v>1</v>
+      </c>
+      <c r="I90" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J90" s="63">
-        <v>0</v>
-      </c>
-      <c r="K90" s="63">
-        <v>0</v>
-      </c>
-      <c r="L90" s="63">
-        <v>0</v>
-      </c>
-      <c r="M90" s="63">
-        <v>0</v>
-      </c>
-      <c r="N90" s="63">
-        <v>0</v>
-      </c>
-      <c r="O90" s="63">
-        <v>0</v>
-      </c>
-      <c r="P90" s="63">
-        <v>0</v>
-      </c>
-      <c r="Q90" s="63">
-        <v>0</v>
-      </c>
-      <c r="R90" s="63">
-        <v>0</v>
-      </c>
-      <c r="S90" s="63">
-        <v>0</v>
-      </c>
-      <c r="T90" s="26"/>
-      <c r="U90" s="26"/>
-      <c r="V90" s="26"/>
-      <c r="W90" s="56"/>
-    </row>
-    <row r="91" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="133"/>
-      <c r="C91" s="112" t="s">
-        <v>101</v>
-      </c>
+      <c r="J90" s="61">
+        <v>0</v>
+      </c>
+      <c r="K90" s="61">
+        <v>0</v>
+      </c>
+      <c r="L90" s="61">
+        <v>0</v>
+      </c>
+      <c r="M90" s="61">
+        <v>0</v>
+      </c>
+      <c r="N90" s="61">
+        <v>0</v>
+      </c>
+      <c r="O90" s="61">
+        <v>0</v>
+      </c>
+      <c r="P90" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q90" s="61">
+        <v>0</v>
+      </c>
+      <c r="R90" s="61">
+        <v>0</v>
+      </c>
+      <c r="S90" s="61">
+        <v>0</v>
+      </c>
+      <c r="T90" s="20"/>
+      <c r="U90" s="20"/>
+      <c r="V90" s="20"/>
+      <c r="W90" s="49"/>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B91" s="126"/>
+      <c r="C91" s="135"/>
       <c r="D91" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E91" s="45"/>
       <c r="F91" s="45" t="s">
@@ -7460,7 +7520,7 @@
         <v>6</v>
       </c>
       <c r="H91" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I91" s="46">
         <f t="shared" si="2"/>
@@ -7496,198 +7556,206 @@
       <c r="S91" s="61">
         <v>0</v>
       </c>
-      <c r="T91" s="20"/>
-      <c r="U91" s="20"/>
-      <c r="V91" s="20"/>
+      <c r="T91" s="21"/>
+      <c r="U91" s="21"/>
+      <c r="V91" s="21"/>
       <c r="W91" s="49"/>
     </row>
-    <row r="92" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B92" s="134"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="E92" s="45"/>
-      <c r="F92" s="45" t="s">
+    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="127"/>
+      <c r="C92" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="D92" s="34"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G92" s="4">
-        <v>6</v>
-      </c>
-      <c r="H92" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="46">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="61">
-        <v>0</v>
-      </c>
-      <c r="K92" s="61">
-        <v>0</v>
-      </c>
-      <c r="L92" s="61">
-        <v>0</v>
-      </c>
-      <c r="M92" s="61">
-        <v>0</v>
-      </c>
-      <c r="N92" s="61">
-        <v>0</v>
-      </c>
-      <c r="O92" s="61">
-        <v>0</v>
-      </c>
-      <c r="P92" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q92" s="61">
-        <v>0</v>
-      </c>
-      <c r="R92" s="61">
-        <v>0</v>
-      </c>
-      <c r="S92" s="61">
-        <v>0</v>
-      </c>
-      <c r="T92" s="21"/>
-      <c r="U92" s="21"/>
-      <c r="V92" s="21"/>
-      <c r="W92" s="49"/>
-    </row>
-    <row r="93" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="135"/>
-      <c r="C93" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G93" s="11">
+      <c r="G92" s="11">
         <v>1</v>
       </c>
-      <c r="H93" s="11">
+      <c r="H92" s="11">
         <v>1</v>
       </c>
-      <c r="I93" s="50">
+      <c r="I92" s="50">
         <f t="shared" si="2"/>
         <v>0.75</v>
       </c>
-      <c r="J93" s="62">
-        <v>0</v>
-      </c>
-      <c r="K93" s="62">
-        <v>0</v>
-      </c>
-      <c r="L93" s="62">
-        <v>0</v>
-      </c>
-      <c r="M93" s="84">
+      <c r="J92" s="62">
+        <v>0</v>
+      </c>
+      <c r="K92" s="62">
+        <v>0</v>
+      </c>
+      <c r="L92" s="62">
+        <v>0</v>
+      </c>
+      <c r="M92" s="84">
         <v>0.75</v>
       </c>
-      <c r="N93" s="84">
-        <v>0</v>
-      </c>
-      <c r="O93" s="84">
-        <v>0</v>
-      </c>
-      <c r="P93" s="84">
-        <v>0</v>
-      </c>
-      <c r="Q93" s="84">
-        <v>0</v>
-      </c>
-      <c r="R93" s="84">
-        <v>0</v>
-      </c>
-      <c r="S93" s="84">
-        <v>0</v>
-      </c>
-      <c r="T93" s="84">
-        <v>0</v>
-      </c>
-      <c r="U93" s="84">
-        <v>0</v>
-      </c>
-      <c r="V93" s="84">
-        <v>0</v>
-      </c>
-      <c r="W93" s="84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="113" t="s">
+      <c r="N92" s="84">
+        <v>0</v>
+      </c>
+      <c r="O92" s="84">
+        <v>0</v>
+      </c>
+      <c r="P92" s="84">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="84">
+        <v>0</v>
+      </c>
+      <c r="R92" s="84">
+        <v>0</v>
+      </c>
+      <c r="S92" s="84">
+        <v>0</v>
+      </c>
+      <c r="T92" s="84">
+        <v>0</v>
+      </c>
+      <c r="U92" s="84">
+        <v>0</v>
+      </c>
+      <c r="V92" s="84">
+        <v>0</v>
+      </c>
+      <c r="W92" s="84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="105" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="54" t="s">
+      <c r="C93" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D94" s="53"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54" t="s">
+      <c r="D93" s="53"/>
+      <c r="E93" s="54"/>
+      <c r="F93" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G93" s="12">
         <v>1</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H93" s="12">
         <v>1.5</v>
       </c>
-      <c r="I94" s="48">
+      <c r="I93" s="48">
         <f t="shared" si="2"/>
         <v>0.46700000000000003</v>
       </c>
-      <c r="J94" s="60">
-        <v>0</v>
-      </c>
-      <c r="K94" s="60">
-        <v>0</v>
-      </c>
-      <c r="L94" s="60">
-        <v>0</v>
-      </c>
-      <c r="M94" s="76">
+      <c r="J93" s="60">
+        <v>0</v>
+      </c>
+      <c r="K93" s="60">
+        <v>0</v>
+      </c>
+      <c r="L93" s="60">
+        <v>0</v>
+      </c>
+      <c r="M93" s="76">
         <v>0.46700000000000003</v>
       </c>
-      <c r="N94" s="76">
-        <v>0</v>
-      </c>
-      <c r="O94" s="76">
-        <v>0</v>
-      </c>
-      <c r="P94" s="76">
-        <v>0</v>
-      </c>
-      <c r="Q94" s="76">
-        <v>0</v>
-      </c>
-      <c r="R94" s="76">
-        <v>0</v>
-      </c>
-      <c r="S94" s="76">
-        <v>0</v>
-      </c>
-      <c r="T94" s="76">
-        <v>0</v>
-      </c>
-      <c r="U94" s="76">
-        <v>0</v>
-      </c>
-      <c r="V94" s="76">
-        <v>0</v>
-      </c>
-      <c r="W94" s="76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B95" s="134"/>
+      <c r="N93" s="76">
+        <v>0</v>
+      </c>
+      <c r="O93" s="76">
+        <v>0</v>
+      </c>
+      <c r="P93" s="76">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="76">
+        <v>0</v>
+      </c>
+      <c r="R93" s="76">
+        <v>0</v>
+      </c>
+      <c r="S93" s="76">
+        <v>0</v>
+      </c>
+      <c r="T93" s="76">
+        <v>0</v>
+      </c>
+      <c r="U93" s="76">
+        <v>0</v>
+      </c>
+      <c r="V93" s="76">
+        <v>0</v>
+      </c>
+      <c r="W93" s="76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B94" s="126"/>
+      <c r="C94" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="D94" s="33"/>
+      <c r="E94" s="45"/>
+      <c r="F94" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="4">
+        <v>1</v>
+      </c>
+      <c r="H94" s="4">
+        <v>0.33</v>
+      </c>
+      <c r="I94" s="46">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="J94" s="61">
+        <v>0</v>
+      </c>
+      <c r="K94" s="61">
+        <v>0</v>
+      </c>
+      <c r="L94" s="61">
+        <v>0</v>
+      </c>
+      <c r="M94" s="85">
+        <v>0</v>
+      </c>
+      <c r="N94" s="85">
+        <v>0</v>
+      </c>
+      <c r="O94" s="89">
+        <v>0</v>
+      </c>
+      <c r="P94" s="89">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="89">
+        <v>0</v>
+      </c>
+      <c r="R94" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="S94" s="87">
+        <v>0</v>
+      </c>
+      <c r="T94" s="87">
+        <v>0</v>
+      </c>
+      <c r="U94" s="87">
+        <v>0</v>
+      </c>
+      <c r="V94" s="87">
+        <v>0</v>
+      </c>
+      <c r="W94" s="87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B95" s="126"/>
       <c r="C95" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D95" s="33"/>
       <c r="E95" s="45"/>
@@ -7702,7 +7770,7 @@
       </c>
       <c r="I95" s="46">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="J95" s="61">
         <v>0</v>
@@ -7719,17 +7787,17 @@
       <c r="N95" s="85">
         <v>0</v>
       </c>
-      <c r="O95" s="89">
-        <v>0</v>
-      </c>
-      <c r="P95" s="89">
-        <v>0</v>
-      </c>
-      <c r="Q95" s="89">
+      <c r="O95" s="87">
+        <v>1</v>
+      </c>
+      <c r="P95" s="93">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="87">
         <v>0</v>
       </c>
       <c r="R95" s="87">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S95" s="87">
         <v>0</v>
@@ -7747,10 +7815,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B96" s="134"/>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B96" s="126"/>
       <c r="C96" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="45"/>
@@ -7765,7 +7833,7 @@
       </c>
       <c r="I96" s="46">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="J96" s="61">
         <v>0</v>
@@ -7783,9 +7851,9 @@
         <v>0</v>
       </c>
       <c r="O96" s="87">
-        <v>1</v>
-      </c>
-      <c r="P96" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="P96" s="87">
         <v>0</v>
       </c>
       <c r="Q96" s="87">
@@ -7810,10 +7878,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B97" s="134"/>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B97" s="126"/>
       <c r="C97" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D97" s="33"/>
       <c r="E97" s="45"/>
@@ -7821,7 +7889,7 @@
         <v>16</v>
       </c>
       <c r="G97" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H97" s="4">
         <v>0.33</v>
@@ -7839,30 +7907,26 @@
       <c r="L97" s="61">
         <v>0</v>
       </c>
-      <c r="M97" s="85">
-        <v>0</v>
-      </c>
-      <c r="N97" s="85">
-        <v>0</v>
-      </c>
-      <c r="O97" s="87">
+      <c r="M97" s="61">
+        <v>0</v>
+      </c>
+      <c r="N97" s="61">
+        <v>0</v>
+      </c>
+      <c r="O97" s="61">
+        <v>0</v>
+      </c>
+      <c r="P97" s="61">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="61">
+        <v>0</v>
+      </c>
+      <c r="R97" s="101"/>
+      <c r="S97" s="101"/>
+      <c r="T97" s="87">
         <v>0.1</v>
       </c>
-      <c r="P97" s="87">
-        <v>0</v>
-      </c>
-      <c r="Q97" s="87">
-        <v>0</v>
-      </c>
-      <c r="R97" s="87">
-        <v>0</v>
-      </c>
-      <c r="S97" s="87">
-        <v>0</v>
-      </c>
-      <c r="T97" s="87">
-        <v>0</v>
-      </c>
       <c r="U97" s="87">
         <v>0</v>
       </c>
@@ -7873,390 +7937,345 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B98" s="134"/>
-      <c r="C98" s="45" t="s">
-        <v>121</v>
-      </c>
-      <c r="D98" s="33"/>
-      <c r="E98" s="45"/>
-      <c r="F98" s="45" t="s">
+    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="127"/>
+      <c r="C98" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D98" s="34"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="4">
+      <c r="G98" s="11">
+        <v>1</v>
+      </c>
+      <c r="H98" s="11">
         <v>3</v>
       </c>
-      <c r="H98" s="4">
-        <v>0.33</v>
-      </c>
-      <c r="I98" s="46">
-        <f t="shared" si="2"/>
-        <v>0.1</v>
-      </c>
-      <c r="J98" s="61">
-        <v>0</v>
-      </c>
-      <c r="K98" s="61">
-        <v>0</v>
-      </c>
-      <c r="L98" s="61">
-        <v>0</v>
-      </c>
-      <c r="M98" s="61">
-        <v>0</v>
-      </c>
-      <c r="N98" s="61">
-        <v>0</v>
-      </c>
-      <c r="O98" s="61">
-        <v>0</v>
-      </c>
-      <c r="P98" s="61">
-        <v>0</v>
-      </c>
-      <c r="Q98" s="61">
-        <v>0</v>
-      </c>
-      <c r="R98" s="101"/>
-      <c r="S98" s="101"/>
-      <c r="T98" s="87">
-        <v>0.1</v>
-      </c>
-      <c r="U98" s="87">
-        <v>0</v>
-      </c>
-      <c r="V98" s="87">
-        <v>0</v>
-      </c>
-      <c r="W98" s="87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="135"/>
-      <c r="C99" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="D99" s="34"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="G99" s="11">
-        <v>1</v>
-      </c>
-      <c r="H99" s="11">
-        <v>3</v>
-      </c>
-      <c r="I99" s="50">
-        <f t="shared" ref="I99" si="4">SUM(J99:W99)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="62">
-        <v>0</v>
-      </c>
-      <c r="K99" s="62">
-        <v>0</v>
-      </c>
-      <c r="L99" s="62">
-        <v>0</v>
-      </c>
-      <c r="M99" s="62">
-        <v>0</v>
-      </c>
-      <c r="N99" s="94" t="s">
+      <c r="I98" s="50">
+        <f t="shared" ref="I98" si="4">SUM(J98:W98)</f>
+        <v>0</v>
+      </c>
+      <c r="J98" s="62">
+        <v>0</v>
+      </c>
+      <c r="K98" s="62">
+        <v>0</v>
+      </c>
+      <c r="L98" s="62">
+        <v>0</v>
+      </c>
+      <c r="M98" s="62">
+        <v>0</v>
+      </c>
+      <c r="N98" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="O99" s="94">
-        <v>0</v>
-      </c>
-      <c r="P99" s="95">
-        <v>0</v>
-      </c>
-      <c r="Q99" s="95">
-        <v>0</v>
-      </c>
-      <c r="R99" s="95">
-        <v>0</v>
-      </c>
-      <c r="S99" s="95">
-        <v>0</v>
-      </c>
-      <c r="T99" s="95">
-        <v>0</v>
-      </c>
-      <c r="U99" s="24"/>
-      <c r="V99" s="24"/>
-      <c r="W99" s="25"/>
-    </row>
-    <row r="100" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="127" t="s">
+      <c r="O98" s="94">
+        <v>0</v>
+      </c>
+      <c r="P98" s="95">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="95">
+        <v>0</v>
+      </c>
+      <c r="R98" s="95">
+        <v>0</v>
+      </c>
+      <c r="S98" s="95">
+        <v>0</v>
+      </c>
+      <c r="T98" s="95">
+        <v>0</v>
+      </c>
+      <c r="U98" s="24"/>
+      <c r="V98" s="24"/>
+      <c r="W98" s="25"/>
+    </row>
+    <row r="99" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="C100" s="128"/>
-      <c r="D100" s="128"/>
-      <c r="E100" s="128"/>
-      <c r="F100" s="128"/>
-      <c r="G100" s="128"/>
-      <c r="H100" s="17">
-        <f t="shared" ref="H100:W100" si="5">SUM(H4:H99)</f>
-        <v>49.11999999999999</v>
-      </c>
-      <c r="I100" s="17">
-        <f t="shared" si="5"/>
-        <v>37.041699999999999</v>
-      </c>
-      <c r="J100" s="17">
-        <f t="shared" si="5"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
+      <c r="E99" s="120"/>
+      <c r="F99" s="120"/>
+      <c r="G99" s="120"/>
+      <c r="H99" s="17">
+        <f>SUM(H4:H98)</f>
+        <v>48.86999999999999</v>
+      </c>
+      <c r="I99" s="17">
+        <f>SUM(I4:I98)</f>
+        <v>38.2117</v>
+      </c>
+      <c r="J99" s="17">
+        <f>SUM(J4:J98)</f>
         <v>1.95</v>
       </c>
-      <c r="K100" s="17">
-        <f t="shared" si="5"/>
+      <c r="K99" s="17">
+        <f>SUM(K4:K98)</f>
         <v>3.3</v>
       </c>
-      <c r="L100" s="17">
-        <f t="shared" si="5"/>
+      <c r="L99" s="17">
+        <f>SUM(L4:L98)</f>
         <v>7.15</v>
       </c>
-      <c r="M100" s="17">
-        <f t="shared" si="5"/>
+      <c r="M99" s="17">
+        <f>SUM(M4:M98)</f>
         <v>3.9929999999999999</v>
       </c>
-      <c r="N100" s="17">
-        <f t="shared" si="5"/>
+      <c r="N99" s="17">
+        <f>SUM(N4:N98)</f>
         <v>1.5</v>
       </c>
-      <c r="O100" s="17">
-        <f t="shared" si="5"/>
+      <c r="O99" s="17">
+        <f>SUM(O4:O98)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P100" s="17">
-        <f t="shared" si="5"/>
+      <c r="P99" s="17">
+        <f>SUM(P4:P98)</f>
         <v>0.03</v>
       </c>
-      <c r="Q100" s="17">
-        <f t="shared" si="5"/>
+      <c r="Q99" s="17">
+        <f>SUM(Q4:Q98)</f>
         <v>2.0290000000000004</v>
       </c>
-      <c r="R100" s="17">
-        <f t="shared" si="5"/>
+      <c r="R99" s="17">
+        <f>SUM(R4:R98)</f>
         <v>1.4826999999999999</v>
       </c>
-      <c r="S100" s="17">
-        <f t="shared" si="5"/>
+      <c r="S99" s="17">
+        <f>SUM(S4:S98)</f>
         <v>4.7170000000000005</v>
       </c>
-      <c r="T100" s="17">
-        <f t="shared" si="5"/>
-        <v>7.6399999999999988</v>
-      </c>
-      <c r="U100" s="17">
-        <f t="shared" si="5"/>
-        <v>2.15</v>
-      </c>
-      <c r="V100" s="17">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W100" s="18">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="T99" s="17">
+        <f>SUM(T4:T98)</f>
+        <v>7.8699999999999992</v>
+      </c>
+      <c r="U99" s="17">
+        <f>SUM(U4:U98)</f>
+        <v>3.09</v>
+      </c>
+      <c r="V99" s="17">
+        <f>SUM(V4:V98)</f>
+        <v>0</v>
+      </c>
+      <c r="W99" s="18">
+        <f>SUM(W4:W98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="111"/>
+      <c r="L100" s="111"/>
+      <c r="M100" s="111"/>
+      <c r="N100" s="111"/>
+      <c r="O100" s="111"/>
+      <c r="P100" s="111"/>
+      <c r="Q100" s="111"/>
+      <c r="R100" s="111"/>
+      <c r="S100" s="111"/>
+      <c r="T100" s="111"/>
+      <c r="U100" s="111"/>
+      <c r="V100" s="111"/>
+      <c r="W100" s="112"/>
+    </row>
+    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D101" s="67" t="s">
+        <v>115</v>
+      </c>
+      <c r="E101" s="68" t="s">
+        <v>116</v>
+      </c>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="118" t="s">
-        <v>11</v>
-      </c>
-      <c r="K101" s="119"/>
-      <c r="L101" s="119"/>
-      <c r="M101" s="119"/>
-      <c r="N101" s="119"/>
-      <c r="O101" s="119"/>
-      <c r="P101" s="119"/>
-      <c r="Q101" s="119"/>
-      <c r="R101" s="119"/>
-      <c r="S101" s="119"/>
-      <c r="T101" s="119"/>
-      <c r="U101" s="119"/>
-      <c r="V101" s="119"/>
-      <c r="W101" s="120"/>
-    </row>
-    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="C102" s="67" t="s">
-        <v>114</v>
-      </c>
-      <c r="D102" s="67" t="s">
-        <v>115</v>
-      </c>
-      <c r="E102" s="68" t="s">
-        <v>116</v>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+    </row>
+    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B102" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" s="71">
+        <f>SUM(H7,H9,H41,H87,H88,H89,H90,H91,H92,H94:H98,H41)</f>
+        <v>12.27</v>
+      </c>
+      <c r="D102" s="27">
+        <f>SUM(I94:I98,I87:I92,I9,I7,I41)</f>
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E102" s="27">
+        <f>SUM(C102,-D102)</f>
+        <v>4.2199999999999989</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="3"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="9"/>
-    </row>
-    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="71">
-        <f>SUM(H7,H9,H41,H88,H89,H90,H91,H92,H93,H95:H99,H41)</f>
-        <v>12.27</v>
-      </c>
-      <c r="D103" s="27">
-        <f>SUM(I95:I99,I88:I93,I9,I7,I41)</f>
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="E103" s="27">
+      <c r="H102" s="128" t="s">
+        <v>9</v>
+      </c>
+      <c r="I102" s="131"/>
+      <c r="J102" s="10">
+        <f>H99-J99</f>
+        <v>46.919999999999987</v>
+      </c>
+      <c r="K102" s="10">
+        <f>J102-K99</f>
+        <v>43.61999999999999</v>
+      </c>
+      <c r="L102" s="10">
+        <f>K102-L99</f>
+        <v>36.469999999999992</v>
+      </c>
+      <c r="M102" s="10">
+        <f>L102-M99</f>
+        <v>32.47699999999999</v>
+      </c>
+      <c r="N102" s="10">
+        <f t="shared" ref="N102:W102" si="5">M102-N99</f>
+        <v>30.97699999999999</v>
+      </c>
+      <c r="O102" s="10">
+        <f t="shared" si="5"/>
+        <v>29.876999999999988</v>
+      </c>
+      <c r="P102" s="10">
+        <f t="shared" si="5"/>
+        <v>29.846999999999987</v>
+      </c>
+      <c r="Q102" s="10">
+        <f t="shared" si="5"/>
+        <v>27.817999999999987</v>
+      </c>
+      <c r="R102" s="10">
+        <f t="shared" si="5"/>
+        <v>26.335299999999986</v>
+      </c>
+      <c r="S102" s="10">
+        <f t="shared" si="5"/>
+        <v>21.618299999999984</v>
+      </c>
+      <c r="T102" s="10">
+        <f t="shared" si="5"/>
+        <v>13.748299999999984</v>
+      </c>
+      <c r="U102" s="10">
+        <f t="shared" si="5"/>
+        <v>10.658299999999985</v>
+      </c>
+      <c r="V102" s="10">
+        <f t="shared" si="5"/>
+        <v>10.658299999999985</v>
+      </c>
+      <c r="W102" s="10">
+        <f t="shared" si="5"/>
+        <v>10.658299999999985</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B103" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="C103" s="69">
+        <f>SUM(H4,H84:H84,H93,H17:H37,H10:H15,H8,H6,H5,H86)</f>
+        <v>18.399999999999991</v>
+      </c>
+      <c r="D103" s="5">
+        <f>SUM(I93,I84:I84,I17:I37,I10:I15,I8,I5:I6,I86,I4)</f>
+        <v>14.561700000000004</v>
+      </c>
+      <c r="E103" s="5">
         <f>SUM(C103,-D103)</f>
-        <v>4.2199999999999989</v>
-      </c>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="105" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" s="108"/>
-      <c r="J103" s="10">
-        <f>H100-J100</f>
-        <v>47.169999999999987</v>
-      </c>
-      <c r="K103" s="10">
-        <f>J103-K100</f>
-        <v>43.86999999999999</v>
-      </c>
-      <c r="L103" s="10">
-        <f>K103-L100</f>
-        <v>36.719999999999992</v>
-      </c>
-      <c r="M103" s="10">
-        <f>L103-M100</f>
-        <v>32.72699999999999</v>
-      </c>
-      <c r="N103" s="10">
-        <f t="shared" ref="N103:W103" si="6">M103-N100</f>
-        <v>31.22699999999999</v>
-      </c>
-      <c r="O103" s="10">
-        <f t="shared" si="6"/>
-        <v>30.126999999999988</v>
-      </c>
-      <c r="P103" s="10">
-        <f t="shared" si="6"/>
-        <v>30.096999999999987</v>
-      </c>
-      <c r="Q103" s="10">
-        <f t="shared" si="6"/>
-        <v>28.067999999999987</v>
-      </c>
-      <c r="R103" s="10">
-        <f t="shared" si="6"/>
-        <v>26.585299999999986</v>
-      </c>
-      <c r="S103" s="10">
-        <f t="shared" si="6"/>
-        <v>21.868299999999984</v>
-      </c>
-      <c r="T103" s="10">
-        <f t="shared" si="6"/>
-        <v>14.228299999999985</v>
-      </c>
-      <c r="U103" s="10">
-        <f t="shared" si="6"/>
-        <v>12.078299999999984</v>
-      </c>
-      <c r="V103" s="10">
-        <f t="shared" si="6"/>
-        <v>12.078299999999984</v>
-      </c>
-      <c r="W103" s="10">
-        <f t="shared" si="6"/>
-        <v>12.078299999999984</v>
-      </c>
-    </row>
-    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8382999999999878</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="70" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C104" s="69">
-        <f>SUM(H4,H85:H85,H94,H17:H37,H10:H15,H8,H6,H5,H87)</f>
-        <v>18.399999999999991</v>
+        <f>SUM(H42:H83,H38:H40)</f>
+        <v>16.5</v>
       </c>
       <c r="D104" s="5">
-        <f>SUM(I94,I85:I85,I17:I37,I10:I15,I8,I5:I6,I87,I4)</f>
-        <v>14.3317</v>
+        <f>SUM(I42:I83,I38:I40,I16)</f>
+        <v>15.349999999999998</v>
       </c>
       <c r="E104" s="5">
         <f>SUM(C104,-D104)</f>
-        <v>4.0682999999999918</v>
+        <v>1.1500000000000021</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-      <c r="K104" s="3"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="70" t="s">
-        <v>17</v>
-      </c>
-      <c r="C105" s="69">
-        <f>SUM(H42:H84,H38:H40)</f>
-        <v>16.75</v>
-      </c>
-      <c r="D105" s="5">
-        <f>SUM(I42:I84,I38:I40,I16)</f>
-        <v>14.41</v>
-      </c>
-      <c r="E105" s="5">
-        <f>SUM(C105,-D105)</f>
-        <v>2.34</v>
-      </c>
+      <c r="H104" s="128" t="s">
+        <v>10</v>
+      </c>
+      <c r="I104" s="129"/>
+      <c r="J104" s="128">
+        <f>H99-I99</f>
+        <v>10.65829999999999</v>
+      </c>
+      <c r="K104" s="129"/>
+      <c r="L104" s="129"/>
+      <c r="M104" s="129"/>
+      <c r="N104" s="129"/>
+      <c r="O104" s="129"/>
+      <c r="P104" s="129"/>
+      <c r="Q104" s="129"/>
+      <c r="R104" s="129"/>
+      <c r="S104" s="129"/>
+      <c r="T104" s="129"/>
+      <c r="U104" s="129"/>
+      <c r="V104" s="129"/>
+      <c r="W104" s="130"/>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3"/>
       <c r="F105" s="3"/>
-      <c r="H105" s="105" t="s">
-        <v>10</v>
-      </c>
-      <c r="I105" s="106"/>
-      <c r="J105" s="105">
-        <f>H100-I100</f>
-        <v>12.078299999999992</v>
-      </c>
-      <c r="K105" s="106"/>
-      <c r="L105" s="106"/>
-      <c r="M105" s="106"/>
-      <c r="N105" s="106"/>
-      <c r="O105" s="106"/>
-      <c r="P105" s="106"/>
-      <c r="Q105" s="106"/>
-      <c r="R105" s="106"/>
-      <c r="S105" s="106"/>
-      <c r="T105" s="106"/>
-      <c r="U105" s="106"/>
-      <c r="V105" s="106"/>
-      <c r="W105" s="107"/>
-    </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8270,7 +8289,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8284,72 +8303,58 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
-      <c r="K108" s="3"/>
-      <c r="L108" s="3"/>
-      <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="7"/>
+    </row>
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="7"/>
-    </row>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="7"/>
+    </row>
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="7"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="6"/>
+      <c r="C124" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B42:B88"/>
+    <mergeCell ref="J104:W104"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="C42:C83"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="B42:B87"/>
     <mergeCell ref="J2:W2"/>
-    <mergeCell ref="J101:W101"/>
+    <mergeCell ref="J100:W100"/>
     <mergeCell ref="B16:B41"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B4:B9"/>
-    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="B99:G99"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B89:B93"/>
-    <mergeCell ref="B94:B99"/>
-    <mergeCell ref="J105:W105"/>
-    <mergeCell ref="H103:I103"/>
-    <mergeCell ref="H105:I105"/>
-    <mergeCell ref="C42:C84"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="B88:B92"/>
+    <mergeCell ref="B93:B98"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8363,7 +8368,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8375,7 +8380,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_Enti\MAP\The_Legend_of_Radev\MAP_LegendOfRadev\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1412,75 +1412,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1503,6 +1434,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1649,13 +1649,13 @@
                   <c:v>13.748299999999984</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10.658299999999985</c:v>
+                  <c:v>10.038299999999985</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10.658299999999985</c:v>
+                  <c:v>5.8182999999999847</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.658299999999985</c:v>
+                  <c:v>5.3182999999999847</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1715,6 +1715,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1846,23 +1847,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1898,23 +1882,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2093,28 +2060,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C13:O14"/>
+    <sheetView tabSelected="1" topLeftCell="C30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38:V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
@@ -2122,25 +2089,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="107" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="109"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="116"/>
+      <c r="P2" s="116"/>
+      <c r="Q2" s="116"/>
+      <c r="R2" s="116"/>
+      <c r="S2" s="116"/>
+      <c r="T2" s="116"/>
+      <c r="U2" s="116"/>
+      <c r="V2" s="116"/>
+      <c r="W2" s="117"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2208,8 +2175,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="113" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="78" t="s">
@@ -2275,8 +2242,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="114"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="122"/>
       <c r="C5" s="37" t="s">
         <v>58</v>
       </c>
@@ -2338,8 +2305,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="122"/>
       <c r="C6" s="37" t="s">
         <v>68</v>
       </c>
@@ -2401,9 +2368,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="114"/>
-      <c r="C7" s="121" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="122"/>
+      <c r="C7" s="129" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="33" t="s">
@@ -2466,9 +2433,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="114"/>
-      <c r="C8" s="121"/>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="122"/>
+      <c r="C8" s="129"/>
       <c r="D8" s="37" t="s">
         <v>61</v>
       </c>
@@ -2529,9 +2496,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="118"/>
-      <c r="C9" s="122"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="126"/>
+      <c r="C9" s="130"/>
       <c r="D9" s="34" t="s">
         <v>62</v>
       </c>
@@ -2592,8 +2559,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="115" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="123" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -2657,8 +2624,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="116"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="124"/>
       <c r="C11" s="37" t="s">
         <v>65</v>
       </c>
@@ -2711,8 +2678,8 @@
       <c r="V11" s="26"/>
       <c r="W11" s="26"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="116"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="124"/>
       <c r="C12" s="37" t="s">
         <v>66</v>
       </c>
@@ -2774,8 +2741,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="117"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="125"/>
       <c r="C13" s="36" t="s">
         <v>113</v>
       </c>
@@ -2837,8 +2804,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="117"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="125"/>
       <c r="C14" s="36" t="s">
         <v>111</v>
       </c>
@@ -2892,8 +2859,8 @@
       <c r="V14" s="23"/>
       <c r="W14" s="59"/>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="117"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="125"/>
       <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
@@ -2947,8 +2914,8 @@
       <c r="V15" s="23"/>
       <c r="W15" s="59"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="113" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="121" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="55" t="s">
@@ -3012,8 +2979,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="114"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="122"/>
       <c r="C17" s="37" t="s">
         <v>36</v>
       </c>
@@ -3075,8 +3042,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="114"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="122"/>
       <c r="C18" s="88" t="s">
         <v>14</v>
       </c>
@@ -3140,9 +3107,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114"/>
-      <c r="C19" s="134" t="s">
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="122"/>
+      <c r="C19" s="111" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="37" t="s">
@@ -3205,9 +3172,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="114"/>
-      <c r="C20" s="134"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="122"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="37" t="s">
         <v>127</v>
       </c>
@@ -3268,9 +3235,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="114"/>
-      <c r="C21" s="134"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="122"/>
+      <c r="C21" s="111"/>
       <c r="D21" s="37" t="s">
         <v>34</v>
       </c>
@@ -3325,9 +3292,9 @@
       <c r="V21" s="21"/>
       <c r="W21" s="22"/>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="114"/>
-      <c r="C22" s="134"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="122"/>
+      <c r="C22" s="111"/>
       <c r="D22" s="37" t="s">
         <v>35</v>
       </c>
@@ -3388,9 +3355,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="114"/>
-      <c r="C23" s="134"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="122"/>
+      <c r="C23" s="111"/>
       <c r="D23" s="37" t="s">
         <v>39</v>
       </c>
@@ -3451,9 +3418,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="114"/>
-      <c r="C24" s="134"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="122"/>
+      <c r="C24" s="111"/>
       <c r="D24" s="37" t="s">
         <v>40</v>
       </c>
@@ -3514,9 +3481,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="114"/>
-      <c r="C25" s="134"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="122"/>
+      <c r="C25" s="111"/>
       <c r="D25" s="37" t="s">
         <v>41</v>
       </c>
@@ -3577,9 +3544,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="114"/>
-      <c r="C26" s="134"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="122"/>
+      <c r="C26" s="111"/>
       <c r="D26" s="37" t="s">
         <v>42</v>
       </c>
@@ -3640,9 +3607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="114"/>
-      <c r="C27" s="134"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="122"/>
+      <c r="C27" s="111"/>
       <c r="D27" s="37" t="s">
         <v>43</v>
       </c>
@@ -3703,9 +3670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="114"/>
-      <c r="C28" s="134"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="122"/>
+      <c r="C28" s="111"/>
       <c r="D28" s="37" t="s">
         <v>44</v>
       </c>
@@ -3766,9 +3733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="114"/>
-      <c r="C29" s="134"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
+      <c r="C29" s="111"/>
       <c r="D29" s="37" t="s">
         <v>45</v>
       </c>
@@ -3829,9 +3796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="114"/>
-      <c r="C30" s="134"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="122"/>
+      <c r="C30" s="111"/>
       <c r="D30" s="37" t="s">
         <v>46</v>
       </c>
@@ -3892,9 +3859,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="114"/>
-      <c r="C31" s="134"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="122"/>
+      <c r="C31" s="111"/>
       <c r="D31" s="37" t="s">
         <v>47</v>
       </c>
@@ -3955,9 +3922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="114"/>
-      <c r="C32" s="134"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="122"/>
+      <c r="C32" s="111"/>
       <c r="D32" s="37" t="s">
         <v>48</v>
       </c>
@@ -4018,9 +3985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="114"/>
-      <c r="C33" s="134"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="122"/>
+      <c r="C33" s="111"/>
       <c r="D33" s="37" t="s">
         <v>49</v>
       </c>
@@ -4081,9 +4048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="114"/>
-      <c r="C34" s="134"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="122"/>
+      <c r="C34" s="111"/>
       <c r="D34" s="37" t="s">
         <v>50</v>
       </c>
@@ -4144,9 +4111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="114"/>
-      <c r="C35" s="134"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="122"/>
+      <c r="C35" s="111"/>
       <c r="D35" s="37" t="s">
         <v>51</v>
       </c>
@@ -4207,9 +4174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="114"/>
-      <c r="C36" s="134"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="122"/>
+      <c r="C36" s="111"/>
       <c r="D36" s="37" t="s">
         <v>128</v>
       </c>
@@ -4270,9 +4237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="114"/>
-      <c r="C37" s="134"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="122"/>
+      <c r="C37" s="111"/>
       <c r="D37" s="43" t="s">
         <v>104</v>
       </c>
@@ -4333,8 +4300,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="114"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="122"/>
       <c r="C38" s="40" t="s">
         <v>52</v>
       </c>
@@ -4383,13 +4350,19 @@
       <c r="S38" s="61">
         <v>0</v>
       </c>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
+      <c r="T38" s="101">
+        <v>0</v>
+      </c>
+      <c r="U38" s="101">
+        <v>0</v>
+      </c>
+      <c r="V38" s="101">
+        <v>0</v>
+      </c>
       <c r="W38" s="22"/>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="114"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="122"/>
       <c r="C39" s="40" t="s">
         <v>54</v>
       </c>
@@ -4438,13 +4411,19 @@
       <c r="S39" s="61">
         <v>0</v>
       </c>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
+      <c r="T39" s="101">
+        <v>0</v>
+      </c>
+      <c r="U39" s="101">
+        <v>0</v>
+      </c>
+      <c r="V39" s="101">
+        <v>0</v>
+      </c>
       <c r="W39" s="22"/>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="114"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="122"/>
       <c r="C40" s="40" t="s">
         <v>55</v>
       </c>
@@ -4506,8 +4485,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="114"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="122"/>
       <c r="C41" s="47" t="s">
         <v>105</v>
       </c>
@@ -4561,11 +4540,11 @@
       <c r="V41" s="21"/>
       <c r="W41" s="22"/>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="105" t="s">
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="132" t="s">
+      <c r="C42" s="109" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="41" t="s">
@@ -4628,9 +4607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="106"/>
-      <c r="C43" s="133"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="114"/>
+      <c r="C43" s="110"/>
       <c r="D43" s="40" t="s">
         <v>21</v>
       </c>
@@ -4691,9 +4670,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="106"/>
-      <c r="C44" s="133"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="114"/>
+      <c r="C44" s="110"/>
       <c r="D44" s="40" t="s">
         <v>22</v>
       </c>
@@ -4754,9 +4733,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="106"/>
-      <c r="C45" s="133"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="114"/>
+      <c r="C45" s="110"/>
       <c r="D45" s="40" t="s">
         <v>23</v>
       </c>
@@ -4817,9 +4796,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="106"/>
-      <c r="C46" s="133"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="114"/>
+      <c r="C46" s="110"/>
       <c r="D46" s="40" t="s">
         <v>24</v>
       </c>
@@ -4880,9 +4859,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="106"/>
-      <c r="C47" s="133"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="114"/>
+      <c r="C47" s="110"/>
       <c r="D47" s="40" t="s">
         <v>25</v>
       </c>
@@ -4943,9 +4922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="106"/>
-      <c r="C48" s="133"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="114"/>
+      <c r="C48" s="110"/>
       <c r="D48" s="40" t="s">
         <v>26</v>
       </c>
@@ -5006,9 +4985,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="106"/>
-      <c r="C49" s="133"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="114"/>
+      <c r="C49" s="110"/>
       <c r="D49" s="40" t="s">
         <v>27</v>
       </c>
@@ -5069,9 +5048,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="106"/>
-      <c r="C50" s="133"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="114"/>
+      <c r="C50" s="110"/>
       <c r="D50" s="40" t="s">
         <v>28</v>
       </c>
@@ -5132,9 +5111,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="106"/>
-      <c r="C51" s="133"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="114"/>
+      <c r="C51" s="110"/>
       <c r="D51" s="40" t="s">
         <v>29</v>
       </c>
@@ -5195,9 +5174,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="106"/>
-      <c r="C52" s="133"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="114"/>
+      <c r="C52" s="110"/>
       <c r="D52" s="40" t="s">
         <v>30</v>
       </c>
@@ -5258,9 +5237,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="106"/>
-      <c r="C53" s="133"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="114"/>
+      <c r="C53" s="110"/>
       <c r="D53" s="40" t="s">
         <v>31</v>
       </c>
@@ -5321,9 +5300,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="106"/>
-      <c r="C54" s="133"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="114"/>
+      <c r="C54" s="110"/>
       <c r="D54" s="40" t="s">
         <v>70</v>
       </c>
@@ -5384,9 +5363,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="106"/>
-      <c r="C55" s="133"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="114"/>
+      <c r="C55" s="110"/>
       <c r="D55" s="40" t="s">
         <v>71</v>
       </c>
@@ -5447,9 +5426,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="106"/>
-      <c r="C56" s="133"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="114"/>
+      <c r="C56" s="110"/>
       <c r="D56" s="40" t="s">
         <v>72</v>
       </c>
@@ -5510,9 +5489,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="106"/>
-      <c r="C57" s="133"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="114"/>
+      <c r="C57" s="110"/>
       <c r="D57" s="40" t="s">
         <v>73</v>
       </c>
@@ -5573,9 +5552,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="106"/>
-      <c r="C58" s="133"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="114"/>
+      <c r="C58" s="110"/>
       <c r="D58" s="40" t="s">
         <v>74</v>
       </c>
@@ -5636,9 +5615,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="106"/>
-      <c r="C59" s="133"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="114"/>
+      <c r="C59" s="110"/>
       <c r="D59" s="40" t="s">
         <v>75</v>
       </c>
@@ -5699,9 +5678,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="106"/>
-      <c r="C60" s="133"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="114"/>
+      <c r="C60" s="110"/>
       <c r="D60" s="40" t="s">
         <v>76</v>
       </c>
@@ -5762,9 +5741,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="106"/>
-      <c r="C61" s="133"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="114"/>
+      <c r="C61" s="110"/>
       <c r="D61" s="40" t="s">
         <v>77</v>
       </c>
@@ -5825,9 +5804,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="106"/>
-      <c r="C62" s="133"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="114"/>
+      <c r="C62" s="110"/>
       <c r="D62" s="40" t="s">
         <v>78</v>
       </c>
@@ -5888,9 +5867,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="106"/>
-      <c r="C63" s="133"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="114"/>
+      <c r="C63" s="110"/>
       <c r="D63" s="40" t="s">
         <v>79</v>
       </c>
@@ -5951,9 +5930,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="106"/>
-      <c r="C64" s="133"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="114"/>
+      <c r="C64" s="110"/>
       <c r="D64" s="40" t="s">
         <v>80</v>
       </c>
@@ -5969,7 +5948,7 @@
       </c>
       <c r="I64" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J64" s="61">
         <v>0</v>
@@ -6004,13 +5983,19 @@
       <c r="T64" s="101">
         <v>0</v>
       </c>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="22"/>
-    </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="106"/>
-      <c r="C65" s="133"/>
+      <c r="U64" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="V64" s="87">
+        <v>0</v>
+      </c>
+      <c r="W64" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="114"/>
+      <c r="C65" s="110"/>
       <c r="D65" s="40" t="s">
         <v>81</v>
       </c>
@@ -6026,7 +6011,7 @@
       </c>
       <c r="I65" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J65" s="61">
         <v>0</v>
@@ -6061,13 +6046,19 @@
       <c r="T65" s="101">
         <v>0</v>
       </c>
-      <c r="U65" s="21"/>
-      <c r="V65" s="21"/>
-      <c r="W65" s="22"/>
-    </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="106"/>
-      <c r="C66" s="133"/>
+      <c r="U65" s="87">
+        <v>0.11</v>
+      </c>
+      <c r="V65" s="87">
+        <v>0</v>
+      </c>
+      <c r="W65" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="114"/>
+      <c r="C66" s="110"/>
       <c r="D66" s="40" t="s">
         <v>82</v>
       </c>
@@ -6083,7 +6074,7 @@
       </c>
       <c r="I66" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J66" s="61">
         <v>0</v>
@@ -6118,13 +6109,19 @@
       <c r="T66" s="101">
         <v>0</v>
       </c>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21"/>
-      <c r="W66" s="22"/>
-    </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="106"/>
-      <c r="C67" s="133"/>
+      <c r="U66" s="87">
+        <v>0.15</v>
+      </c>
+      <c r="V66" s="87">
+        <v>0</v>
+      </c>
+      <c r="W66" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="114"/>
+      <c r="C67" s="110"/>
       <c r="D67" s="40" t="s">
         <v>87</v>
       </c>
@@ -6140,7 +6137,7 @@
       </c>
       <c r="I67" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J67" s="61">
         <v>0</v>
@@ -6175,13 +6172,19 @@
       <c r="T67" s="101">
         <v>0</v>
       </c>
-      <c r="U67" s="21"/>
-      <c r="V67" s="21"/>
-      <c r="W67" s="22"/>
-    </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="106"/>
-      <c r="C68" s="133"/>
+      <c r="U67" s="101">
+        <v>0</v>
+      </c>
+      <c r="V67" s="87">
+        <v>0.9</v>
+      </c>
+      <c r="W67" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="114"/>
+      <c r="C68" s="110"/>
       <c r="D68" s="40" t="s">
         <v>88</v>
       </c>
@@ -6197,7 +6200,7 @@
       </c>
       <c r="I68" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J68" s="61">
         <v>0</v>
@@ -6232,13 +6235,19 @@
       <c r="T68" s="101">
         <v>0</v>
       </c>
-      <c r="U68" s="21"/>
-      <c r="V68" s="21"/>
-      <c r="W68" s="22"/>
-    </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="106"/>
-      <c r="C69" s="133"/>
+      <c r="U68" s="101">
+        <v>0</v>
+      </c>
+      <c r="V68" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="W68" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="114"/>
+      <c r="C69" s="110"/>
       <c r="D69" s="40" t="s">
         <v>89</v>
       </c>
@@ -6254,7 +6263,7 @@
       </c>
       <c r="I69" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="J69" s="61">
         <v>0</v>
@@ -6289,13 +6298,19 @@
       <c r="T69" s="101">
         <v>0</v>
       </c>
-      <c r="U69" s="21"/>
-      <c r="V69" s="21"/>
-      <c r="W69" s="22"/>
-    </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="106"/>
-      <c r="C70" s="133"/>
+      <c r="U69" s="101">
+        <v>0</v>
+      </c>
+      <c r="V69" s="87">
+        <v>0.11</v>
+      </c>
+      <c r="W69" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="114"/>
+      <c r="C70" s="110"/>
       <c r="D70" s="40" t="s">
         <v>90</v>
       </c>
@@ -6311,7 +6326,7 @@
       </c>
       <c r="I70" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="J70" s="61">
         <v>0</v>
@@ -6346,13 +6361,19 @@
       <c r="T70" s="101">
         <v>0</v>
       </c>
-      <c r="U70" s="21"/>
-      <c r="V70" s="21"/>
-      <c r="W70" s="22"/>
-    </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="106"/>
-      <c r="C71" s="133"/>
+      <c r="U70" s="101">
+        <v>0</v>
+      </c>
+      <c r="V70" s="87">
+        <v>0.12</v>
+      </c>
+      <c r="W70" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="114"/>
+      <c r="C71" s="110"/>
       <c r="D71" s="40" t="s">
         <v>91</v>
       </c>
@@ -6368,7 +6389,7 @@
       </c>
       <c r="I71" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J71" s="61">
         <v>0</v>
@@ -6403,13 +6424,19 @@
       <c r="T71" s="101">
         <v>0</v>
       </c>
-      <c r="U71" s="21"/>
-      <c r="V71" s="21"/>
-      <c r="W71" s="22"/>
-    </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="106"/>
-      <c r="C72" s="133"/>
+      <c r="U71" s="101">
+        <v>0</v>
+      </c>
+      <c r="V71" s="87">
+        <v>0.1</v>
+      </c>
+      <c r="W71" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="114"/>
+      <c r="C72" s="110"/>
       <c r="D72" s="40" t="s">
         <v>92</v>
       </c>
@@ -6425,7 +6452,7 @@
       </c>
       <c r="I72" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="J72" s="61">
         <v>0</v>
@@ -6460,13 +6487,19 @@
       <c r="T72" s="101">
         <v>0</v>
       </c>
-      <c r="U72" s="21"/>
-      <c r="V72" s="21"/>
-      <c r="W72" s="22"/>
-    </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="106"/>
-      <c r="C73" s="133"/>
+      <c r="U72" s="101">
+        <v>0</v>
+      </c>
+      <c r="V72" s="87">
+        <v>0.08</v>
+      </c>
+      <c r="W72" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="114"/>
+      <c r="C73" s="110"/>
       <c r="D73" s="40" t="s">
         <v>93</v>
       </c>
@@ -6482,7 +6515,7 @@
       </c>
       <c r="I73" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="J73" s="61">
         <v>0</v>
@@ -6517,13 +6550,19 @@
       <c r="T73" s="101">
         <v>0</v>
       </c>
-      <c r="U73" s="21"/>
-      <c r="V73" s="21"/>
-      <c r="W73" s="22"/>
-    </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="106"/>
-      <c r="C74" s="133"/>
+      <c r="U73" s="101">
+        <v>0</v>
+      </c>
+      <c r="V73" s="87">
+        <v>0.13</v>
+      </c>
+      <c r="W73" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="114"/>
+      <c r="C74" s="110"/>
       <c r="D74" s="40" t="s">
         <v>94</v>
       </c>
@@ -6539,7 +6578,7 @@
       </c>
       <c r="I74" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J74" s="61">
         <v>0</v>
@@ -6574,13 +6613,19 @@
       <c r="T74" s="101">
         <v>0</v>
       </c>
-      <c r="U74" s="21"/>
-      <c r="V74" s="21"/>
-      <c r="W74" s="22"/>
-    </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="106"/>
-      <c r="C75" s="133"/>
+      <c r="U74" s="101">
+        <v>0</v>
+      </c>
+      <c r="V74" s="87">
+        <v>0.2</v>
+      </c>
+      <c r="W74" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="114"/>
+      <c r="C75" s="110"/>
       <c r="D75" s="40" t="s">
         <v>95</v>
       </c>
@@ -6596,7 +6641,7 @@
       </c>
       <c r="I75" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="J75" s="61">
         <v>0</v>
@@ -6631,13 +6676,19 @@
       <c r="T75" s="101">
         <v>0</v>
       </c>
-      <c r="U75" s="21"/>
-      <c r="V75" s="21"/>
-      <c r="W75" s="22"/>
-    </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="106"/>
-      <c r="C76" s="133"/>
+      <c r="U75" s="101">
+        <v>0</v>
+      </c>
+      <c r="V75" s="87">
+        <v>0.22</v>
+      </c>
+      <c r="W75" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="114"/>
+      <c r="C76" s="110"/>
       <c r="D76" s="40" t="s">
         <v>96</v>
       </c>
@@ -6653,7 +6704,7 @@
       </c>
       <c r="I76" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="J76" s="61">
         <v>0</v>
@@ -6688,13 +6739,19 @@
       <c r="T76" s="101">
         <v>0</v>
       </c>
-      <c r="U76" s="21"/>
-      <c r="V76" s="21"/>
-      <c r="W76" s="22"/>
-    </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="106"/>
-      <c r="C77" s="133"/>
+      <c r="U76" s="101">
+        <v>0</v>
+      </c>
+      <c r="V76" s="87">
+        <v>0.26</v>
+      </c>
+      <c r="W76" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="114"/>
+      <c r="C77" s="110"/>
       <c r="D77" s="40" t="s">
         <v>97</v>
       </c>
@@ -6710,7 +6767,7 @@
       </c>
       <c r="I77" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="J77" s="61">
         <v>0</v>
@@ -6745,13 +6802,19 @@
       <c r="T77" s="101">
         <v>0</v>
       </c>
-      <c r="U77" s="21"/>
-      <c r="V77" s="21"/>
-      <c r="W77" s="22"/>
-    </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="106"/>
-      <c r="C78" s="133"/>
+      <c r="U77" s="101">
+        <v>0</v>
+      </c>
+      <c r="V77" s="87">
+        <v>0.21</v>
+      </c>
+      <c r="W77" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="114"/>
+      <c r="C78" s="110"/>
       <c r="D78" s="40" t="s">
         <v>98</v>
       </c>
@@ -6767,7 +6830,7 @@
       </c>
       <c r="I78" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J78" s="61">
         <v>0</v>
@@ -6802,13 +6865,19 @@
       <c r="T78" s="101">
         <v>0</v>
       </c>
-      <c r="U78" s="21"/>
-      <c r="V78" s="21"/>
-      <c r="W78" s="22"/>
-    </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="106"/>
-      <c r="C79" s="133"/>
+      <c r="U78" s="101">
+        <v>0</v>
+      </c>
+      <c r="V78" s="87">
+        <v>0.25</v>
+      </c>
+      <c r="W78" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="114"/>
+      <c r="C79" s="110"/>
       <c r="D79" s="40" t="s">
         <v>99</v>
       </c>
@@ -6824,7 +6893,7 @@
       </c>
       <c r="I79" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="J79" s="61">
         <v>0</v>
@@ -6859,13 +6928,19 @@
       <c r="T79" s="101">
         <v>0</v>
       </c>
-      <c r="U79" s="21"/>
-      <c r="V79" s="21"/>
-      <c r="W79" s="22"/>
-    </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="106"/>
-      <c r="C80" s="133"/>
+      <c r="U79" s="101">
+        <v>0</v>
+      </c>
+      <c r="V79" s="87">
+        <v>0.24</v>
+      </c>
+      <c r="W79" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="114"/>
+      <c r="C80" s="110"/>
       <c r="D80" s="40" t="s">
         <v>100</v>
       </c>
@@ -6881,7 +6956,7 @@
       </c>
       <c r="I80" s="46">
         <f t="shared" ref="I80:I85" si="3">SUM(J80:W80)</f>
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="J80" s="61">
         <v>0</v>
@@ -6916,13 +6991,19 @@
       <c r="T80" s="101">
         <v>0</v>
       </c>
-      <c r="U80" s="21"/>
-      <c r="V80" s="21"/>
-      <c r="W80" s="22"/>
-    </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="106"/>
-      <c r="C81" s="133"/>
+      <c r="U80" s="101">
+        <v>0</v>
+      </c>
+      <c r="V80" s="91">
+        <v>1.2</v>
+      </c>
+      <c r="W80" s="22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="114"/>
+      <c r="C81" s="110"/>
       <c r="D81" s="40" t="s">
         <v>83</v>
       </c>
@@ -6938,7 +7019,7 @@
       </c>
       <c r="I81" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="J81" s="61">
         <v>0</v>
@@ -6973,13 +7054,19 @@
       <c r="T81" s="101">
         <v>0</v>
       </c>
-      <c r="U81" s="21"/>
-      <c r="V81" s="21"/>
-      <c r="W81" s="22"/>
-    </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="106"/>
-      <c r="C82" s="133"/>
+      <c r="U81" s="87">
+        <v>0.09</v>
+      </c>
+      <c r="V81" s="39">
+        <v>0</v>
+      </c>
+      <c r="W81" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="114"/>
+      <c r="C82" s="110"/>
       <c r="D82" s="40" t="s">
         <v>84</v>
       </c>
@@ -6995,7 +7082,7 @@
       </c>
       <c r="I82" s="46">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J82" s="61">
         <v>0</v>
@@ -7030,13 +7117,19 @@
       <c r="T82" s="101">
         <v>0</v>
       </c>
-      <c r="U82" s="21"/>
-      <c r="V82" s="21"/>
-      <c r="W82" s="22"/>
-    </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="106"/>
-      <c r="C83" s="133"/>
+      <c r="U82" s="87">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="V82" s="39">
+        <v>0</v>
+      </c>
+      <c r="W82" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="114"/>
+      <c r="C83" s="110"/>
       <c r="D83" s="40" t="s">
         <v>107</v>
       </c>
@@ -7097,8 +7190,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="106"/>
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="114"/>
       <c r="C84" s="96" t="s">
         <v>37</v>
       </c>
@@ -7156,8 +7249,8 @@
       <c r="V84" s="21"/>
       <c r="W84" s="22"/>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="106"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="114"/>
       <c r="C85" s="96" t="s">
         <v>126</v>
       </c>
@@ -7219,8 +7312,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="106"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="114"/>
       <c r="C86" s="73" t="s">
         <v>118</v>
       </c>
@@ -7282,8 +7375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="106"/>
+    <row r="87" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="114"/>
       <c r="C87" s="65" t="s">
         <v>106</v>
       </c>
@@ -7337,8 +7430,8 @@
       <c r="V87" s="21"/>
       <c r="W87" s="22"/>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="123" t="s">
+    <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="131" t="s">
         <v>85</v>
       </c>
       <c r="C88" s="29" t="s">
@@ -7394,8 +7487,8 @@
       <c r="V88" s="19"/>
       <c r="W88" s="57"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="124"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="132"/>
       <c r="C89" s="32" t="s">
         <v>112</v>
       </c>
@@ -7449,9 +7542,9 @@
       <c r="V89" s="26"/>
       <c r="W89" s="56"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="125"/>
-      <c r="C90" s="135" t="s">
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="133"/>
+      <c r="C90" s="112" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="33" t="s">
@@ -7506,9 +7599,9 @@
       <c r="V90" s="20"/>
       <c r="W90" s="49"/>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B91" s="126"/>
-      <c r="C91" s="135"/>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B91" s="134"/>
+      <c r="C91" s="112"/>
       <c r="D91" s="33" t="s">
         <v>102</v>
       </c>
@@ -7561,8 +7654,8 @@
       <c r="V91" s="21"/>
       <c r="W91" s="49"/>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="127"/>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="135"/>
       <c r="C92" s="35" t="s">
         <v>109</v>
       </c>
@@ -7624,8 +7717,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="105" t="s">
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="113" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="54" t="s">
@@ -7689,8 +7782,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B94" s="126"/>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B94" s="134"/>
       <c r="C94" s="45" t="s">
         <v>124</v>
       </c>
@@ -7752,8 +7845,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="126"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="134"/>
       <c r="C95" s="45" t="s">
         <v>123</v>
       </c>
@@ -7815,8 +7908,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="126"/>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96" s="134"/>
       <c r="C96" s="45" t="s">
         <v>122</v>
       </c>
@@ -7878,8 +7971,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="126"/>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="134"/>
       <c r="C97" s="45" t="s">
         <v>121</v>
       </c>
@@ -7937,8 +8030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="127"/>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="135"/>
       <c r="C98" s="35" t="s">
         <v>120</v>
       </c>
@@ -7994,81 +8087,81 @@
       <c r="V98" s="24"/>
       <c r="W98" s="25"/>
     </row>
-    <row r="99" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="119" t="s">
+    <row r="99" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="120"/>
-      <c r="D99" s="120"/>
-      <c r="E99" s="120"/>
-      <c r="F99" s="120"/>
-      <c r="G99" s="120"/>
+      <c r="C99" s="128"/>
+      <c r="D99" s="128"/>
+      <c r="E99" s="128"/>
+      <c r="F99" s="128"/>
+      <c r="G99" s="128"/>
       <c r="H99" s="17">
-        <f>SUM(H4:H98)</f>
+        <f t="shared" ref="H99:W99" si="5">SUM(H4:H98)</f>
         <v>48.86999999999999</v>
       </c>
       <c r="I99" s="17">
-        <f>SUM(I4:I98)</f>
-        <v>38.2117</v>
+        <f t="shared" si="5"/>
+        <v>43.551700000000004</v>
       </c>
       <c r="J99" s="17">
-        <f>SUM(J4:J98)</f>
+        <f t="shared" si="5"/>
         <v>1.95</v>
       </c>
       <c r="K99" s="17">
-        <f>SUM(K4:K98)</f>
+        <f t="shared" si="5"/>
         <v>3.3</v>
       </c>
       <c r="L99" s="17">
-        <f>SUM(L4:L98)</f>
+        <f t="shared" si="5"/>
         <v>7.15</v>
       </c>
       <c r="M99" s="17">
-        <f>SUM(M4:M98)</f>
+        <f t="shared" si="5"/>
         <v>3.9929999999999999</v>
       </c>
       <c r="N99" s="17">
-        <f>SUM(N4:N98)</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="O99" s="17">
-        <f>SUM(O4:O98)</f>
+        <f t="shared" si="5"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="P99" s="17">
-        <f>SUM(P4:P98)</f>
+        <f t="shared" si="5"/>
         <v>0.03</v>
       </c>
       <c r="Q99" s="17">
-        <f>SUM(Q4:Q98)</f>
+        <f t="shared" si="5"/>
         <v>2.0290000000000004</v>
       </c>
       <c r="R99" s="17">
-        <f>SUM(R4:R98)</f>
+        <f t="shared" si="5"/>
         <v>1.4826999999999999</v>
       </c>
       <c r="S99" s="17">
-        <f>SUM(S4:S98)</f>
+        <f t="shared" si="5"/>
         <v>4.7170000000000005</v>
       </c>
       <c r="T99" s="17">
-        <f>SUM(T4:T98)</f>
+        <f t="shared" si="5"/>
         <v>7.8699999999999992</v>
       </c>
       <c r="U99" s="17">
-        <f>SUM(U4:U98)</f>
-        <v>3.09</v>
+        <f t="shared" si="5"/>
+        <v>3.7099999999999995</v>
       </c>
       <c r="V99" s="17">
-        <f>SUM(V4:V98)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>4.2200000000000006</v>
       </c>
       <c r="W99" s="18">
-        <f>SUM(W4:W98)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -8077,24 +8170,24 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="110" t="s">
+      <c r="J100" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="111"/>
-      <c r="L100" s="111"/>
-      <c r="M100" s="111"/>
-      <c r="N100" s="111"/>
-      <c r="O100" s="111"/>
-      <c r="P100" s="111"/>
-      <c r="Q100" s="111"/>
-      <c r="R100" s="111"/>
-      <c r="S100" s="111"/>
-      <c r="T100" s="111"/>
-      <c r="U100" s="111"/>
-      <c r="V100" s="111"/>
-      <c r="W100" s="112"/>
-    </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K100" s="119"/>
+      <c r="L100" s="119"/>
+      <c r="M100" s="119"/>
+      <c r="N100" s="119"/>
+      <c r="O100" s="119"/>
+      <c r="P100" s="119"/>
+      <c r="Q100" s="119"/>
+      <c r="R100" s="119"/>
+      <c r="S100" s="119"/>
+      <c r="T100" s="119"/>
+      <c r="U100" s="119"/>
+      <c r="V100" s="119"/>
+      <c r="W100" s="120"/>
+    </row>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="66" t="s">
         <v>117</v>
       </c>
@@ -8118,7 +8211,7 @@
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="72" t="s">
         <v>16</v>
       </c>
@@ -8136,10 +8229,10 @@
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="128" t="s">
+      <c r="H102" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I102" s="131"/>
+      <c r="I102" s="108"/>
       <c r="J102" s="10">
         <f>H99-J99</f>
         <v>46.919999999999987</v>
@@ -8157,47 +8250,47 @@
         <v>32.47699999999999</v>
       </c>
       <c r="N102" s="10">
-        <f t="shared" ref="N102:W102" si="5">M102-N99</f>
+        <f t="shared" ref="N102:W102" si="6">M102-N99</f>
         <v>30.97699999999999</v>
       </c>
       <c r="O102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.876999999999988</v>
       </c>
       <c r="P102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>29.846999999999987</v>
       </c>
       <c r="Q102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>27.817999999999987</v>
       </c>
       <c r="R102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>26.335299999999986</v>
       </c>
       <c r="S102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.618299999999984</v>
       </c>
       <c r="T102" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>13.748299999999984</v>
       </c>
       <c r="U102" s="10">
-        <f t="shared" si="5"/>
-        <v>10.658299999999985</v>
+        <f t="shared" si="6"/>
+        <v>10.038299999999985</v>
       </c>
       <c r="V102" s="10">
-        <f t="shared" si="5"/>
-        <v>10.658299999999985</v>
+        <f t="shared" si="6"/>
+        <v>5.8182999999999847</v>
       </c>
       <c r="W102" s="10">
-        <f t="shared" si="5"/>
-        <v>10.658299999999985</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <f t="shared" si="6"/>
+        <v>5.3182999999999847</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="70" t="s">
         <v>15</v>
       </c>
@@ -8222,7 +8315,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="70" t="s">
         <v>17</v>
       </c>
@@ -8232,36 +8325,36 @@
       </c>
       <c r="D104" s="5">
         <f>SUM(I42:I83,I38:I40,I16)</f>
-        <v>15.349999999999998</v>
+        <v>20.69</v>
       </c>
       <c r="E104" s="5">
         <f>SUM(C104,-D104)</f>
-        <v>1.1500000000000021</v>
+        <v>-4.1900000000000013</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="H104" s="128" t="s">
+      <c r="H104" s="105" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="129"/>
-      <c r="J104" s="128">
+      <c r="I104" s="106"/>
+      <c r="J104" s="105">
         <f>H99-I99</f>
-        <v>10.65829999999999</v>
-      </c>
-      <c r="K104" s="129"/>
-      <c r="L104" s="129"/>
-      <c r="M104" s="129"/>
-      <c r="N104" s="129"/>
-      <c r="O104" s="129"/>
-      <c r="P104" s="129"/>
-      <c r="Q104" s="129"/>
-      <c r="R104" s="129"/>
-      <c r="S104" s="129"/>
-      <c r="T104" s="129"/>
-      <c r="U104" s="129"/>
-      <c r="V104" s="129"/>
-      <c r="W104" s="130"/>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.3">
+        <v>5.3182999999999865</v>
+      </c>
+      <c r="K104" s="106"/>
+      <c r="L104" s="106"/>
+      <c r="M104" s="106"/>
+      <c r="N104" s="106"/>
+      <c r="O104" s="106"/>
+      <c r="P104" s="106"/>
+      <c r="Q104" s="106"/>
+      <c r="R104" s="106"/>
+      <c r="S104" s="106"/>
+      <c r="T104" s="106"/>
+      <c r="U104" s="106"/>
+      <c r="V104" s="106"/>
+      <c r="W104" s="107"/>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8275,7 +8368,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8289,7 +8382,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8303,48 +8396,42 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J104:W104"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="C42:C83"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C90:C91"/>
     <mergeCell ref="B42:B87"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J100:W100"/>
@@ -8355,6 +8442,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="B93:B98"/>
+    <mergeCell ref="J104:W104"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="C42:C83"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C90:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8368,7 +8461,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8380,7 +8473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
+++ b/tabla scrum backlog + burndown chart - Sprint 4 SampleTextStudio.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\MSI-D\Documents\MAP_LegendOfRadev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1391,75 +1391,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1482,6 +1413,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,7 +1634,7 @@
                   <c:v>2.3852999999999849</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.68529999999998492</c:v>
+                  <c:v>0.28529999999998479</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1694,6 +1694,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1825,23 +1826,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1877,23 +1861,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2072,28 +2039,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="W41" sqref="W41"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="10" width="12.88671875" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>119</v>
       </c>
@@ -2101,25 +2068,25 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J2" s="100" t="s">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="101"/>
-      <c r="L2" s="101"/>
-      <c r="M2" s="101"/>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
-      <c r="S2" s="101"/>
-      <c r="T2" s="101"/>
-      <c r="U2" s="101"/>
-      <c r="V2" s="101"/>
-      <c r="W2" s="102"/>
-    </row>
-    <row r="3" spans="1:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
+      <c r="S2" s="109"/>
+      <c r="T2" s="109"/>
+      <c r="U2" s="109"/>
+      <c r="V2" s="109"/>
+      <c r="W2" s="110"/>
+    </row>
+    <row r="3" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
@@ -2187,8 +2154,8 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="106" t="s">
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="114" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="73" t="s">
@@ -2254,8 +2221,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="107"/>
+    <row r="5" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="115"/>
       <c r="C5" s="32" t="s">
         <v>58</v>
       </c>
@@ -2317,8 +2284,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="107"/>
+    <row r="6" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="115"/>
       <c r="C6" s="32" t="s">
         <v>68</v>
       </c>
@@ -2380,9 +2347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="107"/>
-      <c r="C7" s="114" t="s">
+    <row r="7" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="115"/>
+      <c r="C7" s="122" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="28" t="s">
@@ -2400,7 +2367,7 @@
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>5.9</v>
+        <v>6.3000000000000007</v>
       </c>
       <c r="J7" s="56">
         <v>0</v>
@@ -2442,12 +2409,12 @@
         <v>0</v>
       </c>
       <c r="W7" s="77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="107"/>
-      <c r="C8" s="114"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="115"/>
+      <c r="C8" s="122"/>
       <c r="D8" s="32" t="s">
         <v>61</v>
       </c>
@@ -2508,9 +2475,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="111"/>
-      <c r="C9" s="115"/>
+    <row r="9" spans="1:23" s="1" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="119"/>
+      <c r="C9" s="123"/>
       <c r="D9" s="29" t="s">
         <v>62</v>
       </c>
@@ -2571,8 +2538,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108" t="s">
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="116" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="37" t="s">
@@ -2636,8 +2603,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="109"/>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="117"/>
       <c r="C11" s="32" t="s">
         <v>65</v>
       </c>
@@ -2690,8 +2657,8 @@
       <c r="V11" s="21"/>
       <c r="W11" s="21"/>
     </row>
-    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="109"/>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="117"/>
       <c r="C12" s="32" t="s">
         <v>66</v>
       </c>
@@ -2753,8 +2720,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="110"/>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="118"/>
       <c r="C13" s="31" t="s">
         <v>113</v>
       </c>
@@ -2816,8 +2783,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="110"/>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="118"/>
       <c r="C14" s="31" t="s">
         <v>111</v>
       </c>
@@ -2879,8 +2846,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="110"/>
+    <row r="15" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="118"/>
       <c r="C15" s="31" t="s">
         <v>67</v>
       </c>
@@ -2934,8 +2901,8 @@
       <c r="V15" s="20"/>
       <c r="W15" s="54"/>
     </row>
-    <row r="16" spans="1:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="106" t="s">
+    <row r="16" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="114" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="50" t="s">
@@ -2999,8 +2966,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="107"/>
+    <row r="17" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="115"/>
       <c r="C17" s="32" t="s">
         <v>36</v>
       </c>
@@ -3062,8 +3029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="107"/>
+    <row r="18" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="115"/>
       <c r="C18" s="83" t="s">
         <v>14</v>
       </c>
@@ -3127,9 +3094,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="107"/>
-      <c r="C19" s="127" t="s">
+    <row r="19" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="115"/>
+      <c r="C19" s="104" t="s">
         <v>37</v>
       </c>
       <c r="D19" s="32" t="s">
@@ -3192,9 +3159,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="107"/>
-      <c r="C20" s="127"/>
+    <row r="20" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="115"/>
+      <c r="C20" s="104"/>
       <c r="D20" s="32" t="s">
         <v>127</v>
       </c>
@@ -3255,9 +3222,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="107"/>
-      <c r="C21" s="127"/>
+    <row r="21" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="115"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="32" t="s">
         <v>34</v>
       </c>
@@ -3318,9 +3285,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="107"/>
-      <c r="C22" s="127"/>
+    <row r="22" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="115"/>
+      <c r="C22" s="104"/>
       <c r="D22" s="32" t="s">
         <v>35</v>
       </c>
@@ -3381,9 +3348,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="107"/>
-      <c r="C23" s="127"/>
+    <row r="23" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="115"/>
+      <c r="C23" s="104"/>
       <c r="D23" s="32" t="s">
         <v>39</v>
       </c>
@@ -3444,9 +3411,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="107"/>
-      <c r="C24" s="127"/>
+    <row r="24" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="115"/>
+      <c r="C24" s="104"/>
       <c r="D24" s="32" t="s">
         <v>40</v>
       </c>
@@ -3507,9 +3474,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="107"/>
-      <c r="C25" s="127"/>
+    <row r="25" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="115"/>
+      <c r="C25" s="104"/>
       <c r="D25" s="32" t="s">
         <v>41</v>
       </c>
@@ -3570,9 +3537,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="107"/>
-      <c r="C26" s="127"/>
+    <row r="26" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="115"/>
+      <c r="C26" s="104"/>
       <c r="D26" s="32" t="s">
         <v>42</v>
       </c>
@@ -3633,9 +3600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="107"/>
-      <c r="C27" s="127"/>
+    <row r="27" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="115"/>
+      <c r="C27" s="104"/>
       <c r="D27" s="32" t="s">
         <v>43</v>
       </c>
@@ -3696,9 +3663,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="107"/>
-      <c r="C28" s="127"/>
+    <row r="28" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="115"/>
+      <c r="C28" s="104"/>
       <c r="D28" s="32" t="s">
         <v>44</v>
       </c>
@@ -3759,9 +3726,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="107"/>
-      <c r="C29" s="127"/>
+    <row r="29" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="115"/>
+      <c r="C29" s="104"/>
       <c r="D29" s="32" t="s">
         <v>45</v>
       </c>
@@ -3822,9 +3789,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="107"/>
-      <c r="C30" s="127"/>
+    <row r="30" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="115"/>
+      <c r="C30" s="104"/>
       <c r="D30" s="32" t="s">
         <v>46</v>
       </c>
@@ -3885,9 +3852,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="107"/>
-      <c r="C31" s="127"/>
+    <row r="31" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="115"/>
+      <c r="C31" s="104"/>
       <c r="D31" s="32" t="s">
         <v>47</v>
       </c>
@@ -3948,9 +3915,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="107"/>
-      <c r="C32" s="127"/>
+    <row r="32" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="115"/>
+      <c r="C32" s="104"/>
       <c r="D32" s="32" t="s">
         <v>48</v>
       </c>
@@ -4011,9 +3978,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="107"/>
-      <c r="C33" s="127"/>
+    <row r="33" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="115"/>
+      <c r="C33" s="104"/>
       <c r="D33" s="32" t="s">
         <v>49</v>
       </c>
@@ -4074,9 +4041,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="107"/>
-      <c r="C34" s="127"/>
+    <row r="34" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="115"/>
+      <c r="C34" s="104"/>
       <c r="D34" s="32" t="s">
         <v>50</v>
       </c>
@@ -4137,9 +4104,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="107"/>
-      <c r="C35" s="127"/>
+    <row r="35" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="115"/>
+      <c r="C35" s="104"/>
       <c r="D35" s="32" t="s">
         <v>51</v>
       </c>
@@ -4200,9 +4167,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="107"/>
-      <c r="C36" s="127"/>
+    <row r="36" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="115"/>
+      <c r="C36" s="104"/>
       <c r="D36" s="32" t="s">
         <v>128</v>
       </c>
@@ -4263,9 +4230,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="107"/>
-      <c r="C37" s="127"/>
+    <row r="37" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="115"/>
+      <c r="C37" s="104"/>
       <c r="D37" s="38" t="s">
         <v>104</v>
       </c>
@@ -4326,8 +4293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="107"/>
+    <row r="38" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="115"/>
       <c r="C38" s="35" t="s">
         <v>52</v>
       </c>
@@ -4387,8 +4354,8 @@
       </c>
       <c r="W38" s="19"/>
     </row>
-    <row r="39" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="107"/>
+    <row r="39" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="115"/>
       <c r="C39" s="35" t="s">
         <v>54</v>
       </c>
@@ -4448,8 +4415,8 @@
       </c>
       <c r="W39" s="19"/>
     </row>
-    <row r="40" spans="2:23" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="107"/>
+    <row r="40" spans="2:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="115"/>
       <c r="C40" s="35" t="s">
         <v>55</v>
       </c>
@@ -4511,8 +4478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:23" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="107"/>
+    <row r="41" spans="2:23" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="115"/>
       <c r="C41" s="42" t="s">
         <v>105</v>
       </c>
@@ -4574,11 +4541,11 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="98" t="s">
+    <row r="42" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="125" t="s">
+      <c r="C42" s="102" t="s">
         <v>19</v>
       </c>
       <c r="D42" s="36" t="s">
@@ -4641,9 +4608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="99"/>
-      <c r="C43" s="126"/>
+    <row r="43" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="107"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="35" t="s">
         <v>21</v>
       </c>
@@ -4704,9 +4671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="99"/>
-      <c r="C44" s="126"/>
+    <row r="44" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="107"/>
+      <c r="C44" s="103"/>
       <c r="D44" s="35" t="s">
         <v>22</v>
       </c>
@@ -4767,9 +4734,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="99"/>
-      <c r="C45" s="126"/>
+    <row r="45" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="107"/>
+      <c r="C45" s="103"/>
       <c r="D45" s="35" t="s">
         <v>23</v>
       </c>
@@ -4830,9 +4797,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="99"/>
-      <c r="C46" s="126"/>
+    <row r="46" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="107"/>
+      <c r="C46" s="103"/>
       <c r="D46" s="35" t="s">
         <v>24</v>
       </c>
@@ -4893,9 +4860,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="99"/>
-      <c r="C47" s="126"/>
+    <row r="47" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="107"/>
+      <c r="C47" s="103"/>
       <c r="D47" s="35" t="s">
         <v>25</v>
       </c>
@@ -4956,9 +4923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="99"/>
-      <c r="C48" s="126"/>
+    <row r="48" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="107"/>
+      <c r="C48" s="103"/>
       <c r="D48" s="35" t="s">
         <v>26</v>
       </c>
@@ -5019,9 +4986,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="99"/>
-      <c r="C49" s="126"/>
+    <row r="49" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="107"/>
+      <c r="C49" s="103"/>
       <c r="D49" s="35" t="s">
         <v>27</v>
       </c>
@@ -5082,9 +5049,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="99"/>
-      <c r="C50" s="126"/>
+    <row r="50" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="107"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="35" t="s">
         <v>28</v>
       </c>
@@ -5145,9 +5112,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="99"/>
-      <c r="C51" s="126"/>
+    <row r="51" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="107"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="35" t="s">
         <v>29</v>
       </c>
@@ -5208,9 +5175,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="99"/>
-      <c r="C52" s="126"/>
+    <row r="52" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="107"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="35" t="s">
         <v>30</v>
       </c>
@@ -5271,9 +5238,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="99"/>
-      <c r="C53" s="126"/>
+    <row r="53" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="107"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="35" t="s">
         <v>31</v>
       </c>
@@ -5334,9 +5301,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="99"/>
-      <c r="C54" s="126"/>
+    <row r="54" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="107"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="35" t="s">
         <v>70</v>
       </c>
@@ -5397,9 +5364,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="99"/>
-      <c r="C55" s="126"/>
+    <row r="55" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="107"/>
+      <c r="C55" s="103"/>
       <c r="D55" s="35" t="s">
         <v>71</v>
       </c>
@@ -5460,9 +5427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="99"/>
-      <c r="C56" s="126"/>
+    <row r="56" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="107"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="35" t="s">
         <v>72</v>
       </c>
@@ -5523,9 +5490,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="99"/>
-      <c r="C57" s="126"/>
+    <row r="57" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="107"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="35" t="s">
         <v>73</v>
       </c>
@@ -5586,9 +5553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="99"/>
-      <c r="C58" s="126"/>
+    <row r="58" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="107"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="35" t="s">
         <v>74</v>
       </c>
@@ -5649,9 +5616,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="99"/>
-      <c r="C59" s="126"/>
+    <row r="59" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="107"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="35" t="s">
         <v>75</v>
       </c>
@@ -5712,9 +5679,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="99"/>
-      <c r="C60" s="126"/>
+    <row r="60" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="107"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="35" t="s">
         <v>76</v>
       </c>
@@ -5775,9 +5742,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="99"/>
-      <c r="C61" s="126"/>
+    <row r="61" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="107"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="35" t="s">
         <v>77</v>
       </c>
@@ -5838,9 +5805,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="99"/>
-      <c r="C62" s="126"/>
+    <row r="62" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="107"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="35" t="s">
         <v>78</v>
       </c>
@@ -5901,9 +5868,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="99"/>
-      <c r="C63" s="126"/>
+    <row r="63" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="107"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="35" t="s">
         <v>79</v>
       </c>
@@ -5964,9 +5931,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="99"/>
-      <c r="C64" s="126"/>
+    <row r="64" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="107"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="35" t="s">
         <v>80</v>
       </c>
@@ -6027,9 +5994,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="99"/>
-      <c r="C65" s="126"/>
+    <row r="65" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="107"/>
+      <c r="C65" s="103"/>
       <c r="D65" s="35" t="s">
         <v>81</v>
       </c>
@@ -6090,9 +6057,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="99"/>
-      <c r="C66" s="126"/>
+    <row r="66" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="107"/>
+      <c r="C66" s="103"/>
       <c r="D66" s="35" t="s">
         <v>82</v>
       </c>
@@ -6153,9 +6120,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="99"/>
-      <c r="C67" s="126"/>
+    <row r="67" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="107"/>
+      <c r="C67" s="103"/>
       <c r="D67" s="35" t="s">
         <v>87</v>
       </c>
@@ -6216,9 +6183,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="99"/>
-      <c r="C68" s="126"/>
+    <row r="68" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="107"/>
+      <c r="C68" s="103"/>
       <c r="D68" s="35" t="s">
         <v>88</v>
       </c>
@@ -6279,9 +6246,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="99"/>
-      <c r="C69" s="126"/>
+    <row r="69" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="107"/>
+      <c r="C69" s="103"/>
       <c r="D69" s="35" t="s">
         <v>89</v>
       </c>
@@ -6342,9 +6309,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="99"/>
-      <c r="C70" s="126"/>
+    <row r="70" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="107"/>
+      <c r="C70" s="103"/>
       <c r="D70" s="35" t="s">
         <v>90</v>
       </c>
@@ -6405,9 +6372,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="99"/>
-      <c r="C71" s="126"/>
+    <row r="71" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="107"/>
+      <c r="C71" s="103"/>
       <c r="D71" s="35" t="s">
         <v>91</v>
       </c>
@@ -6468,9 +6435,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="99"/>
-      <c r="C72" s="126"/>
+    <row r="72" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="107"/>
+      <c r="C72" s="103"/>
       <c r="D72" s="35" t="s">
         <v>92</v>
       </c>
@@ -6531,9 +6498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="99"/>
-      <c r="C73" s="126"/>
+    <row r="73" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="107"/>
+      <c r="C73" s="103"/>
       <c r="D73" s="35" t="s">
         <v>93</v>
       </c>
@@ -6594,9 +6561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="99"/>
-      <c r="C74" s="126"/>
+    <row r="74" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="107"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="35" t="s">
         <v>94</v>
       </c>
@@ -6657,9 +6624,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="99"/>
-      <c r="C75" s="126"/>
+    <row r="75" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="107"/>
+      <c r="C75" s="103"/>
       <c r="D75" s="35" t="s">
         <v>95</v>
       </c>
@@ -6720,9 +6687,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="99"/>
-      <c r="C76" s="126"/>
+    <row r="76" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="107"/>
+      <c r="C76" s="103"/>
       <c r="D76" s="35" t="s">
         <v>96</v>
       </c>
@@ -6783,9 +6750,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="99"/>
-      <c r="C77" s="126"/>
+    <row r="77" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="107"/>
+      <c r="C77" s="103"/>
       <c r="D77" s="35" t="s">
         <v>97</v>
       </c>
@@ -6846,9 +6813,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="99"/>
-      <c r="C78" s="126"/>
+    <row r="78" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="107"/>
+      <c r="C78" s="103"/>
       <c r="D78" s="35" t="s">
         <v>98</v>
       </c>
@@ -6909,9 +6876,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="99"/>
-      <c r="C79" s="126"/>
+    <row r="79" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="107"/>
+      <c r="C79" s="103"/>
       <c r="D79" s="35" t="s">
         <v>99</v>
       </c>
@@ -6972,9 +6939,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="99"/>
-      <c r="C80" s="126"/>
+    <row r="80" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="107"/>
+      <c r="C80" s="103"/>
       <c r="D80" s="35" t="s">
         <v>100</v>
       </c>
@@ -7035,9 +7002,9 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="99"/>
-      <c r="C81" s="126"/>
+    <row r="81" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="107"/>
+      <c r="C81" s="103"/>
       <c r="D81" s="35" t="s">
         <v>83</v>
       </c>
@@ -7098,9 +7065,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="99"/>
-      <c r="C82" s="126"/>
+    <row r="82" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="107"/>
+      <c r="C82" s="103"/>
       <c r="D82" s="35" t="s">
         <v>84</v>
       </c>
@@ -7161,9 +7128,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="99"/>
-      <c r="C83" s="126"/>
+    <row r="83" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="107"/>
+      <c r="C83" s="103"/>
       <c r="D83" s="35" t="s">
         <v>107</v>
       </c>
@@ -7224,8 +7191,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="99"/>
+    <row r="84" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="107"/>
       <c r="C84" s="89" t="s">
         <v>37</v>
       </c>
@@ -7289,8 +7256,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="99"/>
+    <row r="85" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="107"/>
       <c r="C85" s="89" t="s">
         <v>126</v>
       </c>
@@ -7352,8 +7319,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="99"/>
+    <row r="86" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="107"/>
       <c r="C86" s="68" t="s">
         <v>118</v>
       </c>
@@ -7415,8 +7382,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="99"/>
+    <row r="87" spans="2:23" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="107"/>
       <c r="C87" s="60" t="s">
         <v>106</v>
       </c>
@@ -7478,8 +7445,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="116" t="s">
+    <row r="88" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="124" t="s">
         <v>85</v>
       </c>
       <c r="C88" s="24" t="s">
@@ -7541,8 +7508,8 @@
       </c>
       <c r="W88" s="52"/>
     </row>
-    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="117"/>
+    <row r="89" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="125"/>
       <c r="C89" s="27" t="s">
         <v>112</v>
       </c>
@@ -7602,9 +7569,9 @@
       </c>
       <c r="W89" s="51"/>
     </row>
-    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="118"/>
-      <c r="C90" s="128" t="s">
+    <row r="90" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="126"/>
+      <c r="C90" s="105" t="s">
         <v>101</v>
       </c>
       <c r="D90" s="28" t="s">
@@ -7665,9 +7632,9 @@
       </c>
       <c r="W90" s="44"/>
     </row>
-    <row r="91" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B91" s="119"/>
-      <c r="C91" s="128"/>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B91" s="127"/>
+      <c r="C91" s="105"/>
       <c r="D91" s="28" t="s">
         <v>102</v>
       </c>
@@ -7726,8 +7693,8 @@
       </c>
       <c r="W91" s="44"/>
     </row>
-    <row r="92" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="120"/>
+    <row r="92" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="128"/>
       <c r="C92" s="30" t="s">
         <v>109</v>
       </c>
@@ -7789,8 +7756,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="98" t="s">
+    <row r="93" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="106" t="s">
         <v>86</v>
       </c>
       <c r="C93" s="49" t="s">
@@ -7854,8 +7821,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B94" s="119"/>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B94" s="127"/>
       <c r="C94" s="40" t="s">
         <v>124</v>
       </c>
@@ -7917,8 +7884,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B95" s="119"/>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B95" s="127"/>
       <c r="C95" s="40" t="s">
         <v>123</v>
       </c>
@@ -7980,8 +7947,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B96" s="119"/>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B96" s="127"/>
       <c r="C96" s="40" t="s">
         <v>122</v>
       </c>
@@ -8043,8 +8010,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:23" x14ac:dyDescent="0.3">
-      <c r="B97" s="119"/>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B97" s="127"/>
       <c r="C97" s="40" t="s">
         <v>121</v>
       </c>
@@ -8102,8 +8069,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="120"/>
+    <row r="98" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="128"/>
       <c r="C98" s="30" t="s">
         <v>120</v>
       </c>
@@ -8165,22 +8132,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:23" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="112" t="s">
+    <row r="99" spans="2:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="113"/>
-      <c r="D99" s="113"/>
-      <c r="E99" s="113"/>
-      <c r="F99" s="113"/>
-      <c r="G99" s="113"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
       <c r="H99" s="17">
         <f t="shared" ref="H99:W99" si="5">SUM(H4:H98)</f>
         <v>48.86999999999999</v>
       </c>
       <c r="I99" s="17">
         <f t="shared" si="5"/>
-        <v>48.184699999999999</v>
+        <v>48.584699999999991</v>
       </c>
       <c r="J99" s="17">
         <f t="shared" si="5"/>
@@ -8236,10 +8203,10 @@
       </c>
       <c r="W99" s="18">
         <f t="shared" si="5"/>
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="100" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -8248,24 +8215,24 @@
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="103" t="s">
+      <c r="J100" s="111" t="s">
         <v>11</v>
       </c>
-      <c r="K100" s="104"/>
-      <c r="L100" s="104"/>
-      <c r="M100" s="104"/>
-      <c r="N100" s="104"/>
-      <c r="O100" s="104"/>
-      <c r="P100" s="104"/>
-      <c r="Q100" s="104"/>
-      <c r="R100" s="104"/>
-      <c r="S100" s="104"/>
-      <c r="T100" s="104"/>
-      <c r="U100" s="104"/>
-      <c r="V100" s="104"/>
-      <c r="W100" s="105"/>
-    </row>
-    <row r="101" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K100" s="112"/>
+      <c r="L100" s="112"/>
+      <c r="M100" s="112"/>
+      <c r="N100" s="112"/>
+      <c r="O100" s="112"/>
+      <c r="P100" s="112"/>
+      <c r="Q100" s="112"/>
+      <c r="R100" s="112"/>
+      <c r="S100" s="112"/>
+      <c r="T100" s="112"/>
+      <c r="U100" s="112"/>
+      <c r="V100" s="112"/>
+      <c r="W100" s="113"/>
+    </row>
+    <row r="101" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="61" t="s">
         <v>117</v>
       </c>
@@ -8289,7 +8256,7 @@
       <c r="O101" s="9"/>
       <c r="P101" s="9"/>
     </row>
-    <row r="102" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B102" s="67" t="s">
         <v>16</v>
       </c>
@@ -8299,18 +8266,18 @@
       </c>
       <c r="D102" s="22">
         <f>SUM(I94:I98,I87:I92,I9,I7,I41)</f>
-        <v>11.5</v>
+        <v>11.9</v>
       </c>
       <c r="E102" s="22">
         <f>SUM(C102,-D102)</f>
-        <v>0.76999999999999957</v>
+        <v>0.36999999999999922</v>
       </c>
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
-      <c r="H102" s="121" t="s">
+      <c r="H102" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="I102" s="124"/>
+      <c r="I102" s="101"/>
       <c r="J102" s="10">
         <f>H99-J99</f>
         <v>46.919999999999987</v>
@@ -8365,10 +8332,10 @@
       </c>
       <c r="W102" s="10">
         <f t="shared" si="6"/>
-        <v>0.68529999999998492</v>
-      </c>
-    </row>
-    <row r="103" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0.28529999999998479</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="65" t="s">
         <v>15</v>
       </c>
@@ -8393,7 +8360,7 @@
       <c r="L103" s="3"/>
       <c r="M103" s="3"/>
     </row>
-    <row r="104" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="65" t="s">
         <v>17</v>
       </c>
@@ -8410,29 +8377,29 @@
         <v>-4.1900000000000013</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="H104" s="121" t="s">
+      <c r="H104" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="I104" s="122"/>
-      <c r="J104" s="121">
+      <c r="I104" s="99"/>
+      <c r="J104" s="98">
         <f>H99-I99</f>
-        <v>0.68529999999999092</v>
-      </c>
-      <c r="K104" s="122"/>
-      <c r="L104" s="122"/>
-      <c r="M104" s="122"/>
-      <c r="N104" s="122"/>
-      <c r="O104" s="122"/>
-      <c r="P104" s="122"/>
-      <c r="Q104" s="122"/>
-      <c r="R104" s="122"/>
-      <c r="S104" s="122"/>
-      <c r="T104" s="122"/>
-      <c r="U104" s="122"/>
-      <c r="V104" s="122"/>
-      <c r="W104" s="123"/>
-    </row>
-    <row r="105" spans="2:23" x14ac:dyDescent="0.3">
+        <v>0.28529999999999944</v>
+      </c>
+      <c r="K104" s="99"/>
+      <c r="L104" s="99"/>
+      <c r="M104" s="99"/>
+      <c r="N104" s="99"/>
+      <c r="O104" s="99"/>
+      <c r="P104" s="99"/>
+      <c r="Q104" s="99"/>
+      <c r="R104" s="99"/>
+      <c r="S104" s="99"/>
+      <c r="T104" s="99"/>
+      <c r="U104" s="99"/>
+      <c r="V104" s="99"/>
+      <c r="W104" s="100"/>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -8446,7 +8413,7 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
     </row>
-    <row r="106" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -8460,7 +8427,7 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
     </row>
-    <row r="107" spans="2:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -8474,48 +8441,42 @@
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
     </row>
-    <row r="108" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="2:23" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
     </row>
-    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
     </row>
-    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
     </row>
-    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="7"/>
     </row>
-    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B121" s="7"/>
     </row>
-    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="7"/>
     </row>
-    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B123" s="7"/>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B124" s="6"/>
       <c r="C124" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="J104:W104"/>
-    <mergeCell ref="H102:I102"/>
-    <mergeCell ref="H104:I104"/>
-    <mergeCell ref="C42:C83"/>
-    <mergeCell ref="C19:C37"/>
-    <mergeCell ref="C90:C91"/>
     <mergeCell ref="B42:B87"/>
     <mergeCell ref="J2:W2"/>
     <mergeCell ref="J100:W100"/>
@@ -8526,6 +8487,12 @@
     <mergeCell ref="C7:C9"/>
     <mergeCell ref="B88:B92"/>
     <mergeCell ref="B93:B98"/>
+    <mergeCell ref="J104:W104"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="C42:C83"/>
+    <mergeCell ref="C19:C37"/>
+    <mergeCell ref="C90:C91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8539,7 +8506,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8551,7 +8518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
